--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -7696,11 +7696,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL322"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -8487,7 +8487,7 @@
         <v>30</v>
       </c>
       <c r="F13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>142</v>
@@ -8596,7 +8596,7 @@
         <v>32</v>
       </c>
       <c r="F15" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>146</v>
@@ -8652,7 +8652,7 @@
         <v>33</v>
       </c>
       <c r="F16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>149</v>
@@ -29506,8 +29506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'gift_bag|礼包'!$A$1:$AL$322</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jing_bi|购买鲸币'!$A$1:$AB$25</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -3263,6 +3264,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3290,6 +3292,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3317,6 +3320,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3344,6 +3348,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3371,6 +3376,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3398,6 +3404,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3433,6 +3440,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3460,6 +3468,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3487,6 +3496,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3514,6 +3524,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3541,6 +3552,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3568,6 +3580,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3595,6 +3608,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3622,6 +3636,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3649,6 +3664,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3676,6 +3692,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3703,6 +3720,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3730,6 +3748,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3757,6 +3776,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5767,7 +5787,7 @@
   <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7696,11 +7716,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL322"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H239" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13:G16"/>
+      <selection pane="bottomRight" activeCell="B273" sqref="B273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -27855,8 +27875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27868,7 +27888,7 @@
     <col min="9" max="9" width="37.25" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.625" style="2" customWidth="1"/>
     <col min="11" max="11" width="16.875" style="2" customWidth="1"/>
-    <col min="12" max="14" width="8.75" style="2"/>
+    <col min="12" max="14" width="8.75" style="2" customWidth="1"/>
     <col min="15" max="15" width="24.375" style="2" customWidth="1"/>
     <col min="16" max="16" width="16.75" style="2" customWidth="1"/>
     <col min="17" max="17" width="15.625" style="2" customWidth="1"/>
@@ -28463,7 +28483,7 @@
         <v>1108</v>
       </c>
       <c r="S9" s="11">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="T9" s="11" t="s">
         <v>719</v>
@@ -28525,7 +28545,7 @@
         <v>1111</v>
       </c>
       <c r="S10" s="11">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="T10" s="11" t="s">
         <v>717</v>
@@ -28848,7 +28868,7 @@
       </c>
       <c r="R15" s="40"/>
       <c r="S15" s="11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T15" s="40" t="s">
         <v>723</v>
@@ -29286,7 +29306,7 @@
       </c>
       <c r="R22" s="40"/>
       <c r="S22" s="11">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="T22" s="40" t="s">
         <v>726</v>
@@ -29346,7 +29366,7 @@
       </c>
       <c r="R23" s="40"/>
       <c r="S23" s="11">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="T23" s="40" t="s">
         <v>723</v>
@@ -29409,7 +29429,7 @@
       </c>
       <c r="R24" s="40"/>
       <c r="S24" s="11">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="T24" s="40" t="s">
         <v>723</v>
@@ -29495,6 +29515,7 @@
     <row r="26" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <autoFilter ref="A1:AB25"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="1127">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5045,16 +5045,69 @@
     <t>shop_gold_sum_desc|福利券兑换提示</t>
   </si>
   <si>
-    <t>是否确定消耗50.00福利券来兑换\n50万金币？</t>
-  </si>
-  <si>
-    <t>是否确定消耗10.00福利券来兑换\n10万金币？</t>
-  </si>
-  <si>
-    <t>是否确定消耗1.00福利券来兑换\n1万金币？</t>
-  </si>
-  <si>
     <t>赠1万金币</t>
+  </si>
+  <si>
+    <r>
+      <t>是否确定消耗100福利券来兑换\n1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万金币？</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>是否确定消耗100福利券来兑换\n1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>万金币？</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确定消耗1000福利券来兑换\n100万金币？</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确定消耗5000福利券来兑换\n500万金币？</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -27484,7 +27537,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27875,8 +27928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28497,8 +28550,8 @@
       <c r="Y9" s="11">
         <v>1</v>
       </c>
-      <c r="AB9" s="11" t="s">
-        <v>1122</v>
+      <c r="AB9" s="40" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -28559,8 +28612,8 @@
       <c r="Y10" s="11">
         <v>1</v>
       </c>
-      <c r="AB10" s="11" t="s">
-        <v>1123</v>
+      <c r="AB10" s="40" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -28882,8 +28935,8 @@
       <c r="Y15" s="11">
         <v>1</v>
       </c>
-      <c r="AB15" s="11" t="s">
-        <v>1124</v>
+      <c r="AB15" s="40" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -29443,7 +29496,7 @@
       <c r="Y24" s="11">
         <v>1</v>
       </c>
-      <c r="AB24" s="11" t="s">
+      <c r="AB24" s="40" t="s">
         <v>1124</v>
       </c>
     </row>
@@ -29527,8 +29580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29971,7 +30024,7 @@
         <v>478</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>462</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -4949,6 +4949,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4976,6 +4977,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5003,6 +5005,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5030,6 +5033,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5061,6 +5065,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5088,6 +5093,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5115,6 +5121,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -5142,6 +5149,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -7908,10 +7916,10 @@
   <dimension ref="A1:AL322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H293" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="H322" sqref="H322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -29685,7 +29693,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="U20" sqref="U20:V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30594,10 +30602,10 @@
         <v>515</v>
       </c>
       <c r="F20" s="20">
-        <v>30000</v>
+        <v>300000</v>
       </c>
       <c r="G20" s="20">
-        <v>0</v>
+        <v>2592000</v>
       </c>
       <c r="O20" s="20">
         <v>0</v>
@@ -30609,7 +30617,7 @@
         <v>691</v>
       </c>
       <c r="T20" s="20">
-        <v>30000</v>
+        <v>300000</v>
       </c>
       <c r="U20" s="21" t="s">
         <v>692</v>
@@ -30632,10 +30640,10 @@
         <v>515</v>
       </c>
       <c r="F21" s="20">
-        <v>30000</v>
+        <v>300000</v>
       </c>
       <c r="G21" s="20">
-        <v>0</v>
+        <v>2592000</v>
       </c>
       <c r="O21" s="20">
         <v>0</v>
@@ -30647,7 +30655,7 @@
         <v>695</v>
       </c>
       <c r="T21" s="20">
-        <v>30000</v>
+        <v>300000</v>
       </c>
       <c r="U21" s="21" t="s">
         <v>696</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -7913,13 +7913,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AL322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H293" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H322" sqref="H322"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -8250,7 +8251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -9143,7 +9144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -9202,7 +9203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -9373,7 +9374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -9381,7 +9382,7 @@
         <v>43</v>
       </c>
       <c r="F25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>167</v>
@@ -9429,7 +9430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -9482,7 +9483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -9535,7 +9536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -9588,7 +9589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -9641,7 +9642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -9694,7 +9695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -9747,7 +9748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -9800,7 +9801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -9853,7 +9854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -9906,7 +9907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -9959,7 +9960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -10012,7 +10013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -10065,7 +10066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -10118,7 +10119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -10171,7 +10172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -10224,7 +10225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -10277,7 +10278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -10330,7 +10331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -10383,7 +10384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -10436,7 +10437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -10489,7 +10490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -10542,7 +10543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -10595,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -10648,7 +10649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -10701,7 +10702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -10928,7 +10929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -10936,7 +10937,7 @@
         <v>72</v>
       </c>
       <c r="F54" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>221</v>
@@ -11037,7 +11038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:33" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="22">
         <v>55</v>
       </c>
@@ -11149,7 +11150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -11202,7 +11203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -11255,7 +11256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -11308,7 +11309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -11361,7 +11362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -11414,7 +11415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -11467,7 +11468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -11520,7 +11521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -11573,7 +11574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -11635,7 +11636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -11691,7 +11692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -11747,7 +11748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -11803,7 +11804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -11859,7 +11860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -11915,7 +11916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -11929,7 +11930,7 @@
         <v>101</v>
       </c>
       <c r="F72" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>924</v>
@@ -11977,7 +11978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -11991,7 +11992,7 @@
         <v>102</v>
       </c>
       <c r="F73" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>240</v>
@@ -12036,7 +12037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -12050,7 +12051,7 @@
         <v>103</v>
       </c>
       <c r="F74" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>244</v>
@@ -12095,7 +12096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -12109,7 +12110,7 @@
         <v>104</v>
       </c>
       <c r="F75" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>248</v>
@@ -12154,7 +12155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -12168,7 +12169,7 @@
         <v>105</v>
       </c>
       <c r="F76" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>249</v>
@@ -12213,7 +12214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -12269,7 +12270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -12334,7 +12335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:33" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:33" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="22">
         <v>78</v>
       </c>
@@ -12402,7 +12403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:33" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:33" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="22">
         <v>79</v>
       </c>
@@ -12470,7 +12471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:33" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:33" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="22">
         <v>80</v>
       </c>
@@ -12532,7 +12533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:33" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:33" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="22">
         <v>81</v>
       </c>
@@ -12700,7 +12701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -12708,7 +12709,7 @@
         <v>10002</v>
       </c>
       <c r="F85" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>1128</v>
@@ -12756,7 +12757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -12764,7 +12765,7 @@
         <v>10003</v>
       </c>
       <c r="F86" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>1129</v>
@@ -12806,7 +12807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -12814,7 +12815,7 @@
         <v>10004</v>
       </c>
       <c r="F87" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>1130</v>
@@ -13198,7 +13199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -13552,7 +13553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:33" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="19">
         <v>99</v>
       </c>
@@ -13560,7 +13561,7 @@
         <v>10016</v>
       </c>
       <c r="F100" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" s="19" t="s">
         <v>620</v>
@@ -13615,7 +13616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:33" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="19">
         <v>100</v>
       </c>
@@ -13623,7 +13624,7 @@
         <v>10017</v>
       </c>
       <c r="F101" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101" s="19" t="s">
         <v>571</v>
@@ -13678,7 +13679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:33" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="19">
         <v>101</v>
       </c>
@@ -13686,7 +13687,7 @@
         <v>10018</v>
       </c>
       <c r="F102" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" s="19" t="s">
         <v>289</v>
@@ -13741,7 +13742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:33" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="19">
         <v>102</v>
       </c>
@@ -13749,7 +13750,7 @@
         <v>10019</v>
       </c>
       <c r="F103" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" s="19" t="s">
         <v>620</v>
@@ -13804,7 +13805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:33" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="19">
         <v>103</v>
       </c>
@@ -13812,7 +13813,7 @@
         <v>10020</v>
       </c>
       <c r="F104" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104" s="19" t="s">
         <v>572</v>
@@ -13867,7 +13868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:33" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="19">
         <v>104</v>
       </c>
@@ -13875,7 +13876,7 @@
         <v>10021</v>
       </c>
       <c r="F105" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" s="19" t="s">
         <v>78</v>
@@ -13930,7 +13931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:33" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="19">
         <v>105</v>
       </c>
@@ -13938,7 +13939,7 @@
         <v>10022</v>
       </c>
       <c r="F106" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106" s="19" t="s">
         <v>619</v>
@@ -13993,7 +13994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:33" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="19">
         <v>106</v>
       </c>
@@ -14001,7 +14002,7 @@
         <v>10023</v>
       </c>
       <c r="F107" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107" s="19" t="s">
         <v>289</v>
@@ -14056,7 +14057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:33" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="19">
         <v>107</v>
       </c>
@@ -14064,7 +14065,7 @@
         <v>10024</v>
       </c>
       <c r="F108" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108" s="19" t="s">
         <v>82</v>
@@ -14530,7 +14531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -14538,7 +14539,7 @@
         <v>10032</v>
       </c>
       <c r="F116" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>313</v>
@@ -14592,7 +14593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -14600,7 +14601,7 @@
         <v>10033</v>
       </c>
       <c r="F117" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>317</v>
@@ -15229,7 +15230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -15285,7 +15286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -15713,7 +15714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -15772,7 +15773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -15831,7 +15832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -15890,7 +15891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -15949,7 +15950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -16008,7 +16009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -16253,7 +16254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -16318,7 +16319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -16383,7 +16384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -16448,7 +16449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -16513,7 +16514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -16764,7 +16765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -16826,7 +16827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -16888,7 +16889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -16950,7 +16951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -17012,7 +17013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -17446,7 +17447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -17697,7 +17698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -17705,7 +17706,7 @@
         <v>10084</v>
       </c>
       <c r="F168" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G168" s="5" t="s">
         <v>385</v>
@@ -17762,7 +17763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
         <v>168</v>
       </c>
@@ -17770,7 +17771,7 @@
         <v>10085</v>
       </c>
       <c r="F169" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169" s="5" t="s">
         <v>510</v>
@@ -17824,7 +17825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5">
         <v>169</v>
       </c>
@@ -17832,7 +17833,7 @@
         <v>10086</v>
       </c>
       <c r="F170" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170" s="5" t="s">
         <v>390</v>
@@ -17886,7 +17887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -17951,7 +17952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5">
         <v>171</v>
       </c>
@@ -18016,7 +18017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5">
         <v>172</v>
       </c>
@@ -18081,7 +18082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5">
         <v>173</v>
       </c>
@@ -18146,7 +18147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5">
         <v>174</v>
       </c>
@@ -18211,7 +18212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5">
         <v>175</v>
       </c>
@@ -18276,7 +18277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5">
         <v>176</v>
       </c>
@@ -18341,7 +18342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5">
         <v>177</v>
       </c>
@@ -18406,7 +18407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="5">
         <v>178</v>
       </c>
@@ -18471,7 +18472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5">
         <v>179</v>
       </c>
@@ -18536,7 +18537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5">
         <v>180</v>
       </c>
@@ -18601,7 +18602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5">
         <v>181</v>
       </c>
@@ -18666,7 +18667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5">
         <v>182</v>
       </c>
@@ -18731,7 +18732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -18796,7 +18797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5">
         <v>184</v>
       </c>
@@ -22823,7 +22824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="5">
         <v>246</v>
       </c>
@@ -22888,7 +22889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="5">
         <v>247</v>
       </c>
@@ -22953,7 +22954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="5">
         <v>248</v>
       </c>
@@ -23018,7 +23019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="5">
         <v>249</v>
       </c>
@@ -23026,7 +23027,7 @@
         <v>10166</v>
       </c>
       <c r="F250" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G250" s="8" t="s">
         <v>489</v>
@@ -23148,7 +23149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="5">
         <v>251</v>
       </c>
@@ -23156,7 +23157,7 @@
         <v>10168</v>
       </c>
       <c r="F252" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G252" s="5" t="s">
         <v>512</v>
@@ -23272,7 +23273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="5">
         <v>253</v>
       </c>
@@ -23280,7 +23281,7 @@
         <v>10170</v>
       </c>
       <c r="F254" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>530</v>
@@ -23337,7 +23338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5">
         <v>254</v>
       </c>
@@ -23345,7 +23346,7 @@
         <v>10171</v>
       </c>
       <c r="F255" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G255" s="5" t="s">
         <v>525</v>
@@ -23402,7 +23403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5">
         <v>255</v>
       </c>
@@ -23410,7 +23411,7 @@
         <v>10172</v>
       </c>
       <c r="F256" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G256" s="5" t="s">
         <v>526</v>
@@ -24510,7 +24511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:38" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:38" s="5" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="5">
         <v>272</v>
       </c>
@@ -27399,7 +27400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5">
         <v>318</v>
       </c>
@@ -27407,7 +27408,7 @@
         <v>10235</v>
       </c>
       <c r="F319" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G319" s="5" t="s">
         <v>680</v>
@@ -27455,7 +27456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="5">
         <v>319</v>
       </c>
@@ -27463,7 +27464,7 @@
         <v>10236</v>
       </c>
       <c r="F320" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
         <v>681</v>
@@ -27511,7 +27512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="5">
         <v>320</v>
       </c>
@@ -27573,7 +27574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="5">
         <v>321</v>
       </c>
@@ -27636,7 +27637,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL322"/>
+  <autoFilter ref="A1:AL322">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="1136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="1137">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -3916,10 +3916,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>100000,50,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>100000,80</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -4439,9 +4435,6 @@
   </si>
   <si>
     <t>"3万金币","0.5福利券"</t>
-  </si>
-  <si>
-    <t>"10万金币","50福利券","记牌器1天"</t>
   </si>
   <si>
     <t>"1060万金币","记牌器6天","100福利券赛门票*1"</t>
@@ -5253,6 +5246,18 @@
   </si>
   <si>
     <t>新玩家1元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","shop_gold_sum","prop_3d_fish_lock"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,50,3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万金币","50福利券","锁定*3"</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5468,12 +5473,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5516,10 +5515,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5858,10 +5863,10 @@
       <c r="B2" s="12">
         <v>1</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="24" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="18" t="s">
@@ -5888,10 +5893,10 @@
       <c r="B3" s="12">
         <v>2</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="24" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="18" t="s">
@@ -5918,10 +5923,10 @@
       <c r="B4" s="12">
         <v>3</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="33" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -5993,7 +5998,7 @@
   <cols>
     <col min="1" max="1" width="8.75" style="2"/>
     <col min="2" max="4" width="19.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="26.125" style="23" customWidth="1"/>
     <col min="6" max="7" width="19.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.875" style="2" customWidth="1"/>
     <col min="9" max="9" width="40.375" style="2" customWidth="1"/>
@@ -6027,7 +6032,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -6140,7 +6145,7 @@
         <v>45</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>46</v>
@@ -6220,7 +6225,7 @@
         <v>45</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>46</v>
@@ -6300,7 +6305,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>46</v>
@@ -6380,7 +6385,7 @@
         <v>45</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>46</v>
@@ -6460,7 +6465,7 @@
         <v>45</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>46</v>
@@ -6540,7 +6545,7 @@
         <v>45</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>46</v>
@@ -6620,7 +6625,7 @@
         <v>45</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>46</v>
@@ -6700,7 +6705,7 @@
         <v>45</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>46</v>
@@ -6767,7 +6772,7 @@
       <c r="D10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="25"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="11">
         <v>10045</v>
       </c>
@@ -6780,8 +6785,8 @@
       <c r="I10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="36" t="s">
-        <v>1107</v>
+      <c r="J10" s="34" t="s">
+        <v>1105</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>46</v>
@@ -6848,7 +6853,7 @@
       <c r="D11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="23" t="s">
         <v>69</v>
       </c>
       <c r="F11" s="11">
@@ -6863,8 +6868,8 @@
       <c r="I11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="36" t="s">
-        <v>1108</v>
+      <c r="J11" s="34" t="s">
+        <v>1106</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>46</v>
@@ -6905,7 +6910,7 @@
       <c r="X11" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Y11" s="36" t="s">
+      <c r="Y11" s="34" t="s">
         <v>697</v>
       </c>
       <c r="Z11" s="11" t="s">
@@ -6931,7 +6936,7 @@
       <c r="D12" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="23" t="s">
         <v>73</v>
       </c>
       <c r="G12" s="11" t="s">
@@ -6943,8 +6948,8 @@
       <c r="I12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="36" t="s">
-        <v>1109</v>
+      <c r="J12" s="34" t="s">
+        <v>1107</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>46</v>
@@ -7011,7 +7016,7 @@
       <c r="D13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="23" t="s">
         <v>76</v>
       </c>
       <c r="G13" s="11" t="s">
@@ -7023,8 +7028,8 @@
       <c r="I13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="36" t="s">
-        <v>1110</v>
+      <c r="J13" s="34" t="s">
+        <v>1108</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>46</v>
@@ -7091,7 +7096,7 @@
       <c r="D14" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="23" t="s">
         <v>79</v>
       </c>
       <c r="G14" s="11" t="s">
@@ -7103,8 +7108,8 @@
       <c r="I14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="36" t="s">
-        <v>1111</v>
+      <c r="J14" s="34" t="s">
+        <v>1109</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>46</v>
@@ -7171,7 +7176,7 @@
       <c r="D15" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="23" t="s">
         <v>83</v>
       </c>
       <c r="G15" s="11" t="s">
@@ -7183,8 +7188,8 @@
       <c r="I15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="36" t="s">
-        <v>1112</v>
+      <c r="J15" s="34" t="s">
+        <v>1110</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>46</v>
@@ -7251,7 +7256,7 @@
       <c r="D16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="23" t="s">
         <v>87</v>
       </c>
       <c r="G16" s="11" t="s">
@@ -7263,8 +7268,8 @@
       <c r="I16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="36" t="s">
-        <v>1113</v>
+      <c r="J16" s="34" t="s">
+        <v>1111</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>46</v>
@@ -7305,7 +7310,7 @@
       <c r="X16" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="Y16" s="36" t="s">
+      <c r="Y16" s="34" t="s">
         <v>697</v>
       </c>
       <c r="Z16" s="11" t="s">
@@ -7325,7 +7330,7 @@
       <c r="B17" s="11">
         <v>22</v>
       </c>
-      <c r="E17" s="25"/>
+      <c r="E17" s="23"/>
       <c r="G17" s="11" t="s">
         <v>44</v>
       </c>
@@ -7335,7 +7340,7 @@
       <c r="I17" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="36" t="s">
+      <c r="J17" s="34" t="s">
         <v>730</v>
       </c>
       <c r="K17" s="11" t="s">
@@ -7366,10 +7371,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="W17" s="11" t="s">
         <v>49</v>
@@ -7377,7 +7382,7 @@
       <c r="X17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Y17" s="36" t="s">
+      <c r="Y17" s="34" t="s">
         <v>697</v>
       </c>
       <c r="Z17" s="11" t="s">
@@ -7397,7 +7402,7 @@
       <c r="B18" s="11">
         <v>23</v>
       </c>
-      <c r="E18" s="25"/>
+      <c r="E18" s="23"/>
       <c r="G18" s="11" t="s">
         <v>44</v>
       </c>
@@ -7407,7 +7412,7 @@
       <c r="I18" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="34" t="s">
         <v>731</v>
       </c>
       <c r="K18" s="11" t="s">
@@ -7438,10 +7443,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="W18" s="11" t="s">
         <v>49</v>
@@ -7469,7 +7474,7 @@
       <c r="B19" s="11">
         <v>24</v>
       </c>
-      <c r="E19" s="25"/>
+      <c r="E19" s="23"/>
       <c r="G19" s="11" t="s">
         <v>44</v>
       </c>
@@ -7479,7 +7484,7 @@
       <c r="I19" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="34" t="s">
         <v>732</v>
       </c>
       <c r="K19" s="11" t="s">
@@ -7510,10 +7515,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="W19" s="11" t="s">
         <v>49</v>
@@ -7541,7 +7546,7 @@
       <c r="B20" s="11">
         <v>25</v>
       </c>
-      <c r="E20" s="25"/>
+      <c r="E20" s="23"/>
       <c r="G20" s="11" t="s">
         <v>44</v>
       </c>
@@ -7551,7 +7556,7 @@
       <c r="I20" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="34" t="s">
         <v>733</v>
       </c>
       <c r="K20" s="11" t="s">
@@ -7582,10 +7587,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="W20" s="11" t="s">
         <v>49</v>
@@ -7613,7 +7618,7 @@
       <c r="B21" s="11">
         <v>26</v>
       </c>
-      <c r="E21" s="25"/>
+      <c r="E21" s="23"/>
       <c r="G21" s="11" t="s">
         <v>44</v>
       </c>
@@ -7623,7 +7628,7 @@
       <c r="I21" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J21" s="36" t="s">
+      <c r="J21" s="34" t="s">
         <v>734</v>
       </c>
       <c r="K21" s="11" t="s">
@@ -7654,10 +7659,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="W21" s="11" t="s">
         <v>49</v>
@@ -7685,7 +7690,7 @@
       <c r="B22" s="11">
         <v>27</v>
       </c>
-      <c r="E22" s="25"/>
+      <c r="E22" s="23"/>
       <c r="G22" s="11" t="s">
         <v>44</v>
       </c>
@@ -7695,7 +7700,7 @@
       <c r="I22" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J22" s="36" t="s">
+      <c r="J22" s="34" t="s">
         <v>735</v>
       </c>
       <c r="K22" s="11" t="s">
@@ -7726,10 +7731,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="W22" s="11" t="s">
         <v>49</v>
@@ -7757,7 +7762,7 @@
       <c r="B23" s="11">
         <v>34</v>
       </c>
-      <c r="E23" s="25"/>
+      <c r="E23" s="23"/>
       <c r="G23" s="11" t="s">
         <v>44</v>
       </c>
@@ -7767,7 +7772,7 @@
       <c r="I23" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J23" s="36" t="s">
+      <c r="J23" s="34" t="s">
         <v>736</v>
       </c>
       <c r="K23" s="11" t="s">
@@ -7798,10 +7803,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="W23" s="11" t="s">
         <v>49</v>
@@ -7835,7 +7840,7 @@
       <c r="D24" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="25"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="11">
         <v>10189</v>
       </c>
@@ -7848,7 +7853,7 @@
       <c r="I24" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J24" s="36" t="s">
+      <c r="J24" s="34" t="s">
         <v>737</v>
       </c>
       <c r="K24" s="11" t="s">
@@ -7878,16 +7883,16 @@
       <c r="S24" s="11">
         <v>6</v>
       </c>
-      <c r="T24" s="36" t="s">
+      <c r="T24" s="34" t="s">
         <v>575</v>
       </c>
-      <c r="U24" s="36" t="s">
+      <c r="U24" s="34" t="s">
         <v>576</v>
       </c>
       <c r="W24" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="X24" s="36" t="s">
+      <c r="X24" s="34" t="s">
         <v>574</v>
       </c>
       <c r="Y24" s="11" t="s">
@@ -7913,14 +7918,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AL322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -8251,7 +8255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -8268,7 +8272,7 @@
         <v>120</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="5">
@@ -8445,7 +8449,7 @@
         <v>124</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J8" s="5">
         <v>-6</v>
@@ -8713,7 +8717,7 @@
         <v>142</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J13" s="5">
         <v>-8</v>
@@ -8822,7 +8826,7 @@
         <v>146</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J15" s="5">
         <v>-8</v>
@@ -8878,7 +8882,7 @@
         <v>149</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J16" s="5">
         <v>-8</v>
@@ -9144,7 +9148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -9155,10 +9159,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J21" s="5">
         <v>-11</v>
@@ -9203,7 +9207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -9217,7 +9221,7 @@
         <v>163</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J22" s="5">
         <v>-10</v>
@@ -9273,10 +9277,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="8" t="s">
+        <v>919</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>920</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>921</v>
       </c>
       <c r="J23" s="5">
         <v>-13</v>
@@ -9374,7 +9378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -9430,7 +9434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -9483,7 +9487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -9536,7 +9540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -9589,7 +9593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -9642,7 +9646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -9695,7 +9699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -9748,7 +9752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -9801,7 +9805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -9854,7 +9858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -9907,7 +9911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -9960,7 +9964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -10013,7 +10017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -10066,7 +10070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -10119,7 +10123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -10172,7 +10176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -10225,7 +10229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -10278,7 +10282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -10331,7 +10335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -10384,7 +10388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -10437,7 +10441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -10490,7 +10494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -10543,7 +10547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -10596,7 +10600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -10649,7 +10653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -10702,7 +10706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -10929,7 +10933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -10943,7 +10947,7 @@
         <v>221</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="J54" s="5">
         <v>-13</v>
@@ -11038,7 +11042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:33" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="22">
         <v>55</v>
       </c>
@@ -11048,11 +11052,11 @@
       <c r="F56" s="22">
         <v>1</v>
       </c>
-      <c r="G56" s="40" t="s">
-        <v>1125</v>
+      <c r="G56" s="37" t="s">
+        <v>1123</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J56" s="22">
         <v>-18</v>
@@ -11108,7 +11112,7 @@
         <v>227</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J57" s="5">
         <v>-19</v>
@@ -11150,7 +11154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -11203,7 +11207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -11256,7 +11260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -11309,7 +11313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -11362,7 +11366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -11415,7 +11419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -11468,7 +11472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -11521,7 +11525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -11574,7 +11578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -11588,10 +11592,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="J66" s="5">
         <v>-4</v>
@@ -11636,7 +11640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -11692,7 +11696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -11748,7 +11752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -11804,7 +11808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -11860,7 +11864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -11916,7 +11920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -11933,7 +11937,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J72" s="5">
         <v>-4</v>
@@ -11978,7 +11982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -12037,7 +12041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -12096,7 +12100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -12155,7 +12159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -12214,378 +12218,375 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="5">
+    <row r="77" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="19">
         <v>76</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="19">
         <v>95</v>
       </c>
-      <c r="F77" s="5">
-        <v>1</v>
-      </c>
-      <c r="G77" s="5" t="s">
+      <c r="F77" s="19">
+        <v>1</v>
+      </c>
+      <c r="G77" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="H77" s="5" t="s">
-        <v>1040</v>
-      </c>
-      <c r="J77" s="5">
+      <c r="H77" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J77" s="19">
         <v>-20</v>
       </c>
-      <c r="K77" s="5">
-        <v>0</v>
-      </c>
-      <c r="L77" s="5">
-        <v>0</v>
-      </c>
-      <c r="M77" s="5" t="s">
+      <c r="K77" s="19">
+        <v>0</v>
+      </c>
+      <c r="L77" s="19">
+        <v>0</v>
+      </c>
+      <c r="M77" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="N77" s="5">
+      <c r="N77" s="19">
         <v>100</v>
       </c>
-      <c r="O77" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="P77" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="U77" s="5" t="s">
+      <c r="O77" s="19" t="s">
+        <v>1134</v>
+      </c>
+      <c r="P77" s="19" t="s">
+        <v>1135</v>
+      </c>
+      <c r="U77" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="V77" s="14" t="s">
+      <c r="V77" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="W77" s="7">
-        <v>0</v>
-      </c>
-      <c r="X77" s="5">
+      <c r="W77" s="39">
+        <v>0</v>
+      </c>
+      <c r="X77" s="19">
         <v>2552233600</v>
       </c>
-      <c r="AF77" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG77" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="5">
+      <c r="AF77" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG77" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="19">
         <v>77</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="19">
         <v>96</v>
       </c>
-      <c r="F78" s="5">
-        <v>1</v>
-      </c>
-      <c r="G78" s="5" t="s">
+      <c r="F78" s="19">
+        <v>1</v>
+      </c>
+      <c r="G78" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H78" s="19" t="s">
+        <v>924</v>
+      </c>
+      <c r="J78" s="19">
+        <v>-20</v>
+      </c>
+      <c r="K78" s="19">
+        <v>0</v>
+      </c>
+      <c r="L78" s="19">
+        <v>0</v>
+      </c>
+      <c r="M78" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="N78" s="19">
+        <v>600</v>
+      </c>
+      <c r="O78" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="P78" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="U78" s="19" t="s">
+        <v>580</v>
+      </c>
+      <c r="V78" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="W78" s="39">
+        <v>0</v>
+      </c>
+      <c r="X78" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="Z78" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA78" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="AB78" s="40" t="s">
+        <v>889</v>
+      </c>
+      <c r="AF78" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG78" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" s="5">
+        <v>97</v>
+      </c>
+      <c r="F79" s="5">
+        <v>1</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H79" s="5" t="s">
         <v>925</v>
       </c>
-      <c r="J78" s="5">
+      <c r="J79" s="5">
         <v>-20</v>
       </c>
-      <c r="K78" s="5">
-        <v>0</v>
-      </c>
-      <c r="L78" s="5">
-        <v>0</v>
-      </c>
-      <c r="M78" s="5" t="s">
+      <c r="K79" s="5">
+        <v>0</v>
+      </c>
+      <c r="L79" s="5">
+        <v>0</v>
+      </c>
+      <c r="M79" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="N78" s="5">
-        <v>600</v>
-      </c>
-      <c r="O78" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="P78" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="U78" s="5" t="s">
+      <c r="N79" s="5">
+        <v>1200</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="P79" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="U79" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="V78" s="14" t="s">
+      <c r="V79" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="W78" s="7">
-        <v>0</v>
-      </c>
-      <c r="X78" s="5">
+      <c r="W79" s="7">
+        <v>0</v>
+      </c>
+      <c r="X79" s="5">
         <v>2552233600</v>
       </c>
-      <c r="Z78" s="5" t="s">
+      <c r="Z79" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AA78" s="5" t="s">
+      <c r="AA79" s="5" t="s">
         <v>886</v>
       </c>
-      <c r="AB78" s="10" t="s">
+      <c r="AB79" s="10" t="s">
         <v>890</v>
       </c>
-      <c r="AF78" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG78" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:33" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="22">
-        <v>78</v>
-      </c>
-      <c r="B79" s="22">
-        <v>97</v>
-      </c>
-      <c r="F79" s="22">
-        <v>1</v>
-      </c>
-      <c r="G79" s="22" t="s">
-        <v>1132</v>
-      </c>
-      <c r="H79" s="22" t="s">
+      <c r="AF79" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG79" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+      <c r="B80" s="5">
+        <v>98</v>
+      </c>
+      <c r="F80" s="5">
+        <v>1</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H80" s="5" t="s">
         <v>926</v>
       </c>
-      <c r="J79" s="22">
+      <c r="J80" s="5">
         <v>-20</v>
       </c>
-      <c r="K79" s="22">
-        <v>0</v>
-      </c>
-      <c r="L79" s="22">
-        <v>0</v>
-      </c>
-      <c r="M79" s="22" t="s">
+      <c r="K80" s="5">
+        <v>0</v>
+      </c>
+      <c r="L80" s="5">
+        <v>0</v>
+      </c>
+      <c r="M80" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="N79" s="22">
-        <v>1200</v>
-      </c>
-      <c r="O79" s="22" t="s">
+      <c r="N80" s="5">
+        <v>3000</v>
+      </c>
+      <c r="O80" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="P79" s="22" t="s">
-        <v>771</v>
-      </c>
-      <c r="U79" s="22" t="s">
+      <c r="P80" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="U80" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="V79" s="23" t="s">
+      <c r="V80" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="W79" s="24">
-        <v>0</v>
-      </c>
-      <c r="X79" s="22">
+      <c r="W80" s="7">
+        <v>0</v>
+      </c>
+      <c r="X80" s="5">
         <v>2552233600</v>
       </c>
-      <c r="Y79" s="22">
-        <v>13</v>
-      </c>
-      <c r="Z79" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA79" s="22" t="s">
+      <c r="Y80" s="5">
+        <v>16</v>
+      </c>
+      <c r="Z80" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA80" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="AB79" s="39" t="s">
+      <c r="AB80" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="AF79" s="22">
-        <v>1</v>
-      </c>
-      <c r="AG79" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:33" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="22">
-        <v>79</v>
-      </c>
-      <c r="B80" s="22">
-        <v>98</v>
-      </c>
-      <c r="F80" s="22">
-        <v>1</v>
-      </c>
-      <c r="G80" s="22" t="s">
-        <v>1133</v>
-      </c>
-      <c r="H80" s="22" t="s">
+      <c r="AF80" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG80" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="19">
+        <v>80</v>
+      </c>
+      <c r="B81" s="19">
+        <v>99</v>
+      </c>
+      <c r="F81" s="19">
+        <v>1</v>
+      </c>
+      <c r="G81" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="H81" s="19" t="s">
         <v>927</v>
       </c>
-      <c r="J80" s="22">
+      <c r="J81" s="19">
         <v>-20</v>
       </c>
-      <c r="K80" s="22">
-        <v>0</v>
-      </c>
-      <c r="L80" s="22">
-        <v>0</v>
-      </c>
-      <c r="M80" s="22" t="s">
+      <c r="K81" s="19">
+        <v>0</v>
+      </c>
+      <c r="L81" s="19">
+        <v>0</v>
+      </c>
+      <c r="M81" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="N80" s="22">
-        <v>3000</v>
-      </c>
-      <c r="O80" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="P80" s="22" t="s">
-        <v>772</v>
-      </c>
-      <c r="U80" s="22" t="s">
+      <c r="N81" s="19">
+        <v>4800</v>
+      </c>
+      <c r="O81" s="19" t="s">
+        <v>535</v>
+      </c>
+      <c r="P81" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="U81" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="V80" s="23" t="s">
+      <c r="V81" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="W80" s="24">
-        <v>0</v>
-      </c>
-      <c r="X80" s="22">
+      <c r="W81" s="39">
+        <v>0</v>
+      </c>
+      <c r="X81" s="19">
         <v>2552233600</v>
       </c>
-      <c r="Y80" s="22">
-        <v>16</v>
-      </c>
-      <c r="Z80" s="22" t="s">
+      <c r="Z81" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="AA80" s="22" t="s">
+      <c r="AA81" s="19" t="s">
         <v>888</v>
       </c>
-      <c r="AB80" s="39" t="s">
-        <v>892</v>
-      </c>
-      <c r="AF80" s="22">
-        <v>1</v>
-      </c>
-      <c r="AG80" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:33" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="22">
-        <v>80</v>
-      </c>
-      <c r="B81" s="22">
-        <v>99</v>
-      </c>
-      <c r="F81" s="22">
-        <v>1</v>
-      </c>
-      <c r="G81" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="H81" s="22" t="s">
-        <v>928</v>
-      </c>
-      <c r="J81" s="22">
+      <c r="AF81" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG81" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5">
+        <v>100</v>
+      </c>
+      <c r="F82" s="5">
+        <v>1</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J82" s="5">
         <v>-20</v>
       </c>
-      <c r="K81" s="22">
-        <v>0</v>
-      </c>
-      <c r="L81" s="22">
-        <v>0</v>
-      </c>
-      <c r="M81" s="22" t="s">
+      <c r="K82" s="5">
+        <v>0</v>
+      </c>
+      <c r="L82" s="5">
+        <v>0</v>
+      </c>
+      <c r="M82" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="N81" s="22">
-        <v>4800</v>
-      </c>
-      <c r="O81" s="22" t="s">
-        <v>535</v>
-      </c>
-      <c r="P81" s="22" t="s">
-        <v>773</v>
-      </c>
-      <c r="U81" s="22" t="s">
+      <c r="N82" s="5">
+        <v>9800</v>
+      </c>
+      <c r="O82" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="P82" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="U82" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="V81" s="23" t="s">
+      <c r="V82" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="W81" s="24">
-        <v>0</v>
-      </c>
-      <c r="X81" s="22">
+      <c r="W82" s="7">
+        <v>0</v>
+      </c>
+      <c r="X82" s="5">
         <v>2552233600</v>
       </c>
-      <c r="Z81" s="22" t="s">
-        <v>641</v>
-      </c>
-      <c r="AA81" s="22" t="s">
-        <v>889</v>
-      </c>
-      <c r="AF81" s="22">
-        <v>1</v>
-      </c>
-      <c r="AG81" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:33" s="22" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="22">
-        <v>81</v>
-      </c>
-      <c r="B82" s="22">
-        <v>100</v>
-      </c>
-      <c r="F82" s="22">
-        <v>1</v>
-      </c>
-      <c r="G82" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="H82" s="22" t="s">
-        <v>1041</v>
-      </c>
-      <c r="J82" s="22">
-        <v>-20</v>
-      </c>
-      <c r="K82" s="22">
-        <v>0</v>
-      </c>
-      <c r="L82" s="22">
-        <v>0</v>
-      </c>
-      <c r="M82" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="N82" s="22">
-        <v>9800</v>
-      </c>
-      <c r="O82" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="P82" s="22" t="s">
-        <v>774</v>
-      </c>
-      <c r="U82" s="22" t="s">
-        <v>580</v>
-      </c>
-      <c r="V82" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="W82" s="24">
-        <v>0</v>
-      </c>
-      <c r="X82" s="22">
-        <v>2552233600</v>
-      </c>
-      <c r="AF82" s="22">
-        <v>1</v>
-      </c>
-      <c r="AG82" s="22">
+      <c r="AF82" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG82" s="5">
         <v>1</v>
       </c>
     </row>
@@ -12603,7 +12604,7 @@
         <v>258</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J83" s="5">
         <v>-21</v>
@@ -12659,7 +12660,7 @@
         <v>260</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J84" s="5">
         <v>-22</v>
@@ -12701,7 +12702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -12712,10 +12713,10 @@
         <v>1</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J85" s="5">
         <v>-23</v>
@@ -12757,7 +12758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -12768,10 +12769,10 @@
         <v>1</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J86" s="5">
         <v>-24</v>
@@ -12807,7 +12808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -12818,10 +12819,10 @@
         <v>1</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J87" s="5">
         <v>-25</v>
@@ -12877,7 +12878,7 @@
         <v>261</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J88" s="5">
         <v>-22</v>
@@ -12933,7 +12934,7 @@
         <v>263</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J89" s="5">
         <v>-22</v>
@@ -12989,7 +12990,7 @@
         <v>265</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="J90" s="5">
         <v>-22</v>
@@ -13045,7 +13046,7 @@
         <v>266</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J91" s="5">
         <v>-22</v>
@@ -13101,7 +13102,7 @@
         <v>267</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J92" s="5">
         <v>-22</v>
@@ -13157,7 +13158,7 @@
         <v>268</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J93" s="5">
         <v>-22</v>
@@ -13199,7 +13200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -13266,7 +13267,7 @@
         <v>271</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J95" s="5">
         <v>-23</v>
@@ -13325,7 +13326,7 @@
         <v>272</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J96" s="5">
         <v>-23</v>
@@ -13381,7 +13382,7 @@
         <v>273</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="J97" s="5">
         <v>-24</v>
@@ -13443,7 +13444,7 @@
         <v>278</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J98" s="5">
         <v>-24</v>
@@ -13505,7 +13506,7 @@
         <v>283</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="J99" s="5">
         <v>-24</v>
@@ -13553,7 +13554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:33" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="19">
         <v>99</v>
       </c>
@@ -13567,7 +13568,7 @@
         <v>620</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J100" s="19">
         <v>-25</v>
@@ -13616,7 +13617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:33" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="19">
         <v>100</v>
       </c>
@@ -13630,7 +13631,7 @@
         <v>571</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J101" s="19">
         <v>-25</v>
@@ -13679,7 +13680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:33" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="19">
         <v>101</v>
       </c>
@@ -13693,7 +13694,7 @@
         <v>289</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J102" s="19">
         <v>-25</v>
@@ -13742,7 +13743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:33" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="19">
         <v>102</v>
       </c>
@@ -13756,7 +13757,7 @@
         <v>620</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J103" s="19">
         <v>-25</v>
@@ -13805,7 +13806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:33" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="19">
         <v>103</v>
       </c>
@@ -13819,7 +13820,7 @@
         <v>572</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J104" s="19">
         <v>-25</v>
@@ -13868,7 +13869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:33" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="19">
         <v>104</v>
       </c>
@@ -13882,7 +13883,7 @@
         <v>78</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J105" s="19">
         <v>-25</v>
@@ -13931,7 +13932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:33" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="19">
         <v>105</v>
       </c>
@@ -13945,7 +13946,7 @@
         <v>619</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J106" s="19">
         <v>-25</v>
@@ -13994,7 +13995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:33" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="19">
         <v>106</v>
       </c>
@@ -14008,7 +14009,7 @@
         <v>289</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J107" s="19">
         <v>-25</v>
@@ -14057,7 +14058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:33" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:33" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="19">
         <v>107</v>
       </c>
@@ -14071,7 +14072,7 @@
         <v>82</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J108" s="19">
         <v>-25</v>
@@ -14191,7 +14192,7 @@
         <v>295</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="J110" s="5">
         <v>-26</v>
@@ -14253,7 +14254,7 @@
         <v>300</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="J111" s="5">
         <v>-26</v>
@@ -14315,7 +14316,7 @@
         <v>303</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="J112" s="5">
         <v>-26</v>
@@ -14377,7 +14378,7 @@
         <v>306</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J113" s="5">
         <v>-26</v>
@@ -14433,7 +14434,7 @@
         <v>309</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J114" s="5">
         <v>-26</v>
@@ -14489,7 +14490,7 @@
         <v>311</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J115" s="5">
         <v>-26</v>
@@ -14531,7 +14532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -14545,7 +14546,7 @@
         <v>313</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J116" s="5">
         <v>-27</v>
@@ -14593,7 +14594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -14607,7 +14608,7 @@
         <v>317</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="J117" s="5">
         <v>-27</v>
@@ -14669,7 +14670,7 @@
         <v>318</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="J118" s="5">
         <v>-28</v>
@@ -14725,7 +14726,7 @@
         <v>320</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="J119" s="5">
         <v>-28</v>
@@ -14781,7 +14782,7 @@
         <v>323</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="J120" s="5">
         <v>-28</v>
@@ -14837,7 +14838,7 @@
         <v>326</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J121" s="5">
         <v>-28</v>
@@ -14896,7 +14897,7 @@
         <v>330</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J122" s="5">
         <v>-28</v>
@@ -14955,7 +14956,7 @@
         <v>333</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J123" s="5">
         <v>-28</v>
@@ -15014,7 +15015,7 @@
         <v>309</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="J124" s="5">
         <v>-28</v>
@@ -15070,7 +15071,7 @@
         <v>336</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="J125" s="5">
         <v>-28</v>
@@ -15126,7 +15127,7 @@
         <v>338</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="J126" s="5">
         <v>-28</v>
@@ -15182,7 +15183,7 @@
         <v>340</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="J127" s="5">
         <v>-29</v>
@@ -15230,7 +15231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:33" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -15286,7 +15287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -15356,7 +15357,7 @@
         <v>346</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J130" s="5">
         <v>-28</v>
@@ -15418,7 +15419,7 @@
         <v>254</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J131" s="5">
         <v>-28</v>
@@ -15480,7 +15481,7 @@
         <v>350</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J132" s="5">
         <v>-28</v>
@@ -15542,7 +15543,7 @@
         <v>352</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="J133" s="5">
         <v>-28</v>
@@ -15604,7 +15605,7 @@
         <v>353</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="J134" s="5">
         <v>-28</v>
@@ -15666,7 +15667,7 @@
         <v>355</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="J135" s="5">
         <v>-28</v>
@@ -15714,7 +15715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -15728,7 +15729,7 @@
         <v>473</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J136" s="5">
         <v>-28</v>
@@ -15773,7 +15774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -15787,7 +15788,7 @@
         <v>474</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J137" s="5">
         <v>-28</v>
@@ -15832,7 +15833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -15846,7 +15847,7 @@
         <v>475</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J138" s="5">
         <v>-28</v>
@@ -15891,7 +15892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -15905,7 +15906,7 @@
         <v>476</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J139" s="5">
         <v>-28</v>
@@ -15950,7 +15951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -15964,7 +15965,7 @@
         <v>477</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J140" s="5">
         <v>-28</v>
@@ -16009,7 +16010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -16023,7 +16024,7 @@
         <v>478</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J141" s="5">
         <v>-28</v>
@@ -16082,7 +16083,7 @@
         <v>356</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="J142" s="5">
         <v>-28</v>
@@ -16144,7 +16145,7 @@
         <v>357</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="J143" s="5">
         <v>-28</v>
@@ -16206,7 +16207,7 @@
         <v>358</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="J144" s="5">
         <v>-28</v>
@@ -16254,7 +16255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -16271,7 +16272,7 @@
         <v>360</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J145" s="5">
         <v>-28</v>
@@ -16298,7 +16299,7 @@
         <v>90</v>
       </c>
       <c r="S145" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="U145" s="5" t="s">
         <v>581</v>
@@ -16319,7 +16320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -16336,7 +16337,7 @@
         <v>362</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J146" s="5">
         <v>-28</v>
@@ -16363,7 +16364,7 @@
         <v>162</v>
       </c>
       <c r="S146" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="U146" s="5" t="s">
         <v>581</v>
@@ -16384,7 +16385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -16401,7 +16402,7 @@
         <v>363</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J147" s="5">
         <v>-28</v>
@@ -16428,7 +16429,7 @@
         <v>162</v>
       </c>
       <c r="S147" s="5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="U147" s="5" t="s">
         <v>581</v>
@@ -16449,7 +16450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -16466,7 +16467,7 @@
         <v>364</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J148" s="5">
         <v>-28</v>
@@ -16493,7 +16494,7 @@
         <v>162</v>
       </c>
       <c r="S148" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="U148" s="5" t="s">
         <v>581</v>
@@ -16514,7 +16515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -16531,7 +16532,7 @@
         <v>365</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J149" s="5">
         <v>-28</v>
@@ -16558,7 +16559,7 @@
         <v>162</v>
       </c>
       <c r="S149" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="U149" s="5" t="s">
         <v>581</v>
@@ -16593,7 +16594,7 @@
         <v>366</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="J150" s="5">
         <v>-28</v>
@@ -16655,7 +16656,7 @@
         <v>367</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="J151" s="5">
         <v>-28</v>
@@ -16717,7 +16718,7 @@
         <v>368</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="J152" s="5">
         <v>-28</v>
@@ -16765,7 +16766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -16776,10 +16777,10 @@
         <v>1</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J153" s="5">
         <v>-28</v>
@@ -16806,7 +16807,7 @@
         <v>90</v>
       </c>
       <c r="S153" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="U153" s="5" t="s">
         <v>583</v>
@@ -16827,7 +16828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -16841,7 +16842,7 @@
         <v>369</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J154" s="5">
         <v>-28</v>
@@ -16868,7 +16869,7 @@
         <v>90</v>
       </c>
       <c r="S154" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="U154" s="5" t="s">
         <v>583</v>
@@ -16889,7 +16890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -16903,7 +16904,7 @@
         <v>370</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J155" s="5">
         <v>-28</v>
@@ -16930,7 +16931,7 @@
         <v>90</v>
       </c>
       <c r="S155" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="U155" s="5" t="s">
         <v>583</v>
@@ -16951,7 +16952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -16965,7 +16966,7 @@
         <v>371</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J156" s="5">
         <v>-28</v>
@@ -16992,7 +16993,7 @@
         <v>90</v>
       </c>
       <c r="S156" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="U156" s="5" t="s">
         <v>583</v>
@@ -17013,7 +17014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -17027,7 +17028,7 @@
         <v>372</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="J157" s="5">
         <v>-28</v>
@@ -17054,7 +17055,7 @@
         <v>90</v>
       </c>
       <c r="S157" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="U157" s="5" t="s">
         <v>583</v>
@@ -17089,7 +17090,7 @@
         <v>373</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J158" s="5">
         <v>-28</v>
@@ -17151,7 +17152,7 @@
         <v>375</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J159" s="5">
         <v>-28</v>
@@ -17213,7 +17214,7 @@
         <v>377</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="J160" s="5">
         <v>-28</v>
@@ -17275,7 +17276,7 @@
         <v>379</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J161" s="5">
         <v>-28</v>
@@ -17337,7 +17338,7 @@
         <v>380</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J162" s="5">
         <v>-28</v>
@@ -17399,7 +17400,7 @@
         <v>381</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="J163" s="5">
         <v>-28</v>
@@ -17447,7 +17448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -17458,10 +17459,10 @@
         <v>1</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="I164" s="5">
         <v>21032</v>
@@ -17485,7 +17486,7 @@
         <v>222</v>
       </c>
       <c r="P164" s="10" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="U164" s="5" t="s">
         <v>580</v>
@@ -17526,7 +17527,7 @@
         <v>382</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J165" s="5">
         <v>-28</v>
@@ -17588,7 +17589,7 @@
         <v>383</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J166" s="5">
         <v>-28</v>
@@ -17650,7 +17651,7 @@
         <v>384</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="J167" s="5">
         <v>-28</v>
@@ -17698,7 +17699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -17712,7 +17713,7 @@
         <v>385</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J168" s="5">
         <v>-28</v>
@@ -17763,7 +17764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
         <v>168</v>
       </c>
@@ -17825,7 +17826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5">
         <v>169</v>
       </c>
@@ -17839,7 +17840,7 @@
         <v>390</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J170" s="5">
         <v>-28</v>
@@ -17887,7 +17888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -17901,7 +17902,7 @@
         <v>391</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J171" s="5">
         <v>-28</v>
@@ -17952,7 +17953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5">
         <v>171</v>
       </c>
@@ -17966,7 +17967,7 @@
         <v>393</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J172" s="5">
         <v>-28</v>
@@ -18017,7 +18018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5">
         <v>172</v>
       </c>
@@ -18031,7 +18032,7 @@
         <v>395</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J173" s="5">
         <v>-28</v>
@@ -18082,7 +18083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5">
         <v>173</v>
       </c>
@@ -18096,7 +18097,7 @@
         <v>397</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J174" s="5">
         <v>-28</v>
@@ -18147,7 +18148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5">
         <v>174</v>
       </c>
@@ -18161,7 +18162,7 @@
         <v>482</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J175" s="5">
         <v>-28</v>
@@ -18212,7 +18213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5">
         <v>175</v>
       </c>
@@ -18226,7 +18227,7 @@
         <v>483</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J176" s="5">
         <v>-28</v>
@@ -18277,7 +18278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5">
         <v>176</v>
       </c>
@@ -18291,7 +18292,7 @@
         <v>403</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J177" s="5">
         <v>-28</v>
@@ -18342,7 +18343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5">
         <v>177</v>
       </c>
@@ -18356,7 +18357,7 @@
         <v>407</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J178" s="5">
         <v>-28</v>
@@ -18407,7 +18408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="5">
         <v>178</v>
       </c>
@@ -18421,7 +18422,7 @@
         <v>484</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J179" s="5">
         <v>-28</v>
@@ -18472,7 +18473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5">
         <v>179</v>
       </c>
@@ -18486,7 +18487,7 @@
         <v>409</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J180" s="5">
         <v>-28</v>
@@ -18537,7 +18538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5">
         <v>180</v>
       </c>
@@ -18551,7 +18552,7 @@
         <v>411</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J181" s="5">
         <v>-28</v>
@@ -18602,7 +18603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5">
         <v>181</v>
       </c>
@@ -18616,7 +18617,7 @@
         <v>413</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J182" s="5">
         <v>-28</v>
@@ -18667,7 +18668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5">
         <v>182</v>
       </c>
@@ -18681,7 +18682,7 @@
         <v>415</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J183" s="5">
         <v>-28</v>
@@ -18732,7 +18733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -18746,7 +18747,7 @@
         <v>416</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J184" s="5">
         <v>-28</v>
@@ -18797,7 +18798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5">
         <v>184</v>
       </c>
@@ -18811,7 +18812,7 @@
         <v>417</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J185" s="5">
         <v>-28</v>
@@ -18876,7 +18877,7 @@
         <v>340</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="J186" s="5">
         <v>-29</v>
@@ -18897,13 +18898,13 @@
         <v>491</v>
       </c>
       <c r="P186" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="R186" s="5" t="s">
         <v>343</v>
       </c>
       <c r="S186" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="U186" s="5" t="s">
         <v>580</v>
@@ -18938,7 +18939,7 @@
         <v>391</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J187" s="5">
         <v>-28</v>
@@ -19003,7 +19004,7 @@
         <v>393</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J188" s="5">
         <v>-28</v>
@@ -19068,7 +19069,7 @@
         <v>395</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J189" s="5">
         <v>-28</v>
@@ -19133,7 +19134,7 @@
         <v>397</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J190" s="5">
         <v>-28</v>
@@ -19198,7 +19199,7 @@
         <v>399</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J191" s="5">
         <v>-28</v>
@@ -19263,7 +19264,7 @@
         <v>401</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="J192" s="5">
         <v>-28</v>
@@ -19328,7 +19329,7 @@
         <v>403</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="J193" s="5">
         <v>-28</v>
@@ -19393,7 +19394,7 @@
         <v>405</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="J194" s="5">
         <v>-28</v>
@@ -19458,7 +19459,7 @@
         <v>407</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="J195" s="5">
         <v>-28</v>
@@ -19523,7 +19524,7 @@
         <v>409</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J196" s="5">
         <v>-28</v>
@@ -19588,7 +19589,7 @@
         <v>411</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J197" s="5">
         <v>-28</v>
@@ -19653,7 +19654,7 @@
         <v>413</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J198" s="5">
         <v>-28</v>
@@ -19718,7 +19719,7 @@
         <v>415</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J199" s="5">
         <v>-28</v>
@@ -19783,7 +19784,7 @@
         <v>416</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J200" s="5">
         <v>-28</v>
@@ -19848,7 +19849,7 @@
         <v>417</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J201" s="5">
         <v>-28</v>
@@ -19913,7 +19914,7 @@
         <v>391</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J202" s="5">
         <v>-28</v>
@@ -19978,7 +19979,7 @@
         <v>393</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J203" s="5">
         <v>-28</v>
@@ -20043,7 +20044,7 @@
         <v>395</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J204" s="5">
         <v>-28</v>
@@ -20108,7 +20109,7 @@
         <v>397</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J205" s="5">
         <v>-28</v>
@@ -20173,7 +20174,7 @@
         <v>399</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J206" s="5">
         <v>-28</v>
@@ -20238,7 +20239,7 @@
         <v>401</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="J207" s="5">
         <v>-28</v>
@@ -20303,7 +20304,7 @@
         <v>403</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="J208" s="5">
         <v>-28</v>
@@ -20368,7 +20369,7 @@
         <v>405</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="J209" s="5">
         <v>-28</v>
@@ -20433,7 +20434,7 @@
         <v>407</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="J210" s="5">
         <v>-28</v>
@@ -20498,7 +20499,7 @@
         <v>409</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J211" s="5">
         <v>-28</v>
@@ -20563,7 +20564,7 @@
         <v>411</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J212" s="5">
         <v>-28</v>
@@ -20628,7 +20629,7 @@
         <v>413</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J213" s="5">
         <v>-28</v>
@@ -20693,7 +20694,7 @@
         <v>415</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J214" s="5">
         <v>-28</v>
@@ -20758,7 +20759,7 @@
         <v>416</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J215" s="5">
         <v>-28</v>
@@ -20823,7 +20824,7 @@
         <v>417</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J216" s="5">
         <v>-28</v>
@@ -20888,7 +20889,7 @@
         <v>391</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J217" s="5">
         <v>-28</v>
@@ -20953,7 +20954,7 @@
         <v>393</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J218" s="5">
         <v>-28</v>
@@ -21018,7 +21019,7 @@
         <v>395</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J219" s="5">
         <v>-28</v>
@@ -21083,7 +21084,7 @@
         <v>397</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J220" s="5">
         <v>-28</v>
@@ -21148,7 +21149,7 @@
         <v>399</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J221" s="5">
         <v>-28</v>
@@ -21213,7 +21214,7 @@
         <v>401</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="J222" s="5">
         <v>-28</v>
@@ -21278,7 +21279,7 @@
         <v>403</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="J223" s="5">
         <v>-28</v>
@@ -21343,7 +21344,7 @@
         <v>405</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="J224" s="5">
         <v>-28</v>
@@ -21408,7 +21409,7 @@
         <v>407</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="J225" s="5">
         <v>-28</v>
@@ -21473,7 +21474,7 @@
         <v>409</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J226" s="5">
         <v>-28</v>
@@ -21538,7 +21539,7 @@
         <v>411</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J227" s="5">
         <v>-28</v>
@@ -21603,7 +21604,7 @@
         <v>413</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J228" s="5">
         <v>-28</v>
@@ -21668,7 +21669,7 @@
         <v>415</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J229" s="5">
         <v>-28</v>
@@ -21733,7 +21734,7 @@
         <v>416</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J230" s="5">
         <v>-28</v>
@@ -21798,7 +21799,7 @@
         <v>417</v>
       </c>
       <c r="H231" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J231" s="5">
         <v>-28</v>
@@ -21863,7 +21864,7 @@
         <v>391</v>
       </c>
       <c r="H232" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J232" s="5">
         <v>-28</v>
@@ -21928,7 +21929,7 @@
         <v>393</v>
       </c>
       <c r="H233" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J233" s="5">
         <v>-28</v>
@@ -21993,7 +21994,7 @@
         <v>395</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J234" s="5">
         <v>-28</v>
@@ -22058,7 +22059,7 @@
         <v>397</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J235" s="5">
         <v>-28</v>
@@ -22123,7 +22124,7 @@
         <v>399</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J236" s="5">
         <v>-28</v>
@@ -22188,7 +22189,7 @@
         <v>401</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="J237" s="5">
         <v>-28</v>
@@ -22253,7 +22254,7 @@
         <v>403</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="J238" s="5">
         <v>-28</v>
@@ -22318,7 +22319,7 @@
         <v>405</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="J239" s="5">
         <v>-28</v>
@@ -22383,7 +22384,7 @@
         <v>407</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="J240" s="5">
         <v>-28</v>
@@ -22448,7 +22449,7 @@
         <v>409</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J241" s="5">
         <v>-28</v>
@@ -22513,7 +22514,7 @@
         <v>411</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J242" s="5">
         <v>-28</v>
@@ -22578,7 +22579,7 @@
         <v>413</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J243" s="5">
         <v>-28</v>
@@ -22643,7 +22644,7 @@
         <v>415</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J244" s="5">
         <v>-28</v>
@@ -22708,7 +22709,7 @@
         <v>416</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J245" s="5">
         <v>-28</v>
@@ -22773,7 +22774,7 @@
         <v>417</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J246" s="5">
         <v>-28</v>
@@ -22824,7 +22825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="5">
         <v>246</v>
       </c>
@@ -22835,10 +22836,10 @@
         <v>1</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J247" s="5">
         <v>-28</v>
@@ -22889,7 +22890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="5">
         <v>247</v>
       </c>
@@ -22903,7 +22904,7 @@
         <v>471</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J248" s="5">
         <v>-28</v>
@@ -22954,7 +22955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="5">
         <v>248</v>
       </c>
@@ -22968,7 +22969,7 @@
         <v>472</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J249" s="5">
         <v>-28</v>
@@ -23019,7 +23020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="5">
         <v>249</v>
       </c>
@@ -23033,7 +23034,7 @@
         <v>489</v>
       </c>
       <c r="H250" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J250" s="5">
         <v>-28</v>
@@ -23095,7 +23096,7 @@
         <v>340</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="J251" s="5">
         <v>-29</v>
@@ -23116,13 +23117,13 @@
         <v>528</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="R251" s="5" t="s">
         <v>343</v>
       </c>
       <c r="S251" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="U251" s="5" t="s">
         <v>580</v>
@@ -23149,7 +23150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="5">
         <v>251</v>
       </c>
@@ -23163,7 +23164,7 @@
         <v>512</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="J252" s="5">
         <v>-30</v>
@@ -23225,7 +23226,7 @@
         <v>513</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="J253" s="5">
         <v>-30</v>
@@ -23246,7 +23247,7 @@
         <v>533</v>
       </c>
       <c r="P253" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="U253" s="5" t="s">
         <v>583</v>
@@ -23273,7 +23274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="5">
         <v>253</v>
       </c>
@@ -23287,7 +23288,7 @@
         <v>530</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="J254" s="5">
         <v>-31</v>
@@ -23308,7 +23309,7 @@
         <v>532</v>
       </c>
       <c r="P254" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="U254" s="5" t="s">
         <v>583</v>
@@ -23338,7 +23339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5">
         <v>254</v>
       </c>
@@ -23352,7 +23353,7 @@
         <v>525</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="J255" s="5">
         <v>-31</v>
@@ -23403,7 +23404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5">
         <v>255</v>
       </c>
@@ -23417,7 +23418,7 @@
         <v>526</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="J256" s="5">
         <v>-31</v>
@@ -23482,7 +23483,7 @@
         <v>534</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="J257" s="5">
         <v>-31</v>
@@ -23509,7 +23510,7 @@
         <v>535</v>
       </c>
       <c r="S257" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="U257" s="5" t="s">
         <v>580</v>
@@ -23550,7 +23551,7 @@
         <v>566</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="J258" s="5">
         <v>-31</v>
@@ -23615,7 +23616,7 @@
         <v>393</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="J259" s="5">
         <v>-31</v>
@@ -23680,7 +23681,7 @@
         <v>395</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="J260" s="5">
         <v>-31</v>
@@ -23745,7 +23746,7 @@
         <v>397</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="J261" s="5">
         <v>-31</v>
@@ -23810,7 +23811,7 @@
         <v>399</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J262" s="5">
         <v>-31</v>
@@ -23875,7 +23876,7 @@
         <v>401</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J263" s="5">
         <v>-31</v>
@@ -23940,7 +23941,7 @@
         <v>537</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J264" s="5">
         <v>-31</v>
@@ -24005,7 +24006,7 @@
         <v>538</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J265" s="5">
         <v>-31</v>
@@ -24070,7 +24071,7 @@
         <v>539</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J266" s="5">
         <v>-31</v>
@@ -24135,7 +24136,7 @@
         <v>540</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J267" s="5">
         <v>-31</v>
@@ -24200,7 +24201,7 @@
         <v>541</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J268" s="5">
         <v>-31</v>
@@ -24265,7 +24266,7 @@
         <v>542</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="J269" s="5">
         <v>-31</v>
@@ -24330,7 +24331,7 @@
         <v>415</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J270" s="5">
         <v>-31</v>
@@ -24395,7 +24396,7 @@
         <v>416</v>
       </c>
       <c r="H271" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="J271" s="5">
         <v>-31</v>
@@ -24460,7 +24461,7 @@
         <v>417</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="J272" s="5">
         <v>-31</v>
@@ -24511,7 +24512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:38" s="5" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:38" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A273" s="5">
         <v>272</v>
       </c>
@@ -24583,7 +24584,7 @@
         <v>578</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I274" s="5"/>
       <c r="J274" s="5">
@@ -24656,7 +24657,7 @@
         <v>584</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J275" s="5">
         <v>-31</v>
@@ -24721,7 +24722,7 @@
         <v>585</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="J276" s="5">
         <v>-31</v>
@@ -24786,7 +24787,7 @@
         <v>586</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J277" s="5">
         <v>-31</v>
@@ -24851,7 +24852,7 @@
         <v>587</v>
       </c>
       <c r="H278" s="5" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J278" s="5">
         <v>-31</v>
@@ -24916,7 +24917,7 @@
         <v>588</v>
       </c>
       <c r="H279" s="5" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J279" s="5">
         <v>-31</v>
@@ -24981,7 +24982,7 @@
         <v>589</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J280" s="5">
         <v>-31</v>
@@ -25046,7 +25047,7 @@
         <v>590</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J281" s="5">
         <v>-31</v>
@@ -25111,7 +25112,7 @@
         <v>591</v>
       </c>
       <c r="H282" s="5" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J282" s="5">
         <v>-31</v>
@@ -25176,7 +25177,7 @@
         <v>592</v>
       </c>
       <c r="H283" s="5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J283" s="5">
         <v>-31</v>
@@ -25241,7 +25242,7 @@
         <v>593</v>
       </c>
       <c r="H284" s="5" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="J284" s="5">
         <v>-31</v>
@@ -25864,7 +25865,7 @@
         <v>661</v>
       </c>
       <c r="H294" s="5" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="J294" s="5">
         <v>-31</v>
@@ -25926,7 +25927,7 @@
         <v>662</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="J295" s="5">
         <v>-31</v>
@@ -25988,7 +25989,7 @@
         <v>663</v>
       </c>
       <c r="H296" s="5" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J296" s="5">
         <v>-31</v>
@@ -26050,7 +26051,7 @@
         <v>664</v>
       </c>
       <c r="H297" s="5" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J297" s="5">
         <v>-31</v>
@@ -26112,7 +26113,7 @@
         <v>665</v>
       </c>
       <c r="H298" s="5" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="J298" s="5">
         <v>-31</v>
@@ -26174,7 +26175,7 @@
         <v>666</v>
       </c>
       <c r="H299" s="5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="J299" s="5">
         <v>-31</v>
@@ -26236,7 +26237,7 @@
         <v>667</v>
       </c>
       <c r="H300" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J300" s="5">
         <v>-31</v>
@@ -26298,7 +26299,7 @@
         <v>668</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J301" s="5">
         <v>-31</v>
@@ -26360,7 +26361,7 @@
         <v>669</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="J302" s="5">
         <v>-31</v>
@@ -26422,7 +26423,7 @@
         <v>670</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="J303" s="5">
         <v>-31</v>
@@ -26484,7 +26485,7 @@
         <v>671</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="J304" s="5">
         <v>-31</v>
@@ -26546,7 +26547,7 @@
         <v>672</v>
       </c>
       <c r="H305" s="5" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="J305" s="5">
         <v>-31</v>
@@ -26608,7 +26609,7 @@
         <v>673</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="J306" s="5">
         <v>-31</v>
@@ -26670,7 +26671,7 @@
         <v>674</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="J307" s="5">
         <v>-31</v>
@@ -26732,7 +26733,7 @@
         <v>675</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="J308" s="5">
         <v>-31</v>
@@ -26794,7 +26795,7 @@
         <v>676</v>
       </c>
       <c r="H309" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J309" s="5">
         <v>-31</v>
@@ -26853,10 +26854,10 @@
         <v>0</v>
       </c>
       <c r="G310" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H310" s="5" t="s">
         <v>1028</v>
-      </c>
-      <c r="H310" s="5" t="s">
-        <v>1029</v>
       </c>
       <c r="J310" s="5">
         <v>-31</v>
@@ -26915,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J311" s="5">
         <v>-31</v>
@@ -26977,10 +26978,10 @@
         <v>0</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J312" s="5">
         <v>-31</v>
@@ -27039,10 +27040,10 @@
         <v>0</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J313" s="5">
         <v>-31</v>
@@ -27101,10 +27102,10 @@
         <v>0</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J314" s="5">
         <v>-31</v>
@@ -27163,10 +27164,10 @@
         <v>0</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="J315" s="5">
         <v>-31</v>
@@ -27400,7 +27401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5">
         <v>318</v>
       </c>
@@ -27414,7 +27415,7 @@
         <v>680</v>
       </c>
       <c r="H319" s="5" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="J319" s="5">
         <v>-23</v>
@@ -27456,7 +27457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A320" s="5">
         <v>319</v>
       </c>
@@ -27470,7 +27471,7 @@
         <v>681</v>
       </c>
       <c r="H320" s="5" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="J320" s="5">
         <v>-25</v>
@@ -27512,7 +27513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A321" s="5">
         <v>320</v>
       </c>
@@ -27526,7 +27527,7 @@
         <v>684</v>
       </c>
       <c r="H321" s="5" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="J321" s="5">
         <v>-23</v>
@@ -27574,7 +27575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:37" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A322" s="5">
         <v>321</v>
       </c>
@@ -27637,13 +27638,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL322">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -27656,7 +27650,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27859,7 +27853,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -28099,10 +28093,10 @@
         <v>436</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>22</v>
@@ -28159,7 +28153,7 @@
         <v>42</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -28202,16 +28196,16 @@
       <c r="O2" s="11">
         <v>3</v>
       </c>
-      <c r="P2" s="36" t="s">
-        <v>1077</v>
-      </c>
-      <c r="R2" s="36" t="s">
-        <v>1114</v>
+      <c r="P2" s="34" t="s">
+        <v>1075</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>1112</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="36" t="s">
+      <c r="T2" s="34" t="s">
         <v>712</v>
       </c>
       <c r="U2" s="11" t="s">
@@ -28267,16 +28261,16 @@
       <c r="O3" s="11">
         <v>4</v>
       </c>
-      <c r="P3" s="36" t="s">
-        <v>1078</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>1114</v>
+      <c r="P3" s="34" t="s">
+        <v>1076</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>1112</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="36" t="s">
+      <c r="T3" s="34" t="s">
         <v>714</v>
       </c>
       <c r="U3" s="11" t="s">
@@ -28332,11 +28326,11 @@
       <c r="O4" s="11">
         <v>5</v>
       </c>
-      <c r="P4" s="36" t="s">
-        <v>1079</v>
-      </c>
-      <c r="R4" s="36" t="s">
-        <v>1115</v>
+      <c r="P4" s="34" t="s">
+        <v>1077</v>
+      </c>
+      <c r="R4" s="34" t="s">
+        <v>1113</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>55</v>
@@ -28397,16 +28391,16 @@
       <c r="O5" s="11">
         <v>6</v>
       </c>
-      <c r="P5" s="36" t="s">
-        <v>1080</v>
-      </c>
-      <c r="R5" s="36" t="s">
-        <v>1115</v>
+      <c r="P5" s="34" t="s">
+        <v>1078</v>
+      </c>
+      <c r="R5" s="34" t="s">
+        <v>1113</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T5" s="36" t="s">
+      <c r="T5" s="34" t="s">
         <v>715</v>
       </c>
       <c r="U5" s="11" t="s">
@@ -28462,11 +28456,11 @@
       <c r="O6" s="11">
         <v>7</v>
       </c>
-      <c r="P6" s="36" t="s">
-        <v>1081</v>
-      </c>
-      <c r="R6" s="36" t="s">
-        <v>1115</v>
+      <c r="P6" s="34" t="s">
+        <v>1079</v>
+      </c>
+      <c r="R6" s="34" t="s">
+        <v>1113</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>59</v>
@@ -28527,11 +28521,11 @@
       <c r="O7" s="11">
         <v>9</v>
       </c>
-      <c r="P7" s="36" t="s">
-        <v>1082</v>
-      </c>
-      <c r="R7" s="36" t="s">
-        <v>1115</v>
+      <c r="P7" s="34" t="s">
+        <v>1080</v>
+      </c>
+      <c r="R7" s="34" t="s">
+        <v>1113</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>61</v>
@@ -28589,16 +28583,16 @@
       <c r="O8" s="11">
         <v>0</v>
       </c>
-      <c r="P8" s="36" t="s">
-        <v>1030</v>
-      </c>
-      <c r="R8" s="36" t="s">
-        <v>1116</v>
+      <c r="P8" s="34" t="s">
+        <v>1029</v>
+      </c>
+      <c r="R8" s="34" t="s">
+        <v>1114</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="T8" s="36" t="s">
+      <c r="T8" s="34" t="s">
         <v>718</v>
       </c>
       <c r="U8" s="11" t="s">
@@ -28651,8 +28645,8 @@
       <c r="O9" s="11">
         <v>2</v>
       </c>
-      <c r="P9" s="36" t="s">
-        <v>1080</v>
+      <c r="P9" s="34" t="s">
+        <v>1078</v>
       </c>
       <c r="S9" s="11">
         <v>5000</v>
@@ -28669,8 +28663,8 @@
       <c r="Y9" s="11">
         <v>1</v>
       </c>
-      <c r="AB9" s="36" t="s">
-        <v>1098</v>
+      <c r="AB9" s="34" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -28713,8 +28707,8 @@
       <c r="O10" s="11">
         <v>1</v>
       </c>
-      <c r="P10" s="36" t="s">
-        <v>1083</v>
+      <c r="P10" s="34" t="s">
+        <v>1081</v>
       </c>
       <c r="S10" s="11">
         <v>1000</v>
@@ -28731,8 +28725,8 @@
       <c r="Y10" s="11">
         <v>1</v>
       </c>
-      <c r="AB10" s="36" t="s">
-        <v>1097</v>
+      <c r="AB10" s="34" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -28775,13 +28769,13 @@
       <c r="O11" s="11">
         <v>0</v>
       </c>
-      <c r="P11" s="36" t="s">
-        <v>1078</v>
-      </c>
-      <c r="R11" s="36" t="s">
-        <v>1117</v>
-      </c>
-      <c r="S11" s="25" t="s">
+      <c r="P11" s="34" t="s">
+        <v>1076</v>
+      </c>
+      <c r="R11" s="34" t="s">
+        <v>1115</v>
+      </c>
+      <c r="S11" s="23" t="s">
         <v>53</v>
       </c>
       <c r="T11" s="11" t="s">
@@ -28804,7 +28798,7 @@
       <c r="B12" s="11">
         <v>11</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="34" t="s">
         <v>569</v>
       </c>
       <c r="D12" s="11">
@@ -28840,11 +28834,11 @@
       <c r="O12" s="11">
         <v>9</v>
       </c>
-      <c r="P12" s="36" t="s">
-        <v>1084</v>
-      </c>
-      <c r="R12" s="36" t="s">
-        <v>1115</v>
+      <c r="P12" s="34" t="s">
+        <v>1082</v>
+      </c>
+      <c r="R12" s="34" t="s">
+        <v>1113</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>63</v>
@@ -28905,11 +28899,11 @@
       <c r="O13" s="11">
         <v>10</v>
       </c>
-      <c r="P13" s="36" t="s">
-        <v>1085</v>
-      </c>
-      <c r="R13" s="36" t="s">
-        <v>1117</v>
+      <c r="P13" s="34" t="s">
+        <v>1083</v>
+      </c>
+      <c r="R13" s="34" t="s">
+        <v>1115</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>441</v>
@@ -28970,11 +28964,11 @@
       <c r="O14" s="11">
         <v>11</v>
       </c>
-      <c r="P14" s="36" t="s">
-        <v>1086</v>
-      </c>
-      <c r="R14" s="36" t="s">
-        <v>1118</v>
+      <c r="P14" s="34" t="s">
+        <v>1084</v>
+      </c>
+      <c r="R14" s="34" t="s">
+        <v>1116</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>442</v>
@@ -29035,14 +29029,14 @@
       <c r="O15" s="11">
         <v>0</v>
       </c>
-      <c r="P15" s="36" t="s">
-        <v>1030</v>
-      </c>
-      <c r="R15" s="36"/>
+      <c r="P15" s="34" t="s">
+        <v>1029</v>
+      </c>
+      <c r="R15" s="34"/>
       <c r="S15" s="11">
         <v>100</v>
       </c>
-      <c r="T15" s="36" t="s">
+      <c r="T15" s="34" t="s">
         <v>713</v>
       </c>
       <c r="U15" s="11" t="s">
@@ -29054,8 +29048,8 @@
       <c r="Y15" s="11">
         <v>1</v>
       </c>
-      <c r="AB15" s="36" t="s">
-        <v>1095</v>
+      <c r="AB15" s="34" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -29101,16 +29095,16 @@
       <c r="O16" s="11">
         <v>3</v>
       </c>
-      <c r="P16" s="36" t="s">
-        <v>1087</v>
-      </c>
-      <c r="R16" s="36" t="s">
-        <v>1119</v>
+      <c r="P16" s="34" t="s">
+        <v>1085</v>
+      </c>
+      <c r="R16" s="34" t="s">
+        <v>1117</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="T16" s="36" t="s">
+      <c r="T16" s="34" t="s">
         <v>717</v>
       </c>
       <c r="U16" s="11" t="s">
@@ -29163,11 +29157,11 @@
       <c r="O17" s="11">
         <v>4</v>
       </c>
-      <c r="P17" s="36" t="s">
-        <v>1088</v>
-      </c>
-      <c r="R17" s="36" t="s">
-        <v>1120</v>
+      <c r="P17" s="34" t="s">
+        <v>1086</v>
+      </c>
+      <c r="R17" s="34" t="s">
+        <v>1118</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>75</v>
@@ -29225,11 +29219,11 @@
       <c r="O18" s="11">
         <v>5</v>
       </c>
-      <c r="P18" s="36" t="s">
-        <v>1089</v>
-      </c>
-      <c r="R18" s="36" t="s">
-        <v>1117</v>
+      <c r="P18" s="34" t="s">
+        <v>1087</v>
+      </c>
+      <c r="R18" s="34" t="s">
+        <v>1115</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>78</v>
@@ -29287,16 +29281,16 @@
       <c r="O19" s="11">
         <v>6</v>
       </c>
-      <c r="P19" s="36" t="s">
-        <v>1090</v>
-      </c>
-      <c r="R19" s="36" t="s">
-        <v>1121</v>
+      <c r="P19" s="34" t="s">
+        <v>1088</v>
+      </c>
+      <c r="R19" s="34" t="s">
+        <v>1119</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="T19" s="36" t="s">
+      <c r="T19" s="34" t="s">
         <v>721</v>
       </c>
       <c r="U19" s="11" t="s">
@@ -29349,11 +29343,11 @@
       <c r="O20" s="11">
         <v>7</v>
       </c>
-      <c r="P20" s="36" t="s">
-        <v>1091</v>
-      </c>
-      <c r="R20" s="36" t="s">
-        <v>1115</v>
+      <c r="P20" s="34" t="s">
+        <v>1089</v>
+      </c>
+      <c r="R20" s="34" t="s">
+        <v>1113</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>86</v>
@@ -29371,65 +29365,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="37">
+    <row r="21" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="35">
         <v>20</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="35">
         <v>106</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="35">
         <v>101</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="35">
         <v>100</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="35">
         <v>100000</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="35">
         <v>100000</v>
       </c>
-      <c r="J21" s="37" t="s">
+      <c r="J21" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="37" t="s">
+      <c r="K21" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="L21" s="37" t="s">
+      <c r="L21" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="37">
-        <v>0</v>
-      </c>
-      <c r="O21" s="37">
-        <v>0</v>
-      </c>
-      <c r="P21" s="38" t="s">
-        <v>1030</v>
-      </c>
-      <c r="R21" s="38" t="s">
-        <v>1114</v>
-      </c>
-      <c r="S21" s="37" t="s">
+      <c r="M21" s="35">
+        <v>0</v>
+      </c>
+      <c r="O21" s="35">
+        <v>0</v>
+      </c>
+      <c r="P21" s="36" t="s">
+        <v>1029</v>
+      </c>
+      <c r="R21" s="36" t="s">
+        <v>1112</v>
+      </c>
+      <c r="S21" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="T21" s="38" t="s">
+      <c r="T21" s="36" t="s">
         <v>713</v>
       </c>
-      <c r="U21" s="37" t="s">
+      <c r="U21" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="X21" s="37">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="37">
+      <c r="X21" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="35">
         <v>1</v>
       </c>
     </row>
@@ -29473,14 +29467,14 @@
       <c r="O22" s="11">
         <v>2</v>
       </c>
-      <c r="P22" s="36" t="s">
-        <v>1080</v>
-      </c>
-      <c r="R22" s="36"/>
+      <c r="P22" s="34" t="s">
+        <v>1078</v>
+      </c>
+      <c r="R22" s="34"/>
       <c r="S22" s="11">
         <v>5000</v>
       </c>
-      <c r="T22" s="36" t="s">
+      <c r="T22" s="34" t="s">
         <v>716</v>
       </c>
       <c r="U22" s="11" t="s">
@@ -29533,14 +29527,14 @@
       <c r="O23" s="11">
         <v>1</v>
       </c>
-      <c r="P23" s="36" t="s">
-        <v>1083</v>
-      </c>
-      <c r="R23" s="36"/>
+      <c r="P23" s="34" t="s">
+        <v>1081</v>
+      </c>
+      <c r="R23" s="34"/>
       <c r="S23" s="11">
         <v>1000</v>
       </c>
-      <c r="T23" s="36" t="s">
+      <c r="T23" s="34" t="s">
         <v>713</v>
       </c>
       <c r="U23" s="11" t="s">
@@ -29560,7 +29554,7 @@
       <c r="B24" s="11">
         <v>109</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="34" t="s">
         <v>443</v>
       </c>
       <c r="E24" s="11">
@@ -29596,14 +29590,14 @@
       <c r="O24" s="11">
         <v>0</v>
       </c>
-      <c r="P24" s="36" t="s">
-        <v>1030</v>
-      </c>
-      <c r="R24" s="36"/>
+      <c r="P24" s="34" t="s">
+        <v>1029</v>
+      </c>
+      <c r="R24" s="34"/>
       <c r="S24" s="11">
         <v>100</v>
       </c>
-      <c r="T24" s="36" t="s">
+      <c r="T24" s="34" t="s">
         <v>713</v>
       </c>
       <c r="U24" s="11" t="s">
@@ -29615,8 +29609,8 @@
       <c r="Y24" s="11">
         <v>1</v>
       </c>
-      <c r="AB24" s="36" t="s">
-        <v>1096</v>
+      <c r="AB24" s="34" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -29662,16 +29656,16 @@
       <c r="O25" s="11">
         <v>8</v>
       </c>
-      <c r="P25" s="36" t="s">
-        <v>1092</v>
-      </c>
-      <c r="R25" s="36" t="s">
-        <v>1122</v>
-      </c>
-      <c r="S25" s="36" t="s">
+      <c r="P25" s="34" t="s">
+        <v>1090</v>
+      </c>
+      <c r="R25" s="34" t="s">
+        <v>1120</v>
+      </c>
+      <c r="S25" s="34" t="s">
         <v>577</v>
       </c>
-      <c r="T25" s="36" t="s">
+      <c r="T25" s="34" t="s">
         <v>721</v>
       </c>
       <c r="U25" s="11" t="s">
@@ -30143,7 +30137,7 @@
         <v>469</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>453</v>
@@ -30203,7 +30197,7 @@
       <c r="B10" s="17">
         <v>16</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>494</v>
       </c>
       <c r="E10" s="18" t="s">
@@ -30241,7 +30235,7 @@
       <c r="B11" s="17">
         <v>17</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="24" t="s">
         <v>495</v>
       </c>
       <c r="E11" s="18" t="s">
@@ -30279,7 +30273,7 @@
       <c r="B12" s="17">
         <v>18</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="24" t="s">
         <v>494</v>
       </c>
       <c r="E12" s="18" t="s">
@@ -30364,7 +30358,7 @@
       <c r="B14" s="17">
         <v>20</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="24" t="s">
         <v>514</v>
       </c>
       <c r="E14" s="18" t="s">
@@ -30411,7 +30405,7 @@
       <c r="B15" s="17">
         <v>21</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="24" t="s">
         <v>514</v>
       </c>
       <c r="E15" s="18" t="s">
@@ -30451,147 +30445,147 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27">
+    <row r="16" spans="1:24" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="25">
         <v>15</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="26">
         <v>22</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="27" t="s">
         <v>623</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="28" t="s">
         <v>520</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="25">
         <v>200</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="25">
         <v>2</v>
       </c>
-      <c r="J16" s="30"/>
-      <c r="O16" s="27">
-        <v>0</v>
-      </c>
-      <c r="P16" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="30" t="s">
+      <c r="J16" s="28"/>
+      <c r="O16" s="25">
+        <v>0</v>
+      </c>
+      <c r="P16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="28" t="s">
         <v>631</v>
       </c>
-      <c r="T16" s="27">
+      <c r="T16" s="25">
         <v>200</v>
       </c>
-      <c r="V16" s="27" t="s">
+      <c r="V16" s="25" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27">
+    <row r="17" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25">
         <v>16</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="26">
         <v>23</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="27" t="s">
         <v>624</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="28" t="s">
         <v>520</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="25">
         <v>2000</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="25">
         <v>20</v>
       </c>
-      <c r="J17" s="30"/>
-      <c r="O17" s="27">
-        <v>0</v>
-      </c>
-      <c r="P17" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="30" t="s">
+      <c r="J17" s="28"/>
+      <c r="O17" s="25">
+        <v>0</v>
+      </c>
+      <c r="P17" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="28" t="s">
         <v>632</v>
       </c>
-      <c r="T17" s="27">
+      <c r="T17" s="25">
         <v>2000</v>
       </c>
-      <c r="V17" s="27" t="s">
+      <c r="V17" s="25" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27">
+    <row r="18" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="25">
         <v>17</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="26">
         <v>24</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="27" t="s">
         <v>625</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="28" t="s">
         <v>516</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="25">
         <v>20000</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="25">
         <v>2</v>
       </c>
-      <c r="J18" s="30"/>
-      <c r="O18" s="27">
-        <v>0</v>
-      </c>
-      <c r="P18" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="30" t="s">
+      <c r="J18" s="28"/>
+      <c r="O18" s="25">
+        <v>0</v>
+      </c>
+      <c r="P18" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="28" t="s">
         <v>630</v>
       </c>
-      <c r="T18" s="27">
+      <c r="T18" s="25">
         <v>20000</v>
       </c>
-      <c r="V18" s="27" t="s">
+      <c r="V18" s="25" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27">
+    <row r="19" spans="1:22" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25">
         <v>18</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="26">
         <v>25</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="27" t="s">
         <v>624</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="28" t="s">
         <v>516</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="25">
         <v>200000</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="25">
         <v>20</v>
       </c>
-      <c r="J19" s="30"/>
-      <c r="O19" s="27">
-        <v>0</v>
-      </c>
-      <c r="P19" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="30" t="s">
+      <c r="J19" s="28"/>
+      <c r="O19" s="25">
+        <v>0</v>
+      </c>
+      <c r="P19" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="28" t="s">
         <v>632</v>
       </c>
-      <c r="T19" s="27">
+      <c r="T19" s="25">
         <v>200000</v>
       </c>
-      <c r="V19" s="27" t="s">
+      <c r="V19" s="25" t="s">
         <v>439</v>
       </c>
     </row>
@@ -30599,7 +30593,7 @@
       <c r="A20" s="20">
         <v>19</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="29">
         <v>26</v>
       </c>
       <c r="D20" s="21" t="s">
@@ -30637,10 +30631,10 @@
       <c r="A21" s="20">
         <v>20</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="29">
         <v>27</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="30" t="s">
         <v>694</v>
       </c>
       <c r="E21" s="21" t="s">

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2820" uniqueCount="1173">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5388,6 +5388,34 @@
   </si>
   <si>
     <t>"980万金币","30万金币","20万小游戏币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得10万～50万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元幸运金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{150000,160000,2,160000,170000,7,170000,180000,1},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,500000</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5459,7 +5487,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5487,6 +5515,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5533,7 +5567,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5655,6 +5689,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8048,13 +8088,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL325"/>
+  <dimension ref="A1:AL326"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H314" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H302" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H328" sqref="H328"/>
+      <selection pane="bottomRight" activeCell="H315" sqref="H315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -28013,6 +28053,65 @@
       </c>
       <c r="AL325" s="19"/>
     </row>
+    <row r="326" spans="1:38" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A326" s="41">
+        <v>325</v>
+      </c>
+      <c r="B326" s="41">
+        <v>10242</v>
+      </c>
+      <c r="F326" s="41">
+        <v>1</v>
+      </c>
+      <c r="G326" s="41" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H326" s="41" t="s">
+        <v>1169</v>
+      </c>
+      <c r="J326" s="41">
+        <v>-4</v>
+      </c>
+      <c r="K326" s="41">
+        <v>0</v>
+      </c>
+      <c r="L326" s="41">
+        <v>0</v>
+      </c>
+      <c r="M326" s="41" t="s">
+        <v>1166</v>
+      </c>
+      <c r="N326" s="41">
+        <v>100</v>
+      </c>
+      <c r="U326" s="41" t="s">
+        <v>1167</v>
+      </c>
+      <c r="V326" s="41">
+        <v>9999999</v>
+      </c>
+      <c r="W326" s="41">
+        <v>1592263800</v>
+      </c>
+      <c r="X326" s="41">
+        <v>2552233600</v>
+      </c>
+      <c r="Z326" s="41" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AA326" s="41" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AB326" s="42" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AF326" s="41">
+        <v>1</v>
+      </c>
+      <c r="AG326" s="41">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28417,8 +28516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -8090,7 +8090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL326"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H302" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -30168,8 +30168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U20" sqref="U20:V21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30409,7 +30409,7 @@
       </c>
       <c r="J4" s="15"/>
       <c r="O4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="12">
         <v>4</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -3676,10 +3676,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>6000000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>8800000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3953,10 +3949,6 @@
   </si>
   <si>
     <t>"518万鱼币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"600万金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -5416,6 +5408,14 @@
   </si>
   <si>
     <t>100000,500000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5567,7 +5567,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5695,6 +5695,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6202,7 +6205,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -6315,7 +6318,7 @@
         <v>45</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>46</v>
@@ -6395,7 +6398,7 @@
         <v>45</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>46</v>
@@ -6475,7 +6478,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>46</v>
@@ -6555,7 +6558,7 @@
         <v>45</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>46</v>
@@ -6635,7 +6638,7 @@
         <v>45</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>46</v>
@@ -6715,7 +6718,7 @@
         <v>45</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>46</v>
@@ -6795,7 +6798,7 @@
         <v>45</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>46</v>
@@ -6875,7 +6878,7 @@
         <v>45</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>46</v>
@@ -6956,7 +6959,7 @@
         <v>45</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>46</v>
@@ -7039,7 +7042,7 @@
         <v>45</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>46</v>
@@ -7119,7 +7122,7 @@
         <v>45</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>46</v>
@@ -7199,7 +7202,7 @@
         <v>45</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>46</v>
@@ -7279,7 +7282,7 @@
         <v>45</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>46</v>
@@ -7359,7 +7362,7 @@
         <v>45</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>46</v>
@@ -7439,7 +7442,7 @@
         <v>45</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>46</v>
@@ -7541,10 +7544,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="W17" s="11" t="s">
         <v>49</v>
@@ -7613,10 +7616,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="W18" s="11" t="s">
         <v>49</v>
@@ -7685,10 +7688,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="W19" s="11" t="s">
         <v>49</v>
@@ -7757,10 +7760,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="W20" s="11" t="s">
         <v>49</v>
@@ -7829,10 +7832,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="W21" s="11" t="s">
         <v>49</v>
@@ -7901,10 +7904,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="W22" s="11" t="s">
         <v>49</v>
@@ -7973,10 +7976,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="W23" s="11" t="s">
         <v>49</v>
@@ -8090,11 +8093,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL326"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H302" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H241" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H315" sqref="H315"/>
+      <selection pane="bottomRight" activeCell="A250" sqref="A250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -8442,7 +8445,7 @@
         <v>120</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="5">
@@ -8619,7 +8622,7 @@
         <v>124</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="J8" s="5">
         <v>-6</v>
@@ -8887,7 +8890,7 @@
         <v>142</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="J13" s="5">
         <v>-8</v>
@@ -8996,7 +8999,7 @@
         <v>146</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="J15" s="5">
         <v>-8</v>
@@ -9052,7 +9055,7 @@
         <v>149</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="J16" s="5">
         <v>-8</v>
@@ -9294,7 +9297,7 @@
         <v>600</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>726</v>
@@ -9329,10 +9332,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J21" s="5">
         <v>-11</v>
@@ -9391,7 +9394,7 @@
         <v>162</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J22" s="5">
         <v>-10</v>
@@ -9447,10 +9450,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J23" s="5">
         <v>-13</v>
@@ -11117,7 +11120,7 @@
         <v>220</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="J54" s="5">
         <v>-13</v>
@@ -11138,7 +11141,7 @@
         <v>221</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="U54" s="5" t="s">
         <v>566</v>
@@ -11223,10 +11226,10 @@
         <v>1</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="J56" s="22">
         <v>-18</v>
@@ -11282,7 +11285,7 @@
         <v>225</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="J57" s="5">
         <v>-19</v>
@@ -11762,10 +11765,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="J66" s="5">
         <v>-4</v>
@@ -12107,7 +12110,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="J72" s="5">
         <v>-4</v>
@@ -12402,7 +12405,7 @@
         <v>249</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="J77" s="19">
         <v>-20</v>
@@ -12420,10 +12423,10 @@
         <v>100</v>
       </c>
       <c r="O77" s="19" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="U77" s="19" t="s">
         <v>565</v>
@@ -12458,7 +12461,7 @@
         <v>250</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="J78" s="19">
         <v>-20</v>
@@ -12497,10 +12500,10 @@
         <v>90</v>
       </c>
       <c r="AA78" s="19" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AB78" s="40" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AF78" s="19">
         <v>1</v>
@@ -12520,10 +12523,10 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="J79" s="5">
         <v>-20</v>
@@ -12562,10 +12565,10 @@
         <v>90</v>
       </c>
       <c r="AA79" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AB79" s="10" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AF79" s="5">
         <v>1</v>
@@ -12585,10 +12588,10 @@
         <v>1</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="J80" s="5">
         <v>-20</v>
@@ -12630,10 +12633,10 @@
         <v>626</v>
       </c>
       <c r="AA80" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AB80" s="10" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AF80" s="5">
         <v>1</v>
@@ -12656,7 +12659,7 @@
         <v>253</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="J81" s="19">
         <v>-20</v>
@@ -12695,7 +12698,7 @@
         <v>626</v>
       </c>
       <c r="AA81" s="19" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF81" s="19">
         <v>1</v>
@@ -12718,7 +12721,7 @@
         <v>254</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="J82" s="5">
         <v>-20</v>
@@ -12774,7 +12777,7 @@
         <v>256</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="J83" s="5">
         <v>-21</v>
@@ -12792,7 +12795,7 @@
         <v>4800</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="P83" s="5" t="s">
         <v>760</v>
@@ -12830,7 +12833,7 @@
         <v>257</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="J84" s="5">
         <v>-22</v>
@@ -12848,7 +12851,7 @@
         <v>4800</v>
       </c>
       <c r="O84" s="5" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="P84" s="5" t="s">
         <v>761</v>
@@ -12883,10 +12886,10 @@
         <v>1</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="J85" s="5">
         <v>-23</v>
@@ -12939,10 +12942,10 @@
         <v>1</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="J86" s="5">
         <v>-24</v>
@@ -12989,10 +12992,10 @@
         <v>1</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="J87" s="5">
         <v>-25</v>
@@ -13048,7 +13051,7 @@
         <v>258</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="J88" s="5">
         <v>-22</v>
@@ -13104,7 +13107,7 @@
         <v>260</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="J89" s="5">
         <v>-22</v>
@@ -13160,7 +13163,7 @@
         <v>262</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="J90" s="5">
         <v>-22</v>
@@ -13216,7 +13219,7 @@
         <v>263</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="J91" s="5">
         <v>-22</v>
@@ -13272,7 +13275,7 @@
         <v>264</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="J92" s="5">
         <v>-22</v>
@@ -13290,7 +13293,7 @@
         <v>4800</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="P92" s="5" t="s">
         <v>767</v>
@@ -13328,7 +13331,7 @@
         <v>265</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="J93" s="5">
         <v>-22</v>
@@ -13437,7 +13440,7 @@
         <v>268</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J95" s="5">
         <v>-23</v>
@@ -13496,7 +13499,7 @@
         <v>269</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="J96" s="5">
         <v>-23</v>
@@ -13552,7 +13555,7 @@
         <v>270</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="J97" s="5">
         <v>-24</v>
@@ -13570,13 +13573,13 @@
         <v>4800</v>
       </c>
       <c r="O97" s="5" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="P97" s="5" t="s">
         <v>271</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="S97" s="5" t="s">
         <v>272</v>
@@ -13614,7 +13617,7 @@
         <v>273</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="J98" s="5">
         <v>-24</v>
@@ -13632,13 +13635,13 @@
         <v>9800</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="P98" s="5" t="s">
         <v>274</v>
       </c>
       <c r="R98" s="5" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="S98" s="5" t="s">
         <v>275</v>
@@ -13676,7 +13679,7 @@
         <v>276</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="J99" s="5">
         <v>-24</v>
@@ -13694,13 +13697,13 @@
         <v>19800</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="P99" s="5" t="s">
         <v>277</v>
       </c>
       <c r="R99" s="5" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="S99" s="5" t="s">
         <v>278</v>
@@ -13738,7 +13741,7 @@
         <v>605</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="J100" s="19">
         <v>-25</v>
@@ -13801,7 +13804,7 @@
         <v>556</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="J101" s="19">
         <v>-25</v>
@@ -13864,7 +13867,7 @@
         <v>280</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="J102" s="19">
         <v>-25</v>
@@ -13927,7 +13930,7 @@
         <v>605</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="J103" s="19">
         <v>-25</v>
@@ -13990,7 +13993,7 @@
         <v>557</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="J104" s="19">
         <v>-25</v>
@@ -14053,7 +14056,7 @@
         <v>78</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="J105" s="19">
         <v>-25</v>
@@ -14116,7 +14119,7 @@
         <v>604</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="J106" s="19">
         <v>-25</v>
@@ -14179,7 +14182,7 @@
         <v>280</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="J107" s="19">
         <v>-25</v>
@@ -14242,7 +14245,7 @@
         <v>82</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="J108" s="19">
         <v>-25</v>
@@ -14362,7 +14365,7 @@
         <v>286</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="J110" s="5">
         <v>-26</v>
@@ -14380,13 +14383,13 @@
         <v>3800</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="P110" s="5" t="s">
         <v>287</v>
       </c>
       <c r="R110" s="5" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="S110" s="5" t="s">
         <v>288</v>
@@ -14424,7 +14427,7 @@
         <v>289</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="J111" s="5">
         <v>-26</v>
@@ -14442,13 +14445,13 @@
         <v>8800</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="P111" s="5" t="s">
         <v>290</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="S111" s="5" t="s">
         <v>291</v>
@@ -14486,7 +14489,7 @@
         <v>292</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="J112" s="5">
         <v>-26</v>
@@ -14504,13 +14507,13 @@
         <v>18800</v>
       </c>
       <c r="O112" s="5" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="P112" s="5" t="s">
         <v>293</v>
       </c>
       <c r="R112" s="5" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="S112" s="5" t="s">
         <v>294</v>
@@ -14548,7 +14551,7 @@
         <v>295</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="J113" s="5">
         <v>-26</v>
@@ -14604,7 +14607,7 @@
         <v>298</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="J114" s="5">
         <v>-26</v>
@@ -14660,7 +14663,7 @@
         <v>300</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="J115" s="5">
         <v>-26</v>
@@ -14678,7 +14681,7 @@
         <v>9800</v>
       </c>
       <c r="O115" s="5" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="P115" s="5" t="s">
         <v>301</v>
@@ -14716,7 +14719,7 @@
         <v>302</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="J116" s="5">
         <v>-27</v>
@@ -14734,13 +14737,13 @@
         <v>4800</v>
       </c>
       <c r="O116" s="5" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="P116" s="5" t="s">
         <v>303</v>
       </c>
       <c r="R116" s="5" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="S116" s="5" t="s">
         <v>304</v>
@@ -14778,7 +14781,7 @@
         <v>305</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="J117" s="5">
         <v>-27</v>
@@ -14796,13 +14799,13 @@
         <v>9800</v>
       </c>
       <c r="O117" s="5" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="P117" s="5" t="s">
         <v>274</v>
       </c>
       <c r="R117" s="5" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="S117" s="5" t="s">
         <v>275</v>
@@ -14840,7 +14843,7 @@
         <v>306</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="J118" s="5">
         <v>-28</v>
@@ -14896,7 +14899,7 @@
         <v>308</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="J119" s="5">
         <v>-28</v>
@@ -14952,7 +14955,7 @@
         <v>311</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="J120" s="5">
         <v>-28</v>
@@ -15008,7 +15011,7 @@
         <v>314</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="J121" s="5">
         <v>-28</v>
@@ -15067,7 +15070,7 @@
         <v>318</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="J122" s="5">
         <v>-28</v>
@@ -15126,7 +15129,7 @@
         <v>321</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="J123" s="5">
         <v>-28</v>
@@ -15185,7 +15188,7 @@
         <v>298</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="J124" s="5">
         <v>-28</v>
@@ -15241,7 +15244,7 @@
         <v>324</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="J125" s="5">
         <v>-28</v>
@@ -15297,7 +15300,7 @@
         <v>326</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="J126" s="5">
         <v>-28</v>
@@ -15353,7 +15356,7 @@
         <v>328</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="J127" s="5">
         <v>-29</v>
@@ -15527,7 +15530,7 @@
         <v>334</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="J130" s="5">
         <v>-28</v>
@@ -15589,7 +15592,7 @@
         <v>252</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="J131" s="5">
         <v>-28</v>
@@ -15651,7 +15654,7 @@
         <v>338</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="J132" s="5">
         <v>-28</v>
@@ -15713,7 +15716,7 @@
         <v>340</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="J133" s="5">
         <v>-28</v>
@@ -15775,7 +15778,7 @@
         <v>341</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="J134" s="5">
         <v>-28</v>
@@ -15837,7 +15840,7 @@
         <v>343</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="J135" s="5">
         <v>-28</v>
@@ -15899,7 +15902,7 @@
         <v>461</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J136" s="5">
         <v>-28</v>
@@ -15958,7 +15961,7 @@
         <v>462</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J137" s="5">
         <v>-28</v>
@@ -16017,7 +16020,7 @@
         <v>463</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J138" s="5">
         <v>-28</v>
@@ -16076,7 +16079,7 @@
         <v>464</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J139" s="5">
         <v>-28</v>
@@ -16135,7 +16138,7 @@
         <v>465</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J140" s="5">
         <v>-28</v>
@@ -16194,7 +16197,7 @@
         <v>466</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J141" s="5">
         <v>-28</v>
@@ -16253,7 +16256,7 @@
         <v>344</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="J142" s="5">
         <v>-28</v>
@@ -16315,7 +16318,7 @@
         <v>345</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="J143" s="5">
         <v>-28</v>
@@ -16377,7 +16380,7 @@
         <v>346</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="J144" s="5">
         <v>-28</v>
@@ -16442,7 +16445,7 @@
         <v>348</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="J145" s="5">
         <v>-28</v>
@@ -16469,7 +16472,7 @@
         <v>90</v>
       </c>
       <c r="S145" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="U145" s="5" t="s">
         <v>566</v>
@@ -16507,7 +16510,7 @@
         <v>350</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="J146" s="5">
         <v>-28</v>
@@ -16534,7 +16537,7 @@
         <v>161</v>
       </c>
       <c r="S146" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="U146" s="5" t="s">
         <v>566</v>
@@ -16572,7 +16575,7 @@
         <v>351</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="J147" s="5">
         <v>-28</v>
@@ -16599,7 +16602,7 @@
         <v>161</v>
       </c>
       <c r="S147" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="U147" s="5" t="s">
         <v>566</v>
@@ -16637,7 +16640,7 @@
         <v>352</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="J148" s="5">
         <v>-28</v>
@@ -16664,7 +16667,7 @@
         <v>161</v>
       </c>
       <c r="S148" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="U148" s="5" t="s">
         <v>566</v>
@@ -16702,7 +16705,7 @@
         <v>353</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="J149" s="5">
         <v>-28</v>
@@ -16729,7 +16732,7 @@
         <v>161</v>
       </c>
       <c r="S149" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="U149" s="5" t="s">
         <v>566</v>
@@ -16764,7 +16767,7 @@
         <v>354</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="J150" s="5">
         <v>-28</v>
@@ -16826,7 +16829,7 @@
         <v>355</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="J151" s="5">
         <v>-28</v>
@@ -16888,7 +16891,7 @@
         <v>356</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="J152" s="5">
         <v>-28</v>
@@ -16947,10 +16950,10 @@
         <v>1</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="J153" s="5">
         <v>-28</v>
@@ -16977,7 +16980,7 @@
         <v>90</v>
       </c>
       <c r="S153" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="U153" s="5" t="s">
         <v>568</v>
@@ -17012,7 +17015,7 @@
         <v>357</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="J154" s="5">
         <v>-28</v>
@@ -17039,7 +17042,7 @@
         <v>90</v>
       </c>
       <c r="S154" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="U154" s="5" t="s">
         <v>568</v>
@@ -17074,7 +17077,7 @@
         <v>358</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="J155" s="5">
         <v>-28</v>
@@ -17101,7 +17104,7 @@
         <v>90</v>
       </c>
       <c r="S155" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="U155" s="5" t="s">
         <v>568</v>
@@ -17136,7 +17139,7 @@
         <v>359</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="J156" s="5">
         <v>-28</v>
@@ -17163,7 +17166,7 @@
         <v>90</v>
       </c>
       <c r="S156" s="5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="U156" s="5" t="s">
         <v>568</v>
@@ -17198,7 +17201,7 @@
         <v>360</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="J157" s="5">
         <v>-28</v>
@@ -17225,7 +17228,7 @@
         <v>90</v>
       </c>
       <c r="S157" s="5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="U157" s="5" t="s">
         <v>568</v>
@@ -17260,7 +17263,7 @@
         <v>361</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="J158" s="5">
         <v>-28</v>
@@ -17322,7 +17325,7 @@
         <v>363</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="J159" s="5">
         <v>-28</v>
@@ -17384,7 +17387,7 @@
         <v>365</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="J160" s="5">
         <v>-28</v>
@@ -17446,7 +17449,7 @@
         <v>367</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="J161" s="5">
         <v>-28</v>
@@ -17508,7 +17511,7 @@
         <v>368</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="J162" s="5">
         <v>-28</v>
@@ -17570,7 +17573,7 @@
         <v>369</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="J163" s="5">
         <v>-28</v>
@@ -17629,10 +17632,10 @@
         <v>1</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="I164" s="5">
         <v>21032</v>
@@ -17656,7 +17659,7 @@
         <v>221</v>
       </c>
       <c r="P164" s="10" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="U164" s="5" t="s">
         <v>565</v>
@@ -17697,7 +17700,7 @@
         <v>370</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="J165" s="5">
         <v>-28</v>
@@ -17759,7 +17762,7 @@
         <v>371</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="J166" s="5">
         <v>-28</v>
@@ -17821,7 +17824,7 @@
         <v>372</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="J167" s="5">
         <v>-28</v>
@@ -17883,7 +17886,7 @@
         <v>373</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="J168" s="5">
         <v>-28</v>
@@ -18010,7 +18013,7 @@
         <v>378</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="J170" s="5">
         <v>-28</v>
@@ -18069,10 +18072,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="J171" s="19">
         <v>-28</v>
@@ -18090,7 +18093,7 @@
         <v>100</v>
       </c>
       <c r="O171" s="19" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="P171" s="19" t="s">
         <v>800</v>
@@ -18134,10 +18137,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="J172" s="19">
         <v>-28</v>
@@ -18155,7 +18158,7 @@
         <v>300</v>
       </c>
       <c r="O172" s="19" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="P172" s="19" t="s">
         <v>801</v>
@@ -18199,10 +18202,10 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="J173" s="19">
         <v>-28</v>
@@ -18220,7 +18223,7 @@
         <v>600</v>
       </c>
       <c r="O173" s="19" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="P173" s="19" t="s">
         <v>802</v>
@@ -18264,10 +18267,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="J174" s="19">
         <v>-28</v>
@@ -18285,7 +18288,7 @@
         <v>600</v>
       </c>
       <c r="O174" s="19" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="P174" s="19" t="s">
         <v>803</v>
@@ -18329,10 +18332,10 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H175" s="19" t="s">
         <v>1152</v>
-      </c>
-      <c r="H175" s="19" t="s">
-        <v>1154</v>
       </c>
       <c r="J175" s="19">
         <v>-28</v>
@@ -18350,10 +18353,10 @@
         <v>1000</v>
       </c>
       <c r="O175" s="19" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="P175" s="19" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="U175" s="19" t="s">
         <v>568</v>
@@ -18394,10 +18397,10 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H176" s="19" t="s">
         <v>1153</v>
-      </c>
-      <c r="H176" s="19" t="s">
-        <v>1155</v>
       </c>
       <c r="J176" s="19">
         <v>-28</v>
@@ -18415,7 +18418,7 @@
         <v>1800</v>
       </c>
       <c r="O176" s="19" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="P176" s="19" t="s">
         <v>804</v>
@@ -18459,10 +18462,10 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="J177" s="19">
         <v>-28</v>
@@ -18480,7 +18483,7 @@
         <v>1800</v>
       </c>
       <c r="O177" s="19" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="P177" s="19" t="s">
         <v>805</v>
@@ -18524,10 +18527,10 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="J178" s="19">
         <v>-28</v>
@@ -18545,7 +18548,7 @@
         <v>4800</v>
       </c>
       <c r="O178" s="19" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="P178" s="19" t="s">
         <v>806</v>
@@ -18589,10 +18592,10 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="J179" s="19">
         <v>-28</v>
@@ -18610,7 +18613,7 @@
         <v>9800</v>
       </c>
       <c r="O179" s="19" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="P179" s="19" t="s">
         <v>807</v>
@@ -18654,10 +18657,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="J180" s="19">
         <v>-28</v>
@@ -18675,7 +18678,7 @@
         <v>4800</v>
       </c>
       <c r="O180" s="19" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="P180" s="19" t="s">
         <v>806</v>
@@ -18719,10 +18722,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="J181" s="19">
         <v>-28</v>
@@ -18740,7 +18743,7 @@
         <v>9800</v>
       </c>
       <c r="O181" s="19" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="P181" s="19" t="s">
         <v>808</v>
@@ -18784,10 +18787,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="J182" s="19">
         <v>-28</v>
@@ -18805,7 +18808,7 @@
         <v>19800</v>
       </c>
       <c r="O182" s="19" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="P182" s="19" t="s">
         <v>809</v>
@@ -18849,10 +18852,10 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="J183" s="19">
         <v>-28</v>
@@ -18870,7 +18873,7 @@
         <v>9800</v>
       </c>
       <c r="O183" s="19" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="P183" s="19" t="s">
         <v>807</v>
@@ -18914,10 +18917,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="J184" s="19">
         <v>-28</v>
@@ -18935,7 +18938,7 @@
         <v>19800</v>
       </c>
       <c r="O184" s="19" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="P184" s="19" t="s">
         <v>810</v>
@@ -18979,10 +18982,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="J185" s="19">
         <v>-28</v>
@@ -19000,7 +19003,7 @@
         <v>49800</v>
       </c>
       <c r="O185" s="19" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="P185" s="19" t="s">
         <v>811</v>
@@ -19047,7 +19050,7 @@
         <v>328</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="J186" s="5">
         <v>-29</v>
@@ -19068,13 +19071,13 @@
         <v>476</v>
       </c>
       <c r="P186" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="R186" s="5" t="s">
         <v>331</v>
       </c>
       <c r="S186" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="U186" s="5" t="s">
         <v>565</v>
@@ -19109,7 +19112,7 @@
         <v>379</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J187" s="5">
         <v>-28</v>
@@ -19174,7 +19177,7 @@
         <v>381</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="J188" s="5">
         <v>-28</v>
@@ -19239,7 +19242,7 @@
         <v>383</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="J189" s="5">
         <v>-28</v>
@@ -19304,7 +19307,7 @@
         <v>385</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="J190" s="5">
         <v>-28</v>
@@ -19369,7 +19372,7 @@
         <v>387</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="J191" s="5">
         <v>-28</v>
@@ -19434,7 +19437,7 @@
         <v>389</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J192" s="5">
         <v>-28</v>
@@ -19499,7 +19502,7 @@
         <v>391</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="J193" s="5">
         <v>-28</v>
@@ -19564,7 +19567,7 @@
         <v>393</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="J194" s="5">
         <v>-28</v>
@@ -19629,7 +19632,7 @@
         <v>395</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="J195" s="5">
         <v>-28</v>
@@ -19694,7 +19697,7 @@
         <v>397</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="J196" s="5">
         <v>-28</v>
@@ -19759,7 +19762,7 @@
         <v>399</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="J197" s="5">
         <v>-28</v>
@@ -19824,7 +19827,7 @@
         <v>401</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J198" s="5">
         <v>-28</v>
@@ -19889,7 +19892,7 @@
         <v>403</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="J199" s="5">
         <v>-28</v>
@@ -19954,7 +19957,7 @@
         <v>404</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J200" s="5">
         <v>-28</v>
@@ -20019,7 +20022,7 @@
         <v>405</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="J201" s="5">
         <v>-28</v>
@@ -20084,7 +20087,7 @@
         <v>379</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J202" s="5">
         <v>-28</v>
@@ -20149,7 +20152,7 @@
         <v>381</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="J203" s="5">
         <v>-28</v>
@@ -20214,7 +20217,7 @@
         <v>383</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="J204" s="5">
         <v>-28</v>
@@ -20279,7 +20282,7 @@
         <v>385</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="J205" s="5">
         <v>-28</v>
@@ -20344,7 +20347,7 @@
         <v>387</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="J206" s="5">
         <v>-28</v>
@@ -20409,7 +20412,7 @@
         <v>389</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J207" s="5">
         <v>-28</v>
@@ -20474,7 +20477,7 @@
         <v>391</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="J208" s="5">
         <v>-28</v>
@@ -20539,7 +20542,7 @@
         <v>393</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="J209" s="5">
         <v>-28</v>
@@ -20604,7 +20607,7 @@
         <v>395</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="J210" s="5">
         <v>-28</v>
@@ -20669,7 +20672,7 @@
         <v>397</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="J211" s="5">
         <v>-28</v>
@@ -20734,7 +20737,7 @@
         <v>399</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="J212" s="5">
         <v>-28</v>
@@ -20799,7 +20802,7 @@
         <v>401</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J213" s="5">
         <v>-28</v>
@@ -20864,7 +20867,7 @@
         <v>403</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="J214" s="5">
         <v>-28</v>
@@ -20929,7 +20932,7 @@
         <v>404</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J215" s="5">
         <v>-28</v>
@@ -20994,7 +20997,7 @@
         <v>405</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="J216" s="5">
         <v>-28</v>
@@ -21059,7 +21062,7 @@
         <v>379</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J217" s="5">
         <v>-28</v>
@@ -21124,7 +21127,7 @@
         <v>381</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="J218" s="5">
         <v>-28</v>
@@ -21189,7 +21192,7 @@
         <v>383</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="J219" s="5">
         <v>-28</v>
@@ -21254,7 +21257,7 @@
         <v>385</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="J220" s="5">
         <v>-28</v>
@@ -21319,7 +21322,7 @@
         <v>387</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="J221" s="5">
         <v>-28</v>
@@ -21384,7 +21387,7 @@
         <v>389</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J222" s="5">
         <v>-28</v>
@@ -21449,7 +21452,7 @@
         <v>391</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="J223" s="5">
         <v>-28</v>
@@ -21514,7 +21517,7 @@
         <v>393</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="J224" s="5">
         <v>-28</v>
@@ -21579,7 +21582,7 @@
         <v>395</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="J225" s="5">
         <v>-28</v>
@@ -21644,7 +21647,7 @@
         <v>397</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="J226" s="5">
         <v>-28</v>
@@ -21709,7 +21712,7 @@
         <v>399</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="J227" s="5">
         <v>-28</v>
@@ -21774,7 +21777,7 @@
         <v>401</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J228" s="5">
         <v>-28</v>
@@ -21839,7 +21842,7 @@
         <v>403</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="J229" s="5">
         <v>-28</v>
@@ -21904,7 +21907,7 @@
         <v>404</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J230" s="5">
         <v>-28</v>
@@ -21969,7 +21972,7 @@
         <v>405</v>
       </c>
       <c r="H231" s="5" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="J231" s="5">
         <v>-28</v>
@@ -22034,7 +22037,7 @@
         <v>379</v>
       </c>
       <c r="H232" s="5" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J232" s="5">
         <v>-28</v>
@@ -22099,7 +22102,7 @@
         <v>381</v>
       </c>
       <c r="H233" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="J233" s="5">
         <v>-28</v>
@@ -22164,7 +22167,7 @@
         <v>383</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="J234" s="5">
         <v>-28</v>
@@ -22229,7 +22232,7 @@
         <v>385</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="J235" s="5">
         <v>-28</v>
@@ -22294,7 +22297,7 @@
         <v>387</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="J236" s="5">
         <v>-28</v>
@@ -22359,7 +22362,7 @@
         <v>389</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J237" s="5">
         <v>-28</v>
@@ -22424,7 +22427,7 @@
         <v>391</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="J238" s="5">
         <v>-28</v>
@@ -22489,7 +22492,7 @@
         <v>393</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="J239" s="5">
         <v>-28</v>
@@ -22554,7 +22557,7 @@
         <v>395</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="J240" s="5">
         <v>-28</v>
@@ -22619,7 +22622,7 @@
         <v>397</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="J241" s="5">
         <v>-28</v>
@@ -22684,7 +22687,7 @@
         <v>399</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="J242" s="5">
         <v>-28</v>
@@ -22749,7 +22752,7 @@
         <v>401</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J243" s="5">
         <v>-28</v>
@@ -22814,7 +22817,7 @@
         <v>403</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="J244" s="5">
         <v>-28</v>
@@ -22879,7 +22882,7 @@
         <v>404</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J245" s="5">
         <v>-28</v>
@@ -22944,7 +22947,7 @@
         <v>405</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="J246" s="5">
         <v>-28</v>
@@ -23006,10 +23009,10 @@
         <v>1</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="J247" s="5">
         <v>-28</v>
@@ -23074,7 +23077,7 @@
         <v>459</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J248" s="5">
         <v>-28</v>
@@ -23139,7 +23142,7 @@
         <v>460</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J249" s="5">
         <v>-28</v>
@@ -23190,65 +23193,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="5">
+    <row r="250" spans="1:37" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="19">
         <v>249</v>
       </c>
-      <c r="B250" s="5">
+      <c r="B250" s="19">
         <v>10166</v>
       </c>
-      <c r="F250" s="5">
-        <v>1</v>
-      </c>
-      <c r="G250" s="8" t="s">
+      <c r="F250" s="19">
+        <v>1</v>
+      </c>
+      <c r="G250" s="43" t="s">
         <v>474</v>
       </c>
-      <c r="H250" s="5" t="s">
-        <v>885</v>
-      </c>
-      <c r="J250" s="5">
+      <c r="H250" s="19" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J250" s="19">
         <v>-28</v>
       </c>
-      <c r="K250" s="5">
-        <v>0</v>
-      </c>
-      <c r="L250" s="5">
-        <v>0</v>
-      </c>
-      <c r="M250" s="5" t="s">
+      <c r="K250" s="19">
+        <v>0</v>
+      </c>
+      <c r="L250" s="19">
+        <v>0</v>
+      </c>
+      <c r="M250" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="N250" s="5">
+      <c r="N250" s="19">
         <v>600</v>
       </c>
-      <c r="O250" s="5" t="s">
+      <c r="O250" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="P250" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="U250" s="5" t="s">
+      <c r="P250" s="19" t="s">
+        <v>1172</v>
+      </c>
+      <c r="U250" s="19" t="s">
         <v>565</v>
       </c>
-      <c r="V250" s="5">
+      <c r="V250" s="19">
         <v>9999999</v>
       </c>
-      <c r="W250" s="5">
-        <v>0</v>
-      </c>
-      <c r="X250" s="5">
+      <c r="W250" s="19">
+        <v>0</v>
+      </c>
+      <c r="X250" s="19">
         <v>2552233600</v>
       </c>
-      <c r="AF250" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG250" s="5">
-        <v>1</v>
-      </c>
-      <c r="AJ250" s="5">
-        <v>1</v>
-      </c>
-      <c r="AK250" s="5">
+      <c r="AF250" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG250" s="19">
+        <v>1</v>
+      </c>
+      <c r="AJ250" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK250" s="19">
         <v>1</v>
       </c>
     </row>
@@ -23266,7 +23269,7 @@
         <v>328</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="J251" s="5">
         <v>-29</v>
@@ -23287,13 +23290,13 @@
         <v>513</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="R251" s="5" t="s">
         <v>331</v>
       </c>
       <c r="S251" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="U251" s="5" t="s">
         <v>565</v>
@@ -23334,7 +23337,7 @@
         <v>497</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="J252" s="5">
         <v>-30</v>
@@ -23355,7 +23358,7 @@
         <v>473</v>
       </c>
       <c r="P252" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="U252" s="5" t="s">
         <v>645</v>
@@ -23396,7 +23399,7 @@
         <v>498</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="J253" s="5">
         <v>-30</v>
@@ -23417,7 +23420,7 @@
         <v>518</v>
       </c>
       <c r="P253" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="U253" s="5" t="s">
         <v>568</v>
@@ -23458,7 +23461,7 @@
         <v>515</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="J254" s="5">
         <v>-31</v>
@@ -23479,7 +23482,7 @@
         <v>517</v>
       </c>
       <c r="P254" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="U254" s="5" t="s">
         <v>568</v>
@@ -23523,7 +23526,7 @@
         <v>510</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="J255" s="5">
         <v>-31</v>
@@ -23544,7 +23547,7 @@
         <v>496</v>
       </c>
       <c r="P255" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="U255" s="5" t="s">
         <v>568</v>
@@ -23588,7 +23591,7 @@
         <v>511</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="J256" s="5">
         <v>-31</v>
@@ -23609,7 +23612,7 @@
         <v>529</v>
       </c>
       <c r="P256" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="U256" s="5" t="s">
         <v>568</v>
@@ -23653,7 +23656,7 @@
         <v>519</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="J257" s="5">
         <v>-31</v>
@@ -23674,13 +23677,13 @@
         <v>624</v>
       </c>
       <c r="P257" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="R257" s="5" t="s">
         <v>520</v>
       </c>
       <c r="S257" s="5" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="U257" s="5" t="s">
         <v>565</v>
@@ -23721,7 +23724,7 @@
         <v>551</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="J258" s="5">
         <v>-31</v>
@@ -23786,7 +23789,7 @@
         <v>381</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="J259" s="5">
         <v>-31</v>
@@ -23851,7 +23854,7 @@
         <v>383</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="J260" s="5">
         <v>-31</v>
@@ -23916,7 +23919,7 @@
         <v>385</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="J261" s="5">
         <v>-31</v>
@@ -23981,7 +23984,7 @@
         <v>387</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="J262" s="5">
         <v>-31</v>
@@ -24046,7 +24049,7 @@
         <v>389</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="J263" s="5">
         <v>-31</v>
@@ -24111,7 +24114,7 @@
         <v>522</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="J264" s="5">
         <v>-31</v>
@@ -24176,7 +24179,7 @@
         <v>523</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="J265" s="5">
         <v>-31</v>
@@ -24241,7 +24244,7 @@
         <v>524</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="J266" s="5">
         <v>-31</v>
@@ -24306,7 +24309,7 @@
         <v>525</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="J267" s="5">
         <v>-31</v>
@@ -24371,7 +24374,7 @@
         <v>526</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="J268" s="5">
         <v>-31</v>
@@ -24436,7 +24439,7 @@
         <v>527</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="J269" s="5">
         <v>-31</v>
@@ -24501,7 +24504,7 @@
         <v>403</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="J270" s="5">
         <v>-31</v>
@@ -24566,7 +24569,7 @@
         <v>404</v>
       </c>
       <c r="H271" s="5" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="J271" s="5">
         <v>-31</v>
@@ -24631,7 +24634,7 @@
         <v>405</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="J272" s="5">
         <v>-31</v>
@@ -24717,7 +24720,7 @@
         <v>90</v>
       </c>
       <c r="P273" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="U273" s="5" t="s">
         <v>565</v>
@@ -24754,7 +24757,7 @@
         <v>563</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="I274" s="5"/>
       <c r="J274" s="5">
@@ -24776,7 +24779,7 @@
         <v>564</v>
       </c>
       <c r="P274" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="Q274" s="5"/>
       <c r="R274" s="5"/>
@@ -24827,7 +24830,7 @@
         <v>569</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="J275" s="5">
         <v>-31</v>
@@ -24848,7 +24851,7 @@
         <v>603</v>
       </c>
       <c r="P275" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="U275" s="5" t="s">
         <v>565</v>
@@ -24892,7 +24895,7 @@
         <v>570</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="J276" s="5">
         <v>-31</v>
@@ -24913,7 +24916,7 @@
         <v>582</v>
       </c>
       <c r="P276" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="U276" s="5" t="s">
         <v>568</v>
@@ -24957,7 +24960,7 @@
         <v>571</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="J277" s="5">
         <v>-31</v>
@@ -24978,7 +24981,7 @@
         <v>582</v>
       </c>
       <c r="P277" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="U277" s="5" t="s">
         <v>579</v>
@@ -25022,7 +25025,7 @@
         <v>572</v>
       </c>
       <c r="H278" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="J278" s="5">
         <v>-31</v>
@@ -25043,7 +25046,7 @@
         <v>582</v>
       </c>
       <c r="P278" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="U278" s="5" t="s">
         <v>580</v>
@@ -25087,7 +25090,7 @@
         <v>573</v>
       </c>
       <c r="H279" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="J279" s="5">
         <v>-31</v>
@@ -25108,7 +25111,7 @@
         <v>582</v>
       </c>
       <c r="P279" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="U279" s="5" t="s">
         <v>581</v>
@@ -25152,7 +25155,7 @@
         <v>574</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="J280" s="5">
         <v>-31</v>
@@ -25173,7 +25176,7 @@
         <v>582</v>
       </c>
       <c r="P280" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="U280" s="5" t="s">
         <v>565</v>
@@ -25217,7 +25220,7 @@
         <v>575</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="J281" s="5">
         <v>-31</v>
@@ -25238,7 +25241,7 @@
         <v>582</v>
       </c>
       <c r="P281" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="U281" s="5" t="s">
         <v>568</v>
@@ -25282,7 +25285,7 @@
         <v>576</v>
       </c>
       <c r="H282" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="J282" s="5">
         <v>-31</v>
@@ -25303,7 +25306,7 @@
         <v>582</v>
       </c>
       <c r="P282" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="U282" s="5" t="s">
         <v>579</v>
@@ -25347,7 +25350,7 @@
         <v>577</v>
       </c>
       <c r="H283" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="J283" s="5">
         <v>-31</v>
@@ -25368,7 +25371,7 @@
         <v>582</v>
       </c>
       <c r="P283" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="U283" s="5" t="s">
         <v>580</v>
@@ -25412,7 +25415,7 @@
         <v>578</v>
       </c>
       <c r="H284" s="5" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="J284" s="5">
         <v>-31</v>
@@ -25433,7 +25436,7 @@
         <v>582</v>
       </c>
       <c r="P284" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="U284" s="5" t="s">
         <v>581</v>
@@ -25498,7 +25501,7 @@
         <v>582</v>
       </c>
       <c r="P285" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="U285" s="5" t="s">
         <v>568</v>
@@ -25560,7 +25563,7 @@
         <v>582</v>
       </c>
       <c r="P286" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="U286" s="5" t="s">
         <v>568</v>
@@ -25622,7 +25625,7 @@
         <v>582</v>
       </c>
       <c r="P287" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="U287" s="5" t="s">
         <v>568</v>
@@ -25684,7 +25687,7 @@
         <v>582</v>
       </c>
       <c r="P288" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="U288" s="5" t="s">
         <v>568</v>
@@ -25746,7 +25749,7 @@
         <v>582</v>
       </c>
       <c r="P289" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="U289" s="5" t="s">
         <v>568</v>
@@ -25808,7 +25811,7 @@
         <v>582</v>
       </c>
       <c r="P290" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="U290" s="5" t="s">
         <v>568</v>
@@ -25870,7 +25873,7 @@
         <v>582</v>
       </c>
       <c r="P291" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="U291" s="5" t="s">
         <v>568</v>
@@ -25932,7 +25935,7 @@
         <v>582</v>
       </c>
       <c r="P292" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="U292" s="5" t="s">
         <v>568</v>
@@ -25994,7 +25997,7 @@
         <v>632</v>
       </c>
       <c r="P293" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="U293" s="5" t="s">
         <v>568</v>
@@ -26035,7 +26038,7 @@
         <v>646</v>
       </c>
       <c r="H294" s="5" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="J294" s="5">
         <v>-31</v>
@@ -26056,7 +26059,7 @@
         <v>623</v>
       </c>
       <c r="P294" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="U294" s="5" t="s">
         <v>568</v>
@@ -26097,7 +26100,7 @@
         <v>647</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="J295" s="5">
         <v>-31</v>
@@ -26118,7 +26121,7 @@
         <v>623</v>
       </c>
       <c r="P295" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="U295" s="5" t="s">
         <v>568</v>
@@ -26159,7 +26162,7 @@
         <v>648</v>
       </c>
       <c r="H296" s="5" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="J296" s="5">
         <v>-31</v>
@@ -26180,7 +26183,7 @@
         <v>623</v>
       </c>
       <c r="P296" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="U296" s="5" t="s">
         <v>568</v>
@@ -26221,7 +26224,7 @@
         <v>649</v>
       </c>
       <c r="H297" s="5" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="J297" s="5">
         <v>-31</v>
@@ -26242,7 +26245,7 @@
         <v>623</v>
       </c>
       <c r="P297" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="U297" s="5" t="s">
         <v>568</v>
@@ -26283,7 +26286,7 @@
         <v>650</v>
       </c>
       <c r="H298" s="5" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="J298" s="5">
         <v>-31</v>
@@ -26304,7 +26307,7 @@
         <v>622</v>
       </c>
       <c r="P298" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="U298" s="5" t="s">
         <v>568</v>
@@ -26345,7 +26348,7 @@
         <v>651</v>
       </c>
       <c r="H299" s="5" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="J299" s="5">
         <v>-31</v>
@@ -26366,7 +26369,7 @@
         <v>621</v>
       </c>
       <c r="P299" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="U299" s="5" t="s">
         <v>568</v>
@@ -26407,7 +26410,7 @@
         <v>652</v>
       </c>
       <c r="H300" s="5" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="J300" s="5">
         <v>-31</v>
@@ -26428,7 +26431,7 @@
         <v>621</v>
       </c>
       <c r="P300" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="U300" s="5" t="s">
         <v>568</v>
@@ -26469,7 +26472,7 @@
         <v>653</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="J301" s="5">
         <v>-31</v>
@@ -26490,7 +26493,7 @@
         <v>621</v>
       </c>
       <c r="P301" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="U301" s="5" t="s">
         <v>568</v>
@@ -26531,7 +26534,7 @@
         <v>654</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="J302" s="5">
         <v>-31</v>
@@ -26552,7 +26555,7 @@
         <v>621</v>
       </c>
       <c r="P302" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="U302" s="5" t="s">
         <v>568</v>
@@ -26593,7 +26596,7 @@
         <v>655</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="J303" s="5">
         <v>-31</v>
@@ -26614,7 +26617,7 @@
         <v>621</v>
       </c>
       <c r="P303" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="U303" s="5" t="s">
         <v>568</v>
@@ -26655,7 +26658,7 @@
         <v>656</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="J304" s="5">
         <v>-31</v>
@@ -26676,7 +26679,7 @@
         <v>621</v>
       </c>
       <c r="P304" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="U304" s="5" t="s">
         <v>568</v>
@@ -26717,7 +26720,7 @@
         <v>657</v>
       </c>
       <c r="H305" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="J305" s="5">
         <v>-31</v>
@@ -26738,7 +26741,7 @@
         <v>621</v>
       </c>
       <c r="P305" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="U305" s="5" t="s">
         <v>568</v>
@@ -26779,7 +26782,7 @@
         <v>658</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="J306" s="5">
         <v>-31</v>
@@ -26800,7 +26803,7 @@
         <v>621</v>
       </c>
       <c r="P306" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="U306" s="5" t="s">
         <v>568</v>
@@ -26841,7 +26844,7 @@
         <v>659</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="J307" s="5">
         <v>-31</v>
@@ -26862,7 +26865,7 @@
         <v>621</v>
       </c>
       <c r="P307" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="U307" s="5" t="s">
         <v>568</v>
@@ -26903,7 +26906,7 @@
         <v>660</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="J308" s="5">
         <v>-31</v>
@@ -26924,7 +26927,7 @@
         <v>628</v>
       </c>
       <c r="P308" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="U308" s="5" t="s">
         <v>568</v>
@@ -26965,7 +26968,7 @@
         <v>661</v>
       </c>
       <c r="H309" s="5" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="J309" s="5">
         <v>-31</v>
@@ -26986,7 +26989,7 @@
         <v>633</v>
       </c>
       <c r="P309" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="U309" s="5" t="s">
         <v>568</v>
@@ -27024,10 +27027,10 @@
         <v>0</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="H310" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="J310" s="5">
         <v>-31</v>
@@ -27048,7 +27051,7 @@
         <v>634</v>
       </c>
       <c r="P310" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="U310" s="5" t="s">
         <v>568</v>
@@ -27086,10 +27089,10 @@
         <v>0</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="J311" s="5">
         <v>-31</v>
@@ -27110,7 +27113,7 @@
         <v>635</v>
       </c>
       <c r="P311" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="U311" s="5" t="s">
         <v>568</v>
@@ -27148,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="J312" s="5">
         <v>-31</v>
@@ -27172,7 +27175,7 @@
         <v>635</v>
       </c>
       <c r="P312" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="U312" s="5" t="s">
         <v>642</v>
@@ -27210,10 +27213,10 @@
         <v>0</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="J313" s="5">
         <v>-31</v>
@@ -27234,7 +27237,7 @@
         <v>635</v>
       </c>
       <c r="P313" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="U313" s="5" t="s">
         <v>643</v>
@@ -27272,10 +27275,10 @@
         <v>0</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="J314" s="5">
         <v>-31</v>
@@ -27296,7 +27299,7 @@
         <v>634</v>
       </c>
       <c r="P314" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="U314" s="5" t="s">
         <v>644</v>
@@ -27334,10 +27337,10 @@
         <v>0</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="J315" s="5">
         <v>-31</v>
@@ -27358,7 +27361,7 @@
         <v>635</v>
       </c>
       <c r="P315" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="U315" s="5" t="s">
         <v>645</v>
@@ -27585,7 +27588,7 @@
         <v>665</v>
       </c>
       <c r="H319" s="5" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="J319" s="5">
         <v>-23</v>
@@ -27606,7 +27609,7 @@
         <v>667</v>
       </c>
       <c r="P319" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="U319" s="5" t="s">
         <v>567</v>
@@ -27641,7 +27644,7 @@
         <v>666</v>
       </c>
       <c r="H320" s="5" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="J320" s="5">
         <v>-25</v>
@@ -27662,7 +27665,7 @@
         <v>668</v>
       </c>
       <c r="P320" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="U320" s="5" t="s">
         <v>567</v>
@@ -27697,7 +27700,7 @@
         <v>669</v>
       </c>
       <c r="H321" s="5" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="J321" s="5">
         <v>-23</v>
@@ -27718,7 +27721,7 @@
         <v>671</v>
       </c>
       <c r="P321" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="U321" s="5" t="s">
         <v>565</v>
@@ -27821,10 +27824,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="19" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="H323" s="19" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="I323" s="19"/>
       <c r="J323" s="19">
@@ -27843,10 +27846,10 @@
         <v>600</v>
       </c>
       <c r="O323" s="19" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="P323" s="19" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="Q323" s="19"/>
       <c r="R323" s="19"/>
@@ -27903,10 +27906,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="19" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="H324" s="19" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="I324" s="19"/>
       <c r="J324" s="19">
@@ -27925,7 +27928,7 @@
         <v>4800</v>
       </c>
       <c r="O324" s="19" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="P324" s="19" t="s">
         <v>806</v>
@@ -27985,10 +27988,10 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="H325" s="19" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="I325" s="19"/>
       <c r="J325" s="19">
@@ -28007,7 +28010,7 @@
         <v>9800</v>
       </c>
       <c r="O325" s="19" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="P325" s="19" t="s">
         <v>807</v>
@@ -28064,10 +28067,10 @@
         <v>1</v>
       </c>
       <c r="G326" s="41" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H326" s="41" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="J326" s="41">
         <v>-4</v>
@@ -28079,13 +28082,13 @@
         <v>0</v>
       </c>
       <c r="M326" s="41" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="N326" s="41">
         <v>100</v>
       </c>
       <c r="U326" s="41" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="V326" s="41">
         <v>9999999</v>
@@ -28097,13 +28100,13 @@
         <v>2552233600</v>
       </c>
       <c r="Z326" s="41" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="AA326" s="41" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AB326" s="42" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="AF326" s="41">
         <v>1</v>
@@ -28328,7 +28331,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -28568,10 +28571,10 @@
         <v>424</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>22</v>
@@ -28628,7 +28631,7 @@
         <v>42</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -28672,10 +28675,10 @@
         <v>3</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>50</v>
@@ -28737,10 +28740,10 @@
         <v>4</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>53</v>
@@ -28802,10 +28805,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>55</v>
@@ -28867,10 +28870,10 @@
         <v>6</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>57</v>
@@ -28932,10 +28935,10 @@
         <v>7</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>59</v>
@@ -28997,10 +29000,10 @@
         <v>9</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>61</v>
@@ -29059,10 +29062,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>50</v>
@@ -29121,7 +29124,7 @@
         <v>2</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="S9" s="11">
         <v>5000</v>
@@ -29139,7 +29142,7 @@
         <v>1</v>
       </c>
       <c r="AB9" s="34" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -29183,7 +29186,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="S10" s="11">
         <v>1000</v>
@@ -29201,7 +29204,7 @@
         <v>1</v>
       </c>
       <c r="AB10" s="34" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -29245,10 +29248,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>53</v>
@@ -29310,10 +29313,10 @@
         <v>9</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>63</v>
@@ -29375,10 +29378,10 @@
         <v>10</v>
       </c>
       <c r="P13" s="34" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>429</v>
@@ -29440,10 +29443,10 @@
         <v>11</v>
       </c>
       <c r="P14" s="34" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>430</v>
@@ -29505,7 +29508,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="11">
@@ -29524,7 +29527,7 @@
         <v>1</v>
       </c>
       <c r="AB15" s="34" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -29571,10 +29574,10 @@
         <v>3</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>72</v>
@@ -29633,10 +29636,10 @@
         <v>4</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="R17" s="34" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>75</v>
@@ -29695,10 +29698,10 @@
         <v>5</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>78</v>
@@ -29757,10 +29760,10 @@
         <v>6</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="R19" s="34" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>82</v>
@@ -29819,10 +29822,10 @@
         <v>7</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="R20" s="34" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>86</v>
@@ -29881,10 +29884,10 @@
         <v>0</v>
       </c>
       <c r="P21" s="36" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="R21" s="36" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="S21" s="35" t="s">
         <v>89</v>
@@ -29943,7 +29946,7 @@
         <v>2</v>
       </c>
       <c r="P22" s="34" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="11">
@@ -30003,7 +30006,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="34" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="R23" s="34"/>
       <c r="S23" s="11">
@@ -30066,7 +30069,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="34" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="R24" s="34"/>
       <c r="S24" s="11">
@@ -30085,7 +30088,7 @@
         <v>1</v>
       </c>
       <c r="AB24" s="34" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -30132,10 +30135,10 @@
         <v>8</v>
       </c>
       <c r="P25" s="34" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="R25" s="34" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="S25" s="34" t="s">
         <v>562</v>
@@ -30168,7 +30171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -30612,7 +30615,7 @@
         <v>457</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>441</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -2012,9 +2012,6 @@
     <t>expression_57</t>
   </si>
   <si>
-    <t>10000,</t>
-  </si>
-  <si>
     <t>猪头表情</t>
   </si>
   <si>
@@ -5416,6 +5413,10 @@
   </si>
   <si>
     <t>600000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6016,7 +6017,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -6043,10 +6044,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H2" s="12">
         <v>0</v>
@@ -6073,10 +6074,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H3" s="12">
         <v>1</v>
@@ -6103,10 +6104,10 @@
         <v>14</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -6205,7 +6206,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -6256,7 +6257,7 @@
         <v>30</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>31</v>
@@ -6318,7 +6319,7 @@
         <v>45</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>46</v>
@@ -6360,10 +6361,10 @@
         <v>50</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AC2" s="2">
         <v>1</v>
@@ -6398,7 +6399,7 @@
         <v>45</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>46</v>
@@ -6440,7 +6441,7 @@
         <v>53</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>51</v>
@@ -6478,7 +6479,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>46</v>
@@ -6520,7 +6521,7 @@
         <v>55</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>51</v>
@@ -6558,7 +6559,7 @@
         <v>45</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>46</v>
@@ -6600,7 +6601,7 @@
         <v>57</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>51</v>
@@ -6638,7 +6639,7 @@
         <v>45</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>46</v>
@@ -6680,7 +6681,7 @@
         <v>59</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>51</v>
@@ -6718,7 +6719,7 @@
         <v>45</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>46</v>
@@ -6760,7 +6761,7 @@
         <v>61</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>51</v>
@@ -6798,7 +6799,7 @@
         <v>45</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>46</v>
@@ -6840,7 +6841,7 @@
         <v>63</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Z8" s="2" t="s">
         <v>51</v>
@@ -6878,7 +6879,7 @@
         <v>45</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>46</v>
@@ -6920,7 +6921,7 @@
         <v>65</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Z9" s="2" t="s">
         <v>51</v>
@@ -6959,7 +6960,7 @@
         <v>45</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>46</v>
@@ -7001,7 +7002,7 @@
         <v>67</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="Z10" s="11" t="s">
         <v>51</v>
@@ -7042,7 +7043,7 @@
         <v>45</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>46</v>
@@ -7084,7 +7085,7 @@
         <v>72</v>
       </c>
       <c r="Y11" s="34" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Z11" s="11" t="s">
         <v>51</v>
@@ -7122,7 +7123,7 @@
         <v>45</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>46</v>
@@ -7164,7 +7165,7 @@
         <v>75</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Z12" s="11" t="s">
         <v>51</v>
@@ -7202,7 +7203,7 @@
         <v>45</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>46</v>
@@ -7244,7 +7245,7 @@
         <v>78</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Z13" s="11" t="s">
         <v>51</v>
@@ -7282,7 +7283,7 @@
         <v>45</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>46</v>
@@ -7324,7 +7325,7 @@
         <v>82</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Z14" s="11" t="s">
         <v>51</v>
@@ -7362,7 +7363,7 @@
         <v>45</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>46</v>
@@ -7404,7 +7405,7 @@
         <v>86</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Z15" s="11" t="s">
         <v>51</v>
@@ -7442,7 +7443,7 @@
         <v>45</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>46</v>
@@ -7484,7 +7485,7 @@
         <v>89</v>
       </c>
       <c r="Y16" s="34" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Z16" s="11" t="s">
         <v>51</v>
@@ -7514,7 +7515,7 @@
         <v>90</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>46</v>
@@ -7544,10 +7545,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="W17" s="11" t="s">
         <v>49</v>
@@ -7556,7 +7557,7 @@
         <v>50</v>
       </c>
       <c r="Y17" s="34" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Z17" s="11" t="s">
         <v>51</v>
@@ -7586,7 +7587,7 @@
         <v>90</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>46</v>
@@ -7616,10 +7617,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="W18" s="11" t="s">
         <v>49</v>
@@ -7628,7 +7629,7 @@
         <v>53</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Z18" s="11" t="s">
         <v>51</v>
@@ -7658,7 +7659,7 @@
         <v>90</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>46</v>
@@ -7688,10 +7689,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="W19" s="11" t="s">
         <v>49</v>
@@ -7700,7 +7701,7 @@
         <v>55</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Z19" s="11" t="s">
         <v>51</v>
@@ -7730,7 +7731,7 @@
         <v>90</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>46</v>
@@ -7760,10 +7761,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="W20" s="11" t="s">
         <v>49</v>
@@ -7772,7 +7773,7 @@
         <v>57</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="Z20" s="11" t="s">
         <v>51</v>
@@ -7802,7 +7803,7 @@
         <v>90</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>46</v>
@@ -7832,10 +7833,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="W21" s="11" t="s">
         <v>49</v>
@@ -7844,7 +7845,7 @@
         <v>59</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Z21" s="11" t="s">
         <v>51</v>
@@ -7874,7 +7875,7 @@
         <v>90</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K22" s="11" t="s">
         <v>46</v>
@@ -7904,10 +7905,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="W22" s="11" t="s">
         <v>49</v>
@@ -7916,7 +7917,7 @@
         <v>91</v>
       </c>
       <c r="Y22" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Z22" s="11" t="s">
         <v>51</v>
@@ -7946,7 +7947,7 @@
         <v>90</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K23" s="11" t="s">
         <v>46</v>
@@ -7976,10 +7977,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="W23" s="11" t="s">
         <v>49</v>
@@ -7988,7 +7989,7 @@
         <v>63</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Z23" s="11" t="s">
         <v>51</v>
@@ -8027,7 +8028,7 @@
         <v>45</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>46</v>
@@ -8057,19 +8058,19 @@
         <v>6</v>
       </c>
       <c r="T24" s="34" t="s">
+        <v>559</v>
+      </c>
+      <c r="U24" s="34" t="s">
         <v>560</v>
-      </c>
-      <c r="U24" s="34" t="s">
-        <v>561</v>
       </c>
       <c r="W24" s="11" t="s">
         <v>49</v>
       </c>
       <c r="X24" s="34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Z24" s="11" t="s">
         <v>51</v>
@@ -8093,7 +8094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL326"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H241" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8158,7 +8159,7 @@
         <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>95</v>
@@ -8191,16 +8192,16 @@
         <v>97</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>553</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>99</v>
@@ -8294,7 +8295,7 @@
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V2" s="7">
         <v>0</v>
@@ -8352,7 +8353,7 @@
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V3" s="7">
         <v>0</v>
@@ -8410,7 +8411,7 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="V4" s="7">
         <v>0</v>
@@ -8445,7 +8446,7 @@
         <v>120</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="5">
@@ -8467,13 +8468,13 @@
         <v>90</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="V5" s="14" t="s">
         <v>121</v>
@@ -8532,7 +8533,7 @@
         <v>126</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V6" s="7">
         <v>0</v>
@@ -8590,7 +8591,7 @@
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V7" s="7">
         <v>1000</v>
@@ -8622,7 +8623,7 @@
         <v>124</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J8" s="5">
         <v>-6</v>
@@ -8643,10 +8644,10 @@
         <v>130</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V8" s="5">
         <v>9999999</v>
@@ -8699,7 +8700,7 @@
         <v>133</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V9" s="7">
         <v>999999</v>
@@ -8752,7 +8753,7 @@
         <v>135</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V10" s="7">
         <v>0</v>
@@ -8805,7 +8806,7 @@
         <v>138</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V11" s="5">
         <v>999999</v>
@@ -8858,7 +8859,7 @@
         <v>141</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V12" s="5">
         <v>999999</v>
@@ -8890,7 +8891,7 @@
         <v>142</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J13" s="5">
         <v>-8</v>
@@ -8911,10 +8912,10 @@
         <v>143</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V13" s="5">
         <v>99999</v>
@@ -8967,7 +8968,7 @@
         <v>144</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V14" s="5">
         <v>99999</v>
@@ -8999,7 +9000,7 @@
         <v>146</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J15" s="5">
         <v>-8</v>
@@ -9023,7 +9024,7 @@
         <v>148</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V15" s="5">
         <v>99999</v>
@@ -9055,7 +9056,7 @@
         <v>149</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J16" s="5">
         <v>-8</v>
@@ -9079,7 +9080,7 @@
         <v>148</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V16" s="5">
         <v>99999</v>
@@ -9132,7 +9133,7 @@
         <v>152</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V17" s="5">
         <v>99999</v>
@@ -9188,7 +9189,7 @@
         <v>156</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V18" s="5">
         <v>99999</v>
@@ -9247,7 +9248,7 @@
         <v>159</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V19" s="5">
         <v>99999</v>
@@ -9297,13 +9298,13 @@
         <v>600</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V20" s="5">
         <v>999999</v>
@@ -9332,10 +9333,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J21" s="5">
         <v>-11</v>
@@ -9356,10 +9357,10 @@
         <v>161</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V21" s="5">
         <v>999999</v>
@@ -9394,7 +9395,7 @@
         <v>162</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J22" s="5">
         <v>-10</v>
@@ -9415,10 +9416,10 @@
         <v>161</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V22" s="5">
         <v>999999</v>
@@ -9450,10 +9451,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="8" t="s">
+        <v>900</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>901</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>902</v>
       </c>
       <c r="J23" s="5">
         <v>-13</v>
@@ -9477,7 +9478,7 @@
         <v>163</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V23" s="5">
         <v>999999</v>
@@ -9533,7 +9534,7 @@
         <v>163</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V24" s="5">
         <v>999999</v>
@@ -9589,7 +9590,7 @@
         <v>159</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V25" s="5">
         <v>2000</v>
@@ -9639,10 +9640,10 @@
         <v>90</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V26" s="14" t="s">
         <v>121</v>
@@ -9692,10 +9693,10 @@
         <v>90</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V27" s="14" t="s">
         <v>171</v>
@@ -9745,10 +9746,10 @@
         <v>90</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V28" s="14" t="s">
         <v>173</v>
@@ -9798,10 +9799,10 @@
         <v>90</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V29" s="14" t="s">
         <v>175</v>
@@ -9851,10 +9852,10 @@
         <v>90</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V30" s="14" t="s">
         <v>177</v>
@@ -9904,10 +9905,10 @@
         <v>90</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="U31" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V31" s="14" t="s">
         <v>179</v>
@@ -9957,10 +9958,10 @@
         <v>90</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U32" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V32" s="14" t="s">
         <v>181</v>
@@ -10010,10 +10011,10 @@
         <v>90</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U33" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V33" s="14" t="s">
         <v>183</v>
@@ -10063,10 +10064,10 @@
         <v>90</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V34" s="14" t="s">
         <v>185</v>
@@ -10116,10 +10117,10 @@
         <v>90</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U35" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V35" s="14" t="s">
         <v>187</v>
@@ -10169,10 +10170,10 @@
         <v>90</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U36" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V36" s="14" t="s">
         <v>189</v>
@@ -10222,10 +10223,10 @@
         <v>90</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="U37" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V37" s="14" t="s">
         <v>191</v>
@@ -10275,10 +10276,10 @@
         <v>90</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U38" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V38" s="14" t="s">
         <v>193</v>
@@ -10328,10 +10329,10 @@
         <v>90</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="U39" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V39" s="14" t="s">
         <v>195</v>
@@ -10381,10 +10382,10 @@
         <v>90</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V40" s="14" t="s">
         <v>197</v>
@@ -10434,10 +10435,10 @@
         <v>90</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V41" s="14" t="s">
         <v>199</v>
@@ -10487,10 +10488,10 @@
         <v>90</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U42" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V42" s="14" t="s">
         <v>201</v>
@@ -10540,10 +10541,10 @@
         <v>90</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="U43" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V43" s="14" t="s">
         <v>203</v>
@@ -10593,10 +10594,10 @@
         <v>90</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U44" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V44" s="14" t="s">
         <v>205</v>
@@ -10646,10 +10647,10 @@
         <v>90</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U45" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V45" s="14" t="s">
         <v>207</v>
@@ -10699,10 +10700,10 @@
         <v>90</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U46" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V46" s="14" t="s">
         <v>209</v>
@@ -10752,10 +10753,10 @@
         <v>90</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U47" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V47" s="14" t="s">
         <v>211</v>
@@ -10805,10 +10806,10 @@
         <v>90</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U48" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V48" s="14" t="s">
         <v>213</v>
@@ -10858,10 +10859,10 @@
         <v>90</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="U49" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V49" s="14" t="s">
         <v>215</v>
@@ -10911,10 +10912,10 @@
         <v>90</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="U50" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V50" s="14" t="s">
         <v>217</v>
@@ -10966,13 +10967,13 @@
         <v>219</v>
       </c>
       <c r="P51" s="14" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="Q51" s="7"/>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V51" s="5">
         <v>9999</v>
@@ -11024,13 +11025,13 @@
         <v>219</v>
       </c>
       <c r="P52" s="14" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="Q52" s="7"/>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
       <c r="U52" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V52" s="5">
         <v>9999</v>
@@ -11082,13 +11083,13 @@
         <v>219</v>
       </c>
       <c r="P53" s="14" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="Q53" s="7"/>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V53" s="5">
         <v>9999</v>
@@ -11120,7 +11121,7 @@
         <v>220</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="J54" s="5">
         <v>-13</v>
@@ -11141,10 +11142,10 @@
         <v>221</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="U54" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V54" s="5">
         <v>999999999</v>
@@ -11194,10 +11195,10 @@
         <v>223</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U55" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V55" s="5">
         <v>9999999</v>
@@ -11226,10 +11227,10 @@
         <v>1</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J56" s="22">
         <v>-18</v>
@@ -11250,10 +11251,10 @@
         <v>224</v>
       </c>
       <c r="P56" s="22" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="U56" s="22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V56" s="22">
         <v>999999</v>
@@ -11285,7 +11286,7 @@
         <v>225</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J57" s="5">
         <v>-19</v>
@@ -11306,10 +11307,10 @@
         <v>226</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U57" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V57" s="5">
         <v>999999</v>
@@ -11359,10 +11360,10 @@
         <v>90</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U58" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V58" s="14" t="s">
         <v>121</v>
@@ -11412,10 +11413,10 @@
         <v>90</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U59" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V59" s="14" t="s">
         <v>121</v>
@@ -11465,10 +11466,10 @@
         <v>90</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U60" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V60" s="14" t="s">
         <v>121</v>
@@ -11518,10 +11519,10 @@
         <v>90</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U61" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V61" s="14" t="s">
         <v>121</v>
@@ -11571,10 +11572,10 @@
         <v>90</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="U62" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V62" s="14" t="s">
         <v>121</v>
@@ -11624,10 +11625,10 @@
         <v>90</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="U63" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V63" s="14" t="s">
         <v>121</v>
@@ -11677,10 +11678,10 @@
         <v>90</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="U64" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V64" s="14" t="s">
         <v>195</v>
@@ -11730,10 +11731,10 @@
         <v>90</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="U65" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V65" s="14" t="s">
         <v>195</v>
@@ -11765,10 +11766,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H66" s="5" t="s">
         <v>1094</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>1095</v>
       </c>
       <c r="J66" s="5">
         <v>-4</v>
@@ -11786,7 +11787,7 @@
         <v>600</v>
       </c>
       <c r="U66" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V66" s="14" t="s">
         <v>121</v>
@@ -11801,10 +11802,10 @@
         <v>90</v>
       </c>
       <c r="AA66" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="AB66" s="10" t="s">
         <v>748</v>
-      </c>
-      <c r="AB66" s="10" t="s">
-        <v>749</v>
       </c>
       <c r="AF66" s="5">
         <v>1</v>
@@ -11848,10 +11849,10 @@
         <v>90</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="U67" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V67" s="14" t="s">
         <v>121</v>
@@ -11904,10 +11905,10 @@
         <v>90</v>
       </c>
       <c r="P68" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="U68" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V68" s="14" t="s">
         <v>121</v>
@@ -11960,10 +11961,10 @@
         <v>90</v>
       </c>
       <c r="P69" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="U69" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V69" s="14" t="s">
         <v>121</v>
@@ -12016,10 +12017,10 @@
         <v>90</v>
       </c>
       <c r="P70" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="U70" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V70" s="14" t="s">
         <v>121</v>
@@ -12072,10 +12073,10 @@
         <v>90</v>
       </c>
       <c r="P71" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="U71" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V71" s="14" t="s">
         <v>121</v>
@@ -12110,7 +12111,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J72" s="5">
         <v>-4</v>
@@ -12128,7 +12129,7 @@
         <v>600</v>
       </c>
       <c r="U72" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V72" s="14" t="s">
         <v>121</v>
@@ -12196,7 +12197,7 @@
         <v>237</v>
       </c>
       <c r="U73" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V73" s="14" t="s">
         <v>121</v>
@@ -12255,7 +12256,7 @@
         <v>239</v>
       </c>
       <c r="U74" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V74" s="14" t="s">
         <v>121</v>
@@ -12314,7 +12315,7 @@
         <v>241</v>
       </c>
       <c r="U75" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V75" s="14" t="s">
         <v>121</v>
@@ -12373,7 +12374,7 @@
         <v>248</v>
       </c>
       <c r="U76" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V76" s="14" t="s">
         <v>121</v>
@@ -12405,7 +12406,7 @@
         <v>249</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="J77" s="19">
         <v>-20</v>
@@ -12423,13 +12424,13 @@
         <v>100</v>
       </c>
       <c r="O77" s="19" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="U77" s="19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V77" s="38" t="s">
         <v>121</v>
@@ -12461,7 +12462,7 @@
         <v>250</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J78" s="19">
         <v>-20</v>
@@ -12479,13 +12480,13 @@
         <v>600</v>
       </c>
       <c r="O78" s="19" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="P78" s="19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U78" s="19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V78" s="38" t="s">
         <v>121</v>
@@ -12500,10 +12501,10 @@
         <v>90</v>
       </c>
       <c r="AA78" s="19" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AB78" s="40" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF78" s="19">
         <v>1</v>
@@ -12523,10 +12524,10 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J79" s="5">
         <v>-20</v>
@@ -12547,10 +12548,10 @@
         <v>251</v>
       </c>
       <c r="P79" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U79" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V79" s="14" t="s">
         <v>121</v>
@@ -12565,10 +12566,10 @@
         <v>90</v>
       </c>
       <c r="AA79" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AB79" s="10" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AF79" s="5">
         <v>1</v>
@@ -12588,10 +12589,10 @@
         <v>1</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J80" s="5">
         <v>-20</v>
@@ -12612,10 +12613,10 @@
         <v>251</v>
       </c>
       <c r="P80" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="U80" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V80" s="14" t="s">
         <v>121</v>
@@ -12630,13 +12631,13 @@
         <v>16</v>
       </c>
       <c r="Z80" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AA80" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AB80" s="10" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AF80" s="5">
         <v>1</v>
@@ -12659,7 +12660,7 @@
         <v>253</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J81" s="19">
         <v>-20</v>
@@ -12677,13 +12678,13 @@
         <v>4800</v>
       </c>
       <c r="O81" s="19" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P81" s="19" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="U81" s="19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V81" s="38" t="s">
         <v>121</v>
@@ -12695,10 +12696,10 @@
         <v>2552233600</v>
       </c>
       <c r="Z81" s="19" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AA81" s="19" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AF81" s="19">
         <v>1</v>
@@ -12721,7 +12722,7 @@
         <v>254</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J82" s="5">
         <v>-20</v>
@@ -12742,10 +12743,10 @@
         <v>255</v>
       </c>
       <c r="P82" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="U82" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V82" s="14" t="s">
         <v>121</v>
@@ -12777,7 +12778,7 @@
         <v>256</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J83" s="5">
         <v>-21</v>
@@ -12795,13 +12796,13 @@
         <v>4800</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="U83" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V83" s="5">
         <v>99999999</v>
@@ -12833,7 +12834,7 @@
         <v>257</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J84" s="5">
         <v>-22</v>
@@ -12851,13 +12852,13 @@
         <v>4800</v>
       </c>
       <c r="O84" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="U84" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V84" s="5">
         <v>99999999</v>
@@ -12886,10 +12887,10 @@
         <v>1</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J85" s="5">
         <v>-23</v>
@@ -12910,10 +12911,10 @@
         <v>251</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="U85" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="V85" s="14" t="s">
         <v>171</v>
@@ -12942,10 +12943,10 @@
         <v>1</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J86" s="5">
         <v>-24</v>
@@ -12963,7 +12964,7 @@
         <v>4800</v>
       </c>
       <c r="U86" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V86" s="5">
         <v>99999999</v>
@@ -12992,10 +12993,10 @@
         <v>1</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J87" s="5">
         <v>-25</v>
@@ -13016,10 +13017,10 @@
         <v>251</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="U87" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="V87" s="5">
         <v>99999999</v>
@@ -13051,7 +13052,7 @@
         <v>258</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J88" s="5">
         <v>-22</v>
@@ -13072,10 +13073,10 @@
         <v>259</v>
       </c>
       <c r="P88" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="U88" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V88" s="5">
         <v>99999999</v>
@@ -13107,7 +13108,7 @@
         <v>260</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="J89" s="5">
         <v>-22</v>
@@ -13128,10 +13129,10 @@
         <v>130</v>
       </c>
       <c r="P89" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="U89" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V89" s="5">
         <v>9999999</v>
@@ -13163,7 +13164,7 @@
         <v>262</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J90" s="5">
         <v>-22</v>
@@ -13184,10 +13185,10 @@
         <v>223</v>
       </c>
       <c r="P90" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="U90" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V90" s="5">
         <v>9999999</v>
@@ -13219,7 +13220,7 @@
         <v>263</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J91" s="5">
         <v>-22</v>
@@ -13243,7 +13244,7 @@
         <v>227</v>
       </c>
       <c r="U91" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V91" s="5">
         <v>9999999</v>
@@ -13275,7 +13276,7 @@
         <v>264</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J92" s="5">
         <v>-22</v>
@@ -13293,13 +13294,13 @@
         <v>4800</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="U92" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V92" s="5">
         <v>9999999</v>
@@ -13331,7 +13332,7 @@
         <v>265</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J93" s="5">
         <v>-22</v>
@@ -13352,10 +13353,10 @@
         <v>266</v>
       </c>
       <c r="P93" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="U93" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V93" s="5">
         <v>9999999</v>
@@ -13405,10 +13406,10 @@
         <v>90</v>
       </c>
       <c r="P94" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="U94" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V94" s="14" t="s">
         <v>121</v>
@@ -13440,7 +13441,7 @@
         <v>268</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J95" s="5">
         <v>-23</v>
@@ -13461,13 +13462,13 @@
         <v>219</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="Q95" s="7"/>
       <c r="S95" s="7"/>
       <c r="T95" s="7"/>
       <c r="U95" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V95" s="5">
         <v>9999999</v>
@@ -13499,7 +13500,7 @@
         <v>269</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J96" s="5">
         <v>-23</v>
@@ -13523,7 +13524,7 @@
         <v>261</v>
       </c>
       <c r="U96" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="V96" s="5">
         <v>9999999</v>
@@ -13555,7 +13556,7 @@
         <v>270</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J97" s="5">
         <v>-24</v>
@@ -13573,19 +13574,19 @@
         <v>4800</v>
       </c>
       <c r="O97" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="P97" s="5" t="s">
         <v>271</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="S97" s="5" t="s">
         <v>272</v>
       </c>
       <c r="U97" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V97" s="5">
         <v>9999999</v>
@@ -13617,7 +13618,7 @@
         <v>273</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J98" s="5">
         <v>-24</v>
@@ -13635,19 +13636,19 @@
         <v>9800</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="P98" s="5" t="s">
         <v>274</v>
       </c>
       <c r="R98" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="S98" s="5" t="s">
         <v>275</v>
       </c>
       <c r="U98" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V98" s="5">
         <v>9999999</v>
@@ -13679,7 +13680,7 @@
         <v>276</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J99" s="5">
         <v>-24</v>
@@ -13697,19 +13698,19 @@
         <v>19800</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="P99" s="5" t="s">
         <v>277</v>
       </c>
       <c r="R99" s="5" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="S99" s="5" t="s">
         <v>278</v>
       </c>
       <c r="U99" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V99" s="5">
         <v>9999999</v>
@@ -13738,10 +13739,10 @@
         <v>1</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J100" s="19">
         <v>-25</v>
@@ -13759,13 +13760,13 @@
         <v>100</v>
       </c>
       <c r="O100" s="19" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="P100" s="19" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="U100" s="19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V100" s="19">
         <v>50</v>
@@ -13801,10 +13802,10 @@
         <v>1</v>
       </c>
       <c r="G101" s="19" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J101" s="19">
         <v>-25</v>
@@ -13822,13 +13823,13 @@
         <v>1800</v>
       </c>
       <c r="O101" s="19" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P101" s="19" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="U101" s="19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V101" s="19">
         <v>20</v>
@@ -13867,7 +13868,7 @@
         <v>280</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J102" s="19">
         <v>-25</v>
@@ -13885,13 +13886,13 @@
         <v>4800</v>
       </c>
       <c r="O102" s="19" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P102" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="U102" s="19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V102" s="19">
         <v>10</v>
@@ -13927,10 +13928,10 @@
         <v>1</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J103" s="19">
         <v>-25</v>
@@ -13948,13 +13949,13 @@
         <v>100</v>
       </c>
       <c r="O103" s="19" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P103" s="19" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="U103" s="19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V103" s="19">
         <v>50</v>
@@ -13990,10 +13991,10 @@
         <v>1</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="J104" s="19">
         <v>-25</v>
@@ -14011,13 +14012,13 @@
         <v>2800</v>
       </c>
       <c r="O104" s="19" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P104" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="U104" s="19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V104" s="19">
         <v>20</v>
@@ -14056,7 +14057,7 @@
         <v>78</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J105" s="19">
         <v>-25</v>
@@ -14074,13 +14075,13 @@
         <v>9800</v>
       </c>
       <c r="O105" s="19" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="P105" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="U105" s="19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V105" s="19">
         <v>10</v>
@@ -14116,10 +14117,10 @@
         <v>1</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J106" s="19">
         <v>-25</v>
@@ -14137,13 +14138,13 @@
         <v>100</v>
       </c>
       <c r="O106" s="19" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P106" s="19" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="U106" s="19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V106" s="19">
         <v>50</v>
@@ -14182,7 +14183,7 @@
         <v>280</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J107" s="19">
         <v>-25</v>
@@ -14200,13 +14201,13 @@
         <v>4800</v>
       </c>
       <c r="O107" s="19" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="P107" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="U107" s="19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V107" s="19">
         <v>20</v>
@@ -14245,7 +14246,7 @@
         <v>82</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J108" s="19">
         <v>-25</v>
@@ -14263,13 +14264,13 @@
         <v>19800</v>
       </c>
       <c r="O108" s="19" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P108" s="19" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="U108" s="19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V108" s="19">
         <v>10</v>
@@ -14333,7 +14334,7 @@
       </c>
       <c r="Q109" s="7"/>
       <c r="U109" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V109" s="5">
         <v>99999999</v>
@@ -14365,7 +14366,7 @@
         <v>286</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J110" s="5">
         <v>-26</v>
@@ -14383,19 +14384,19 @@
         <v>3800</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="P110" s="5" t="s">
         <v>287</v>
       </c>
       <c r="R110" s="5" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="S110" s="5" t="s">
         <v>288</v>
       </c>
       <c r="U110" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V110" s="5">
         <v>9999999</v>
@@ -14427,7 +14428,7 @@
         <v>289</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="J111" s="5">
         <v>-26</v>
@@ -14445,19 +14446,19 @@
         <v>8800</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="P111" s="5" t="s">
         <v>290</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="S111" s="5" t="s">
         <v>291</v>
       </c>
       <c r="U111" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V111" s="5">
         <v>9999999</v>
@@ -14489,7 +14490,7 @@
         <v>292</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="J112" s="5">
         <v>-26</v>
@@ -14507,19 +14508,19 @@
         <v>18800</v>
       </c>
       <c r="O112" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="P112" s="5" t="s">
         <v>293</v>
       </c>
       <c r="R112" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="S112" s="5" t="s">
         <v>294</v>
       </c>
       <c r="U112" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V112" s="5">
         <v>9999999</v>
@@ -14551,7 +14552,7 @@
         <v>295</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="J113" s="5">
         <v>-26</v>
@@ -14575,7 +14576,7 @@
         <v>297</v>
       </c>
       <c r="U113" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V113" s="5">
         <v>9999999</v>
@@ -14607,7 +14608,7 @@
         <v>298</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J114" s="5">
         <v>-26</v>
@@ -14631,7 +14632,7 @@
         <v>299</v>
       </c>
       <c r="U114" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V114" s="5">
         <v>9999999</v>
@@ -14663,7 +14664,7 @@
         <v>300</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J115" s="5">
         <v>-26</v>
@@ -14681,13 +14682,13 @@
         <v>9800</v>
       </c>
       <c r="O115" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="P115" s="5" t="s">
         <v>301</v>
       </c>
       <c r="U115" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V115" s="5">
         <v>9999999</v>
@@ -14719,7 +14720,7 @@
         <v>302</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J116" s="5">
         <v>-27</v>
@@ -14737,19 +14738,19 @@
         <v>4800</v>
       </c>
       <c r="O116" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="P116" s="5" t="s">
         <v>303</v>
       </c>
       <c r="R116" s="5" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="S116" s="5" t="s">
         <v>304</v>
       </c>
       <c r="U116" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V116" s="5">
         <v>9999999</v>
@@ -14781,7 +14782,7 @@
         <v>305</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J117" s="5">
         <v>-27</v>
@@ -14799,19 +14800,19 @@
         <v>9800</v>
       </c>
       <c r="O117" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="P117" s="5" t="s">
         <v>274</v>
       </c>
       <c r="R117" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="S117" s="5" t="s">
         <v>275</v>
       </c>
       <c r="U117" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V117" s="5">
         <v>9999999</v>
@@ -14843,7 +14844,7 @@
         <v>306</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J118" s="5">
         <v>-28</v>
@@ -14867,7 +14868,7 @@
         <v>307</v>
       </c>
       <c r="U118" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V118" s="5">
         <v>9999999</v>
@@ -14899,7 +14900,7 @@
         <v>308</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="J119" s="5">
         <v>-28</v>
@@ -14923,7 +14924,7 @@
         <v>310</v>
       </c>
       <c r="U119" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="V119" s="5">
         <v>9999999</v>
@@ -14955,7 +14956,7 @@
         <v>311</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="J120" s="5">
         <v>-28</v>
@@ -14979,7 +14980,7 @@
         <v>313</v>
       </c>
       <c r="U120" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V120" s="5">
         <v>9999999</v>
@@ -15011,7 +15012,7 @@
         <v>314</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J121" s="5">
         <v>-28</v>
@@ -15038,7 +15039,7 @@
         <v>317</v>
       </c>
       <c r="U121" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V121" s="5">
         <v>9999999</v>
@@ -15070,7 +15071,7 @@
         <v>318</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J122" s="5">
         <v>-28</v>
@@ -15097,7 +15098,7 @@
         <v>320</v>
       </c>
       <c r="U122" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V122" s="5">
         <v>9999999</v>
@@ -15129,7 +15130,7 @@
         <v>321</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J123" s="5">
         <v>-28</v>
@@ -15156,7 +15157,7 @@
         <v>323</v>
       </c>
       <c r="U123" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V123" s="5">
         <v>9999999</v>
@@ -15188,7 +15189,7 @@
         <v>298</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J124" s="5">
         <v>-28</v>
@@ -15212,7 +15213,7 @@
         <v>316</v>
       </c>
       <c r="U124" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V124" s="5">
         <v>9999999</v>
@@ -15244,7 +15245,7 @@
         <v>324</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J125" s="5">
         <v>-28</v>
@@ -15268,7 +15269,7 @@
         <v>325</v>
       </c>
       <c r="U125" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V125" s="5">
         <v>9999999</v>
@@ -15300,7 +15301,7 @@
         <v>326</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="J126" s="5">
         <v>-28</v>
@@ -15324,7 +15325,7 @@
         <v>327</v>
       </c>
       <c r="U126" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V126" s="5">
         <v>9999999</v>
@@ -15356,7 +15357,7 @@
         <v>328</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="J127" s="5">
         <v>-29</v>
@@ -15386,7 +15387,7 @@
         <v>332</v>
       </c>
       <c r="U127" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V127" s="5">
         <v>9999999</v>
@@ -15439,10 +15440,10 @@
         <v>90</v>
       </c>
       <c r="P128" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="U128" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V128" s="14" t="s">
         <v>121</v>
@@ -15474,7 +15475,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J129" s="5">
         <v>-11</v>
@@ -15495,10 +15496,10 @@
         <v>90</v>
       </c>
       <c r="P129" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="U129" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V129" s="14" t="s">
         <v>121</v>
@@ -15530,7 +15531,7 @@
         <v>334</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J130" s="5">
         <v>-28</v>
@@ -15554,7 +15555,7 @@
         <v>336</v>
       </c>
       <c r="U130" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V130" s="5">
         <v>9999999</v>
@@ -15592,7 +15593,7 @@
         <v>252</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J131" s="5">
         <v>-28</v>
@@ -15616,7 +15617,7 @@
         <v>337</v>
       </c>
       <c r="U131" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V131" s="5">
         <v>9999999</v>
@@ -15654,7 +15655,7 @@
         <v>338</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="J132" s="5">
         <v>-28</v>
@@ -15678,7 +15679,7 @@
         <v>339</v>
       </c>
       <c r="U132" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V132" s="5">
         <v>9999999</v>
@@ -15716,7 +15717,7 @@
         <v>340</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="J133" s="5">
         <v>-28</v>
@@ -15737,10 +15738,10 @@
         <v>296</v>
       </c>
       <c r="P133" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="U133" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V133" s="5">
         <v>9999999</v>
@@ -15778,7 +15779,7 @@
         <v>341</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="J134" s="5">
         <v>-28</v>
@@ -15799,10 +15800,10 @@
         <v>309</v>
       </c>
       <c r="P134" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="U134" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V134" s="5">
         <v>9999999</v>
@@ -15840,7 +15841,7 @@
         <v>343</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="J135" s="5">
         <v>-28</v>
@@ -15861,10 +15862,10 @@
         <v>312</v>
       </c>
       <c r="P135" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="U135" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V135" s="5">
         <v>9999999</v>
@@ -15899,10 +15900,10 @@
         <v>1</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J136" s="5">
         <v>-28</v>
@@ -15923,10 +15924,10 @@
         <v>161</v>
       </c>
       <c r="P136" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="U136" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V136" s="5">
         <v>9999999</v>
@@ -15958,10 +15959,10 @@
         <v>1</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J137" s="5">
         <v>-28</v>
@@ -15982,10 +15983,10 @@
         <v>161</v>
       </c>
       <c r="P137" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="U137" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V137" s="5">
         <v>9999999</v>
@@ -16017,10 +16018,10 @@
         <v>1</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J138" s="5">
         <v>-28</v>
@@ -16041,10 +16042,10 @@
         <v>161</v>
       </c>
       <c r="P138" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="U138" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V138" s="5">
         <v>9999999</v>
@@ -16076,10 +16077,10 @@
         <v>1</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J139" s="5">
         <v>-28</v>
@@ -16100,10 +16101,10 @@
         <v>161</v>
       </c>
       <c r="P139" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="U139" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V139" s="5">
         <v>9999999</v>
@@ -16135,10 +16136,10 @@
         <v>1</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J140" s="5">
         <v>-28</v>
@@ -16159,10 +16160,10 @@
         <v>161</v>
       </c>
       <c r="P140" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="U140" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V140" s="5">
         <v>9999999</v>
@@ -16194,10 +16195,10 @@
         <v>1</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J141" s="5">
         <v>-28</v>
@@ -16218,10 +16219,10 @@
         <v>161</v>
       </c>
       <c r="P141" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="U141" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V141" s="5">
         <v>9999999</v>
@@ -16256,7 +16257,7 @@
         <v>344</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="J142" s="5">
         <v>-28</v>
@@ -16280,7 +16281,7 @@
         <v>336</v>
       </c>
       <c r="U142" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V142" s="5">
         <v>9999999</v>
@@ -16318,7 +16319,7 @@
         <v>345</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="J143" s="5">
         <v>-28</v>
@@ -16342,7 +16343,7 @@
         <v>342</v>
       </c>
       <c r="U143" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V143" s="5">
         <v>9999999</v>
@@ -16380,7 +16381,7 @@
         <v>346</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J144" s="5">
         <v>-28</v>
@@ -16404,7 +16405,7 @@
         <v>347</v>
       </c>
       <c r="U144" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V144" s="5">
         <v>9999999</v>
@@ -16445,7 +16446,7 @@
         <v>348</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J145" s="5">
         <v>-28</v>
@@ -16466,16 +16467,16 @@
         <v>349</v>
       </c>
       <c r="P145" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="R145" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S145" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="U145" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V145" s="5">
         <v>9999999</v>
@@ -16510,7 +16511,7 @@
         <v>350</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J146" s="5">
         <v>-28</v>
@@ -16531,16 +16532,16 @@
         <v>279</v>
       </c>
       <c r="P146" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R146" s="5" t="s">
         <v>161</v>
       </c>
       <c r="S146" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="U146" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V146" s="5">
         <v>9999999</v>
@@ -16575,7 +16576,7 @@
         <v>351</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J147" s="5">
         <v>-28</v>
@@ -16596,16 +16597,16 @@
         <v>279</v>
       </c>
       <c r="P147" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="R147" s="5" t="s">
         <v>161</v>
       </c>
       <c r="S147" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="U147" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V147" s="5">
         <v>9999999</v>
@@ -16640,7 +16641,7 @@
         <v>352</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J148" s="5">
         <v>-28</v>
@@ -16661,16 +16662,16 @@
         <v>279</v>
       </c>
       <c r="P148" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="R148" s="5" t="s">
         <v>161</v>
       </c>
       <c r="S148" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="U148" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V148" s="5">
         <v>9999999</v>
@@ -16705,7 +16706,7 @@
         <v>353</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J149" s="5">
         <v>-28</v>
@@ -16726,16 +16727,16 @@
         <v>279</v>
       </c>
       <c r="P149" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R149" s="5" t="s">
         <v>161</v>
       </c>
       <c r="S149" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="U149" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="V149" s="5">
         <v>9999999</v>
@@ -16767,7 +16768,7 @@
         <v>354</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="J150" s="5">
         <v>-28</v>
@@ -16791,7 +16792,7 @@
         <v>336</v>
       </c>
       <c r="U150" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V150" s="5">
         <v>9999999</v>
@@ -16829,7 +16830,7 @@
         <v>355</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="J151" s="5">
         <v>-28</v>
@@ -16853,7 +16854,7 @@
         <v>342</v>
       </c>
       <c r="U151" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V151" s="5">
         <v>9999999</v>
@@ -16891,7 +16892,7 @@
         <v>356</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J152" s="5">
         <v>-28</v>
@@ -16915,7 +16916,7 @@
         <v>347</v>
       </c>
       <c r="U152" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V152" s="5">
         <v>9999999</v>
@@ -16950,10 +16951,10 @@
         <v>1</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J153" s="5">
         <v>-28</v>
@@ -16974,16 +16975,16 @@
         <v>349</v>
       </c>
       <c r="P153" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="R153" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S153" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="U153" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V153" s="5">
         <v>99999999</v>
@@ -17015,7 +17016,7 @@
         <v>357</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J154" s="5">
         <v>-28</v>
@@ -17036,16 +17037,16 @@
         <v>349</v>
       </c>
       <c r="P154" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="R154" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S154" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="U154" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V154" s="5">
         <v>99999999</v>
@@ -17077,7 +17078,7 @@
         <v>358</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J155" s="5">
         <v>-28</v>
@@ -17098,16 +17099,16 @@
         <v>349</v>
       </c>
       <c r="P155" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="R155" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S155" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="U155" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V155" s="5">
         <v>99999999</v>
@@ -17139,7 +17140,7 @@
         <v>359</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J156" s="5">
         <v>-28</v>
@@ -17160,16 +17161,16 @@
         <v>349</v>
       </c>
       <c r="P156" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="R156" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S156" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="U156" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V156" s="5">
         <v>99999999</v>
@@ -17201,7 +17202,7 @@
         <v>360</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J157" s="5">
         <v>-28</v>
@@ -17222,16 +17223,16 @@
         <v>349</v>
       </c>
       <c r="P157" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="R157" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S157" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="U157" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V157" s="5">
         <v>99999999</v>
@@ -17263,7 +17264,7 @@
         <v>361</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J158" s="5">
         <v>-28</v>
@@ -17287,7 +17288,7 @@
         <v>362</v>
       </c>
       <c r="U158" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V158" s="5">
         <v>9999999</v>
@@ -17325,7 +17326,7 @@
         <v>363</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J159" s="5">
         <v>-28</v>
@@ -17349,7 +17350,7 @@
         <v>364</v>
       </c>
       <c r="U159" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V159" s="5">
         <v>9999999</v>
@@ -17387,7 +17388,7 @@
         <v>365</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J160" s="5">
         <v>-28</v>
@@ -17411,7 +17412,7 @@
         <v>366</v>
       </c>
       <c r="U160" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V160" s="5">
         <v>9999999</v>
@@ -17449,7 +17450,7 @@
         <v>367</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J161" s="5">
         <v>-28</v>
@@ -17473,7 +17474,7 @@
         <v>362</v>
       </c>
       <c r="U161" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V161" s="5">
         <v>9999999</v>
@@ -17511,7 +17512,7 @@
         <v>368</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J162" s="5">
         <v>-28</v>
@@ -17535,7 +17536,7 @@
         <v>364</v>
       </c>
       <c r="U162" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V162" s="5">
         <v>9999999</v>
@@ -17573,7 +17574,7 @@
         <v>369</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J163" s="5">
         <v>-28</v>
@@ -17597,7 +17598,7 @@
         <v>366</v>
       </c>
       <c r="U163" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V163" s="5">
         <v>9999999</v>
@@ -17632,10 +17633,10 @@
         <v>1</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="I164" s="5">
         <v>21032</v>
@@ -17659,10 +17660,10 @@
         <v>221</v>
       </c>
       <c r="P164" s="10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="U164" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V164" s="5">
         <v>9999999</v>
@@ -17700,7 +17701,7 @@
         <v>370</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J165" s="5">
         <v>-28</v>
@@ -17724,7 +17725,7 @@
         <v>362</v>
       </c>
       <c r="U165" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V165" s="5">
         <v>9999999</v>
@@ -17762,7 +17763,7 @@
         <v>371</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J166" s="5">
         <v>-28</v>
@@ -17786,7 +17787,7 @@
         <v>364</v>
       </c>
       <c r="U166" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V166" s="5">
         <v>9999999</v>
@@ -17824,7 +17825,7 @@
         <v>372</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J167" s="5">
         <v>-28</v>
@@ -17848,7 +17849,7 @@
         <v>366</v>
       </c>
       <c r="U167" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V167" s="5">
         <v>9999999</v>
@@ -17886,7 +17887,7 @@
         <v>373</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J168" s="5">
         <v>-28</v>
@@ -17907,10 +17908,10 @@
         <v>374</v>
       </c>
       <c r="P168" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="U168" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V168" s="5">
         <v>9999999</v>
@@ -17948,7 +17949,7 @@
         <v>1</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H169" s="5" t="s">
         <v>375</v>
@@ -17975,7 +17976,7 @@
         <v>377</v>
       </c>
       <c r="U169" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V169" s="5">
         <v>9999999</v>
@@ -18013,7 +18014,7 @@
         <v>378</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J170" s="5">
         <v>-28</v>
@@ -18034,10 +18035,10 @@
         <v>279</v>
       </c>
       <c r="P170" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="U170" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V170" s="5">
         <v>9999999</v>
@@ -18072,10 +18073,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="J171" s="19">
         <v>-28</v>
@@ -18093,13 +18094,13 @@
         <v>100</v>
       </c>
       <c r="O171" s="19" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="P171" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="U171" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="V171" s="19">
         <v>9999999</v>
@@ -18137,10 +18138,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="J172" s="19">
         <v>-28</v>
@@ -18158,13 +18159,13 @@
         <v>300</v>
       </c>
       <c r="O172" s="19" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="P172" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="U172" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V172" s="19">
         <v>9999999</v>
@@ -18202,10 +18203,10 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="J173" s="19">
         <v>-28</v>
@@ -18223,13 +18224,13 @@
         <v>600</v>
       </c>
       <c r="O173" s="19" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="P173" s="19" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="U173" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V173" s="19">
         <v>9999999</v>
@@ -18267,10 +18268,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="J174" s="19">
         <v>-28</v>
@@ -18288,13 +18289,13 @@
         <v>600</v>
       </c>
       <c r="O174" s="19" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="P174" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="U174" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V174" s="19">
         <v>9999999</v>
@@ -18332,10 +18333,10 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J175" s="19">
         <v>-28</v>
@@ -18353,13 +18354,13 @@
         <v>1000</v>
       </c>
       <c r="O175" s="19" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="P175" s="19" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="U175" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V175" s="19">
         <v>9999999</v>
@@ -18397,10 +18398,10 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J176" s="19">
         <v>-28</v>
@@ -18418,13 +18419,13 @@
         <v>1800</v>
       </c>
       <c r="O176" s="19" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="U176" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V176" s="19">
         <v>9999999</v>
@@ -18462,10 +18463,10 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J177" s="19">
         <v>-28</v>
@@ -18483,13 +18484,13 @@
         <v>1800</v>
       </c>
       <c r="O177" s="19" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="U177" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V177" s="19">
         <v>9999999</v>
@@ -18527,10 +18528,10 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J178" s="19">
         <v>-28</v>
@@ -18548,13 +18549,13 @@
         <v>4800</v>
       </c>
       <c r="O178" s="19" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="P178" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U178" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V178" s="19">
         <v>9999999</v>
@@ -18592,10 +18593,10 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J179" s="19">
         <v>-28</v>
@@ -18613,13 +18614,13 @@
         <v>9800</v>
       </c>
       <c r="O179" s="19" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="P179" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="U179" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V179" s="19">
         <v>9999999</v>
@@ -18657,10 +18658,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="J180" s="19">
         <v>-28</v>
@@ -18678,13 +18679,13 @@
         <v>4800</v>
       </c>
       <c r="O180" s="19" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="P180" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U180" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V180" s="19">
         <v>9999999</v>
@@ -18722,10 +18723,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J181" s="19">
         <v>-28</v>
@@ -18743,13 +18744,13 @@
         <v>9800</v>
       </c>
       <c r="O181" s="19" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="P181" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="U181" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V181" s="19">
         <v>9999999</v>
@@ -18787,10 +18788,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J182" s="19">
         <v>-28</v>
@@ -18808,13 +18809,13 @@
         <v>19800</v>
       </c>
       <c r="O182" s="19" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="P182" s="19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="U182" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V182" s="19">
         <v>9999999</v>
@@ -18852,10 +18853,10 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="J183" s="19">
         <v>-28</v>
@@ -18873,13 +18874,13 @@
         <v>9800</v>
       </c>
       <c r="O183" s="19" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="P183" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="U183" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V183" s="19">
         <v>9999999</v>
@@ -18917,10 +18918,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J184" s="19">
         <v>-28</v>
@@ -18938,13 +18939,13 @@
         <v>19800</v>
       </c>
       <c r="O184" s="19" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="P184" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="U184" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V184" s="19">
         <v>9999999</v>
@@ -18982,10 +18983,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="J185" s="19">
         <v>-28</v>
@@ -19003,13 +19004,13 @@
         <v>49800</v>
       </c>
       <c r="O185" s="19" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="P185" s="19" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="U185" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V185" s="19">
         <v>9999999</v>
@@ -19050,7 +19051,7 @@
         <v>328</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J186" s="5">
         <v>-29</v>
@@ -19068,19 +19069,19 @@
         <v>600</v>
       </c>
       <c r="O186" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P186" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="R186" s="5" t="s">
         <v>331</v>
       </c>
       <c r="S186" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="U186" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V186" s="5">
         <v>9999999</v>
@@ -19112,7 +19113,7 @@
         <v>379</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J187" s="5">
         <v>-28</v>
@@ -19136,7 +19137,7 @@
         <v>380</v>
       </c>
       <c r="U187" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V187" s="5">
         <v>9999999</v>
@@ -19177,7 +19178,7 @@
         <v>381</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J188" s="5">
         <v>-28</v>
@@ -19201,7 +19202,7 @@
         <v>382</v>
       </c>
       <c r="U188" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V188" s="5">
         <v>9999999</v>
@@ -19242,7 +19243,7 @@
         <v>383</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J189" s="5">
         <v>-28</v>
@@ -19266,7 +19267,7 @@
         <v>384</v>
       </c>
       <c r="U189" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V189" s="5">
         <v>9999999</v>
@@ -19307,7 +19308,7 @@
         <v>385</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J190" s="5">
         <v>-28</v>
@@ -19331,7 +19332,7 @@
         <v>386</v>
       </c>
       <c r="U190" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V190" s="5">
         <v>9999999</v>
@@ -19372,7 +19373,7 @@
         <v>387</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J191" s="5">
         <v>-28</v>
@@ -19396,7 +19397,7 @@
         <v>388</v>
       </c>
       <c r="U191" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V191" s="5">
         <v>9999999</v>
@@ -19437,7 +19438,7 @@
         <v>389</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J192" s="5">
         <v>-28</v>
@@ -19461,7 +19462,7 @@
         <v>390</v>
       </c>
       <c r="U192" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V192" s="5">
         <v>9999999</v>
@@ -19502,7 +19503,7 @@
         <v>391</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J193" s="5">
         <v>-28</v>
@@ -19526,7 +19527,7 @@
         <v>392</v>
       </c>
       <c r="U193" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V193" s="5">
         <v>9999999</v>
@@ -19567,7 +19568,7 @@
         <v>393</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J194" s="5">
         <v>-28</v>
@@ -19591,7 +19592,7 @@
         <v>394</v>
       </c>
       <c r="U194" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V194" s="5">
         <v>9999999</v>
@@ -19632,7 +19633,7 @@
         <v>395</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J195" s="5">
         <v>-28</v>
@@ -19656,7 +19657,7 @@
         <v>396</v>
       </c>
       <c r="U195" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V195" s="5">
         <v>9999999</v>
@@ -19697,7 +19698,7 @@
         <v>397</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J196" s="5">
         <v>-28</v>
@@ -19721,7 +19722,7 @@
         <v>398</v>
       </c>
       <c r="U196" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V196" s="5">
         <v>9999999</v>
@@ -19762,7 +19763,7 @@
         <v>399</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J197" s="5">
         <v>-28</v>
@@ -19786,7 +19787,7 @@
         <v>400</v>
       </c>
       <c r="U197" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V197" s="5">
         <v>9999999</v>
@@ -19827,7 +19828,7 @@
         <v>401</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J198" s="5">
         <v>-28</v>
@@ -19851,7 +19852,7 @@
         <v>402</v>
       </c>
       <c r="U198" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V198" s="5">
         <v>9999999</v>
@@ -19892,7 +19893,7 @@
         <v>403</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J199" s="5">
         <v>-28</v>
@@ -19916,7 +19917,7 @@
         <v>400</v>
       </c>
       <c r="U199" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V199" s="5">
         <v>9999999</v>
@@ -19957,7 +19958,7 @@
         <v>404</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J200" s="5">
         <v>-28</v>
@@ -19981,7 +19982,7 @@
         <v>402</v>
       </c>
       <c r="U200" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V200" s="5">
         <v>9999999</v>
@@ -20022,7 +20023,7 @@
         <v>405</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J201" s="5">
         <v>-28</v>
@@ -20046,7 +20047,7 @@
         <v>406</v>
       </c>
       <c r="U201" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V201" s="5">
         <v>9999999</v>
@@ -20087,7 +20088,7 @@
         <v>379</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J202" s="5">
         <v>-28</v>
@@ -20111,7 +20112,7 @@
         <v>380</v>
       </c>
       <c r="U202" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V202" s="5">
         <v>9999999</v>
@@ -20152,7 +20153,7 @@
         <v>381</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J203" s="5">
         <v>-28</v>
@@ -20176,7 +20177,7 @@
         <v>382</v>
       </c>
       <c r="U203" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V203" s="5">
         <v>9999999</v>
@@ -20217,7 +20218,7 @@
         <v>383</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J204" s="5">
         <v>-28</v>
@@ -20241,7 +20242,7 @@
         <v>384</v>
       </c>
       <c r="U204" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V204" s="5">
         <v>9999999</v>
@@ -20282,7 +20283,7 @@
         <v>385</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J205" s="5">
         <v>-28</v>
@@ -20306,7 +20307,7 @@
         <v>386</v>
       </c>
       <c r="U205" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V205" s="5">
         <v>9999999</v>
@@ -20347,7 +20348,7 @@
         <v>387</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J206" s="5">
         <v>-28</v>
@@ -20371,7 +20372,7 @@
         <v>388</v>
       </c>
       <c r="U206" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V206" s="5">
         <v>9999999</v>
@@ -20412,7 +20413,7 @@
         <v>389</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J207" s="5">
         <v>-28</v>
@@ -20436,7 +20437,7 @@
         <v>390</v>
       </c>
       <c r="U207" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V207" s="5">
         <v>9999999</v>
@@ -20477,7 +20478,7 @@
         <v>391</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J208" s="5">
         <v>-28</v>
@@ -20501,7 +20502,7 @@
         <v>392</v>
       </c>
       <c r="U208" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V208" s="5">
         <v>9999999</v>
@@ -20542,7 +20543,7 @@
         <v>393</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J209" s="5">
         <v>-28</v>
@@ -20566,7 +20567,7 @@
         <v>394</v>
       </c>
       <c r="U209" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V209" s="5">
         <v>9999999</v>
@@ -20607,7 +20608,7 @@
         <v>395</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J210" s="5">
         <v>-28</v>
@@ -20631,7 +20632,7 @@
         <v>396</v>
       </c>
       <c r="U210" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V210" s="5">
         <v>9999999</v>
@@ -20672,7 +20673,7 @@
         <v>397</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J211" s="5">
         <v>-28</v>
@@ -20696,7 +20697,7 @@
         <v>398</v>
       </c>
       <c r="U211" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V211" s="5">
         <v>9999999</v>
@@ -20737,7 +20738,7 @@
         <v>399</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J212" s="5">
         <v>-28</v>
@@ -20761,7 +20762,7 @@
         <v>400</v>
       </c>
       <c r="U212" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V212" s="5">
         <v>9999999</v>
@@ -20802,7 +20803,7 @@
         <v>401</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J213" s="5">
         <v>-28</v>
@@ -20826,7 +20827,7 @@
         <v>402</v>
       </c>
       <c r="U213" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V213" s="5">
         <v>9999999</v>
@@ -20867,7 +20868,7 @@
         <v>403</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J214" s="5">
         <v>-28</v>
@@ -20891,7 +20892,7 @@
         <v>400</v>
       </c>
       <c r="U214" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V214" s="5">
         <v>9999999</v>
@@ -20932,7 +20933,7 @@
         <v>404</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J215" s="5">
         <v>-28</v>
@@ -20956,7 +20957,7 @@
         <v>402</v>
       </c>
       <c r="U215" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V215" s="5">
         <v>9999999</v>
@@ -20997,7 +20998,7 @@
         <v>405</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J216" s="5">
         <v>-28</v>
@@ -21021,7 +21022,7 @@
         <v>406</v>
       </c>
       <c r="U216" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V216" s="5">
         <v>9999999</v>
@@ -21062,7 +21063,7 @@
         <v>379</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J217" s="5">
         <v>-28</v>
@@ -21080,13 +21081,13 @@
         <v>100</v>
       </c>
       <c r="O217" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="P217" s="5" t="s">
         <v>380</v>
       </c>
       <c r="U217" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V217" s="5">
         <v>9999999</v>
@@ -21127,7 +21128,7 @@
         <v>381</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J218" s="5">
         <v>-28</v>
@@ -21151,7 +21152,7 @@
         <v>382</v>
       </c>
       <c r="U218" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V218" s="5">
         <v>9999999</v>
@@ -21192,7 +21193,7 @@
         <v>383</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J219" s="5">
         <v>-28</v>
@@ -21216,7 +21217,7 @@
         <v>384</v>
       </c>
       <c r="U219" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V219" s="5">
         <v>9999999</v>
@@ -21257,7 +21258,7 @@
         <v>385</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J220" s="5">
         <v>-28</v>
@@ -21281,7 +21282,7 @@
         <v>386</v>
       </c>
       <c r="U220" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V220" s="5">
         <v>9999999</v>
@@ -21322,7 +21323,7 @@
         <v>387</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J221" s="5">
         <v>-28</v>
@@ -21346,7 +21347,7 @@
         <v>388</v>
       </c>
       <c r="U221" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V221" s="5">
         <v>9999999</v>
@@ -21387,7 +21388,7 @@
         <v>389</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J222" s="5">
         <v>-28</v>
@@ -21411,7 +21412,7 @@
         <v>390</v>
       </c>
       <c r="U222" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V222" s="5">
         <v>9999999</v>
@@ -21452,7 +21453,7 @@
         <v>391</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J223" s="5">
         <v>-28</v>
@@ -21476,7 +21477,7 @@
         <v>392</v>
       </c>
       <c r="U223" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V223" s="5">
         <v>9999999</v>
@@ -21517,7 +21518,7 @@
         <v>393</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J224" s="5">
         <v>-28</v>
@@ -21541,7 +21542,7 @@
         <v>394</v>
       </c>
       <c r="U224" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V224" s="5">
         <v>9999999</v>
@@ -21582,7 +21583,7 @@
         <v>395</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J225" s="5">
         <v>-28</v>
@@ -21606,7 +21607,7 @@
         <v>396</v>
       </c>
       <c r="U225" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V225" s="5">
         <v>9999999</v>
@@ -21647,7 +21648,7 @@
         <v>397</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J226" s="5">
         <v>-28</v>
@@ -21671,7 +21672,7 @@
         <v>398</v>
       </c>
       <c r="U226" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V226" s="5">
         <v>9999999</v>
@@ -21712,7 +21713,7 @@
         <v>399</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J227" s="5">
         <v>-28</v>
@@ -21736,7 +21737,7 @@
         <v>400</v>
       </c>
       <c r="U227" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V227" s="5">
         <v>9999999</v>
@@ -21777,7 +21778,7 @@
         <v>401</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J228" s="5">
         <v>-28</v>
@@ -21801,7 +21802,7 @@
         <v>402</v>
       </c>
       <c r="U228" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V228" s="5">
         <v>9999999</v>
@@ -21842,7 +21843,7 @@
         <v>403</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J229" s="5">
         <v>-28</v>
@@ -21866,7 +21867,7 @@
         <v>400</v>
       </c>
       <c r="U229" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V229" s="5">
         <v>9999999</v>
@@ -21907,7 +21908,7 @@
         <v>404</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J230" s="5">
         <v>-28</v>
@@ -21931,7 +21932,7 @@
         <v>402</v>
       </c>
       <c r="U230" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V230" s="5">
         <v>9999999</v>
@@ -21972,7 +21973,7 @@
         <v>405</v>
       </c>
       <c r="H231" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J231" s="5">
         <v>-28</v>
@@ -21996,7 +21997,7 @@
         <v>406</v>
       </c>
       <c r="U231" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V231" s="5">
         <v>9999999</v>
@@ -22037,7 +22038,7 @@
         <v>379</v>
       </c>
       <c r="H232" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J232" s="5">
         <v>-28</v>
@@ -22061,7 +22062,7 @@
         <v>380</v>
       </c>
       <c r="U232" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V232" s="5">
         <v>9999999</v>
@@ -22102,7 +22103,7 @@
         <v>381</v>
       </c>
       <c r="H233" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J233" s="5">
         <v>-28</v>
@@ -22126,7 +22127,7 @@
         <v>382</v>
       </c>
       <c r="U233" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V233" s="5">
         <v>9999999</v>
@@ -22167,7 +22168,7 @@
         <v>383</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J234" s="5">
         <v>-28</v>
@@ -22191,7 +22192,7 @@
         <v>384</v>
       </c>
       <c r="U234" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V234" s="5">
         <v>9999999</v>
@@ -22232,7 +22233,7 @@
         <v>385</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J235" s="5">
         <v>-28</v>
@@ -22256,7 +22257,7 @@
         <v>386</v>
       </c>
       <c r="U235" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V235" s="5">
         <v>9999999</v>
@@ -22297,7 +22298,7 @@
         <v>387</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J236" s="5">
         <v>-28</v>
@@ -22321,7 +22322,7 @@
         <v>388</v>
       </c>
       <c r="U236" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V236" s="5">
         <v>9999999</v>
@@ -22362,7 +22363,7 @@
         <v>389</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J237" s="5">
         <v>-28</v>
@@ -22386,7 +22387,7 @@
         <v>390</v>
       </c>
       <c r="U237" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V237" s="5">
         <v>9999999</v>
@@ -22427,7 +22428,7 @@
         <v>391</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J238" s="5">
         <v>-28</v>
@@ -22451,7 +22452,7 @@
         <v>392</v>
       </c>
       <c r="U238" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V238" s="5">
         <v>9999999</v>
@@ -22492,7 +22493,7 @@
         <v>393</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J239" s="5">
         <v>-28</v>
@@ -22516,7 +22517,7 @@
         <v>394</v>
       </c>
       <c r="U239" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V239" s="5">
         <v>9999999</v>
@@ -22557,7 +22558,7 @@
         <v>395</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J240" s="5">
         <v>-28</v>
@@ -22581,7 +22582,7 @@
         <v>396</v>
       </c>
       <c r="U240" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V240" s="5">
         <v>9999999</v>
@@ -22622,7 +22623,7 @@
         <v>397</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J241" s="5">
         <v>-28</v>
@@ -22646,7 +22647,7 @@
         <v>398</v>
       </c>
       <c r="U241" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V241" s="5">
         <v>9999999</v>
@@ -22687,7 +22688,7 @@
         <v>399</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J242" s="5">
         <v>-28</v>
@@ -22711,7 +22712,7 @@
         <v>400</v>
       </c>
       <c r="U242" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V242" s="5">
         <v>9999999</v>
@@ -22752,7 +22753,7 @@
         <v>401</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J243" s="5">
         <v>-28</v>
@@ -22770,13 +22771,13 @@
         <v>19800</v>
       </c>
       <c r="O243" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P243" s="5" t="s">
         <v>402</v>
       </c>
       <c r="U243" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V243" s="5">
         <v>9999999</v>
@@ -22817,7 +22818,7 @@
         <v>403</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J244" s="5">
         <v>-28</v>
@@ -22841,7 +22842,7 @@
         <v>400</v>
       </c>
       <c r="U244" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V244" s="5">
         <v>9999999</v>
@@ -22882,7 +22883,7 @@
         <v>404</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J245" s="5">
         <v>-28</v>
@@ -22906,7 +22907,7 @@
         <v>402</v>
       </c>
       <c r="U245" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V245" s="5">
         <v>9999999</v>
@@ -22947,7 +22948,7 @@
         <v>405</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J246" s="5">
         <v>-28</v>
@@ -22971,7 +22972,7 @@
         <v>406</v>
       </c>
       <c r="U246" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V246" s="5">
         <v>9999999</v>
@@ -23009,10 +23010,10 @@
         <v>1</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J247" s="5">
         <v>-28</v>
@@ -23033,10 +23034,10 @@
         <v>161</v>
       </c>
       <c r="P247" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="U247" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V247" s="5">
         <v>9999999</v>
@@ -23074,10 +23075,10 @@
         <v>1</v>
       </c>
       <c r="G248" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="J248" s="5">
         <v>-28</v>
@@ -23098,10 +23099,10 @@
         <v>161</v>
       </c>
       <c r="P248" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="U248" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V248" s="5">
         <v>9999999</v>
@@ -23139,10 +23140,10 @@
         <v>1</v>
       </c>
       <c r="G249" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J249" s="5">
         <v>-28</v>
@@ -23163,10 +23164,10 @@
         <v>161</v>
       </c>
       <c r="P249" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="U249" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V249" s="5">
         <v>9999999</v>
@@ -23204,10 +23205,10 @@
         <v>1</v>
       </c>
       <c r="G250" s="43" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H250" s="19" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J250" s="19">
         <v>-28</v>
@@ -23225,13 +23226,13 @@
         <v>600</v>
       </c>
       <c r="O250" s="19" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P250" s="19" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="U250" s="19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V250" s="19">
         <v>9999999</v>
@@ -23269,7 +23270,7 @@
         <v>328</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J251" s="5">
         <v>-29</v>
@@ -23287,19 +23288,19 @@
         <v>600</v>
       </c>
       <c r="O251" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="R251" s="5" t="s">
         <v>331</v>
       </c>
       <c r="S251" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="U251" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V251" s="5">
         <v>9999999</v>
@@ -23334,10 +23335,10 @@
         <v>1</v>
       </c>
       <c r="G252" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="J252" s="5">
         <v>-30</v>
@@ -23355,13 +23356,13 @@
         <v>19800</v>
       </c>
       <c r="O252" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P252" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="U252" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V252" s="5">
         <v>9999999</v>
@@ -23396,10 +23397,10 @@
         <v>0</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="J253" s="5">
         <v>-30</v>
@@ -23411,19 +23412,19 @@
         <v>0</v>
       </c>
       <c r="M253" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N253" s="5">
         <v>100</v>
       </c>
       <c r="O253" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P253" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="U253" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V253" s="5">
         <v>9999999</v>
@@ -23458,10 +23459,10 @@
         <v>1</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="J254" s="5">
         <v>-31</v>
@@ -23473,19 +23474,19 @@
         <v>0</v>
       </c>
       <c r="M254" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N254" s="5">
         <v>600</v>
       </c>
       <c r="O254" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P254" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="U254" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V254" s="5">
         <v>9999999</v>
@@ -23523,10 +23524,10 @@
         <v>1</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J255" s="5">
         <v>-31</v>
@@ -23538,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="M255" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N255" s="5">
         <v>1800</v>
       </c>
       <c r="O255" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="P255" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="U255" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V255" s="5">
         <v>9999999</v>
@@ -23588,10 +23589,10 @@
         <v>1</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J256" s="5">
         <v>-31</v>
@@ -23603,19 +23604,19 @@
         <v>0</v>
       </c>
       <c r="M256" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N256" s="5">
         <v>3000</v>
       </c>
       <c r="O256" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P256" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="U256" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V256" s="5">
         <v>9999999</v>
@@ -23653,10 +23654,10 @@
         <v>0</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="J257" s="5">
         <v>-31</v>
@@ -23668,25 +23669,25 @@
         <v>0</v>
       </c>
       <c r="M257" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N257" s="5">
         <v>9800</v>
       </c>
       <c r="O257" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P257" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="R257" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S257" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="U257" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V257" s="5">
         <v>9999999</v>
@@ -23721,10 +23722,10 @@
         <v>0</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J258" s="5">
         <v>-31</v>
@@ -23736,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="M258" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N258" s="5">
         <v>100</v>
       </c>
       <c r="O258" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P258" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U258" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V258" s="5">
         <v>9999999</v>
@@ -23789,7 +23790,7 @@
         <v>381</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J259" s="5">
         <v>-31</v>
@@ -23801,19 +23802,19 @@
         <v>0</v>
       </c>
       <c r="M259" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N259" s="5">
         <v>300</v>
       </c>
       <c r="O259" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P259" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="U259" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V259" s="5">
         <v>9999999</v>
@@ -23854,7 +23855,7 @@
         <v>383</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J260" s="5">
         <v>-31</v>
@@ -23866,19 +23867,19 @@
         <v>0</v>
       </c>
       <c r="M260" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N260" s="5">
         <v>600</v>
       </c>
       <c r="O260" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P260" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="U260" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V260" s="5">
         <v>9999999</v>
@@ -23919,7 +23920,7 @@
         <v>385</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J261" s="5">
         <v>-31</v>
@@ -23931,19 +23932,19 @@
         <v>0</v>
       </c>
       <c r="M261" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N261" s="5">
         <v>600</v>
       </c>
       <c r="O261" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="P261" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="U261" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V261" s="5">
         <v>9999999</v>
@@ -23984,7 +23985,7 @@
         <v>387</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J262" s="5">
         <v>-31</v>
@@ -23996,19 +23997,19 @@
         <v>0</v>
       </c>
       <c r="M262" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N262" s="5">
         <v>1200</v>
       </c>
       <c r="O262" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P262" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="U262" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V262" s="5">
         <v>9999999</v>
@@ -24049,7 +24050,7 @@
         <v>389</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J263" s="5">
         <v>-31</v>
@@ -24061,19 +24062,19 @@
         <v>0</v>
       </c>
       <c r="M263" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N263" s="5">
         <v>1800</v>
       </c>
       <c r="O263" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P263" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="U263" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V263" s="5">
         <v>9999999</v>
@@ -24111,10 +24112,10 @@
         <v>0</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J264" s="5">
         <v>-31</v>
@@ -24126,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="M264" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N264" s="5">
         <v>1800</v>
       </c>
       <c r="O264" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P264" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="U264" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V264" s="5">
         <v>9999999</v>
@@ -24176,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J265" s="5">
         <v>-31</v>
@@ -24191,19 +24192,19 @@
         <v>0</v>
       </c>
       <c r="M265" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N265" s="5">
         <v>4800</v>
       </c>
       <c r="O265" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="P265" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="U265" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V265" s="5">
         <v>9999999</v>
@@ -24241,10 +24242,10 @@
         <v>0</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J266" s="5">
         <v>-31</v>
@@ -24256,19 +24257,19 @@
         <v>0</v>
       </c>
       <c r="M266" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N266" s="5">
         <v>9800</v>
       </c>
       <c r="O266" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P266" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="U266" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V266" s="5">
         <v>9999999</v>
@@ -24306,10 +24307,10 @@
         <v>0</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J267" s="5">
         <v>-31</v>
@@ -24321,19 +24322,19 @@
         <v>0</v>
       </c>
       <c r="M267" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N267" s="5">
         <v>4800</v>
       </c>
       <c r="O267" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="P267" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="U267" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V267" s="5">
         <v>9999999</v>
@@ -24371,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J268" s="5">
         <v>-31</v>
@@ -24386,19 +24387,19 @@
         <v>0</v>
       </c>
       <c r="M268" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N268" s="5">
         <v>9800</v>
       </c>
       <c r="O268" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="P268" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="U268" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V268" s="5">
         <v>9999999</v>
@@ -24436,10 +24437,10 @@
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J269" s="5">
         <v>-31</v>
@@ -24451,19 +24452,19 @@
         <v>0</v>
       </c>
       <c r="M269" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N269" s="5">
         <v>19800</v>
       </c>
       <c r="O269" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P269" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="U269" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V269" s="5">
         <v>9999999</v>
@@ -24504,7 +24505,7 @@
         <v>403</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J270" s="5">
         <v>-31</v>
@@ -24516,19 +24517,19 @@
         <v>0</v>
       </c>
       <c r="M270" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N270" s="5">
         <v>9800</v>
       </c>
       <c r="O270" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="P270" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="U270" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V270" s="5">
         <v>9999999</v>
@@ -24569,7 +24570,7 @@
         <v>404</v>
       </c>
       <c r="H271" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J271" s="5">
         <v>-31</v>
@@ -24581,19 +24582,19 @@
         <v>0</v>
       </c>
       <c r="M271" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N271" s="5">
         <v>19800</v>
       </c>
       <c r="O271" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P271" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="U271" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V271" s="5">
         <v>9999999</v>
@@ -24634,7 +24635,7 @@
         <v>405</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J272" s="5">
         <v>-31</v>
@@ -24646,19 +24647,19 @@
         <v>0</v>
       </c>
       <c r="M272" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N272" s="5">
         <v>49800</v>
       </c>
       <c r="O272" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P272" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="U272" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V272" s="5">
         <v>9999999</v>
@@ -24699,7 +24700,7 @@
         <v>1</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J273" s="5">
         <v>-10</v>
@@ -24720,10 +24721,10 @@
         <v>90</v>
       </c>
       <c r="P273" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="U273" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V273" s="14" t="s">
         <v>121</v>
@@ -24754,10 +24755,10 @@
         <v>0</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I274" s="5"/>
       <c r="J274" s="5">
@@ -24776,17 +24777,17 @@
         <v>600</v>
       </c>
       <c r="O274" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="P274" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="Q274" s="5"/>
       <c r="R274" s="5"/>
       <c r="S274" s="5"/>
       <c r="T274" s="5"/>
       <c r="U274" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V274" s="19">
         <v>9999999</v>
@@ -24827,10 +24828,10 @@
         <v>0</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J275" s="5">
         <v>-31</v>
@@ -24842,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="M275" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N275" s="5">
         <v>0</v>
       </c>
       <c r="O275" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="P275" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="U275" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V275" s="5">
         <v>9999999</v>
@@ -24892,10 +24893,10 @@
         <v>0</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J276" s="5">
         <v>-31</v>
@@ -24907,19 +24908,19 @@
         <v>0</v>
       </c>
       <c r="M276" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N276" s="5">
         <v>300</v>
       </c>
       <c r="O276" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P276" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="U276" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V276" s="5">
         <v>9999999</v>
@@ -24957,10 +24958,10 @@
         <v>0</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J277" s="5">
         <v>-31</v>
@@ -24972,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="M277" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N277" s="5">
         <v>600</v>
       </c>
       <c r="O277" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P277" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="U277" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="V277" s="5">
         <v>9999999</v>
@@ -25022,10 +25023,10 @@
         <v>0</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H278" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J278" s="5">
         <v>-31</v>
@@ -25037,19 +25038,19 @@
         <v>0</v>
       </c>
       <c r="M278" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N278" s="5">
         <v>1800</v>
       </c>
       <c r="O278" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P278" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="U278" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="V278" s="5">
         <v>9999999</v>
@@ -25087,10 +25088,10 @@
         <v>0</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H279" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J279" s="5">
         <v>-31</v>
@@ -25102,19 +25103,19 @@
         <v>0</v>
       </c>
       <c r="M279" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N279" s="5">
         <v>4800</v>
       </c>
       <c r="O279" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P279" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="U279" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="V279" s="5">
         <v>9999999</v>
@@ -25152,10 +25153,10 @@
         <v>0</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J280" s="5">
         <v>-31</v>
@@ -25167,19 +25168,19 @@
         <v>0</v>
       </c>
       <c r="M280" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N280" s="5">
         <v>0</v>
       </c>
       <c r="O280" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P280" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="U280" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V280" s="5">
         <v>9999999</v>
@@ -25217,10 +25218,10 @@
         <v>0</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J281" s="5">
         <v>-31</v>
@@ -25232,19 +25233,19 @@
         <v>0</v>
       </c>
       <c r="M281" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N281" s="5">
         <v>1800</v>
       </c>
       <c r="O281" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P281" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="U281" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V281" s="5">
         <v>9999999</v>
@@ -25282,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H282" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J282" s="5">
         <v>-31</v>
@@ -25297,19 +25298,19 @@
         <v>0</v>
       </c>
       <c r="M282" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N282" s="5">
         <v>4800</v>
       </c>
       <c r="O282" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P282" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="U282" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="V282" s="5">
         <v>9999999</v>
@@ -25347,10 +25348,10 @@
         <v>0</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H283" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J283" s="5">
         <v>-31</v>
@@ -25362,19 +25363,19 @@
         <v>0</v>
       </c>
       <c r="M283" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N283" s="5">
         <v>9800</v>
       </c>
       <c r="O283" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P283" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="U283" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="V283" s="5">
         <v>9999999</v>
@@ -25412,10 +25413,10 @@
         <v>0</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H284" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J284" s="5">
         <v>-31</v>
@@ -25427,19 +25428,19 @@
         <v>0</v>
       </c>
       <c r="M284" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N284" s="5">
         <v>19800</v>
       </c>
       <c r="O284" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P284" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="U284" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="V284" s="5">
         <v>9999999</v>
@@ -25477,10 +25478,10 @@
         <v>0</v>
       </c>
       <c r="G285" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="H285" s="5" t="s">
         <v>583</v>
-      </c>
-      <c r="H285" s="5" t="s">
-        <v>584</v>
       </c>
       <c r="J285" s="5">
         <v>-31</v>
@@ -25492,19 +25493,19 @@
         <v>0</v>
       </c>
       <c r="M285" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N285" s="5">
         <v>600</v>
       </c>
       <c r="O285" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P285" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="U285" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V285" s="5">
         <v>9999999</v>
@@ -25539,10 +25540,10 @@
         <v>0</v>
       </c>
       <c r="G286" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H286" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J286" s="5">
         <v>-31</v>
@@ -25554,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="M286" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N286" s="5">
         <v>1500</v>
       </c>
       <c r="O286" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P286" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="U286" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V286" s="5">
         <v>9999999</v>
@@ -25601,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H287" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J287" s="5">
         <v>-31</v>
@@ -25616,19 +25617,19 @@
         <v>0</v>
       </c>
       <c r="M287" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N287" s="5">
         <v>3000</v>
       </c>
       <c r="O287" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P287" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="U287" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V287" s="5">
         <v>9999999</v>
@@ -25663,10 +25664,10 @@
         <v>0</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H288" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J288" s="5">
         <v>-31</v>
@@ -25678,19 +25679,19 @@
         <v>0</v>
       </c>
       <c r="M288" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N288" s="5">
         <v>5000</v>
       </c>
       <c r="O288" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P288" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="U288" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V288" s="5">
         <v>9999999</v>
@@ -25725,10 +25726,10 @@
         <v>0</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H289" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J289" s="5">
         <v>-31</v>
@@ -25740,19 +25741,19 @@
         <v>0</v>
       </c>
       <c r="M289" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N289" s="5">
         <v>9800</v>
       </c>
       <c r="O289" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P289" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="U289" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V289" s="5">
         <v>9999999</v>
@@ -25787,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H290" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J290" s="5">
         <v>-31</v>
@@ -25802,19 +25803,19 @@
         <v>0</v>
       </c>
       <c r="M290" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N290" s="5">
         <v>19800</v>
       </c>
       <c r="O290" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P290" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="U290" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V290" s="5">
         <v>9999999</v>
@@ -25849,10 +25850,10 @@
         <v>0</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H291" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J291" s="5">
         <v>-31</v>
@@ -25864,19 +25865,19 @@
         <v>0</v>
       </c>
       <c r="M291" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N291" s="5">
         <v>49800</v>
       </c>
       <c r="O291" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P291" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="U291" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V291" s="5">
         <v>9999999</v>
@@ -25911,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H292" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J292" s="5">
         <v>-31</v>
@@ -25926,19 +25927,19 @@
         <v>0</v>
       </c>
       <c r="M292" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N292" s="5">
         <v>99800</v>
       </c>
       <c r="O292" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P292" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="U292" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V292" s="5">
         <v>9999999</v>
@@ -25973,10 +25974,10 @@
         <v>0</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H293" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J293" s="5">
         <v>-31</v>
@@ -25988,19 +25989,19 @@
         <v>0</v>
       </c>
       <c r="M293" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N293" s="5">
         <v>249800</v>
       </c>
       <c r="O293" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P293" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="U293" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V293" s="5">
         <v>9999999</v>
@@ -26035,10 +26036,10 @@
         <v>0</v>
       </c>
       <c r="G294" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H294" s="5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J294" s="5">
         <v>-31</v>
@@ -26050,19 +26051,19 @@
         <v>0</v>
       </c>
       <c r="M294" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N294" s="5">
         <v>100</v>
       </c>
       <c r="O294" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="P294" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="U294" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V294" s="5">
         <v>9999999</v>
@@ -26097,10 +26098,10 @@
         <v>0</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J295" s="5">
         <v>-31</v>
@@ -26112,19 +26113,19 @@
         <v>0</v>
       </c>
       <c r="M295" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N295" s="5">
         <v>300</v>
       </c>
       <c r="O295" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="P295" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="U295" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V295" s="5">
         <v>9999999</v>
@@ -26159,10 +26160,10 @@
         <v>0</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H296" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="J296" s="5">
         <v>-31</v>
@@ -26174,19 +26175,19 @@
         <v>0</v>
       </c>
       <c r="M296" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N296" s="5">
         <v>600</v>
       </c>
       <c r="O296" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="P296" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="U296" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V296" s="5">
         <v>9999999</v>
@@ -26221,10 +26222,10 @@
         <v>0</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H297" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="J297" s="5">
         <v>-31</v>
@@ -26236,19 +26237,19 @@
         <v>0</v>
       </c>
       <c r="M297" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N297" s="5">
         <v>600</v>
       </c>
       <c r="O297" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="P297" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="U297" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V297" s="5">
         <v>9999999</v>
@@ -26283,10 +26284,10 @@
         <v>0</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H298" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="J298" s="5">
         <v>-31</v>
@@ -26298,19 +26299,19 @@
         <v>0</v>
       </c>
       <c r="M298" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N298" s="5">
         <v>1200</v>
       </c>
       <c r="O298" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="P298" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="U298" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V298" s="5">
         <v>9999999</v>
@@ -26345,10 +26346,10 @@
         <v>0</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H299" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="J299" s="5">
         <v>-31</v>
@@ -26360,19 +26361,19 @@
         <v>0</v>
       </c>
       <c r="M299" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N299" s="5">
         <v>1800</v>
       </c>
       <c r="O299" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P299" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="U299" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V299" s="5">
         <v>9999999</v>
@@ -26407,10 +26408,10 @@
         <v>0</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H300" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J300" s="5">
         <v>-31</v>
@@ -26422,19 +26423,19 @@
         <v>0</v>
       </c>
       <c r="M300" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N300" s="5">
         <v>1800</v>
       </c>
       <c r="O300" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P300" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="U300" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V300" s="5">
         <v>9999999</v>
@@ -26469,10 +26470,10 @@
         <v>0</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J301" s="5">
         <v>-31</v>
@@ -26484,19 +26485,19 @@
         <v>0</v>
       </c>
       <c r="M301" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N301" s="5">
         <v>3000</v>
       </c>
       <c r="O301" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P301" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="U301" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V301" s="5">
         <v>9999999</v>
@@ -26531,10 +26532,10 @@
         <v>0</v>
       </c>
       <c r="G302" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J302" s="5">
         <v>-31</v>
@@ -26546,19 +26547,19 @@
         <v>0</v>
       </c>
       <c r="M302" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N302" s="5">
         <v>4800</v>
       </c>
       <c r="O302" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P302" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="U302" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V302" s="5">
         <v>9999999</v>
@@ -26593,10 +26594,10 @@
         <v>0</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J303" s="5">
         <v>-31</v>
@@ -26608,19 +26609,19 @@
         <v>0</v>
       </c>
       <c r="M303" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N303" s="5">
         <v>4800</v>
       </c>
       <c r="O303" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P303" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="U303" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V303" s="5">
         <v>9999999</v>
@@ -26655,10 +26656,10 @@
         <v>0</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="J304" s="5">
         <v>-31</v>
@@ -26670,19 +26671,19 @@
         <v>0</v>
       </c>
       <c r="M304" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N304" s="5">
         <v>9800</v>
       </c>
       <c r="O304" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P304" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="U304" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V304" s="5">
         <v>9999999</v>
@@ -26717,10 +26718,10 @@
         <v>0</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H305" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="J305" s="5">
         <v>-31</v>
@@ -26732,19 +26733,19 @@
         <v>0</v>
       </c>
       <c r="M305" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N305" s="5">
         <v>19800</v>
       </c>
       <c r="O305" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P305" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="U305" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V305" s="5">
         <v>9999999</v>
@@ -26779,10 +26780,10 @@
         <v>0</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="J306" s="5">
         <v>-31</v>
@@ -26794,19 +26795,19 @@
         <v>0</v>
       </c>
       <c r="M306" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N306" s="5">
         <v>9800</v>
       </c>
       <c r="O306" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P306" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="U306" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V306" s="5">
         <v>9999999</v>
@@ -26841,10 +26842,10 @@
         <v>0</v>
       </c>
       <c r="G307" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="J307" s="5">
         <v>-31</v>
@@ -26856,19 +26857,19 @@
         <v>0</v>
       </c>
       <c r="M307" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N307" s="5">
         <v>19800</v>
       </c>
       <c r="O307" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P307" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="U307" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V307" s="5">
         <v>9999999</v>
@@ -26903,10 +26904,10 @@
         <v>0</v>
       </c>
       <c r="G308" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="J308" s="5">
         <v>-31</v>
@@ -26918,19 +26919,19 @@
         <v>0</v>
       </c>
       <c r="M308" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N308" s="5">
         <v>49800</v>
       </c>
       <c r="O308" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="P308" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="U308" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V308" s="5">
         <v>9999999</v>
@@ -26965,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="G309" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H309" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J309" s="5">
         <v>-31</v>
@@ -26980,19 +26981,19 @@
         <v>0</v>
       </c>
       <c r="M309" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N309" s="5">
         <v>0</v>
       </c>
       <c r="O309" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P309" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="U309" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V309" s="5">
         <v>9999999</v>
@@ -27027,10 +27028,10 @@
         <v>0</v>
       </c>
       <c r="G310" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="H310" s="5" t="s">
         <v>998</v>
-      </c>
-      <c r="H310" s="5" t="s">
-        <v>999</v>
       </c>
       <c r="J310" s="5">
         <v>-31</v>
@@ -27042,19 +27043,19 @@
         <v>0</v>
       </c>
       <c r="M310" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N310" s="5">
         <v>0</v>
       </c>
       <c r="O310" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P310" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="U310" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V310" s="5">
         <v>9999999</v>
@@ -27089,10 +27090,10 @@
         <v>0</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J311" s="5">
         <v>-31</v>
@@ -27104,19 +27105,19 @@
         <v>0</v>
       </c>
       <c r="M311" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N311" s="5">
         <v>600</v>
       </c>
       <c r="O311" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P311" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="U311" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V311" s="5">
         <v>9999999</v>
@@ -27151,10 +27152,10 @@
         <v>0</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J312" s="5">
         <v>-31</v>
@@ -27166,19 +27167,19 @@
         <v>0</v>
       </c>
       <c r="M312" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N312" s="5">
         <v>1800</v>
       </c>
       <c r="O312" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P312" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="U312" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="V312" s="5">
         <v>9999999</v>
@@ -27213,10 +27214,10 @@
         <v>0</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J313" s="5">
         <v>-31</v>
@@ -27228,19 +27229,19 @@
         <v>0</v>
       </c>
       <c r="M313" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N313" s="5">
         <v>4800</v>
       </c>
       <c r="O313" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P313" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="U313" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="V313" s="5">
         <v>9999999</v>
@@ -27275,10 +27276,10 @@
         <v>0</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J314" s="5">
         <v>-31</v>
@@ -27290,19 +27291,19 @@
         <v>0</v>
       </c>
       <c r="M314" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N314" s="5">
         <v>9800</v>
       </c>
       <c r="O314" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P314" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="U314" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="V314" s="5">
         <v>9999999</v>
@@ -27337,10 +27338,10 @@
         <v>0</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J315" s="5">
         <v>-31</v>
@@ -27352,19 +27353,19 @@
         <v>0</v>
       </c>
       <c r="M315" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N315" s="5">
         <v>19800</v>
       </c>
       <c r="O315" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P315" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="U315" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V315" s="5">
         <v>9999999</v>
@@ -27399,10 +27400,10 @@
         <v>0</v>
       </c>
       <c r="G316" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H316" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J316" s="5">
         <v>-31</v>
@@ -27414,19 +27415,19 @@
         <v>0</v>
       </c>
       <c r="M316" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N316" s="5">
         <v>0</v>
       </c>
       <c r="O316" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="P316" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="U316" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V316" s="5">
         <v>20</v>
@@ -27461,10 +27462,10 @@
         <v>0</v>
       </c>
       <c r="G317" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H317" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J317" s="5">
         <v>-31</v>
@@ -27476,19 +27477,19 @@
         <v>0</v>
       </c>
       <c r="M317" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N317" s="5">
         <v>0</v>
       </c>
       <c r="O317" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P317" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="U317" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V317" s="5">
         <v>20</v>
@@ -27523,10 +27524,10 @@
         <v>0</v>
       </c>
       <c r="G318" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H318" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J318" s="5">
         <v>-31</v>
@@ -27538,19 +27539,19 @@
         <v>0</v>
       </c>
       <c r="M318" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N318" s="5">
         <v>0</v>
       </c>
       <c r="O318" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P318" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="U318" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="V318" s="5">
         <v>9</v>
@@ -27585,10 +27586,10 @@
         <v>1</v>
       </c>
       <c r="G319" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H319" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J319" s="5">
         <v>-23</v>
@@ -27606,13 +27607,13 @@
         <v>4800</v>
       </c>
       <c r="O319" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="P319" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="U319" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="V319" s="5">
         <v>99999999</v>
@@ -27641,10 +27642,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H320" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="J320" s="5">
         <v>-25</v>
@@ -27662,13 +27663,13 @@
         <v>9600</v>
       </c>
       <c r="O320" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="P320" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="U320" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="V320" s="5">
         <v>99999999</v>
@@ -27697,10 +27698,10 @@
         <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H321" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="J321" s="5">
         <v>-23</v>
@@ -27712,19 +27713,19 @@
         <v>0</v>
       </c>
       <c r="M321" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N321" s="5">
         <v>9800</v>
       </c>
       <c r="O321" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="P321" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="U321" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V321" s="5">
         <v>9999999</v>
@@ -27759,10 +27760,10 @@
         <v>1</v>
       </c>
       <c r="G322" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="H322" s="5" t="s">
         <v>672</v>
-      </c>
-      <c r="H322" s="5" t="s">
-        <v>673</v>
       </c>
       <c r="J322" s="5">
         <v>-25</v>
@@ -27774,19 +27775,19 @@
         <v>0</v>
       </c>
       <c r="M322" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N322" s="5">
         <v>19800</v>
       </c>
       <c r="O322" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P322" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="U322" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="V322" s="5">
         <v>9999999</v>
@@ -27824,10 +27825,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="19" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H323" s="19" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="I323" s="19"/>
       <c r="J323" s="19">
@@ -27846,17 +27847,17 @@
         <v>600</v>
       </c>
       <c r="O323" s="19" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="P323" s="19" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="Q323" s="19"/>
       <c r="R323" s="19"/>
       <c r="S323" s="19"/>
       <c r="T323" s="19"/>
       <c r="U323" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V323" s="19">
         <v>9999999</v>
@@ -27906,10 +27907,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="19" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="H324" s="19" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="I324" s="19"/>
       <c r="J324" s="19">
@@ -27928,17 +27929,17 @@
         <v>4800</v>
       </c>
       <c r="O324" s="19" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="P324" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="Q324" s="19"/>
       <c r="R324" s="19"/>
       <c r="S324" s="19"/>
       <c r="T324" s="19"/>
       <c r="U324" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V324" s="19">
         <v>9999999</v>
@@ -27988,10 +27989,10 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="H325" s="19" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="I325" s="19"/>
       <c r="J325" s="19">
@@ -28010,17 +28011,17 @@
         <v>9800</v>
       </c>
       <c r="O325" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="P325" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="Q325" s="19"/>
       <c r="R325" s="19"/>
       <c r="S325" s="19"/>
       <c r="T325" s="19"/>
       <c r="U325" s="19" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="V325" s="19">
         <v>9999999</v>
@@ -28067,10 +28068,10 @@
         <v>1</v>
       </c>
       <c r="G326" s="41" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="H326" s="41" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="J326" s="41">
         <v>-4</v>
@@ -28082,13 +28083,13 @@
         <v>0</v>
       </c>
       <c r="M326" s="41" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="N326" s="41">
         <v>100</v>
       </c>
       <c r="U326" s="41" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="V326" s="41">
         <v>9999999</v>
@@ -28100,13 +28101,13 @@
         <v>2552233600</v>
       </c>
       <c r="Z326" s="41" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="AA326" s="41" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AB326" s="42" t="s">
         <v>1169</v>
-      </c>
-      <c r="AB326" s="42" t="s">
-        <v>1170</v>
       </c>
       <c r="AF326" s="41">
         <v>1</v>
@@ -28191,7 +28192,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -28205,7 +28206,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -28219,7 +28220,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -28303,7 +28304,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -28317,7 +28318,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -28331,7 +28332,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -28345,7 +28346,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -28359,7 +28360,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -28387,7 +28388,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -28401,7 +28402,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -28415,7 +28416,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C20" s="20">
         <v>1</v>
@@ -28429,7 +28430,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C21" s="20">
         <v>1</v>
@@ -28443,7 +28444,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C22" s="20">
         <v>1</v>
@@ -28457,7 +28458,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C23" s="20">
         <v>1</v>
@@ -28471,7 +28472,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C24" s="20">
         <v>1</v>
@@ -28485,7 +28486,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C25" s="20">
         <v>1</v>
@@ -28499,7 +28500,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C26" s="20">
         <v>1</v>
@@ -28571,10 +28572,10 @@
         <v>424</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1043</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1044</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>22</v>
@@ -28631,7 +28632,7 @@
         <v>42</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -28675,16 +28676,16 @@
         <v>3</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>50</v>
       </c>
       <c r="T2" s="34" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>427</v>
@@ -28740,16 +28741,16 @@
         <v>4</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>53</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>427</v>
@@ -28805,16 +28806,16 @@
         <v>5</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>55</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U4" s="11" t="s">
         <v>427</v>
@@ -28870,16 +28871,16 @@
         <v>6</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>57</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U5" s="11" t="s">
         <v>427</v>
@@ -28935,16 +28936,16 @@
         <v>7</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>59</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="U6" s="11" t="s">
         <v>427</v>
@@ -29000,16 +29001,16 @@
         <v>9</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>61</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U7" s="11" t="s">
         <v>427</v>
@@ -29062,16 +29063,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>50</v>
       </c>
       <c r="T8" s="34" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="U8" s="11" t="s">
         <v>427</v>
@@ -29124,13 +29125,13 @@
         <v>2</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="S9" s="11">
         <v>5000</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="U9" s="11" t="s">
         <v>427</v>
@@ -29142,7 +29143,7 @@
         <v>1</v>
       </c>
       <c r="AB9" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -29186,13 +29187,13 @@
         <v>1</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="S10" s="11">
         <v>1000</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U10" s="11" t="s">
         <v>427</v>
@@ -29204,7 +29205,7 @@
         <v>1</v>
       </c>
       <c r="AB10" s="34" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -29248,16 +29249,16 @@
         <v>0</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>53</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U11" s="11" t="s">
         <v>427</v>
@@ -29277,7 +29278,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D12" s="11">
         <v>109</v>
@@ -29313,16 +29314,16 @@
         <v>9</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>63</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="U12" s="11" t="s">
         <v>427</v>
@@ -29378,16 +29379,16 @@
         <v>10</v>
       </c>
       <c r="P13" s="34" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>429</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="U13" s="11" t="s">
         <v>427</v>
@@ -29443,16 +29444,16 @@
         <v>11</v>
       </c>
       <c r="P14" s="34" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>430</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="U14" s="11" t="s">
         <v>427</v>
@@ -29478,7 +29479,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G15" s="11">
         <v>100</v>
@@ -29508,14 +29509,14 @@
         <v>0</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="11">
         <v>100</v>
       </c>
       <c r="T15" s="34" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U15" s="11" t="s">
         <v>427</v>
@@ -29527,7 +29528,7 @@
         <v>1</v>
       </c>
       <c r="AB15" s="34" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -29574,16 +29575,16 @@
         <v>3</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>72</v>
       </c>
       <c r="T16" s="34" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>427</v>
@@ -29636,16 +29637,16 @@
         <v>4</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="R17" s="34" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>75</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U17" s="11" t="s">
         <v>427</v>
@@ -29698,16 +29699,16 @@
         <v>5</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>78</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="U18" s="11" t="s">
         <v>427</v>
@@ -29760,16 +29761,16 @@
         <v>6</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="R19" s="34" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>82</v>
       </c>
       <c r="T19" s="34" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="U19" s="11" t="s">
         <v>427</v>
@@ -29822,16 +29823,16 @@
         <v>7</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="R20" s="34" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>86</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="U20" s="11" t="s">
         <v>427</v>
@@ -29884,16 +29885,16 @@
         <v>0</v>
       </c>
       <c r="P21" s="36" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="R21" s="36" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="S21" s="35" t="s">
         <v>89</v>
       </c>
       <c r="T21" s="36" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U21" s="35" t="s">
         <v>427</v>
@@ -29946,14 +29947,14 @@
         <v>2</v>
       </c>
       <c r="P22" s="34" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="11">
         <v>5000</v>
       </c>
       <c r="T22" s="34" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="U22" s="11" t="s">
         <v>427</v>
@@ -30006,14 +30007,14 @@
         <v>1</v>
       </c>
       <c r="P23" s="34" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="R23" s="34"/>
       <c r="S23" s="11">
         <v>1000</v>
       </c>
       <c r="T23" s="34" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U23" s="11" t="s">
         <v>427</v>
@@ -30069,14 +30070,14 @@
         <v>0</v>
       </c>
       <c r="P24" s="34" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="R24" s="34"/>
       <c r="S24" s="11">
         <v>100</v>
       </c>
       <c r="T24" s="34" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U24" s="11" t="s">
         <v>427</v>
@@ -30088,7 +30089,7 @@
         <v>1</v>
       </c>
       <c r="AB24" s="34" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -30135,16 +30136,16 @@
         <v>8</v>
       </c>
       <c r="P25" s="34" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="R25" s="34" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="S25" s="34" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="T25" s="34" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="U25" s="11" t="s">
         <v>427</v>
@@ -30171,8 +30172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30225,13 +30226,13 @@
         <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>433</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>434</v>
@@ -30526,7 +30527,7 @@
         <v>436</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F7" s="12">
         <v>500000</v>
@@ -30544,7 +30545,7 @@
         <v>999999</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O7" s="17">
         <v>0</v>
@@ -30585,7 +30586,7 @@
         <v>455</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F8" s="12">
         <v>100</v>
@@ -30596,8 +30597,8 @@
       <c r="H8" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>456</v>
+      <c r="I8" s="18" t="s">
+        <v>1172</v>
       </c>
       <c r="L8" s="12">
         <v>57</v>
@@ -30612,10 +30613,10 @@
         <v>5</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>441</v>
@@ -30624,10 +30625,10 @@
         <v>100</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="V8" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -30638,10 +30639,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F9" s="12">
         <v>1000</v>
@@ -30656,16 +30657,16 @@
         <v>6</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="T9" s="12">
         <v>1000</v>
       </c>
       <c r="U9" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="V9" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -30676,10 +30677,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F10" s="12">
         <v>5800</v>
@@ -30694,16 +30695,16 @@
         <v>7</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="T10" s="12">
         <v>5800</v>
       </c>
       <c r="U10" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V10" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -30714,10 +30715,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F11" s="12">
         <v>8800</v>
@@ -30732,16 +30733,16 @@
         <v>8</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="T11" s="12">
         <v>8800</v>
       </c>
       <c r="U11" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V11" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -30752,10 +30753,10 @@
         <v>18</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F12" s="12">
         <v>18800</v>
@@ -30770,16 +30771,16 @@
         <v>9</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="T12" s="12">
         <v>18800</v>
       </c>
       <c r="U12" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="V12" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -30790,10 +30791,10 @@
         <v>19</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F13" s="12">
         <v>70000</v>
@@ -30814,16 +30815,16 @@
         <v>0</v>
       </c>
       <c r="Q13" s="18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="T13" s="12">
         <v>70000</v>
       </c>
       <c r="U13" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V13" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="W13" s="12">
         <v>7</v>
@@ -30837,10 +30838,10 @@
         <v>20</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F14" s="12">
         <v>180000</v>
@@ -30861,16 +30862,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="T14" s="12">
         <v>180000</v>
       </c>
       <c r="U14" s="18" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V14" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="W14" s="12">
         <v>6</v>
@@ -30884,10 +30885,10 @@
         <v>21</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F15" s="12">
         <v>1500</v>
@@ -30908,16 +30909,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="T15" s="12">
         <v>1500</v>
       </c>
       <c r="U15" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="V15" s="18" t="s">
         <v>618</v>
-      </c>
-      <c r="V15" s="18" t="s">
-        <v>619</v>
       </c>
       <c r="W15" s="12">
         <v>3</v>
@@ -30931,10 +30932,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F16" s="25">
         <v>200</v>
@@ -30950,7 +30951,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="28" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="T16" s="25">
         <v>200</v>
@@ -30967,10 +30968,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F17" s="25">
         <v>2000</v>
@@ -30986,7 +30987,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="28" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T17" s="25">
         <v>2000</v>
@@ -31003,10 +31004,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F18" s="25">
         <v>20000</v>
@@ -31022,7 +31023,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="28" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="T18" s="25">
         <v>20000</v>
@@ -31039,10 +31040,10 @@
         <v>25</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F19" s="25">
         <v>200000</v>
@@ -31058,7 +31059,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="28" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="T19" s="25">
         <v>200000</v>
@@ -31075,10 +31076,10 @@
         <v>26</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F20" s="20">
         <v>300000</v>
@@ -31093,16 +31094,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="T20" s="20">
         <v>300000</v>
       </c>
       <c r="U20" s="21" t="s">
+        <v>676</v>
+      </c>
+      <c r="V20" s="21" t="s">
         <v>677</v>
-      </c>
-      <c r="V20" s="21" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -31113,10 +31114,10 @@
         <v>27</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F21" s="20">
         <v>300000</v>
@@ -31131,16 +31132,16 @@
         <v>0</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="T21" s="20">
         <v>300000</v>
       </c>
       <c r="U21" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="V21" s="21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2820" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="1179">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5417,6 +5417,30 @@
   </si>
   <si>
     <t>100000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏畅玩卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"50万鲸币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2592000,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5488,7 +5512,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5522,6 +5546,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5568,7 +5598,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5699,6 +5729,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8092,13 +8125,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL326"/>
+  <dimension ref="A1:AL327"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H241" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H301" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A250" sqref="A250"/>
+      <selection pane="bottomRight" activeCell="B327" sqref="B327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -28113,6 +28146,68 @@
         <v>1</v>
       </c>
       <c r="AG326" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:38" s="44" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A327" s="44">
+        <v>326</v>
+      </c>
+      <c r="B327" s="44">
+        <v>10243</v>
+      </c>
+      <c r="F327" s="44">
+        <v>1</v>
+      </c>
+      <c r="G327" s="44" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H327" s="44" t="s">
+        <v>1174</v>
+      </c>
+      <c r="J327" s="44">
+        <v>-31</v>
+      </c>
+      <c r="K327" s="44">
+        <v>0</v>
+      </c>
+      <c r="L327" s="44">
+        <v>0</v>
+      </c>
+      <c r="M327" s="44" t="s">
+        <v>1175</v>
+      </c>
+      <c r="N327" s="44">
+        <v>9900</v>
+      </c>
+      <c r="O327" s="44" t="s">
+        <v>1176</v>
+      </c>
+      <c r="P327" s="44" t="s">
+        <v>1177</v>
+      </c>
+      <c r="U327" s="44" t="s">
+        <v>1178</v>
+      </c>
+      <c r="V327" s="44">
+        <v>99999999</v>
+      </c>
+      <c r="W327" s="44">
+        <v>1592263800</v>
+      </c>
+      <c r="X327" s="44">
+        <v>2552233600</v>
+      </c>
+      <c r="AF327" s="44">
+        <v>1</v>
+      </c>
+      <c r="AG327" s="44">
+        <v>1</v>
+      </c>
+      <c r="AJ327" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK327" s="44">
         <v>1</v>
       </c>
     </row>
@@ -30172,8 +30267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="1210">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5384,63 +5384,170 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"随机获得10万～50万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1元幸运金币</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{150000,160000,2,160000,170000,7,170000,180000,1},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,500000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏畅玩卡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2592000,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP2礼包</t>
+  </si>
+  <si>
+    <t>VIP3礼包</t>
+  </si>
+  <si>
+    <t>VIP4礼包</t>
+  </si>
+  <si>
+    <t>VIP1礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP5礼包</t>
+  </si>
+  <si>
+    <t>VIP6礼包</t>
+  </si>
+  <si>
+    <t>VIP7礼包</t>
+  </si>
+  <si>
+    <t>VIP8礼包</t>
+  </si>
+  <si>
+    <t>VIP9礼包</t>
+  </si>
+  <si>
+    <t>VIP10礼包</t>
+  </si>
+  <si>
+    <t>"50万金币",</t>
+  </si>
+  <si>
+    <t>"75万金币","召唤*1","锁定*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"318万金币","召唤*1","锁定*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"538万金币","召唤*1","锁定*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1108万金币","召唤*1","锁定*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2218万金币","召唤*1","锁定*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3288万金币","召唤*1","锁定*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4388万金币","召唤*1","锁定*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5488万金币","召唤*1","锁定*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"6488万金币","召唤*1","锁定*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"7688万金币","召唤*1","锁定*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_summon_fish","prop_3d_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>750000,1,1,</t>
+  </si>
+  <si>
+    <t>3180000,5,5,</t>
+  </si>
+  <si>
+    <t>22180000,40,40,</t>
+  </si>
+  <si>
+    <t>32880000,68,60,</t>
+  </si>
+  <si>
+    <t>54880000,110,100,</t>
+  </si>
+  <si>
+    <t>64880000,148,100,</t>
+  </si>
+  <si>
+    <t>76880000,158,100,</t>
+  </si>
+  <si>
+    <t>5380000,10,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>11080000,20,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>43880000,88,80,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>9999999999,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"随机获得10万～50万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1元幸运金币</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{150000,160000,2,160000,170000,7,170000,180000,1},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,500000</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏畅玩卡</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"50万鲸币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2592000,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8125,13 +8232,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL327"/>
+  <dimension ref="A1:AL337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H301" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AF308" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B327" sqref="B327"/>
+      <selection pane="bottomRight" activeCell="AI329" sqref="AI329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -23241,7 +23348,7 @@
         <v>473</v>
       </c>
       <c r="H250" s="19" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="J250" s="19">
         <v>-28</v>
@@ -23262,7 +23369,7 @@
         <v>472</v>
       </c>
       <c r="P250" s="19" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="U250" s="19" t="s">
         <v>564</v>
@@ -28101,10 +28208,10 @@
         <v>1</v>
       </c>
       <c r="G326" s="41" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H326" s="41" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="J326" s="41">
         <v>-4</v>
@@ -28122,7 +28229,7 @@
         <v>100</v>
       </c>
       <c r="U326" s="41" t="s">
-        <v>1164</v>
+        <v>1209</v>
       </c>
       <c r="V326" s="41">
         <v>9999999</v>
@@ -28134,13 +28241,13 @@
         <v>2552233600</v>
       </c>
       <c r="Z326" s="41" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="AA326" s="41" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AB326" s="42" t="s">
         <v>1168</v>
-      </c>
-      <c r="AB326" s="42" t="s">
-        <v>1169</v>
       </c>
       <c r="AF326" s="41">
         <v>1</v>
@@ -28160,10 +28267,10 @@
         <v>1</v>
       </c>
       <c r="G327" s="44" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="H327" s="44" t="s">
-        <v>1174</v>
+        <v>1187</v>
       </c>
       <c r="J327" s="44">
         <v>-31</v>
@@ -28175,19 +28282,19 @@
         <v>0</v>
       </c>
       <c r="M327" s="44" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="N327" s="44">
         <v>9900</v>
       </c>
       <c r="O327" s="44" t="s">
+        <v>1174</v>
+      </c>
+      <c r="P327" s="44" t="s">
+        <v>1175</v>
+      </c>
+      <c r="U327" s="44" t="s">
         <v>1176</v>
-      </c>
-      <c r="P327" s="44" t="s">
-        <v>1177</v>
-      </c>
-      <c r="U327" s="44" t="s">
-        <v>1178</v>
       </c>
       <c r="V327" s="44">
         <v>99999999</v>
@@ -28208,6 +28315,796 @@
         <v>1</v>
       </c>
       <c r="AK327" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A328" s="44">
+        <v>327</v>
+      </c>
+      <c r="B328" s="44">
+        <v>10244</v>
+      </c>
+      <c r="C328" s="44"/>
+      <c r="D328" s="44"/>
+      <c r="E328" s="44"/>
+      <c r="F328" s="44">
+        <v>1</v>
+      </c>
+      <c r="G328" s="44" t="s">
+        <v>1180</v>
+      </c>
+      <c r="H328" s="44" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I328" s="44"/>
+      <c r="J328" s="44">
+        <v>-31</v>
+      </c>
+      <c r="K328" s="44">
+        <v>0</v>
+      </c>
+      <c r="L328" s="44">
+        <v>0</v>
+      </c>
+      <c r="M328" s="44" t="s">
+        <v>1163</v>
+      </c>
+      <c r="N328" s="44">
+        <v>6</v>
+      </c>
+      <c r="O328" s="44" t="s">
+        <v>1198</v>
+      </c>
+      <c r="P328" s="44" t="s">
+        <v>1199</v>
+      </c>
+      <c r="Q328" s="44"/>
+      <c r="R328" s="44"/>
+      <c r="S328" s="44"/>
+      <c r="T328" s="44"/>
+      <c r="U328" s="44" t="s">
+        <v>1209</v>
+      </c>
+      <c r="V328" s="44">
+        <v>99999999</v>
+      </c>
+      <c r="W328" s="44">
+        <v>1592263800</v>
+      </c>
+      <c r="X328" s="44">
+        <v>2552233600</v>
+      </c>
+      <c r="Y328" s="44"/>
+      <c r="Z328" s="44"/>
+      <c r="AA328" s="44"/>
+      <c r="AB328" s="44"/>
+      <c r="AC328" s="44"/>
+      <c r="AD328" s="44"/>
+      <c r="AE328" s="44"/>
+      <c r="AF328" s="44">
+        <v>1</v>
+      </c>
+      <c r="AG328" s="44">
+        <v>1</v>
+      </c>
+      <c r="AH328" s="44"/>
+      <c r="AI328" s="44"/>
+      <c r="AJ328" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK328" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A329" s="44">
+        <v>328</v>
+      </c>
+      <c r="B329" s="44">
+        <v>10245</v>
+      </c>
+      <c r="C329" s="44"/>
+      <c r="D329" s="44"/>
+      <c r="E329" s="44"/>
+      <c r="F329" s="44">
+        <v>1</v>
+      </c>
+      <c r="G329" s="44" t="s">
+        <v>1177</v>
+      </c>
+      <c r="H329" s="44" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I329" s="44"/>
+      <c r="J329" s="44">
+        <v>-31</v>
+      </c>
+      <c r="K329" s="44">
+        <v>0</v>
+      </c>
+      <c r="L329" s="44">
+        <v>0</v>
+      </c>
+      <c r="M329" s="44" t="s">
+        <v>1163</v>
+      </c>
+      <c r="N329" s="44">
+        <v>28</v>
+      </c>
+      <c r="O329" s="44" t="s">
+        <v>1198</v>
+      </c>
+      <c r="P329" s="44" t="s">
+        <v>1200</v>
+      </c>
+      <c r="Q329" s="44"/>
+      <c r="R329" s="44"/>
+      <c r="S329" s="44"/>
+      <c r="T329" s="44"/>
+      <c r="U329" s="44" t="s">
+        <v>1209</v>
+      </c>
+      <c r="V329" s="44">
+        <v>99999999</v>
+      </c>
+      <c r="W329" s="44">
+        <v>1592263800</v>
+      </c>
+      <c r="X329" s="44">
+        <v>2552233600</v>
+      </c>
+      <c r="Y329" s="44"/>
+      <c r="Z329" s="44"/>
+      <c r="AA329" s="44"/>
+      <c r="AB329" s="44"/>
+      <c r="AC329" s="44"/>
+      <c r="AD329" s="44"/>
+      <c r="AE329" s="44"/>
+      <c r="AF329" s="44">
+        <v>1</v>
+      </c>
+      <c r="AG329" s="44">
+        <v>1</v>
+      </c>
+      <c r="AH329" s="44"/>
+      <c r="AI329" s="44"/>
+      <c r="AJ329" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK329" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A330" s="44">
+        <v>329</v>
+      </c>
+      <c r="B330" s="44">
+        <v>10246</v>
+      </c>
+      <c r="C330" s="44"/>
+      <c r="D330" s="44"/>
+      <c r="E330" s="44"/>
+      <c r="F330" s="44">
+        <v>1</v>
+      </c>
+      <c r="G330" s="44" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H330" s="44" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I330" s="44"/>
+      <c r="J330" s="44">
+        <v>-31</v>
+      </c>
+      <c r="K330" s="44">
+        <v>0</v>
+      </c>
+      <c r="L330" s="44">
+        <v>0</v>
+      </c>
+      <c r="M330" s="44" t="s">
+        <v>1163</v>
+      </c>
+      <c r="N330" s="44">
+        <v>48</v>
+      </c>
+      <c r="O330" s="44" t="s">
+        <v>1198</v>
+      </c>
+      <c r="P330" s="44" t="s">
+        <v>1206</v>
+      </c>
+      <c r="Q330" s="44"/>
+      <c r="R330" s="44"/>
+      <c r="S330" s="44"/>
+      <c r="T330" s="44"/>
+      <c r="U330" s="44" t="s">
+        <v>1209</v>
+      </c>
+      <c r="V330" s="44">
+        <v>99999999</v>
+      </c>
+      <c r="W330" s="44">
+        <v>1592263800</v>
+      </c>
+      <c r="X330" s="44">
+        <v>2552233600</v>
+      </c>
+      <c r="Y330" s="44"/>
+      <c r="Z330" s="44"/>
+      <c r="AA330" s="44"/>
+      <c r="AB330" s="44"/>
+      <c r="AC330" s="44"/>
+      <c r="AD330" s="44"/>
+      <c r="AE330" s="44"/>
+      <c r="AF330" s="44">
+        <v>1</v>
+      </c>
+      <c r="AG330" s="44">
+        <v>1</v>
+      </c>
+      <c r="AH330" s="44"/>
+      <c r="AI330" s="44"/>
+      <c r="AJ330" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK330" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A331" s="44">
+        <v>330</v>
+      </c>
+      <c r="B331" s="44">
+        <v>10247</v>
+      </c>
+      <c r="C331" s="44"/>
+      <c r="D331" s="44"/>
+      <c r="E331" s="44"/>
+      <c r="F331" s="44">
+        <v>1</v>
+      </c>
+      <c r="G331" s="44" t="s">
+        <v>1179</v>
+      </c>
+      <c r="H331" s="44" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I331" s="44"/>
+      <c r="J331" s="44">
+        <v>-31</v>
+      </c>
+      <c r="K331" s="44">
+        <v>0</v>
+      </c>
+      <c r="L331" s="44">
+        <v>0</v>
+      </c>
+      <c r="M331" s="44" t="s">
+        <v>1163</v>
+      </c>
+      <c r="N331" s="44">
+        <v>99</v>
+      </c>
+      <c r="O331" s="44" t="s">
+        <v>1198</v>
+      </c>
+      <c r="P331" s="44" t="s">
+        <v>1207</v>
+      </c>
+      <c r="Q331" s="44"/>
+      <c r="R331" s="44"/>
+      <c r="S331" s="44"/>
+      <c r="T331" s="44"/>
+      <c r="U331" s="44" t="s">
+        <v>1209</v>
+      </c>
+      <c r="V331" s="44">
+        <v>99999999</v>
+      </c>
+      <c r="W331" s="44">
+        <v>1592263800</v>
+      </c>
+      <c r="X331" s="44">
+        <v>2552233600</v>
+      </c>
+      <c r="Y331" s="44"/>
+      <c r="Z331" s="44"/>
+      <c r="AA331" s="44"/>
+      <c r="AB331" s="44"/>
+      <c r="AC331" s="44"/>
+      <c r="AD331" s="44"/>
+      <c r="AE331" s="44"/>
+      <c r="AF331" s="44">
+        <v>1</v>
+      </c>
+      <c r="AG331" s="44">
+        <v>1</v>
+      </c>
+      <c r="AH331" s="44"/>
+      <c r="AI331" s="44"/>
+      <c r="AJ331" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK331" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A332" s="44">
+        <v>331</v>
+      </c>
+      <c r="B332" s="44">
+        <v>10248</v>
+      </c>
+      <c r="C332" s="44"/>
+      <c r="D332" s="44"/>
+      <c r="E332" s="44"/>
+      <c r="F332" s="44">
+        <v>1</v>
+      </c>
+      <c r="G332" s="44" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H332" s="44" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I332" s="44"/>
+      <c r="J332" s="44">
+        <v>-31</v>
+      </c>
+      <c r="K332" s="44">
+        <v>0</v>
+      </c>
+      <c r="L332" s="44">
+        <v>0</v>
+      </c>
+      <c r="M332" s="44" t="s">
+        <v>1163</v>
+      </c>
+      <c r="N332" s="44">
+        <v>198</v>
+      </c>
+      <c r="O332" s="44" t="s">
+        <v>1198</v>
+      </c>
+      <c r="P332" s="44" t="s">
+        <v>1201</v>
+      </c>
+      <c r="Q332" s="44"/>
+      <c r="R332" s="44"/>
+      <c r="S332" s="44"/>
+      <c r="T332" s="44"/>
+      <c r="U332" s="44" t="s">
+        <v>1209</v>
+      </c>
+      <c r="V332" s="44">
+        <v>99999999</v>
+      </c>
+      <c r="W332" s="44">
+        <v>1592263800</v>
+      </c>
+      <c r="X332" s="44">
+        <v>2552233600</v>
+      </c>
+      <c r="Y332" s="44"/>
+      <c r="Z332" s="44"/>
+      <c r="AA332" s="44"/>
+      <c r="AB332" s="44"/>
+      <c r="AC332" s="44"/>
+      <c r="AD332" s="44"/>
+      <c r="AE332" s="44"/>
+      <c r="AF332" s="44">
+        <v>1</v>
+      </c>
+      <c r="AG332" s="44">
+        <v>1</v>
+      </c>
+      <c r="AH332" s="44"/>
+      <c r="AI332" s="44"/>
+      <c r="AJ332" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK332" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A333" s="44">
+        <v>332</v>
+      </c>
+      <c r="B333" s="44">
+        <v>10249</v>
+      </c>
+      <c r="C333" s="44"/>
+      <c r="D333" s="44"/>
+      <c r="E333" s="44"/>
+      <c r="F333" s="44">
+        <v>1</v>
+      </c>
+      <c r="G333" s="44" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H333" s="44" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I333" s="44"/>
+      <c r="J333" s="44">
+        <v>-31</v>
+      </c>
+      <c r="K333" s="44">
+        <v>0</v>
+      </c>
+      <c r="L333" s="44">
+        <v>0</v>
+      </c>
+      <c r="M333" s="44" t="s">
+        <v>1163</v>
+      </c>
+      <c r="N333" s="44">
+        <v>298</v>
+      </c>
+      <c r="O333" s="44" t="s">
+        <v>1198</v>
+      </c>
+      <c r="P333" s="44" t="s">
+        <v>1202</v>
+      </c>
+      <c r="Q333" s="44"/>
+      <c r="R333" s="44"/>
+      <c r="S333" s="44"/>
+      <c r="T333" s="44"/>
+      <c r="U333" s="44" t="s">
+        <v>1209</v>
+      </c>
+      <c r="V333" s="44">
+        <v>99999999</v>
+      </c>
+      <c r="W333" s="44">
+        <v>1592263800</v>
+      </c>
+      <c r="X333" s="44">
+        <v>2552233600</v>
+      </c>
+      <c r="Y333" s="44"/>
+      <c r="Z333" s="44"/>
+      <c r="AA333" s="44"/>
+      <c r="AB333" s="44"/>
+      <c r="AC333" s="44"/>
+      <c r="AD333" s="44"/>
+      <c r="AE333" s="44"/>
+      <c r="AF333" s="44">
+        <v>1</v>
+      </c>
+      <c r="AG333" s="44">
+        <v>1</v>
+      </c>
+      <c r="AH333" s="44"/>
+      <c r="AI333" s="44"/>
+      <c r="AJ333" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK333" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A334" s="44">
+        <v>333</v>
+      </c>
+      <c r="B334" s="44">
+        <v>10250</v>
+      </c>
+      <c r="C334" s="44"/>
+      <c r="D334" s="44"/>
+      <c r="E334" s="44"/>
+      <c r="F334" s="44">
+        <v>1</v>
+      </c>
+      <c r="G334" s="44" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H334" s="44" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I334" s="44"/>
+      <c r="J334" s="44">
+        <v>-31</v>
+      </c>
+      <c r="K334" s="44">
+        <v>0</v>
+      </c>
+      <c r="L334" s="44">
+        <v>0</v>
+      </c>
+      <c r="M334" s="44" t="s">
+        <v>1163</v>
+      </c>
+      <c r="N334" s="44">
+        <v>398</v>
+      </c>
+      <c r="O334" s="44" t="s">
+        <v>1198</v>
+      </c>
+      <c r="P334" s="44" t="s">
+        <v>1208</v>
+      </c>
+      <c r="Q334" s="44"/>
+      <c r="R334" s="44"/>
+      <c r="S334" s="44"/>
+      <c r="T334" s="44"/>
+      <c r="U334" s="44" t="s">
+        <v>1209</v>
+      </c>
+      <c r="V334" s="44">
+        <v>99999999</v>
+      </c>
+      <c r="W334" s="44">
+        <v>1592263800</v>
+      </c>
+      <c r="X334" s="44">
+        <v>2552233600</v>
+      </c>
+      <c r="Y334" s="44"/>
+      <c r="Z334" s="44"/>
+      <c r="AA334" s="44"/>
+      <c r="AB334" s="44"/>
+      <c r="AC334" s="44"/>
+      <c r="AD334" s="44"/>
+      <c r="AE334" s="44"/>
+      <c r="AF334" s="44">
+        <v>1</v>
+      </c>
+      <c r="AG334" s="44">
+        <v>1</v>
+      </c>
+      <c r="AH334" s="44"/>
+      <c r="AI334" s="44"/>
+      <c r="AJ334" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK334" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A335" s="44">
+        <v>334</v>
+      </c>
+      <c r="B335" s="44">
+        <v>10251</v>
+      </c>
+      <c r="C335" s="44"/>
+      <c r="D335" s="44"/>
+      <c r="E335" s="44"/>
+      <c r="F335" s="44">
+        <v>1</v>
+      </c>
+      <c r="G335" s="44" t="s">
+        <v>1184</v>
+      </c>
+      <c r="H335" s="44" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I335" s="44"/>
+      <c r="J335" s="44">
+        <v>-31</v>
+      </c>
+      <c r="K335" s="44">
+        <v>0</v>
+      </c>
+      <c r="L335" s="44">
+        <v>0</v>
+      </c>
+      <c r="M335" s="44" t="s">
+        <v>1163</v>
+      </c>
+      <c r="N335" s="44">
+        <v>498</v>
+      </c>
+      <c r="O335" s="44" t="s">
+        <v>1198</v>
+      </c>
+      <c r="P335" s="44" t="s">
+        <v>1203</v>
+      </c>
+      <c r="Q335" s="44"/>
+      <c r="R335" s="44"/>
+      <c r="S335" s="44"/>
+      <c r="T335" s="44"/>
+      <c r="U335" s="44" t="s">
+        <v>1209</v>
+      </c>
+      <c r="V335" s="44">
+        <v>99999999</v>
+      </c>
+      <c r="W335" s="44">
+        <v>1592263800</v>
+      </c>
+      <c r="X335" s="44">
+        <v>2552233600</v>
+      </c>
+      <c r="Y335" s="44"/>
+      <c r="Z335" s="44"/>
+      <c r="AA335" s="44"/>
+      <c r="AB335" s="44"/>
+      <c r="AC335" s="44"/>
+      <c r="AD335" s="44"/>
+      <c r="AE335" s="44"/>
+      <c r="AF335" s="44">
+        <v>1</v>
+      </c>
+      <c r="AG335" s="44">
+        <v>1</v>
+      </c>
+      <c r="AH335" s="44"/>
+      <c r="AI335" s="44"/>
+      <c r="AJ335" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK335" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A336" s="44">
+        <v>335</v>
+      </c>
+      <c r="B336" s="44">
+        <v>10252</v>
+      </c>
+      <c r="C336" s="44"/>
+      <c r="D336" s="44"/>
+      <c r="E336" s="44"/>
+      <c r="F336" s="44">
+        <v>1</v>
+      </c>
+      <c r="G336" s="44" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H336" s="44" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I336" s="44"/>
+      <c r="J336" s="44">
+        <v>-31</v>
+      </c>
+      <c r="K336" s="44">
+        <v>0</v>
+      </c>
+      <c r="L336" s="44">
+        <v>0</v>
+      </c>
+      <c r="M336" s="44" t="s">
+        <v>1163</v>
+      </c>
+      <c r="N336" s="44">
+        <v>598</v>
+      </c>
+      <c r="O336" s="44" t="s">
+        <v>1198</v>
+      </c>
+      <c r="P336" s="44" t="s">
+        <v>1204</v>
+      </c>
+      <c r="Q336" s="44"/>
+      <c r="R336" s="44"/>
+      <c r="S336" s="44"/>
+      <c r="T336" s="44"/>
+      <c r="U336" s="44" t="s">
+        <v>1209</v>
+      </c>
+      <c r="V336" s="44">
+        <v>99999999</v>
+      </c>
+      <c r="W336" s="44">
+        <v>1592263800</v>
+      </c>
+      <c r="X336" s="44">
+        <v>2552233600</v>
+      </c>
+      <c r="Y336" s="44"/>
+      <c r="Z336" s="44"/>
+      <c r="AA336" s="44"/>
+      <c r="AB336" s="44"/>
+      <c r="AC336" s="44"/>
+      <c r="AD336" s="44"/>
+      <c r="AE336" s="44"/>
+      <c r="AF336" s="44">
+        <v>1</v>
+      </c>
+      <c r="AG336" s="44">
+        <v>1</v>
+      </c>
+      <c r="AH336" s="44"/>
+      <c r="AI336" s="44"/>
+      <c r="AJ336" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK336" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A337" s="44">
+        <v>336</v>
+      </c>
+      <c r="B337" s="44">
+        <v>10253</v>
+      </c>
+      <c r="C337" s="44"/>
+      <c r="D337" s="44"/>
+      <c r="E337" s="44"/>
+      <c r="F337" s="44">
+        <v>1</v>
+      </c>
+      <c r="G337" s="44" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H337" s="44" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I337" s="44"/>
+      <c r="J337" s="44">
+        <v>-31</v>
+      </c>
+      <c r="K337" s="44">
+        <v>0</v>
+      </c>
+      <c r="L337" s="44">
+        <v>0</v>
+      </c>
+      <c r="M337" s="44" t="s">
+        <v>1163</v>
+      </c>
+      <c r="N337" s="44">
+        <v>698</v>
+      </c>
+      <c r="O337" s="44" t="s">
+        <v>1198</v>
+      </c>
+      <c r="P337" s="44" t="s">
+        <v>1205</v>
+      </c>
+      <c r="Q337" s="44"/>
+      <c r="R337" s="44"/>
+      <c r="S337" s="44"/>
+      <c r="T337" s="44"/>
+      <c r="U337" s="44" t="s">
+        <v>1209</v>
+      </c>
+      <c r="V337" s="44">
+        <v>99999999</v>
+      </c>
+      <c r="W337" s="44">
+        <v>1592263800</v>
+      </c>
+      <c r="X337" s="44">
+        <v>2552233600</v>
+      </c>
+      <c r="Y337" s="44"/>
+      <c r="Z337" s="44"/>
+      <c r="AA337" s="44"/>
+      <c r="AB337" s="44"/>
+      <c r="AC337" s="44"/>
+      <c r="AD337" s="44"/>
+      <c r="AE337" s="44"/>
+      <c r="AF337" s="44">
+        <v>1</v>
+      </c>
+      <c r="AG337" s="44">
+        <v>1</v>
+      </c>
+      <c r="AH337" s="44"/>
+      <c r="AI337" s="44"/>
+      <c r="AJ337" s="44">
+        <v>1</v>
+      </c>
+      <c r="AK337" s="44">
         <v>1</v>
       </c>
     </row>
@@ -30693,7 +31590,7 @@
         <v>90</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="L8" s="12">
         <v>57</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -8235,10 +8235,10 @@
   <dimension ref="A1:AL337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AF308" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H308" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI329" sqref="AI329"/>
+      <selection pane="bottomRight" activeCell="A333" sqref="A333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -28351,7 +28351,7 @@
         <v>1163</v>
       </c>
       <c r="N328" s="44">
-        <v>6</v>
+        <v>600</v>
       </c>
       <c r="O328" s="44" t="s">
         <v>1198</v>
@@ -28430,7 +28430,7 @@
         <v>1163</v>
       </c>
       <c r="N329" s="44">
-        <v>28</v>
+        <v>2800</v>
       </c>
       <c r="O329" s="44" t="s">
         <v>1198</v>
@@ -28509,7 +28509,7 @@
         <v>1163</v>
       </c>
       <c r="N330" s="44">
-        <v>48</v>
+        <v>4800</v>
       </c>
       <c r="O330" s="44" t="s">
         <v>1198</v>
@@ -28588,7 +28588,7 @@
         <v>1163</v>
       </c>
       <c r="N331" s="44">
-        <v>99</v>
+        <v>9900</v>
       </c>
       <c r="O331" s="44" t="s">
         <v>1198</v>
@@ -28667,7 +28667,7 @@
         <v>1163</v>
       </c>
       <c r="N332" s="44">
-        <v>198</v>
+        <v>19800</v>
       </c>
       <c r="O332" s="44" t="s">
         <v>1198</v>
@@ -28746,7 +28746,7 @@
         <v>1163</v>
       </c>
       <c r="N333" s="44">
-        <v>298</v>
+        <v>29800</v>
       </c>
       <c r="O333" s="44" t="s">
         <v>1198</v>
@@ -28825,7 +28825,7 @@
         <v>1163</v>
       </c>
       <c r="N334" s="44">
-        <v>398</v>
+        <v>39800</v>
       </c>
       <c r="O334" s="44" t="s">
         <v>1198</v>
@@ -28904,7 +28904,7 @@
         <v>1163</v>
       </c>
       <c r="N335" s="44">
-        <v>498</v>
+        <v>49800</v>
       </c>
       <c r="O335" s="44" t="s">
         <v>1198</v>
@@ -28983,7 +28983,7 @@
         <v>1163</v>
       </c>
       <c r="N336" s="44">
-        <v>598</v>
+        <v>59800</v>
       </c>
       <c r="O336" s="44" t="s">
         <v>1198</v>
@@ -29062,7 +29062,7 @@
         <v>1163</v>
       </c>
       <c r="N337" s="44">
-        <v>698</v>
+        <v>69800</v>
       </c>
       <c r="O337" s="44" t="s">
         <v>1198</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5425,10 +5425,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>500000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>2592000,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5549,6 +5545,10 @@
   </si>
   <si>
     <t>condition_group|条件组</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8236,10 +8236,10 @@
   <dimension ref="A1:AL337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W311" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="N311" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y328" sqref="Y328:Y337"/>
+      <selection pane="bottomRight" activeCell="P327" sqref="P327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -28230,7 +28230,7 @@
         <v>100</v>
       </c>
       <c r="U326" s="41" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="V326" s="41">
         <v>9999999</v>
@@ -28271,7 +28271,7 @@
         <v>1171</v>
       </c>
       <c r="H327" s="44" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="J327" s="44">
         <v>-31</v>
@@ -28292,10 +28292,10 @@
         <v>1173</v>
       </c>
       <c r="P327" s="44" t="s">
+        <v>1209</v>
+      </c>
+      <c r="U327" s="44" t="s">
         <v>1174</v>
-      </c>
-      <c r="U327" s="44" t="s">
-        <v>1175</v>
       </c>
       <c r="V327" s="44">
         <v>99999999</v>
@@ -28333,10 +28333,10 @@
         <v>1</v>
       </c>
       <c r="G328" s="44" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H328" s="44" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I328" s="44"/>
       <c r="J328" s="44">
@@ -28355,17 +28355,17 @@
         <v>600</v>
       </c>
       <c r="O328" s="44" t="s">
+        <v>1196</v>
+      </c>
+      <c r="P328" s="44" t="s">
         <v>1197</v>
-      </c>
-      <c r="P328" s="44" t="s">
-        <v>1198</v>
       </c>
       <c r="Q328" s="44"/>
       <c r="R328" s="44"/>
       <c r="S328" s="44"/>
       <c r="T328" s="44"/>
       <c r="U328" s="44" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="V328" s="44">
         <v>99999999</v>
@@ -28414,10 +28414,10 @@
         <v>1</v>
       </c>
       <c r="G329" s="44" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H329" s="44" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I329" s="44"/>
       <c r="J329" s="44">
@@ -28436,17 +28436,17 @@
         <v>2800</v>
       </c>
       <c r="O329" s="44" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="P329" s="44" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Q329" s="44"/>
       <c r="R329" s="44"/>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
       <c r="U329" s="44" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="V329" s="44">
         <v>99999999</v>
@@ -28495,10 +28495,10 @@
         <v>1</v>
       </c>
       <c r="G330" s="44" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H330" s="44" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I330" s="44"/>
       <c r="J330" s="44">
@@ -28517,17 +28517,17 @@
         <v>4800</v>
       </c>
       <c r="O330" s="44" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="P330" s="44" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Q330" s="44"/>
       <c r="R330" s="44"/>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
       <c r="U330" s="44" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="V330" s="44">
         <v>99999999</v>
@@ -28576,10 +28576,10 @@
         <v>1</v>
       </c>
       <c r="G331" s="44" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H331" s="44" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I331" s="44"/>
       <c r="J331" s="44">
@@ -28598,17 +28598,17 @@
         <v>9900</v>
       </c>
       <c r="O331" s="44" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="P331" s="44" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="Q331" s="44"/>
       <c r="R331" s="44"/>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
       <c r="U331" s="44" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="V331" s="44">
         <v>99999999</v>
@@ -28657,10 +28657,10 @@
         <v>1</v>
       </c>
       <c r="G332" s="44" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H332" s="44" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I332" s="44"/>
       <c r="J332" s="44">
@@ -28679,17 +28679,17 @@
         <v>19800</v>
       </c>
       <c r="O332" s="44" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="P332" s="44" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Q332" s="44"/>
       <c r="R332" s="44"/>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
       <c r="U332" s="44" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="V332" s="44">
         <v>99999999</v>
@@ -28738,10 +28738,10 @@
         <v>1</v>
       </c>
       <c r="G333" s="44" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H333" s="44" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I333" s="44"/>
       <c r="J333" s="44">
@@ -28760,17 +28760,17 @@
         <v>29800</v>
       </c>
       <c r="O333" s="44" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="P333" s="44" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Q333" s="44"/>
       <c r="R333" s="44"/>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
       <c r="U333" s="44" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="V333" s="44">
         <v>99999999</v>
@@ -28819,10 +28819,10 @@
         <v>1</v>
       </c>
       <c r="G334" s="44" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H334" s="44" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I334" s="44"/>
       <c r="J334" s="44">
@@ -28841,17 +28841,17 @@
         <v>39800</v>
       </c>
       <c r="O334" s="44" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="P334" s="44" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="Q334" s="44"/>
       <c r="R334" s="44"/>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
       <c r="U334" s="44" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="V334" s="44">
         <v>99999999</v>
@@ -28900,10 +28900,10 @@
         <v>1</v>
       </c>
       <c r="G335" s="44" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H335" s="44" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I335" s="44"/>
       <c r="J335" s="44">
@@ -28922,17 +28922,17 @@
         <v>49800</v>
       </c>
       <c r="O335" s="44" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="P335" s="44" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Q335" s="44"/>
       <c r="R335" s="44"/>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
       <c r="U335" s="44" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="V335" s="44">
         <v>99999999</v>
@@ -28981,10 +28981,10 @@
         <v>1</v>
       </c>
       <c r="G336" s="44" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H336" s="44" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I336" s="44"/>
       <c r="J336" s="44">
@@ -29003,17 +29003,17 @@
         <v>59800</v>
       </c>
       <c r="O336" s="44" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="P336" s="44" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="Q336" s="44"/>
       <c r="R336" s="44"/>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
       <c r="U336" s="44" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="V336" s="44">
         <v>99999999</v>
@@ -29062,10 +29062,10 @@
         <v>1</v>
       </c>
       <c r="G337" s="44" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="H337" s="44" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="I337" s="44"/>
       <c r="J337" s="44">
@@ -29084,17 +29084,17 @@
         <v>69800</v>
       </c>
       <c r="O337" s="44" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="P337" s="44" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Q337" s="44"/>
       <c r="R337" s="44"/>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
       <c r="U337" s="44" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="V337" s="44">
         <v>99999999</v>
@@ -29157,7 +29157,7 @@
         <v>407</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>408</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="1210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="1211">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -3298,10 +3298,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>198000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>350000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5549,6 +5545,14 @@
   </si>
   <si>
     <t>5000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>diamond</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6305,8 +6309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6347,7 +6351,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -6460,7 +6464,7 @@
         <v>45</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>46</v>
@@ -6540,7 +6544,7 @@
         <v>45</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>46</v>
@@ -6620,7 +6624,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>46</v>
@@ -6700,7 +6704,7 @@
         <v>45</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>46</v>
@@ -6780,7 +6784,7 @@
         <v>45</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>46</v>
@@ -6860,7 +6864,7 @@
         <v>45</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>46</v>
@@ -6940,7 +6944,7 @@
         <v>45</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>46</v>
@@ -7020,7 +7024,7 @@
         <v>45</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>46</v>
@@ -7101,7 +7105,7 @@
         <v>45</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>46</v>
@@ -7184,7 +7188,7 @@
         <v>45</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>46</v>
@@ -7264,7 +7268,7 @@
         <v>45</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>46</v>
@@ -7344,7 +7348,7 @@
         <v>45</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>46</v>
@@ -7424,7 +7428,7 @@
         <v>45</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>46</v>
@@ -7504,7 +7508,7 @@
         <v>45</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>46</v>
@@ -7584,7 +7588,7 @@
         <v>45</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>46</v>
@@ -7686,10 +7690,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="W17" s="11" t="s">
         <v>49</v>
@@ -7758,10 +7762,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="W18" s="11" t="s">
         <v>49</v>
@@ -7830,10 +7834,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="W19" s="11" t="s">
         <v>49</v>
@@ -7902,10 +7906,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="W20" s="11" t="s">
         <v>49</v>
@@ -7974,10 +7978,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="W21" s="11" t="s">
         <v>49</v>
@@ -8046,10 +8050,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="W22" s="11" t="s">
         <v>49</v>
@@ -8118,10 +8122,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="W23" s="11" t="s">
         <v>49</v>
@@ -8169,7 +8173,7 @@
         <v>45</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>720</v>
+        <v>1210</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>46</v>
@@ -8235,7 +8239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="N311" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8587,7 +8591,7 @@
         <v>120</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="5">
@@ -8609,7 +8613,7 @@
         <v>90</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="S5" s="7"/>
@@ -8764,7 +8768,7 @@
         <v>124</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J8" s="5">
         <v>-6</v>
@@ -8785,7 +8789,7 @@
         <v>130</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>563</v>
@@ -9032,7 +9036,7 @@
         <v>142</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J13" s="5">
         <v>-8</v>
@@ -9053,7 +9057,7 @@
         <v>143</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U13" s="5" t="s">
         <v>563</v>
@@ -9141,7 +9145,7 @@
         <v>146</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J15" s="5">
         <v>-8</v>
@@ -9197,7 +9201,7 @@
         <v>149</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J16" s="5">
         <v>-8</v>
@@ -9439,10 +9443,10 @@
         <v>600</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="U20" s="5" t="s">
         <v>564</v>
@@ -9474,10 +9478,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J21" s="5">
         <v>-11</v>
@@ -9498,7 +9502,7 @@
         <v>161</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="U21" s="5" t="s">
         <v>564</v>
@@ -9536,7 +9540,7 @@
         <v>162</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="J22" s="5">
         <v>-10</v>
@@ -9557,7 +9561,7 @@
         <v>161</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="U22" s="5" t="s">
         <v>564</v>
@@ -9592,10 +9596,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>899</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>900</v>
       </c>
       <c r="J23" s="5">
         <v>-13</v>
@@ -9781,7 +9785,7 @@
         <v>90</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="U26" s="5" t="s">
         <v>563</v>
@@ -9834,7 +9838,7 @@
         <v>90</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="U27" s="5" t="s">
         <v>563</v>
@@ -9887,7 +9891,7 @@
         <v>90</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="U28" s="5" t="s">
         <v>563</v>
@@ -9940,7 +9944,7 @@
         <v>90</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="U29" s="5" t="s">
         <v>563</v>
@@ -9993,7 +9997,7 @@
         <v>90</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="U30" s="5" t="s">
         <v>563</v>
@@ -10046,7 +10050,7 @@
         <v>90</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U31" s="5" t="s">
         <v>563</v>
@@ -10099,7 +10103,7 @@
         <v>90</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U32" s="5" t="s">
         <v>563</v>
@@ -10152,7 +10156,7 @@
         <v>90</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="U33" s="5" t="s">
         <v>563</v>
@@ -10205,7 +10209,7 @@
         <v>90</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="U34" s="5" t="s">
         <v>563</v>
@@ -10258,7 +10262,7 @@
         <v>90</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="U35" s="5" t="s">
         <v>563</v>
@@ -10311,7 +10315,7 @@
         <v>90</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="U36" s="5" t="s">
         <v>563</v>
@@ -10364,7 +10368,7 @@
         <v>90</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="U37" s="5" t="s">
         <v>563</v>
@@ -10417,7 +10421,7 @@
         <v>90</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="U38" s="5" t="s">
         <v>563</v>
@@ -10470,7 +10474,7 @@
         <v>90</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U39" s="5" t="s">
         <v>563</v>
@@ -10523,7 +10527,7 @@
         <v>90</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U40" s="5" t="s">
         <v>563</v>
@@ -10576,7 +10580,7 @@
         <v>90</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U41" s="5" t="s">
         <v>563</v>
@@ -10629,7 +10633,7 @@
         <v>90</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="U42" s="5" t="s">
         <v>563</v>
@@ -10682,7 +10686,7 @@
         <v>90</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="U43" s="5" t="s">
         <v>563</v>
@@ -10735,7 +10739,7 @@
         <v>90</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U44" s="5" t="s">
         <v>563</v>
@@ -10788,7 +10792,7 @@
         <v>90</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U45" s="5" t="s">
         <v>563</v>
@@ -10841,7 +10845,7 @@
         <v>90</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U46" s="5" t="s">
         <v>563</v>
@@ -10894,7 +10898,7 @@
         <v>90</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U47" s="5" t="s">
         <v>563</v>
@@ -10947,7 +10951,7 @@
         <v>90</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U48" s="5" t="s">
         <v>563</v>
@@ -11000,7 +11004,7 @@
         <v>90</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="U49" s="5" t="s">
         <v>563</v>
@@ -11053,7 +11057,7 @@
         <v>90</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U50" s="5" t="s">
         <v>563</v>
@@ -11108,7 +11112,7 @@
         <v>219</v>
       </c>
       <c r="P51" s="14" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q51" s="7"/>
       <c r="S51" s="7"/>
@@ -11166,7 +11170,7 @@
         <v>219</v>
       </c>
       <c r="P52" s="14" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Q52" s="7"/>
       <c r="S52" s="7"/>
@@ -11224,7 +11228,7 @@
         <v>219</v>
       </c>
       <c r="P53" s="14" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Q53" s="7"/>
       <c r="S53" s="7"/>
@@ -11262,7 +11266,7 @@
         <v>220</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="J54" s="5">
         <v>-13</v>
@@ -11283,7 +11287,7 @@
         <v>221</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="U54" s="5" t="s">
         <v>564</v>
@@ -11336,7 +11340,7 @@
         <v>223</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="U55" s="5" t="s">
         <v>564</v>
@@ -11368,10 +11372,10 @@
         <v>1</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J56" s="22">
         <v>-18</v>
@@ -11392,7 +11396,7 @@
         <v>224</v>
       </c>
       <c r="P56" s="22" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="U56" s="22" t="s">
         <v>563</v>
@@ -11427,7 +11431,7 @@
         <v>225</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J57" s="5">
         <v>-19</v>
@@ -11448,7 +11452,7 @@
         <v>226</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U57" s="5" t="s">
         <v>564</v>
@@ -11501,7 +11505,7 @@
         <v>90</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="U58" s="5" t="s">
         <v>563</v>
@@ -11554,7 +11558,7 @@
         <v>90</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="U59" s="5" t="s">
         <v>563</v>
@@ -11607,7 +11611,7 @@
         <v>90</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="U60" s="5" t="s">
         <v>563</v>
@@ -11660,7 +11664,7 @@
         <v>90</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="U61" s="5" t="s">
         <v>563</v>
@@ -11713,7 +11717,7 @@
         <v>90</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="U62" s="5" t="s">
         <v>563</v>
@@ -11766,7 +11770,7 @@
         <v>90</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="U63" s="5" t="s">
         <v>563</v>
@@ -11819,7 +11823,7 @@
         <v>90</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U64" s="5" t="s">
         <v>563</v>
@@ -11872,7 +11876,7 @@
         <v>90</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U65" s="5" t="s">
         <v>563</v>
@@ -11907,10 +11911,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H66" s="5" t="s">
         <v>1092</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>1093</v>
       </c>
       <c r="J66" s="5">
         <v>-4</v>
@@ -11943,10 +11947,10 @@
         <v>90</v>
       </c>
       <c r="AA66" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="AB66" s="10" t="s">
         <v>746</v>
-      </c>
-      <c r="AB66" s="10" t="s">
-        <v>747</v>
       </c>
       <c r="AF66" s="5">
         <v>1</v>
@@ -11990,7 +11994,7 @@
         <v>90</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="U67" s="5" t="s">
         <v>563</v>
@@ -12046,7 +12050,7 @@
         <v>90</v>
       </c>
       <c r="P68" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="U68" s="5" t="s">
         <v>563</v>
@@ -12102,7 +12106,7 @@
         <v>90</v>
       </c>
       <c r="P69" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="U69" s="5" t="s">
         <v>563</v>
@@ -12158,7 +12162,7 @@
         <v>90</v>
       </c>
       <c r="P70" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="U70" s="5" t="s">
         <v>563</v>
@@ -12214,7 +12218,7 @@
         <v>90</v>
       </c>
       <c r="P71" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="U71" s="5" t="s">
         <v>563</v>
@@ -12252,7 +12256,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J72" s="5">
         <v>-4</v>
@@ -12547,7 +12551,7 @@
         <v>249</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="J77" s="19">
         <v>-20</v>
@@ -12565,10 +12569,10 @@
         <v>100</v>
       </c>
       <c r="O77" s="19" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="U77" s="19" t="s">
         <v>563</v>
@@ -12603,7 +12607,7 @@
         <v>250</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J78" s="19">
         <v>-20</v>
@@ -12624,7 +12628,7 @@
         <v>623</v>
       </c>
       <c r="P78" s="19" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="U78" s="19" t="s">
         <v>563</v>
@@ -12642,10 +12646,10 @@
         <v>90</v>
       </c>
       <c r="AA78" s="19" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AB78" s="40" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AF78" s="19">
         <v>1</v>
@@ -12665,10 +12669,10 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J79" s="5">
         <v>-20</v>
@@ -12689,7 +12693,7 @@
         <v>251</v>
       </c>
       <c r="P79" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="U79" s="5" t="s">
         <v>563</v>
@@ -12707,10 +12711,10 @@
         <v>90</v>
       </c>
       <c r="AA79" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AB79" s="10" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AF79" s="5">
         <v>1</v>
@@ -12730,10 +12734,10 @@
         <v>1</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J80" s="5">
         <v>-20</v>
@@ -12754,7 +12758,7 @@
         <v>251</v>
       </c>
       <c r="P80" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U80" s="5" t="s">
         <v>563</v>
@@ -12775,10 +12779,10 @@
         <v>624</v>
       </c>
       <c r="AA80" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AB80" s="10" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF80" s="5">
         <v>1</v>
@@ -12801,7 +12805,7 @@
         <v>253</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J81" s="19">
         <v>-20</v>
@@ -12822,7 +12826,7 @@
         <v>518</v>
       </c>
       <c r="P81" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U81" s="19" t="s">
         <v>563</v>
@@ -12840,7 +12844,7 @@
         <v>624</v>
       </c>
       <c r="AA81" s="19" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AF81" s="19">
         <v>1</v>
@@ -12863,7 +12867,7 @@
         <v>254</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="J82" s="5">
         <v>-20</v>
@@ -12884,7 +12888,7 @@
         <v>255</v>
       </c>
       <c r="P82" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="U82" s="5" t="s">
         <v>563</v>
@@ -12919,7 +12923,7 @@
         <v>256</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J83" s="5">
         <v>-21</v>
@@ -12937,10 +12941,10 @@
         <v>4800</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="U83" s="5" t="s">
         <v>564</v>
@@ -12975,7 +12979,7 @@
         <v>257</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J84" s="5">
         <v>-22</v>
@@ -12993,10 +12997,10 @@
         <v>4800</v>
       </c>
       <c r="O84" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="U84" s="5" t="s">
         <v>564</v>
@@ -13028,10 +13032,10 @@
         <v>1</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J85" s="5">
         <v>-23</v>
@@ -13052,7 +13056,7 @@
         <v>251</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="U85" s="5" t="s">
         <v>565</v>
@@ -13084,10 +13088,10 @@
         <v>1</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J86" s="5">
         <v>-24</v>
@@ -13134,10 +13138,10 @@
         <v>1</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J87" s="5">
         <v>-25</v>
@@ -13158,7 +13162,7 @@
         <v>251</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="U87" s="5" t="s">
         <v>565</v>
@@ -13193,7 +13197,7 @@
         <v>258</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J88" s="5">
         <v>-22</v>
@@ -13214,7 +13218,7 @@
         <v>259</v>
       </c>
       <c r="P88" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="U88" s="5" t="s">
         <v>564</v>
@@ -13249,7 +13253,7 @@
         <v>260</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J89" s="5">
         <v>-22</v>
@@ -13270,7 +13274,7 @@
         <v>130</v>
       </c>
       <c r="P89" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="U89" s="5" t="s">
         <v>564</v>
@@ -13305,7 +13309,7 @@
         <v>262</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J90" s="5">
         <v>-22</v>
@@ -13326,7 +13330,7 @@
         <v>223</v>
       </c>
       <c r="P90" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="U90" s="5" t="s">
         <v>564</v>
@@ -13361,7 +13365,7 @@
         <v>263</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="J91" s="5">
         <v>-22</v>
@@ -13417,7 +13421,7 @@
         <v>264</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J92" s="5">
         <v>-22</v>
@@ -13435,10 +13439,10 @@
         <v>4800</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="U92" s="5" t="s">
         <v>564</v>
@@ -13473,7 +13477,7 @@
         <v>265</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J93" s="5">
         <v>-22</v>
@@ -13494,7 +13498,7 @@
         <v>266</v>
       </c>
       <c r="P93" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="U93" s="5" t="s">
         <v>564</v>
@@ -13547,7 +13551,7 @@
         <v>90</v>
       </c>
       <c r="P94" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="U94" s="5" t="s">
         <v>563</v>
@@ -13582,7 +13586,7 @@
         <v>268</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J95" s="5">
         <v>-23</v>
@@ -13603,7 +13607,7 @@
         <v>219</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Q95" s="7"/>
       <c r="S95" s="7"/>
@@ -13641,7 +13645,7 @@
         <v>269</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J96" s="5">
         <v>-23</v>
@@ -13697,7 +13701,7 @@
         <v>270</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="J97" s="5">
         <v>-24</v>
@@ -13715,13 +13719,13 @@
         <v>4800</v>
       </c>
       <c r="O97" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="P97" s="5" t="s">
         <v>271</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="S97" s="5" t="s">
         <v>272</v>
@@ -13759,7 +13763,7 @@
         <v>273</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J98" s="5">
         <v>-24</v>
@@ -13777,13 +13781,13 @@
         <v>9800</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="P98" s="5" t="s">
         <v>274</v>
       </c>
       <c r="R98" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="S98" s="5" t="s">
         <v>275</v>
@@ -13821,7 +13825,7 @@
         <v>276</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J99" s="5">
         <v>-24</v>
@@ -13839,13 +13843,13 @@
         <v>19800</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="P99" s="5" t="s">
         <v>277</v>
       </c>
       <c r="R99" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="S99" s="5" t="s">
         <v>278</v>
@@ -13883,7 +13887,7 @@
         <v>603</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J100" s="19">
         <v>-25</v>
@@ -13904,7 +13908,7 @@
         <v>604</v>
       </c>
       <c r="P100" s="19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="U100" s="19" t="s">
         <v>564</v>
@@ -13946,7 +13950,7 @@
         <v>554</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J101" s="19">
         <v>-25</v>
@@ -13967,7 +13971,7 @@
         <v>605</v>
       </c>
       <c r="P101" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="U101" s="19" t="s">
         <v>564</v>
@@ -14009,7 +14013,7 @@
         <v>280</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J102" s="19">
         <v>-25</v>
@@ -14030,7 +14034,7 @@
         <v>605</v>
       </c>
       <c r="P102" s="19" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="U102" s="19" t="s">
         <v>564</v>
@@ -14072,7 +14076,7 @@
         <v>603</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J103" s="19">
         <v>-25</v>
@@ -14093,7 +14097,7 @@
         <v>605</v>
       </c>
       <c r="P103" s="19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="U103" s="19" t="s">
         <v>564</v>
@@ -14135,7 +14139,7 @@
         <v>555</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J104" s="19">
         <v>-25</v>
@@ -14156,7 +14160,7 @@
         <v>605</v>
       </c>
       <c r="P104" s="19" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="U104" s="19" t="s">
         <v>564</v>
@@ -14198,7 +14202,7 @@
         <v>78</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J105" s="19">
         <v>-25</v>
@@ -14219,7 +14223,7 @@
         <v>604</v>
       </c>
       <c r="P105" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="U105" s="19" t="s">
         <v>564</v>
@@ -14261,7 +14265,7 @@
         <v>602</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J106" s="19">
         <v>-25</v>
@@ -14282,7 +14286,7 @@
         <v>605</v>
       </c>
       <c r="P106" s="19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="U106" s="19" t="s">
         <v>564</v>
@@ -14324,7 +14328,7 @@
         <v>280</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J107" s="19">
         <v>-25</v>
@@ -14345,7 +14349,7 @@
         <v>604</v>
       </c>
       <c r="P107" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="U107" s="19" t="s">
         <v>564</v>
@@ -14387,7 +14391,7 @@
         <v>82</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="J108" s="19">
         <v>-25</v>
@@ -14408,7 +14412,7 @@
         <v>605</v>
       </c>
       <c r="P108" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="U108" s="19" t="s">
         <v>564</v>
@@ -14507,7 +14511,7 @@
         <v>286</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J110" s="5">
         <v>-26</v>
@@ -14525,13 +14529,13 @@
         <v>3800</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="P110" s="5" t="s">
         <v>287</v>
       </c>
       <c r="R110" s="5" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="S110" s="5" t="s">
         <v>288</v>
@@ -14569,7 +14573,7 @@
         <v>289</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J111" s="5">
         <v>-26</v>
@@ -14587,13 +14591,13 @@
         <v>8800</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="P111" s="5" t="s">
         <v>290</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="S111" s="5" t="s">
         <v>291</v>
@@ -14631,7 +14635,7 @@
         <v>292</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J112" s="5">
         <v>-26</v>
@@ -14649,13 +14653,13 @@
         <v>18800</v>
       </c>
       <c r="O112" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="P112" s="5" t="s">
         <v>293</v>
       </c>
       <c r="R112" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="S112" s="5" t="s">
         <v>294</v>
@@ -14693,7 +14697,7 @@
         <v>295</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="J113" s="5">
         <v>-26</v>
@@ -14749,7 +14753,7 @@
         <v>298</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J114" s="5">
         <v>-26</v>
@@ -14805,7 +14809,7 @@
         <v>300</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J115" s="5">
         <v>-26</v>
@@ -14823,7 +14827,7 @@
         <v>9800</v>
       </c>
       <c r="O115" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="P115" s="5" t="s">
         <v>301</v>
@@ -14861,7 +14865,7 @@
         <v>302</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J116" s="5">
         <v>-27</v>
@@ -14879,13 +14883,13 @@
         <v>4800</v>
       </c>
       <c r="O116" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="P116" s="5" t="s">
         <v>303</v>
       </c>
       <c r="R116" s="5" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="S116" s="5" t="s">
         <v>304</v>
@@ -14923,7 +14927,7 @@
         <v>305</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="J117" s="5">
         <v>-27</v>
@@ -14941,13 +14945,13 @@
         <v>9800</v>
       </c>
       <c r="O117" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="P117" s="5" t="s">
         <v>274</v>
       </c>
       <c r="R117" s="5" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="S117" s="5" t="s">
         <v>275</v>
@@ -14985,7 +14989,7 @@
         <v>306</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="J118" s="5">
         <v>-28</v>
@@ -15041,7 +15045,7 @@
         <v>308</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J119" s="5">
         <v>-28</v>
@@ -15097,7 +15101,7 @@
         <v>311</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J120" s="5">
         <v>-28</v>
@@ -15153,7 +15157,7 @@
         <v>314</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J121" s="5">
         <v>-28</v>
@@ -15212,7 +15216,7 @@
         <v>318</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J122" s="5">
         <v>-28</v>
@@ -15271,7 +15275,7 @@
         <v>321</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J123" s="5">
         <v>-28</v>
@@ -15330,7 +15334,7 @@
         <v>298</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="J124" s="5">
         <v>-28</v>
@@ -15386,7 +15390,7 @@
         <v>324</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="J125" s="5">
         <v>-28</v>
@@ -15442,7 +15446,7 @@
         <v>326</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J126" s="5">
         <v>-28</v>
@@ -15498,7 +15502,7 @@
         <v>328</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J127" s="5">
         <v>-29</v>
@@ -15581,7 +15585,7 @@
         <v>90</v>
       </c>
       <c r="P128" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="U128" s="5" t="s">
         <v>563</v>
@@ -15637,7 +15641,7 @@
         <v>90</v>
       </c>
       <c r="P129" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="U129" s="5" t="s">
         <v>563</v>
@@ -15672,7 +15676,7 @@
         <v>334</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J130" s="5">
         <v>-28</v>
@@ -15734,7 +15738,7 @@
         <v>252</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J131" s="5">
         <v>-28</v>
@@ -15796,7 +15800,7 @@
         <v>338</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J132" s="5">
         <v>-28</v>
@@ -15858,7 +15862,7 @@
         <v>340</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="J133" s="5">
         <v>-28</v>
@@ -15879,7 +15883,7 @@
         <v>296</v>
       </c>
       <c r="P133" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="U133" s="5" t="s">
         <v>566</v>
@@ -15920,7 +15924,7 @@
         <v>341</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="J134" s="5">
         <v>-28</v>
@@ -15941,7 +15945,7 @@
         <v>309</v>
       </c>
       <c r="P134" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="U134" s="5" t="s">
         <v>566</v>
@@ -15982,7 +15986,7 @@
         <v>343</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="J135" s="5">
         <v>-28</v>
@@ -16003,7 +16007,7 @@
         <v>312</v>
       </c>
       <c r="P135" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="U135" s="5" t="s">
         <v>566</v>
@@ -16044,7 +16048,7 @@
         <v>459</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J136" s="5">
         <v>-28</v>
@@ -16065,7 +16069,7 @@
         <v>161</v>
       </c>
       <c r="P136" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="U136" s="5" t="s">
         <v>566</v>
@@ -16103,7 +16107,7 @@
         <v>460</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J137" s="5">
         <v>-28</v>
@@ -16124,7 +16128,7 @@
         <v>161</v>
       </c>
       <c r="P137" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="U137" s="5" t="s">
         <v>566</v>
@@ -16162,7 +16166,7 @@
         <v>461</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J138" s="5">
         <v>-28</v>
@@ -16183,7 +16187,7 @@
         <v>161</v>
       </c>
       <c r="P138" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="U138" s="5" t="s">
         <v>566</v>
@@ -16221,7 +16225,7 @@
         <v>462</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J139" s="5">
         <v>-28</v>
@@ -16242,7 +16246,7 @@
         <v>161</v>
       </c>
       <c r="P139" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="U139" s="5" t="s">
         <v>566</v>
@@ -16280,7 +16284,7 @@
         <v>463</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J140" s="5">
         <v>-28</v>
@@ -16301,7 +16305,7 @@
         <v>161</v>
       </c>
       <c r="P140" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="U140" s="5" t="s">
         <v>566</v>
@@ -16339,7 +16343,7 @@
         <v>464</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J141" s="5">
         <v>-28</v>
@@ -16360,7 +16364,7 @@
         <v>161</v>
       </c>
       <c r="P141" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="U141" s="5" t="s">
         <v>566</v>
@@ -16398,7 +16402,7 @@
         <v>344</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="J142" s="5">
         <v>-28</v>
@@ -16460,7 +16464,7 @@
         <v>345</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="J143" s="5">
         <v>-28</v>
@@ -16522,7 +16526,7 @@
         <v>346</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="J144" s="5">
         <v>-28</v>
@@ -16587,7 +16591,7 @@
         <v>348</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J145" s="5">
         <v>-28</v>
@@ -16608,13 +16612,13 @@
         <v>349</v>
       </c>
       <c r="P145" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="R145" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S145" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="U145" s="5" t="s">
         <v>564</v>
@@ -16652,7 +16656,7 @@
         <v>350</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="J146" s="5">
         <v>-28</v>
@@ -16673,13 +16677,13 @@
         <v>279</v>
       </c>
       <c r="P146" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="R146" s="5" t="s">
         <v>161</v>
       </c>
       <c r="S146" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="U146" s="5" t="s">
         <v>564</v>
@@ -16717,7 +16721,7 @@
         <v>351</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J147" s="5">
         <v>-28</v>
@@ -16738,13 +16742,13 @@
         <v>279</v>
       </c>
       <c r="P147" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="R147" s="5" t="s">
         <v>161</v>
       </c>
       <c r="S147" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="U147" s="5" t="s">
         <v>564</v>
@@ -16782,7 +16786,7 @@
         <v>352</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J148" s="5">
         <v>-28</v>
@@ -16803,13 +16807,13 @@
         <v>279</v>
       </c>
       <c r="P148" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R148" s="5" t="s">
         <v>161</v>
       </c>
       <c r="S148" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="U148" s="5" t="s">
         <v>564</v>
@@ -16847,7 +16851,7 @@
         <v>353</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J149" s="5">
         <v>-28</v>
@@ -16868,13 +16872,13 @@
         <v>279</v>
       </c>
       <c r="P149" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="R149" s="5" t="s">
         <v>161</v>
       </c>
       <c r="S149" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="U149" s="5" t="s">
         <v>564</v>
@@ -16909,7 +16913,7 @@
         <v>354</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="J150" s="5">
         <v>-28</v>
@@ -16971,7 +16975,7 @@
         <v>355</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="J151" s="5">
         <v>-28</v>
@@ -17033,7 +17037,7 @@
         <v>356</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="J152" s="5">
         <v>-28</v>
@@ -17092,10 +17096,10 @@
         <v>1</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J153" s="5">
         <v>-28</v>
@@ -17116,13 +17120,13 @@
         <v>349</v>
       </c>
       <c r="P153" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="R153" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S153" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="U153" s="5" t="s">
         <v>566</v>
@@ -17157,7 +17161,7 @@
         <v>357</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J154" s="5">
         <v>-28</v>
@@ -17178,13 +17182,13 @@
         <v>349</v>
       </c>
       <c r="P154" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="R154" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S154" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="U154" s="5" t="s">
         <v>566</v>
@@ -17219,7 +17223,7 @@
         <v>358</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J155" s="5">
         <v>-28</v>
@@ -17240,13 +17244,13 @@
         <v>349</v>
       </c>
       <c r="P155" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="R155" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S155" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="U155" s="5" t="s">
         <v>566</v>
@@ -17281,7 +17285,7 @@
         <v>359</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J156" s="5">
         <v>-28</v>
@@ -17302,13 +17306,13 @@
         <v>349</v>
       </c>
       <c r="P156" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="R156" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S156" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="U156" s="5" t="s">
         <v>566</v>
@@ -17343,7 +17347,7 @@
         <v>360</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J157" s="5">
         <v>-28</v>
@@ -17364,13 +17368,13 @@
         <v>349</v>
       </c>
       <c r="P157" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="R157" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S157" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="U157" s="5" t="s">
         <v>566</v>
@@ -17405,7 +17409,7 @@
         <v>361</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J158" s="5">
         <v>-28</v>
@@ -17467,7 +17471,7 @@
         <v>363</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J159" s="5">
         <v>-28</v>
@@ -17529,7 +17533,7 @@
         <v>365</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J160" s="5">
         <v>-28</v>
@@ -17591,7 +17595,7 @@
         <v>367</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J161" s="5">
         <v>-28</v>
@@ -17653,7 +17657,7 @@
         <v>368</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J162" s="5">
         <v>-28</v>
@@ -17715,7 +17719,7 @@
         <v>369</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J163" s="5">
         <v>-28</v>
@@ -17774,10 +17778,10 @@
         <v>1</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="I164" s="5">
         <v>21032</v>
@@ -17801,7 +17805,7 @@
         <v>221</v>
       </c>
       <c r="P164" s="10" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="U164" s="5" t="s">
         <v>563</v>
@@ -17842,7 +17846,7 @@
         <v>370</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J165" s="5">
         <v>-28</v>
@@ -17904,7 +17908,7 @@
         <v>371</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J166" s="5">
         <v>-28</v>
@@ -17966,7 +17970,7 @@
         <v>372</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J167" s="5">
         <v>-28</v>
@@ -18028,7 +18032,7 @@
         <v>373</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J168" s="5">
         <v>-28</v>
@@ -18049,7 +18053,7 @@
         <v>374</v>
       </c>
       <c r="P168" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="U168" s="5" t="s">
         <v>563</v>
@@ -18155,7 +18159,7 @@
         <v>378</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J170" s="5">
         <v>-28</v>
@@ -18176,7 +18180,7 @@
         <v>279</v>
       </c>
       <c r="P170" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="U170" s="5" t="s">
         <v>643</v>
@@ -18214,10 +18218,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="J171" s="19">
         <v>-28</v>
@@ -18235,10 +18239,10 @@
         <v>100</v>
       </c>
       <c r="O171" s="19" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="P171" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="U171" s="19" t="s">
         <v>610</v>
@@ -18279,10 +18283,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="J172" s="19">
         <v>-28</v>
@@ -18300,10 +18304,10 @@
         <v>300</v>
       </c>
       <c r="O172" s="19" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="P172" s="19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="U172" s="19" t="s">
         <v>566</v>
@@ -18344,10 +18348,10 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="J173" s="19">
         <v>-28</v>
@@ -18365,10 +18369,10 @@
         <v>600</v>
       </c>
       <c r="O173" s="19" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="P173" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="U173" s="19" t="s">
         <v>566</v>
@@ -18409,10 +18413,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="J174" s="19">
         <v>-28</v>
@@ -18430,10 +18434,10 @@
         <v>600</v>
       </c>
       <c r="O174" s="19" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="P174" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="U174" s="19" t="s">
         <v>566</v>
@@ -18474,10 +18478,10 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J175" s="19">
         <v>-28</v>
@@ -18495,10 +18499,10 @@
         <v>1000</v>
       </c>
       <c r="O175" s="19" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="P175" s="19" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="U175" s="19" t="s">
         <v>566</v>
@@ -18539,10 +18543,10 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J176" s="19">
         <v>-28</v>
@@ -18560,10 +18564,10 @@
         <v>1800</v>
       </c>
       <c r="O176" s="19" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="U176" s="19" t="s">
         <v>566</v>
@@ -18604,10 +18608,10 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J177" s="19">
         <v>-28</v>
@@ -18625,10 +18629,10 @@
         <v>1800</v>
       </c>
       <c r="O177" s="19" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="U177" s="19" t="s">
         <v>566</v>
@@ -18669,10 +18673,10 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J178" s="19">
         <v>-28</v>
@@ -18690,10 +18694,10 @@
         <v>4800</v>
       </c>
       <c r="O178" s="19" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="P178" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="U178" s="19" t="s">
         <v>566</v>
@@ -18734,10 +18738,10 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J179" s="19">
         <v>-28</v>
@@ -18755,10 +18759,10 @@
         <v>9800</v>
       </c>
       <c r="O179" s="19" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="P179" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="U179" s="19" t="s">
         <v>566</v>
@@ -18799,10 +18803,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="J180" s="19">
         <v>-28</v>
@@ -18820,10 +18824,10 @@
         <v>4800</v>
       </c>
       <c r="O180" s="19" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="P180" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="U180" s="19" t="s">
         <v>566</v>
@@ -18864,10 +18868,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J181" s="19">
         <v>-28</v>
@@ -18885,10 +18889,10 @@
         <v>9800</v>
       </c>
       <c r="O181" s="19" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="P181" s="19" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U181" s="19" t="s">
         <v>566</v>
@@ -18929,10 +18933,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J182" s="19">
         <v>-28</v>
@@ -18950,10 +18954,10 @@
         <v>19800</v>
       </c>
       <c r="O182" s="19" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="P182" s="19" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="U182" s="19" t="s">
         <v>566</v>
@@ -18994,10 +18998,10 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J183" s="19">
         <v>-28</v>
@@ -19015,10 +19019,10 @@
         <v>9800</v>
       </c>
       <c r="O183" s="19" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="P183" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="U183" s="19" t="s">
         <v>566</v>
@@ -19059,10 +19063,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J184" s="19">
         <v>-28</v>
@@ -19080,10 +19084,10 @@
         <v>19800</v>
       </c>
       <c r="O184" s="19" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="P184" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="U184" s="19" t="s">
         <v>566</v>
@@ -19124,10 +19128,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J185" s="19">
         <v>-28</v>
@@ -19145,10 +19149,10 @@
         <v>49800</v>
       </c>
       <c r="O185" s="19" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="P185" s="19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="U185" s="19" t="s">
         <v>566</v>
@@ -19192,7 +19196,7 @@
         <v>328</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J186" s="5">
         <v>-29</v>
@@ -19213,13 +19217,13 @@
         <v>474</v>
       </c>
       <c r="P186" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="R186" s="5" t="s">
         <v>331</v>
       </c>
       <c r="S186" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="U186" s="5" t="s">
         <v>563</v>
@@ -19254,7 +19258,7 @@
         <v>379</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J187" s="5">
         <v>-28</v>
@@ -19319,7 +19323,7 @@
         <v>381</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J188" s="5">
         <v>-28</v>
@@ -19384,7 +19388,7 @@
         <v>383</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J189" s="5">
         <v>-28</v>
@@ -19449,7 +19453,7 @@
         <v>385</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J190" s="5">
         <v>-28</v>
@@ -19514,7 +19518,7 @@
         <v>387</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J191" s="5">
         <v>-28</v>
@@ -19579,7 +19583,7 @@
         <v>389</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J192" s="5">
         <v>-28</v>
@@ -19644,7 +19648,7 @@
         <v>391</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J193" s="5">
         <v>-28</v>
@@ -19709,7 +19713,7 @@
         <v>393</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J194" s="5">
         <v>-28</v>
@@ -19774,7 +19778,7 @@
         <v>395</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J195" s="5">
         <v>-28</v>
@@ -19839,7 +19843,7 @@
         <v>397</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J196" s="5">
         <v>-28</v>
@@ -19904,7 +19908,7 @@
         <v>399</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J197" s="5">
         <v>-28</v>
@@ -19969,7 +19973,7 @@
         <v>401</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J198" s="5">
         <v>-28</v>
@@ -20034,7 +20038,7 @@
         <v>403</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J199" s="5">
         <v>-28</v>
@@ -20099,7 +20103,7 @@
         <v>404</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J200" s="5">
         <v>-28</v>
@@ -20164,7 +20168,7 @@
         <v>405</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J201" s="5">
         <v>-28</v>
@@ -20229,7 +20233,7 @@
         <v>379</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J202" s="5">
         <v>-28</v>
@@ -20294,7 +20298,7 @@
         <v>381</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J203" s="5">
         <v>-28</v>
@@ -20359,7 +20363,7 @@
         <v>383</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J204" s="5">
         <v>-28</v>
@@ -20424,7 +20428,7 @@
         <v>385</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J205" s="5">
         <v>-28</v>
@@ -20489,7 +20493,7 @@
         <v>387</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J206" s="5">
         <v>-28</v>
@@ -20554,7 +20558,7 @@
         <v>389</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J207" s="5">
         <v>-28</v>
@@ -20619,7 +20623,7 @@
         <v>391</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J208" s="5">
         <v>-28</v>
@@ -20684,7 +20688,7 @@
         <v>393</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J209" s="5">
         <v>-28</v>
@@ -20749,7 +20753,7 @@
         <v>395</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J210" s="5">
         <v>-28</v>
@@ -20814,7 +20818,7 @@
         <v>397</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J211" s="5">
         <v>-28</v>
@@ -20879,7 +20883,7 @@
         <v>399</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J212" s="5">
         <v>-28</v>
@@ -20944,7 +20948,7 @@
         <v>401</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J213" s="5">
         <v>-28</v>
@@ -21009,7 +21013,7 @@
         <v>403</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J214" s="5">
         <v>-28</v>
@@ -21074,7 +21078,7 @@
         <v>404</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J215" s="5">
         <v>-28</v>
@@ -21139,7 +21143,7 @@
         <v>405</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J216" s="5">
         <v>-28</v>
@@ -21204,7 +21208,7 @@
         <v>379</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J217" s="5">
         <v>-28</v>
@@ -21269,7 +21273,7 @@
         <v>381</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J218" s="5">
         <v>-28</v>
@@ -21334,7 +21338,7 @@
         <v>383</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J219" s="5">
         <v>-28</v>
@@ -21399,7 +21403,7 @@
         <v>385</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J220" s="5">
         <v>-28</v>
@@ -21464,7 +21468,7 @@
         <v>387</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J221" s="5">
         <v>-28</v>
@@ -21529,7 +21533,7 @@
         <v>389</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J222" s="5">
         <v>-28</v>
@@ -21594,7 +21598,7 @@
         <v>391</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J223" s="5">
         <v>-28</v>
@@ -21659,7 +21663,7 @@
         <v>393</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J224" s="5">
         <v>-28</v>
@@ -21724,7 +21728,7 @@
         <v>395</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J225" s="5">
         <v>-28</v>
@@ -21789,7 +21793,7 @@
         <v>397</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J226" s="5">
         <v>-28</v>
@@ -21854,7 +21858,7 @@
         <v>399</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J227" s="5">
         <v>-28</v>
@@ -21919,7 +21923,7 @@
         <v>401</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J228" s="5">
         <v>-28</v>
@@ -21984,7 +21988,7 @@
         <v>403</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J229" s="5">
         <v>-28</v>
@@ -22049,7 +22053,7 @@
         <v>404</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J230" s="5">
         <v>-28</v>
@@ -22114,7 +22118,7 @@
         <v>405</v>
       </c>
       <c r="H231" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J231" s="5">
         <v>-28</v>
@@ -22179,7 +22183,7 @@
         <v>379</v>
       </c>
       <c r="H232" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J232" s="5">
         <v>-28</v>
@@ -22244,7 +22248,7 @@
         <v>381</v>
       </c>
       <c r="H233" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J233" s="5">
         <v>-28</v>
@@ -22309,7 +22313,7 @@
         <v>383</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J234" s="5">
         <v>-28</v>
@@ -22374,7 +22378,7 @@
         <v>385</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J235" s="5">
         <v>-28</v>
@@ -22439,7 +22443,7 @@
         <v>387</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J236" s="5">
         <v>-28</v>
@@ -22504,7 +22508,7 @@
         <v>389</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J237" s="5">
         <v>-28</v>
@@ -22569,7 +22573,7 @@
         <v>391</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J238" s="5">
         <v>-28</v>
@@ -22634,7 +22638,7 @@
         <v>393</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J239" s="5">
         <v>-28</v>
@@ -22699,7 +22703,7 @@
         <v>395</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J240" s="5">
         <v>-28</v>
@@ -22764,7 +22768,7 @@
         <v>397</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J241" s="5">
         <v>-28</v>
@@ -22829,7 +22833,7 @@
         <v>399</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J242" s="5">
         <v>-28</v>
@@ -22894,7 +22898,7 @@
         <v>401</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J243" s="5">
         <v>-28</v>
@@ -22959,7 +22963,7 @@
         <v>403</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J244" s="5">
         <v>-28</v>
@@ -23024,7 +23028,7 @@
         <v>404</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J245" s="5">
         <v>-28</v>
@@ -23089,7 +23093,7 @@
         <v>405</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J246" s="5">
         <v>-28</v>
@@ -23151,10 +23155,10 @@
         <v>1</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="J247" s="5">
         <v>-28</v>
@@ -23175,7 +23179,7 @@
         <v>161</v>
       </c>
       <c r="P247" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="U247" s="5" t="s">
         <v>566</v>
@@ -23219,7 +23223,7 @@
         <v>457</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="J248" s="5">
         <v>-28</v>
@@ -23240,7 +23244,7 @@
         <v>161</v>
       </c>
       <c r="P248" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="U248" s="5" t="s">
         <v>566</v>
@@ -23284,7 +23288,7 @@
         <v>458</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="J249" s="5">
         <v>-28</v>
@@ -23305,7 +23309,7 @@
         <v>161</v>
       </c>
       <c r="P249" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="U249" s="5" t="s">
         <v>566</v>
@@ -23349,7 +23353,7 @@
         <v>472</v>
       </c>
       <c r="H250" s="19" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="J250" s="19">
         <v>-28</v>
@@ -23370,7 +23374,7 @@
         <v>471</v>
       </c>
       <c r="P250" s="19" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="U250" s="19" t="s">
         <v>563</v>
@@ -23411,7 +23415,7 @@
         <v>328</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="J251" s="5">
         <v>-29</v>
@@ -23432,13 +23436,13 @@
         <v>511</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="R251" s="5" t="s">
         <v>331</v>
       </c>
       <c r="S251" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="U251" s="5" t="s">
         <v>563</v>
@@ -23479,7 +23483,7 @@
         <v>495</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J252" s="5">
         <v>-30</v>
@@ -23500,7 +23504,7 @@
         <v>471</v>
       </c>
       <c r="P252" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="U252" s="5" t="s">
         <v>643</v>
@@ -23541,7 +23545,7 @@
         <v>496</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="J253" s="5">
         <v>-30</v>
@@ -23562,7 +23566,7 @@
         <v>516</v>
       </c>
       <c r="P253" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="U253" s="5" t="s">
         <v>566</v>
@@ -23603,7 +23607,7 @@
         <v>513</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J254" s="5">
         <v>-31</v>
@@ -23624,7 +23628,7 @@
         <v>515</v>
       </c>
       <c r="P254" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="U254" s="5" t="s">
         <v>566</v>
@@ -23668,7 +23672,7 @@
         <v>508</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J255" s="5">
         <v>-31</v>
@@ -23689,7 +23693,7 @@
         <v>494</v>
       </c>
       <c r="P255" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="U255" s="5" t="s">
         <v>566</v>
@@ -23733,7 +23737,7 @@
         <v>509</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="J256" s="5">
         <v>-31</v>
@@ -23754,7 +23758,7 @@
         <v>527</v>
       </c>
       <c r="P256" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="U256" s="5" t="s">
         <v>566</v>
@@ -23798,7 +23802,7 @@
         <v>517</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J257" s="5">
         <v>-31</v>
@@ -23819,13 +23823,13 @@
         <v>622</v>
       </c>
       <c r="P257" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="R257" s="5" t="s">
         <v>518</v>
       </c>
       <c r="S257" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="U257" s="5" t="s">
         <v>563</v>
@@ -23866,7 +23870,7 @@
         <v>549</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J258" s="5">
         <v>-31</v>
@@ -23931,7 +23935,7 @@
         <v>381</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="J259" s="5">
         <v>-31</v>
@@ -23996,7 +24000,7 @@
         <v>383</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J260" s="5">
         <v>-31</v>
@@ -24061,7 +24065,7 @@
         <v>385</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J261" s="5">
         <v>-31</v>
@@ -24126,7 +24130,7 @@
         <v>387</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J262" s="5">
         <v>-31</v>
@@ -24191,7 +24195,7 @@
         <v>389</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J263" s="5">
         <v>-31</v>
@@ -24256,7 +24260,7 @@
         <v>520</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J264" s="5">
         <v>-31</v>
@@ -24321,7 +24325,7 @@
         <v>521</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J265" s="5">
         <v>-31</v>
@@ -24386,7 +24390,7 @@
         <v>522</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J266" s="5">
         <v>-31</v>
@@ -24451,7 +24455,7 @@
         <v>523</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J267" s="5">
         <v>-31</v>
@@ -24516,7 +24520,7 @@
         <v>524</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J268" s="5">
         <v>-31</v>
@@ -24581,7 +24585,7 @@
         <v>525</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J269" s="5">
         <v>-31</v>
@@ -24646,7 +24650,7 @@
         <v>403</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J270" s="5">
         <v>-31</v>
@@ -24711,7 +24715,7 @@
         <v>404</v>
       </c>
       <c r="H271" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J271" s="5">
         <v>-31</v>
@@ -24776,7 +24780,7 @@
         <v>405</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J272" s="5">
         <v>-31</v>
@@ -24862,7 +24866,7 @@
         <v>90</v>
       </c>
       <c r="P273" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="U273" s="5" t="s">
         <v>563</v>
@@ -24899,7 +24903,7 @@
         <v>561</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="I274" s="5"/>
       <c r="J274" s="5">
@@ -24921,7 +24925,7 @@
         <v>562</v>
       </c>
       <c r="P274" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="Q274" s="5"/>
       <c r="R274" s="5"/>
@@ -24972,7 +24976,7 @@
         <v>567</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J275" s="5">
         <v>-31</v>
@@ -24993,7 +24997,7 @@
         <v>601</v>
       </c>
       <c r="P275" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="U275" s="5" t="s">
         <v>563</v>
@@ -25037,7 +25041,7 @@
         <v>568</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J276" s="5">
         <v>-31</v>
@@ -25058,7 +25062,7 @@
         <v>580</v>
       </c>
       <c r="P276" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="U276" s="5" t="s">
         <v>566</v>
@@ -25102,7 +25106,7 @@
         <v>569</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J277" s="5">
         <v>-31</v>
@@ -25123,7 +25127,7 @@
         <v>580</v>
       </c>
       <c r="P277" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="U277" s="5" t="s">
         <v>577</v>
@@ -25167,7 +25171,7 @@
         <v>570</v>
       </c>
       <c r="H278" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J278" s="5">
         <v>-31</v>
@@ -25188,7 +25192,7 @@
         <v>580</v>
       </c>
       <c r="P278" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="U278" s="5" t="s">
         <v>578</v>
@@ -25232,7 +25236,7 @@
         <v>571</v>
       </c>
       <c r="H279" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J279" s="5">
         <v>-31</v>
@@ -25253,7 +25257,7 @@
         <v>580</v>
       </c>
       <c r="P279" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="U279" s="5" t="s">
         <v>579</v>
@@ -25297,7 +25301,7 @@
         <v>572</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J280" s="5">
         <v>-31</v>
@@ -25318,7 +25322,7 @@
         <v>580</v>
       </c>
       <c r="P280" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="U280" s="5" t="s">
         <v>563</v>
@@ -25362,7 +25366,7 @@
         <v>573</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J281" s="5">
         <v>-31</v>
@@ -25383,7 +25387,7 @@
         <v>580</v>
       </c>
       <c r="P281" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="U281" s="5" t="s">
         <v>566</v>
@@ -25427,7 +25431,7 @@
         <v>574</v>
       </c>
       <c r="H282" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J282" s="5">
         <v>-31</v>
@@ -25448,7 +25452,7 @@
         <v>580</v>
       </c>
       <c r="P282" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="U282" s="5" t="s">
         <v>577</v>
@@ -25492,7 +25496,7 @@
         <v>575</v>
       </c>
       <c r="H283" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J283" s="5">
         <v>-31</v>
@@ -25513,7 +25517,7 @@
         <v>580</v>
       </c>
       <c r="P283" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="U283" s="5" t="s">
         <v>578</v>
@@ -25557,7 +25561,7 @@
         <v>576</v>
       </c>
       <c r="H284" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J284" s="5">
         <v>-31</v>
@@ -25578,7 +25582,7 @@
         <v>580</v>
       </c>
       <c r="P284" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="U284" s="5" t="s">
         <v>579</v>
@@ -25643,7 +25647,7 @@
         <v>580</v>
       </c>
       <c r="P285" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="U285" s="5" t="s">
         <v>566</v>
@@ -25705,7 +25709,7 @@
         <v>580</v>
       </c>
       <c r="P286" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="U286" s="5" t="s">
         <v>566</v>
@@ -25767,7 +25771,7 @@
         <v>580</v>
       </c>
       <c r="P287" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="U287" s="5" t="s">
         <v>566</v>
@@ -25829,7 +25833,7 @@
         <v>580</v>
       </c>
       <c r="P288" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="U288" s="5" t="s">
         <v>566</v>
@@ -25891,7 +25895,7 @@
         <v>580</v>
       </c>
       <c r="P289" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="U289" s="5" t="s">
         <v>566</v>
@@ -25953,7 +25957,7 @@
         <v>580</v>
       </c>
       <c r="P290" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="U290" s="5" t="s">
         <v>566</v>
@@ -26015,7 +26019,7 @@
         <v>580</v>
       </c>
       <c r="P291" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="U291" s="5" t="s">
         <v>566</v>
@@ -26077,7 +26081,7 @@
         <v>580</v>
       </c>
       <c r="P292" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="U292" s="5" t="s">
         <v>566</v>
@@ -26139,7 +26143,7 @@
         <v>630</v>
       </c>
       <c r="P293" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="U293" s="5" t="s">
         <v>566</v>
@@ -26180,7 +26184,7 @@
         <v>644</v>
       </c>
       <c r="H294" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J294" s="5">
         <v>-31</v>
@@ -26201,7 +26205,7 @@
         <v>621</v>
       </c>
       <c r="P294" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="U294" s="5" t="s">
         <v>566</v>
@@ -26242,7 +26246,7 @@
         <v>645</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J295" s="5">
         <v>-31</v>
@@ -26263,7 +26267,7 @@
         <v>621</v>
       </c>
       <c r="P295" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="U295" s="5" t="s">
         <v>566</v>
@@ -26304,7 +26308,7 @@
         <v>646</v>
       </c>
       <c r="H296" s="5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J296" s="5">
         <v>-31</v>
@@ -26325,7 +26329,7 @@
         <v>621</v>
       </c>
       <c r="P296" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="U296" s="5" t="s">
         <v>566</v>
@@ -26366,7 +26370,7 @@
         <v>647</v>
       </c>
       <c r="H297" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J297" s="5">
         <v>-31</v>
@@ -26387,7 +26391,7 @@
         <v>621</v>
       </c>
       <c r="P297" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="U297" s="5" t="s">
         <v>566</v>
@@ -26428,7 +26432,7 @@
         <v>648</v>
       </c>
       <c r="H298" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="J298" s="5">
         <v>-31</v>
@@ -26449,7 +26453,7 @@
         <v>620</v>
       </c>
       <c r="P298" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="U298" s="5" t="s">
         <v>566</v>
@@ -26490,7 +26494,7 @@
         <v>649</v>
       </c>
       <c r="H299" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="J299" s="5">
         <v>-31</v>
@@ -26511,7 +26515,7 @@
         <v>619</v>
       </c>
       <c r="P299" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="U299" s="5" t="s">
         <v>566</v>
@@ -26552,7 +26556,7 @@
         <v>650</v>
       </c>
       <c r="H300" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="J300" s="5">
         <v>-31</v>
@@ -26573,7 +26577,7 @@
         <v>619</v>
       </c>
       <c r="P300" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="U300" s="5" t="s">
         <v>566</v>
@@ -26614,7 +26618,7 @@
         <v>651</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="J301" s="5">
         <v>-31</v>
@@ -26635,7 +26639,7 @@
         <v>619</v>
       </c>
       <c r="P301" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="U301" s="5" t="s">
         <v>566</v>
@@ -26676,7 +26680,7 @@
         <v>652</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="J302" s="5">
         <v>-31</v>
@@ -26697,7 +26701,7 @@
         <v>619</v>
       </c>
       <c r="P302" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="U302" s="5" t="s">
         <v>566</v>
@@ -26738,7 +26742,7 @@
         <v>653</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J303" s="5">
         <v>-31</v>
@@ -26759,7 +26763,7 @@
         <v>619</v>
       </c>
       <c r="P303" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="U303" s="5" t="s">
         <v>566</v>
@@ -26800,7 +26804,7 @@
         <v>654</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J304" s="5">
         <v>-31</v>
@@ -26821,7 +26825,7 @@
         <v>619</v>
       </c>
       <c r="P304" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="U304" s="5" t="s">
         <v>566</v>
@@ -26862,7 +26866,7 @@
         <v>655</v>
       </c>
       <c r="H305" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J305" s="5">
         <v>-31</v>
@@ -26883,7 +26887,7 @@
         <v>619</v>
       </c>
       <c r="P305" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="U305" s="5" t="s">
         <v>566</v>
@@ -26924,7 +26928,7 @@
         <v>656</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J306" s="5">
         <v>-31</v>
@@ -26945,7 +26949,7 @@
         <v>619</v>
       </c>
       <c r="P306" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="U306" s="5" t="s">
         <v>566</v>
@@ -26986,7 +26990,7 @@
         <v>657</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J307" s="5">
         <v>-31</v>
@@ -27007,7 +27011,7 @@
         <v>619</v>
       </c>
       <c r="P307" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="U307" s="5" t="s">
         <v>566</v>
@@ -27048,7 +27052,7 @@
         <v>658</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="J308" s="5">
         <v>-31</v>
@@ -27069,7 +27073,7 @@
         <v>626</v>
       </c>
       <c r="P308" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="U308" s="5" t="s">
         <v>566</v>
@@ -27110,7 +27114,7 @@
         <v>659</v>
       </c>
       <c r="H309" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="J309" s="5">
         <v>-31</v>
@@ -27131,7 +27135,7 @@
         <v>631</v>
       </c>
       <c r="P309" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="U309" s="5" t="s">
         <v>566</v>
@@ -27169,10 +27173,10 @@
         <v>0</v>
       </c>
       <c r="G310" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="H310" s="5" t="s">
         <v>996</v>
-      </c>
-      <c r="H310" s="5" t="s">
-        <v>997</v>
       </c>
       <c r="J310" s="5">
         <v>-31</v>
@@ -27193,7 +27197,7 @@
         <v>632</v>
       </c>
       <c r="P310" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="U310" s="5" t="s">
         <v>566</v>
@@ -27231,10 +27235,10 @@
         <v>0</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J311" s="5">
         <v>-31</v>
@@ -27255,7 +27259,7 @@
         <v>633</v>
       </c>
       <c r="P311" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="U311" s="5" t="s">
         <v>566</v>
@@ -27293,10 +27297,10 @@
         <v>0</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J312" s="5">
         <v>-31</v>
@@ -27317,7 +27321,7 @@
         <v>633</v>
       </c>
       <c r="P312" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="U312" s="5" t="s">
         <v>640</v>
@@ -27355,10 +27359,10 @@
         <v>0</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J313" s="5">
         <v>-31</v>
@@ -27379,7 +27383,7 @@
         <v>633</v>
       </c>
       <c r="P313" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="U313" s="5" t="s">
         <v>641</v>
@@ -27417,10 +27421,10 @@
         <v>0</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J314" s="5">
         <v>-31</v>
@@ -27441,7 +27445,7 @@
         <v>632</v>
       </c>
       <c r="P314" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="U314" s="5" t="s">
         <v>642</v>
@@ -27479,10 +27483,10 @@
         <v>0</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J315" s="5">
         <v>-31</v>
@@ -27503,7 +27507,7 @@
         <v>633</v>
       </c>
       <c r="P315" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="U315" s="5" t="s">
         <v>643</v>
@@ -27730,7 +27734,7 @@
         <v>663</v>
       </c>
       <c r="H319" s="5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J319" s="5">
         <v>-23</v>
@@ -27751,7 +27755,7 @@
         <v>665</v>
       </c>
       <c r="P319" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="U319" s="5" t="s">
         <v>565</v>
@@ -27786,7 +27790,7 @@
         <v>664</v>
       </c>
       <c r="H320" s="5" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J320" s="5">
         <v>-25</v>
@@ -27807,7 +27811,7 @@
         <v>666</v>
       </c>
       <c r="P320" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="U320" s="5" t="s">
         <v>565</v>
@@ -27842,7 +27846,7 @@
         <v>667</v>
       </c>
       <c r="H321" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J321" s="5">
         <v>-23</v>
@@ -27863,7 +27867,7 @@
         <v>669</v>
       </c>
       <c r="P321" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="U321" s="5" t="s">
         <v>563</v>
@@ -27966,10 +27970,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="19" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H323" s="19" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="I323" s="19"/>
       <c r="J323" s="19">
@@ -27988,10 +27992,10 @@
         <v>600</v>
       </c>
       <c r="O323" s="19" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="P323" s="19" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="Q323" s="19"/>
       <c r="R323" s="19"/>
@@ -28048,10 +28052,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="19" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="H324" s="19" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="I324" s="19"/>
       <c r="J324" s="19">
@@ -28070,10 +28074,10 @@
         <v>4800</v>
       </c>
       <c r="O324" s="19" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="P324" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="Q324" s="19"/>
       <c r="R324" s="19"/>
@@ -28130,10 +28134,10 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="H325" s="19" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="I325" s="19"/>
       <c r="J325" s="19">
@@ -28152,10 +28156,10 @@
         <v>9800</v>
       </c>
       <c r="O325" s="19" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="P325" s="19" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="Q325" s="19"/>
       <c r="R325" s="19"/>
@@ -28209,10 +28213,10 @@
         <v>1</v>
       </c>
       <c r="G326" s="41" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="H326" s="41" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="J326" s="41">
         <v>-4</v>
@@ -28224,13 +28228,13 @@
         <v>0</v>
       </c>
       <c r="M326" s="41" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="N326" s="41">
         <v>100</v>
       </c>
       <c r="U326" s="41" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="V326" s="41">
         <v>9999999</v>
@@ -28242,13 +28246,13 @@
         <v>2552233600</v>
       </c>
       <c r="Z326" s="41" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AA326" s="41" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AB326" s="42" t="s">
         <v>1166</v>
-      </c>
-      <c r="AB326" s="42" t="s">
-        <v>1167</v>
       </c>
       <c r="AF326" s="41">
         <v>1</v>
@@ -28268,10 +28272,10 @@
         <v>1</v>
       </c>
       <c r="G327" s="44" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H327" s="44" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="J327" s="44">
         <v>-31</v>
@@ -28283,19 +28287,19 @@
         <v>0</v>
       </c>
       <c r="M327" s="44" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="N327" s="44">
         <v>9900</v>
       </c>
       <c r="O327" s="44" t="s">
+        <v>1172</v>
+      </c>
+      <c r="P327" s="44" t="s">
+        <v>1208</v>
+      </c>
+      <c r="U327" s="44" t="s">
         <v>1173</v>
-      </c>
-      <c r="P327" s="44" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U327" s="44" t="s">
-        <v>1174</v>
       </c>
       <c r="V327" s="44">
         <v>99999999</v>
@@ -28333,10 +28337,10 @@
         <v>1</v>
       </c>
       <c r="G328" s="44" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="H328" s="44" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="I328" s="44"/>
       <c r="J328" s="44">
@@ -28349,23 +28353,23 @@
         <v>0</v>
       </c>
       <c r="M328" s="44" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="N328" s="44">
         <v>600</v>
       </c>
       <c r="O328" s="44" t="s">
+        <v>1195</v>
+      </c>
+      <c r="P328" s="44" t="s">
         <v>1196</v>
-      </c>
-      <c r="P328" s="44" t="s">
-        <v>1197</v>
       </c>
       <c r="Q328" s="44"/>
       <c r="R328" s="44"/>
       <c r="S328" s="44"/>
       <c r="T328" s="44"/>
       <c r="U328" s="44" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="V328" s="44">
         <v>99999999</v>
@@ -28414,10 +28418,10 @@
         <v>1</v>
       </c>
       <c r="G329" s="44" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="H329" s="44" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="I329" s="44"/>
       <c r="J329" s="44">
@@ -28430,23 +28434,23 @@
         <v>0</v>
       </c>
       <c r="M329" s="44" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="N329" s="44">
         <v>2800</v>
       </c>
       <c r="O329" s="44" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="P329" s="44" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="Q329" s="44"/>
       <c r="R329" s="44"/>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
       <c r="U329" s="44" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="V329" s="44">
         <v>99999999</v>
@@ -28495,10 +28499,10 @@
         <v>1</v>
       </c>
       <c r="G330" s="44" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="H330" s="44" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I330" s="44"/>
       <c r="J330" s="44">
@@ -28511,23 +28515,23 @@
         <v>0</v>
       </c>
       <c r="M330" s="44" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="N330" s="44">
         <v>4800</v>
       </c>
       <c r="O330" s="44" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="P330" s="44" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="Q330" s="44"/>
       <c r="R330" s="44"/>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
       <c r="U330" s="44" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="V330" s="44">
         <v>99999999</v>
@@ -28576,10 +28580,10 @@
         <v>1</v>
       </c>
       <c r="G331" s="44" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="H331" s="44" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I331" s="44"/>
       <c r="J331" s="44">
@@ -28592,23 +28596,23 @@
         <v>0</v>
       </c>
       <c r="M331" s="44" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="N331" s="44">
         <v>9900</v>
       </c>
       <c r="O331" s="44" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="P331" s="44" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Q331" s="44"/>
       <c r="R331" s="44"/>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
       <c r="U331" s="44" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="V331" s="44">
         <v>99999999</v>
@@ -28657,10 +28661,10 @@
         <v>1</v>
       </c>
       <c r="G332" s="44" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="H332" s="44" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="I332" s="44"/>
       <c r="J332" s="44">
@@ -28673,23 +28677,23 @@
         <v>0</v>
       </c>
       <c r="M332" s="44" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="N332" s="44">
         <v>19800</v>
       </c>
       <c r="O332" s="44" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="P332" s="44" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="Q332" s="44"/>
       <c r="R332" s="44"/>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
       <c r="U332" s="44" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="V332" s="44">
         <v>99999999</v>
@@ -28738,10 +28742,10 @@
         <v>1</v>
       </c>
       <c r="G333" s="44" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="H333" s="44" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="I333" s="44"/>
       <c r="J333" s="44">
@@ -28754,23 +28758,23 @@
         <v>0</v>
       </c>
       <c r="M333" s="44" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="N333" s="44">
         <v>29800</v>
       </c>
       <c r="O333" s="44" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="P333" s="44" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="Q333" s="44"/>
       <c r="R333" s="44"/>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
       <c r="U333" s="44" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="V333" s="44">
         <v>99999999</v>
@@ -28819,10 +28823,10 @@
         <v>1</v>
       </c>
       <c r="G334" s="44" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="H334" s="44" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="I334" s="44"/>
       <c r="J334" s="44">
@@ -28835,23 +28839,23 @@
         <v>0</v>
       </c>
       <c r="M334" s="44" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="N334" s="44">
         <v>39800</v>
       </c>
       <c r="O334" s="44" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="P334" s="44" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="Q334" s="44"/>
       <c r="R334" s="44"/>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
       <c r="U334" s="44" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="V334" s="44">
         <v>99999999</v>
@@ -28900,10 +28904,10 @@
         <v>1</v>
       </c>
       <c r="G335" s="44" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="H335" s="44" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="I335" s="44"/>
       <c r="J335" s="44">
@@ -28916,23 +28920,23 @@
         <v>0</v>
       </c>
       <c r="M335" s="44" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="N335" s="44">
         <v>49800</v>
       </c>
       <c r="O335" s="44" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="P335" s="44" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Q335" s="44"/>
       <c r="R335" s="44"/>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
       <c r="U335" s="44" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="V335" s="44">
         <v>99999999</v>
@@ -28981,10 +28985,10 @@
         <v>1</v>
       </c>
       <c r="G336" s="44" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="H336" s="44" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="I336" s="44"/>
       <c r="J336" s="44">
@@ -28997,23 +29001,23 @@
         <v>0</v>
       </c>
       <c r="M336" s="44" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="N336" s="44">
         <v>59800</v>
       </c>
       <c r="O336" s="44" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="P336" s="44" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="Q336" s="44"/>
       <c r="R336" s="44"/>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
       <c r="U336" s="44" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="V336" s="44">
         <v>99999999</v>
@@ -29062,10 +29066,10 @@
         <v>1</v>
       </c>
       <c r="G337" s="44" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="H337" s="44" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="I337" s="44"/>
       <c r="J337" s="44">
@@ -29078,23 +29082,23 @@
         <v>0</v>
       </c>
       <c r="M337" s="44" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="N337" s="44">
         <v>69800</v>
       </c>
       <c r="O337" s="44" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="P337" s="44" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="Q337" s="44"/>
       <c r="R337" s="44"/>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
       <c r="U337" s="44" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="V337" s="44">
         <v>99999999</v>
@@ -29157,7 +29161,7 @@
         <v>407</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>408</v>
@@ -29345,7 +29349,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -29534,7 +29538,7 @@
   <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A9:XFD10"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29585,10 +29589,10 @@
         <v>423</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1041</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1042</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>22</v>
@@ -29645,7 +29649,7 @@
         <v>42</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -29689,10 +29693,10 @@
         <v>3</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>50</v>
@@ -29754,10 +29758,10 @@
         <v>4</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>53</v>
@@ -29819,10 +29823,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>55</v>
@@ -29884,10 +29888,10 @@
         <v>6</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>57</v>
@@ -29949,10 +29953,10 @@
         <v>7</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>59</v>
@@ -30014,10 +30018,10 @@
         <v>9</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>61</v>
@@ -30076,10 +30080,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>50</v>
@@ -30138,7 +30142,7 @@
         <v>2</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="S9" s="11">
         <v>5000</v>
@@ -30156,7 +30160,7 @@
         <v>1</v>
       </c>
       <c r="AB9" s="34" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -30200,7 +30204,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="S10" s="11">
         <v>1000</v>
@@ -30218,7 +30222,7 @@
         <v>1</v>
       </c>
       <c r="AB10" s="34" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -30262,10 +30266,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>53</v>
@@ -30327,10 +30331,10 @@
         <v>9</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>63</v>
@@ -30392,10 +30396,10 @@
         <v>10</v>
       </c>
       <c r="P13" s="34" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>428</v>
@@ -30457,10 +30461,10 @@
         <v>11</v>
       </c>
       <c r="P14" s="34" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>429</v>
@@ -30522,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="11">
@@ -30541,7 +30545,7 @@
         <v>1</v>
       </c>
       <c r="AB15" s="34" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -30588,10 +30592,10 @@
         <v>3</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>72</v>
@@ -30650,10 +30654,10 @@
         <v>4</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="R17" s="34" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>75</v>
@@ -30712,10 +30716,10 @@
         <v>5</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>78</v>
@@ -30774,10 +30778,10 @@
         <v>6</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="R19" s="34" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>82</v>
@@ -30836,10 +30840,10 @@
         <v>7</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="R20" s="34" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>86</v>
@@ -30898,10 +30902,10 @@
         <v>0</v>
       </c>
       <c r="P21" s="36" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="R21" s="36" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="S21" s="35" t="s">
         <v>89</v>
@@ -30960,7 +30964,7 @@
         <v>2</v>
       </c>
       <c r="P22" s="34" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="11">
@@ -31020,7 +31024,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="34" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="R23" s="34"/>
       <c r="S23" s="11">
@@ -31083,7 +31087,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="34" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="R24" s="34"/>
       <c r="S24" s="11">
@@ -31102,7 +31106,7 @@
         <v>1</v>
       </c>
       <c r="AB24" s="34" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -31121,8 +31125,8 @@
       <c r="E25" s="11">
         <v>111</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>425</v>
+      <c r="F25" s="34" t="s">
+        <v>1209</v>
       </c>
       <c r="G25" s="11">
         <v>19800</v>
@@ -31149,10 +31153,10 @@
         <v>8</v>
       </c>
       <c r="P25" s="34" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="R25" s="34" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="S25" s="34" t="s">
         <v>560</v>
@@ -31185,8 +31189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -31611,7 +31615,7 @@
         <v>90</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="L8" s="12">
         <v>57</v>
@@ -31629,7 +31633,7 @@
         <v>455</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>440</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="1210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="1212">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -2045,10 +2045,6 @@
   </si>
   <si>
     <t>0元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fish_summon_fish</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -5009,14 +5005,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>100000,50,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"10万金币","50福利券","锁定*1"</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"30万金币","50福利券"</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5409,6 +5397,26 @@
   </si>
   <si>
     <t>6000000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万金币","5福利券","锁定*1"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,5,1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_summon_fish</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_summon_fish</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_summon_fish</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6018,7 +6026,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -6045,10 +6053,10 @@
         <v>10</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H2" s="12">
         <v>0</v>
@@ -6075,10 +6083,10 @@
         <v>12</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H3" s="12">
         <v>1</v>
@@ -6105,10 +6113,10 @@
         <v>14</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -6207,7 +6215,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -6320,7 +6328,7 @@
         <v>45</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>46</v>
@@ -6362,10 +6370,10 @@
         <v>50</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AC2" s="2">
         <v>1</v>
@@ -6400,7 +6408,7 @@
         <v>45</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>46</v>
@@ -6442,7 +6450,7 @@
         <v>53</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Z3" s="2" t="s">
         <v>51</v>
@@ -6480,7 +6488,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>46</v>
@@ -6522,7 +6530,7 @@
         <v>55</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>51</v>
@@ -6560,7 +6568,7 @@
         <v>45</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>46</v>
@@ -6602,7 +6610,7 @@
         <v>57</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>51</v>
@@ -6640,7 +6648,7 @@
         <v>45</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>46</v>
@@ -6682,7 +6690,7 @@
         <v>59</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>51</v>
@@ -6720,7 +6728,7 @@
         <v>45</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>46</v>
@@ -6762,7 +6770,7 @@
         <v>61</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>51</v>
@@ -6800,7 +6808,7 @@
         <v>45</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>46</v>
@@ -6842,7 +6850,7 @@
         <v>63</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Z8" s="2" t="s">
         <v>51</v>
@@ -6880,7 +6888,7 @@
         <v>45</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>46</v>
@@ -6922,7 +6930,7 @@
         <v>65</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Z9" s="2" t="s">
         <v>51</v>
@@ -6961,7 +6969,7 @@
         <v>45</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>46</v>
@@ -7003,7 +7011,7 @@
         <v>67</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="Z10" s="11" t="s">
         <v>51</v>
@@ -7044,7 +7052,7 @@
         <v>45</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>46</v>
@@ -7086,7 +7094,7 @@
         <v>72</v>
       </c>
       <c r="Y11" s="34" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="Z11" s="11" t="s">
         <v>51</v>
@@ -7124,7 +7132,7 @@
         <v>45</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>46</v>
@@ -7166,7 +7174,7 @@
         <v>75</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Z12" s="11" t="s">
         <v>51</v>
@@ -7204,7 +7212,7 @@
         <v>45</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>46</v>
@@ -7246,7 +7254,7 @@
         <v>78</v>
       </c>
       <c r="Y13" s="11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Z13" s="11" t="s">
         <v>51</v>
@@ -7284,7 +7292,7 @@
         <v>45</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>46</v>
@@ -7326,7 +7334,7 @@
         <v>82</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Z14" s="11" t="s">
         <v>51</v>
@@ -7364,7 +7372,7 @@
         <v>45</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>46</v>
@@ -7406,7 +7414,7 @@
         <v>86</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Z15" s="11" t="s">
         <v>51</v>
@@ -7444,7 +7452,7 @@
         <v>45</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>46</v>
@@ -7486,7 +7494,7 @@
         <v>89</v>
       </c>
       <c r="Y16" s="34" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="Z16" s="11" t="s">
         <v>51</v>
@@ -7516,7 +7524,7 @@
         <v>90</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>46</v>
@@ -7546,10 +7554,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="W17" s="11" t="s">
         <v>49</v>
@@ -7558,7 +7566,7 @@
         <v>50</v>
       </c>
       <c r="Y17" s="34" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="Z17" s="11" t="s">
         <v>51</v>
@@ -7588,7 +7596,7 @@
         <v>90</v>
       </c>
       <c r="J18" s="34" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>46</v>
@@ -7618,10 +7626,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="W18" s="11" t="s">
         <v>49</v>
@@ -7630,7 +7638,7 @@
         <v>53</v>
       </c>
       <c r="Y18" s="11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Z18" s="11" t="s">
         <v>51</v>
@@ -7660,7 +7668,7 @@
         <v>90</v>
       </c>
       <c r="J19" s="34" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>46</v>
@@ -7690,10 +7698,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="W19" s="11" t="s">
         <v>49</v>
@@ -7702,7 +7710,7 @@
         <v>55</v>
       </c>
       <c r="Y19" s="11" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Z19" s="11" t="s">
         <v>51</v>
@@ -7732,7 +7740,7 @@
         <v>90</v>
       </c>
       <c r="J20" s="34" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>46</v>
@@ -7762,10 +7770,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="W20" s="11" t="s">
         <v>49</v>
@@ -7774,7 +7782,7 @@
         <v>57</v>
       </c>
       <c r="Y20" s="11" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Z20" s="11" t="s">
         <v>51</v>
@@ -7804,7 +7812,7 @@
         <v>90</v>
       </c>
       <c r="J21" s="34" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>46</v>
@@ -7834,10 +7842,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="W21" s="11" t="s">
         <v>49</v>
@@ -7846,7 +7854,7 @@
         <v>59</v>
       </c>
       <c r="Y21" s="11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Z21" s="11" t="s">
         <v>51</v>
@@ -7876,7 +7884,7 @@
         <v>90</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K22" s="11" t="s">
         <v>46</v>
@@ -7906,10 +7914,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="W22" s="11" t="s">
         <v>49</v>
@@ -7918,7 +7926,7 @@
         <v>91</v>
       </c>
       <c r="Y22" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Z22" s="11" t="s">
         <v>51</v>
@@ -7948,7 +7956,7 @@
         <v>90</v>
       </c>
       <c r="J23" s="34" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K23" s="11" t="s">
         <v>46</v>
@@ -7978,10 +7986,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="W23" s="11" t="s">
         <v>49</v>
@@ -7990,7 +7998,7 @@
         <v>63</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="Z23" s="11" t="s">
         <v>51</v>
@@ -8029,7 +8037,7 @@
         <v>45</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>46</v>
@@ -8059,19 +8067,19 @@
         <v>6</v>
       </c>
       <c r="T24" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="U24" s="34" t="s">
         <v>554</v>
-      </c>
-      <c r="U24" s="34" t="s">
-        <v>555</v>
       </c>
       <c r="W24" s="11" t="s">
         <v>49</v>
       </c>
       <c r="X24" s="34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="Y24" s="11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Z24" s="11" t="s">
         <v>51</v>
@@ -8095,11 +8103,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H151" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="O311" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H168" sqref="H168"/>
+      <selection pane="bottomRight" activeCell="O332" sqref="O332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -8160,7 +8168,7 @@
         <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>95</v>
@@ -8193,16 +8201,16 @@
         <v>97</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>547</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>98</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>99</v>
@@ -8296,7 +8304,7 @@
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V2" s="7">
         <v>0</v>
@@ -8354,7 +8362,7 @@
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V3" s="7">
         <v>0</v>
@@ -8412,7 +8420,7 @@
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="V4" s="7">
         <v>0</v>
@@ -8447,7 +8455,7 @@
         <v>120</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="5">
@@ -8469,13 +8477,13 @@
         <v>90</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="Q5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="V5" s="14" t="s">
         <v>121</v>
@@ -8534,7 +8542,7 @@
         <v>126</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V6" s="7">
         <v>0</v>
@@ -8592,7 +8600,7 @@
       <c r="S7" s="7"/>
       <c r="T7" s="7"/>
       <c r="U7" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V7" s="7">
         <v>1000</v>
@@ -8624,7 +8632,7 @@
         <v>124</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J8" s="5">
         <v>-6</v>
@@ -8645,10 +8653,10 @@
         <v>130</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V8" s="5">
         <v>9999999</v>
@@ -8701,7 +8709,7 @@
         <v>133</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V9" s="7">
         <v>999999</v>
@@ -8754,7 +8762,7 @@
         <v>135</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V10" s="7">
         <v>0</v>
@@ -8807,7 +8815,7 @@
         <v>138</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V11" s="5">
         <v>999999</v>
@@ -8860,7 +8868,7 @@
         <v>141</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V12" s="5">
         <v>999999</v>
@@ -8892,7 +8900,7 @@
         <v>142</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="J13" s="5">
         <v>-8</v>
@@ -8913,10 +8921,10 @@
         <v>143</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V13" s="5">
         <v>99999</v>
@@ -8969,7 +8977,7 @@
         <v>144</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="V14" s="5">
         <v>99999</v>
@@ -9001,7 +9009,7 @@
         <v>146</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J15" s="5">
         <v>-8</v>
@@ -9025,7 +9033,7 @@
         <v>148</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V15" s="5">
         <v>99999</v>
@@ -9057,7 +9065,7 @@
         <v>149</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J16" s="5">
         <v>-8</v>
@@ -9081,7 +9089,7 @@
         <v>148</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="V16" s="5">
         <v>99999</v>
@@ -9134,7 +9142,7 @@
         <v>152</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V17" s="5">
         <v>99999</v>
@@ -9190,7 +9198,7 @@
         <v>156</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V18" s="5">
         <v>99999</v>
@@ -9249,7 +9257,7 @@
         <v>159</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V19" s="5">
         <v>99999</v>
@@ -9299,13 +9307,13 @@
         <v>600</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V20" s="5">
         <v>999999</v>
@@ -9334,10 +9342,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="J21" s="5">
         <v>-11</v>
@@ -9358,10 +9366,10 @@
         <v>161</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V21" s="5">
         <v>999999</v>
@@ -9396,7 +9404,7 @@
         <v>162</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J22" s="5">
         <v>-10</v>
@@ -9417,10 +9425,10 @@
         <v>161</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V22" s="5">
         <v>999999</v>
@@ -9452,10 +9460,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>892</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>893</v>
       </c>
       <c r="J23" s="5">
         <v>-13</v>
@@ -9479,7 +9487,7 @@
         <v>163</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="V23" s="5">
         <v>999999</v>
@@ -9535,7 +9543,7 @@
         <v>163</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="V24" s="5">
         <v>999999</v>
@@ -9591,7 +9599,7 @@
         <v>159</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V25" s="5">
         <v>2000</v>
@@ -9641,10 +9649,10 @@
         <v>90</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V26" s="14" t="s">
         <v>121</v>
@@ -9694,10 +9702,10 @@
         <v>90</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V27" s="14" t="s">
         <v>171</v>
@@ -9747,10 +9755,10 @@
         <v>90</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V28" s="14" t="s">
         <v>173</v>
@@ -9800,10 +9808,10 @@
         <v>90</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V29" s="14" t="s">
         <v>175</v>
@@ -9853,10 +9861,10 @@
         <v>90</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="U30" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V30" s="14" t="s">
         <v>177</v>
@@ -9906,10 +9914,10 @@
         <v>90</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="U31" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V31" s="14" t="s">
         <v>179</v>
@@ -9959,10 +9967,10 @@
         <v>90</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="U32" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V32" s="14" t="s">
         <v>181</v>
@@ -10012,10 +10020,10 @@
         <v>90</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U33" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V33" s="14" t="s">
         <v>183</v>
@@ -10065,10 +10073,10 @@
         <v>90</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V34" s="14" t="s">
         <v>185</v>
@@ -10118,10 +10126,10 @@
         <v>90</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U35" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V35" s="14" t="s">
         <v>187</v>
@@ -10171,10 +10179,10 @@
         <v>90</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U36" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V36" s="14" t="s">
         <v>189</v>
@@ -10224,10 +10232,10 @@
         <v>90</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="U37" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V37" s="14" t="s">
         <v>191</v>
@@ -10277,10 +10285,10 @@
         <v>90</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="U38" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V38" s="14" t="s">
         <v>193</v>
@@ -10330,10 +10338,10 @@
         <v>90</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="U39" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V39" s="14" t="s">
         <v>195</v>
@@ -10383,10 +10391,10 @@
         <v>90</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V40" s="14" t="s">
         <v>197</v>
@@ -10436,10 +10444,10 @@
         <v>90</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V41" s="14" t="s">
         <v>199</v>
@@ -10489,10 +10497,10 @@
         <v>90</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="U42" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V42" s="14" t="s">
         <v>201</v>
@@ -10542,10 +10550,10 @@
         <v>90</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="U43" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V43" s="14" t="s">
         <v>203</v>
@@ -10595,10 +10603,10 @@
         <v>90</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U44" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V44" s="14" t="s">
         <v>205</v>
@@ -10648,10 +10656,10 @@
         <v>90</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U45" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V45" s="14" t="s">
         <v>207</v>
@@ -10701,10 +10709,10 @@
         <v>90</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U46" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V46" s="14" t="s">
         <v>209</v>
@@ -10754,10 +10762,10 @@
         <v>90</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U47" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V47" s="14" t="s">
         <v>211</v>
@@ -10807,10 +10815,10 @@
         <v>90</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U48" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V48" s="14" t="s">
         <v>213</v>
@@ -10860,10 +10868,10 @@
         <v>90</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="U49" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V49" s="14" t="s">
         <v>215</v>
@@ -10913,10 +10921,10 @@
         <v>90</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="U50" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V50" s="14" t="s">
         <v>217</v>
@@ -10968,13 +10976,13 @@
         <v>219</v>
       </c>
       <c r="P51" s="14" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="Q51" s="7"/>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V51" s="5">
         <v>9999</v>
@@ -11026,13 +11034,13 @@
         <v>219</v>
       </c>
       <c r="P52" s="14" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Q52" s="7"/>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
       <c r="U52" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V52" s="5">
         <v>9999</v>
@@ -11084,13 +11092,13 @@
         <v>219</v>
       </c>
       <c r="P53" s="14" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Q53" s="7"/>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V53" s="5">
         <v>9999</v>
@@ -11122,7 +11130,7 @@
         <v>220</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="J54" s="5">
         <v>-13</v>
@@ -11143,10 +11151,10 @@
         <v>221</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="U54" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V54" s="5">
         <v>999999999</v>
@@ -11196,10 +11204,10 @@
         <v>223</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="U55" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V55" s="5">
         <v>9999999</v>
@@ -11228,10 +11236,10 @@
         <v>1</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J56" s="22">
         <v>-18</v>
@@ -11252,10 +11260,10 @@
         <v>224</v>
       </c>
       <c r="P56" s="22" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="U56" s="22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V56" s="22">
         <v>999999</v>
@@ -11287,7 +11295,7 @@
         <v>225</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J57" s="5">
         <v>-19</v>
@@ -11308,10 +11316,10 @@
         <v>226</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="U57" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V57" s="5">
         <v>999999</v>
@@ -11361,10 +11369,10 @@
         <v>90</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U58" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V58" s="14" t="s">
         <v>121</v>
@@ -11414,10 +11422,10 @@
         <v>90</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U59" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V59" s="14" t="s">
         <v>121</v>
@@ -11467,10 +11475,10 @@
         <v>90</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U60" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V60" s="14" t="s">
         <v>121</v>
@@ -11520,10 +11528,10 @@
         <v>90</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="U61" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V61" s="14" t="s">
         <v>121</v>
@@ -11573,10 +11581,10 @@
         <v>90</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="U62" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V62" s="14" t="s">
         <v>121</v>
@@ -11626,10 +11634,10 @@
         <v>90</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="U63" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V63" s="14" t="s">
         <v>121</v>
@@ -11679,10 +11687,10 @@
         <v>90</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="U64" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V64" s="14" t="s">
         <v>195</v>
@@ -11732,10 +11740,10 @@
         <v>90</v>
       </c>
       <c r="P65" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="U65" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V65" s="14" t="s">
         <v>195</v>
@@ -11767,10 +11775,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H66" s="5" t="s">
         <v>1083</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>1084</v>
       </c>
       <c r="J66" s="5">
         <v>-4</v>
@@ -11788,7 +11796,7 @@
         <v>600</v>
       </c>
       <c r="U66" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V66" s="14" t="s">
         <v>121</v>
@@ -11803,10 +11811,10 @@
         <v>90</v>
       </c>
       <c r="AA66" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="AB66" s="10" t="s">
         <v>741</v>
-      </c>
-      <c r="AB66" s="10" t="s">
-        <v>742</v>
       </c>
       <c r="AF66" s="5">
         <v>1</v>
@@ -11850,10 +11858,10 @@
         <v>90</v>
       </c>
       <c r="P67" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="U67" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V67" s="14" t="s">
         <v>121</v>
@@ -11906,10 +11914,10 @@
         <v>90</v>
       </c>
       <c r="P68" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="U68" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V68" s="14" t="s">
         <v>121</v>
@@ -11962,10 +11970,10 @@
         <v>90</v>
       </c>
       <c r="P69" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="U69" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V69" s="14" t="s">
         <v>121</v>
@@ -12018,10 +12026,10 @@
         <v>90</v>
       </c>
       <c r="P70" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="U70" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V70" s="14" t="s">
         <v>121</v>
@@ -12074,10 +12082,10 @@
         <v>90</v>
       </c>
       <c r="P71" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="U71" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V71" s="14" t="s">
         <v>121</v>
@@ -12112,7 +12120,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J72" s="5">
         <v>-4</v>
@@ -12130,7 +12138,7 @@
         <v>600</v>
       </c>
       <c r="U72" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V72" s="14" t="s">
         <v>121</v>
@@ -12198,7 +12206,7 @@
         <v>237</v>
       </c>
       <c r="U73" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V73" s="14" t="s">
         <v>121</v>
@@ -12257,7 +12265,7 @@
         <v>239</v>
       </c>
       <c r="U74" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V74" s="14" t="s">
         <v>121</v>
@@ -12316,7 +12324,7 @@
         <v>241</v>
       </c>
       <c r="U75" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V75" s="14" t="s">
         <v>121</v>
@@ -12375,7 +12383,7 @@
         <v>248</v>
       </c>
       <c r="U76" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V76" s="14" t="s">
         <v>121</v>
@@ -12407,7 +12415,7 @@
         <v>249</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>1106</v>
+        <v>1207</v>
       </c>
       <c r="J77" s="19">
         <v>-20</v>
@@ -12425,13 +12433,13 @@
         <v>100</v>
       </c>
       <c r="O77" s="19" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1105</v>
+        <v>1208</v>
       </c>
       <c r="U77" s="19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V77" s="38" t="s">
         <v>121</v>
@@ -12463,7 +12471,7 @@
         <v>250</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J78" s="19">
         <v>-20</v>
@@ -12481,13 +12489,13 @@
         <v>600</v>
       </c>
       <c r="O78" s="19" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="P78" s="19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="U78" s="19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V78" s="38" t="s">
         <v>121</v>
@@ -12502,10 +12510,10 @@
         <v>90</v>
       </c>
       <c r="AA78" s="19" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AB78" s="40" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AF78" s="19">
         <v>1</v>
@@ -12525,10 +12533,10 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J79" s="5">
         <v>-20</v>
@@ -12549,10 +12557,10 @@
         <v>251</v>
       </c>
       <c r="P79" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="U79" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V79" s="14" t="s">
         <v>121</v>
@@ -12567,10 +12575,10 @@
         <v>90</v>
       </c>
       <c r="AA79" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AB79" s="10" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF79" s="5">
         <v>1</v>
@@ -12590,10 +12598,10 @@
         <v>1</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J80" s="5">
         <v>-20</v>
@@ -12614,10 +12622,10 @@
         <v>251</v>
       </c>
       <c r="P80" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="U80" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V80" s="14" t="s">
         <v>121</v>
@@ -12632,13 +12640,13 @@
         <v>16</v>
       </c>
       <c r="Z80" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AA80" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AB80" s="10" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AF80" s="5">
         <v>1</v>
@@ -12661,7 +12669,7 @@
         <v>253</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J81" s="19">
         <v>-20</v>
@@ -12679,13 +12687,13 @@
         <v>4800</v>
       </c>
       <c r="O81" s="19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P81" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="U81" s="19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V81" s="38" t="s">
         <v>121</v>
@@ -12697,10 +12705,10 @@
         <v>2552233600</v>
       </c>
       <c r="Z81" s="19" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AA81" s="19" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AF81" s="19">
         <v>1</v>
@@ -12723,7 +12731,7 @@
         <v>254</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="J82" s="5">
         <v>-20</v>
@@ -12744,10 +12752,10 @@
         <v>255</v>
       </c>
       <c r="P82" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="U82" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V82" s="14" t="s">
         <v>121</v>
@@ -12779,7 +12787,7 @@
         <v>256</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J83" s="5">
         <v>-21</v>
@@ -12797,13 +12805,13 @@
         <v>4800</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="U83" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V83" s="5">
         <v>99999999</v>
@@ -12835,7 +12843,7 @@
         <v>257</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J84" s="5">
         <v>-22</v>
@@ -12853,13 +12861,13 @@
         <v>4800</v>
       </c>
       <c r="O84" s="5" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="U84" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V84" s="5">
         <v>99999999</v>
@@ -12888,10 +12896,10 @@
         <v>1</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J85" s="5">
         <v>-23</v>
@@ -12912,10 +12920,10 @@
         <v>251</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="U85" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="V85" s="14" t="s">
         <v>171</v>
@@ -12944,10 +12952,10 @@
         <v>1</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="J86" s="5">
         <v>-24</v>
@@ -12965,7 +12973,7 @@
         <v>4800</v>
       </c>
       <c r="U86" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="V86" s="5">
         <v>99999999</v>
@@ -12994,10 +13002,10 @@
         <v>1</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J87" s="5">
         <v>-25</v>
@@ -13018,10 +13026,10 @@
         <v>251</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U87" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="V87" s="5">
         <v>99999999</v>
@@ -13053,7 +13061,7 @@
         <v>258</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J88" s="5">
         <v>-22</v>
@@ -13074,10 +13082,10 @@
         <v>259</v>
       </c>
       <c r="P88" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="U88" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V88" s="5">
         <v>99999999</v>
@@ -13109,7 +13117,7 @@
         <v>260</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J89" s="5">
         <v>-22</v>
@@ -13130,10 +13138,10 @@
         <v>130</v>
       </c>
       <c r="P89" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="U89" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V89" s="5">
         <v>9999999</v>
@@ -13165,7 +13173,7 @@
         <v>262</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="J90" s="5">
         <v>-22</v>
@@ -13186,10 +13194,10 @@
         <v>223</v>
       </c>
       <c r="P90" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="U90" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V90" s="5">
         <v>9999999</v>
@@ -13221,7 +13229,7 @@
         <v>263</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J91" s="5">
         <v>-22</v>
@@ -13245,7 +13253,7 @@
         <v>227</v>
       </c>
       <c r="U91" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V91" s="5">
         <v>9999999</v>
@@ -13277,7 +13285,7 @@
         <v>264</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J92" s="5">
         <v>-22</v>
@@ -13295,13 +13303,13 @@
         <v>4800</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="U92" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V92" s="5">
         <v>9999999</v>
@@ -13333,7 +13341,7 @@
         <v>265</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J93" s="5">
         <v>-22</v>
@@ -13354,10 +13362,10 @@
         <v>266</v>
       </c>
       <c r="P93" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="U93" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V93" s="5">
         <v>9999999</v>
@@ -13407,10 +13415,10 @@
         <v>90</v>
       </c>
       <c r="P94" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="U94" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V94" s="14" t="s">
         <v>121</v>
@@ -13442,7 +13450,7 @@
         <v>268</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J95" s="5">
         <v>-23</v>
@@ -13463,13 +13471,13 @@
         <v>219</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="Q95" s="7"/>
       <c r="S95" s="7"/>
       <c r="T95" s="7"/>
       <c r="U95" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V95" s="5">
         <v>9999999</v>
@@ -13501,7 +13509,7 @@
         <v>269</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J96" s="5">
         <v>-23</v>
@@ -13525,7 +13533,7 @@
         <v>261</v>
       </c>
       <c r="U96" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="V96" s="5">
         <v>9999999</v>
@@ -13557,7 +13565,7 @@
         <v>270</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="J97" s="5">
         <v>-24</v>
@@ -13575,19 +13583,19 @@
         <v>4800</v>
       </c>
       <c r="O97" s="5" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="P97" s="5" t="s">
         <v>271</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="S97" s="5" t="s">
         <v>272</v>
       </c>
       <c r="U97" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V97" s="5">
         <v>9999999</v>
@@ -13619,7 +13627,7 @@
         <v>273</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="J98" s="5">
         <v>-24</v>
@@ -13637,19 +13645,19 @@
         <v>9800</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="P98" s="5" t="s">
         <v>274</v>
       </c>
       <c r="R98" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="S98" s="5" t="s">
         <v>275</v>
       </c>
       <c r="U98" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V98" s="5">
         <v>9999999</v>
@@ -13681,7 +13689,7 @@
         <v>276</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="J99" s="5">
         <v>-24</v>
@@ -13699,19 +13707,19 @@
         <v>19800</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="P99" s="5" t="s">
         <v>277</v>
       </c>
       <c r="R99" s="5" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="S99" s="5" t="s">
         <v>278</v>
       </c>
       <c r="U99" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V99" s="5">
         <v>9999999</v>
@@ -13740,10 +13748,10 @@
         <v>1</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J100" s="19">
         <v>-25</v>
@@ -13761,13 +13769,13 @@
         <v>100</v>
       </c>
       <c r="O100" s="19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="P100" s="19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="U100" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V100" s="19">
         <v>50</v>
@@ -13803,10 +13811,10 @@
         <v>1</v>
       </c>
       <c r="G101" s="19" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J101" s="19">
         <v>-25</v>
@@ -13824,13 +13832,13 @@
         <v>1800</v>
       </c>
       <c r="O101" s="19" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P101" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="U101" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V101" s="19">
         <v>20</v>
@@ -13869,7 +13877,7 @@
         <v>280</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J102" s="19">
         <v>-25</v>
@@ -13887,13 +13895,13 @@
         <v>4800</v>
       </c>
       <c r="O102" s="19" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P102" s="19" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="U102" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V102" s="19">
         <v>10</v>
@@ -13929,10 +13937,10 @@
         <v>1</v>
       </c>
       <c r="G103" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J103" s="19">
         <v>-25</v>
@@ -13950,13 +13958,13 @@
         <v>100</v>
       </c>
       <c r="O103" s="19" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P103" s="19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="U103" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V103" s="19">
         <v>50</v>
@@ -13992,10 +14000,10 @@
         <v>1</v>
       </c>
       <c r="G104" s="19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="J104" s="19">
         <v>-25</v>
@@ -14013,13 +14021,13 @@
         <v>2800</v>
       </c>
       <c r="O104" s="19" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P104" s="19" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="U104" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V104" s="19">
         <v>20</v>
@@ -14058,7 +14066,7 @@
         <v>78</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="J105" s="19">
         <v>-25</v>
@@ -14076,13 +14084,13 @@
         <v>9800</v>
       </c>
       <c r="O105" s="19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="P105" s="19" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="U105" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V105" s="19">
         <v>10</v>
@@ -14118,10 +14126,10 @@
         <v>1</v>
       </c>
       <c r="G106" s="19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J106" s="19">
         <v>-25</v>
@@ -14139,13 +14147,13 @@
         <v>100</v>
       </c>
       <c r="O106" s="19" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P106" s="19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="U106" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V106" s="19">
         <v>50</v>
@@ -14184,7 +14192,7 @@
         <v>280</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J107" s="19">
         <v>-25</v>
@@ -14202,13 +14210,13 @@
         <v>4800</v>
       </c>
       <c r="O107" s="19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="P107" s="19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="U107" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V107" s="19">
         <v>20</v>
@@ -14247,7 +14255,7 @@
         <v>82</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J108" s="19">
         <v>-25</v>
@@ -14265,13 +14273,13 @@
         <v>19800</v>
       </c>
       <c r="O108" s="19" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="P108" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="U108" s="19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V108" s="19">
         <v>10</v>
@@ -14335,7 +14343,7 @@
       </c>
       <c r="Q109" s="7"/>
       <c r="U109" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="V109" s="5">
         <v>99999999</v>
@@ -14367,7 +14375,7 @@
         <v>286</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J110" s="5">
         <v>-26</v>
@@ -14385,19 +14393,19 @@
         <v>3800</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="P110" s="5" t="s">
         <v>287</v>
       </c>
       <c r="R110" s="5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="S110" s="5" t="s">
         <v>288</v>
       </c>
       <c r="U110" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V110" s="5">
         <v>9999999</v>
@@ -14429,7 +14437,7 @@
         <v>289</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J111" s="5">
         <v>-26</v>
@@ -14447,19 +14455,19 @@
         <v>8800</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="P111" s="5" t="s">
         <v>290</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="S111" s="5" t="s">
         <v>291</v>
       </c>
       <c r="U111" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V111" s="5">
         <v>9999999</v>
@@ -14491,7 +14499,7 @@
         <v>292</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J112" s="5">
         <v>-26</v>
@@ -14509,19 +14517,19 @@
         <v>18800</v>
       </c>
       <c r="O112" s="5" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="P112" s="5" t="s">
         <v>293</v>
       </c>
       <c r="R112" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="S112" s="5" t="s">
         <v>294</v>
       </c>
       <c r="U112" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V112" s="5">
         <v>9999999</v>
@@ -14553,7 +14561,7 @@
         <v>295</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J113" s="5">
         <v>-26</v>
@@ -14577,7 +14585,7 @@
         <v>297</v>
       </c>
       <c r="U113" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V113" s="5">
         <v>9999999</v>
@@ -14609,7 +14617,7 @@
         <v>298</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J114" s="5">
         <v>-26</v>
@@ -14633,7 +14641,7 @@
         <v>299</v>
       </c>
       <c r="U114" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V114" s="5">
         <v>9999999</v>
@@ -14665,7 +14673,7 @@
         <v>300</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J115" s="5">
         <v>-26</v>
@@ -14683,13 +14691,13 @@
         <v>9800</v>
       </c>
       <c r="O115" s="5" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="P115" s="5" t="s">
         <v>301</v>
       </c>
       <c r="U115" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V115" s="5">
         <v>9999999</v>
@@ -14721,7 +14729,7 @@
         <v>302</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J116" s="5">
         <v>-27</v>
@@ -14739,19 +14747,19 @@
         <v>4800</v>
       </c>
       <c r="O116" s="5" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="P116" s="5" t="s">
         <v>303</v>
       </c>
       <c r="R116" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="S116" s="5" t="s">
         <v>304</v>
       </c>
       <c r="U116" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V116" s="5">
         <v>9999999</v>
@@ -14783,7 +14791,7 @@
         <v>305</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="J117" s="5">
         <v>-27</v>
@@ -14801,19 +14809,19 @@
         <v>9800</v>
       </c>
       <c r="O117" s="5" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="P117" s="5" t="s">
         <v>274</v>
       </c>
       <c r="R117" s="5" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="S117" s="5" t="s">
         <v>275</v>
       </c>
       <c r="U117" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V117" s="5">
         <v>9999999</v>
@@ -14845,7 +14853,7 @@
         <v>306</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="J118" s="5">
         <v>-28</v>
@@ -14869,7 +14877,7 @@
         <v>307</v>
       </c>
       <c r="U118" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V118" s="5">
         <v>9999999</v>
@@ -14901,7 +14909,7 @@
         <v>308</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="J119" s="5">
         <v>-28</v>
@@ -14925,7 +14933,7 @@
         <v>310</v>
       </c>
       <c r="U119" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="V119" s="5">
         <v>9999999</v>
@@ -14957,7 +14965,7 @@
         <v>311</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="J120" s="5">
         <v>-28</v>
@@ -14981,7 +14989,7 @@
         <v>313</v>
       </c>
       <c r="U120" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V120" s="5">
         <v>9999999</v>
@@ -15013,7 +15021,7 @@
         <v>314</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J121" s="5">
         <v>-28</v>
@@ -15040,7 +15048,7 @@
         <v>317</v>
       </c>
       <c r="U121" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V121" s="5">
         <v>9999999</v>
@@ -15072,7 +15080,7 @@
         <v>318</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J122" s="5">
         <v>-28</v>
@@ -15099,7 +15107,7 @@
         <v>320</v>
       </c>
       <c r="U122" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V122" s="5">
         <v>9999999</v>
@@ -15131,7 +15139,7 @@
         <v>321</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J123" s="5">
         <v>-28</v>
@@ -15158,7 +15166,7 @@
         <v>323</v>
       </c>
       <c r="U123" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V123" s="5">
         <v>9999999</v>
@@ -15190,7 +15198,7 @@
         <v>298</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J124" s="5">
         <v>-28</v>
@@ -15214,7 +15222,7 @@
         <v>316</v>
       </c>
       <c r="U124" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V124" s="5">
         <v>9999999</v>
@@ -15246,7 +15254,7 @@
         <v>324</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="J125" s="5">
         <v>-28</v>
@@ -15270,7 +15278,7 @@
         <v>325</v>
       </c>
       <c r="U125" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V125" s="5">
         <v>9999999</v>
@@ -15302,7 +15310,7 @@
         <v>326</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J126" s="5">
         <v>-28</v>
@@ -15326,7 +15334,7 @@
         <v>327</v>
       </c>
       <c r="U126" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V126" s="5">
         <v>9999999</v>
@@ -15358,7 +15366,7 @@
         <v>328</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J127" s="5">
         <v>-29</v>
@@ -15388,7 +15396,7 @@
         <v>332</v>
       </c>
       <c r="U127" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V127" s="5">
         <v>9999999</v>
@@ -15441,10 +15449,10 @@
         <v>90</v>
       </c>
       <c r="P128" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="U128" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V128" s="14" t="s">
         <v>121</v>
@@ -15476,7 +15484,7 @@
         <v>1</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J129" s="5">
         <v>-11</v>
@@ -15497,10 +15505,10 @@
         <v>90</v>
       </c>
       <c r="P129" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="U129" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V129" s="14" t="s">
         <v>121</v>
@@ -15532,7 +15540,7 @@
         <v>334</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="J130" s="5">
         <v>-28</v>
@@ -15556,7 +15564,7 @@
         <v>336</v>
       </c>
       <c r="U130" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V130" s="5">
         <v>9999999</v>
@@ -15594,7 +15602,7 @@
         <v>252</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="J131" s="5">
         <v>-28</v>
@@ -15618,7 +15626,7 @@
         <v>337</v>
       </c>
       <c r="U131" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V131" s="5">
         <v>9999999</v>
@@ -15656,7 +15664,7 @@
         <v>338</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J132" s="5">
         <v>-28</v>
@@ -15680,7 +15688,7 @@
         <v>339</v>
       </c>
       <c r="U132" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V132" s="5">
         <v>9999999</v>
@@ -15718,7 +15726,7 @@
         <v>340</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="J133" s="5">
         <v>-28</v>
@@ -15739,10 +15747,10 @@
         <v>296</v>
       </c>
       <c r="P133" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="U133" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V133" s="5">
         <v>9999999</v>
@@ -15780,7 +15788,7 @@
         <v>341</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="J134" s="5">
         <v>-28</v>
@@ -15801,10 +15809,10 @@
         <v>309</v>
       </c>
       <c r="P134" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="U134" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V134" s="5">
         <v>9999999</v>
@@ -15842,7 +15850,7 @@
         <v>343</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="J135" s="5">
         <v>-28</v>
@@ -15863,10 +15871,10 @@
         <v>312</v>
       </c>
       <c r="P135" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="U135" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V135" s="5">
         <v>9999999</v>
@@ -15904,7 +15912,7 @@
         <v>455</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J136" s="5">
         <v>-28</v>
@@ -15925,10 +15933,10 @@
         <v>161</v>
       </c>
       <c r="P136" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="U136" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V136" s="5">
         <v>9999999</v>
@@ -15963,7 +15971,7 @@
         <v>456</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J137" s="5">
         <v>-28</v>
@@ -15984,10 +15992,10 @@
         <v>161</v>
       </c>
       <c r="P137" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="U137" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V137" s="5">
         <v>9999999</v>
@@ -16022,7 +16030,7 @@
         <v>457</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J138" s="5">
         <v>-28</v>
@@ -16043,10 +16051,10 @@
         <v>161</v>
       </c>
       <c r="P138" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="U138" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V138" s="5">
         <v>9999999</v>
@@ -16081,7 +16089,7 @@
         <v>458</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J139" s="5">
         <v>-28</v>
@@ -16102,10 +16110,10 @@
         <v>161</v>
       </c>
       <c r="P139" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="U139" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V139" s="5">
         <v>9999999</v>
@@ -16140,7 +16148,7 @@
         <v>459</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J140" s="5">
         <v>-28</v>
@@ -16161,10 +16169,10 @@
         <v>161</v>
       </c>
       <c r="P140" s="5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="U140" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V140" s="5">
         <v>9999999</v>
@@ -16199,7 +16207,7 @@
         <v>460</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J141" s="5">
         <v>-28</v>
@@ -16220,10 +16228,10 @@
         <v>161</v>
       </c>
       <c r="P141" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="U141" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V141" s="5">
         <v>9999999</v>
@@ -16258,7 +16266,7 @@
         <v>344</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J142" s="5">
         <v>-28</v>
@@ -16282,7 +16290,7 @@
         <v>336</v>
       </c>
       <c r="U142" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V142" s="5">
         <v>9999999</v>
@@ -16320,7 +16328,7 @@
         <v>345</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J143" s="5">
         <v>-28</v>
@@ -16344,7 +16352,7 @@
         <v>342</v>
       </c>
       <c r="U143" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V143" s="5">
         <v>9999999</v>
@@ -16382,7 +16390,7 @@
         <v>346</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="J144" s="5">
         <v>-28</v>
@@ -16406,7 +16414,7 @@
         <v>347</v>
       </c>
       <c r="U144" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V144" s="5">
         <v>9999999</v>
@@ -16447,7 +16455,7 @@
         <v>348</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J145" s="5">
         <v>-28</v>
@@ -16468,16 +16476,16 @@
         <v>349</v>
       </c>
       <c r="P145" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="R145" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S145" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="U145" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V145" s="5">
         <v>9999999</v>
@@ -16512,7 +16520,7 @@
         <v>350</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J146" s="5">
         <v>-28</v>
@@ -16533,16 +16541,16 @@
         <v>279</v>
       </c>
       <c r="P146" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="R146" s="5" t="s">
         <v>161</v>
       </c>
       <c r="S146" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="U146" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V146" s="5">
         <v>9999999</v>
@@ -16577,7 +16585,7 @@
         <v>351</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J147" s="5">
         <v>-28</v>
@@ -16598,16 +16606,16 @@
         <v>279</v>
       </c>
       <c r="P147" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="R147" s="5" t="s">
         <v>161</v>
       </c>
       <c r="S147" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="U147" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V147" s="5">
         <v>9999999</v>
@@ -16642,7 +16650,7 @@
         <v>352</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="J148" s="5">
         <v>-28</v>
@@ -16663,16 +16671,16 @@
         <v>279</v>
       </c>
       <c r="P148" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="R148" s="5" t="s">
         <v>161</v>
       </c>
       <c r="S148" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="U148" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V148" s="5">
         <v>9999999</v>
@@ -16707,7 +16715,7 @@
         <v>353</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="J149" s="5">
         <v>-28</v>
@@ -16728,16 +16736,16 @@
         <v>279</v>
       </c>
       <c r="P149" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="R149" s="5" t="s">
         <v>161</v>
       </c>
       <c r="S149" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="U149" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="V149" s="5">
         <v>9999999</v>
@@ -16769,7 +16777,7 @@
         <v>354</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="J150" s="5">
         <v>-28</v>
@@ -16793,7 +16801,7 @@
         <v>336</v>
       </c>
       <c r="U150" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V150" s="5">
         <v>9999999</v>
@@ -16831,7 +16839,7 @@
         <v>355</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="J151" s="5">
         <v>-28</v>
@@ -16855,7 +16863,7 @@
         <v>342</v>
       </c>
       <c r="U151" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V151" s="5">
         <v>9999999</v>
@@ -16893,7 +16901,7 @@
         <v>356</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="J152" s="5">
         <v>-28</v>
@@ -16917,7 +16925,7 @@
         <v>347</v>
       </c>
       <c r="U152" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V152" s="5">
         <v>9999999</v>
@@ -16952,10 +16960,10 @@
         <v>1</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="J153" s="5">
         <v>-28</v>
@@ -16976,16 +16984,16 @@
         <v>349</v>
       </c>
       <c r="P153" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="R153" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S153" s="5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="U153" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V153" s="5">
         <v>99999999</v>
@@ -17017,7 +17025,7 @@
         <v>357</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J154" s="5">
         <v>-28</v>
@@ -17038,16 +17046,16 @@
         <v>349</v>
       </c>
       <c r="P154" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="R154" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S154" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="U154" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V154" s="5">
         <v>99999999</v>
@@ -17079,7 +17087,7 @@
         <v>358</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J155" s="5">
         <v>-28</v>
@@ -17100,16 +17108,16 @@
         <v>349</v>
       </c>
       <c r="P155" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="R155" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S155" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="U155" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V155" s="5">
         <v>99999999</v>
@@ -17141,7 +17149,7 @@
         <v>359</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="J156" s="5">
         <v>-28</v>
@@ -17162,16 +17170,16 @@
         <v>349</v>
       </c>
       <c r="P156" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="R156" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S156" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="U156" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V156" s="5">
         <v>99999999</v>
@@ -17203,7 +17211,7 @@
         <v>360</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="J157" s="5">
         <v>-28</v>
@@ -17224,16 +17232,16 @@
         <v>349</v>
       </c>
       <c r="P157" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="R157" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S157" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="U157" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V157" s="5">
         <v>99999999</v>
@@ -17265,7 +17273,7 @@
         <v>361</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J158" s="5">
         <v>-28</v>
@@ -17289,7 +17297,7 @@
         <v>362</v>
       </c>
       <c r="U158" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V158" s="5">
         <v>9999999</v>
@@ -17327,7 +17335,7 @@
         <v>363</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J159" s="5">
         <v>-28</v>
@@ -17351,7 +17359,7 @@
         <v>364</v>
       </c>
       <c r="U159" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V159" s="5">
         <v>9999999</v>
@@ -17389,7 +17397,7 @@
         <v>365</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J160" s="5">
         <v>-28</v>
@@ -17413,7 +17421,7 @@
         <v>366</v>
       </c>
       <c r="U160" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V160" s="5">
         <v>9999999</v>
@@ -17451,7 +17459,7 @@
         <v>367</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J161" s="5">
         <v>-28</v>
@@ -17475,7 +17483,7 @@
         <v>362</v>
       </c>
       <c r="U161" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V161" s="5">
         <v>9999999</v>
@@ -17513,7 +17521,7 @@
         <v>368</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J162" s="5">
         <v>-28</v>
@@ -17537,7 +17545,7 @@
         <v>364</v>
       </c>
       <c r="U162" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V162" s="5">
         <v>9999999</v>
@@ -17575,7 +17583,7 @@
         <v>369</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J163" s="5">
         <v>-28</v>
@@ -17599,7 +17607,7 @@
         <v>366</v>
       </c>
       <c r="U163" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V163" s="5">
         <v>9999999</v>
@@ -17634,10 +17642,10 @@
         <v>1</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="I164" s="5">
         <v>21032</v>
@@ -17661,10 +17669,10 @@
         <v>221</v>
       </c>
       <c r="P164" s="10" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="U164" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V164" s="5">
         <v>9999999</v>
@@ -17702,7 +17710,7 @@
         <v>370</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="J165" s="5">
         <v>-28</v>
@@ -17726,7 +17734,7 @@
         <v>362</v>
       </c>
       <c r="U165" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V165" s="5">
         <v>9999999</v>
@@ -17764,7 +17772,7 @@
         <v>371</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J166" s="5">
         <v>-28</v>
@@ -17788,7 +17796,7 @@
         <v>364</v>
       </c>
       <c r="U166" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V166" s="5">
         <v>9999999</v>
@@ -17826,7 +17834,7 @@
         <v>372</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J167" s="5">
         <v>-28</v>
@@ -17850,7 +17858,7 @@
         <v>366</v>
       </c>
       <c r="U167" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V167" s="5">
         <v>9999999</v>
@@ -17888,7 +17896,7 @@
         <v>373</v>
       </c>
       <c r="H168" s="19" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="J168" s="19">
         <v>-28</v>
@@ -17906,13 +17914,13 @@
         <v>600</v>
       </c>
       <c r="O168" s="19" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="P168" s="19" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="U168" s="19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V168" s="19">
         <v>9999999</v>
@@ -17953,7 +17961,7 @@
         <v>489</v>
       </c>
       <c r="H169" s="19" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="J169" s="19">
         <v>-28</v>
@@ -17971,13 +17979,13 @@
         <v>3000</v>
       </c>
       <c r="O169" s="19" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="P169" s="19" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="U169" s="19" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="V169" s="19">
         <v>9999999</v>
@@ -18015,7 +18023,7 @@
         <v>374</v>
       </c>
       <c r="H170" s="19" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="J170" s="19">
         <v>-28</v>
@@ -18033,13 +18041,13 @@
         <v>19800</v>
       </c>
       <c r="O170" s="19" t="s">
+        <v>1203</v>
+      </c>
+      <c r="P170" s="19" t="s">
         <v>1206</v>
       </c>
-      <c r="P170" s="19" t="s">
-        <v>1209</v>
-      </c>
       <c r="U170" s="19" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="V170" s="19">
         <v>9999999</v>
@@ -18074,10 +18082,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="J171" s="19">
         <v>-28</v>
@@ -18095,13 +18103,13 @@
         <v>100</v>
       </c>
       <c r="O171" s="19" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="P171" s="19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="U171" s="19" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="V171" s="19">
         <v>9999999</v>
@@ -18139,10 +18147,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="J172" s="19">
         <v>-28</v>
@@ -18160,13 +18168,13 @@
         <v>300</v>
       </c>
       <c r="O172" s="19" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="P172" s="19" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="U172" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V172" s="19">
         <v>9999999</v>
@@ -18204,10 +18212,10 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="J173" s="19">
         <v>-28</v>
@@ -18225,13 +18233,13 @@
         <v>600</v>
       </c>
       <c r="O173" s="19" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="P173" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="U173" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V173" s="19">
         <v>9999999</v>
@@ -18269,10 +18277,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="J174" s="19">
         <v>-28</v>
@@ -18290,13 +18298,13 @@
         <v>600</v>
       </c>
       <c r="O174" s="19" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="P174" s="19" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="U174" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V174" s="19">
         <v>9999999</v>
@@ -18334,10 +18342,10 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="J175" s="19">
         <v>-28</v>
@@ -18355,13 +18363,13 @@
         <v>1000</v>
       </c>
       <c r="O175" s="19" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="P175" s="19" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="U175" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V175" s="19">
         <v>9999999</v>
@@ -18399,10 +18407,10 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="J176" s="19">
         <v>-28</v>
@@ -18420,13 +18428,13 @@
         <v>1800</v>
       </c>
       <c r="O176" s="19" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="U176" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V176" s="19">
         <v>9999999</v>
@@ -18464,10 +18472,10 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="J177" s="19">
         <v>-28</v>
@@ -18485,13 +18493,13 @@
         <v>1800</v>
       </c>
       <c r="O177" s="19" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="U177" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V177" s="19">
         <v>9999999</v>
@@ -18529,10 +18537,10 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="J178" s="19">
         <v>-28</v>
@@ -18550,13 +18558,13 @@
         <v>4800</v>
       </c>
       <c r="O178" s="19" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="P178" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="U178" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V178" s="19">
         <v>9999999</v>
@@ -18594,10 +18602,10 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="J179" s="19">
         <v>-28</v>
@@ -18615,13 +18623,13 @@
         <v>9800</v>
       </c>
       <c r="O179" s="19" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="P179" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="U179" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V179" s="19">
         <v>9999999</v>
@@ -18659,10 +18667,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="J180" s="19">
         <v>-28</v>
@@ -18680,13 +18688,13 @@
         <v>4800</v>
       </c>
       <c r="O180" s="19" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="P180" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="U180" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V180" s="19">
         <v>9999999</v>
@@ -18724,10 +18732,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="J181" s="19">
         <v>-28</v>
@@ -18745,13 +18753,13 @@
         <v>9800</v>
       </c>
       <c r="O181" s="19" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="P181" s="19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="U181" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V181" s="19">
         <v>9999999</v>
@@ -18789,10 +18797,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="J182" s="19">
         <v>-28</v>
@@ -18810,13 +18818,13 @@
         <v>19800</v>
       </c>
       <c r="O182" s="19" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="P182" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="U182" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V182" s="19">
         <v>9999999</v>
@@ -18854,10 +18862,10 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="J183" s="19">
         <v>-28</v>
@@ -18875,13 +18883,13 @@
         <v>9800</v>
       </c>
       <c r="O183" s="19" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="P183" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="U183" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V183" s="19">
         <v>9999999</v>
@@ -18919,10 +18927,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="J184" s="19">
         <v>-28</v>
@@ -18940,13 +18948,13 @@
         <v>19800</v>
       </c>
       <c r="O184" s="19" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="P184" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="U184" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V184" s="19">
         <v>9999999</v>
@@ -18984,10 +18992,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="J185" s="19">
         <v>-28</v>
@@ -19005,13 +19013,13 @@
         <v>49800</v>
       </c>
       <c r="O185" s="19" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="P185" s="19" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="U185" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V185" s="19">
         <v>9999999</v>
@@ -19052,7 +19060,7 @@
         <v>328</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J186" s="5">
         <v>-29</v>
@@ -19073,16 +19081,16 @@
         <v>470</v>
       </c>
       <c r="P186" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="R186" s="5" t="s">
         <v>331</v>
       </c>
       <c r="S186" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="U186" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V186" s="5">
         <v>9999999</v>
@@ -19114,7 +19122,7 @@
         <v>375</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J187" s="5">
         <v>-28</v>
@@ -19138,7 +19146,7 @@
         <v>376</v>
       </c>
       <c r="U187" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V187" s="5">
         <v>9999999</v>
@@ -19179,7 +19187,7 @@
         <v>377</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J188" s="5">
         <v>-28</v>
@@ -19203,7 +19211,7 @@
         <v>378</v>
       </c>
       <c r="U188" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V188" s="5">
         <v>9999999</v>
@@ -19244,7 +19252,7 @@
         <v>379</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J189" s="5">
         <v>-28</v>
@@ -19268,7 +19276,7 @@
         <v>380</v>
       </c>
       <c r="U189" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V189" s="5">
         <v>9999999</v>
@@ -19309,7 +19317,7 @@
         <v>381</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J190" s="5">
         <v>-28</v>
@@ -19333,7 +19341,7 @@
         <v>382</v>
       </c>
       <c r="U190" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V190" s="5">
         <v>9999999</v>
@@ -19374,7 +19382,7 @@
         <v>383</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J191" s="5">
         <v>-28</v>
@@ -19398,7 +19406,7 @@
         <v>384</v>
       </c>
       <c r="U191" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V191" s="5">
         <v>9999999</v>
@@ -19439,7 +19447,7 @@
         <v>385</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J192" s="5">
         <v>-28</v>
@@ -19463,7 +19471,7 @@
         <v>386</v>
       </c>
       <c r="U192" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V192" s="5">
         <v>9999999</v>
@@ -19504,7 +19512,7 @@
         <v>387</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J193" s="5">
         <v>-28</v>
@@ -19528,7 +19536,7 @@
         <v>388</v>
       </c>
       <c r="U193" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V193" s="5">
         <v>9999999</v>
@@ -19569,7 +19577,7 @@
         <v>389</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J194" s="5">
         <v>-28</v>
@@ -19593,7 +19601,7 @@
         <v>390</v>
       </c>
       <c r="U194" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V194" s="5">
         <v>9999999</v>
@@ -19634,7 +19642,7 @@
         <v>391</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J195" s="5">
         <v>-28</v>
@@ -19658,7 +19666,7 @@
         <v>392</v>
       </c>
       <c r="U195" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V195" s="5">
         <v>9999999</v>
@@ -19699,7 +19707,7 @@
         <v>393</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J196" s="5">
         <v>-28</v>
@@ -19723,7 +19731,7 @@
         <v>394</v>
       </c>
       <c r="U196" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V196" s="5">
         <v>9999999</v>
@@ -19764,7 +19772,7 @@
         <v>395</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J197" s="5">
         <v>-28</v>
@@ -19788,7 +19796,7 @@
         <v>396</v>
       </c>
       <c r="U197" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V197" s="5">
         <v>9999999</v>
@@ -19829,7 +19837,7 @@
         <v>397</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J198" s="5">
         <v>-28</v>
@@ -19853,7 +19861,7 @@
         <v>398</v>
       </c>
       <c r="U198" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V198" s="5">
         <v>9999999</v>
@@ -19894,7 +19902,7 @@
         <v>399</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J199" s="5">
         <v>-28</v>
@@ -19918,7 +19926,7 @@
         <v>396</v>
       </c>
       <c r="U199" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V199" s="5">
         <v>9999999</v>
@@ -19959,7 +19967,7 @@
         <v>400</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J200" s="5">
         <v>-28</v>
@@ -19983,7 +19991,7 @@
         <v>398</v>
       </c>
       <c r="U200" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V200" s="5">
         <v>9999999</v>
@@ -20024,7 +20032,7 @@
         <v>401</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J201" s="5">
         <v>-28</v>
@@ -20048,7 +20056,7 @@
         <v>402</v>
       </c>
       <c r="U201" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V201" s="5">
         <v>9999999</v>
@@ -20089,7 +20097,7 @@
         <v>375</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J202" s="5">
         <v>-28</v>
@@ -20113,7 +20121,7 @@
         <v>376</v>
       </c>
       <c r="U202" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V202" s="5">
         <v>9999999</v>
@@ -20154,7 +20162,7 @@
         <v>377</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J203" s="5">
         <v>-28</v>
@@ -20178,7 +20186,7 @@
         <v>378</v>
       </c>
       <c r="U203" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V203" s="5">
         <v>9999999</v>
@@ -20219,7 +20227,7 @@
         <v>379</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J204" s="5">
         <v>-28</v>
@@ -20243,7 +20251,7 @@
         <v>380</v>
       </c>
       <c r="U204" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V204" s="5">
         <v>9999999</v>
@@ -20284,7 +20292,7 @@
         <v>381</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J205" s="5">
         <v>-28</v>
@@ -20308,7 +20316,7 @@
         <v>382</v>
       </c>
       <c r="U205" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V205" s="5">
         <v>9999999</v>
@@ -20349,7 +20357,7 @@
         <v>383</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J206" s="5">
         <v>-28</v>
@@ -20373,7 +20381,7 @@
         <v>384</v>
       </c>
       <c r="U206" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V206" s="5">
         <v>9999999</v>
@@ -20414,7 +20422,7 @@
         <v>385</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J207" s="5">
         <v>-28</v>
@@ -20438,7 +20446,7 @@
         <v>386</v>
       </c>
       <c r="U207" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V207" s="5">
         <v>9999999</v>
@@ -20479,7 +20487,7 @@
         <v>387</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J208" s="5">
         <v>-28</v>
@@ -20503,7 +20511,7 @@
         <v>388</v>
       </c>
       <c r="U208" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V208" s="5">
         <v>9999999</v>
@@ -20544,7 +20552,7 @@
         <v>389</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J209" s="5">
         <v>-28</v>
@@ -20568,7 +20576,7 @@
         <v>390</v>
       </c>
       <c r="U209" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V209" s="5">
         <v>9999999</v>
@@ -20609,7 +20617,7 @@
         <v>391</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J210" s="5">
         <v>-28</v>
@@ -20633,7 +20641,7 @@
         <v>392</v>
       </c>
       <c r="U210" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V210" s="5">
         <v>9999999</v>
@@ -20674,7 +20682,7 @@
         <v>393</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J211" s="5">
         <v>-28</v>
@@ -20698,7 +20706,7 @@
         <v>394</v>
       </c>
       <c r="U211" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V211" s="5">
         <v>9999999</v>
@@ -20739,7 +20747,7 @@
         <v>395</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J212" s="5">
         <v>-28</v>
@@ -20763,7 +20771,7 @@
         <v>396</v>
       </c>
       <c r="U212" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V212" s="5">
         <v>9999999</v>
@@ -20804,7 +20812,7 @@
         <v>397</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J213" s="5">
         <v>-28</v>
@@ -20828,7 +20836,7 @@
         <v>398</v>
       </c>
       <c r="U213" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V213" s="5">
         <v>9999999</v>
@@ -20869,7 +20877,7 @@
         <v>399</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J214" s="5">
         <v>-28</v>
@@ -20893,7 +20901,7 @@
         <v>396</v>
       </c>
       <c r="U214" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V214" s="5">
         <v>9999999</v>
@@ -20934,7 +20942,7 @@
         <v>400</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J215" s="5">
         <v>-28</v>
@@ -20958,7 +20966,7 @@
         <v>398</v>
       </c>
       <c r="U215" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V215" s="5">
         <v>9999999</v>
@@ -20999,7 +21007,7 @@
         <v>401</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J216" s="5">
         <v>-28</v>
@@ -21023,7 +21031,7 @@
         <v>402</v>
       </c>
       <c r="U216" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V216" s="5">
         <v>9999999</v>
@@ -21064,7 +21072,7 @@
         <v>375</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J217" s="5">
         <v>-28</v>
@@ -21082,13 +21090,13 @@
         <v>100</v>
       </c>
       <c r="O217" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P217" s="5" t="s">
         <v>376</v>
       </c>
       <c r="U217" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V217" s="5">
         <v>9999999</v>
@@ -21129,7 +21137,7 @@
         <v>377</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J218" s="5">
         <v>-28</v>
@@ -21153,7 +21161,7 @@
         <v>378</v>
       </c>
       <c r="U218" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V218" s="5">
         <v>9999999</v>
@@ -21194,7 +21202,7 @@
         <v>379</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J219" s="5">
         <v>-28</v>
@@ -21218,7 +21226,7 @@
         <v>380</v>
       </c>
       <c r="U219" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V219" s="5">
         <v>9999999</v>
@@ -21259,7 +21267,7 @@
         <v>381</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J220" s="5">
         <v>-28</v>
@@ -21283,7 +21291,7 @@
         <v>382</v>
       </c>
       <c r="U220" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V220" s="5">
         <v>9999999</v>
@@ -21324,7 +21332,7 @@
         <v>383</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J221" s="5">
         <v>-28</v>
@@ -21348,7 +21356,7 @@
         <v>384</v>
       </c>
       <c r="U221" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V221" s="5">
         <v>9999999</v>
@@ -21389,7 +21397,7 @@
         <v>385</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J222" s="5">
         <v>-28</v>
@@ -21413,7 +21421,7 @@
         <v>386</v>
       </c>
       <c r="U222" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V222" s="5">
         <v>9999999</v>
@@ -21454,7 +21462,7 @@
         <v>387</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J223" s="5">
         <v>-28</v>
@@ -21478,7 +21486,7 @@
         <v>388</v>
       </c>
       <c r="U223" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V223" s="5">
         <v>9999999</v>
@@ -21519,7 +21527,7 @@
         <v>389</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J224" s="5">
         <v>-28</v>
@@ -21543,7 +21551,7 @@
         <v>390</v>
       </c>
       <c r="U224" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V224" s="5">
         <v>9999999</v>
@@ -21584,7 +21592,7 @@
         <v>391</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J225" s="5">
         <v>-28</v>
@@ -21608,7 +21616,7 @@
         <v>392</v>
       </c>
       <c r="U225" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V225" s="5">
         <v>9999999</v>
@@ -21649,7 +21657,7 @@
         <v>393</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J226" s="5">
         <v>-28</v>
@@ -21673,7 +21681,7 @@
         <v>394</v>
       </c>
       <c r="U226" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V226" s="5">
         <v>9999999</v>
@@ -21714,7 +21722,7 @@
         <v>395</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J227" s="5">
         <v>-28</v>
@@ -21738,7 +21746,7 @@
         <v>396</v>
       </c>
       <c r="U227" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V227" s="5">
         <v>9999999</v>
@@ -21779,7 +21787,7 @@
         <v>397</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J228" s="5">
         <v>-28</v>
@@ -21803,7 +21811,7 @@
         <v>398</v>
       </c>
       <c r="U228" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V228" s="5">
         <v>9999999</v>
@@ -21844,7 +21852,7 @@
         <v>399</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J229" s="5">
         <v>-28</v>
@@ -21868,7 +21876,7 @@
         <v>396</v>
       </c>
       <c r="U229" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V229" s="5">
         <v>9999999</v>
@@ -21909,7 +21917,7 @@
         <v>400</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J230" s="5">
         <v>-28</v>
@@ -21933,7 +21941,7 @@
         <v>398</v>
       </c>
       <c r="U230" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V230" s="5">
         <v>9999999</v>
@@ -21974,7 +21982,7 @@
         <v>401</v>
       </c>
       <c r="H231" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J231" s="5">
         <v>-28</v>
@@ -21998,7 +22006,7 @@
         <v>402</v>
       </c>
       <c r="U231" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V231" s="5">
         <v>9999999</v>
@@ -22039,7 +22047,7 @@
         <v>375</v>
       </c>
       <c r="H232" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J232" s="5">
         <v>-28</v>
@@ -22063,7 +22071,7 @@
         <v>376</v>
       </c>
       <c r="U232" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V232" s="5">
         <v>9999999</v>
@@ -22104,7 +22112,7 @@
         <v>377</v>
       </c>
       <c r="H233" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J233" s="5">
         <v>-28</v>
@@ -22128,7 +22136,7 @@
         <v>378</v>
       </c>
       <c r="U233" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V233" s="5">
         <v>9999999</v>
@@ -22169,7 +22177,7 @@
         <v>379</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J234" s="5">
         <v>-28</v>
@@ -22193,7 +22201,7 @@
         <v>380</v>
       </c>
       <c r="U234" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V234" s="5">
         <v>9999999</v>
@@ -22234,7 +22242,7 @@
         <v>381</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="J235" s="5">
         <v>-28</v>
@@ -22258,7 +22266,7 @@
         <v>382</v>
       </c>
       <c r="U235" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V235" s="5">
         <v>9999999</v>
@@ -22299,7 +22307,7 @@
         <v>383</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J236" s="5">
         <v>-28</v>
@@ -22323,7 +22331,7 @@
         <v>384</v>
       </c>
       <c r="U236" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V236" s="5">
         <v>9999999</v>
@@ -22364,7 +22372,7 @@
         <v>385</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="J237" s="5">
         <v>-28</v>
@@ -22388,7 +22396,7 @@
         <v>386</v>
       </c>
       <c r="U237" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V237" s="5">
         <v>9999999</v>
@@ -22429,7 +22437,7 @@
         <v>387</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="J238" s="5">
         <v>-28</v>
@@ -22453,7 +22461,7 @@
         <v>388</v>
       </c>
       <c r="U238" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V238" s="5">
         <v>9999999</v>
@@ -22494,7 +22502,7 @@
         <v>389</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="J239" s="5">
         <v>-28</v>
@@ -22518,7 +22526,7 @@
         <v>390</v>
       </c>
       <c r="U239" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V239" s="5">
         <v>9999999</v>
@@ -22559,7 +22567,7 @@
         <v>391</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="J240" s="5">
         <v>-28</v>
@@ -22583,7 +22591,7 @@
         <v>392</v>
       </c>
       <c r="U240" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V240" s="5">
         <v>9999999</v>
@@ -22624,7 +22632,7 @@
         <v>393</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="J241" s="5">
         <v>-28</v>
@@ -22648,7 +22656,7 @@
         <v>394</v>
       </c>
       <c r="U241" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V241" s="5">
         <v>9999999</v>
@@ -22689,7 +22697,7 @@
         <v>395</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J242" s="5">
         <v>-28</v>
@@ -22713,7 +22721,7 @@
         <v>396</v>
       </c>
       <c r="U242" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V242" s="5">
         <v>9999999</v>
@@ -22754,7 +22762,7 @@
         <v>397</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J243" s="5">
         <v>-28</v>
@@ -22778,7 +22786,7 @@
         <v>398</v>
       </c>
       <c r="U243" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V243" s="5">
         <v>9999999</v>
@@ -22819,7 +22827,7 @@
         <v>399</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="J244" s="5">
         <v>-28</v>
@@ -22843,7 +22851,7 @@
         <v>396</v>
       </c>
       <c r="U244" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V244" s="5">
         <v>9999999</v>
@@ -22884,7 +22892,7 @@
         <v>400</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J245" s="5">
         <v>-28</v>
@@ -22908,7 +22916,7 @@
         <v>398</v>
       </c>
       <c r="U245" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V245" s="5">
         <v>9999999</v>
@@ -22949,7 +22957,7 @@
         <v>401</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J246" s="5">
         <v>-28</v>
@@ -22973,7 +22981,7 @@
         <v>402</v>
       </c>
       <c r="U246" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V246" s="5">
         <v>9999999</v>
@@ -23011,10 +23019,10 @@
         <v>1</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J247" s="5">
         <v>-28</v>
@@ -23035,10 +23043,10 @@
         <v>161</v>
       </c>
       <c r="P247" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="U247" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V247" s="5">
         <v>9999999</v>
@@ -23079,7 +23087,7 @@
         <v>453</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J248" s="5">
         <v>-28</v>
@@ -23100,10 +23108,10 @@
         <v>161</v>
       </c>
       <c r="P248" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="U248" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V248" s="5">
         <v>9999999</v>
@@ -23144,7 +23152,7 @@
         <v>454</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J249" s="5">
         <v>-28</v>
@@ -23165,10 +23173,10 @@
         <v>161</v>
       </c>
       <c r="P249" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="U249" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V249" s="5">
         <v>9999999</v>
@@ -23209,7 +23217,7 @@
         <v>468</v>
       </c>
       <c r="H250" s="19" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="J250" s="19">
         <v>-28</v>
@@ -23230,10 +23238,10 @@
         <v>467</v>
       </c>
       <c r="P250" s="19" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="U250" s="19" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V250" s="19">
         <v>9999999</v>
@@ -23271,7 +23279,7 @@
         <v>328</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="J251" s="5">
         <v>-29</v>
@@ -23289,19 +23297,19 @@
         <v>600</v>
       </c>
       <c r="O251" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="R251" s="5" t="s">
         <v>331</v>
       </c>
       <c r="S251" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="U251" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V251" s="5">
         <v>9999999</v>
@@ -23339,7 +23347,7 @@
         <v>491</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="J252" s="5">
         <v>-30</v>
@@ -23360,10 +23368,10 @@
         <v>467</v>
       </c>
       <c r="P252" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="U252" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="V252" s="5">
         <v>9999999</v>
@@ -23401,7 +23409,7 @@
         <v>492</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J253" s="5">
         <v>-30</v>
@@ -23413,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="M253" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N253" s="5">
         <v>100</v>
       </c>
       <c r="O253" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P253" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="U253" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V253" s="5">
         <v>9999999</v>
@@ -23460,10 +23468,10 @@
         <v>1</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="J254" s="5">
         <v>-31</v>
@@ -23475,19 +23483,19 @@
         <v>0</v>
       </c>
       <c r="M254" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N254" s="5">
         <v>600</v>
       </c>
       <c r="O254" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P254" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="U254" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V254" s="5">
         <v>9999999</v>
@@ -23525,10 +23533,10 @@
         <v>1</v>
       </c>
       <c r="G255" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J255" s="5">
         <v>-31</v>
@@ -23540,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="M255" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N255" s="5">
         <v>1800</v>
@@ -23549,10 +23557,10 @@
         <v>490</v>
       </c>
       <c r="P255" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="U255" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V255" s="5">
         <v>9999999</v>
@@ -23590,10 +23598,10 @@
         <v>1</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J256" s="5">
         <v>-31</v>
@@ -23605,19 +23613,19 @@
         <v>0</v>
       </c>
       <c r="M256" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N256" s="5">
         <v>3000</v>
       </c>
       <c r="O256" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P256" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="U256" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V256" s="5">
         <v>9999999</v>
@@ -23655,10 +23663,10 @@
         <v>0</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="J257" s="5">
         <v>-31</v>
@@ -23670,25 +23678,25 @@
         <v>0</v>
       </c>
       <c r="M257" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N257" s="5">
         <v>9800</v>
       </c>
       <c r="O257" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="P257" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="R257" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="S257" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="U257" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V257" s="5">
         <v>9999999</v>
@@ -23723,10 +23731,10 @@
         <v>0</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="J258" s="5">
         <v>-31</v>
@@ -23738,19 +23746,19 @@
         <v>0</v>
       </c>
       <c r="M258" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N258" s="5">
         <v>100</v>
       </c>
       <c r="O258" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P258" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="U258" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V258" s="5">
         <v>9999999</v>
@@ -23791,7 +23799,7 @@
         <v>377</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J259" s="5">
         <v>-31</v>
@@ -23803,19 +23811,19 @@
         <v>0</v>
       </c>
       <c r="M259" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N259" s="5">
         <v>300</v>
       </c>
       <c r="O259" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P259" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="U259" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V259" s="5">
         <v>9999999</v>
@@ -23856,7 +23864,7 @@
         <v>379</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J260" s="5">
         <v>-31</v>
@@ -23868,19 +23876,19 @@
         <v>0</v>
       </c>
       <c r="M260" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N260" s="5">
         <v>600</v>
       </c>
       <c r="O260" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P260" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="U260" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V260" s="5">
         <v>9999999</v>
@@ -23921,7 +23929,7 @@
         <v>381</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="J261" s="5">
         <v>-31</v>
@@ -23933,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="M261" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N261" s="5">
         <v>600</v>
       </c>
       <c r="O261" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P261" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="U261" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V261" s="5">
         <v>9999999</v>
@@ -23986,7 +23994,7 @@
         <v>383</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="J262" s="5">
         <v>-31</v>
@@ -23998,19 +24006,19 @@
         <v>0</v>
       </c>
       <c r="M262" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N262" s="5">
         <v>1200</v>
       </c>
       <c r="O262" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P262" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="U262" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V262" s="5">
         <v>9999999</v>
@@ -24051,7 +24059,7 @@
         <v>385</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J263" s="5">
         <v>-31</v>
@@ -24063,19 +24071,19 @@
         <v>0</v>
       </c>
       <c r="M263" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N263" s="5">
         <v>1800</v>
       </c>
       <c r="O263" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P263" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U263" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V263" s="5">
         <v>9999999</v>
@@ -24113,10 +24121,10 @@
         <v>0</v>
       </c>
       <c r="G264" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J264" s="5">
         <v>-31</v>
@@ -24128,19 +24136,19 @@
         <v>0</v>
       </c>
       <c r="M264" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N264" s="5">
         <v>1800</v>
       </c>
       <c r="O264" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P264" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="U264" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V264" s="5">
         <v>9999999</v>
@@ -24178,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J265" s="5">
         <v>-31</v>
@@ -24193,19 +24201,19 @@
         <v>0</v>
       </c>
       <c r="M265" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N265" s="5">
         <v>4800</v>
       </c>
       <c r="O265" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P265" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U265" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V265" s="5">
         <v>9999999</v>
@@ -24243,10 +24251,10 @@
         <v>0</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J266" s="5">
         <v>-31</v>
@@ -24258,19 +24266,19 @@
         <v>0</v>
       </c>
       <c r="M266" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N266" s="5">
         <v>9800</v>
       </c>
       <c r="O266" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="P266" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U266" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V266" s="5">
         <v>9999999</v>
@@ -24308,10 +24316,10 @@
         <v>0</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J267" s="5">
         <v>-31</v>
@@ -24323,19 +24331,19 @@
         <v>0</v>
       </c>
       <c r="M267" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N267" s="5">
         <v>4800</v>
       </c>
       <c r="O267" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P267" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="U267" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V267" s="5">
         <v>9999999</v>
@@ -24373,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J268" s="5">
         <v>-31</v>
@@ -24388,19 +24396,19 @@
         <v>0</v>
       </c>
       <c r="M268" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N268" s="5">
         <v>9800</v>
       </c>
       <c r="O268" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P268" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U268" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V268" s="5">
         <v>9999999</v>
@@ -24438,10 +24446,10 @@
         <v>0</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="J269" s="5">
         <v>-31</v>
@@ -24453,19 +24461,19 @@
         <v>0</v>
       </c>
       <c r="M269" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N269" s="5">
         <v>19800</v>
       </c>
       <c r="O269" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P269" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="U269" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V269" s="5">
         <v>9999999</v>
@@ -24506,7 +24514,7 @@
         <v>399</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J270" s="5">
         <v>-31</v>
@@ -24518,19 +24526,19 @@
         <v>0</v>
       </c>
       <c r="M270" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N270" s="5">
         <v>9800</v>
       </c>
       <c r="O270" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P270" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="U270" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V270" s="5">
         <v>9999999</v>
@@ -24571,7 +24579,7 @@
         <v>400</v>
       </c>
       <c r="H271" s="5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="J271" s="5">
         <v>-31</v>
@@ -24583,19 +24591,19 @@
         <v>0</v>
       </c>
       <c r="M271" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N271" s="5">
         <v>19800</v>
       </c>
       <c r="O271" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P271" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="U271" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V271" s="5">
         <v>9999999</v>
@@ -24636,7 +24644,7 @@
         <v>401</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J272" s="5">
         <v>-31</v>
@@ -24648,19 +24656,19 @@
         <v>0</v>
       </c>
       <c r="M272" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N272" s="5">
         <v>49800</v>
       </c>
       <c r="O272" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="P272" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="U272" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V272" s="5">
         <v>9999999</v>
@@ -24701,7 +24709,7 @@
         <v>1</v>
       </c>
       <c r="G273" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J273" s="5">
         <v>-10</v>
@@ -24722,10 +24730,10 @@
         <v>90</v>
       </c>
       <c r="P273" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="U273" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V273" s="14" t="s">
         <v>121</v>
@@ -24756,10 +24764,10 @@
         <v>0</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="I274" s="5"/>
       <c r="J274" s="5">
@@ -24778,17 +24786,17 @@
         <v>600</v>
       </c>
       <c r="O274" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="P274" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="Q274" s="5"/>
       <c r="R274" s="5"/>
       <c r="S274" s="5"/>
       <c r="T274" s="5"/>
       <c r="U274" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V274" s="19">
         <v>9999999</v>
@@ -24829,10 +24837,10 @@
         <v>0</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="J275" s="5">
         <v>-31</v>
@@ -24844,19 +24852,19 @@
         <v>0</v>
       </c>
       <c r="M275" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N275" s="5">
         <v>0</v>
       </c>
       <c r="O275" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="P275" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="U275" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V275" s="5">
         <v>9999999</v>
@@ -24894,10 +24902,10 @@
         <v>0</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J276" s="5">
         <v>-31</v>
@@ -24909,19 +24917,19 @@
         <v>0</v>
       </c>
       <c r="M276" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N276" s="5">
         <v>300</v>
       </c>
       <c r="O276" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P276" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="U276" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V276" s="5">
         <v>9999999</v>
@@ -24959,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="G277" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J277" s="5">
         <v>-31</v>
@@ -24974,19 +24982,19 @@
         <v>0</v>
       </c>
       <c r="M277" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N277" s="5">
         <v>600</v>
       </c>
       <c r="O277" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P277" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="U277" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="V277" s="5">
         <v>9999999</v>
@@ -25024,10 +25032,10 @@
         <v>0</v>
       </c>
       <c r="G278" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H278" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J278" s="5">
         <v>-31</v>
@@ -25039,19 +25047,19 @@
         <v>0</v>
       </c>
       <c r="M278" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N278" s="5">
         <v>1800</v>
       </c>
       <c r="O278" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P278" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="U278" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="V278" s="5">
         <v>9999999</v>
@@ -25089,10 +25097,10 @@
         <v>0</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H279" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J279" s="5">
         <v>-31</v>
@@ -25104,19 +25112,19 @@
         <v>0</v>
       </c>
       <c r="M279" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N279" s="5">
         <v>4800</v>
       </c>
       <c r="O279" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P279" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="U279" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="V279" s="5">
         <v>9999999</v>
@@ -25154,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="G280" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="J280" s="5">
         <v>-31</v>
@@ -25169,19 +25177,19 @@
         <v>0</v>
       </c>
       <c r="M280" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N280" s="5">
         <v>0</v>
       </c>
       <c r="O280" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P280" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="U280" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V280" s="5">
         <v>9999999</v>
@@ -25219,10 +25227,10 @@
         <v>0</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J281" s="5">
         <v>-31</v>
@@ -25234,19 +25242,19 @@
         <v>0</v>
       </c>
       <c r="M281" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N281" s="5">
         <v>1800</v>
       </c>
       <c r="O281" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P281" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="U281" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V281" s="5">
         <v>9999999</v>
@@ -25284,10 +25292,10 @@
         <v>0</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H282" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J282" s="5">
         <v>-31</v>
@@ -25299,19 +25307,19 @@
         <v>0</v>
       </c>
       <c r="M282" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N282" s="5">
         <v>4800</v>
       </c>
       <c r="O282" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P282" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="U282" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="V282" s="5">
         <v>9999999</v>
@@ -25349,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H283" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J283" s="5">
         <v>-31</v>
@@ -25364,19 +25372,19 @@
         <v>0</v>
       </c>
       <c r="M283" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N283" s="5">
         <v>9800</v>
       </c>
       <c r="O283" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P283" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="U283" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="V283" s="5">
         <v>9999999</v>
@@ -25414,10 +25422,10 @@
         <v>0</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H284" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J284" s="5">
         <v>-31</v>
@@ -25429,19 +25437,19 @@
         <v>0</v>
       </c>
       <c r="M284" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N284" s="5">
         <v>19800</v>
       </c>
       <c r="O284" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P284" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="U284" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="V284" s="5">
         <v>9999999</v>
@@ -25479,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="G285" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="H285" s="5" t="s">
         <v>577</v>
-      </c>
-      <c r="H285" s="5" t="s">
-        <v>578</v>
       </c>
       <c r="J285" s="5">
         <v>-31</v>
@@ -25494,19 +25502,19 @@
         <v>0</v>
       </c>
       <c r="M285" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N285" s="5">
         <v>600</v>
       </c>
       <c r="O285" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P285" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="U285" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V285" s="5">
         <v>9999999</v>
@@ -25541,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="G286" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H286" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J286" s="5">
         <v>-31</v>
@@ -25556,19 +25564,19 @@
         <v>0</v>
       </c>
       <c r="M286" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N286" s="5">
         <v>1500</v>
       </c>
       <c r="O286" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P286" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="U286" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V286" s="5">
         <v>9999999</v>
@@ -25603,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="G287" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H287" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J287" s="5">
         <v>-31</v>
@@ -25618,19 +25626,19 @@
         <v>0</v>
       </c>
       <c r="M287" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N287" s="5">
         <v>3000</v>
       </c>
       <c r="O287" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P287" s="5" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="U287" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V287" s="5">
         <v>9999999</v>
@@ -25665,10 +25673,10 @@
         <v>0</v>
       </c>
       <c r="G288" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H288" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J288" s="5">
         <v>-31</v>
@@ -25680,19 +25688,19 @@
         <v>0</v>
       </c>
       <c r="M288" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N288" s="5">
         <v>5000</v>
       </c>
       <c r="O288" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P288" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="U288" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V288" s="5">
         <v>9999999</v>
@@ -25727,10 +25735,10 @@
         <v>0</v>
       </c>
       <c r="G289" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H289" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J289" s="5">
         <v>-31</v>
@@ -25742,19 +25750,19 @@
         <v>0</v>
       </c>
       <c r="M289" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N289" s="5">
         <v>9800</v>
       </c>
       <c r="O289" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P289" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="U289" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V289" s="5">
         <v>9999999</v>
@@ -25789,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="G290" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H290" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J290" s="5">
         <v>-31</v>
@@ -25804,19 +25812,19 @@
         <v>0</v>
       </c>
       <c r="M290" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N290" s="5">
         <v>19800</v>
       </c>
       <c r="O290" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P290" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="U290" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V290" s="5">
         <v>9999999</v>
@@ -25851,10 +25859,10 @@
         <v>0</v>
       </c>
       <c r="G291" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H291" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J291" s="5">
         <v>-31</v>
@@ -25866,19 +25874,19 @@
         <v>0</v>
       </c>
       <c r="M291" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N291" s="5">
         <v>49800</v>
       </c>
       <c r="O291" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P291" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="U291" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V291" s="5">
         <v>9999999</v>
@@ -25913,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="G292" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H292" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J292" s="5">
         <v>-31</v>
@@ -25928,19 +25936,19 @@
         <v>0</v>
       </c>
       <c r="M292" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N292" s="5">
         <v>99800</v>
       </c>
       <c r="O292" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P292" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="U292" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V292" s="5">
         <v>9999999</v>
@@ -25975,10 +25983,10 @@
         <v>0</v>
       </c>
       <c r="G293" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H293" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J293" s="5">
         <v>-31</v>
@@ -25990,19 +25998,19 @@
         <v>0</v>
       </c>
       <c r="M293" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N293" s="5">
         <v>249800</v>
       </c>
       <c r="O293" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="P293" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="U293" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V293" s="5">
         <v>9999999</v>
@@ -26037,10 +26045,10 @@
         <v>0</v>
       </c>
       <c r="G294" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H294" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J294" s="5">
         <v>-31</v>
@@ -26052,19 +26060,19 @@
         <v>0</v>
       </c>
       <c r="M294" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N294" s="5">
         <v>100</v>
       </c>
       <c r="O294" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="P294" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="U294" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V294" s="5">
         <v>9999999</v>
@@ -26099,10 +26107,10 @@
         <v>0</v>
       </c>
       <c r="G295" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J295" s="5">
         <v>-31</v>
@@ -26114,19 +26122,19 @@
         <v>0</v>
       </c>
       <c r="M295" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N295" s="5">
         <v>300</v>
       </c>
       <c r="O295" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="P295" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="U295" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V295" s="5">
         <v>9999999</v>
@@ -26161,10 +26169,10 @@
         <v>0</v>
       </c>
       <c r="G296" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H296" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J296" s="5">
         <v>-31</v>
@@ -26176,19 +26184,19 @@
         <v>0</v>
       </c>
       <c r="M296" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N296" s="5">
         <v>600</v>
       </c>
       <c r="O296" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="P296" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="U296" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V296" s="5">
         <v>9999999</v>
@@ -26223,10 +26231,10 @@
         <v>0</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H297" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J297" s="5">
         <v>-31</v>
@@ -26238,19 +26246,19 @@
         <v>0</v>
       </c>
       <c r="M297" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N297" s="5">
         <v>600</v>
       </c>
       <c r="O297" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="P297" s="5" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="U297" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V297" s="5">
         <v>9999999</v>
@@ -26285,10 +26293,10 @@
         <v>0</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H298" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J298" s="5">
         <v>-31</v>
@@ -26300,19 +26308,19 @@
         <v>0</v>
       </c>
       <c r="M298" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N298" s="5">
         <v>1200</v>
       </c>
       <c r="O298" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="P298" s="5" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="U298" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V298" s="5">
         <v>9999999</v>
@@ -26347,10 +26355,10 @@
         <v>0</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H299" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J299" s="5">
         <v>-31</v>
@@ -26362,19 +26370,19 @@
         <v>0</v>
       </c>
       <c r="M299" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N299" s="5">
         <v>1800</v>
       </c>
       <c r="O299" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P299" s="5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="U299" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V299" s="5">
         <v>9999999</v>
@@ -26409,10 +26417,10 @@
         <v>0</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H300" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J300" s="5">
         <v>-31</v>
@@ -26424,19 +26432,19 @@
         <v>0</v>
       </c>
       <c r="M300" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N300" s="5">
         <v>1800</v>
       </c>
       <c r="O300" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P300" s="5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="U300" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V300" s="5">
         <v>9999999</v>
@@ -26471,10 +26479,10 @@
         <v>0</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J301" s="5">
         <v>-31</v>
@@ -26486,19 +26494,19 @@
         <v>0</v>
       </c>
       <c r="M301" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N301" s="5">
         <v>3000</v>
       </c>
       <c r="O301" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P301" s="5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="U301" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V301" s="5">
         <v>9999999</v>
@@ -26533,10 +26541,10 @@
         <v>0</v>
       </c>
       <c r="G302" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J302" s="5">
         <v>-31</v>
@@ -26548,19 +26556,19 @@
         <v>0</v>
       </c>
       <c r="M302" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N302" s="5">
         <v>4800</v>
       </c>
       <c r="O302" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P302" s="5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="U302" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V302" s="5">
         <v>9999999</v>
@@ -26595,10 +26603,10 @@
         <v>0</v>
       </c>
       <c r="G303" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J303" s="5">
         <v>-31</v>
@@ -26610,19 +26618,19 @@
         <v>0</v>
       </c>
       <c r="M303" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N303" s="5">
         <v>4800</v>
       </c>
       <c r="O303" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P303" s="5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="U303" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V303" s="5">
         <v>9999999</v>
@@ -26657,10 +26665,10 @@
         <v>0</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J304" s="5">
         <v>-31</v>
@@ -26672,19 +26680,19 @@
         <v>0</v>
       </c>
       <c r="M304" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N304" s="5">
         <v>9800</v>
       </c>
       <c r="O304" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P304" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="U304" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V304" s="5">
         <v>9999999</v>
@@ -26719,10 +26727,10 @@
         <v>0</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H305" s="5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J305" s="5">
         <v>-31</v>
@@ -26734,19 +26742,19 @@
         <v>0</v>
       </c>
       <c r="M305" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N305" s="5">
         <v>19800</v>
       </c>
       <c r="O305" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P305" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="U305" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V305" s="5">
         <v>9999999</v>
@@ -26781,10 +26789,10 @@
         <v>0</v>
       </c>
       <c r="G306" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J306" s="5">
         <v>-31</v>
@@ -26796,19 +26804,19 @@
         <v>0</v>
       </c>
       <c r="M306" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N306" s="5">
         <v>9800</v>
       </c>
       <c r="O306" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P306" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="U306" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V306" s="5">
         <v>9999999</v>
@@ -26843,10 +26851,10 @@
         <v>0</v>
       </c>
       <c r="G307" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J307" s="5">
         <v>-31</v>
@@ -26858,19 +26866,19 @@
         <v>0</v>
       </c>
       <c r="M307" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N307" s="5">
         <v>19800</v>
       </c>
       <c r="O307" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P307" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="U307" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V307" s="5">
         <v>9999999</v>
@@ -26905,10 +26913,10 @@
         <v>0</v>
       </c>
       <c r="G308" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J308" s="5">
         <v>-31</v>
@@ -26920,19 +26928,19 @@
         <v>0</v>
       </c>
       <c r="M308" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N308" s="5">
         <v>49800</v>
       </c>
       <c r="O308" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="P308" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="U308" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V308" s="5">
         <v>9999999</v>
@@ -26967,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="G309" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H309" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J309" s="5">
         <v>-31</v>
@@ -26982,19 +26990,19 @@
         <v>0</v>
       </c>
       <c r="M309" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N309" s="5">
         <v>0</v>
       </c>
       <c r="O309" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="P309" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="U309" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V309" s="5">
         <v>9999999</v>
@@ -27029,10 +27037,10 @@
         <v>0</v>
       </c>
       <c r="G310" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="H310" s="5" t="s">
         <v>987</v>
-      </c>
-      <c r="H310" s="5" t="s">
-        <v>988</v>
       </c>
       <c r="J310" s="5">
         <v>-31</v>
@@ -27044,19 +27052,19 @@
         <v>0</v>
       </c>
       <c r="M310" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N310" s="5">
         <v>0</v>
       </c>
       <c r="O310" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="P310" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="U310" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V310" s="5">
         <v>9999999</v>
@@ -27091,10 +27099,10 @@
         <v>0</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J311" s="5">
         <v>-31</v>
@@ -27106,19 +27114,19 @@
         <v>0</v>
       </c>
       <c r="M311" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N311" s="5">
         <v>600</v>
       </c>
       <c r="O311" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P311" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="U311" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V311" s="5">
         <v>9999999</v>
@@ -27153,10 +27161,10 @@
         <v>0</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J312" s="5">
         <v>-31</v>
@@ -27168,19 +27176,19 @@
         <v>0</v>
       </c>
       <c r="M312" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N312" s="5">
         <v>1800</v>
       </c>
       <c r="O312" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P312" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="U312" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="V312" s="5">
         <v>9999999</v>
@@ -27215,10 +27223,10 @@
         <v>0</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J313" s="5">
         <v>-31</v>
@@ -27230,19 +27238,19 @@
         <v>0</v>
       </c>
       <c r="M313" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N313" s="5">
         <v>4800</v>
       </c>
       <c r="O313" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P313" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="U313" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="V313" s="5">
         <v>9999999</v>
@@ -27277,10 +27285,10 @@
         <v>0</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J314" s="5">
         <v>-31</v>
@@ -27292,19 +27300,19 @@
         <v>0</v>
       </c>
       <c r="M314" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N314" s="5">
         <v>9800</v>
       </c>
       <c r="O314" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="P314" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="U314" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="V314" s="5">
         <v>9999999</v>
@@ -27339,10 +27347,10 @@
         <v>0</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J315" s="5">
         <v>-31</v>
@@ -27354,19 +27362,19 @@
         <v>0</v>
       </c>
       <c r="M315" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N315" s="5">
         <v>19800</v>
       </c>
       <c r="O315" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P315" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="U315" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="V315" s="5">
         <v>9999999</v>
@@ -27401,10 +27409,10 @@
         <v>0</v>
       </c>
       <c r="G316" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H316" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J316" s="5">
         <v>-31</v>
@@ -27416,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="M316" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N316" s="5">
         <v>0</v>
       </c>
       <c r="O316" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P316" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="U316" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="V316" s="5">
         <v>20</v>
@@ -27463,10 +27471,10 @@
         <v>0</v>
       </c>
       <c r="G317" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H317" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J317" s="5">
         <v>-31</v>
@@ -27478,19 +27486,19 @@
         <v>0</v>
       </c>
       <c r="M317" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N317" s="5">
         <v>0</v>
       </c>
       <c r="O317" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P317" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="U317" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="V317" s="5">
         <v>20</v>
@@ -27525,10 +27533,10 @@
         <v>0</v>
       </c>
       <c r="G318" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H318" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J318" s="5">
         <v>-31</v>
@@ -27540,19 +27548,19 @@
         <v>0</v>
       </c>
       <c r="M318" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N318" s="5">
         <v>0</v>
       </c>
       <c r="O318" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P318" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="U318" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="V318" s="5">
         <v>9</v>
@@ -27587,10 +27595,10 @@
         <v>1</v>
       </c>
       <c r="G319" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H319" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="J319" s="5">
         <v>-23</v>
@@ -27608,13 +27616,13 @@
         <v>4800</v>
       </c>
       <c r="O319" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P319" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="U319" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="V319" s="5">
         <v>99999999</v>
@@ -27643,10 +27651,10 @@
         <v>1</v>
       </c>
       <c r="G320" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H320" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="J320" s="5">
         <v>-25</v>
@@ -27664,13 +27672,13 @@
         <v>9600</v>
       </c>
       <c r="O320" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P320" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="U320" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="V320" s="5">
         <v>99999999</v>
@@ -27699,10 +27707,10 @@
         <v>1</v>
       </c>
       <c r="G321" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H321" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="J321" s="5">
         <v>-23</v>
@@ -27714,19 +27722,19 @@
         <v>0</v>
       </c>
       <c r="M321" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="N321" s="5">
         <v>9800</v>
       </c>
       <c r="O321" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P321" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="U321" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V321" s="5">
         <v>9999999</v>
@@ -27761,10 +27769,10 @@
         <v>1</v>
       </c>
       <c r="G322" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="H322" s="5" t="s">
         <v>666</v>
-      </c>
-      <c r="H322" s="5" t="s">
-        <v>667</v>
       </c>
       <c r="J322" s="5">
         <v>-25</v>
@@ -27776,19 +27784,19 @@
         <v>0</v>
       </c>
       <c r="M322" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="N322" s="5">
         <v>19800</v>
       </c>
       <c r="O322" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="P322" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="U322" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="V322" s="5">
         <v>9999999</v>
@@ -27826,10 +27834,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="19" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="H323" s="19" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="I323" s="19"/>
       <c r="J323" s="19">
@@ -27848,17 +27856,17 @@
         <v>600</v>
       </c>
       <c r="O323" s="19" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="P323" s="19" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="Q323" s="19"/>
       <c r="R323" s="19"/>
       <c r="S323" s="19"/>
       <c r="T323" s="19"/>
       <c r="U323" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V323" s="19">
         <v>9999999</v>
@@ -27908,10 +27916,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="19" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="H324" s="19" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="I324" s="19"/>
       <c r="J324" s="19">
@@ -27930,17 +27938,17 @@
         <v>4800</v>
       </c>
       <c r="O324" s="19" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="P324" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="Q324" s="19"/>
       <c r="R324" s="19"/>
       <c r="S324" s="19"/>
       <c r="T324" s="19"/>
       <c r="U324" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V324" s="19">
         <v>9999999</v>
@@ -27990,10 +27998,10 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="H325" s="19" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="I325" s="19"/>
       <c r="J325" s="19">
@@ -28012,17 +28020,17 @@
         <v>9800</v>
       </c>
       <c r="O325" s="19" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="P325" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="Q325" s="19"/>
       <c r="R325" s="19"/>
       <c r="S325" s="19"/>
       <c r="T325" s="19"/>
       <c r="U325" s="19" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="V325" s="19">
         <v>9999999</v>
@@ -28069,10 +28077,10 @@
         <v>1</v>
       </c>
       <c r="G326" s="41" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="H326" s="41" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="J326" s="41">
         <v>-4</v>
@@ -28084,13 +28092,13 @@
         <v>0</v>
       </c>
       <c r="M326" s="41" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="N326" s="41">
         <v>100</v>
       </c>
       <c r="U326" s="41" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="V326" s="41">
         <v>9999999</v>
@@ -28102,13 +28110,13 @@
         <v>2552233600</v>
       </c>
       <c r="Z326" s="41" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AA326" s="41" t="s">
         <v>1154</v>
       </c>
-      <c r="AA326" s="41" t="s">
-        <v>1157</v>
-      </c>
       <c r="AB326" s="42" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="AF326" s="41">
         <v>1</v>
@@ -28128,10 +28136,10 @@
         <v>1</v>
       </c>
       <c r="G327" s="44" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="H327" s="44" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="J327" s="44">
         <v>-31</v>
@@ -28143,19 +28151,19 @@
         <v>0</v>
       </c>
       <c r="M327" s="44" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="N327" s="44">
         <v>9900</v>
       </c>
       <c r="O327" s="44" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="P327" s="44" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="U327" s="44" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="V327" s="44">
         <v>99999999</v>
@@ -28193,10 +28201,10 @@
         <v>1</v>
       </c>
       <c r="G328" s="44" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="H328" s="44" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="I328" s="44"/>
       <c r="J328" s="44">
@@ -28209,23 +28217,23 @@
         <v>0</v>
       </c>
       <c r="M328" s="44" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="N328" s="44">
         <v>600</v>
       </c>
       <c r="O328" s="44" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="P328" s="44" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="Q328" s="44"/>
       <c r="R328" s="44"/>
       <c r="S328" s="44"/>
       <c r="T328" s="44"/>
       <c r="U328" s="44" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="V328" s="44">
         <v>99999999</v>
@@ -28274,10 +28282,10 @@
         <v>1</v>
       </c>
       <c r="G329" s="44" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="H329" s="44" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="I329" s="44"/>
       <c r="J329" s="44">
@@ -28290,23 +28298,23 @@
         <v>0</v>
       </c>
       <c r="M329" s="44" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="N329" s="44">
         <v>2800</v>
       </c>
       <c r="O329" s="44" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="P329" s="44" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="Q329" s="44"/>
       <c r="R329" s="44"/>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
       <c r="U329" s="44" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="V329" s="44">
         <v>99999999</v>
@@ -28355,10 +28363,10 @@
         <v>1</v>
       </c>
       <c r="G330" s="44" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="H330" s="44" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="I330" s="44"/>
       <c r="J330" s="44">
@@ -28371,23 +28379,23 @@
         <v>0</v>
       </c>
       <c r="M330" s="44" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="N330" s="44">
         <v>4800</v>
       </c>
       <c r="O330" s="44" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="P330" s="44" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="Q330" s="44"/>
       <c r="R330" s="44"/>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
       <c r="U330" s="44" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="V330" s="44">
         <v>99999999</v>
@@ -28436,10 +28444,10 @@
         <v>1</v>
       </c>
       <c r="G331" s="44" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="H331" s="44" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="I331" s="44"/>
       <c r="J331" s="44">
@@ -28452,23 +28460,23 @@
         <v>0</v>
       </c>
       <c r="M331" s="44" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="N331" s="44">
         <v>9900</v>
       </c>
       <c r="O331" s="44" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="P331" s="44" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="Q331" s="44"/>
       <c r="R331" s="44"/>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
       <c r="U331" s="44" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="V331" s="44">
         <v>99999999</v>
@@ -28517,10 +28525,10 @@
         <v>1</v>
       </c>
       <c r="G332" s="44" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="H332" s="44" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="I332" s="44"/>
       <c r="J332" s="44">
@@ -28533,23 +28541,23 @@
         <v>0</v>
       </c>
       <c r="M332" s="44" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="N332" s="44">
         <v>19800</v>
       </c>
       <c r="O332" s="44" t="s">
+        <v>1184</v>
+      </c>
+      <c r="P332" s="44" t="s">
         <v>1187</v>
-      </c>
-      <c r="P332" s="44" t="s">
-        <v>1190</v>
       </c>
       <c r="Q332" s="44"/>
       <c r="R332" s="44"/>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
       <c r="U332" s="44" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="V332" s="44">
         <v>99999999</v>
@@ -28598,10 +28606,10 @@
         <v>1</v>
       </c>
       <c r="G333" s="44" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="H333" s="44" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="I333" s="44"/>
       <c r="J333" s="44">
@@ -28614,23 +28622,23 @@
         <v>0</v>
       </c>
       <c r="M333" s="44" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="N333" s="44">
         <v>29800</v>
       </c>
       <c r="O333" s="44" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="P333" s="44" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="Q333" s="44"/>
       <c r="R333" s="44"/>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
       <c r="U333" s="44" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="V333" s="44">
         <v>99999999</v>
@@ -28679,10 +28687,10 @@
         <v>1</v>
       </c>
       <c r="G334" s="44" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="H334" s="44" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="I334" s="44"/>
       <c r="J334" s="44">
@@ -28695,23 +28703,23 @@
         <v>0</v>
       </c>
       <c r="M334" s="44" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="N334" s="44">
         <v>39800</v>
       </c>
       <c r="O334" s="44" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="P334" s="44" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="Q334" s="44"/>
       <c r="R334" s="44"/>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
       <c r="U334" s="44" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="V334" s="44">
         <v>99999999</v>
@@ -28760,10 +28768,10 @@
         <v>1</v>
       </c>
       <c r="G335" s="44" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="H335" s="44" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="I335" s="44"/>
       <c r="J335" s="44">
@@ -28776,23 +28784,23 @@
         <v>0</v>
       </c>
       <c r="M335" s="44" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="N335" s="44">
         <v>49800</v>
       </c>
       <c r="O335" s="44" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="P335" s="44" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="Q335" s="44"/>
       <c r="R335" s="44"/>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
       <c r="U335" s="44" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="V335" s="44">
         <v>99999999</v>
@@ -28841,10 +28849,10 @@
         <v>1</v>
       </c>
       <c r="G336" s="44" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="H336" s="44" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="I336" s="44"/>
       <c r="J336" s="44">
@@ -28857,23 +28865,23 @@
         <v>0</v>
       </c>
       <c r="M336" s="44" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="N336" s="44">
         <v>59800</v>
       </c>
       <c r="O336" s="44" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="P336" s="44" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="Q336" s="44"/>
       <c r="R336" s="44"/>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
       <c r="U336" s="44" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="V336" s="44">
         <v>99999999</v>
@@ -28922,10 +28930,10 @@
         <v>1</v>
       </c>
       <c r="G337" s="44" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="H337" s="44" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="I337" s="44"/>
       <c r="J337" s="44">
@@ -28938,23 +28946,23 @@
         <v>0</v>
       </c>
       <c r="M337" s="44" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="N337" s="44">
         <v>69800</v>
       </c>
       <c r="O337" s="44" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="P337" s="44" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="Q337" s="44"/>
       <c r="R337" s="44"/>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
       <c r="U337" s="44" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="V337" s="44">
         <v>99999999</v>
@@ -29017,7 +29025,7 @@
         <v>403</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>404</v>
@@ -29093,7 +29101,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -29205,7 +29213,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -29219,7 +29227,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -29261,7 +29269,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -29275,7 +29283,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -29289,7 +29297,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C20" s="20">
         <v>1</v>
@@ -29303,7 +29311,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C21" s="20">
         <v>1</v>
@@ -29317,7 +29325,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C22" s="20">
         <v>1</v>
@@ -29331,7 +29339,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C23" s="20">
         <v>1</v>
@@ -29345,7 +29353,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C24" s="20">
         <v>1</v>
@@ -29359,7 +29367,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C25" s="20">
         <v>1</v>
@@ -29373,7 +29381,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C26" s="20">
         <v>1</v>
@@ -29445,10 +29453,10 @@
         <v>419</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1032</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1033</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>22</v>
@@ -29505,7 +29513,7 @@
         <v>42</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -29549,16 +29557,16 @@
         <v>3</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>50</v>
       </c>
       <c r="T2" s="34" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="U2" s="11" t="s">
         <v>422</v>
@@ -29614,16 +29622,16 @@
         <v>4</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>53</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>422</v>
@@ -29679,16 +29687,16 @@
         <v>5</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>55</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="U4" s="11" t="s">
         <v>422</v>
@@ -29744,16 +29752,16 @@
         <v>6</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>57</v>
       </c>
       <c r="T5" s="34" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="U5" s="11" t="s">
         <v>422</v>
@@ -29809,16 +29817,16 @@
         <v>7</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>59</v>
       </c>
       <c r="T6" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="U6" s="11" t="s">
         <v>422</v>
@@ -29874,16 +29882,16 @@
         <v>9</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>61</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="U7" s="11" t="s">
         <v>422</v>
@@ -29936,16 +29944,16 @@
         <v>0</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>50</v>
       </c>
       <c r="T8" s="34" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="U8" s="11" t="s">
         <v>422</v>
@@ -29998,13 +30006,13 @@
         <v>2</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="S9" s="11">
         <v>5000</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="U9" s="11" t="s">
         <v>422</v>
@@ -30016,7 +30024,7 @@
         <v>1</v>
       </c>
       <c r="AB9" s="34" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -30060,13 +30068,13 @@
         <v>1</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="S10" s="11">
         <v>1000</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="U10" s="11" t="s">
         <v>422</v>
@@ -30078,7 +30086,7 @@
         <v>1</v>
       </c>
       <c r="AB10" s="34" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -30122,16 +30130,16 @@
         <v>0</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>53</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="U11" s="11" t="s">
         <v>422</v>
@@ -30151,7 +30159,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D12" s="11">
         <v>109</v>
@@ -30187,16 +30195,16 @@
         <v>9</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>63</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U12" s="11" t="s">
         <v>422</v>
@@ -30252,16 +30260,16 @@
         <v>10</v>
       </c>
       <c r="P13" s="34" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>424</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="U13" s="11" t="s">
         <v>422</v>
@@ -30317,16 +30325,16 @@
         <v>11</v>
       </c>
       <c r="P14" s="34" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>425</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="U14" s="11" t="s">
         <v>422</v>
@@ -30352,7 +30360,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G15" s="11">
         <v>100</v>
@@ -30382,14 +30390,14 @@
         <v>0</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="11">
         <v>100</v>
       </c>
       <c r="T15" s="34" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U15" s="11" t="s">
         <v>422</v>
@@ -30401,7 +30409,7 @@
         <v>1</v>
       </c>
       <c r="AB15" s="34" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -30448,16 +30456,16 @@
         <v>3</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>72</v>
       </c>
       <c r="T16" s="34" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>422</v>
@@ -30510,16 +30518,16 @@
         <v>4</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="R17" s="34" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>75</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="U17" s="11" t="s">
         <v>422</v>
@@ -30572,16 +30580,16 @@
         <v>5</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>78</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="U18" s="11" t="s">
         <v>422</v>
@@ -30634,16 +30642,16 @@
         <v>6</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="R19" s="34" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>82</v>
       </c>
       <c r="T19" s="34" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U19" s="11" t="s">
         <v>422</v>
@@ -30696,16 +30704,16 @@
         <v>7</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="R20" s="34" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>86</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U20" s="11" t="s">
         <v>422</v>
@@ -30758,16 +30766,16 @@
         <v>0</v>
       </c>
       <c r="P21" s="36" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="R21" s="36" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="S21" s="35" t="s">
         <v>89</v>
       </c>
       <c r="T21" s="36" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U21" s="35" t="s">
         <v>422</v>
@@ -30820,14 +30828,14 @@
         <v>2</v>
       </c>
       <c r="P22" s="34" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="11">
         <v>5000</v>
       </c>
       <c r="T22" s="34" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="U22" s="11" t="s">
         <v>422</v>
@@ -30880,14 +30888,14 @@
         <v>1</v>
       </c>
       <c r="P23" s="34" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="R23" s="34"/>
       <c r="S23" s="11">
         <v>1000</v>
       </c>
       <c r="T23" s="34" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U23" s="11" t="s">
         <v>422</v>
@@ -30943,14 +30951,14 @@
         <v>0</v>
       </c>
       <c r="P24" s="34" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="R24" s="34"/>
       <c r="S24" s="11">
         <v>100</v>
       </c>
       <c r="T24" s="34" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="U24" s="11" t="s">
         <v>422</v>
@@ -30962,7 +30970,7 @@
         <v>1</v>
       </c>
       <c r="AB24" s="34" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -30982,7 +30990,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="G25" s="11">
         <v>19800</v>
@@ -31009,16 +31017,16 @@
         <v>8</v>
       </c>
       <c r="P25" s="34" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="R25" s="34" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="S25" s="34" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="T25" s="34" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="U25" s="11" t="s">
         <v>422</v>
@@ -31045,8 +31053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -31099,7 +31107,7 @@
         <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>428</v>
@@ -31400,7 +31408,7 @@
         <v>431</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F7" s="12">
         <v>500000</v>
@@ -31471,7 +31479,7 @@
         <v>90</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="L8" s="12">
         <v>57</v>
@@ -31489,7 +31497,7 @@
         <v>451</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>436</v>
@@ -31664,10 +31672,10 @@
         <v>19</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>493</v>
+        <v>1209</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F13" s="12">
         <v>70000</v>
@@ -31688,13 +31696,13 @@
         <v>0</v>
       </c>
       <c r="Q13" s="18" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="T13" s="12">
         <v>70000</v>
       </c>
       <c r="U13" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V13" s="18" t="s">
         <v>477</v>
@@ -31710,11 +31718,11 @@
       <c r="B14" s="17">
         <v>20</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>493</v>
+      <c r="D14" s="18" t="s">
+        <v>1210</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F14" s="12">
         <v>180000</v>
@@ -31735,13 +31743,13 @@
         <v>0</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="T14" s="12">
         <v>180000</v>
       </c>
       <c r="U14" s="18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="V14" s="18" t="s">
         <v>477</v>
@@ -31757,11 +31765,11 @@
       <c r="B15" s="17">
         <v>21</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>493</v>
+      <c r="D15" s="18" t="s">
+        <v>1211</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F15" s="12">
         <v>1500</v>
@@ -31782,16 +31790,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="T15" s="12">
         <v>1500</v>
       </c>
       <c r="U15" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="V15" s="18" t="s">
         <v>612</v>
-      </c>
-      <c r="V15" s="18" t="s">
-        <v>613</v>
       </c>
       <c r="W15" s="12">
         <v>3</v>
@@ -31805,10 +31813,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F16" s="25">
         <v>200</v>
@@ -31824,7 +31832,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="28" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="T16" s="25">
         <v>200</v>
@@ -31841,10 +31849,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F17" s="25">
         <v>2000</v>
@@ -31860,7 +31868,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="28" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="T17" s="25">
         <v>2000</v>
@@ -31877,10 +31885,10 @@
         <v>24</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F18" s="25">
         <v>20000</v>
@@ -31896,7 +31904,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="28" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="T18" s="25">
         <v>20000</v>
@@ -31913,10 +31921,10 @@
         <v>25</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F19" s="25">
         <v>200000</v>
@@ -31932,7 +31940,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="28" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="T19" s="25">
         <v>200000</v>
@@ -31949,10 +31957,10 @@
         <v>26</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F20" s="20">
         <v>300000</v>
@@ -31967,16 +31975,16 @@
         <v>0</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="T20" s="20">
         <v>300000</v>
       </c>
       <c r="U20" s="21" t="s">
+        <v>670</v>
+      </c>
+      <c r="V20" s="21" t="s">
         <v>671</v>
-      </c>
-      <c r="V20" s="21" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="21" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -31987,10 +31995,10 @@
         <v>27</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F21" s="20">
         <v>300000</v>
@@ -32005,13 +32013,13 @@
         <v>0</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="T21" s="20">
         <v>300000</v>
       </c>
       <c r="U21" s="21" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="V21" s="21" t="s">
         <v>477</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -8105,10 +8105,10 @@
   <dimension ref="A1:AL337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA5" sqref="AA5"/>
+      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -9169,7 +9169,7 @@
         <v>36</v>
       </c>
       <c r="F18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>152</v>
@@ -9228,7 +9228,7 @@
         <v>37</v>
       </c>
       <c r="F19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>152</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_0817\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="1225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="1289">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -3235,14 +3235,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4800000,30</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,30</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>3800000,300000,1</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3615,10 +3607,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>9800000,0,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -4087,9 +4075,6 @@
   </si>
   <si>
     <t>"480万金币","首次救济金增加88888金币",</t>
-  </si>
-  <si>
-    <t>"480万金币","每日领记牌器1天","每日领300000金币",</t>
   </si>
   <si>
     <t>"980万金币","核能风暴*1",</t>
@@ -5472,6 +5457,266 @@
   </si>
   <si>
     <t>{max_jing_bi=10000,max_fish_coin=10000,fish_ground=1,play_times=1}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_3d_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","锁定*5","每日领300000金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6元-首日</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6元-次日</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6元-三日</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>48元-首日</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>48元-次日</t>
+  </si>
+  <si>
+    <t>48元-三日</t>
+  </si>
+  <si>
+    <t>98元-首日</t>
+  </si>
+  <si>
+    <t>98元-次日</t>
+  </si>
+  <si>
+    <t>98元-三日</t>
+  </si>
+  <si>
+    <t>198元-首日</t>
+  </si>
+  <si>
+    <t>198元-次日</t>
+  </si>
+  <si>
+    <t>198元-三日</t>
+  </si>
+  <si>
+    <t>"60万金币","锁定*1","最高10万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","锁定*2","最高12万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","锁定*3","最高15万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","锁定*2","最高80万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","锁定*3","最高96万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","锁定*4","最高120万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","锁定*3","最高170万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","锁定*4","最高200万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","锁定*5","最高248万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","锁定*4","最高330万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","锁定*5","最高400万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","锁定*6","最高500万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_summon_fish","prop_3d_fish_lock",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,2,</t>
+  </si>
+  <si>
+    <t>600000,3,</t>
+  </si>
+  <si>
+    <t>4800000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,3,</t>
+  </si>
+  <si>
+    <t>4800000,4,</t>
+  </si>
+  <si>
+    <t>9800000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,6,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{15000,21000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{22000,26000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{27000,33000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{122000,166000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{174000,210000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{220000,260000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{276000,312000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{362000,422000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{460000,520000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{555000,633000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{762000,822000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{96000,1020000,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10259,last=10257,delay_permit_type="next_day",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10259,last=10258,delay_permit_type="next_day",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10262,last=10260,delay_permit_type="next_day",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10262,last=10261,delay_permit_type="next_day",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10265,last=10263,delay_permit_type="next_day",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10265,last=10264,delay_permit_type="next_day",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10268,last=10266,delay_permit_type="next_day",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10268,last=10267,delay_permit_type="next_day",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10258,delay_permit_type="next_day",reset_time=0,trigger="start_trigger"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10261,delay_permit_type="next_day",reset_time=0,trigger="start_trigger"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10264,delay_permit_type="next_day",reset_time=0,trigger="start_trigger"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{next=10267,delay_permit_type="next_day",reset_time=0,trigger="start_trigger"}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6270,7 +6515,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -6383,7 +6628,7 @@
         <v>45</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>46</v>
@@ -6463,7 +6708,7 @@
         <v>45</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>46</v>
@@ -6543,7 +6788,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>46</v>
@@ -6623,7 +6868,7 @@
         <v>45</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>46</v>
@@ -6703,7 +6948,7 @@
         <v>45</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>46</v>
@@ -6783,7 +7028,7 @@
         <v>45</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>46</v>
@@ -6863,7 +7108,7 @@
         <v>45</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>46</v>
@@ -6943,7 +7188,7 @@
         <v>45</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>46</v>
@@ -7024,7 +7269,7 @@
         <v>45</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>46</v>
@@ -7107,7 +7352,7 @@
         <v>45</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>46</v>
@@ -7187,7 +7432,7 @@
         <v>45</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="K12" s="11" t="s">
         <v>46</v>
@@ -7267,7 +7512,7 @@
         <v>45</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>46</v>
@@ -7347,7 +7592,7 @@
         <v>45</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>46</v>
@@ -7427,7 +7672,7 @@
         <v>45</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>46</v>
@@ -7507,7 +7752,7 @@
         <v>45</v>
       </c>
       <c r="J16" s="34" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>46</v>
@@ -7609,10 +7854,10 @@
         <v>1</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="W17" s="11" t="s">
         <v>49</v>
@@ -7681,10 +7926,10 @@
         <v>2</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="W18" s="11" t="s">
         <v>49</v>
@@ -7753,10 +7998,10 @@
         <v>3</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="W19" s="11" t="s">
         <v>49</v>
@@ -7825,10 +8070,10 @@
         <v>4</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="W20" s="11" t="s">
         <v>49</v>
@@ -7897,10 +8142,10 @@
         <v>5</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="W21" s="11" t="s">
         <v>49</v>
@@ -7969,10 +8214,10 @@
         <v>6</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="W22" s="11" t="s">
         <v>49</v>
@@ -8041,10 +8286,10 @@
         <v>7</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="W23" s="11" t="s">
         <v>49</v>
@@ -8092,7 +8337,7 @@
         <v>45</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="K24" s="11" t="s">
         <v>46</v>
@@ -8156,13 +8401,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL340"/>
+  <dimension ref="A1:AL352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H316" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="U323" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I339" sqref="I339"/>
+      <selection pane="bottomRight" activeCell="U345" sqref="U345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -8510,7 +8755,7 @@
         <v>120</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="5">
@@ -8553,7 +8798,7 @@
         <v>122</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="AF5" s="5">
         <v>1</v>
@@ -8687,7 +8932,7 @@
         <v>123</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="J8" s="5">
         <v>-6</v>
@@ -8955,7 +9200,7 @@
         <v>141</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="J13" s="5">
         <v>-8</v>
@@ -9064,7 +9309,7 @@
         <v>145</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="J15" s="5">
         <v>-8</v>
@@ -9120,7 +9365,7 @@
         <v>148</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="J16" s="5">
         <v>-8</v>
@@ -9362,7 +9607,7 @@
         <v>600</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="P20" s="5" t="s">
         <v>711</v>
@@ -9397,10 +9642,10 @@
         <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="J21" s="5">
         <v>-11</v>
@@ -9459,7 +9704,7 @@
         <v>161</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="J22" s="5">
         <v>-10</v>
@@ -9515,10 +9760,10 @@
         <v>0</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="J23" s="5">
         <v>-13</v>
@@ -11185,7 +11430,7 @@
         <v>219</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="J54" s="5">
         <v>-13</v>
@@ -11206,7 +11451,7 @@
         <v>220</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="U54" s="5" t="s">
         <v>552</v>
@@ -11291,10 +11536,10 @@
         <v>1</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="J56" s="22">
         <v>-18</v>
@@ -11350,7 +11595,7 @@
         <v>224</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="J57" s="5">
         <v>-19</v>
@@ -11830,10 +12075,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="J66" s="5">
         <v>-4</v>
@@ -12175,7 +12420,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="J72" s="5">
         <v>-4</v>
@@ -12470,7 +12715,7 @@
         <v>248</v>
       </c>
       <c r="H77" s="19" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
       <c r="J77" s="19">
         <v>-20</v>
@@ -12488,10 +12733,10 @@
         <v>100</v>
       </c>
       <c r="O77" s="19" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="U77" s="19" t="s">
         <v>551</v>
@@ -12526,7 +12771,7 @@
         <v>249</v>
       </c>
       <c r="H78" s="19" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="J78" s="19">
         <v>-20</v>
@@ -12565,10 +12810,10 @@
         <v>90</v>
       </c>
       <c r="AA78" s="19" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="AB78" s="40" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="AF78" s="19">
         <v>1</v>
@@ -12588,10 +12833,10 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="J79" s="5">
         <v>-20</v>
@@ -12630,10 +12875,10 @@
         <v>90</v>
       </c>
       <c r="AA79" s="5" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="AB79" s="10" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="AF79" s="5">
         <v>1</v>
@@ -12653,10 +12898,10 @@
         <v>1</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="J80" s="5">
         <v>-20</v>
@@ -12698,10 +12943,10 @@
         <v>612</v>
       </c>
       <c r="AA80" s="5" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="AB80" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="AF80" s="5">
         <v>1</v>
@@ -12724,7 +12969,7 @@
         <v>252</v>
       </c>
       <c r="H81" s="19" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="J81" s="19">
         <v>-20</v>
@@ -12763,7 +13008,7 @@
         <v>612</v>
       </c>
       <c r="AA81" s="19" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="AF81" s="19">
         <v>1</v>
@@ -12786,7 +13031,7 @@
         <v>253</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="J82" s="5">
         <v>-20</v>
@@ -12842,7 +13087,7 @@
         <v>255</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="J83" s="5">
         <v>-21</v>
@@ -12860,7 +13105,7 @@
         <v>4800</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>1086</v>
+        <v>1221</v>
       </c>
       <c r="P83" s="5" t="s">
         <v>745</v>
@@ -12898,7 +13143,7 @@
         <v>256</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="J84" s="5">
         <v>-22</v>
@@ -12916,7 +13161,7 @@
         <v>4800</v>
       </c>
       <c r="O84" s="5" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="P84" s="5" t="s">
         <v>746</v>
@@ -12948,13 +13193,13 @@
         <v>10002</v>
       </c>
       <c r="F85" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="J85" s="5">
         <v>-23</v>
@@ -12972,10 +13217,10 @@
         <v>4800</v>
       </c>
       <c r="O85" s="5" t="s">
-        <v>250</v>
+        <v>1222</v>
       </c>
       <c r="P85" s="5" t="s">
-        <v>747</v>
+        <v>1223</v>
       </c>
       <c r="U85" s="5" t="s">
         <v>553</v>
@@ -13004,13 +13249,13 @@
         <v>10003</v>
       </c>
       <c r="F86" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="J86" s="5">
         <v>-24</v>
@@ -13054,13 +13299,13 @@
         <v>10004</v>
       </c>
       <c r="F87" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="J87" s="5">
         <v>-25</v>
@@ -13078,10 +13323,10 @@
         <v>9600</v>
       </c>
       <c r="O87" s="5" t="s">
-        <v>250</v>
+        <v>1222</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>748</v>
+        <v>1224</v>
       </c>
       <c r="U87" s="5" t="s">
         <v>553</v>
@@ -13116,7 +13361,7 @@
         <v>257</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="J88" s="5">
         <v>-22</v>
@@ -13137,7 +13382,7 @@
         <v>258</v>
       </c>
       <c r="P88" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="U88" s="5" t="s">
         <v>552</v>
@@ -13172,7 +13417,7 @@
         <v>259</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="J89" s="5">
         <v>-22</v>
@@ -13193,7 +13438,7 @@
         <v>129</v>
       </c>
       <c r="P89" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="U89" s="5" t="s">
         <v>552</v>
@@ -13228,7 +13473,7 @@
         <v>261</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="J90" s="5">
         <v>-22</v>
@@ -13249,7 +13494,7 @@
         <v>222</v>
       </c>
       <c r="P90" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U90" s="5" t="s">
         <v>552</v>
@@ -13284,7 +13529,7 @@
         <v>262</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="J91" s="5">
         <v>-22</v>
@@ -13340,7 +13585,7 @@
         <v>263</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="J92" s="5">
         <v>-22</v>
@@ -13358,10 +13603,10 @@
         <v>4800</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="U92" s="5" t="s">
         <v>552</v>
@@ -13396,7 +13641,7 @@
         <v>264</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="J93" s="5">
         <v>-22</v>
@@ -13417,7 +13662,7 @@
         <v>265</v>
       </c>
       <c r="P93" s="5" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="U93" s="5" t="s">
         <v>552</v>
@@ -13470,7 +13715,7 @@
         <v>90</v>
       </c>
       <c r="P94" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="U94" s="5" t="s">
         <v>551</v>
@@ -13505,7 +13750,7 @@
         <v>267</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="J95" s="5">
         <v>-23</v>
@@ -13526,7 +13771,7 @@
         <v>218</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="Q95" s="7"/>
       <c r="S95" s="7"/>
@@ -13564,7 +13809,7 @@
         <v>268</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="J96" s="5">
         <v>-23</v>
@@ -13620,7 +13865,7 @@
         <v>269</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="J97" s="5">
         <v>-24</v>
@@ -13638,13 +13883,13 @@
         <v>4800</v>
       </c>
       <c r="O97" s="5" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="P97" s="5" t="s">
         <v>270</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="S97" s="5" t="s">
         <v>271</v>
@@ -13682,7 +13927,7 @@
         <v>272</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="J98" s="5">
         <v>-24</v>
@@ -13700,13 +13945,13 @@
         <v>9800</v>
       </c>
       <c r="O98" s="5" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="P98" s="5" t="s">
         <v>273</v>
       </c>
       <c r="R98" s="5" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="S98" s="5" t="s">
         <v>274</v>
@@ -13744,7 +13989,7 @@
         <v>275</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="J99" s="5">
         <v>-24</v>
@@ -13762,13 +14007,13 @@
         <v>19800</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="P99" s="5" t="s">
         <v>276</v>
       </c>
       <c r="R99" s="5" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="S99" s="5" t="s">
         <v>277</v>
@@ -13806,7 +14051,7 @@
         <v>591</v>
       </c>
       <c r="H100" s="19" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="J100" s="19">
         <v>-25</v>
@@ -13827,7 +14072,7 @@
         <v>592</v>
       </c>
       <c r="P100" s="19" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="U100" s="19" t="s">
         <v>552</v>
@@ -13869,7 +14114,7 @@
         <v>542</v>
       </c>
       <c r="H101" s="19" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="J101" s="19">
         <v>-25</v>
@@ -13890,7 +14135,7 @@
         <v>593</v>
       </c>
       <c r="P101" s="19" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="U101" s="19" t="s">
         <v>552</v>
@@ -13932,7 +14177,7 @@
         <v>279</v>
       </c>
       <c r="H102" s="19" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="J102" s="19">
         <v>-25</v>
@@ -13953,7 +14198,7 @@
         <v>593</v>
       </c>
       <c r="P102" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="U102" s="19" t="s">
         <v>552</v>
@@ -13995,7 +14240,7 @@
         <v>591</v>
       </c>
       <c r="H103" s="19" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="J103" s="19">
         <v>-25</v>
@@ -14016,7 +14261,7 @@
         <v>593</v>
       </c>
       <c r="P103" s="19" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="U103" s="19" t="s">
         <v>552</v>
@@ -14058,7 +14303,7 @@
         <v>543</v>
       </c>
       <c r="H104" s="19" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="J104" s="19">
         <v>-25</v>
@@ -14079,7 +14324,7 @@
         <v>593</v>
       </c>
       <c r="P104" s="19" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="U104" s="19" t="s">
         <v>552</v>
@@ -14121,7 +14366,7 @@
         <v>78</v>
       </c>
       <c r="H105" s="19" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="J105" s="19">
         <v>-25</v>
@@ -14142,7 +14387,7 @@
         <v>592</v>
       </c>
       <c r="P105" s="19" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="U105" s="19" t="s">
         <v>552</v>
@@ -14184,7 +14429,7 @@
         <v>590</v>
       </c>
       <c r="H106" s="19" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="J106" s="19">
         <v>-25</v>
@@ -14205,7 +14450,7 @@
         <v>593</v>
       </c>
       <c r="P106" s="19" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="U106" s="19" t="s">
         <v>552</v>
@@ -14247,7 +14492,7 @@
         <v>279</v>
       </c>
       <c r="H107" s="19" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="J107" s="19">
         <v>-25</v>
@@ -14268,7 +14513,7 @@
         <v>592</v>
       </c>
       <c r="P107" s="19" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="U107" s="19" t="s">
         <v>552</v>
@@ -14310,7 +14555,7 @@
         <v>82</v>
       </c>
       <c r="H108" s="19" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="J108" s="19">
         <v>-25</v>
@@ -14331,7 +14576,7 @@
         <v>593</v>
       </c>
       <c r="P108" s="19" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="U108" s="19" t="s">
         <v>552</v>
@@ -14430,7 +14675,7 @@
         <v>285</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="J110" s="5">
         <v>-26</v>
@@ -14448,13 +14693,13 @@
         <v>3800</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="P110" s="5" t="s">
         <v>286</v>
       </c>
       <c r="R110" s="5" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="S110" s="5" t="s">
         <v>287</v>
@@ -14492,7 +14737,7 @@
         <v>288</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="J111" s="5">
         <v>-26</v>
@@ -14510,13 +14755,13 @@
         <v>8800</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="P111" s="5" t="s">
         <v>289</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="S111" s="5" t="s">
         <v>290</v>
@@ -14554,7 +14799,7 @@
         <v>291</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="J112" s="5">
         <v>-26</v>
@@ -14572,13 +14817,13 @@
         <v>18800</v>
       </c>
       <c r="O112" s="5" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="P112" s="5" t="s">
         <v>292</v>
       </c>
       <c r="R112" s="5" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="S112" s="5" t="s">
         <v>293</v>
@@ -14616,7 +14861,7 @@
         <v>294</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="J113" s="5">
         <v>-26</v>
@@ -14672,7 +14917,7 @@
         <v>297</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="J114" s="5">
         <v>-26</v>
@@ -14728,7 +14973,7 @@
         <v>299</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="J115" s="5">
         <v>-26</v>
@@ -14746,7 +14991,7 @@
         <v>9800</v>
       </c>
       <c r="O115" s="5" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="P115" s="5" t="s">
         <v>300</v>
@@ -14784,7 +15029,7 @@
         <v>301</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="J116" s="5">
         <v>-27</v>
@@ -14802,13 +15047,13 @@
         <v>4800</v>
       </c>
       <c r="O116" s="5" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="P116" s="5" t="s">
         <v>302</v>
       </c>
       <c r="R116" s="5" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="S116" s="5" t="s">
         <v>303</v>
@@ -14846,7 +15091,7 @@
         <v>304</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="J117" s="5">
         <v>-27</v>
@@ -14864,13 +15109,13 @@
         <v>9800</v>
       </c>
       <c r="O117" s="5" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="P117" s="5" t="s">
         <v>273</v>
       </c>
       <c r="R117" s="5" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="S117" s="5" t="s">
         <v>274</v>
@@ -14908,7 +15153,7 @@
         <v>305</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="J118" s="5">
         <v>-28</v>
@@ -14964,7 +15209,7 @@
         <v>307</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="J119" s="5">
         <v>-28</v>
@@ -15020,7 +15265,7 @@
         <v>310</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="J120" s="5">
         <v>-28</v>
@@ -15076,7 +15321,7 @@
         <v>313</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="J121" s="5">
         <v>-28</v>
@@ -15135,7 +15380,7 @@
         <v>317</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="J122" s="5">
         <v>-28</v>
@@ -15194,7 +15439,7 @@
         <v>320</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="J123" s="5">
         <v>-28</v>
@@ -15253,7 +15498,7 @@
         <v>297</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="J124" s="5">
         <v>-28</v>
@@ -15309,7 +15554,7 @@
         <v>323</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="J125" s="5">
         <v>-28</v>
@@ -15365,7 +15610,7 @@
         <v>325</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="J126" s="5">
         <v>-28</v>
@@ -15421,7 +15666,7 @@
         <v>327</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="J127" s="5">
         <v>-29</v>
@@ -15504,7 +15749,7 @@
         <v>90</v>
       </c>
       <c r="P128" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="U128" s="5" t="s">
         <v>551</v>
@@ -15560,7 +15805,7 @@
         <v>90</v>
       </c>
       <c r="P129" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="U129" s="5" t="s">
         <v>551</v>
@@ -15595,7 +15840,7 @@
         <v>333</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="J130" s="5">
         <v>-28</v>
@@ -15657,7 +15902,7 @@
         <v>251</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="J131" s="5">
         <v>-28</v>
@@ -15719,7 +15964,7 @@
         <v>337</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="J132" s="5">
         <v>-28</v>
@@ -15781,7 +16026,7 @@
         <v>339</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="J133" s="5">
         <v>-28</v>
@@ -15802,7 +16047,7 @@
         <v>295</v>
       </c>
       <c r="P133" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="U133" s="5" t="s">
         <v>554</v>
@@ -15843,7 +16088,7 @@
         <v>340</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="J134" s="5">
         <v>-28</v>
@@ -15864,7 +16109,7 @@
         <v>308</v>
       </c>
       <c r="P134" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U134" s="5" t="s">
         <v>554</v>
@@ -15905,7 +16150,7 @@
         <v>342</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="J135" s="5">
         <v>-28</v>
@@ -15926,7 +16171,7 @@
         <v>311</v>
       </c>
       <c r="P135" s="5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="U135" s="5" t="s">
         <v>554</v>
@@ -15967,7 +16212,7 @@
         <v>452</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="J136" s="5">
         <v>-28</v>
@@ -15988,7 +16233,7 @@
         <v>160</v>
       </c>
       <c r="P136" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="U136" s="5" t="s">
         <v>554</v>
@@ -16026,7 +16271,7 @@
         <v>453</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="J137" s="5">
         <v>-28</v>
@@ -16047,7 +16292,7 @@
         <v>160</v>
       </c>
       <c r="P137" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="U137" s="5" t="s">
         <v>554</v>
@@ -16085,7 +16330,7 @@
         <v>454</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="J138" s="5">
         <v>-28</v>
@@ -16106,7 +16351,7 @@
         <v>160</v>
       </c>
       <c r="P138" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="U138" s="5" t="s">
         <v>554</v>
@@ -16144,7 +16389,7 @@
         <v>455</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="J139" s="5">
         <v>-28</v>
@@ -16165,7 +16410,7 @@
         <v>160</v>
       </c>
       <c r="P139" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="U139" s="5" t="s">
         <v>554</v>
@@ -16203,7 +16448,7 @@
         <v>456</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="J140" s="5">
         <v>-28</v>
@@ -16224,7 +16469,7 @@
         <v>160</v>
       </c>
       <c r="P140" s="5" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="U140" s="5" t="s">
         <v>554</v>
@@ -16262,7 +16507,7 @@
         <v>457</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="J141" s="5">
         <v>-28</v>
@@ -16283,7 +16528,7 @@
         <v>160</v>
       </c>
       <c r="P141" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="U141" s="5" t="s">
         <v>554</v>
@@ -16321,7 +16566,7 @@
         <v>343</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="J142" s="5">
         <v>-28</v>
@@ -16383,7 +16628,7 @@
         <v>344</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="J143" s="5">
         <v>-28</v>
@@ -16445,7 +16690,7 @@
         <v>345</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="J144" s="5">
         <v>-28</v>
@@ -16510,7 +16755,7 @@
         <v>347</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="J145" s="5">
         <v>-28</v>
@@ -16531,13 +16776,13 @@
         <v>348</v>
       </c>
       <c r="P145" s="5" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="R145" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S145" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="U145" s="5" t="s">
         <v>552</v>
@@ -16575,7 +16820,7 @@
         <v>349</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="J146" s="5">
         <v>-28</v>
@@ -16596,13 +16841,13 @@
         <v>278</v>
       </c>
       <c r="P146" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="R146" s="5" t="s">
         <v>160</v>
       </c>
       <c r="S146" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="U146" s="5" t="s">
         <v>552</v>
@@ -16640,7 +16885,7 @@
         <v>350</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="J147" s="5">
         <v>-28</v>
@@ -16661,13 +16906,13 @@
         <v>278</v>
       </c>
       <c r="P147" s="5" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="R147" s="5" t="s">
         <v>160</v>
       </c>
       <c r="S147" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="U147" s="5" t="s">
         <v>552</v>
@@ -16705,7 +16950,7 @@
         <v>351</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="J148" s="5">
         <v>-28</v>
@@ -16726,13 +16971,13 @@
         <v>278</v>
       </c>
       <c r="P148" s="5" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="R148" s="5" t="s">
         <v>160</v>
       </c>
       <c r="S148" s="5" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="U148" s="5" t="s">
         <v>552</v>
@@ -16770,7 +17015,7 @@
         <v>352</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="J149" s="5">
         <v>-28</v>
@@ -16791,13 +17036,13 @@
         <v>278</v>
       </c>
       <c r="P149" s="5" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="R149" s="5" t="s">
         <v>160</v>
       </c>
       <c r="S149" s="5" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="U149" s="5" t="s">
         <v>552</v>
@@ -16832,7 +17077,7 @@
         <v>353</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="J150" s="5">
         <v>-28</v>
@@ -16894,7 +17139,7 @@
         <v>354</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="J151" s="5">
         <v>-28</v>
@@ -16956,7 +17201,7 @@
         <v>355</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="J152" s="5">
         <v>-28</v>
@@ -17015,10 +17260,10 @@
         <v>1</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="J153" s="5">
         <v>-28</v>
@@ -17039,13 +17284,13 @@
         <v>348</v>
       </c>
       <c r="P153" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="R153" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S153" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="U153" s="5" t="s">
         <v>554</v>
@@ -17080,7 +17325,7 @@
         <v>356</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="J154" s="5">
         <v>-28</v>
@@ -17101,13 +17346,13 @@
         <v>348</v>
       </c>
       <c r="P154" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="R154" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S154" s="5" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="U154" s="5" t="s">
         <v>554</v>
@@ -17142,7 +17387,7 @@
         <v>357</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="J155" s="5">
         <v>-28</v>
@@ -17163,13 +17408,13 @@
         <v>348</v>
       </c>
       <c r="P155" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="R155" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S155" s="5" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="U155" s="5" t="s">
         <v>554</v>
@@ -17204,7 +17449,7 @@
         <v>358</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="J156" s="5">
         <v>-28</v>
@@ -17225,13 +17470,13 @@
         <v>348</v>
       </c>
       <c r="P156" s="5" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="R156" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S156" s="5" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="U156" s="5" t="s">
         <v>554</v>
@@ -17266,7 +17511,7 @@
         <v>359</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="J157" s="5">
         <v>-28</v>
@@ -17287,13 +17532,13 @@
         <v>348</v>
       </c>
       <c r="P157" s="5" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="R157" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S157" s="5" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="U157" s="5" t="s">
         <v>554</v>
@@ -17328,7 +17573,7 @@
         <v>360</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="J158" s="5">
         <v>-28</v>
@@ -17390,7 +17635,7 @@
         <v>362</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="J159" s="5">
         <v>-28</v>
@@ -17452,7 +17697,7 @@
         <v>364</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="J160" s="5">
         <v>-28</v>
@@ -17514,7 +17759,7 @@
         <v>366</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="J161" s="5">
         <v>-28</v>
@@ -17576,7 +17821,7 @@
         <v>367</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="J162" s="5">
         <v>-28</v>
@@ -17638,7 +17883,7 @@
         <v>368</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="J163" s="5">
         <v>-28</v>
@@ -17697,10 +17942,10 @@
         <v>1</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="I164" s="5">
         <v>21032</v>
@@ -17724,7 +17969,7 @@
         <v>220</v>
       </c>
       <c r="P164" s="10" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="U164" s="5" t="s">
         <v>551</v>
@@ -17765,7 +18010,7 @@
         <v>369</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="J165" s="5">
         <v>-28</v>
@@ -17827,7 +18072,7 @@
         <v>370</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="J166" s="5">
         <v>-28</v>
@@ -17889,7 +18134,7 @@
         <v>371</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="J167" s="5">
         <v>-28</v>
@@ -17951,7 +18196,7 @@
         <v>372</v>
       </c>
       <c r="H168" s="19" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="J168" s="19">
         <v>-28</v>
@@ -17969,10 +18214,10 @@
         <v>600</v>
       </c>
       <c r="O168" s="19" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="P168" s="19" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
       <c r="U168" s="19" t="s">
         <v>551</v>
@@ -18016,7 +18261,7 @@
         <v>483</v>
       </c>
       <c r="H169" s="19" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="J169" s="19">
         <v>-28</v>
@@ -18034,10 +18279,10 @@
         <v>3000</v>
       </c>
       <c r="O169" s="19" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="P169" s="19" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="U169" s="19" t="s">
         <v>631</v>
@@ -18078,7 +18323,7 @@
         <v>373</v>
       </c>
       <c r="H170" s="19" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="J170" s="19">
         <v>-28</v>
@@ -18096,10 +18341,10 @@
         <v>19800</v>
       </c>
       <c r="O170" s="19" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="P170" s="19" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
       <c r="U170" s="19" t="s">
         <v>631</v>
@@ -18137,10 +18382,10 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="H171" s="19" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="J171" s="19">
         <v>-28</v>
@@ -18158,10 +18403,10 @@
         <v>100</v>
       </c>
       <c r="O171" s="19" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="P171" s="19" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="U171" s="19" t="s">
         <v>598</v>
@@ -18202,10 +18447,10 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="H172" s="19" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="J172" s="19">
         <v>-28</v>
@@ -18223,10 +18468,10 @@
         <v>300</v>
       </c>
       <c r="O172" s="19" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="P172" s="19" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="U172" s="19" t="s">
         <v>554</v>
@@ -18267,10 +18512,10 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="J173" s="19">
         <v>-28</v>
@@ -18288,10 +18533,10 @@
         <v>600</v>
       </c>
       <c r="O173" s="19" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="P173" s="19" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="U173" s="19" t="s">
         <v>554</v>
@@ -18332,10 +18577,10 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="H174" s="19" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="J174" s="19">
         <v>-28</v>
@@ -18353,10 +18598,10 @@
         <v>600</v>
       </c>
       <c r="O174" s="19" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="P174" s="19" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="U174" s="19" t="s">
         <v>554</v>
@@ -18397,10 +18642,10 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="J175" s="19">
         <v>-28</v>
@@ -18418,10 +18663,10 @@
         <v>1000</v>
       </c>
       <c r="O175" s="19" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="P175" s="19" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="U175" s="19" t="s">
         <v>554</v>
@@ -18462,10 +18707,10 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="J176" s="19">
         <v>-28</v>
@@ -18483,10 +18728,10 @@
         <v>1800</v>
       </c>
       <c r="O176" s="19" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="U176" s="19" t="s">
         <v>554</v>
@@ -18527,10 +18772,10 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="J177" s="19">
         <v>-28</v>
@@ -18548,10 +18793,10 @@
         <v>1800</v>
       </c>
       <c r="O177" s="19" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="U177" s="19" t="s">
         <v>554</v>
@@ -18592,10 +18837,10 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="J178" s="19">
         <v>-28</v>
@@ -18613,10 +18858,10 @@
         <v>4800</v>
       </c>
       <c r="O178" s="19" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="P178" s="19" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="U178" s="19" t="s">
         <v>554</v>
@@ -18657,10 +18902,10 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="J179" s="19">
         <v>-28</v>
@@ -18678,10 +18923,10 @@
         <v>9800</v>
       </c>
       <c r="O179" s="19" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="P179" s="19" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="U179" s="19" t="s">
         <v>554</v>
@@ -18722,10 +18967,10 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="H180" s="19" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="J180" s="19">
         <v>-28</v>
@@ -18743,10 +18988,10 @@
         <v>4800</v>
       </c>
       <c r="O180" s="19" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="P180" s="19" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="U180" s="19" t="s">
         <v>554</v>
@@ -18787,10 +19032,10 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="J181" s="19">
         <v>-28</v>
@@ -18808,10 +19053,10 @@
         <v>9800</v>
       </c>
       <c r="O181" s="19" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="P181" s="19" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="U181" s="19" t="s">
         <v>554</v>
@@ -18852,10 +19097,10 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="J182" s="19">
         <v>-28</v>
@@ -18873,10 +19118,10 @@
         <v>19800</v>
       </c>
       <c r="O182" s="19" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="P182" s="19" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="U182" s="19" t="s">
         <v>554</v>
@@ -18917,10 +19162,10 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="J183" s="19">
         <v>-28</v>
@@ -18938,10 +19183,10 @@
         <v>9800</v>
       </c>
       <c r="O183" s="19" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="P183" s="19" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="U183" s="19" t="s">
         <v>554</v>
@@ -18982,10 +19227,10 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="J184" s="19">
         <v>-28</v>
@@ -19003,10 +19248,10 @@
         <v>19800</v>
       </c>
       <c r="O184" s="19" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="P184" s="19" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="U184" s="19" t="s">
         <v>554</v>
@@ -19047,10 +19292,10 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="H185" s="19" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="J185" s="19">
         <v>-28</v>
@@ -19068,10 +19313,10 @@
         <v>49800</v>
       </c>
       <c r="O185" s="19" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="P185" s="19" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="U185" s="19" t="s">
         <v>554</v>
@@ -19115,7 +19360,7 @@
         <v>327</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="J186" s="5">
         <v>-29</v>
@@ -19136,13 +19381,13 @@
         <v>464</v>
       </c>
       <c r="P186" s="5" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="R186" s="5" t="s">
         <v>330</v>
       </c>
       <c r="S186" s="5" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="U186" s="5" t="s">
         <v>551</v>
@@ -19177,7 +19422,7 @@
         <v>374</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="J187" s="5">
         <v>-28</v>
@@ -19242,7 +19487,7 @@
         <v>376</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="J188" s="5">
         <v>-28</v>
@@ -19307,7 +19552,7 @@
         <v>378</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="J189" s="5">
         <v>-28</v>
@@ -19372,7 +19617,7 @@
         <v>380</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="J190" s="5">
         <v>-28</v>
@@ -19437,7 +19682,7 @@
         <v>382</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="J191" s="5">
         <v>-28</v>
@@ -19502,7 +19747,7 @@
         <v>384</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="J192" s="5">
         <v>-28</v>
@@ -19567,7 +19812,7 @@
         <v>386</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="J193" s="5">
         <v>-28</v>
@@ -19632,7 +19877,7 @@
         <v>388</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="J194" s="5">
         <v>-28</v>
@@ -19697,7 +19942,7 @@
         <v>390</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J195" s="5">
         <v>-28</v>
@@ -19762,7 +20007,7 @@
         <v>392</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="J196" s="5">
         <v>-28</v>
@@ -19827,7 +20072,7 @@
         <v>394</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J197" s="5">
         <v>-28</v>
@@ -19892,7 +20137,7 @@
         <v>396</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="J198" s="5">
         <v>-28</v>
@@ -19957,7 +20202,7 @@
         <v>398</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J199" s="5">
         <v>-28</v>
@@ -20022,7 +20267,7 @@
         <v>399</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="J200" s="5">
         <v>-28</v>
@@ -20087,7 +20332,7 @@
         <v>400</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J201" s="5">
         <v>-28</v>
@@ -20152,7 +20397,7 @@
         <v>374</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="J202" s="5">
         <v>-28</v>
@@ -20217,7 +20462,7 @@
         <v>376</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="J203" s="5">
         <v>-28</v>
@@ -20282,7 +20527,7 @@
         <v>378</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="J204" s="5">
         <v>-28</v>
@@ -20347,7 +20592,7 @@
         <v>380</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="J205" s="5">
         <v>-28</v>
@@ -20412,7 +20657,7 @@
         <v>382</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="J206" s="5">
         <v>-28</v>
@@ -20477,7 +20722,7 @@
         <v>384</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="J207" s="5">
         <v>-28</v>
@@ -20542,7 +20787,7 @@
         <v>386</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="J208" s="5">
         <v>-28</v>
@@ -20607,7 +20852,7 @@
         <v>388</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="J209" s="5">
         <v>-28</v>
@@ -20672,7 +20917,7 @@
         <v>390</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J210" s="5">
         <v>-28</v>
@@ -20737,7 +20982,7 @@
         <v>392</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="J211" s="5">
         <v>-28</v>
@@ -20802,7 +21047,7 @@
         <v>394</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J212" s="5">
         <v>-28</v>
@@ -20867,7 +21112,7 @@
         <v>396</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="J213" s="5">
         <v>-28</v>
@@ -20932,7 +21177,7 @@
         <v>398</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J214" s="5">
         <v>-28</v>
@@ -20997,7 +21242,7 @@
         <v>399</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="J215" s="5">
         <v>-28</v>
@@ -21062,7 +21307,7 @@
         <v>400</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J216" s="5">
         <v>-28</v>
@@ -21127,7 +21372,7 @@
         <v>374</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="J217" s="5">
         <v>-28</v>
@@ -21192,7 +21437,7 @@
         <v>376</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="J218" s="5">
         <v>-28</v>
@@ -21257,7 +21502,7 @@
         <v>378</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="J219" s="5">
         <v>-28</v>
@@ -21322,7 +21567,7 @@
         <v>380</v>
       </c>
       <c r="H220" s="5" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="J220" s="5">
         <v>-28</v>
@@ -21387,7 +21632,7 @@
         <v>382</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="J221" s="5">
         <v>-28</v>
@@ -21452,7 +21697,7 @@
         <v>384</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="J222" s="5">
         <v>-28</v>
@@ -21517,7 +21762,7 @@
         <v>386</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="J223" s="5">
         <v>-28</v>
@@ -21582,7 +21827,7 @@
         <v>388</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="J224" s="5">
         <v>-28</v>
@@ -21647,7 +21892,7 @@
         <v>390</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J225" s="5">
         <v>-28</v>
@@ -21712,7 +21957,7 @@
         <v>392</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="J226" s="5">
         <v>-28</v>
@@ -21777,7 +22022,7 @@
         <v>394</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J227" s="5">
         <v>-28</v>
@@ -21842,7 +22087,7 @@
         <v>396</v>
       </c>
       <c r="H228" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="J228" s="5">
         <v>-28</v>
@@ -21907,7 +22152,7 @@
         <v>398</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J229" s="5">
         <v>-28</v>
@@ -21972,7 +22217,7 @@
         <v>399</v>
       </c>
       <c r="H230" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="J230" s="5">
         <v>-28</v>
@@ -22037,7 +22282,7 @@
         <v>400</v>
       </c>
       <c r="H231" s="5" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J231" s="5">
         <v>-28</v>
@@ -22102,7 +22347,7 @@
         <v>374</v>
       </c>
       <c r="H232" s="5" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="J232" s="5">
         <v>-28</v>
@@ -22167,7 +22412,7 @@
         <v>376</v>
       </c>
       <c r="H233" s="5" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="J233" s="5">
         <v>-28</v>
@@ -22232,7 +22477,7 @@
         <v>378</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="J234" s="5">
         <v>-28</v>
@@ -22297,7 +22542,7 @@
         <v>380</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="J235" s="5">
         <v>-28</v>
@@ -22362,7 +22607,7 @@
         <v>382</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="J236" s="5">
         <v>-28</v>
@@ -22427,7 +22672,7 @@
         <v>384</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="J237" s="5">
         <v>-28</v>
@@ -22492,7 +22737,7 @@
         <v>386</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="J238" s="5">
         <v>-28</v>
@@ -22557,7 +22802,7 @@
         <v>388</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="J239" s="5">
         <v>-28</v>
@@ -22622,7 +22867,7 @@
         <v>390</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="J240" s="5">
         <v>-28</v>
@@ -22687,7 +22932,7 @@
         <v>392</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="J241" s="5">
         <v>-28</v>
@@ -22752,7 +22997,7 @@
         <v>394</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J242" s="5">
         <v>-28</v>
@@ -22817,7 +23062,7 @@
         <v>396</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="J243" s="5">
         <v>-28</v>
@@ -22882,7 +23127,7 @@
         <v>398</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="J244" s="5">
         <v>-28</v>
@@ -22947,7 +23192,7 @@
         <v>399</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="J245" s="5">
         <v>-28</v>
@@ -23012,7 +23257,7 @@
         <v>400</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="J246" s="5">
         <v>-28</v>
@@ -23074,10 +23319,10 @@
         <v>1</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="J247" s="5">
         <v>-28</v>
@@ -23098,7 +23343,7 @@
         <v>160</v>
       </c>
       <c r="P247" s="5" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="U247" s="5" t="s">
         <v>554</v>
@@ -23142,7 +23387,7 @@
         <v>450</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="J248" s="5">
         <v>-28</v>
@@ -23163,7 +23408,7 @@
         <v>160</v>
       </c>
       <c r="P248" s="5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="U248" s="5" t="s">
         <v>554</v>
@@ -23207,7 +23452,7 @@
         <v>451</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="J249" s="5">
         <v>-28</v>
@@ -23228,7 +23473,7 @@
         <v>160</v>
       </c>
       <c r="P249" s="5" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="U249" s="5" t="s">
         <v>554</v>
@@ -23272,7 +23517,7 @@
         <v>462</v>
       </c>
       <c r="H250" s="19" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="J250" s="19">
         <v>-28</v>
@@ -23293,7 +23538,7 @@
         <v>461</v>
       </c>
       <c r="P250" s="19" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="U250" s="19" t="s">
         <v>551</v>
@@ -23334,7 +23579,7 @@
         <v>327</v>
       </c>
       <c r="H251" s="5" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="J251" s="5">
         <v>-29</v>
@@ -23352,16 +23597,16 @@
         <v>600</v>
       </c>
       <c r="O251" s="5" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="R251" s="5" t="s">
         <v>330</v>
       </c>
       <c r="S251" s="5" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="U251" s="5" t="s">
         <v>551</v>
@@ -23402,7 +23647,7 @@
         <v>485</v>
       </c>
       <c r="H252" s="5" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="J252" s="5">
         <v>-30</v>
@@ -23423,7 +23668,7 @@
         <v>461</v>
       </c>
       <c r="P252" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="U252" s="5" t="s">
         <v>631</v>
@@ -23464,7 +23709,7 @@
         <v>486</v>
       </c>
       <c r="H253" s="5" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="J253" s="5">
         <v>-30</v>
@@ -23485,7 +23730,7 @@
         <v>504</v>
       </c>
       <c r="P253" s="5" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="U253" s="5" t="s">
         <v>554</v>
@@ -23526,7 +23771,7 @@
         <v>501</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="J254" s="5">
         <v>-31</v>
@@ -23547,7 +23792,7 @@
         <v>503</v>
       </c>
       <c r="P254" s="5" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="U254" s="5" t="s">
         <v>554</v>
@@ -23591,7 +23836,7 @@
         <v>497</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J255" s="5">
         <v>-31</v>
@@ -23612,7 +23857,7 @@
         <v>484</v>
       </c>
       <c r="P255" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="U255" s="5" t="s">
         <v>554</v>
@@ -23656,7 +23901,7 @@
         <v>498</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="J256" s="5">
         <v>-31</v>
@@ -23677,7 +23922,7 @@
         <v>515</v>
       </c>
       <c r="P256" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="U256" s="5" t="s">
         <v>554</v>
@@ -23721,7 +23966,7 @@
         <v>505</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="J257" s="5">
         <v>-31</v>
@@ -23742,13 +23987,13 @@
         <v>610</v>
       </c>
       <c r="P257" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="R257" s="5" t="s">
         <v>506</v>
       </c>
       <c r="S257" s="5" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="U257" s="5" t="s">
         <v>551</v>
@@ -23789,7 +24034,7 @@
         <v>537</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="J258" s="5">
         <v>-31</v>
@@ -23854,7 +24099,7 @@
         <v>376</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="J259" s="5">
         <v>-31</v>
@@ -23919,7 +24164,7 @@
         <v>378</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="J260" s="5">
         <v>-31</v>
@@ -23984,7 +24229,7 @@
         <v>380</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="J261" s="5">
         <v>-31</v>
@@ -24049,7 +24294,7 @@
         <v>382</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="J262" s="5">
         <v>-31</v>
@@ -24114,7 +24359,7 @@
         <v>384</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="J263" s="5">
         <v>-31</v>
@@ -24179,7 +24424,7 @@
         <v>508</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="J264" s="5">
         <v>-31</v>
@@ -24244,7 +24489,7 @@
         <v>509</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="J265" s="5">
         <v>-31</v>
@@ -24309,7 +24554,7 @@
         <v>510</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="J266" s="5">
         <v>-31</v>
@@ -24374,7 +24619,7 @@
         <v>511</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="J267" s="5">
         <v>-31</v>
@@ -24439,7 +24684,7 @@
         <v>512</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="J268" s="5">
         <v>-31</v>
@@ -24504,7 +24749,7 @@
         <v>513</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="J269" s="5">
         <v>-31</v>
@@ -24569,7 +24814,7 @@
         <v>398</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="J270" s="5">
         <v>-31</v>
@@ -24634,7 +24879,7 @@
         <v>399</v>
       </c>
       <c r="H271" s="5" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="J271" s="5">
         <v>-31</v>
@@ -24699,7 +24944,7 @@
         <v>400</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="J272" s="5">
         <v>-31</v>
@@ -24785,7 +25030,7 @@
         <v>90</v>
       </c>
       <c r="P273" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="U273" s="5" t="s">
         <v>551</v>
@@ -24822,7 +25067,7 @@
         <v>549</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="I274" s="5"/>
       <c r="J274" s="5">
@@ -24844,7 +25089,7 @@
         <v>550</v>
       </c>
       <c r="P274" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="Q274" s="5"/>
       <c r="R274" s="5"/>
@@ -24895,7 +25140,7 @@
         <v>555</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="J275" s="5">
         <v>-31</v>
@@ -24916,7 +25161,7 @@
         <v>589</v>
       </c>
       <c r="P275" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="U275" s="5" t="s">
         <v>551</v>
@@ -24960,7 +25205,7 @@
         <v>556</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="J276" s="5">
         <v>-31</v>
@@ -24981,7 +25226,7 @@
         <v>568</v>
       </c>
       <c r="P276" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="U276" s="5" t="s">
         <v>554</v>
@@ -25025,7 +25270,7 @@
         <v>557</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="J277" s="5">
         <v>-31</v>
@@ -25046,7 +25291,7 @@
         <v>568</v>
       </c>
       <c r="P277" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="U277" s="5" t="s">
         <v>565</v>
@@ -25090,7 +25335,7 @@
         <v>558</v>
       </c>
       <c r="H278" s="5" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="J278" s="5">
         <v>-31</v>
@@ -25111,7 +25356,7 @@
         <v>568</v>
       </c>
       <c r="P278" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="U278" s="5" t="s">
         <v>566</v>
@@ -25155,7 +25400,7 @@
         <v>559</v>
       </c>
       <c r="H279" s="5" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="J279" s="5">
         <v>-31</v>
@@ -25176,7 +25421,7 @@
         <v>568</v>
       </c>
       <c r="P279" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="U279" s="5" t="s">
         <v>567</v>
@@ -25220,7 +25465,7 @@
         <v>560</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="J280" s="5">
         <v>-31</v>
@@ -25241,7 +25486,7 @@
         <v>568</v>
       </c>
       <c r="P280" s="5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="U280" s="5" t="s">
         <v>551</v>
@@ -25285,7 +25530,7 @@
         <v>561</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="J281" s="5">
         <v>-31</v>
@@ -25306,7 +25551,7 @@
         <v>568</v>
       </c>
       <c r="P281" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="U281" s="5" t="s">
         <v>554</v>
@@ -25350,7 +25595,7 @@
         <v>562</v>
       </c>
       <c r="H282" s="5" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="J282" s="5">
         <v>-31</v>
@@ -25371,7 +25616,7 @@
         <v>568</v>
       </c>
       <c r="P282" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="U282" s="5" t="s">
         <v>565</v>
@@ -25415,7 +25660,7 @@
         <v>563</v>
       </c>
       <c r="H283" s="5" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="J283" s="5">
         <v>-31</v>
@@ -25436,7 +25681,7 @@
         <v>568</v>
       </c>
       <c r="P283" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="U283" s="5" t="s">
         <v>566</v>
@@ -25480,7 +25725,7 @@
         <v>564</v>
       </c>
       <c r="H284" s="5" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="J284" s="5">
         <v>-31</v>
@@ -25501,7 +25746,7 @@
         <v>568</v>
       </c>
       <c r="P284" s="5" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="U284" s="5" t="s">
         <v>567</v>
@@ -25566,7 +25811,7 @@
         <v>568</v>
       </c>
       <c r="P285" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="U285" s="5" t="s">
         <v>554</v>
@@ -25628,7 +25873,7 @@
         <v>568</v>
       </c>
       <c r="P286" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="U286" s="5" t="s">
         <v>554</v>
@@ -25690,7 +25935,7 @@
         <v>568</v>
       </c>
       <c r="P287" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="U287" s="5" t="s">
         <v>554</v>
@@ -25752,7 +25997,7 @@
         <v>568</v>
       </c>
       <c r="P288" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="U288" s="5" t="s">
         <v>554</v>
@@ -25814,7 +26059,7 @@
         <v>568</v>
       </c>
       <c r="P289" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="U289" s="5" t="s">
         <v>554</v>
@@ -25876,7 +26121,7 @@
         <v>568</v>
       </c>
       <c r="P290" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="U290" s="5" t="s">
         <v>554</v>
@@ -25938,7 +26183,7 @@
         <v>568</v>
       </c>
       <c r="P291" s="5" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="U291" s="5" t="s">
         <v>554</v>
@@ -26000,7 +26245,7 @@
         <v>568</v>
       </c>
       <c r="P292" s="5" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="U292" s="5" t="s">
         <v>554</v>
@@ -26062,7 +26307,7 @@
         <v>618</v>
       </c>
       <c r="P293" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="U293" s="5" t="s">
         <v>554</v>
@@ -26103,7 +26348,7 @@
         <v>632</v>
       </c>
       <c r="H294" s="5" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="J294" s="5">
         <v>-31</v>
@@ -26124,7 +26369,7 @@
         <v>609</v>
       </c>
       <c r="P294" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="U294" s="5" t="s">
         <v>554</v>
@@ -26165,7 +26410,7 @@
         <v>633</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="J295" s="5">
         <v>-31</v>
@@ -26186,7 +26431,7 @@
         <v>609</v>
       </c>
       <c r="P295" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="U295" s="5" t="s">
         <v>554</v>
@@ -26227,7 +26472,7 @@
         <v>634</v>
       </c>
       <c r="H296" s="5" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="J296" s="5">
         <v>-31</v>
@@ -26248,7 +26493,7 @@
         <v>609</v>
       </c>
       <c r="P296" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="U296" s="5" t="s">
         <v>554</v>
@@ -26289,7 +26534,7 @@
         <v>635</v>
       </c>
       <c r="H297" s="5" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="J297" s="5">
         <v>-31</v>
@@ -26310,7 +26555,7 @@
         <v>609</v>
       </c>
       <c r="P297" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="U297" s="5" t="s">
         <v>554</v>
@@ -26351,7 +26596,7 @@
         <v>636</v>
       </c>
       <c r="H298" s="5" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="J298" s="5">
         <v>-31</v>
@@ -26372,7 +26617,7 @@
         <v>608</v>
       </c>
       <c r="P298" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="U298" s="5" t="s">
         <v>554</v>
@@ -26413,7 +26658,7 @@
         <v>637</v>
       </c>
       <c r="H299" s="5" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="J299" s="5">
         <v>-31</v>
@@ -26434,7 +26679,7 @@
         <v>607</v>
       </c>
       <c r="P299" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="U299" s="5" t="s">
         <v>554</v>
@@ -26475,7 +26720,7 @@
         <v>638</v>
       </c>
       <c r="H300" s="5" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="J300" s="5">
         <v>-31</v>
@@ -26496,7 +26741,7 @@
         <v>607</v>
       </c>
       <c r="P300" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="U300" s="5" t="s">
         <v>554</v>
@@ -26537,7 +26782,7 @@
         <v>639</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="J301" s="5">
         <v>-31</v>
@@ -26558,7 +26803,7 @@
         <v>607</v>
       </c>
       <c r="P301" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="U301" s="5" t="s">
         <v>554</v>
@@ -26599,7 +26844,7 @@
         <v>640</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="J302" s="5">
         <v>-31</v>
@@ -26620,7 +26865,7 @@
         <v>607</v>
       </c>
       <c r="P302" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="U302" s="5" t="s">
         <v>554</v>
@@ -26661,7 +26906,7 @@
         <v>641</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="J303" s="5">
         <v>-31</v>
@@ -26682,7 +26927,7 @@
         <v>607</v>
       </c>
       <c r="P303" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="U303" s="5" t="s">
         <v>554</v>
@@ -26723,7 +26968,7 @@
         <v>642</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="J304" s="5">
         <v>-31</v>
@@ -26744,7 +26989,7 @@
         <v>607</v>
       </c>
       <c r="P304" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="U304" s="5" t="s">
         <v>554</v>
@@ -26785,7 +27030,7 @@
         <v>643</v>
       </c>
       <c r="H305" s="5" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="J305" s="5">
         <v>-31</v>
@@ -26806,7 +27051,7 @@
         <v>607</v>
       </c>
       <c r="P305" s="5" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="U305" s="5" t="s">
         <v>554</v>
@@ -26847,7 +27092,7 @@
         <v>644</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="J306" s="5">
         <v>-31</v>
@@ -26868,7 +27113,7 @@
         <v>607</v>
       </c>
       <c r="P306" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="U306" s="5" t="s">
         <v>554</v>
@@ -26909,7 +27154,7 @@
         <v>645</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="J307" s="5">
         <v>-31</v>
@@ -26930,7 +27175,7 @@
         <v>607</v>
       </c>
       <c r="P307" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="U307" s="5" t="s">
         <v>554</v>
@@ -26971,7 +27216,7 @@
         <v>646</v>
       </c>
       <c r="H308" s="5" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="J308" s="5">
         <v>-31</v>
@@ -26992,7 +27237,7 @@
         <v>614</v>
       </c>
       <c r="P308" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="U308" s="5" t="s">
         <v>554</v>
@@ -27033,7 +27278,7 @@
         <v>647</v>
       </c>
       <c r="H309" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="J309" s="5">
         <v>-31</v>
@@ -27054,7 +27299,7 @@
         <v>619</v>
       </c>
       <c r="P309" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="U309" s="5" t="s">
         <v>554</v>
@@ -27092,10 +27337,10 @@
         <v>0</v>
       </c>
       <c r="G310" s="5" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="H310" s="5" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="J310" s="5">
         <v>-31</v>
@@ -27116,7 +27361,7 @@
         <v>620</v>
       </c>
       <c r="P310" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="U310" s="5" t="s">
         <v>554</v>
@@ -27154,10 +27399,10 @@
         <v>0</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="H311" s="5" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="J311" s="5">
         <v>-31</v>
@@ -27178,7 +27423,7 @@
         <v>621</v>
       </c>
       <c r="P311" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="U311" s="5" t="s">
         <v>554</v>
@@ -27216,10 +27461,10 @@
         <v>0</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="H312" s="5" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="J312" s="5">
         <v>-31</v>
@@ -27240,7 +27485,7 @@
         <v>621</v>
       </c>
       <c r="P312" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="U312" s="5" t="s">
         <v>628</v>
@@ -27278,10 +27523,10 @@
         <v>0</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="H313" s="5" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="J313" s="5">
         <v>-31</v>
@@ -27302,7 +27547,7 @@
         <v>621</v>
       </c>
       <c r="P313" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="U313" s="5" t="s">
         <v>629</v>
@@ -27340,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="H314" s="5" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="J314" s="5">
         <v>-31</v>
@@ -27364,7 +27609,7 @@
         <v>620</v>
       </c>
       <c r="P314" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="U314" s="5" t="s">
         <v>630</v>
@@ -27402,10 +27647,10 @@
         <v>0</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="H315" s="5" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="J315" s="5">
         <v>-31</v>
@@ -27426,7 +27671,7 @@
         <v>621</v>
       </c>
       <c r="P315" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="U315" s="5" t="s">
         <v>631</v>
@@ -27653,7 +27898,7 @@
         <v>651</v>
       </c>
       <c r="H319" s="5" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="J319" s="5">
         <v>-23</v>
@@ -27674,7 +27919,7 @@
         <v>653</v>
       </c>
       <c r="P319" s="5" t="s">
-        <v>841</v>
+        <v>1226</v>
       </c>
       <c r="U319" s="5" t="s">
         <v>553</v>
@@ -27709,7 +27954,7 @@
         <v>652</v>
       </c>
       <c r="H320" s="5" t="s">
-        <v>987</v>
+        <v>1225</v>
       </c>
       <c r="J320" s="5">
         <v>-25</v>
@@ -27730,7 +27975,7 @@
         <v>654</v>
       </c>
       <c r="P320" s="5" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="U320" s="5" t="s">
         <v>553</v>
@@ -27765,7 +28010,7 @@
         <v>655</v>
       </c>
       <c r="H321" s="5" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="J321" s="5">
         <v>-23</v>
@@ -27786,7 +28031,7 @@
         <v>657</v>
       </c>
       <c r="P321" s="5" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="U321" s="5" t="s">
         <v>551</v>
@@ -27889,10 +28134,10 @@
         <v>1</v>
       </c>
       <c r="G323" s="19" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="H323" s="19" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="I323" s="19"/>
       <c r="J323" s="19">
@@ -27911,17 +28156,17 @@
         <v>600</v>
       </c>
       <c r="O323" s="19" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="P323" s="19" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="Q323" s="19"/>
       <c r="R323" s="19"/>
       <c r="S323" s="19"/>
       <c r="T323" s="19"/>
       <c r="U323" s="19" t="s">
-        <v>554</v>
+        <v>1284</v>
       </c>
       <c r="V323" s="19">
         <v>9999999</v>
@@ -27971,10 +28216,10 @@
         <v>1</v>
       </c>
       <c r="G324" s="19" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="H324" s="19" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="I324" s="19"/>
       <c r="J324" s="19">
@@ -27993,10 +28238,10 @@
         <v>4800</v>
       </c>
       <c r="O324" s="19" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="P324" s="19" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="Q324" s="19"/>
       <c r="R324" s="19"/>
@@ -28053,10 +28298,10 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="H325" s="19" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="I325" s="19"/>
       <c r="J325" s="19">
@@ -28075,10 +28320,10 @@
         <v>9800</v>
       </c>
       <c r="O325" s="19" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="P325" s="19" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="Q325" s="19"/>
       <c r="R325" s="19"/>
@@ -28132,10 +28377,10 @@
         <v>1</v>
       </c>
       <c r="G326" s="41" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="H326" s="41" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="J326" s="41">
         <v>-4</v>
@@ -28147,13 +28392,13 @@
         <v>0</v>
       </c>
       <c r="M326" s="41" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N326" s="41">
         <v>100</v>
       </c>
       <c r="U326" s="41" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="V326" s="41">
         <v>9999999</v>
@@ -28165,13 +28410,13 @@
         <v>2552233600</v>
       </c>
       <c r="Z326" s="41" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AA326" s="41" t="s">
+        <v>1143</v>
+      </c>
+      <c r="AB326" s="42" t="s">
         <v>1144</v>
-      </c>
-      <c r="AA326" s="41" t="s">
-        <v>1147</v>
-      </c>
-      <c r="AB326" s="42" t="s">
-        <v>1148</v>
       </c>
       <c r="AF326" s="41">
         <v>1</v>
@@ -28191,10 +28436,10 @@
         <v>1</v>
       </c>
       <c r="G327" s="44" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="H327" s="44" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="J327" s="44">
         <v>-31</v>
@@ -28206,19 +28451,19 @@
         <v>0</v>
       </c>
       <c r="M327" s="44" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="N327" s="44">
         <v>9900</v>
       </c>
       <c r="O327" s="44" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="P327" s="44" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="U327" s="44" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="V327" s="44">
         <v>99999999</v>
@@ -28256,10 +28501,10 @@
         <v>1</v>
       </c>
       <c r="G328" s="44" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="H328" s="44" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="I328" s="44"/>
       <c r="J328" s="44">
@@ -28272,23 +28517,23 @@
         <v>0</v>
       </c>
       <c r="M328" s="44" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N328" s="44">
         <v>600</v>
       </c>
       <c r="O328" s="44" t="s">
-        <v>1177</v>
+        <v>1251</v>
       </c>
       <c r="P328" s="44" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="Q328" s="44"/>
       <c r="R328" s="44"/>
       <c r="S328" s="44"/>
       <c r="T328" s="44"/>
       <c r="U328" s="44" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="V328" s="44">
         <v>99999999</v>
@@ -28337,10 +28582,10 @@
         <v>1</v>
       </c>
       <c r="G329" s="44" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="H329" s="44" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="I329" s="44"/>
       <c r="J329" s="44">
@@ -28353,23 +28598,23 @@
         <v>0</v>
       </c>
       <c r="M329" s="44" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N329" s="44">
         <v>2800</v>
       </c>
       <c r="O329" s="44" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="P329" s="44" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="Q329" s="44"/>
       <c r="R329" s="44"/>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
       <c r="U329" s="44" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="V329" s="44">
         <v>99999999</v>
@@ -28418,10 +28663,10 @@
         <v>1</v>
       </c>
       <c r="G330" s="44" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="H330" s="44" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="I330" s="44"/>
       <c r="J330" s="44">
@@ -28434,23 +28679,23 @@
         <v>0</v>
       </c>
       <c r="M330" s="44" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N330" s="44">
         <v>4800</v>
       </c>
       <c r="O330" s="44" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="P330" s="44" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="Q330" s="44"/>
       <c r="R330" s="44"/>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
       <c r="U330" s="44" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="V330" s="44">
         <v>99999999</v>
@@ -28499,10 +28744,10 @@
         <v>1</v>
       </c>
       <c r="G331" s="44" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="H331" s="44" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="I331" s="44"/>
       <c r="J331" s="44">
@@ -28515,23 +28760,23 @@
         <v>0</v>
       </c>
       <c r="M331" s="44" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N331" s="44">
         <v>9900</v>
       </c>
       <c r="O331" s="44" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="P331" s="44" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="Q331" s="44"/>
       <c r="R331" s="44"/>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
       <c r="U331" s="44" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="V331" s="44">
         <v>99999999</v>
@@ -28580,10 +28825,10 @@
         <v>1</v>
       </c>
       <c r="G332" s="44" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="H332" s="44" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="I332" s="44"/>
       <c r="J332" s="44">
@@ -28596,23 +28841,23 @@
         <v>0</v>
       </c>
       <c r="M332" s="44" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N332" s="44">
         <v>19800</v>
       </c>
       <c r="O332" s="44" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="P332" s="44" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="Q332" s="44"/>
       <c r="R332" s="44"/>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
       <c r="U332" s="44" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="V332" s="44">
         <v>99999999</v>
@@ -28661,10 +28906,10 @@
         <v>1</v>
       </c>
       <c r="G333" s="44" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="H333" s="44" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="I333" s="44"/>
       <c r="J333" s="44">
@@ -28677,23 +28922,23 @@
         <v>0</v>
       </c>
       <c r="M333" s="44" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N333" s="44">
         <v>29800</v>
       </c>
       <c r="O333" s="44" t="s">
+        <v>1173</v>
+      </c>
+      <c r="P333" s="44" t="s">
         <v>1177</v>
-      </c>
-      <c r="P333" s="44" t="s">
-        <v>1181</v>
       </c>
       <c r="Q333" s="44"/>
       <c r="R333" s="44"/>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
       <c r="U333" s="44" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="V333" s="44">
         <v>99999999</v>
@@ -28742,10 +28987,10 @@
         <v>1</v>
       </c>
       <c r="G334" s="44" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="H334" s="44" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="I334" s="44"/>
       <c r="J334" s="44">
@@ -28758,23 +29003,23 @@
         <v>0</v>
       </c>
       <c r="M334" s="44" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N334" s="44">
         <v>39800</v>
       </c>
       <c r="O334" s="44" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="P334" s="44" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="Q334" s="44"/>
       <c r="R334" s="44"/>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
       <c r="U334" s="44" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="V334" s="44">
         <v>99999999</v>
@@ -28823,10 +29068,10 @@
         <v>1</v>
       </c>
       <c r="G335" s="44" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="H335" s="44" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="I335" s="44"/>
       <c r="J335" s="44">
@@ -28839,23 +29084,23 @@
         <v>0</v>
       </c>
       <c r="M335" s="44" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N335" s="44">
         <v>49800</v>
       </c>
       <c r="O335" s="44" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="P335" s="44" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="Q335" s="44"/>
       <c r="R335" s="44"/>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
       <c r="U335" s="44" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="V335" s="44">
         <v>99999999</v>
@@ -28904,10 +29149,10 @@
         <v>1</v>
       </c>
       <c r="G336" s="44" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="H336" s="44" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="I336" s="44"/>
       <c r="J336" s="44">
@@ -28920,23 +29165,23 @@
         <v>0</v>
       </c>
       <c r="M336" s="44" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N336" s="44">
         <v>59800</v>
       </c>
       <c r="O336" s="44" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="P336" s="44" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="Q336" s="44"/>
       <c r="R336" s="44"/>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
       <c r="U336" s="44" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="V336" s="44">
         <v>99999999</v>
@@ -28985,10 +29230,10 @@
         <v>1</v>
       </c>
       <c r="G337" s="44" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="H337" s="44" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="I337" s="44"/>
       <c r="J337" s="44">
@@ -29001,23 +29246,23 @@
         <v>0</v>
       </c>
       <c r="M337" s="44" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="N337" s="44">
         <v>69800</v>
       </c>
       <c r="O337" s="44" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="P337" s="44" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="Q337" s="44"/>
       <c r="R337" s="44"/>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
       <c r="U337" s="44" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="V337" s="44">
         <v>99999999</v>
@@ -29063,10 +29308,10 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="H338" s="19" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="J338" s="19">
         <v>-31</v>
@@ -29084,10 +29329,10 @@
         <v>19800</v>
       </c>
       <c r="O338" s="19" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="P338" s="19" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="U338" s="19" t="s">
         <v>551</v>
@@ -29102,10 +29347,10 @@
         <v>2552233600</v>
       </c>
       <c r="Z338" s="19" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="AA338" s="19" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="AF338" s="19">
         <v>1</v>
@@ -29137,7 +29382,7 @@
         <v>505</v>
       </c>
       <c r="H339" s="19" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="I339" s="19"/>
       <c r="J339" s="19">
@@ -29156,10 +29401,10 @@
         <v>30000</v>
       </c>
       <c r="O339" s="19" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="P339" s="19" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="Q339" s="19"/>
       <c r="R339" s="19"/>
@@ -29179,10 +29424,10 @@
       </c>
       <c r="Y339" s="19"/>
       <c r="Z339" s="19" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="AA339" s="19" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="AB339" s="19"/>
       <c r="AC339" s="19"/>
@@ -29217,10 +29462,10 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="H340" s="19" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="I340" s="19"/>
       <c r="J340" s="19">
@@ -29239,10 +29484,10 @@
         <v>78000</v>
       </c>
       <c r="O340" s="19" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="P340" s="19" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="Q340" s="19"/>
       <c r="R340" s="19"/>
@@ -29262,10 +29507,10 @@
       </c>
       <c r="Y340" s="19"/>
       <c r="Z340" s="19" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="AA340" s="19" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="AB340" s="19"/>
       <c r="AC340" s="19"/>
@@ -29283,6 +29528,858 @@
         <v>1</v>
       </c>
       <c r="AK340" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A341" s="5">
+        <v>340</v>
+      </c>
+      <c r="B341" s="5">
+        <v>10257</v>
+      </c>
+      <c r="F341" s="5">
+        <v>1</v>
+      </c>
+      <c r="G341" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H341" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="J341" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K341" s="5">
+        <v>0</v>
+      </c>
+      <c r="L341" s="5">
+        <v>0</v>
+      </c>
+      <c r="M341" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N341" s="5">
+        <v>600</v>
+      </c>
+      <c r="O341" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P341" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="U341" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="V341" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W341" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X341" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Y341" s="5">
+        <v>26</v>
+      </c>
+      <c r="Z341" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA341" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AF341" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG341" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ341" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK341" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A342" s="6">
+        <v>341</v>
+      </c>
+      <c r="B342" s="5">
+        <v>10258</v>
+      </c>
+      <c r="F342" s="5">
+        <v>1</v>
+      </c>
+      <c r="G342" s="6" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H342" s="5" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J342" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K342" s="5">
+        <v>0</v>
+      </c>
+      <c r="L342" s="5">
+        <v>0</v>
+      </c>
+      <c r="M342" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N342" s="5">
+        <v>600</v>
+      </c>
+      <c r="O342" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P342" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="U342" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="V342" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W342" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X342" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Y342" s="6">
+        <v>27</v>
+      </c>
+      <c r="Z342" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA342" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="AF342" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG342" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ342" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK342" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A343" s="6">
+        <v>342</v>
+      </c>
+      <c r="B343" s="5">
+        <v>10259</v>
+      </c>
+      <c r="F343" s="5">
+        <v>1</v>
+      </c>
+      <c r="G343" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H343" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J343" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K343" s="5">
+        <v>0</v>
+      </c>
+      <c r="L343" s="5">
+        <v>0</v>
+      </c>
+      <c r="M343" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N343" s="5">
+        <v>600</v>
+      </c>
+      <c r="O343" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P343" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="U343" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="V343" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W343" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X343" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Y343" s="6">
+        <v>28</v>
+      </c>
+      <c r="Z343" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA343" s="5" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AF343" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG343" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ343" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK343" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A344" s="6">
+        <v>343</v>
+      </c>
+      <c r="B344" s="5">
+        <v>10260</v>
+      </c>
+      <c r="F344" s="5">
+        <v>1</v>
+      </c>
+      <c r="G344" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H344" s="5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J344" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K344" s="5">
+        <v>0</v>
+      </c>
+      <c r="L344" s="5">
+        <v>0</v>
+      </c>
+      <c r="M344" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N344" s="5">
+        <v>4800</v>
+      </c>
+      <c r="O344" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P344" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="U344" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="V344" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W344" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X344" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Y344" s="6">
+        <v>29</v>
+      </c>
+      <c r="Z344" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA344" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AF344" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG344" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ344" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK344" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A345" s="6">
+        <v>344</v>
+      </c>
+      <c r="B345" s="5">
+        <v>10261</v>
+      </c>
+      <c r="F345" s="5">
+        <v>1</v>
+      </c>
+      <c r="G345" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H345" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="J345" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K345" s="5">
+        <v>0</v>
+      </c>
+      <c r="L345" s="5">
+        <v>0</v>
+      </c>
+      <c r="M345" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N345" s="5">
+        <v>4800</v>
+      </c>
+      <c r="O345" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P345" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="U345" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="V345" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W345" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X345" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Y345" s="6">
+        <v>30</v>
+      </c>
+      <c r="Z345" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA345" s="5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="AF345" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG345" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ345" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK345" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A346" s="6">
+        <v>345</v>
+      </c>
+      <c r="B346" s="5">
+        <v>10262</v>
+      </c>
+      <c r="F346" s="5">
+        <v>1</v>
+      </c>
+      <c r="G346" s="6" t="s">
+        <v>1232</v>
+      </c>
+      <c r="H346" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="J346" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K346" s="5">
+        <v>0</v>
+      </c>
+      <c r="L346" s="5">
+        <v>0</v>
+      </c>
+      <c r="M346" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N346" s="5">
+        <v>4800</v>
+      </c>
+      <c r="O346" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P346" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="U346" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="V346" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W346" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X346" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Y346" s="6">
+        <v>31</v>
+      </c>
+      <c r="Z346" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA346" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="AF346" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG346" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ346" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK346" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A347" s="6">
+        <v>346</v>
+      </c>
+      <c r="B347" s="5">
+        <v>10263</v>
+      </c>
+      <c r="F347" s="5">
+        <v>1</v>
+      </c>
+      <c r="G347" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H347" s="5" t="s">
+        <v>1245</v>
+      </c>
+      <c r="J347" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K347" s="5">
+        <v>0</v>
+      </c>
+      <c r="L347" s="5">
+        <v>0</v>
+      </c>
+      <c r="M347" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N347" s="5">
+        <v>9800</v>
+      </c>
+      <c r="O347" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P347" s="5" t="s">
+        <v>1259</v>
+      </c>
+      <c r="U347" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="V347" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W347" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X347" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Y347" s="6">
+        <v>32</v>
+      </c>
+      <c r="Z347" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA347" s="5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AF347" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG347" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ347" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK347" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A348" s="6">
+        <v>347</v>
+      </c>
+      <c r="B348" s="5">
+        <v>10264</v>
+      </c>
+      <c r="F348" s="5">
+        <v>1</v>
+      </c>
+      <c r="G348" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H348" s="5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="J348" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K348" s="5">
+        <v>0</v>
+      </c>
+      <c r="L348" s="5">
+        <v>0</v>
+      </c>
+      <c r="M348" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N348" s="5">
+        <v>9800</v>
+      </c>
+      <c r="O348" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P348" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="U348" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="V348" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W348" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X348" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Y348" s="6">
+        <v>33</v>
+      </c>
+      <c r="Z348" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA348" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="AF348" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG348" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ348" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK348" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A349" s="6">
+        <v>348</v>
+      </c>
+      <c r="B349" s="5">
+        <v>10265</v>
+      </c>
+      <c r="F349" s="5">
+        <v>1</v>
+      </c>
+      <c r="G349" s="6" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H349" s="5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="J349" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K349" s="5">
+        <v>0</v>
+      </c>
+      <c r="L349" s="5">
+        <v>0</v>
+      </c>
+      <c r="M349" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N349" s="5">
+        <v>9800</v>
+      </c>
+      <c r="O349" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P349" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="U349" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="V349" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W349" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X349" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Y349" s="6">
+        <v>34</v>
+      </c>
+      <c r="Z349" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA349" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="AF349" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG349" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ349" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK349" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A350" s="6">
+        <v>349</v>
+      </c>
+      <c r="B350" s="5">
+        <v>10266</v>
+      </c>
+      <c r="F350" s="5">
+        <v>1</v>
+      </c>
+      <c r="G350" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H350" s="5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J350" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K350" s="5">
+        <v>0</v>
+      </c>
+      <c r="L350" s="5">
+        <v>0</v>
+      </c>
+      <c r="M350" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N350" s="5">
+        <v>19800</v>
+      </c>
+      <c r="O350" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P350" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="U350" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="V350" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W350" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X350" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Y350" s="6">
+        <v>35</v>
+      </c>
+      <c r="Z350" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA350" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="AF350" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG350" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ350" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK350" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A351" s="6">
+        <v>350</v>
+      </c>
+      <c r="B351" s="5">
+        <v>10267</v>
+      </c>
+      <c r="F351" s="5">
+        <v>1</v>
+      </c>
+      <c r="G351" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H351" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J351" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K351" s="5">
+        <v>0</v>
+      </c>
+      <c r="L351" s="5">
+        <v>0</v>
+      </c>
+      <c r="M351" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N351" s="5">
+        <v>19800</v>
+      </c>
+      <c r="O351" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P351" s="5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="U351" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="V351" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W351" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X351" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Y351" s="6">
+        <v>36</v>
+      </c>
+      <c r="Z351" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA351" s="5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="AF351" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG351" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ351" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK351" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A352" s="6">
+        <v>351</v>
+      </c>
+      <c r="B352" s="5">
+        <v>10268</v>
+      </c>
+      <c r="F352" s="5">
+        <v>1</v>
+      </c>
+      <c r="G352" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H352" s="5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="J352" s="5">
+        <v>-31</v>
+      </c>
+      <c r="K352" s="5">
+        <v>0</v>
+      </c>
+      <c r="L352" s="5">
+        <v>0</v>
+      </c>
+      <c r="M352" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="N352" s="5">
+        <v>19800</v>
+      </c>
+      <c r="O352" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="P352" s="5" t="s">
+        <v>1263</v>
+      </c>
+      <c r="U352" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="V352" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="W352" s="5">
+        <v>1585609200</v>
+      </c>
+      <c r="X352" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="Y352" s="6">
+        <v>37</v>
+      </c>
+      <c r="Z352" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA352" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="AF352" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG352" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ352" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK352" s="5">
         <v>1</v>
       </c>
     </row>
@@ -29296,10 +30393,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -29314,7 +30411,7 @@
         <v>402</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>403</v>
@@ -29331,7 +30428,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -29348,7 +30445,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -29362,7 +30459,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -29376,7 +30473,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -29502,7 +30599,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -29530,7 +30627,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -29539,7 +30636,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -29553,7 +30650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -29567,7 +30664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -29581,103 +30678,283 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="20">
+    <row r="20" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="18" t="s">
         <v>532</v>
       </c>
-      <c r="C20" s="20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="20">
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="18" t="s">
         <v>533</v>
       </c>
-      <c r="C21" s="20">
-        <v>1</v>
-      </c>
-      <c r="D21" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="20">
+      <c r="C21" s="12">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="18" t="s">
         <v>534</v>
       </c>
-      <c r="C22" s="20">
-        <v>1</v>
-      </c>
-      <c r="D22" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="20">
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
         <v>22</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="18" t="s">
         <v>535</v>
       </c>
-      <c r="C23" s="20">
-        <v>1</v>
-      </c>
-      <c r="D23" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="20">
+      <c r="C23" s="12">
+        <v>1</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="C24" s="20">
-        <v>1</v>
-      </c>
-      <c r="D24" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="20">
+      <c r="C24" s="12">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
         <v>24</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="C25" s="20">
-        <v>1</v>
-      </c>
-      <c r="D25" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="20">
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="C26" s="20">
-        <v>1</v>
-      </c>
-      <c r="D26" s="20">
-        <v>0</v>
-      </c>
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
+        <v>26</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
+      <c r="D27" s="12">
+        <v>86400</v>
+      </c>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
+        <v>27</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C28" s="12">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12">
+        <v>86400</v>
+      </c>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
+        <v>28</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C29" s="12">
+        <v>1</v>
+      </c>
+      <c r="D29" s="12">
+        <v>86400</v>
+      </c>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
+        <v>29</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C30" s="12">
+        <v>1</v>
+      </c>
+      <c r="D30" s="12">
+        <v>86400</v>
+      </c>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
+        <v>30</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C31" s="12">
+        <v>1</v>
+      </c>
+      <c r="D31" s="12">
+        <v>86400</v>
+      </c>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
+        <v>31</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C32" s="12">
+        <v>1</v>
+      </c>
+      <c r="D32" s="12">
+        <v>86400</v>
+      </c>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
+        <v>32</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C33" s="12">
+        <v>1</v>
+      </c>
+      <c r="D33" s="12">
+        <v>86400</v>
+      </c>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
+        <v>33</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C34" s="12">
+        <v>1</v>
+      </c>
+      <c r="D34" s="12">
+        <v>86400</v>
+      </c>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
+        <v>34</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C35" s="12">
+        <v>1</v>
+      </c>
+      <c r="D35" s="12">
+        <v>86400</v>
+      </c>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="12">
+        <v>35</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C36" s="12">
+        <v>1</v>
+      </c>
+      <c r="D36" s="12">
+        <v>86400</v>
+      </c>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
+        <v>36</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C37" s="12">
+        <v>1</v>
+      </c>
+      <c r="D37" s="12">
+        <v>86400</v>
+      </c>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
+        <v>37</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C38" s="12">
+        <v>1</v>
+      </c>
+      <c r="D38" s="12">
+        <v>86400</v>
+      </c>
+      <c r="F38" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -29742,10 +31019,10 @@
         <v>416</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>22</v>
@@ -29802,7 +31079,7 @@
         <v>42</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -29846,10 +31123,10 @@
         <v>3</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>50</v>
@@ -29911,10 +31188,10 @@
         <v>4</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="S3" s="11" t="s">
         <v>53</v>
@@ -29976,10 +31253,10 @@
         <v>5</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>55</v>
@@ -30041,10 +31318,10 @@
         <v>6</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="S5" s="11" t="s">
         <v>57</v>
@@ -30106,10 +31383,10 @@
         <v>7</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>59</v>
@@ -30171,10 +31448,10 @@
         <v>9</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>61</v>
@@ -30233,10 +31510,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="34" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>50</v>
@@ -30295,7 +31572,7 @@
         <v>2</v>
       </c>
       <c r="P9" s="34" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="S9" s="11">
         <v>5000</v>
@@ -30313,7 +31590,7 @@
         <v>1</v>
       </c>
       <c r="AB9" s="34" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -30357,7 +31634,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="S10" s="11">
         <v>1000</v>
@@ -30375,7 +31652,7 @@
         <v>1</v>
       </c>
       <c r="AB10" s="34" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="11" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -30419,10 +31696,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="34" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="S11" s="23" t="s">
         <v>53</v>
@@ -30484,10 +31761,10 @@
         <v>9</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="S12" s="11" t="s">
         <v>63</v>
@@ -30549,10 +31826,10 @@
         <v>10</v>
       </c>
       <c r="P13" s="34" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="S13" s="11" t="s">
         <v>421</v>
@@ -30614,10 +31891,10 @@
         <v>11</v>
       </c>
       <c r="P14" s="34" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="S14" s="11" t="s">
         <v>422</v>
@@ -30679,7 +31956,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="34" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="11">
@@ -30698,7 +31975,7 @@
         <v>1</v>
       </c>
       <c r="AB15" s="34" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="16" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -30745,10 +32022,10 @@
         <v>3</v>
       </c>
       <c r="P16" s="34" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="R16" s="34" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="S16" s="11" t="s">
         <v>72</v>
@@ -30807,10 +32084,10 @@
         <v>4</v>
       </c>
       <c r="P17" s="34" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="R17" s="34" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="S17" s="11" t="s">
         <v>75</v>
@@ -30869,10 +32146,10 @@
         <v>5</v>
       </c>
       <c r="P18" s="34" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="R18" s="34" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="S18" s="11" t="s">
         <v>78</v>
@@ -30931,10 +32208,10 @@
         <v>6</v>
       </c>
       <c r="P19" s="34" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="R19" s="34" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="S19" s="11" t="s">
         <v>82</v>
@@ -30993,10 +32270,10 @@
         <v>7</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="R20" s="34" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="S20" s="11" t="s">
         <v>86</v>
@@ -31055,10 +32332,10 @@
         <v>0</v>
       </c>
       <c r="P21" s="36" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="R21" s="36" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="S21" s="35" t="s">
         <v>89</v>
@@ -31117,7 +32394,7 @@
         <v>2</v>
       </c>
       <c r="P22" s="34" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="R22" s="34"/>
       <c r="S22" s="11">
@@ -31177,7 +32454,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="34" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="R23" s="34"/>
       <c r="S23" s="11">
@@ -31240,7 +32517,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="34" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="R24" s="34"/>
       <c r="S24" s="11">
@@ -31259,7 +32536,7 @@
         <v>1</v>
       </c>
       <c r="AB24" s="34" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="25" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -31279,7 +32556,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="G25" s="11">
         <v>19800</v>
@@ -31306,10 +32583,10 @@
         <v>8</v>
       </c>
       <c r="P25" s="34" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="R25" s="34" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="S25" s="34" t="s">
         <v>548</v>
@@ -31768,7 +33045,7 @@
         <v>90</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="L8" s="12">
         <v>57</v>
@@ -31786,7 +33063,7 @@
         <v>448</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>433</v>
@@ -31961,7 +33238,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>488</v>
@@ -32008,7 +33285,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>488</v>
@@ -32055,7 +33332,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>492</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_0817\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="1289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="1316">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5717,6 +5717,108 @@
   </si>
   <si>
     <t>{next=10267,delay_permit_type="next_day",reset_time=0,trigger="start_trigger"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银宝箱（免费，小额，V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金宝箱（免费，小额，V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石宝箱（免费，小额，V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"鲸币宝箱抽奖券",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_jrth_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_jrth_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_jrth_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银宝箱（V4-V7）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金宝箱（V4-V7）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石宝箱（V4-V7）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白银宝箱（V8-V10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金宝箱（V8-V10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石宝箱（V8-V10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_jrth_4",</t>
+  </si>
+  <si>
+    <t>"prop_jrth_5",</t>
+  </si>
+  <si>
+    <t>"prop_jrth_6",</t>
+  </si>
+  <si>
+    <t>"prop_jrth_7",</t>
+  </si>
+  <si>
+    <t>"prop_jrth_8",</t>
+  </si>
+  <si>
+    <t>"prop_jrth_9",</t>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "jrth_025_v4" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "jrth_025_v8" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "jrth_025_nor" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -5788,7 +5890,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5828,6 +5930,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5874,7 +5982,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6008,6 +6116,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8401,13 +8512,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL352"/>
+  <dimension ref="A1:AL361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="U323" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H342" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U345" sqref="U345"/>
+      <selection pane="bottomRight" activeCell="B353" sqref="B353:B361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -30350,7 +30461,7 @@
         <v>1263</v>
       </c>
       <c r="U352" s="5" t="s">
-        <v>1284</v>
+        <v>1298</v>
       </c>
       <c r="V352" s="5">
         <v>9999999</v>
@@ -30380,6 +30491,591 @@
         <v>1</v>
       </c>
       <c r="AK352" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:37" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A353" s="45">
+        <v>352</v>
+      </c>
+      <c r="B353" s="45">
+        <v>10269</v>
+      </c>
+      <c r="F353" s="45">
+        <v>1</v>
+      </c>
+      <c r="G353" s="45" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H353" s="45" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J353" s="45">
+        <v>-31</v>
+      </c>
+      <c r="K353" s="45">
+        <v>0</v>
+      </c>
+      <c r="L353" s="45">
+        <v>0</v>
+      </c>
+      <c r="M353" s="45" t="s">
+        <v>1306</v>
+      </c>
+      <c r="N353" s="45">
+        <v>600</v>
+      </c>
+      <c r="O353" s="45" t="s">
+        <v>1293</v>
+      </c>
+      <c r="P353" s="45" t="s">
+        <v>1296</v>
+      </c>
+      <c r="U353" s="45" t="s">
+        <v>1299</v>
+      </c>
+      <c r="V353" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="W353" s="45">
+        <v>1597707000</v>
+      </c>
+      <c r="X353" s="45">
+        <v>1598284799</v>
+      </c>
+      <c r="Y353" s="45">
+        <v>38</v>
+      </c>
+      <c r="AF353" s="45">
+        <v>1</v>
+      </c>
+      <c r="AG353" s="45">
+        <v>1</v>
+      </c>
+      <c r="AJ353" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK353" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:37" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A354" s="45">
+        <v>353</v>
+      </c>
+      <c r="B354" s="45">
+        <v>10270</v>
+      </c>
+      <c r="F354" s="45">
+        <v>1</v>
+      </c>
+      <c r="G354" s="45" t="s">
+        <v>1290</v>
+      </c>
+      <c r="H354" s="45" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J354" s="45">
+        <v>-31</v>
+      </c>
+      <c r="K354" s="45">
+        <v>0</v>
+      </c>
+      <c r="L354" s="45">
+        <v>0</v>
+      </c>
+      <c r="M354" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="N354" s="45">
+        <v>1200</v>
+      </c>
+      <c r="O354" s="45" t="s">
+        <v>1294</v>
+      </c>
+      <c r="P354" s="45" t="s">
+        <v>1297</v>
+      </c>
+      <c r="U354" s="45" t="s">
+        <v>1299</v>
+      </c>
+      <c r="V354" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="W354" s="45">
+        <v>1597707000</v>
+      </c>
+      <c r="X354" s="45">
+        <v>1598284799</v>
+      </c>
+      <c r="Y354" s="45">
+        <v>38</v>
+      </c>
+      <c r="AF354" s="45">
+        <v>1</v>
+      </c>
+      <c r="AG354" s="45">
+        <v>1</v>
+      </c>
+      <c r="AJ354" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK354" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:37" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A355" s="45">
+        <v>354</v>
+      </c>
+      <c r="B355" s="45">
+        <v>10271</v>
+      </c>
+      <c r="F355" s="45">
+        <v>1</v>
+      </c>
+      <c r="G355" s="45" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H355" s="45" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J355" s="45">
+        <v>-31</v>
+      </c>
+      <c r="K355" s="45">
+        <v>0</v>
+      </c>
+      <c r="L355" s="45">
+        <v>0</v>
+      </c>
+      <c r="M355" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="N355" s="45">
+        <v>1800</v>
+      </c>
+      <c r="O355" s="45" t="s">
+        <v>1295</v>
+      </c>
+      <c r="P355" s="45" t="s">
+        <v>1296</v>
+      </c>
+      <c r="U355" s="45" t="s">
+        <v>1299</v>
+      </c>
+      <c r="V355" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="W355" s="45">
+        <v>1597707000</v>
+      </c>
+      <c r="X355" s="45">
+        <v>1598284799</v>
+      </c>
+      <c r="Y355" s="45">
+        <v>38</v>
+      </c>
+      <c r="AF355" s="45">
+        <v>1</v>
+      </c>
+      <c r="AG355" s="45">
+        <v>1</v>
+      </c>
+      <c r="AJ355" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK355" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:37" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A356" s="45">
+        <v>355</v>
+      </c>
+      <c r="B356" s="45">
+        <v>10272</v>
+      </c>
+      <c r="F356" s="45">
+        <v>1</v>
+      </c>
+      <c r="G356" s="45" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H356" s="45" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J356" s="45">
+        <v>-31</v>
+      </c>
+      <c r="K356" s="45">
+        <v>0</v>
+      </c>
+      <c r="L356" s="45">
+        <v>0</v>
+      </c>
+      <c r="M356" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="N356" s="45">
+        <v>4800</v>
+      </c>
+      <c r="O356" s="45" t="s">
+        <v>1307</v>
+      </c>
+      <c r="P356" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="U356" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="V356" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="W356" s="45">
+        <v>1597707000</v>
+      </c>
+      <c r="X356" s="45">
+        <v>1598284799</v>
+      </c>
+      <c r="Y356" s="45">
+        <v>39</v>
+      </c>
+      <c r="AF356" s="45">
+        <v>1</v>
+      </c>
+      <c r="AG356" s="45">
+        <v>1</v>
+      </c>
+      <c r="AJ356" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK356" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:37" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A357" s="45">
+        <v>356</v>
+      </c>
+      <c r="B357" s="45">
+        <v>10273</v>
+      </c>
+      <c r="F357" s="45">
+        <v>1</v>
+      </c>
+      <c r="G357" s="45" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H357" s="45" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J357" s="45">
+        <v>-31</v>
+      </c>
+      <c r="K357" s="45">
+        <v>0</v>
+      </c>
+      <c r="L357" s="45">
+        <v>0</v>
+      </c>
+      <c r="M357" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="N357" s="45">
+        <v>9800</v>
+      </c>
+      <c r="O357" s="45" t="s">
+        <v>1308</v>
+      </c>
+      <c r="P357" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="U357" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="V357" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="W357" s="45">
+        <v>1597707000</v>
+      </c>
+      <c r="X357" s="45">
+        <v>1598284799</v>
+      </c>
+      <c r="Y357" s="45">
+        <v>39</v>
+      </c>
+      <c r="AF357" s="45">
+        <v>1</v>
+      </c>
+      <c r="AG357" s="45">
+        <v>1</v>
+      </c>
+      <c r="AJ357" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK357" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:37" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A358" s="45">
+        <v>357</v>
+      </c>
+      <c r="B358" s="45">
+        <v>10274</v>
+      </c>
+      <c r="F358" s="45">
+        <v>1</v>
+      </c>
+      <c r="G358" s="45" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H358" s="45" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J358" s="45">
+        <v>-31</v>
+      </c>
+      <c r="K358" s="45">
+        <v>0</v>
+      </c>
+      <c r="L358" s="45">
+        <v>0</v>
+      </c>
+      <c r="M358" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="N358" s="45">
+        <v>19800</v>
+      </c>
+      <c r="O358" s="45" t="s">
+        <v>1309</v>
+      </c>
+      <c r="P358" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="U358" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="V358" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="W358" s="45">
+        <v>1597707000</v>
+      </c>
+      <c r="X358" s="45">
+        <v>1598284799</v>
+      </c>
+      <c r="Y358" s="45">
+        <v>39</v>
+      </c>
+      <c r="AF358" s="45">
+        <v>1</v>
+      </c>
+      <c r="AG358" s="45">
+        <v>1</v>
+      </c>
+      <c r="AJ358" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK358" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:37" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="45">
+        <v>358</v>
+      </c>
+      <c r="B359" s="45">
+        <v>10275</v>
+      </c>
+      <c r="F359" s="45">
+        <v>1</v>
+      </c>
+      <c r="G359" s="45" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H359" s="45" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J359" s="45">
+        <v>-31</v>
+      </c>
+      <c r="K359" s="45">
+        <v>0</v>
+      </c>
+      <c r="L359" s="45">
+        <v>0</v>
+      </c>
+      <c r="M359" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="N359" s="45">
+        <v>9800</v>
+      </c>
+      <c r="O359" s="45" t="s">
+        <v>1310</v>
+      </c>
+      <c r="P359" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="U359" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="V359" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="W359" s="45">
+        <v>1597707000</v>
+      </c>
+      <c r="X359" s="45">
+        <v>1598284799</v>
+      </c>
+      <c r="Y359" s="45">
+        <v>40</v>
+      </c>
+      <c r="AF359" s="45">
+        <v>1</v>
+      </c>
+      <c r="AG359" s="45">
+        <v>1</v>
+      </c>
+      <c r="AJ359" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK359" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:37" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A360" s="45">
+        <v>359</v>
+      </c>
+      <c r="B360" s="45">
+        <v>10276</v>
+      </c>
+      <c r="F360" s="45">
+        <v>1</v>
+      </c>
+      <c r="G360" s="45" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H360" s="45" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J360" s="45">
+        <v>-31</v>
+      </c>
+      <c r="K360" s="45">
+        <v>0</v>
+      </c>
+      <c r="L360" s="45">
+        <v>0</v>
+      </c>
+      <c r="M360" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="N360" s="45">
+        <v>19800</v>
+      </c>
+      <c r="O360" s="45" t="s">
+        <v>1311</v>
+      </c>
+      <c r="P360" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="U360" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="V360" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="W360" s="45">
+        <v>1597707000</v>
+      </c>
+      <c r="X360" s="45">
+        <v>1598284799</v>
+      </c>
+      <c r="Y360" s="45">
+        <v>40</v>
+      </c>
+      <c r="AF360" s="45">
+        <v>1</v>
+      </c>
+      <c r="AG360" s="45">
+        <v>1</v>
+      </c>
+      <c r="AJ360" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK360" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:37" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="45">
+        <v>360</v>
+      </c>
+      <c r="B361" s="45">
+        <v>10277</v>
+      </c>
+      <c r="F361" s="45">
+        <v>1</v>
+      </c>
+      <c r="G361" s="45" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H361" s="45" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J361" s="45">
+        <v>-31</v>
+      </c>
+      <c r="K361" s="45">
+        <v>0</v>
+      </c>
+      <c r="L361" s="45">
+        <v>0</v>
+      </c>
+      <c r="M361" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="N361" s="45">
+        <v>49800</v>
+      </c>
+      <c r="O361" s="45" t="s">
+        <v>1312</v>
+      </c>
+      <c r="P361" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="U361" s="45" t="s">
+        <v>554</v>
+      </c>
+      <c r="V361" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="W361" s="45">
+        <v>1597707000</v>
+      </c>
+      <c r="X361" s="45">
+        <v>1598284799</v>
+      </c>
+      <c r="Y361" s="45">
+        <v>40</v>
+      </c>
+      <c r="AF361" s="45">
+        <v>1</v>
+      </c>
+      <c r="AG361" s="45">
+        <v>1</v>
+      </c>
+      <c r="AJ361" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK361" s="45">
         <v>1</v>
       </c>
     </row>
@@ -30393,10 +31089,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -30955,6 +31651,48 @@
         <v>86400</v>
       </c>
       <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="12">
+        <v>38</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C39" s="12">
+        <v>1</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="12">
+        <v>39</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C40" s="12">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="12">
+        <v>40</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C41" s="12">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -5736,18 +5736,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_jrth_1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_jrth_2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"prop_jrth_3",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>1,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5792,24 +5780,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"prop_jrth_4",</t>
-  </si>
-  <si>
-    <t>"prop_jrth_5",</t>
-  </si>
-  <si>
-    <t>"prop_jrth_6",</t>
-  </si>
-  <si>
-    <t>"prop_jrth_7",</t>
-  </si>
-  <si>
-    <t>"prop_jrth_8",</t>
-  </si>
-  <si>
-    <t>"prop_jrth_9",</t>
-  </si>
-  <si>
     <t>{type="permission_class",class_value = "jrth_025_v4" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5820,6 +5790,35 @@
   <si>
     <t>{type="permission_class",class_value = "jrth_025_nor" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_cjlb_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_cjlb_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_cjlb_3",</t>
+  </si>
+  <si>
+    <t>"prop_cjlb_4",</t>
+  </si>
+  <si>
+    <t>"prop_cjlb_5",</t>
+  </si>
+  <si>
+    <t>"prop_cjlb_6",</t>
+  </si>
+  <si>
+    <t>"prop_cjlb_7",</t>
+  </si>
+  <si>
+    <t>"prop_cjlb_8",</t>
+  </si>
+  <si>
+    <t>"prop_cjlb_9",</t>
   </si>
 </sst>
 </file>
@@ -8514,11 +8513,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL361"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H342" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="L342" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B353" sqref="B353:B361"/>
+      <selection pane="bottomRight" activeCell="O364" sqref="O364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -30461,7 +30460,7 @@
         <v>1263</v>
       </c>
       <c r="U352" s="5" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="V352" s="5">
         <v>9999999</v>
@@ -30520,19 +30519,19 @@
         <v>0</v>
       </c>
       <c r="M353" s="45" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="N353" s="45">
         <v>600</v>
       </c>
       <c r="O353" s="45" t="s">
+        <v>1307</v>
+      </c>
+      <c r="P353" s="45" t="s">
         <v>1293</v>
       </c>
-      <c r="P353" s="45" t="s">
+      <c r="U353" s="45" t="s">
         <v>1296</v>
-      </c>
-      <c r="U353" s="45" t="s">
-        <v>1299</v>
       </c>
       <c r="V353" s="45">
         <v>9999999</v>
@@ -30591,13 +30590,13 @@
         <v>1200</v>
       </c>
       <c r="O354" s="45" t="s">
+        <v>1308</v>
+      </c>
+      <c r="P354" s="45" t="s">
         <v>1294</v>
       </c>
-      <c r="P354" s="45" t="s">
-        <v>1297</v>
-      </c>
       <c r="U354" s="45" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="V354" s="45">
         <v>9999999</v>
@@ -30656,13 +30655,13 @@
         <v>1800</v>
       </c>
       <c r="O355" s="45" t="s">
-        <v>1295</v>
+        <v>1309</v>
       </c>
       <c r="P355" s="45" t="s">
+        <v>1293</v>
+      </c>
+      <c r="U355" s="45" t="s">
         <v>1296</v>
-      </c>
-      <c r="U355" s="45" t="s">
-        <v>1299</v>
       </c>
       <c r="V355" s="45">
         <v>9999999</v>
@@ -30700,7 +30699,7 @@
         <v>1</v>
       </c>
       <c r="G356" s="45" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="H356" s="45" t="s">
         <v>1292</v>
@@ -30721,7 +30720,7 @@
         <v>4800</v>
       </c>
       <c r="O356" s="45" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="P356" s="45" t="s">
         <v>284</v>
@@ -30765,7 +30764,7 @@
         <v>1</v>
       </c>
       <c r="G357" s="45" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="H357" s="45" t="s">
         <v>1292</v>
@@ -30786,7 +30785,7 @@
         <v>9800</v>
       </c>
       <c r="O357" s="45" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="P357" s="45" t="s">
         <v>284</v>
@@ -30830,7 +30829,7 @@
         <v>1</v>
       </c>
       <c r="G358" s="45" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="H358" s="45" t="s">
         <v>1292</v>
@@ -30851,7 +30850,7 @@
         <v>19800</v>
       </c>
       <c r="O358" s="45" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="P358" s="45" t="s">
         <v>284</v>
@@ -30895,7 +30894,7 @@
         <v>1</v>
       </c>
       <c r="G359" s="45" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="H359" s="45" t="s">
         <v>1292</v>
@@ -30916,7 +30915,7 @@
         <v>9800</v>
       </c>
       <c r="O359" s="45" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="P359" s="45" t="s">
         <v>284</v>
@@ -30960,7 +30959,7 @@
         <v>1</v>
       </c>
       <c r="G360" s="45" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="H360" s="45" t="s">
         <v>1292</v>
@@ -30981,7 +30980,7 @@
         <v>19800</v>
       </c>
       <c r="O360" s="45" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="P360" s="45" t="s">
         <v>284</v>
@@ -31025,7 +31024,7 @@
         <v>1</v>
       </c>
       <c r="G361" s="45" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="H361" s="45" t="s">
         <v>1292</v>
@@ -31046,7 +31045,7 @@
         <v>49800</v>
       </c>
       <c r="O361" s="45" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="P361" s="45" t="s">
         <v>284</v>
@@ -31091,7 +31090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -31657,7 +31656,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1315</v>
+        <v>1306</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -31671,7 +31670,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -31685,7 +31684,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1314</v>
+        <v>1305</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5748,10 +5748,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>白银宝箱（V4-V7）</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5819,6 +5815,9 @@
   </si>
   <si>
     <t>"prop_cjlb_9",</t>
+  </si>
+  <si>
+    <t>86400,3,0</t>
   </si>
 </sst>
 </file>
@@ -8514,10 +8513,10 @@
   <dimension ref="A1:AL361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="L342" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="S342" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O364" sqref="O364"/>
+      <selection pane="bottomRight" activeCell="U365" sqref="U365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -30519,19 +30518,19 @@
         <v>0</v>
       </c>
       <c r="M353" s="45" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="N353" s="45">
         <v>600</v>
       </c>
       <c r="O353" s="45" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="P353" s="45" t="s">
         <v>1293</v>
       </c>
       <c r="U353" s="45" t="s">
-        <v>1296</v>
+        <v>565</v>
       </c>
       <c r="V353" s="45">
         <v>9999999</v>
@@ -30590,13 +30589,13 @@
         <v>1200</v>
       </c>
       <c r="O354" s="45" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="P354" s="45" t="s">
         <v>1294</v>
       </c>
       <c r="U354" s="45" t="s">
-        <v>1296</v>
+        <v>565</v>
       </c>
       <c r="V354" s="45">
         <v>9999999</v>
@@ -30655,13 +30654,13 @@
         <v>1800</v>
       </c>
       <c r="O355" s="45" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="P355" s="45" t="s">
         <v>1293</v>
       </c>
       <c r="U355" s="45" t="s">
-        <v>1296</v>
+        <v>1315</v>
       </c>
       <c r="V355" s="45">
         <v>9999999</v>
@@ -30699,7 +30698,7 @@
         <v>1</v>
       </c>
       <c r="G356" s="45" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="H356" s="45" t="s">
         <v>1292</v>
@@ -30720,13 +30719,13 @@
         <v>4800</v>
       </c>
       <c r="O356" s="45" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="P356" s="45" t="s">
         <v>284</v>
       </c>
       <c r="U356" s="45" t="s">
-        <v>554</v>
+        <v>1315</v>
       </c>
       <c r="V356" s="45">
         <v>9999999</v>
@@ -30764,7 +30763,7 @@
         <v>1</v>
       </c>
       <c r="G357" s="45" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="H357" s="45" t="s">
         <v>1292</v>
@@ -30785,13 +30784,13 @@
         <v>9800</v>
       </c>
       <c r="O357" s="45" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="P357" s="45" t="s">
         <v>284</v>
       </c>
       <c r="U357" s="45" t="s">
-        <v>554</v>
+        <v>1315</v>
       </c>
       <c r="V357" s="45">
         <v>9999999</v>
@@ -30829,7 +30828,7 @@
         <v>1</v>
       </c>
       <c r="G358" s="45" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="H358" s="45" t="s">
         <v>1292</v>
@@ -30850,13 +30849,13 @@
         <v>19800</v>
       </c>
       <c r="O358" s="45" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="P358" s="45" t="s">
         <v>284</v>
       </c>
       <c r="U358" s="45" t="s">
-        <v>554</v>
+        <v>1315</v>
       </c>
       <c r="V358" s="45">
         <v>9999999</v>
@@ -30894,7 +30893,7 @@
         <v>1</v>
       </c>
       <c r="G359" s="45" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="H359" s="45" t="s">
         <v>1292</v>
@@ -30915,13 +30914,13 @@
         <v>9800</v>
       </c>
       <c r="O359" s="45" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="P359" s="45" t="s">
         <v>284</v>
       </c>
       <c r="U359" s="45" t="s">
-        <v>554</v>
+        <v>1315</v>
       </c>
       <c r="V359" s="45">
         <v>9999999</v>
@@ -30959,7 +30958,7 @@
         <v>1</v>
       </c>
       <c r="G360" s="45" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H360" s="45" t="s">
         <v>1292</v>
@@ -30980,13 +30979,13 @@
         <v>19800</v>
       </c>
       <c r="O360" s="45" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="P360" s="45" t="s">
         <v>284</v>
       </c>
       <c r="U360" s="45" t="s">
-        <v>554</v>
+        <v>1315</v>
       </c>
       <c r="V360" s="45">
         <v>9999999</v>
@@ -31024,7 +31023,7 @@
         <v>1</v>
       </c>
       <c r="G361" s="45" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H361" s="45" t="s">
         <v>1292</v>
@@ -31045,13 +31044,13 @@
         <v>49800</v>
       </c>
       <c r="O361" s="45" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="P361" s="45" t="s">
         <v>284</v>
       </c>
       <c r="U361" s="45" t="s">
-        <v>554</v>
+        <v>1315</v>
       </c>
       <c r="V361" s="45">
         <v>9999999</v>
@@ -31656,7 +31655,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -31670,7 +31669,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -31684,7 +31683,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3075" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="1325">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5818,6 +5818,42 @@
   </si>
   <si>
     <t>86400,3,0</t>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{16,20.100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{180,216,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{480,516,100},</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,2,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,2,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -8510,13 +8546,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL361"/>
+  <dimension ref="A1:AL364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="S342" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="L342" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U365" sqref="U365"/>
+      <selection pane="bottomRight" activeCell="O368" sqref="O368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -30557,7 +30593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:37" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:37" s="45" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="45">
         <v>353</v>
       </c>
@@ -30660,7 +30696,7 @@
         <v>1293</v>
       </c>
       <c r="U355" s="45" t="s">
-        <v>1315</v>
+        <v>1323</v>
       </c>
       <c r="V355" s="45">
         <v>9999999</v>
@@ -30855,7 +30891,7 @@
         <v>284</v>
       </c>
       <c r="U358" s="45" t="s">
-        <v>1315</v>
+        <v>1323</v>
       </c>
       <c r="V358" s="45">
         <v>9999999</v>
@@ -31050,7 +31086,7 @@
         <v>284</v>
       </c>
       <c r="U361" s="45" t="s">
-        <v>1315</v>
+        <v>1324</v>
       </c>
       <c r="V361" s="45">
         <v>9999999</v>
@@ -31074,6 +31110,219 @@
         <v>1</v>
       </c>
       <c r="AK361" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:37" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A362" s="45">
+        <v>361</v>
+      </c>
+      <c r="B362" s="45">
+        <v>10278</v>
+      </c>
+      <c r="F362" s="45">
+        <v>1</v>
+      </c>
+      <c r="G362" s="45" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H362" s="45" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J362" s="45">
+        <v>-31</v>
+      </c>
+      <c r="K362" s="45">
+        <v>0</v>
+      </c>
+      <c r="L362" s="45">
+        <v>0</v>
+      </c>
+      <c r="M362" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="N362" s="45">
+        <v>1800</v>
+      </c>
+      <c r="O362" s="45" t="s">
+        <v>1308</v>
+      </c>
+      <c r="P362" s="45" t="s">
+        <v>1293</v>
+      </c>
+      <c r="U362" s="45" t="s">
+        <v>1322</v>
+      </c>
+      <c r="V362" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="W362" s="45">
+        <v>1597707000</v>
+      </c>
+      <c r="X362" s="45">
+        <v>1598284799</v>
+      </c>
+      <c r="Y362" s="45">
+        <v>38</v>
+      </c>
+      <c r="Z362" s="45" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AA362" s="45" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AF362" s="45">
+        <v>1</v>
+      </c>
+      <c r="AG362" s="45">
+        <v>1</v>
+      </c>
+      <c r="AJ362" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK362" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:37" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A363" s="45">
+        <v>362</v>
+      </c>
+      <c r="B363" s="45">
+        <v>10279</v>
+      </c>
+      <c r="F363" s="45">
+        <v>1</v>
+      </c>
+      <c r="G363" s="45" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H363" s="45" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J363" s="45">
+        <v>-31</v>
+      </c>
+      <c r="K363" s="45">
+        <v>0</v>
+      </c>
+      <c r="L363" s="45">
+        <v>0</v>
+      </c>
+      <c r="M363" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="N363" s="45">
+        <v>19800</v>
+      </c>
+      <c r="O363" s="45" t="s">
+        <v>1311</v>
+      </c>
+      <c r="P363" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="U363" s="45" t="s">
+        <v>1321</v>
+      </c>
+      <c r="V363" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="W363" s="45">
+        <v>1597707000</v>
+      </c>
+      <c r="X363" s="45">
+        <v>1598284799</v>
+      </c>
+      <c r="Y363" s="45">
+        <v>39</v>
+      </c>
+      <c r="Z363" s="45" t="s">
+        <v>1316</v>
+      </c>
+      <c r="AA363" s="45" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AF363" s="45">
+        <v>1</v>
+      </c>
+      <c r="AG363" s="45">
+        <v>1</v>
+      </c>
+      <c r="AJ363" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK363" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:37" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="45">
+        <v>363</v>
+      </c>
+      <c r="B364" s="45">
+        <v>10280</v>
+      </c>
+      <c r="F364" s="45">
+        <v>1</v>
+      </c>
+      <c r="G364" s="45" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H364" s="45" t="s">
+        <v>1292</v>
+      </c>
+      <c r="J364" s="45">
+        <v>-31</v>
+      </c>
+      <c r="K364" s="45">
+        <v>0</v>
+      </c>
+      <c r="L364" s="45">
+        <v>0</v>
+      </c>
+      <c r="M364" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="N364" s="45">
+        <v>49800</v>
+      </c>
+      <c r="O364" s="45" t="s">
+        <v>1314</v>
+      </c>
+      <c r="P364" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="U364" s="45" t="s">
+        <v>1321</v>
+      </c>
+      <c r="V364" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="W364" s="45">
+        <v>1597707000</v>
+      </c>
+      <c r="X364" s="45">
+        <v>1598284799</v>
+      </c>
+      <c r="Y364" s="45">
+        <v>40</v>
+      </c>
+      <c r="Z364" s="45" t="s">
+        <v>1316</v>
+      </c>
+      <c r="AA364" s="45" t="s">
+        <v>1320</v>
+      </c>
+      <c r="AF364" s="45">
+        <v>1</v>
+      </c>
+      <c r="AG364" s="45">
+        <v>1</v>
+      </c>
+      <c r="AJ364" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK364" s="45">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5828,10 +5828,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{16,20.100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{180,216,100},</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5853,6 +5849,10 @@
   </si>
   <si>
     <t>86400,2,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{16,20,100},</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8549,10 +8549,10 @@
   <dimension ref="A1:AL364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="L342" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AA342" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O368" sqref="O368"/>
+      <selection pane="bottomRight" activeCell="AA369" sqref="AA369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -30696,7 +30696,7 @@
         <v>1293</v>
       </c>
       <c r="U355" s="45" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="V355" s="45">
         <v>9999999</v>
@@ -30891,7 +30891,7 @@
         <v>284</v>
       </c>
       <c r="U358" s="45" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="V358" s="45">
         <v>9999999</v>
@@ -31086,7 +31086,7 @@
         <v>284</v>
       </c>
       <c r="U361" s="45" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="V361" s="45">
         <v>9999999</v>
@@ -31151,7 +31151,7 @@
         <v>1293</v>
       </c>
       <c r="U362" s="45" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="V362" s="45">
         <v>9999999</v>
@@ -31169,7 +31169,7 @@
         <v>1317</v>
       </c>
       <c r="AA362" s="45" t="s">
-        <v>1318</v>
+        <v>1324</v>
       </c>
       <c r="AF362" s="45">
         <v>1</v>
@@ -31222,7 +31222,7 @@
         <v>284</v>
       </c>
       <c r="U363" s="45" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="V363" s="45">
         <v>9999999</v>
@@ -31240,7 +31240,7 @@
         <v>1316</v>
       </c>
       <c r="AA363" s="45" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="AF363" s="45">
         <v>1</v>
@@ -31293,7 +31293,7 @@
         <v>284</v>
       </c>
       <c r="U364" s="45" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="V364" s="45">
         <v>9999999</v>
@@ -31311,7 +31311,7 @@
         <v>1316</v>
       </c>
       <c r="AA364" s="45" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="AF364" s="45">
         <v>1</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5930,10 +5930,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","fish_coin","prop_love_heart",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>131400000,3000000,520,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5952,6 +5948,9 @@
   <si>
     <t>5200000,100000,28,</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_fish_drop_act_0",</t>
   </si>
 </sst>
 </file>
@@ -8647,10 +8646,10 @@
   <dimension ref="A1:AM369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H364" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="K364" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I376" sqref="I376"/>
+      <selection pane="bottomRight" activeCell="O380" sqref="O380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -31632,10 +31631,10 @@
         <v>131400</v>
       </c>
       <c r="P365" s="45" t="s">
+        <v>1349</v>
+      </c>
+      <c r="Q365" s="45" t="s">
         <v>1344</v>
-      </c>
-      <c r="Q365" s="45" t="s">
-        <v>1345</v>
       </c>
       <c r="V365" s="45" t="s">
         <v>598</v>
@@ -31697,10 +31696,10 @@
         <v>52000</v>
       </c>
       <c r="P366" s="45" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="Q366" s="45" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V366" s="45" t="s">
         <v>598</v>
@@ -31762,10 +31761,10 @@
         <v>25800</v>
       </c>
       <c r="P367" s="45" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="Q367" s="45" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V367" s="45" t="s">
         <v>598</v>
@@ -31827,10 +31826,10 @@
         <v>14700</v>
       </c>
       <c r="P368" s="45" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="Q368" s="45" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="V368" s="45" t="s">
         <v>598</v>
@@ -31892,10 +31891,10 @@
         <v>5200</v>
       </c>
       <c r="P369" s="45" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="Q369" s="45" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="V369" s="45" t="s">
         <v>598</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5910,47 +5910,48 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"1亿3140万金币","300万鱼币","爱心*520",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"5200万金币","100万鱼币","爱心*258",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2580万金币","50万鱼币","爱心*147",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1470万金币","30万鱼币","爱心*52",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"520万金币","10万鱼币","爱心*28",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>131400000,3000000,520,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>52000000,1000000,258,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>25800000,500000,147,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>14700000,300000,52,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5200000,100000,28,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","fish_coin","prop_fish_drop_act_0",</t>
+    <t>"1亿3140万金币","300万鱼币","爱心*520","排行榜积分*520",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5200万金币","100万鱼币","爱心*258","排行榜积分*258",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2580万金币","50万鱼币","爱心*147","排行榜积分*147",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1470万金币","30万鱼币","爱心*52","排行榜积分*52",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"520万金币","10万鱼币","爱心*28","排行榜积分*28",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_fish_drop_act_0","_common_rank_true_love_026_rank",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>131400000,3000000,520,520,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>52000000,1000000,258,258,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>25800000,500000,147,147,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>14700000,300000,52,52,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5200000,100000,28,28,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6113,7 +6114,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6250,6 +6251,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8646,10 +8665,10 @@
   <dimension ref="A1:AM369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="K364" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="N358" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O380" sqref="O380"/>
+      <selection pane="bottomRight" activeCell="Q375" sqref="Q375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -8668,8 +8687,8 @@
     <col min="12" max="13" width="14.75" style="6" customWidth="1"/>
     <col min="14" max="14" width="10.5" style="6" customWidth="1"/>
     <col min="15" max="15" width="13.5" style="6" customWidth="1"/>
-    <col min="16" max="16" width="56.875" style="6" customWidth="1"/>
-    <col min="17" max="17" width="30.125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="82.875" style="6" customWidth="1"/>
+    <col min="17" max="17" width="30.125" style="51" customWidth="1"/>
     <col min="18" max="18" width="40.5" style="6" customWidth="1"/>
     <col min="19" max="19" width="46" style="6" customWidth="1"/>
     <col min="20" max="21" width="30.125" style="6" customWidth="1"/>
@@ -8740,7 +8759,7 @@
       <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="46" t="s">
         <v>21</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -8843,7 +8862,7 @@
       <c r="P2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="47" t="s">
         <v>115</v>
       </c>
       <c r="R2" s="7"/>
@@ -8901,7 +8920,7 @@
       <c r="P3" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="47" t="s">
         <v>117</v>
       </c>
       <c r="R3" s="7"/>
@@ -8959,7 +8978,7 @@
       <c r="P4" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="47" t="s">
         <v>119</v>
       </c>
       <c r="R4" s="7"/>
@@ -9022,7 +9041,7 @@
       <c r="P5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="47" t="s">
         <v>708</v>
       </c>
       <c r="R5" s="7"/>
@@ -9085,7 +9104,7 @@
       <c r="P6" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="10" t="s">
         <v>125</v>
       </c>
       <c r="V6" s="5" t="s">
@@ -9140,7 +9159,7 @@
       <c r="P7" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="47" t="s">
         <v>128</v>
       </c>
       <c r="R7" s="7"/>
@@ -9200,7 +9219,7 @@
       <c r="P8" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="10" t="s">
         <v>709</v>
       </c>
       <c r="V8" s="5" t="s">
@@ -9254,7 +9273,7 @@
       <c r="P9" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="10" t="s">
         <v>132</v>
       </c>
       <c r="V9" s="5" t="s">
@@ -9308,7 +9327,7 @@
       <c r="P10" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="10" t="s">
         <v>134</v>
       </c>
       <c r="V10" s="5" t="s">
@@ -9362,7 +9381,7 @@
       <c r="P11" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="10" t="s">
         <v>137</v>
       </c>
       <c r="V11" s="5" t="s">
@@ -9416,7 +9435,7 @@
       <c r="P12" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="10" t="s">
         <v>140</v>
       </c>
       <c r="V12" s="5" t="s">
@@ -9473,7 +9492,7 @@
       <c r="P13" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="10" t="s">
         <v>710</v>
       </c>
       <c r="V13" s="5" t="s">
@@ -9527,7 +9546,7 @@
       <c r="P14" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="10" t="s">
         <v>143</v>
       </c>
       <c r="V14" s="5" t="s">
@@ -9584,7 +9603,7 @@
       <c r="P15" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="10" t="s">
         <v>147</v>
       </c>
       <c r="V15" s="5" t="s">
@@ -9641,7 +9660,7 @@
       <c r="P16" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="10" t="s">
         <v>147</v>
       </c>
       <c r="V16" s="5" t="s">
@@ -9695,7 +9714,7 @@
       <c r="P17" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q17" s="10" t="s">
         <v>151</v>
       </c>
       <c r="V17" s="5" t="s">
@@ -9752,7 +9771,7 @@
       <c r="P18" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="Q18" s="10" t="s">
         <v>155</v>
       </c>
       <c r="V18" s="5" t="s">
@@ -9812,7 +9831,7 @@
       <c r="P19" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="Q19" s="10" t="s">
         <v>158</v>
       </c>
       <c r="V19" s="5" t="s">
@@ -9869,7 +9888,7 @@
       <c r="P20" s="5" t="s">
         <v>1092</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="Q20" s="10" t="s">
         <v>711</v>
       </c>
       <c r="V20" s="5" t="s">
@@ -9926,7 +9945,7 @@
       <c r="P21" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="Q21" s="10" t="s">
         <v>712</v>
       </c>
       <c r="V21" s="5" t="s">
@@ -9986,7 +10005,7 @@
       <c r="P22" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="Q22" s="10" t="s">
         <v>713</v>
       </c>
       <c r="V22" s="5" t="s">
@@ -10046,7 +10065,7 @@
       <c r="P23" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="Q23" s="5" t="s">
+      <c r="Q23" s="10" t="s">
         <v>162</v>
       </c>
       <c r="V23" s="5" t="s">
@@ -10103,7 +10122,7 @@
       <c r="P24" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="Q24" s="5" t="s">
+      <c r="Q24" s="10" t="s">
         <v>162</v>
       </c>
       <c r="V24" s="5" t="s">
@@ -10160,7 +10179,7 @@
       <c r="P25" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="Q25" s="5" t="s">
+      <c r="Q25" s="10" t="s">
         <v>158</v>
       </c>
       <c r="V25" s="5" t="s">
@@ -10214,7 +10233,7 @@
       <c r="P26" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q26" s="5" t="s">
+      <c r="Q26" s="10" t="s">
         <v>714</v>
       </c>
       <c r="V26" s="5" t="s">
@@ -10268,7 +10287,7 @@
       <c r="P27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q27" s="5" t="s">
+      <c r="Q27" s="10" t="s">
         <v>715</v>
       </c>
       <c r="V27" s="5" t="s">
@@ -10322,7 +10341,7 @@
       <c r="P28" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q28" s="5" t="s">
+      <c r="Q28" s="10" t="s">
         <v>715</v>
       </c>
       <c r="V28" s="5" t="s">
@@ -10376,7 +10395,7 @@
       <c r="P29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q29" s="5" t="s">
+      <c r="Q29" s="10" t="s">
         <v>716</v>
       </c>
       <c r="V29" s="5" t="s">
@@ -10430,7 +10449,7 @@
       <c r="P30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q30" s="5" t="s">
+      <c r="Q30" s="10" t="s">
         <v>716</v>
       </c>
       <c r="V30" s="5" t="s">
@@ -10484,7 +10503,7 @@
       <c r="P31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q31" s="5" t="s">
+      <c r="Q31" s="10" t="s">
         <v>717</v>
       </c>
       <c r="V31" s="5" t="s">
@@ -10538,7 +10557,7 @@
       <c r="P32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q32" s="5" t="s">
+      <c r="Q32" s="10" t="s">
         <v>718</v>
       </c>
       <c r="V32" s="5" t="s">
@@ -10592,7 +10611,7 @@
       <c r="P33" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q33" s="5" t="s">
+      <c r="Q33" s="10" t="s">
         <v>715</v>
       </c>
       <c r="V33" s="5" t="s">
@@ -10646,7 +10665,7 @@
       <c r="P34" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q34" s="5" t="s">
+      <c r="Q34" s="10" t="s">
         <v>715</v>
       </c>
       <c r="V34" s="5" t="s">
@@ -10700,7 +10719,7 @@
       <c r="P35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q35" s="5" t="s">
+      <c r="Q35" s="10" t="s">
         <v>715</v>
       </c>
       <c r="V35" s="5" t="s">
@@ -10754,7 +10773,7 @@
       <c r="P36" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q36" s="5" t="s">
+      <c r="Q36" s="10" t="s">
         <v>715</v>
       </c>
       <c r="V36" s="5" t="s">
@@ -10808,7 +10827,7 @@
       <c r="P37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q37" s="5" t="s">
+      <c r="Q37" s="10" t="s">
         <v>714</v>
       </c>
       <c r="V37" s="5" t="s">
@@ -10862,7 +10881,7 @@
       <c r="P38" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q38" s="5" t="s">
+      <c r="Q38" s="10" t="s">
         <v>719</v>
       </c>
       <c r="V38" s="5" t="s">
@@ -10916,7 +10935,7 @@
       <c r="P39" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q39" s="5" t="s">
+      <c r="Q39" s="10" t="s">
         <v>717</v>
       </c>
       <c r="V39" s="5" t="s">
@@ -10970,7 +10989,7 @@
       <c r="P40" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q40" s="5" t="s">
+      <c r="Q40" s="10" t="s">
         <v>717</v>
       </c>
       <c r="V40" s="5" t="s">
@@ -11024,7 +11043,7 @@
       <c r="P41" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q41" s="5" t="s">
+      <c r="Q41" s="10" t="s">
         <v>720</v>
       </c>
       <c r="V41" s="5" t="s">
@@ -11078,7 +11097,7 @@
       <c r="P42" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q42" s="5" t="s">
+      <c r="Q42" s="10" t="s">
         <v>721</v>
       </c>
       <c r="V42" s="5" t="s">
@@ -11132,7 +11151,7 @@
       <c r="P43" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q43" s="5" t="s">
+      <c r="Q43" s="10" t="s">
         <v>722</v>
       </c>
       <c r="V43" s="5" t="s">
@@ -11186,7 +11205,7 @@
       <c r="P44" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q44" s="5" t="s">
+      <c r="Q44" s="10" t="s">
         <v>723</v>
       </c>
       <c r="V44" s="5" t="s">
@@ -11240,7 +11259,7 @@
       <c r="P45" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q45" s="5" t="s">
+      <c r="Q45" s="10" t="s">
         <v>723</v>
       </c>
       <c r="V45" s="5" t="s">
@@ -11294,7 +11313,7 @@
       <c r="P46" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q46" s="5" t="s">
+      <c r="Q46" s="10" t="s">
         <v>723</v>
       </c>
       <c r="V46" s="5" t="s">
@@ -11348,7 +11367,7 @@
       <c r="P47" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q47" s="5" t="s">
+      <c r="Q47" s="10" t="s">
         <v>723</v>
       </c>
       <c r="V47" s="5" t="s">
@@ -11402,7 +11421,7 @@
       <c r="P48" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q48" s="5" t="s">
+      <c r="Q48" s="10" t="s">
         <v>723</v>
       </c>
       <c r="V48" s="5" t="s">
@@ -11456,7 +11475,7 @@
       <c r="P49" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q49" s="5" t="s">
+      <c r="Q49" s="10" t="s">
         <v>724</v>
       </c>
       <c r="V49" s="5" t="s">
@@ -11510,7 +11529,7 @@
       <c r="P50" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q50" s="5" t="s">
+      <c r="Q50" s="10" t="s">
         <v>725</v>
       </c>
       <c r="V50" s="5" t="s">
@@ -11566,7 +11585,7 @@
       <c r="P51" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="Q51" s="14" t="s">
+      <c r="Q51" s="47" t="s">
         <v>726</v>
       </c>
       <c r="R51" s="7"/>
@@ -11625,7 +11644,7 @@
       <c r="P52" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="Q52" s="14" t="s">
+      <c r="Q52" s="47" t="s">
         <v>727</v>
       </c>
       <c r="R52" s="7"/>
@@ -11684,7 +11703,7 @@
       <c r="P53" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="Q53" s="14" t="s">
+      <c r="Q53" s="47" t="s">
         <v>727</v>
       </c>
       <c r="R53" s="7"/>
@@ -11744,7 +11763,7 @@
       <c r="P54" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="Q54" s="5" t="s">
+      <c r="Q54" s="10" t="s">
         <v>1094</v>
       </c>
       <c r="V54" s="5" t="s">
@@ -11798,7 +11817,7 @@
       <c r="P55" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="Q55" s="5" t="s">
+      <c r="Q55" s="10" t="s">
         <v>728</v>
       </c>
       <c r="V55" s="5" t="s">
@@ -11855,7 +11874,7 @@
       <c r="P56" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="Q56" s="22" t="s">
+      <c r="Q56" s="48" t="s">
         <v>729</v>
       </c>
       <c r="V56" s="22" t="s">
@@ -11912,7 +11931,7 @@
       <c r="P57" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="Q57" s="5" t="s">
+      <c r="Q57" s="10" t="s">
         <v>730</v>
       </c>
       <c r="V57" s="5" t="s">
@@ -11966,7 +11985,7 @@
       <c r="P58" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q58" s="5" t="s">
+      <c r="Q58" s="10" t="s">
         <v>715</v>
       </c>
       <c r="V58" s="5" t="s">
@@ -12020,7 +12039,7 @@
       <c r="P59" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q59" s="5" t="s">
+      <c r="Q59" s="10" t="s">
         <v>715</v>
       </c>
       <c r="V59" s="5" t="s">
@@ -12074,7 +12093,7 @@
       <c r="P60" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q60" s="5" t="s">
+      <c r="Q60" s="10" t="s">
         <v>715</v>
       </c>
       <c r="V60" s="5" t="s">
@@ -12128,7 +12147,7 @@
       <c r="P61" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q61" s="5" t="s">
+      <c r="Q61" s="10" t="s">
         <v>715</v>
       </c>
       <c r="V61" s="5" t="s">
@@ -12182,7 +12201,7 @@
       <c r="P62" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q62" s="5" t="s">
+      <c r="Q62" s="10" t="s">
         <v>714</v>
       </c>
       <c r="V62" s="5" t="s">
@@ -12236,7 +12255,7 @@
       <c r="P63" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q63" s="5" t="s">
+      <c r="Q63" s="10" t="s">
         <v>731</v>
       </c>
       <c r="V63" s="5" t="s">
@@ -12290,7 +12309,7 @@
       <c r="P64" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q64" s="5" t="s">
+      <c r="Q64" s="10" t="s">
         <v>732</v>
       </c>
       <c r="V64" s="5" t="s">
@@ -12344,7 +12363,7 @@
       <c r="P65" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q65" s="5" t="s">
+      <c r="Q65" s="10" t="s">
         <v>717</v>
       </c>
       <c r="V65" s="5" t="s">
@@ -12400,6 +12419,7 @@
       <c r="O66" s="5">
         <v>600</v>
       </c>
+      <c r="Q66" s="10"/>
       <c r="V66" s="5" t="s">
         <v>552</v>
       </c>
@@ -12462,7 +12482,7 @@
       <c r="P67" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q67" s="5" t="s">
+      <c r="Q67" s="10" t="s">
         <v>735</v>
       </c>
       <c r="V67" s="5" t="s">
@@ -12518,7 +12538,7 @@
       <c r="P68" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q68" s="5" t="s">
+      <c r="Q68" s="10" t="s">
         <v>736</v>
       </c>
       <c r="V68" s="5" t="s">
@@ -12574,7 +12594,7 @@
       <c r="P69" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q69" s="5" t="s">
+      <c r="Q69" s="10" t="s">
         <v>737</v>
       </c>
       <c r="V69" s="5" t="s">
@@ -12630,7 +12650,7 @@
       <c r="P70" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q70" s="5" t="s">
+      <c r="Q70" s="10" t="s">
         <v>738</v>
       </c>
       <c r="V70" s="5" t="s">
@@ -12686,7 +12706,7 @@
       <c r="P71" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q71" s="5" t="s">
+      <c r="Q71" s="10" t="s">
         <v>739</v>
       </c>
       <c r="V71" s="5" t="s">
@@ -12742,6 +12762,7 @@
       <c r="O72" s="5">
         <v>600</v>
       </c>
+      <c r="Q72" s="10"/>
       <c r="V72" s="5" t="s">
         <v>552</v>
       </c>
@@ -12807,7 +12828,7 @@
       <c r="P73" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q73" s="5" t="s">
+      <c r="Q73" s="10" t="s">
         <v>236</v>
       </c>
       <c r="V73" s="5" t="s">
@@ -12866,7 +12887,7 @@
       <c r="P74" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q74" s="5" t="s">
+      <c r="Q74" s="10" t="s">
         <v>238</v>
       </c>
       <c r="V74" s="5" t="s">
@@ -12925,7 +12946,7 @@
       <c r="P75" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q75" s="5" t="s">
+      <c r="Q75" s="10" t="s">
         <v>240</v>
       </c>
       <c r="V75" s="5" t="s">
@@ -12984,7 +13005,7 @@
       <c r="P76" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q76" s="5" t="s">
+      <c r="Q76" s="10" t="s">
         <v>247</v>
       </c>
       <c r="V76" s="5" t="s">
@@ -13040,7 +13061,7 @@
       <c r="P77" s="19" t="s">
         <v>1081</v>
       </c>
-      <c r="Q77" s="19" t="s">
+      <c r="Q77" s="40" t="s">
         <v>1182</v>
       </c>
       <c r="V77" s="19" t="s">
@@ -13096,7 +13117,7 @@
       <c r="P78" s="19" t="s">
         <v>611</v>
       </c>
-      <c r="Q78" s="19" t="s">
+      <c r="Q78" s="40" t="s">
         <v>740</v>
       </c>
       <c r="V78" s="19" t="s">
@@ -13161,7 +13182,7 @@
       <c r="P79" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="Q79" s="5" t="s">
+      <c r="Q79" s="10" t="s">
         <v>741</v>
       </c>
       <c r="V79" s="5" t="s">
@@ -13226,7 +13247,7 @@
       <c r="P80" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="Q80" s="5" t="s">
+      <c r="Q80" s="10" t="s">
         <v>742</v>
       </c>
       <c r="V80" s="5" t="s">
@@ -13294,7 +13315,7 @@
       <c r="P81" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="Q81" s="19" t="s">
+      <c r="Q81" s="40" t="s">
         <v>743</v>
       </c>
       <c r="V81" s="19" t="s">
@@ -13356,7 +13377,7 @@
       <c r="P82" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="Q82" s="5" t="s">
+      <c r="Q82" s="10" t="s">
         <v>744</v>
       </c>
       <c r="V82" s="5" t="s">
@@ -13412,7 +13433,7 @@
       <c r="P83" s="5" t="s">
         <v>1206</v>
       </c>
-      <c r="Q83" s="5" t="s">
+      <c r="Q83" s="10" t="s">
         <v>745</v>
       </c>
       <c r="V83" s="5" t="s">
@@ -13468,7 +13489,7 @@
       <c r="P84" s="5" t="s">
         <v>1082</v>
       </c>
-      <c r="Q84" s="5" t="s">
+      <c r="Q84" s="10" t="s">
         <v>746</v>
       </c>
       <c r="V84" s="5" t="s">
@@ -13524,7 +13545,7 @@
       <c r="P85" s="5" t="s">
         <v>1207</v>
       </c>
-      <c r="Q85" s="5" t="s">
+      <c r="Q85" s="10" t="s">
         <v>1208</v>
       </c>
       <c r="V85" s="5" t="s">
@@ -13577,6 +13598,7 @@
       <c r="O86" s="5">
         <v>4800</v>
       </c>
+      <c r="Q86" s="10"/>
       <c r="V86" s="5" t="s">
         <v>631</v>
       </c>
@@ -13630,7 +13652,7 @@
       <c r="P87" s="5" t="s">
         <v>1207</v>
       </c>
-      <c r="Q87" s="5" t="s">
+      <c r="Q87" s="10" t="s">
         <v>1209</v>
       </c>
       <c r="V87" s="5" t="s">
@@ -13686,7 +13708,7 @@
       <c r="P88" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="Q88" s="5" t="s">
+      <c r="Q88" s="10" t="s">
         <v>747</v>
       </c>
       <c r="V88" s="5" t="s">
@@ -13742,7 +13764,7 @@
       <c r="P89" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="Q89" s="5" t="s">
+      <c r="Q89" s="10" t="s">
         <v>748</v>
       </c>
       <c r="V89" s="5" t="s">
@@ -13798,7 +13820,7 @@
       <c r="P90" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="Q90" s="5" t="s">
+      <c r="Q90" s="10" t="s">
         <v>749</v>
       </c>
       <c r="V90" s="5" t="s">
@@ -13854,7 +13876,7 @@
       <c r="P91" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="Q91" s="5" t="s">
+      <c r="Q91" s="10" t="s">
         <v>226</v>
       </c>
       <c r="V91" s="5" t="s">
@@ -13910,7 +13932,7 @@
       <c r="P92" s="5" t="s">
         <v>1082</v>
       </c>
-      <c r="Q92" s="5" t="s">
+      <c r="Q92" s="10" t="s">
         <v>750</v>
       </c>
       <c r="V92" s="5" t="s">
@@ -13966,7 +13988,7 @@
       <c r="P93" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="Q93" s="5" t="s">
+      <c r="Q93" s="10" t="s">
         <v>751</v>
       </c>
       <c r="V93" s="5" t="s">
@@ -14019,7 +14041,7 @@
       <c r="P94" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q94" s="5" t="s">
+      <c r="Q94" s="10" t="s">
         <v>752</v>
       </c>
       <c r="V94" s="5" t="s">
@@ -14075,7 +14097,7 @@
       <c r="P95" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="Q95" s="7" t="s">
+      <c r="Q95" s="10" t="s">
         <v>753</v>
       </c>
       <c r="R95" s="7"/>
@@ -14134,7 +14156,7 @@
       <c r="P96" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="Q96" s="5" t="s">
+      <c r="Q96" s="10" t="s">
         <v>260</v>
       </c>
       <c r="V96" s="5" t="s">
@@ -14190,7 +14212,7 @@
       <c r="P97" s="5" t="s">
         <v>1083</v>
       </c>
-      <c r="Q97" s="5" t="s">
+      <c r="Q97" s="10" t="s">
         <v>270</v>
       </c>
       <c r="S97" s="5" t="s">
@@ -14252,7 +14274,7 @@
       <c r="P98" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="Q98" s="5" t="s">
+      <c r="Q98" s="10" t="s">
         <v>273</v>
       </c>
       <c r="S98" s="5" t="s">
@@ -14314,7 +14336,7 @@
       <c r="P99" s="5" t="s">
         <v>1087</v>
       </c>
-      <c r="Q99" s="5" t="s">
+      <c r="Q99" s="10" t="s">
         <v>276</v>
       </c>
       <c r="S99" s="5" t="s">
@@ -14376,7 +14398,7 @@
       <c r="P100" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="Q100" s="19" t="s">
+      <c r="Q100" s="40" t="s">
         <v>754</v>
       </c>
       <c r="V100" s="19" t="s">
@@ -14439,7 +14461,7 @@
       <c r="P101" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="Q101" s="19" t="s">
+      <c r="Q101" s="40" t="s">
         <v>755</v>
       </c>
       <c r="V101" s="19" t="s">
@@ -14502,7 +14524,7 @@
       <c r="P102" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="Q102" s="19" t="s">
+      <c r="Q102" s="40" t="s">
         <v>756</v>
       </c>
       <c r="V102" s="19" t="s">
@@ -14565,7 +14587,7 @@
       <c r="P103" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="Q103" s="19" t="s">
+      <c r="Q103" s="40" t="s">
         <v>754</v>
       </c>
       <c r="V103" s="19" t="s">
@@ -14628,7 +14650,7 @@
       <c r="P104" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="Q104" s="19" t="s">
+      <c r="Q104" s="40" t="s">
         <v>757</v>
       </c>
       <c r="V104" s="19" t="s">
@@ -14691,7 +14713,7 @@
       <c r="P105" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="Q105" s="19" t="s">
+      <c r="Q105" s="40" t="s">
         <v>758</v>
       </c>
       <c r="V105" s="19" t="s">
@@ -14754,7 +14776,7 @@
       <c r="P106" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="Q106" s="19" t="s">
+      <c r="Q106" s="40" t="s">
         <v>754</v>
       </c>
       <c r="V106" s="19" t="s">
@@ -14817,7 +14839,7 @@
       <c r="P107" s="19" t="s">
         <v>592</v>
       </c>
-      <c r="Q107" s="19" t="s">
+      <c r="Q107" s="40" t="s">
         <v>759</v>
       </c>
       <c r="V107" s="19" t="s">
@@ -14880,7 +14902,7 @@
       <c r="P108" s="19" t="s">
         <v>593</v>
       </c>
-      <c r="Q108" s="19" t="s">
+      <c r="Q108" s="40" t="s">
         <v>760</v>
       </c>
       <c r="V108" s="19" t="s">
@@ -14943,7 +14965,7 @@
       <c r="P109" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="Q109" s="7" t="s">
+      <c r="Q109" s="10" t="s">
         <v>284</v>
       </c>
       <c r="R109" s="7"/>
@@ -15000,7 +15022,7 @@
       <c r="P110" s="5" t="s">
         <v>1089</v>
       </c>
-      <c r="Q110" s="5" t="s">
+      <c r="Q110" s="10" t="s">
         <v>286</v>
       </c>
       <c r="S110" s="5" t="s">
@@ -15062,7 +15084,7 @@
       <c r="P111" s="5" t="s">
         <v>1083</v>
       </c>
-      <c r="Q111" s="5" t="s">
+      <c r="Q111" s="10" t="s">
         <v>289</v>
       </c>
       <c r="S111" s="5" t="s">
@@ -15124,7 +15146,7 @@
       <c r="P112" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="Q112" s="5" t="s">
+      <c r="Q112" s="10" t="s">
         <v>292</v>
       </c>
       <c r="S112" s="5" t="s">
@@ -15186,7 +15208,7 @@
       <c r="P113" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="Q113" s="5" t="s">
+      <c r="Q113" s="10" t="s">
         <v>296</v>
       </c>
       <c r="V113" s="5" t="s">
@@ -15242,7 +15264,7 @@
       <c r="P114" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q114" s="5" t="s">
+      <c r="Q114" s="10" t="s">
         <v>298</v>
       </c>
       <c r="V114" s="5" t="s">
@@ -15298,7 +15320,7 @@
       <c r="P115" s="5" t="s">
         <v>1082</v>
       </c>
-      <c r="Q115" s="5" t="s">
+      <c r="Q115" s="10" t="s">
         <v>300</v>
       </c>
       <c r="V115" s="5" t="s">
@@ -15354,7 +15376,7 @@
       <c r="P116" s="5" t="s">
         <v>1082</v>
       </c>
-      <c r="Q116" s="5" t="s">
+      <c r="Q116" s="10" t="s">
         <v>302</v>
       </c>
       <c r="S116" s="5" t="s">
@@ -15416,7 +15438,7 @@
       <c r="P117" s="5" t="s">
         <v>1083</v>
       </c>
-      <c r="Q117" s="5" t="s">
+      <c r="Q117" s="10" t="s">
         <v>273</v>
       </c>
       <c r="S117" s="5" t="s">
@@ -15478,7 +15500,7 @@
       <c r="P118" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="Q118" s="5" t="s">
+      <c r="Q118" s="10" t="s">
         <v>306</v>
       </c>
       <c r="V118" s="5" t="s">
@@ -15534,7 +15556,7 @@
       <c r="P119" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="Q119" s="5" t="s">
+      <c r="Q119" s="10" t="s">
         <v>309</v>
       </c>
       <c r="V119" s="5" t="s">
@@ -15590,7 +15612,7 @@
       <c r="P120" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="Q120" s="5" t="s">
+      <c r="Q120" s="10" t="s">
         <v>312</v>
       </c>
       <c r="V120" s="5" t="s">
@@ -15646,7 +15668,7 @@
       <c r="P121" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="Q121" s="5" t="s">
+      <c r="Q121" s="10" t="s">
         <v>315</v>
       </c>
       <c r="R121" s="5" t="s">
@@ -15705,7 +15727,7 @@
       <c r="P122" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="Q122" s="5" t="s">
+      <c r="Q122" s="10" t="s">
         <v>318</v>
       </c>
       <c r="R122" s="5" t="s">
@@ -15764,7 +15786,7 @@
       <c r="P123" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="Q123" s="5" t="s">
+      <c r="Q123" s="10" t="s">
         <v>321</v>
       </c>
       <c r="R123" s="5" t="s">
@@ -15823,7 +15845,7 @@
       <c r="P124" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="Q124" s="5" t="s">
+      <c r="Q124" s="10" t="s">
         <v>315</v>
       </c>
       <c r="V124" s="5" t="s">
@@ -15879,7 +15901,7 @@
       <c r="P125" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="Q125" s="5" t="s">
+      <c r="Q125" s="10" t="s">
         <v>324</v>
       </c>
       <c r="V125" s="5" t="s">
@@ -15935,7 +15957,7 @@
       <c r="P126" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="Q126" s="5" t="s">
+      <c r="Q126" s="10" t="s">
         <v>326</v>
       </c>
       <c r="V126" s="5" t="s">
@@ -15991,7 +16013,7 @@
       <c r="P127" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="Q127" s="5" t="s">
+      <c r="Q127" s="10" t="s">
         <v>329</v>
       </c>
       <c r="S127" s="5" t="s">
@@ -16053,7 +16075,7 @@
       <c r="P128" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q128" s="5" t="s">
+      <c r="Q128" s="10" t="s">
         <v>761</v>
       </c>
       <c r="V128" s="5" t="s">
@@ -16109,7 +16131,7 @@
       <c r="P129" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q129" s="5" t="s">
+      <c r="Q129" s="10" t="s">
         <v>762</v>
       </c>
       <c r="V129" s="5" t="s">
@@ -16165,7 +16187,7 @@
       <c r="P130" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="Q130" s="5" t="s">
+      <c r="Q130" s="10" t="s">
         <v>335</v>
       </c>
       <c r="V130" s="5" t="s">
@@ -16227,7 +16249,7 @@
       <c r="P131" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="Q131" s="5" t="s">
+      <c r="Q131" s="10" t="s">
         <v>336</v>
       </c>
       <c r="V131" s="5" t="s">
@@ -16289,7 +16311,7 @@
       <c r="P132" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="Q132" s="5" t="s">
+      <c r="Q132" s="10" t="s">
         <v>338</v>
       </c>
       <c r="V132" s="5" t="s">
@@ -16351,7 +16373,7 @@
       <c r="P133" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="Q133" s="5" t="s">
+      <c r="Q133" s="10" t="s">
         <v>763</v>
       </c>
       <c r="V133" s="5" t="s">
@@ -16413,7 +16435,7 @@
       <c r="P134" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="Q134" s="5" t="s">
+      <c r="Q134" s="10" t="s">
         <v>764</v>
       </c>
       <c r="V134" s="5" t="s">
@@ -16475,7 +16497,7 @@
       <c r="P135" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="Q135" s="5" t="s">
+      <c r="Q135" s="10" t="s">
         <v>765</v>
       </c>
       <c r="V135" s="5" t="s">
@@ -16538,7 +16560,7 @@
       <c r="P136" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="Q136" s="5" t="s">
+      <c r="Q136" s="10" t="s">
         <v>766</v>
       </c>
       <c r="V136" s="5" t="s">
@@ -16598,7 +16620,7 @@
       <c r="P137" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="Q137" s="5" t="s">
+      <c r="Q137" s="10" t="s">
         <v>767</v>
       </c>
       <c r="V137" s="5" t="s">
@@ -16658,7 +16680,7 @@
       <c r="P138" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="Q138" s="5" t="s">
+      <c r="Q138" s="10" t="s">
         <v>768</v>
       </c>
       <c r="V138" s="5" t="s">
@@ -16718,7 +16740,7 @@
       <c r="P139" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="Q139" s="5" t="s">
+      <c r="Q139" s="10" t="s">
         <v>768</v>
       </c>
       <c r="V139" s="5" t="s">
@@ -16778,7 +16800,7 @@
       <c r="P140" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="Q140" s="5" t="s">
+      <c r="Q140" s="10" t="s">
         <v>769</v>
       </c>
       <c r="V140" s="5" t="s">
@@ -16838,7 +16860,7 @@
       <c r="P141" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="Q141" s="5" t="s">
+      <c r="Q141" s="10" t="s">
         <v>770</v>
       </c>
       <c r="V141" s="5" t="s">
@@ -16897,7 +16919,7 @@
       <c r="P142" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="Q142" s="5" t="s">
+      <c r="Q142" s="10" t="s">
         <v>335</v>
       </c>
       <c r="V142" s="5" t="s">
@@ -16959,7 +16981,7 @@
       <c r="P143" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="Q143" s="5" t="s">
+      <c r="Q143" s="10" t="s">
         <v>341</v>
       </c>
       <c r="V143" s="5" t="s">
@@ -17021,7 +17043,7 @@
       <c r="P144" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="Q144" s="5" t="s">
+      <c r="Q144" s="10" t="s">
         <v>346</v>
       </c>
       <c r="V144" s="5" t="s">
@@ -17087,7 +17109,7 @@
       <c r="P145" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="Q145" s="5" t="s">
+      <c r="Q145" s="10" t="s">
         <v>771</v>
       </c>
       <c r="S145" s="5" t="s">
@@ -17153,7 +17175,7 @@
       <c r="P146" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q146" s="5" t="s">
+      <c r="Q146" s="10" t="s">
         <v>772</v>
       </c>
       <c r="S146" s="5" t="s">
@@ -17219,7 +17241,7 @@
       <c r="P147" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q147" s="5" t="s">
+      <c r="Q147" s="10" t="s">
         <v>773</v>
       </c>
       <c r="S147" s="5" t="s">
@@ -17285,7 +17307,7 @@
       <c r="P148" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q148" s="5" t="s">
+      <c r="Q148" s="10" t="s">
         <v>774</v>
       </c>
       <c r="S148" s="5" t="s">
@@ -17351,7 +17373,7 @@
       <c r="P149" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q149" s="5" t="s">
+      <c r="Q149" s="10" t="s">
         <v>775</v>
       </c>
       <c r="S149" s="5" t="s">
@@ -17413,7 +17435,7 @@
       <c r="P150" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="Q150" s="5" t="s">
+      <c r="Q150" s="10" t="s">
         <v>335</v>
       </c>
       <c r="V150" s="5" t="s">
@@ -17475,7 +17497,7 @@
       <c r="P151" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="Q151" s="5" t="s">
+      <c r="Q151" s="10" t="s">
         <v>341</v>
       </c>
       <c r="V151" s="5" t="s">
@@ -17537,7 +17559,7 @@
       <c r="P152" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="Q152" s="5" t="s">
+      <c r="Q152" s="10" t="s">
         <v>346</v>
       </c>
       <c r="V152" s="5" t="s">
@@ -17599,7 +17621,7 @@
       <c r="P153" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="Q153" s="5" t="s">
+      <c r="Q153" s="10" t="s">
         <v>776</v>
       </c>
       <c r="S153" s="5" t="s">
@@ -17661,7 +17683,7 @@
       <c r="P154" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="Q154" s="5" t="s">
+      <c r="Q154" s="10" t="s">
         <v>777</v>
       </c>
       <c r="S154" s="5" t="s">
@@ -17723,7 +17745,7 @@
       <c r="P155" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="Q155" s="5" t="s">
+      <c r="Q155" s="10" t="s">
         <v>778</v>
       </c>
       <c r="S155" s="5" t="s">
@@ -17785,7 +17807,7 @@
       <c r="P156" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="Q156" s="5" t="s">
+      <c r="Q156" s="10" t="s">
         <v>779</v>
       </c>
       <c r="S156" s="5" t="s">
@@ -17847,7 +17869,7 @@
       <c r="P157" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="Q157" s="5" t="s">
+      <c r="Q157" s="10" t="s">
         <v>780</v>
       </c>
       <c r="S157" s="5" t="s">
@@ -17909,7 +17931,7 @@
       <c r="P158" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q158" s="5" t="s">
+      <c r="Q158" s="10" t="s">
         <v>361</v>
       </c>
       <c r="V158" s="5" t="s">
@@ -17971,7 +17993,7 @@
       <c r="P159" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q159" s="5" t="s">
+      <c r="Q159" s="10" t="s">
         <v>363</v>
       </c>
       <c r="V159" s="5" t="s">
@@ -18033,7 +18055,7 @@
       <c r="P160" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q160" s="5" t="s">
+      <c r="Q160" s="10" t="s">
         <v>365</v>
       </c>
       <c r="V160" s="5" t="s">
@@ -18095,7 +18117,7 @@
       <c r="P161" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q161" s="5" t="s">
+      <c r="Q161" s="10" t="s">
         <v>361</v>
       </c>
       <c r="V161" s="5" t="s">
@@ -18157,7 +18179,7 @@
       <c r="P162" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q162" s="5" t="s">
+      <c r="Q162" s="10" t="s">
         <v>363</v>
       </c>
       <c r="V162" s="5" t="s">
@@ -18219,7 +18241,7 @@
       <c r="P163" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q163" s="5" t="s">
+      <c r="Q163" s="10" t="s">
         <v>365</v>
       </c>
       <c r="V163" s="5" t="s">
@@ -18346,7 +18368,7 @@
       <c r="P165" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q165" s="5" t="s">
+      <c r="Q165" s="10" t="s">
         <v>361</v>
       </c>
       <c r="V165" s="5" t="s">
@@ -18408,7 +18430,7 @@
       <c r="P166" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q166" s="5" t="s">
+      <c r="Q166" s="10" t="s">
         <v>363</v>
       </c>
       <c r="V166" s="5" t="s">
@@ -18470,7 +18492,7 @@
       <c r="P167" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q167" s="5" t="s">
+      <c r="Q167" s="10" t="s">
         <v>365</v>
       </c>
       <c r="V167" s="5" t="s">
@@ -18532,7 +18554,7 @@
       <c r="P168" s="19" t="s">
         <v>1177</v>
       </c>
-      <c r="Q168" s="19" t="s">
+      <c r="Q168" s="40" t="s">
         <v>1178</v>
       </c>
       <c r="V168" s="19" t="s">
@@ -18597,7 +18619,7 @@
       <c r="P169" s="19" t="s">
         <v>1177</v>
       </c>
-      <c r="Q169" s="19" t="s">
+      <c r="Q169" s="40" t="s">
         <v>1179</v>
       </c>
       <c r="V169" s="19" t="s">
@@ -18659,7 +18681,7 @@
       <c r="P170" s="19" t="s">
         <v>1177</v>
       </c>
-      <c r="Q170" s="19" t="s">
+      <c r="Q170" s="40" t="s">
         <v>1180</v>
       </c>
       <c r="V170" s="19" t="s">
@@ -18724,7 +18746,7 @@
       <c r="P171" s="19" t="s">
         <v>1102</v>
       </c>
-      <c r="Q171" s="19" t="s">
+      <c r="Q171" s="40" t="s">
         <v>781</v>
       </c>
       <c r="V171" s="19" t="s">
@@ -18792,7 +18814,7 @@
       <c r="P172" s="19" t="s">
         <v>1103</v>
       </c>
-      <c r="Q172" s="19" t="s">
+      <c r="Q172" s="40" t="s">
         <v>782</v>
       </c>
       <c r="V172" s="19" t="s">
@@ -18860,7 +18882,7 @@
       <c r="P173" s="19" t="s">
         <v>1102</v>
       </c>
-      <c r="Q173" s="19" t="s">
+      <c r="Q173" s="40" t="s">
         <v>783</v>
       </c>
       <c r="V173" s="19" t="s">
@@ -18928,7 +18950,7 @@
       <c r="P174" s="19" t="s">
         <v>1103</v>
       </c>
-      <c r="Q174" s="19" t="s">
+      <c r="Q174" s="40" t="s">
         <v>784</v>
       </c>
       <c r="V174" s="19" t="s">
@@ -18996,7 +19018,7 @@
       <c r="P175" s="19" t="s">
         <v>1110</v>
       </c>
-      <c r="Q175" s="19" t="s">
+      <c r="Q175" s="40" t="s">
         <v>1121</v>
       </c>
       <c r="V175" s="19" t="s">
@@ -19064,7 +19086,7 @@
       <c r="P176" s="19" t="s">
         <v>1107</v>
       </c>
-      <c r="Q176" s="19" t="s">
+      <c r="Q176" s="40" t="s">
         <v>785</v>
       </c>
       <c r="V176" s="19" t="s">
@@ -19132,7 +19154,7 @@
       <c r="P177" s="19" t="s">
         <v>1110</v>
       </c>
-      <c r="Q177" s="19" t="s">
+      <c r="Q177" s="40" t="s">
         <v>786</v>
       </c>
       <c r="V177" s="19" t="s">
@@ -19200,7 +19222,7 @@
       <c r="P178" s="19" t="s">
         <v>1110</v>
       </c>
-      <c r="Q178" s="19" t="s">
+      <c r="Q178" s="40" t="s">
         <v>787</v>
       </c>
       <c r="V178" s="19" t="s">
@@ -19268,7 +19290,7 @@
       <c r="P179" s="19" t="s">
         <v>1110</v>
       </c>
-      <c r="Q179" s="19" t="s">
+      <c r="Q179" s="40" t="s">
         <v>788</v>
       </c>
       <c r="V179" s="19" t="s">
@@ -19336,7 +19358,7 @@
       <c r="P180" s="19" t="s">
         <v>1110</v>
       </c>
-      <c r="Q180" s="19" t="s">
+      <c r="Q180" s="40" t="s">
         <v>787</v>
       </c>
       <c r="V180" s="19" t="s">
@@ -19404,7 +19426,7 @@
       <c r="P181" s="19" t="s">
         <v>1111</v>
       </c>
-      <c r="Q181" s="19" t="s">
+      <c r="Q181" s="40" t="s">
         <v>789</v>
       </c>
       <c r="V181" s="19" t="s">
@@ -19472,7 +19494,7 @@
       <c r="P182" s="19" t="s">
         <v>1108</v>
       </c>
-      <c r="Q182" s="19" t="s">
+      <c r="Q182" s="40" t="s">
         <v>790</v>
       </c>
       <c r="V182" s="19" t="s">
@@ -19540,7 +19562,7 @@
       <c r="P183" s="19" t="s">
         <v>1108</v>
       </c>
-      <c r="Q183" s="19" t="s">
+      <c r="Q183" s="40" t="s">
         <v>788</v>
       </c>
       <c r="V183" s="19" t="s">
@@ -19608,7 +19630,7 @@
       <c r="P184" s="19" t="s">
         <v>1110</v>
       </c>
-      <c r="Q184" s="19" t="s">
+      <c r="Q184" s="40" t="s">
         <v>791</v>
       </c>
       <c r="V184" s="19" t="s">
@@ -19676,7 +19698,7 @@
       <c r="P185" s="19" t="s">
         <v>1107</v>
       </c>
-      <c r="Q185" s="19" t="s">
+      <c r="Q185" s="40" t="s">
         <v>792</v>
       </c>
       <c r="V185" s="19" t="s">
@@ -19741,7 +19763,7 @@
       <c r="P186" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="Q186" s="5" t="s">
+      <c r="Q186" s="10" t="s">
         <v>842</v>
       </c>
       <c r="S186" s="5" t="s">
@@ -19803,7 +19825,7 @@
       <c r="P187" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="Q187" s="5" t="s">
+      <c r="Q187" s="10" t="s">
         <v>375</v>
       </c>
       <c r="V187" s="5" t="s">
@@ -19868,7 +19890,7 @@
       <c r="P188" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="Q188" s="5" t="s">
+      <c r="Q188" s="10" t="s">
         <v>377</v>
       </c>
       <c r="V188" s="5" t="s">
@@ -19933,7 +19955,7 @@
       <c r="P189" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="Q189" s="5" t="s">
+      <c r="Q189" s="10" t="s">
         <v>379</v>
       </c>
       <c r="V189" s="5" t="s">
@@ -19998,7 +20020,7 @@
       <c r="P190" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="Q190" s="5" t="s">
+      <c r="Q190" s="10" t="s">
         <v>381</v>
       </c>
       <c r="V190" s="5" t="s">
@@ -20063,7 +20085,7 @@
       <c r="P191" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q191" s="5" t="s">
+      <c r="Q191" s="10" t="s">
         <v>383</v>
       </c>
       <c r="V191" s="5" t="s">
@@ -20128,7 +20150,7 @@
       <c r="P192" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q192" s="5" t="s">
+      <c r="Q192" s="10" t="s">
         <v>385</v>
       </c>
       <c r="V192" s="5" t="s">
@@ -20193,7 +20215,7 @@
       <c r="P193" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q193" s="5" t="s">
+      <c r="Q193" s="10" t="s">
         <v>387</v>
       </c>
       <c r="V193" s="5" t="s">
@@ -20258,7 +20280,7 @@
       <c r="P194" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q194" s="5" t="s">
+      <c r="Q194" s="10" t="s">
         <v>389</v>
       </c>
       <c r="V194" s="5" t="s">
@@ -20323,7 +20345,7 @@
       <c r="P195" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q195" s="5" t="s">
+      <c r="Q195" s="10" t="s">
         <v>391</v>
       </c>
       <c r="V195" s="5" t="s">
@@ -20388,7 +20410,7 @@
       <c r="P196" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q196" s="5" t="s">
+      <c r="Q196" s="10" t="s">
         <v>393</v>
       </c>
       <c r="V196" s="5" t="s">
@@ -20453,7 +20475,7 @@
       <c r="P197" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q197" s="5" t="s">
+      <c r="Q197" s="10" t="s">
         <v>395</v>
       </c>
       <c r="V197" s="5" t="s">
@@ -20518,7 +20540,7 @@
       <c r="P198" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q198" s="5" t="s">
+      <c r="Q198" s="10" t="s">
         <v>397</v>
       </c>
       <c r="V198" s="5" t="s">
@@ -20583,7 +20605,7 @@
       <c r="P199" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q199" s="5" t="s">
+      <c r="Q199" s="10" t="s">
         <v>395</v>
       </c>
       <c r="V199" s="5" t="s">
@@ -20648,7 +20670,7 @@
       <c r="P200" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q200" s="5" t="s">
+      <c r="Q200" s="10" t="s">
         <v>397</v>
       </c>
       <c r="V200" s="5" t="s">
@@ -20713,7 +20735,7 @@
       <c r="P201" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q201" s="5" t="s">
+      <c r="Q201" s="10" t="s">
         <v>401</v>
       </c>
       <c r="V201" s="5" t="s">
@@ -20778,7 +20800,7 @@
       <c r="P202" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="Q202" s="5" t="s">
+      <c r="Q202" s="10" t="s">
         <v>375</v>
       </c>
       <c r="V202" s="5" t="s">
@@ -20843,7 +20865,7 @@
       <c r="P203" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="Q203" s="5" t="s">
+      <c r="Q203" s="10" t="s">
         <v>377</v>
       </c>
       <c r="V203" s="5" t="s">
@@ -20908,7 +20930,7 @@
       <c r="P204" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="Q204" s="5" t="s">
+      <c r="Q204" s="10" t="s">
         <v>379</v>
       </c>
       <c r="V204" s="5" t="s">
@@ -20973,7 +20995,7 @@
       <c r="P205" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="Q205" s="5" t="s">
+      <c r="Q205" s="10" t="s">
         <v>381</v>
       </c>
       <c r="V205" s="5" t="s">
@@ -21038,7 +21060,7 @@
       <c r="P206" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q206" s="5" t="s">
+      <c r="Q206" s="10" t="s">
         <v>383</v>
       </c>
       <c r="V206" s="5" t="s">
@@ -21103,7 +21125,7 @@
       <c r="P207" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q207" s="5" t="s">
+      <c r="Q207" s="10" t="s">
         <v>385</v>
       </c>
       <c r="V207" s="5" t="s">
@@ -21168,7 +21190,7 @@
       <c r="P208" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q208" s="5" t="s">
+      <c r="Q208" s="10" t="s">
         <v>387</v>
       </c>
       <c r="V208" s="5" t="s">
@@ -21233,7 +21255,7 @@
       <c r="P209" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q209" s="5" t="s">
+      <c r="Q209" s="10" t="s">
         <v>389</v>
       </c>
       <c r="V209" s="5" t="s">
@@ -21298,7 +21320,7 @@
       <c r="P210" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q210" s="5" t="s">
+      <c r="Q210" s="10" t="s">
         <v>391</v>
       </c>
       <c r="V210" s="5" t="s">
@@ -21363,7 +21385,7 @@
       <c r="P211" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q211" s="5" t="s">
+      <c r="Q211" s="10" t="s">
         <v>393</v>
       </c>
       <c r="V211" s="5" t="s">
@@ -21428,7 +21450,7 @@
       <c r="P212" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q212" s="5" t="s">
+      <c r="Q212" s="10" t="s">
         <v>395</v>
       </c>
       <c r="V212" s="5" t="s">
@@ -21493,7 +21515,7 @@
       <c r="P213" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q213" s="5" t="s">
+      <c r="Q213" s="10" t="s">
         <v>397</v>
       </c>
       <c r="V213" s="5" t="s">
@@ -21558,7 +21580,7 @@
       <c r="P214" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q214" s="5" t="s">
+      <c r="Q214" s="10" t="s">
         <v>395</v>
       </c>
       <c r="V214" s="5" t="s">
@@ -21623,7 +21645,7 @@
       <c r="P215" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q215" s="5" t="s">
+      <c r="Q215" s="10" t="s">
         <v>397</v>
       </c>
       <c r="V215" s="5" t="s">
@@ -21688,7 +21710,7 @@
       <c r="P216" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q216" s="5" t="s">
+      <c r="Q216" s="10" t="s">
         <v>401</v>
       </c>
       <c r="V216" s="5" t="s">
@@ -21753,7 +21775,7 @@
       <c r="P217" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="Q217" s="5" t="s">
+      <c r="Q217" s="10" t="s">
         <v>375</v>
       </c>
       <c r="V217" s="5" t="s">
@@ -21818,7 +21840,7 @@
       <c r="P218" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="Q218" s="5" t="s">
+      <c r="Q218" s="10" t="s">
         <v>377</v>
       </c>
       <c r="V218" s="5" t="s">
@@ -21883,7 +21905,7 @@
       <c r="P219" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="Q219" s="5" t="s">
+      <c r="Q219" s="10" t="s">
         <v>379</v>
       </c>
       <c r="V219" s="5" t="s">
@@ -21948,7 +21970,7 @@
       <c r="P220" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="Q220" s="5" t="s">
+      <c r="Q220" s="10" t="s">
         <v>381</v>
       </c>
       <c r="V220" s="5" t="s">
@@ -22013,7 +22035,7 @@
       <c r="P221" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q221" s="5" t="s">
+      <c r="Q221" s="10" t="s">
         <v>383</v>
       </c>
       <c r="V221" s="5" t="s">
@@ -22078,7 +22100,7 @@
       <c r="P222" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q222" s="5" t="s">
+      <c r="Q222" s="10" t="s">
         <v>385</v>
       </c>
       <c r="V222" s="5" t="s">
@@ -22143,7 +22165,7 @@
       <c r="P223" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q223" s="5" t="s">
+      <c r="Q223" s="10" t="s">
         <v>387</v>
       </c>
       <c r="V223" s="5" t="s">
@@ -22208,7 +22230,7 @@
       <c r="P224" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q224" s="5" t="s">
+      <c r="Q224" s="10" t="s">
         <v>389</v>
       </c>
       <c r="V224" s="5" t="s">
@@ -22273,7 +22295,7 @@
       <c r="P225" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q225" s="5" t="s">
+      <c r="Q225" s="10" t="s">
         <v>391</v>
       </c>
       <c r="V225" s="5" t="s">
@@ -22338,7 +22360,7 @@
       <c r="P226" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q226" s="5" t="s">
+      <c r="Q226" s="10" t="s">
         <v>393</v>
       </c>
       <c r="V226" s="5" t="s">
@@ -22403,7 +22425,7 @@
       <c r="P227" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q227" s="5" t="s">
+      <c r="Q227" s="10" t="s">
         <v>395</v>
       </c>
       <c r="V227" s="5" t="s">
@@ -22468,7 +22490,7 @@
       <c r="P228" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q228" s="5" t="s">
+      <c r="Q228" s="10" t="s">
         <v>397</v>
       </c>
       <c r="V228" s="5" t="s">
@@ -22533,7 +22555,7 @@
       <c r="P229" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q229" s="5" t="s">
+      <c r="Q229" s="10" t="s">
         <v>395</v>
       </c>
       <c r="V229" s="5" t="s">
@@ -22598,7 +22620,7 @@
       <c r="P230" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q230" s="5" t="s">
+      <c r="Q230" s="10" t="s">
         <v>397</v>
       </c>
       <c r="V230" s="5" t="s">
@@ -22663,7 +22685,7 @@
       <c r="P231" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q231" s="5" t="s">
+      <c r="Q231" s="10" t="s">
         <v>401</v>
       </c>
       <c r="V231" s="5" t="s">
@@ -22728,7 +22750,7 @@
       <c r="P232" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="Q232" s="5" t="s">
+      <c r="Q232" s="10" t="s">
         <v>375</v>
       </c>
       <c r="V232" s="5" t="s">
@@ -22793,7 +22815,7 @@
       <c r="P233" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="Q233" s="5" t="s">
+      <c r="Q233" s="10" t="s">
         <v>377</v>
       </c>
       <c r="V233" s="5" t="s">
@@ -22858,7 +22880,7 @@
       <c r="P234" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="Q234" s="5" t="s">
+      <c r="Q234" s="10" t="s">
         <v>379</v>
       </c>
       <c r="V234" s="5" t="s">
@@ -22923,7 +22945,7 @@
       <c r="P235" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="Q235" s="5" t="s">
+      <c r="Q235" s="10" t="s">
         <v>381</v>
       </c>
       <c r="V235" s="5" t="s">
@@ -22988,7 +23010,7 @@
       <c r="P236" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q236" s="5" t="s">
+      <c r="Q236" s="10" t="s">
         <v>383</v>
       </c>
       <c r="V236" s="5" t="s">
@@ -23053,7 +23075,7 @@
       <c r="P237" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q237" s="5" t="s">
+      <c r="Q237" s="10" t="s">
         <v>385</v>
       </c>
       <c r="V237" s="5" t="s">
@@ -23118,7 +23140,7 @@
       <c r="P238" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q238" s="5" t="s">
+      <c r="Q238" s="10" t="s">
         <v>387</v>
       </c>
       <c r="V238" s="5" t="s">
@@ -23183,7 +23205,7 @@
       <c r="P239" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q239" s="5" t="s">
+      <c r="Q239" s="10" t="s">
         <v>389</v>
       </c>
       <c r="V239" s="5" t="s">
@@ -23248,7 +23270,7 @@
       <c r="P240" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q240" s="5" t="s">
+      <c r="Q240" s="10" t="s">
         <v>391</v>
       </c>
       <c r="V240" s="5" t="s">
@@ -23313,7 +23335,7 @@
       <c r="P241" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q241" s="5" t="s">
+      <c r="Q241" s="10" t="s">
         <v>393</v>
       </c>
       <c r="V241" s="5" t="s">
@@ -23378,7 +23400,7 @@
       <c r="P242" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q242" s="5" t="s">
+      <c r="Q242" s="10" t="s">
         <v>395</v>
       </c>
       <c r="V242" s="5" t="s">
@@ -23443,7 +23465,7 @@
       <c r="P243" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="Q243" s="5" t="s">
+      <c r="Q243" s="10" t="s">
         <v>397</v>
       </c>
       <c r="V243" s="5" t="s">
@@ -23508,7 +23530,7 @@
       <c r="P244" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q244" s="5" t="s">
+      <c r="Q244" s="10" t="s">
         <v>395</v>
       </c>
       <c r="V244" s="5" t="s">
@@ -23573,7 +23595,7 @@
       <c r="P245" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q245" s="5" t="s">
+      <c r="Q245" s="10" t="s">
         <v>397</v>
       </c>
       <c r="V245" s="5" t="s">
@@ -23638,7 +23660,7 @@
       <c r="P246" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="Q246" s="5" t="s">
+      <c r="Q246" s="10" t="s">
         <v>401</v>
       </c>
       <c r="V246" s="5" t="s">
@@ -23704,7 +23726,7 @@
       <c r="P247" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="Q247" s="5" t="s">
+      <c r="Q247" s="10" t="s">
         <v>793</v>
       </c>
       <c r="V247" s="5" t="s">
@@ -23770,7 +23792,7 @@
       <c r="P248" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="Q248" s="5" t="s">
+      <c r="Q248" s="10" t="s">
         <v>794</v>
       </c>
       <c r="V248" s="5" t="s">
@@ -23836,7 +23858,7 @@
       <c r="P249" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="Q249" s="5" t="s">
+      <c r="Q249" s="10" t="s">
         <v>795</v>
       </c>
       <c r="V249" s="5" t="s">
@@ -23902,7 +23924,7 @@
       <c r="P250" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="Q250" s="19" t="s">
+      <c r="Q250" s="40" t="s">
         <v>1131</v>
       </c>
       <c r="V250" s="19" t="s">
@@ -23964,7 +23986,7 @@
       <c r="P251" s="5" t="s">
         <v>1197</v>
       </c>
-      <c r="Q251" s="5" t="s">
+      <c r="Q251" s="10" t="s">
         <v>843</v>
       </c>
       <c r="S251" s="5" t="s">
@@ -24032,7 +24054,7 @@
       <c r="P252" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="Q252" s="5" t="s">
+      <c r="Q252" s="10" t="s">
         <v>796</v>
       </c>
       <c r="V252" s="5" t="s">
@@ -24094,7 +24116,7 @@
       <c r="P253" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="Q253" s="5" t="s">
+      <c r="Q253" s="10" t="s">
         <v>844</v>
       </c>
       <c r="V253" s="5" t="s">
@@ -24156,7 +24178,7 @@
       <c r="P254" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="Q254" s="5" t="s">
+      <c r="Q254" s="10" t="s">
         <v>845</v>
       </c>
       <c r="V254" s="5" t="s">
@@ -24221,7 +24243,7 @@
       <c r="P255" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="Q255" s="5" t="s">
+      <c r="Q255" s="10" t="s">
         <v>797</v>
       </c>
       <c r="V255" s="5" t="s">
@@ -24286,7 +24308,7 @@
       <c r="P256" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="Q256" s="5" t="s">
+      <c r="Q256" s="10" t="s">
         <v>798</v>
       </c>
       <c r="V256" s="5" t="s">
@@ -24351,7 +24373,7 @@
       <c r="P257" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="Q257" s="5" t="s">
+      <c r="Q257" s="10" t="s">
         <v>799</v>
       </c>
       <c r="S257" s="5" t="s">
@@ -24419,7 +24441,7 @@
       <c r="P258" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="Q258" s="5" t="s">
+      <c r="Q258" s="10" t="s">
         <v>523</v>
       </c>
       <c r="V258" s="5" t="s">
@@ -24484,7 +24506,7 @@
       <c r="P259" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="Q259" s="5" t="s">
+      <c r="Q259" s="10" t="s">
         <v>524</v>
       </c>
       <c r="V259" s="5" t="s">
@@ -24549,7 +24571,7 @@
       <c r="P260" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="Q260" s="5" t="s">
+      <c r="Q260" s="10" t="s">
         <v>525</v>
       </c>
       <c r="V260" s="5" t="s">
@@ -24614,7 +24636,7 @@
       <c r="P261" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="Q261" s="5" t="s">
+      <c r="Q261" s="10" t="s">
         <v>525</v>
       </c>
       <c r="V261" s="5" t="s">
@@ -24679,7 +24701,7 @@
       <c r="P262" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="Q262" s="5" t="s">
+      <c r="Q262" s="10" t="s">
         <v>526</v>
       </c>
       <c r="V262" s="5" t="s">
@@ -24744,7 +24766,7 @@
       <c r="P263" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="Q263" s="5" t="s">
+      <c r="Q263" s="10" t="s">
         <v>527</v>
       </c>
       <c r="V263" s="5" t="s">
@@ -24809,7 +24831,7 @@
       <c r="P264" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="Q264" s="5" t="s">
+      <c r="Q264" s="10" t="s">
         <v>527</v>
       </c>
       <c r="V264" s="5" t="s">
@@ -24874,7 +24896,7 @@
       <c r="P265" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="Q265" s="5" t="s">
+      <c r="Q265" s="10" t="s">
         <v>528</v>
       </c>
       <c r="V265" s="5" t="s">
@@ -24939,7 +24961,7 @@
       <c r="P266" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="Q266" s="5" t="s">
+      <c r="Q266" s="10" t="s">
         <v>529</v>
       </c>
       <c r="V266" s="5" t="s">
@@ -25004,7 +25026,7 @@
       <c r="P267" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="Q267" s="5" t="s">
+      <c r="Q267" s="10" t="s">
         <v>528</v>
       </c>
       <c r="V267" s="5" t="s">
@@ -25069,7 +25091,7 @@
       <c r="P268" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="Q268" s="5" t="s">
+      <c r="Q268" s="10" t="s">
         <v>529</v>
       </c>
       <c r="V268" s="5" t="s">
@@ -25134,7 +25156,7 @@
       <c r="P269" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="Q269" s="5" t="s">
+      <c r="Q269" s="10" t="s">
         <v>530</v>
       </c>
       <c r="V269" s="5" t="s">
@@ -25199,7 +25221,7 @@
       <c r="P270" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="Q270" s="5" t="s">
+      <c r="Q270" s="10" t="s">
         <v>529</v>
       </c>
       <c r="V270" s="5" t="s">
@@ -25264,7 +25286,7 @@
       <c r="P271" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="Q271" s="5" t="s">
+      <c r="Q271" s="10" t="s">
         <v>530</v>
       </c>
       <c r="V271" s="5" t="s">
@@ -25329,7 +25351,7 @@
       <c r="P272" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="Q272" s="5" t="s">
+      <c r="Q272" s="10" t="s">
         <v>531</v>
       </c>
       <c r="V272" s="5" t="s">
@@ -25394,7 +25416,7 @@
       <c r="P273" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q273" s="5" t="s">
+      <c r="Q273" s="10" t="s">
         <v>800</v>
       </c>
       <c r="V273" s="5" t="s">
@@ -25454,7 +25476,7 @@
       <c r="P274" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="Q274" s="5" t="s">
+      <c r="Q274" s="10" t="s">
         <v>801</v>
       </c>
       <c r="R274" s="5"/>
@@ -25526,7 +25548,7 @@
       <c r="P275" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="Q275" s="5" t="s">
+      <c r="Q275" s="10" t="s">
         <v>802</v>
       </c>
       <c r="V275" s="5" t="s">
@@ -25591,7 +25613,7 @@
       <c r="P276" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="Q276" s="5" t="s">
+      <c r="Q276" s="10" t="s">
         <v>803</v>
       </c>
       <c r="V276" s="5" t="s">
@@ -25656,7 +25678,7 @@
       <c r="P277" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="Q277" s="5" t="s">
+      <c r="Q277" s="10" t="s">
         <v>804</v>
       </c>
       <c r="V277" s="5" t="s">
@@ -25721,7 +25743,7 @@
       <c r="P278" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="Q278" s="5" t="s">
+      <c r="Q278" s="10" t="s">
         <v>805</v>
       </c>
       <c r="V278" s="5" t="s">
@@ -25786,7 +25808,7 @@
       <c r="P279" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="Q279" s="5" t="s">
+      <c r="Q279" s="10" t="s">
         <v>806</v>
       </c>
       <c r="V279" s="5" t="s">
@@ -25851,7 +25873,7 @@
       <c r="P280" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="Q280" s="5" t="s">
+      <c r="Q280" s="10" t="s">
         <v>807</v>
       </c>
       <c r="V280" s="5" t="s">
@@ -25916,7 +25938,7 @@
       <c r="P281" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="Q281" s="5" t="s">
+      <c r="Q281" s="10" t="s">
         <v>805</v>
       </c>
       <c r="V281" s="5" t="s">
@@ -25981,7 +26003,7 @@
       <c r="P282" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="Q282" s="5" t="s">
+      <c r="Q282" s="10" t="s">
         <v>808</v>
       </c>
       <c r="V282" s="5" t="s">
@@ -26046,7 +26068,7 @@
       <c r="P283" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="Q283" s="5" t="s">
+      <c r="Q283" s="10" t="s">
         <v>809</v>
       </c>
       <c r="V283" s="5" t="s">
@@ -26111,7 +26133,7 @@
       <c r="P284" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="Q284" s="5" t="s">
+      <c r="Q284" s="10" t="s">
         <v>810</v>
       </c>
       <c r="V284" s="5" t="s">
@@ -26176,7 +26198,7 @@
       <c r="P285" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="Q285" s="5" t="s">
+      <c r="Q285" s="10" t="s">
         <v>811</v>
       </c>
       <c r="V285" s="5" t="s">
@@ -26238,7 +26260,7 @@
       <c r="P286" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="Q286" s="5" t="s">
+      <c r="Q286" s="10" t="s">
         <v>812</v>
       </c>
       <c r="V286" s="5" t="s">
@@ -26300,7 +26322,7 @@
       <c r="P287" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="Q287" s="5" t="s">
+      <c r="Q287" s="10" t="s">
         <v>813</v>
       </c>
       <c r="V287" s="5" t="s">
@@ -26362,7 +26384,7 @@
       <c r="P288" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="Q288" s="5" t="s">
+      <c r="Q288" s="10" t="s">
         <v>814</v>
       </c>
       <c r="V288" s="5" t="s">
@@ -26424,7 +26446,7 @@
       <c r="P289" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="Q289" s="5" t="s">
+      <c r="Q289" s="10" t="s">
         <v>815</v>
       </c>
       <c r="V289" s="5" t="s">
@@ -26486,7 +26508,7 @@
       <c r="P290" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="Q290" s="5" t="s">
+      <c r="Q290" s="10" t="s">
         <v>816</v>
       </c>
       <c r="V290" s="5" t="s">
@@ -26548,7 +26570,7 @@
       <c r="P291" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="Q291" s="5" t="s">
+      <c r="Q291" s="10" t="s">
         <v>817</v>
       </c>
       <c r="V291" s="5" t="s">
@@ -26610,7 +26632,7 @@
       <c r="P292" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="Q292" s="5" t="s">
+      <c r="Q292" s="10" t="s">
         <v>818</v>
       </c>
       <c r="V292" s="5" t="s">
@@ -26672,7 +26694,7 @@
       <c r="P293" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="Q293" s="5" t="s">
+      <c r="Q293" s="10" t="s">
         <v>819</v>
       </c>
       <c r="V293" s="5" t="s">
@@ -26734,7 +26756,7 @@
       <c r="P294" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="Q294" s="5" t="s">
+      <c r="Q294" s="10" t="s">
         <v>820</v>
       </c>
       <c r="V294" s="5" t="s">
@@ -26796,7 +26818,7 @@
       <c r="P295" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="Q295" s="5" t="s">
+      <c r="Q295" s="10" t="s">
         <v>821</v>
       </c>
       <c r="V295" s="5" t="s">
@@ -26858,7 +26880,7 @@
       <c r="P296" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="Q296" s="5" t="s">
+      <c r="Q296" s="10" t="s">
         <v>822</v>
       </c>
       <c r="V296" s="5" t="s">
@@ -26920,7 +26942,7 @@
       <c r="P297" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="Q297" s="5" t="s">
+      <c r="Q297" s="10" t="s">
         <v>823</v>
       </c>
       <c r="V297" s="5" t="s">
@@ -26982,7 +27004,7 @@
       <c r="P298" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="Q298" s="5" t="s">
+      <c r="Q298" s="10" t="s">
         <v>824</v>
       </c>
       <c r="V298" s="5" t="s">
@@ -27044,7 +27066,7 @@
       <c r="P299" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="Q299" s="5" t="s">
+      <c r="Q299" s="10" t="s">
         <v>825</v>
       </c>
       <c r="V299" s="5" t="s">
@@ -27106,7 +27128,7 @@
       <c r="P300" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="Q300" s="5" t="s">
+      <c r="Q300" s="10" t="s">
         <v>826</v>
       </c>
       <c r="V300" s="5" t="s">
@@ -27168,7 +27190,7 @@
       <c r="P301" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="Q301" s="5" t="s">
+      <c r="Q301" s="10" t="s">
         <v>827</v>
       </c>
       <c r="V301" s="5" t="s">
@@ -27230,7 +27252,7 @@
       <c r="P302" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="Q302" s="5" t="s">
+      <c r="Q302" s="10" t="s">
         <v>828</v>
       </c>
       <c r="V302" s="5" t="s">
@@ -27292,7 +27314,7 @@
       <c r="P303" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="Q303" s="5" t="s">
+      <c r="Q303" s="10" t="s">
         <v>829</v>
       </c>
       <c r="V303" s="5" t="s">
@@ -27354,7 +27376,7 @@
       <c r="P304" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="Q304" s="5" t="s">
+      <c r="Q304" s="10" t="s">
         <v>830</v>
       </c>
       <c r="V304" s="5" t="s">
@@ -27416,7 +27438,7 @@
       <c r="P305" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="Q305" s="5" t="s">
+      <c r="Q305" s="10" t="s">
         <v>831</v>
       </c>
       <c r="V305" s="5" t="s">
@@ -27478,7 +27500,7 @@
       <c r="P306" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="Q306" s="5" t="s">
+      <c r="Q306" s="10" t="s">
         <v>832</v>
       </c>
       <c r="V306" s="5" t="s">
@@ -27540,7 +27562,7 @@
       <c r="P307" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="Q307" s="5" t="s">
+      <c r="Q307" s="10" t="s">
         <v>833</v>
       </c>
       <c r="V307" s="5" t="s">
@@ -27602,7 +27624,7 @@
       <c r="P308" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="Q308" s="5" t="s">
+      <c r="Q308" s="10" t="s">
         <v>834</v>
       </c>
       <c r="V308" s="5" t="s">
@@ -27664,7 +27686,7 @@
       <c r="P309" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="Q309" s="5" t="s">
+      <c r="Q309" s="10" t="s">
         <v>835</v>
       </c>
       <c r="V309" s="5" t="s">
@@ -27726,7 +27748,7 @@
       <c r="P310" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="Q310" s="5" t="s">
+      <c r="Q310" s="10" t="s">
         <v>836</v>
       </c>
       <c r="V310" s="5" t="s">
@@ -27788,7 +27810,7 @@
       <c r="P311" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="Q311" s="5" t="s">
+      <c r="Q311" s="10" t="s">
         <v>804</v>
       </c>
       <c r="V311" s="5" t="s">
@@ -27850,7 +27872,7 @@
       <c r="P312" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="Q312" s="5" t="s">
+      <c r="Q312" s="10" t="s">
         <v>837</v>
       </c>
       <c r="V312" s="5" t="s">
@@ -27912,7 +27934,7 @@
       <c r="P313" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="Q313" s="5" t="s">
+      <c r="Q313" s="10" t="s">
         <v>808</v>
       </c>
       <c r="V313" s="5" t="s">
@@ -27974,7 +27996,7 @@
       <c r="P314" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="Q314" s="5" t="s">
+      <c r="Q314" s="10" t="s">
         <v>809</v>
       </c>
       <c r="V314" s="5" t="s">
@@ -28036,7 +28058,7 @@
       <c r="P315" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="Q315" s="5" t="s">
+      <c r="Q315" s="10" t="s">
         <v>838</v>
       </c>
       <c r="V315" s="5" t="s">
@@ -28098,7 +28120,7 @@
       <c r="P316" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="Q316" s="5" t="s">
+      <c r="Q316" s="10" t="s">
         <v>625</v>
       </c>
       <c r="V316" s="5" t="s">
@@ -28160,7 +28182,7 @@
       <c r="P317" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="Q317" s="5" t="s">
+      <c r="Q317" s="10" t="s">
         <v>626</v>
       </c>
       <c r="V317" s="5" t="s">
@@ -28222,7 +28244,7 @@
       <c r="P318" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="Q318" s="5" t="s">
+      <c r="Q318" s="10" t="s">
         <v>627</v>
       </c>
       <c r="V318" s="5" t="s">
@@ -28284,7 +28306,7 @@
       <c r="P319" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="Q319" s="5" t="s">
+      <c r="Q319" s="10" t="s">
         <v>1211</v>
       </c>
       <c r="V319" s="5" t="s">
@@ -28340,7 +28362,7 @@
       <c r="P320" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="Q320" s="5" t="s">
+      <c r="Q320" s="10" t="s">
         <v>839</v>
       </c>
       <c r="V320" s="5" t="s">
@@ -28396,7 +28418,7 @@
       <c r="P321" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="Q321" s="5" t="s">
+      <c r="Q321" s="10" t="s">
         <v>840</v>
       </c>
       <c r="V321" s="5" t="s">
@@ -28458,7 +28480,7 @@
       <c r="P322" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="Q322" s="5" t="s">
+      <c r="Q322" s="10" t="s">
         <v>700</v>
       </c>
       <c r="V322" s="5" t="s">
@@ -28525,7 +28547,7 @@
       <c r="P323" s="19" t="s">
         <v>1107</v>
       </c>
-      <c r="Q323" s="19" t="s">
+      <c r="Q323" s="40" t="s">
         <v>1097</v>
       </c>
       <c r="R323" s="19"/>
@@ -28608,7 +28630,7 @@
       <c r="P324" s="19" t="s">
         <v>1108</v>
       </c>
-      <c r="Q324" s="19" t="s">
+      <c r="Q324" s="40" t="s">
         <v>787</v>
       </c>
       <c r="R324" s="19"/>
@@ -28691,7 +28713,7 @@
       <c r="P325" s="19" t="s">
         <v>1109</v>
       </c>
-      <c r="Q325" s="19" t="s">
+      <c r="Q325" s="40" t="s">
         <v>788</v>
       </c>
       <c r="R325" s="19"/>
@@ -28766,6 +28788,7 @@
       <c r="O326" s="41">
         <v>100</v>
       </c>
+      <c r="Q326" s="42"/>
       <c r="V326" s="41" t="s">
         <v>1169</v>
       </c>
@@ -28828,7 +28851,7 @@
       <c r="P327" s="44" t="s">
         <v>1135</v>
       </c>
-      <c r="Q327" s="44" t="s">
+      <c r="Q327" s="49" t="s">
         <v>1171</v>
       </c>
       <c r="V327" s="44" t="s">
@@ -28895,7 +28918,7 @@
       <c r="P328" s="44" t="s">
         <v>1236</v>
       </c>
-      <c r="Q328" s="44" t="s">
+      <c r="Q328" s="49" t="s">
         <v>1159</v>
       </c>
       <c r="R328" s="44"/>
@@ -28977,7 +29000,7 @@
       <c r="P329" s="44" t="s">
         <v>1158</v>
       </c>
-      <c r="Q329" s="44" t="s">
+      <c r="Q329" s="49" t="s">
         <v>1160</v>
       </c>
       <c r="R329" s="44"/>
@@ -29059,7 +29082,7 @@
       <c r="P330" s="44" t="s">
         <v>1158</v>
       </c>
-      <c r="Q330" s="44" t="s">
+      <c r="Q330" s="49" t="s">
         <v>1166</v>
       </c>
       <c r="R330" s="44"/>
@@ -29141,7 +29164,7 @@
       <c r="P331" s="44" t="s">
         <v>1158</v>
       </c>
-      <c r="Q331" s="44" t="s">
+      <c r="Q331" s="49" t="s">
         <v>1167</v>
       </c>
       <c r="R331" s="44"/>
@@ -29223,7 +29246,7 @@
       <c r="P332" s="44" t="s">
         <v>1158</v>
       </c>
-      <c r="Q332" s="44" t="s">
+      <c r="Q332" s="49" t="s">
         <v>1161</v>
       </c>
       <c r="R332" s="44"/>
@@ -29305,7 +29328,7 @@
       <c r="P333" s="44" t="s">
         <v>1158</v>
       </c>
-      <c r="Q333" s="44" t="s">
+      <c r="Q333" s="49" t="s">
         <v>1162</v>
       </c>
       <c r="R333" s="44"/>
@@ -29387,7 +29410,7 @@
       <c r="P334" s="44" t="s">
         <v>1158</v>
       </c>
-      <c r="Q334" s="44" t="s">
+      <c r="Q334" s="49" t="s">
         <v>1168</v>
       </c>
       <c r="R334" s="44"/>
@@ -29469,7 +29492,7 @@
       <c r="P335" s="44" t="s">
         <v>1158</v>
       </c>
-      <c r="Q335" s="44" t="s">
+      <c r="Q335" s="49" t="s">
         <v>1163</v>
       </c>
       <c r="R335" s="44"/>
@@ -29551,7 +29574,7 @@
       <c r="P336" s="44" t="s">
         <v>1158</v>
       </c>
-      <c r="Q336" s="44" t="s">
+      <c r="Q336" s="49" t="s">
         <v>1164</v>
       </c>
       <c r="R336" s="44"/>
@@ -29633,7 +29656,7 @@
       <c r="P337" s="44" t="s">
         <v>1158</v>
       </c>
-      <c r="Q337" s="44" t="s">
+      <c r="Q337" s="49" t="s">
         <v>1165</v>
       </c>
       <c r="R337" s="44"/>
@@ -29710,7 +29733,7 @@
       <c r="P338" s="19" t="s">
         <v>1187</v>
       </c>
-      <c r="Q338" s="19" t="s">
+      <c r="Q338" s="40" t="s">
         <v>1195</v>
       </c>
       <c r="V338" s="19" t="s">
@@ -29783,7 +29806,7 @@
       <c r="P339" s="19" t="s">
         <v>1187</v>
       </c>
-      <c r="Q339" s="19" t="s">
+      <c r="Q339" s="40" t="s">
         <v>1196</v>
       </c>
       <c r="R339" s="19"/>
@@ -29867,7 +29890,7 @@
       <c r="P340" s="19" t="s">
         <v>1187</v>
       </c>
-      <c r="Q340" s="19" t="s">
+      <c r="Q340" s="40" t="s">
         <v>1194</v>
       </c>
       <c r="R340" s="19"/>
@@ -29947,7 +29970,7 @@
       <c r="P341" s="5" t="s">
         <v>1102</v>
       </c>
-      <c r="Q341" s="5" t="s">
+      <c r="Q341" s="10" t="s">
         <v>1237</v>
       </c>
       <c r="V341" s="5" t="s">
@@ -30018,7 +30041,7 @@
       <c r="P342" s="5" t="s">
         <v>1102</v>
       </c>
-      <c r="Q342" s="5" t="s">
+      <c r="Q342" s="10" t="s">
         <v>1238</v>
       </c>
       <c r="V342" s="5" t="s">
@@ -30089,7 +30112,7 @@
       <c r="P343" s="5" t="s">
         <v>1102</v>
       </c>
-      <c r="Q343" s="5" t="s">
+      <c r="Q343" s="10" t="s">
         <v>1239</v>
       </c>
       <c r="V343" s="5" t="s">
@@ -30160,7 +30183,7 @@
       <c r="P344" s="5" t="s">
         <v>1102</v>
       </c>
-      <c r="Q344" s="5" t="s">
+      <c r="Q344" s="10" t="s">
         <v>1240</v>
       </c>
       <c r="V344" s="5" t="s">
@@ -30231,7 +30254,7 @@
       <c r="P345" s="5" t="s">
         <v>1102</v>
       </c>
-      <c r="Q345" s="5" t="s">
+      <c r="Q345" s="10" t="s">
         <v>1241</v>
       </c>
       <c r="V345" s="5" t="s">
@@ -30302,7 +30325,7 @@
       <c r="P346" s="5" t="s">
         <v>1102</v>
       </c>
-      <c r="Q346" s="5" t="s">
+      <c r="Q346" s="10" t="s">
         <v>1242</v>
       </c>
       <c r="V346" s="5" t="s">
@@ -30373,7 +30396,7 @@
       <c r="P347" s="5" t="s">
         <v>1102</v>
       </c>
-      <c r="Q347" s="5" t="s">
+      <c r="Q347" s="10" t="s">
         <v>1244</v>
       </c>
       <c r="V347" s="5" t="s">
@@ -30444,7 +30467,7 @@
       <c r="P348" s="5" t="s">
         <v>1102</v>
       </c>
-      <c r="Q348" s="5" t="s">
+      <c r="Q348" s="10" t="s">
         <v>1245</v>
       </c>
       <c r="V348" s="5" t="s">
@@ -30515,7 +30538,7 @@
       <c r="P349" s="5" t="s">
         <v>1102</v>
       </c>
-      <c r="Q349" s="5" t="s">
+      <c r="Q349" s="10" t="s">
         <v>1243</v>
       </c>
       <c r="V349" s="5" t="s">
@@ -30586,7 +30609,7 @@
       <c r="P350" s="5" t="s">
         <v>1102</v>
       </c>
-      <c r="Q350" s="5" t="s">
+      <c r="Q350" s="10" t="s">
         <v>1246</v>
       </c>
       <c r="V350" s="5" t="s">
@@ -30657,7 +30680,7 @@
       <c r="P351" s="5" t="s">
         <v>1102</v>
       </c>
-      <c r="Q351" s="5" t="s">
+      <c r="Q351" s="10" t="s">
         <v>1247</v>
       </c>
       <c r="V351" s="5" t="s">
@@ -30728,7 +30751,7 @@
       <c r="P352" s="5" t="s">
         <v>1102</v>
       </c>
-      <c r="Q352" s="5" t="s">
+      <c r="Q352" s="10" t="s">
         <v>1248</v>
       </c>
       <c r="V352" s="5" t="s">
@@ -30802,7 +30825,7 @@
       <c r="P353" s="5" t="s">
         <v>1282</v>
       </c>
-      <c r="Q353" s="5" t="s">
+      <c r="Q353" s="10" t="s">
         <v>1275</v>
       </c>
       <c r="V353" s="5" t="s">
@@ -30870,7 +30893,7 @@
       <c r="P354" s="5" t="s">
         <v>1283</v>
       </c>
-      <c r="Q354" s="5" t="s">
+      <c r="Q354" s="10" t="s">
         <v>1276</v>
       </c>
       <c r="V354" s="5" t="s">
@@ -30938,7 +30961,7 @@
       <c r="P355" s="5" t="s">
         <v>1284</v>
       </c>
-      <c r="Q355" s="5" t="s">
+      <c r="Q355" s="10" t="s">
         <v>1275</v>
       </c>
       <c r="V355" s="5" t="s">
@@ -31006,7 +31029,7 @@
       <c r="P356" s="5" t="s">
         <v>1285</v>
       </c>
-      <c r="Q356" s="5" t="s">
+      <c r="Q356" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V356" s="5" t="s">
@@ -31074,7 +31097,7 @@
       <c r="P357" s="5" t="s">
         <v>1286</v>
       </c>
-      <c r="Q357" s="5" t="s">
+      <c r="Q357" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V357" s="5" t="s">
@@ -31142,7 +31165,7 @@
       <c r="P358" s="5" t="s">
         <v>1287</v>
       </c>
-      <c r="Q358" s="5" t="s">
+      <c r="Q358" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V358" s="5" t="s">
@@ -31210,7 +31233,7 @@
       <c r="P359" s="5" t="s">
         <v>1288</v>
       </c>
-      <c r="Q359" s="5" t="s">
+      <c r="Q359" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V359" s="5" t="s">
@@ -31278,7 +31301,7 @@
       <c r="P360" s="5" t="s">
         <v>1289</v>
       </c>
-      <c r="Q360" s="5" t="s">
+      <c r="Q360" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V360" s="5" t="s">
@@ -31346,7 +31369,7 @@
       <c r="P361" s="5" t="s">
         <v>1290</v>
       </c>
-      <c r="Q361" s="5" t="s">
+      <c r="Q361" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V361" s="5" t="s">
@@ -31414,7 +31437,7 @@
       <c r="P362" s="5" t="s">
         <v>1284</v>
       </c>
-      <c r="Q362" s="5" t="s">
+      <c r="Q362" s="10" t="s">
         <v>1275</v>
       </c>
       <c r="V362" s="5" t="s">
@@ -31488,7 +31511,7 @@
       <c r="P363" s="5" t="s">
         <v>1287</v>
       </c>
-      <c r="Q363" s="5" t="s">
+      <c r="Q363" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V363" s="5" t="s">
@@ -31562,7 +31585,7 @@
       <c r="P364" s="5" t="s">
         <v>1290</v>
       </c>
-      <c r="Q364" s="5" t="s">
+      <c r="Q364" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V364" s="5" t="s">
@@ -31631,10 +31654,10 @@
         <v>131400</v>
       </c>
       <c r="P365" s="45" t="s">
-        <v>1349</v>
-      </c>
-      <c r="Q365" s="45" t="s">
         <v>1344</v>
+      </c>
+      <c r="Q365" s="50" t="s">
+        <v>1345</v>
       </c>
       <c r="V365" s="45" t="s">
         <v>598</v>
@@ -31696,10 +31719,10 @@
         <v>52000</v>
       </c>
       <c r="P366" s="45" t="s">
-        <v>1349</v>
-      </c>
-      <c r="Q366" s="45" t="s">
-        <v>1345</v>
+        <v>1344</v>
+      </c>
+      <c r="Q366" s="50" t="s">
+        <v>1346</v>
       </c>
       <c r="V366" s="45" t="s">
         <v>598</v>
@@ -31761,10 +31784,10 @@
         <v>25800</v>
       </c>
       <c r="P367" s="45" t="s">
-        <v>1349</v>
-      </c>
-      <c r="Q367" s="45" t="s">
-        <v>1346</v>
+        <v>1344</v>
+      </c>
+      <c r="Q367" s="50" t="s">
+        <v>1347</v>
       </c>
       <c r="V367" s="45" t="s">
         <v>598</v>
@@ -31826,10 +31849,10 @@
         <v>14700</v>
       </c>
       <c r="P368" s="45" t="s">
-        <v>1349</v>
-      </c>
-      <c r="Q368" s="45" t="s">
-        <v>1347</v>
+        <v>1344</v>
+      </c>
+      <c r="Q368" s="50" t="s">
+        <v>1348</v>
       </c>
       <c r="V368" s="45" t="s">
         <v>598</v>
@@ -31891,10 +31914,10 @@
         <v>5200</v>
       </c>
       <c r="P369" s="45" t="s">
+        <v>1344</v>
+      </c>
+      <c r="Q369" s="50" t="s">
         <v>1349</v>
-      </c>
-      <c r="Q369" s="45" t="s">
-        <v>1348</v>
       </c>
       <c r="V369" s="45" t="s">
         <v>598</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3158" uniqueCount="1350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="1365">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -5951,6 +5951,66 @@
   </si>
   <si>
     <t>5200000,100000,28,28,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>比翼双飞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>百年好合</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白头偕老</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>天长地久</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"280万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"680万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1380万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2580万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_0",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2800000,-200,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6800000,-400,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>13800000,-800,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>25800000,-1200,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,5,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "lmqx_026_lmlh" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8662,13 +8722,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM369"/>
+  <dimension ref="A1:AM373"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="N358" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H363" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q375" sqref="Q375"/>
+      <selection pane="bottomRight" activeCell="E370" sqref="E370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -30796,7 +30856,7 @@
         <v>10269</v>
       </c>
       <c r="F353" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
         <v>1302</v>
@@ -30864,7 +30924,7 @@
         <v>10270</v>
       </c>
       <c r="F354" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
         <v>1304</v>
@@ -30932,7 +30992,7 @@
         <v>10271</v>
       </c>
       <c r="F355" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
         <v>1309</v>
@@ -31000,7 +31060,7 @@
         <v>10272</v>
       </c>
       <c r="F356" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G356" s="5" t="s">
         <v>1310</v>
@@ -31068,7 +31128,7 @@
         <v>10273</v>
       </c>
       <c r="F357" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
         <v>1311</v>
@@ -31136,7 +31196,7 @@
         <v>10274</v>
       </c>
       <c r="F358" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
         <v>1309</v>
@@ -31204,7 +31264,7 @@
         <v>10275</v>
       </c>
       <c r="F359" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G359" s="5" t="s">
         <v>1310</v>
@@ -31272,7 +31332,7 @@
         <v>10276</v>
       </c>
       <c r="F360" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
         <v>1304</v>
@@ -31340,7 +31400,7 @@
         <v>10277</v>
       </c>
       <c r="F361" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
         <v>1309</v>
@@ -31408,7 +31468,7 @@
         <v>10278</v>
       </c>
       <c r="F362" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
         <v>1309</v>
@@ -31482,7 +31542,7 @@
         <v>10279</v>
       </c>
       <c r="F363" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
         <v>1309</v>
@@ -31556,7 +31616,7 @@
         <v>10280</v>
       </c>
       <c r="F364" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
         <v>1312</v>
@@ -31944,6 +32004,266 @@
         <v>1</v>
       </c>
       <c r="AL369" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A370" s="45">
+        <v>369</v>
+      </c>
+      <c r="B370" s="45">
+        <v>10286</v>
+      </c>
+      <c r="F370" s="45">
+        <v>1</v>
+      </c>
+      <c r="G370" s="45" t="s">
+        <v>1350</v>
+      </c>
+      <c r="I370" s="45" t="s">
+        <v>1354</v>
+      </c>
+      <c r="K370" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L370" s="45">
+        <v>0</v>
+      </c>
+      <c r="M370" s="45">
+        <v>0</v>
+      </c>
+      <c r="N370" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="O370" s="45">
+        <v>1800</v>
+      </c>
+      <c r="P370" s="45" t="s">
+        <v>1358</v>
+      </c>
+      <c r="Q370" s="50" t="s">
+        <v>1359</v>
+      </c>
+      <c r="V370" s="45" t="s">
+        <v>598</v>
+      </c>
+      <c r="W370" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X370" s="45">
+        <v>1598311800</v>
+      </c>
+      <c r="Y370" s="45">
+        <v>1598889599</v>
+      </c>
+      <c r="Z370" s="45">
+        <v>42</v>
+      </c>
+      <c r="AG370" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH370" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK370" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL370" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="45">
+        <v>370</v>
+      </c>
+      <c r="B371" s="45">
+        <v>10287</v>
+      </c>
+      <c r="F371" s="45">
+        <v>1</v>
+      </c>
+      <c r="G371" s="45" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I371" s="45" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K371" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L371" s="45">
+        <v>0</v>
+      </c>
+      <c r="M371" s="45">
+        <v>0</v>
+      </c>
+      <c r="N371" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="O371" s="45">
+        <v>4800</v>
+      </c>
+      <c r="P371" s="45" t="s">
+        <v>1358</v>
+      </c>
+      <c r="Q371" s="50" t="s">
+        <v>1360</v>
+      </c>
+      <c r="V371" s="45" t="s">
+        <v>565</v>
+      </c>
+      <c r="W371" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X371" s="45">
+        <v>1598311800</v>
+      </c>
+      <c r="Y371" s="45">
+        <v>1598889599</v>
+      </c>
+      <c r="Z371" s="45">
+        <v>42</v>
+      </c>
+      <c r="AG371" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH371" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK371" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL371" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="45">
+        <v>371</v>
+      </c>
+      <c r="B372" s="45">
+        <v>10288</v>
+      </c>
+      <c r="F372" s="45">
+        <v>1</v>
+      </c>
+      <c r="G372" s="45" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I372" s="45" t="s">
+        <v>1356</v>
+      </c>
+      <c r="K372" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L372" s="45">
+        <v>0</v>
+      </c>
+      <c r="M372" s="45">
+        <v>0</v>
+      </c>
+      <c r="N372" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="O372" s="45">
+        <v>9800</v>
+      </c>
+      <c r="P372" s="45" t="s">
+        <v>1358</v>
+      </c>
+      <c r="Q372" s="50" t="s">
+        <v>1361</v>
+      </c>
+      <c r="V372" s="45" t="s">
+        <v>1363</v>
+      </c>
+      <c r="W372" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X372" s="45">
+        <v>1598311800</v>
+      </c>
+      <c r="Y372" s="45">
+        <v>1598889599</v>
+      </c>
+      <c r="Z372" s="45">
+        <v>42</v>
+      </c>
+      <c r="AG372" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH372" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK372" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL372" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="45">
+        <v>372</v>
+      </c>
+      <c r="B373" s="45">
+        <v>10289</v>
+      </c>
+      <c r="F373" s="45">
+        <v>1</v>
+      </c>
+      <c r="G373" s="45" t="s">
+        <v>1353</v>
+      </c>
+      <c r="I373" s="45" t="s">
+        <v>1357</v>
+      </c>
+      <c r="K373" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L373" s="45">
+        <v>0</v>
+      </c>
+      <c r="M373" s="45">
+        <v>0</v>
+      </c>
+      <c r="N373" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="O373" s="45">
+        <v>19800</v>
+      </c>
+      <c r="P373" s="45" t="s">
+        <v>1358</v>
+      </c>
+      <c r="Q373" s="50" t="s">
+        <v>1362</v>
+      </c>
+      <c r="V373" s="45" t="s">
+        <v>567</v>
+      </c>
+      <c r="W373" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X373" s="45">
+        <v>1598311800</v>
+      </c>
+      <c r="Y373" s="45">
+        <v>1598889599</v>
+      </c>
+      <c r="Z373" s="45">
+        <v>42</v>
+      </c>
+      <c r="AG373" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH373" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK373" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL373" s="45">
         <v>1</v>
       </c>
     </row>
@@ -31957,10 +32277,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32574,6 +32894,14 @@
       </c>
       <c r="D42">
         <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="12">
+        <v>42</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>1364</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="1365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="1366">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6011,6 +6011,10 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "lmqx_026_lmlh" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>|首冲替换</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6792,10 +6796,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF24"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6803,32 +6807,32 @@
     <col min="1" max="1" width="8.75" style="2"/>
     <col min="2" max="4" width="19.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.125" style="23" customWidth="1"/>
-    <col min="6" max="7" width="19.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="40.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="30.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="30.125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="30.125" style="2" customWidth="1"/>
-    <col min="15" max="17" width="14.875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="19.375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="8.75" style="2"/>
-    <col min="20" max="20" width="28.75" style="2" customWidth="1"/>
-    <col min="21" max="21" width="16.875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="24.375" style="2" customWidth="1"/>
-    <col min="23" max="23" width="16.75" style="2" customWidth="1"/>
-    <col min="24" max="24" width="15.625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="30.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13" style="2" customWidth="1"/>
-    <col min="27" max="27" width="19.25" style="2" customWidth="1"/>
-    <col min="28" max="28" width="13" style="2" customWidth="1"/>
-    <col min="29" max="30" width="12.125" style="2" customWidth="1"/>
-    <col min="31" max="32" width="21.375" style="2" customWidth="1"/>
-    <col min="33" max="16384" width="8.75" style="2"/>
+    <col min="6" max="8" width="19.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="40.375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="30.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="30.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="30.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="30.125" style="2" customWidth="1"/>
+    <col min="16" max="18" width="14.875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="19.375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8.75" style="2"/>
+    <col min="21" max="21" width="28.75" style="2" customWidth="1"/>
+    <col min="22" max="22" width="16.875" style="2" customWidth="1"/>
+    <col min="23" max="23" width="24.375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="16.75" style="2" customWidth="1"/>
+    <col min="25" max="25" width="15.625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="30.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="2" customWidth="1"/>
+    <col min="28" max="28" width="19.25" style="2" customWidth="1"/>
+    <col min="29" max="29" width="13" style="2" customWidth="1"/>
+    <col min="30" max="31" width="12.125" style="2" customWidth="1"/>
+    <col min="32" max="33" width="21.375" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6848,85 +6852,88 @@
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6939,71 +6946,71 @@
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>600</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>1044</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="2">
-        <v>1</v>
-      </c>
       <c r="O2" s="2">
         <v>1</v>
       </c>
       <c r="P2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
         <v>0</v>
       </c>
       <c r="R2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" s="2">
         <v>1</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>48</v>
+      <c r="T2" s="2">
+        <v>1</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="V2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="AC2" s="2">
-        <v>1</v>
-      </c>
       <c r="AD2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -7016,74 +7023,74 @@
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>85</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>1500</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="2">
-        <v>1</v>
-      </c>
       <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
         <v>2</v>
       </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
       <c r="Q3" s="2">
         <v>0</v>
       </c>
       <c r="R3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="2">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2">
         <v>2</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="V3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AC3" s="2">
-        <v>1</v>
-      </c>
       <c r="AD3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -7096,74 +7103,74 @@
       <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>86</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>3000</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>1046</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
       <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
         <v>3</v>
       </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
       <c r="Q4" s="2">
         <v>0</v>
       </c>
       <c r="R4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="2">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2">
         <v>3</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="V4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AC4" s="2">
-        <v>1</v>
-      </c>
       <c r="AD4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -7176,74 +7183,74 @@
       <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>87</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>5000</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
       <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
         <v>4</v>
       </c>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
       <c r="Q5" s="2">
         <v>0</v>
       </c>
       <c r="R5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
         <v>4</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="V5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="X5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AC5" s="2">
-        <v>1</v>
-      </c>
       <c r="AD5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -7256,74 +7263,74 @@
       <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>88</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>9800</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
       <c r="O6" s="2">
+        <v>1</v>
+      </c>
+      <c r="P6" s="2">
         <v>5</v>
       </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
       <c r="Q6" s="2">
         <v>0</v>
       </c>
       <c r="R6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2">
         <v>5</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="V6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="X6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AC6" s="2">
-        <v>1</v>
-      </c>
       <c r="AD6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -7336,74 +7343,74 @@
       <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>89</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>49800</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
       <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
         <v>7</v>
       </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
       <c r="Q7" s="2">
         <v>0</v>
       </c>
       <c r="R7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2">
         <v>7</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="V7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AC7" s="2">
-        <v>1</v>
-      </c>
       <c r="AD7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -7419,36 +7426,36 @@
       <c r="F8" s="2">
         <v>109</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="2">
+        <v>109</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>100000</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="2">
-        <v>1</v>
-      </c>
       <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
         <v>9</v>
       </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
       <c r="Q8" s="2">
         <v>0</v>
       </c>
@@ -7456,34 +7463,37 @@
         <v>0</v>
       </c>
       <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
         <v>8</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="W8" s="2" t="s">
+      <c r="V8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="X8" s="2" t="s">
+      <c r="Y8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="Z8" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="AA8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AC8" s="2">
-        <v>1</v>
-      </c>
       <c r="AD8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AE8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -7496,74 +7506,74 @@
       <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>10044</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>99800</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>1051</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="2">
-        <v>1</v>
-      </c>
       <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
         <v>8</v>
       </c>
-      <c r="P9" s="2">
-        <v>0</v>
-      </c>
       <c r="Q9" s="2">
         <v>0</v>
       </c>
       <c r="R9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2">
         <v>9</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="W9" s="2" t="s">
+      <c r="V9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="X9" s="2" t="s">
+      <c r="Y9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Y9" s="2" t="s">
+      <c r="Z9" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="AA9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AC9" s="2">
-        <v>1</v>
-      </c>
       <c r="AD9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -7577,74 +7587,74 @@
         <v>43</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
+      <c r="G10" s="11">
         <v>10045</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="11">
+      <c r="I10" s="11">
         <v>249800</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="K10" s="34" t="s">
         <v>1052</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="M10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="N10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="11">
-        <v>1</v>
-      </c>
       <c r="O10" s="11">
+        <v>1</v>
+      </c>
+      <c r="P10" s="11">
         <v>10</v>
       </c>
-      <c r="P10" s="11">
-        <v>0</v>
-      </c>
       <c r="Q10" s="11">
         <v>0</v>
       </c>
       <c r="R10" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="11">
+        <v>1</v>
+      </c>
+      <c r="T10" s="11">
         <v>10</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="U10" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="V10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="X10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="X10" s="11" t="s">
+      <c r="Y10" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="Y10" s="11" t="s">
+      <c r="Z10" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="Z10" s="11" t="s">
+      <c r="AA10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC10" s="11">
-        <v>1</v>
-      </c>
       <c r="AD10" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -7663,71 +7673,74 @@
       <c r="F11" s="11">
         <v>90</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="11">
+        <v>90</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="11">
+      <c r="I11" s="11">
         <v>600</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="J11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="K11" s="34" t="s">
         <v>1053</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="L11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="11">
+      <c r="M11" s="11">
         <v>100200300</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="N11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="11">
-        <v>1</v>
-      </c>
       <c r="O11" s="11">
         <v>1</v>
       </c>
       <c r="P11" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="11">
         <v>0</v>
       </c>
       <c r="R11" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="11">
         <v>1</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="T11" s="11">
+        <v>1</v>
+      </c>
+      <c r="U11" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="U11" s="11">
+      <c r="V11" s="11">
         <v>400</v>
       </c>
-      <c r="W11" s="11" t="s">
+      <c r="X11" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="X11" s="11" t="s">
+      <c r="Y11" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="Y11" s="34" t="s">
+      <c r="Z11" s="34" t="s">
         <v>668</v>
       </c>
-      <c r="Z11" s="11" t="s">
+      <c r="AA11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC11" s="11">
-        <v>1</v>
-      </c>
       <c r="AD11" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -7743,71 +7756,71 @@
       <c r="E12" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="11">
+      <c r="I12" s="11">
         <v>3000</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="K12" s="34" t="s">
         <v>1054</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="L12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L12" s="11">
+      <c r="M12" s="11">
         <v>100200300</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="N12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="11">
-        <v>1</v>
-      </c>
       <c r="O12" s="11">
+        <v>1</v>
+      </c>
+      <c r="P12" s="11">
         <v>2</v>
       </c>
-      <c r="P12" s="11">
-        <v>0</v>
-      </c>
       <c r="Q12" s="11">
         <v>0</v>
       </c>
       <c r="R12" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="11">
+        <v>1</v>
+      </c>
+      <c r="T12" s="11">
         <v>2</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="U12" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="U12" s="11">
+      <c r="V12" s="11">
         <v>2000</v>
       </c>
-      <c r="W12" s="11" t="s">
+      <c r="X12" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="X12" s="11" t="s">
+      <c r="Y12" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="Y12" s="11" t="s">
+      <c r="Z12" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="Z12" s="11" t="s">
+      <c r="AA12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC12" s="11">
-        <v>1</v>
-      </c>
       <c r="AD12" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -7823,71 +7836,71 @@
       <c r="E13" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="11">
+      <c r="I13" s="11">
         <v>9800</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="J13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="K13" s="34" t="s">
         <v>1055</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="L13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="11">
+      <c r="M13" s="11">
         <v>100200300</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="N13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="11">
-        <v>1</v>
-      </c>
       <c r="O13" s="11">
+        <v>1</v>
+      </c>
+      <c r="P13" s="11">
         <v>3</v>
       </c>
-      <c r="P13" s="11">
-        <v>0</v>
-      </c>
       <c r="Q13" s="11">
         <v>0</v>
       </c>
       <c r="R13" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S13" s="11">
+        <v>1</v>
+      </c>
+      <c r="T13" s="11">
         <v>3</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="U13" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="U13" s="11">
+      <c r="V13" s="11">
         <v>6700</v>
       </c>
-      <c r="W13" s="11" t="s">
+      <c r="X13" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="X13" s="11" t="s">
+      <c r="Y13" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="Y13" s="11" t="s">
+      <c r="Z13" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="Z13" s="11" t="s">
+      <c r="AA13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC13" s="11">
-        <v>1</v>
-      </c>
       <c r="AD13" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -7903,71 +7916,71 @@
       <c r="E14" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="11">
+      <c r="I14" s="11">
         <v>19800</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="J14" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="K14" s="34" t="s">
         <v>1056</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="L14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L14" s="11">
+      <c r="M14" s="11">
         <v>100200300</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="N14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="11">
-        <v>1</v>
-      </c>
       <c r="O14" s="11">
+        <v>1</v>
+      </c>
+      <c r="P14" s="11">
         <v>4</v>
       </c>
-      <c r="P14" s="11">
-        <v>0</v>
-      </c>
       <c r="Q14" s="11">
         <v>0</v>
       </c>
       <c r="R14" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" s="11">
+        <v>1</v>
+      </c>
+      <c r="T14" s="11">
         <v>4</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="U14" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="V14" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="W14" s="11" t="s">
+      <c r="X14" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="X14" s="11" t="s">
+      <c r="Y14" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="Y14" s="11" t="s">
+      <c r="Z14" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="Z14" s="11" t="s">
+      <c r="AA14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC14" s="11">
-        <v>1</v>
-      </c>
       <c r="AD14" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -7983,71 +7996,71 @@
       <c r="E15" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="11">
+      <c r="I15" s="11">
         <v>29800</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="J15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="K15" s="34" t="s">
         <v>1057</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="L15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="11">
+      <c r="M15" s="11">
         <v>100200300</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="N15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="11">
-        <v>1</v>
-      </c>
       <c r="O15" s="11">
+        <v>1</v>
+      </c>
+      <c r="P15" s="11">
         <v>5</v>
       </c>
-      <c r="P15" s="11">
-        <v>0</v>
-      </c>
       <c r="Q15" s="11">
         <v>0</v>
       </c>
       <c r="R15" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="11">
+        <v>1</v>
+      </c>
+      <c r="T15" s="11">
         <v>5</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="U15" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="V15" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="W15" s="11" t="s">
+      <c r="X15" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="X15" s="11" t="s">
+      <c r="Y15" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="Y15" s="11" t="s">
+      <c r="Z15" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="Z15" s="11" t="s">
+      <c r="AA15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC15" s="11">
-        <v>1</v>
-      </c>
       <c r="AD15" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -8063,36 +8076,33 @@
       <c r="E16" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="11">
+      <c r="I16" s="11">
         <v>100</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="J16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="K16" s="34" t="s">
         <v>1058</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="L16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="M16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="N16" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N16" s="11">
-        <v>1</v>
-      </c>
       <c r="O16" s="11">
+        <v>1</v>
+      </c>
+      <c r="P16" s="11">
         <v>11</v>
       </c>
-      <c r="P16" s="11">
-        <v>0</v>
-      </c>
       <c r="Q16" s="11">
         <v>0</v>
       </c>
@@ -8102,32 +8112,35 @@
       <c r="S16" s="11">
         <v>0</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="T16" s="11">
+        <v>0</v>
+      </c>
+      <c r="U16" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="U16" s="11">
+      <c r="V16" s="11">
         <v>100</v>
       </c>
-      <c r="W16" s="11" t="s">
+      <c r="X16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="X16" s="11" t="s">
+      <c r="Y16" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="Y16" s="34" t="s">
+      <c r="Z16" s="34" t="s">
         <v>668</v>
       </c>
-      <c r="Z16" s="11" t="s">
+      <c r="AA16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC16" s="11">
-        <v>1</v>
-      </c>
       <c r="AD16" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -8135,30 +8148,27 @@
         <v>22</v>
       </c>
       <c r="E17" s="23"/>
-      <c r="G17" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="11">
+      <c r="I17" s="11">
         <v>600</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="J17" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="K17" s="34" t="s">
         <v>701</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="L17" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="M17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="N17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N17" s="11">
-        <v>1</v>
-      </c>
       <c r="O17" s="11">
         <v>1</v>
       </c>
@@ -8169,37 +8179,40 @@
         <v>1</v>
       </c>
       <c r="R17" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="11">
-        <v>1</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>1013</v>
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <v>1</v>
       </c>
       <c r="U17" s="11" t="s">
         <v>1013</v>
       </c>
-      <c r="W17" s="11" t="s">
+      <c r="V17" s="11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="X17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="X17" s="11" t="s">
+      <c r="Y17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Y17" s="34" t="s">
+      <c r="Z17" s="34" t="s">
         <v>668</v>
       </c>
-      <c r="Z17" s="11" t="s">
+      <c r="AA17" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC17" s="11">
-        <v>1</v>
-      </c>
       <c r="AD17" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -8207,36 +8220,33 @@
         <v>23</v>
       </c>
       <c r="E18" s="23"/>
-      <c r="G18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="11">
+      <c r="I18" s="11">
         <v>1500</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="J18" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J18" s="34" t="s">
+      <c r="K18" s="34" t="s">
         <v>702</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="L18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="M18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="N18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N18" s="11">
-        <v>1</v>
-      </c>
       <c r="O18" s="11">
+        <v>1</v>
+      </c>
+      <c r="P18" s="11">
         <v>2</v>
       </c>
-      <c r="P18" s="11">
-        <v>0</v>
-      </c>
       <c r="Q18" s="11">
         <v>0</v>
       </c>
@@ -8244,34 +8254,37 @@
         <v>0</v>
       </c>
       <c r="S18" s="11">
+        <v>0</v>
+      </c>
+      <c r="T18" s="11">
         <v>2</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>1014</v>
       </c>
       <c r="U18" s="11" t="s">
         <v>1014</v>
       </c>
-      <c r="W18" s="11" t="s">
+      <c r="V18" s="11" t="s">
+        <v>1014</v>
+      </c>
+      <c r="X18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="X18" s="11" t="s">
+      <c r="Y18" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Y18" s="11" t="s">
+      <c r="Z18" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="Z18" s="11" t="s">
+      <c r="AA18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC18" s="11">
-        <v>1</v>
-      </c>
       <c r="AD18" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -8279,71 +8292,71 @@
         <v>24</v>
       </c>
       <c r="E19" s="23"/>
-      <c r="G19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="11">
+      <c r="I19" s="11">
         <v>3000</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="J19" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="K19" s="34" t="s">
         <v>703</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="L19" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="M19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="N19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N19" s="11">
-        <v>1</v>
-      </c>
       <c r="O19" s="11">
+        <v>1</v>
+      </c>
+      <c r="P19" s="11">
         <v>3</v>
       </c>
-      <c r="P19" s="11">
-        <v>1</v>
-      </c>
       <c r="Q19" s="11">
         <v>1</v>
       </c>
       <c r="R19" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="11">
+        <v>0</v>
+      </c>
+      <c r="T19" s="11">
         <v>3</v>
-      </c>
-      <c r="T19" s="11" t="s">
-        <v>1015</v>
       </c>
       <c r="U19" s="11" t="s">
         <v>1015</v>
       </c>
-      <c r="W19" s="11" t="s">
+      <c r="V19" s="11" t="s">
+        <v>1015</v>
+      </c>
+      <c r="X19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="X19" s="11" t="s">
+      <c r="Y19" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="Y19" s="11" t="s">
+      <c r="Z19" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="Z19" s="11" t="s">
+      <c r="AA19" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC19" s="11">
-        <v>1</v>
-      </c>
       <c r="AD19" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -8351,71 +8364,71 @@
         <v>25</v>
       </c>
       <c r="E20" s="23"/>
-      <c r="G20" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="11">
+      <c r="I20" s="11">
         <v>5000</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="J20" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="K20" s="34" t="s">
         <v>704</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="L20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="M20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="N20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="11">
-        <v>1</v>
-      </c>
       <c r="O20" s="11">
+        <v>1</v>
+      </c>
+      <c r="P20" s="11">
         <v>4</v>
       </c>
-      <c r="P20" s="11">
-        <v>1</v>
-      </c>
       <c r="Q20" s="11">
         <v>1</v>
       </c>
       <c r="R20" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="11">
+        <v>0</v>
+      </c>
+      <c r="T20" s="11">
         <v>4</v>
-      </c>
-      <c r="T20" s="11" t="s">
-        <v>1016</v>
       </c>
       <c r="U20" s="11" t="s">
         <v>1016</v>
       </c>
-      <c r="W20" s="11" t="s">
+      <c r="V20" s="11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="X20" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="X20" s="11" t="s">
+      <c r="Y20" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y20" s="11" t="s">
+      <c r="Z20" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="Z20" s="11" t="s">
+      <c r="AA20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC20" s="11">
-        <v>1</v>
-      </c>
       <c r="AD20" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -8423,71 +8436,71 @@
         <v>26</v>
       </c>
       <c r="E21" s="23"/>
-      <c r="G21" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="11">
+      <c r="I21" s="11">
         <v>9800</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="J21" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="K21" s="34" t="s">
         <v>705</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="L21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="M21" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="N21" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N21" s="11">
-        <v>1</v>
-      </c>
       <c r="O21" s="11">
+        <v>1</v>
+      </c>
+      <c r="P21" s="11">
         <v>5</v>
       </c>
-      <c r="P21" s="11">
-        <v>1</v>
-      </c>
       <c r="Q21" s="11">
         <v>1</v>
       </c>
       <c r="R21" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
         <v>5</v>
-      </c>
-      <c r="T21" s="11" t="s">
-        <v>1017</v>
       </c>
       <c r="U21" s="11" t="s">
         <v>1017</v>
       </c>
-      <c r="W21" s="11" t="s">
+      <c r="V21" s="11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="X21" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="X21" s="11" t="s">
+      <c r="Y21" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="Y21" s="11" t="s">
+      <c r="Z21" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="Z21" s="11" t="s">
+      <c r="AA21" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC21" s="11">
-        <v>1</v>
-      </c>
       <c r="AD21" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE21" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -8495,71 +8508,71 @@
         <v>27</v>
       </c>
       <c r="E22" s="23"/>
-      <c r="G22" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="11">
+      <c r="I22" s="11">
         <v>49800</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="J22" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="K22" s="34" t="s">
         <v>706</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="L22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="M22" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="N22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N22" s="11">
-        <v>1</v>
-      </c>
       <c r="O22" s="11">
+        <v>1</v>
+      </c>
+      <c r="P22" s="11">
         <v>6</v>
       </c>
-      <c r="P22" s="11">
-        <v>1</v>
-      </c>
       <c r="Q22" s="11">
         <v>1</v>
       </c>
       <c r="R22" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="11">
+        <v>0</v>
+      </c>
+      <c r="T22" s="11">
         <v>6</v>
-      </c>
-      <c r="T22" s="11" t="s">
-        <v>1018</v>
       </c>
       <c r="U22" s="11" t="s">
         <v>1018</v>
       </c>
-      <c r="W22" s="11" t="s">
+      <c r="V22" s="11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="X22" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="X22" s="11" t="s">
+      <c r="Y22" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="Y22" s="11" t="s">
+      <c r="Z22" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="Z22" s="11" t="s">
+      <c r="AA22" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC22" s="11">
-        <v>1</v>
-      </c>
       <c r="AD22" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE22" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -8567,36 +8580,33 @@
         <v>34</v>
       </c>
       <c r="E23" s="23"/>
-      <c r="G23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="11">
+      <c r="I23" s="11">
         <v>100000</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="J23" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J23" s="34" t="s">
+      <c r="K23" s="34" t="s">
         <v>707</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="L23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="M23" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="11" t="s">
+      <c r="N23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="N23" s="11">
-        <v>1</v>
-      </c>
       <c r="O23" s="11">
+        <v>1</v>
+      </c>
+      <c r="P23" s="11">
         <v>7</v>
       </c>
-      <c r="P23" s="11">
-        <v>0</v>
-      </c>
       <c r="Q23" s="11">
         <v>0</v>
       </c>
@@ -8604,34 +8614,37 @@
         <v>0</v>
       </c>
       <c r="S23" s="11">
+        <v>0</v>
+      </c>
+      <c r="T23" s="11">
         <v>7</v>
-      </c>
-      <c r="T23" s="11" t="s">
-        <v>1019</v>
       </c>
       <c r="U23" s="11" t="s">
         <v>1019</v>
       </c>
-      <c r="W23" s="11" t="s">
+      <c r="V23" s="11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="X23" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="X23" s="11" t="s">
+      <c r="Y23" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="Y23" s="11" t="s">
+      <c r="Z23" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="Z23" s="11" t="s">
+      <c r="AA23" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC23" s="11">
-        <v>1</v>
-      </c>
       <c r="AD23" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -8645,70 +8658,70 @@
         <v>43</v>
       </c>
       <c r="E24" s="23"/>
-      <c r="F24" s="11">
+      <c r="G24" s="11">
         <v>10189</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="H24" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="11">
+      <c r="I24" s="11">
         <v>19800</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="J24" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J24" s="34" t="s">
+      <c r="K24" s="34" t="s">
         <v>1173</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="L24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="M24" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="M24" s="11" t="s">
+      <c r="N24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N24" s="11">
-        <v>1</v>
-      </c>
       <c r="O24" s="11">
+        <v>1</v>
+      </c>
+      <c r="P24" s="11">
         <v>6</v>
       </c>
-      <c r="P24" s="11">
-        <v>0</v>
-      </c>
       <c r="Q24" s="11">
         <v>0</v>
       </c>
       <c r="R24" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="11">
+        <v>1</v>
+      </c>
+      <c r="T24" s="11">
         <v>6</v>
       </c>
-      <c r="T24" s="34" t="s">
+      <c r="U24" s="34" t="s">
         <v>546</v>
       </c>
-      <c r="U24" s="34" t="s">
+      <c r="V24" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="W24" s="11" t="s">
+      <c r="X24" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="X24" s="34" t="s">
+      <c r="Y24" s="34" t="s">
         <v>545</v>
       </c>
-      <c r="Y24" s="11" t="s">
+      <c r="Z24" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="Z24" s="11" t="s">
+      <c r="AA24" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AC24" s="11">
-        <v>1</v>
-      </c>
       <c r="AD24" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="11">
         <v>1</v>
       </c>
     </row>
@@ -32279,7 +32292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -5986,10 +5986,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_fish_drop_0",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>2800000,-200,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6015,6 +6011,10 @@
   </si>
   <si>
     <t>|首冲替换</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_fish_drop_act_0",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6798,7 +6798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -6852,7 +6852,7 @@
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>18</v>
@@ -8737,11 +8737,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM373"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H363" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="N360" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E370" sqref="E370"/>
+      <selection pane="bottomRight" activeCell="P379" sqref="P379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -32052,10 +32052,10 @@
         <v>1800</v>
       </c>
       <c r="P370" s="45" t="s">
+        <v>1365</v>
+      </c>
+      <c r="Q370" s="50" t="s">
         <v>1358</v>
-      </c>
-      <c r="Q370" s="50" t="s">
-        <v>1359</v>
       </c>
       <c r="V370" s="45" t="s">
         <v>598</v>
@@ -32117,10 +32117,10 @@
         <v>4800</v>
       </c>
       <c r="P371" s="45" t="s">
-        <v>1358</v>
+        <v>1365</v>
       </c>
       <c r="Q371" s="50" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="V371" s="45" t="s">
         <v>565</v>
@@ -32182,13 +32182,13 @@
         <v>9800</v>
       </c>
       <c r="P372" s="45" t="s">
-        <v>1358</v>
+        <v>1365</v>
       </c>
       <c r="Q372" s="50" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="V372" s="45" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="W372" s="45">
         <v>9999999</v>
@@ -32247,10 +32247,10 @@
         <v>19800</v>
       </c>
       <c r="P373" s="45" t="s">
-        <v>1358</v>
+        <v>1365</v>
       </c>
       <c r="Q373" s="50" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="V373" s="45" t="s">
         <v>567</v>
@@ -32914,7 +32914,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
   </sheetData>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'gift_bag|礼包'!$A$1:$AM$322</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jing_bi|购买鲸币'!$A$1:$AB$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jing_bi|购买鲸币'!$A$1:$AC$25</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -169,7 +169,7 @@
     <author>个人用户</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="1367">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6015,6 +6015,10 @@
   </si>
   <si>
     <t>"jing_bi","prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>|首冲替换</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6798,8 +6802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8737,11 +8741,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM373"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="N360" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="N48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P379" sqref="P379"/>
+      <selection pane="bottomRight" activeCell="F67" sqref="F67:F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -32926,38 +32930,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="19.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="37.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.875" style="2" customWidth="1"/>
-    <col min="12" max="14" width="8.75" style="2" customWidth="1"/>
-    <col min="15" max="15" width="24.375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.75" style="2" customWidth="1"/>
-    <col min="17" max="17" width="15.625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="19.25" style="2" customWidth="1"/>
-    <col min="19" max="19" width="13" style="2" customWidth="1"/>
-    <col min="20" max="20" width="19.25" style="2" customWidth="1"/>
-    <col min="21" max="21" width="13" style="2" customWidth="1"/>
-    <col min="22" max="22" width="13.25" style="2" customWidth="1"/>
-    <col min="23" max="23" width="8.75" style="2"/>
-    <col min="24" max="25" width="12.125" style="2" customWidth="1"/>
-    <col min="26" max="27" width="21.375" style="2" customWidth="1"/>
-    <col min="28" max="28" width="42.875" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.75" style="2"/>
+    <col min="1" max="6" width="19.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="37.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.875" style="2" customWidth="1"/>
+    <col min="13" max="15" width="8.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="24.375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.75" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="19.25" style="2" customWidth="1"/>
+    <col min="20" max="20" width="13" style="2" customWidth="1"/>
+    <col min="21" max="21" width="19.25" style="2" customWidth="1"/>
+    <col min="22" max="22" width="13" style="2" customWidth="1"/>
+    <col min="23" max="23" width="13.25" style="2" customWidth="1"/>
+    <col min="24" max="24" width="8.75" style="2"/>
+    <col min="25" max="26" width="12.125" style="2" customWidth="1"/>
+    <col min="27" max="28" width="21.375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="42.875" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>413</v>
       </c>
@@ -32971,79 +32975,82 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -33053,59 +33060,59 @@
       <c r="C2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="11">
-        <v>1</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="11">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="G2" s="11">
+      <c r="H2" s="11">
         <v>600</v>
-      </c>
-      <c r="H2" s="11">
-        <v>600000</v>
       </c>
       <c r="I2" s="11">
         <v>600000</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="11">
+        <v>600000</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="11">
-        <v>1</v>
-      </c>
-      <c r="O2" s="11">
+      <c r="N2" s="11">
+        <v>1</v>
+      </c>
+      <c r="P2" s="11">
         <v>3</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="Q2" s="34" t="s">
         <v>1022</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="S2" s="34" t="s">
         <v>1059</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="U2" s="34" t="s">
         <v>683</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X2" s="11">
-        <v>1</v>
-      </c>
       <c r="Y2" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -33115,62 +33122,62 @@
       <c r="C3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="11">
+      <c r="E3" s="11">
         <v>85</v>
       </c>
-      <c r="E3" s="11">
+      <c r="F3" s="11">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="G3" s="11">
+      <c r="H3" s="11">
         <v>1500</v>
-      </c>
-      <c r="H3" s="11">
-        <v>1500000</v>
       </c>
       <c r="I3" s="11">
         <v>1500000</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="11">
+        <v>1500000</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="11">
-        <v>1</v>
-      </c>
-      <c r="O3" s="11">
+      <c r="N3" s="11">
+        <v>1</v>
+      </c>
+      <c r="P3" s="11">
         <v>4</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="Q3" s="34" t="s">
         <v>1023</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="S3" s="34" t="s">
         <v>1059</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="T3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="34" t="s">
+      <c r="U3" s="34" t="s">
         <v>685</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="V3" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X3" s="11">
-        <v>1</v>
-      </c>
       <c r="Y3" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -33180,62 +33187,62 @@
       <c r="C4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="11">
+      <c r="E4" s="11">
         <v>86</v>
       </c>
-      <c r="E4" s="11">
+      <c r="F4" s="11">
         <v>3</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="G4" s="11">
+      <c r="H4" s="11">
         <v>3000</v>
-      </c>
-      <c r="H4" s="11">
-        <v>3000000</v>
       </c>
       <c r="I4" s="11">
         <v>3000000</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="11">
+        <v>3000000</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="M4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="11">
-        <v>1</v>
-      </c>
-      <c r="O4" s="11">
+      <c r="N4" s="11">
+        <v>1</v>
+      </c>
+      <c r="P4" s="11">
         <v>5</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="Q4" s="34" t="s">
         <v>1024</v>
       </c>
-      <c r="R4" s="34" t="s">
+      <c r="S4" s="34" t="s">
         <v>1060</v>
       </c>
-      <c r="S4" s="11" t="s">
+      <c r="T4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="U4" s="11" t="s">
         <v>679</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="V4" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X4" s="11">
-        <v>1</v>
-      </c>
       <c r="Y4" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -33245,62 +33252,62 @@
       <c r="C5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="11">
+      <c r="E5" s="11">
         <v>87</v>
       </c>
-      <c r="E5" s="11">
+      <c r="F5" s="11">
         <v>4</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="G5" s="11">
+      <c r="H5" s="11">
         <v>5000</v>
-      </c>
-      <c r="H5" s="11">
-        <v>5000000</v>
       </c>
       <c r="I5" s="11">
         <v>5000000</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="11">
+        <v>5000000</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="11">
-        <v>1</v>
-      </c>
-      <c r="O5" s="11">
+      <c r="N5" s="11">
+        <v>1</v>
+      </c>
+      <c r="P5" s="11">
         <v>6</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="Q5" s="34" t="s">
         <v>1025</v>
       </c>
-      <c r="R5" s="34" t="s">
+      <c r="S5" s="34" t="s">
         <v>1060</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="T5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="U5" s="34" t="s">
         <v>686</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="V5" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X5" s="11">
-        <v>1</v>
-      </c>
       <c r="Y5" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -33310,62 +33317,62 @@
       <c r="C6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="11">
+      <c r="E6" s="11">
         <v>88</v>
       </c>
-      <c r="E6" s="11">
+      <c r="F6" s="11">
         <v>5</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="G6" s="11">
+      <c r="H6" s="11">
         <v>9800</v>
-      </c>
-      <c r="H6" s="11">
-        <v>9800000</v>
       </c>
       <c r="I6" s="11">
         <v>9800000</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="11">
+        <v>9800000</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="L6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="M6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="11">
-        <v>1</v>
-      </c>
-      <c r="O6" s="11">
+      <c r="N6" s="11">
+        <v>1</v>
+      </c>
+      <c r="P6" s="11">
         <v>7</v>
       </c>
-      <c r="P6" s="34" t="s">
+      <c r="Q6" s="34" t="s">
         <v>1026</v>
       </c>
-      <c r="R6" s="34" t="s">
+      <c r="S6" s="34" t="s">
         <v>1060</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="T6" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="U6" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="V6" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X6" s="11">
-        <v>1</v>
-      </c>
       <c r="Y6" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -33375,62 +33382,62 @@
       <c r="C7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="11">
+      <c r="E7" s="11">
         <v>89</v>
       </c>
-      <c r="E7" s="11">
+      <c r="F7" s="11">
         <v>6</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="G7" s="11">
+      <c r="H7" s="11">
         <v>49800</v>
-      </c>
-      <c r="H7" s="11">
-        <v>49800000</v>
       </c>
       <c r="I7" s="11">
         <v>49800000</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="11">
+        <v>49800000</v>
+      </c>
+      <c r="K7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="M7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="11">
-        <v>1</v>
-      </c>
-      <c r="O7" s="11">
+      <c r="N7" s="11">
+        <v>1</v>
+      </c>
+      <c r="P7" s="11">
         <v>9</v>
       </c>
-      <c r="P7" s="34" t="s">
+      <c r="Q7" s="34" t="s">
         <v>1027</v>
       </c>
-      <c r="R7" s="34" t="s">
+      <c r="S7" s="34" t="s">
         <v>1060</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="T7" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="U7" s="11" t="s">
         <v>682</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="V7" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X7" s="11">
-        <v>1</v>
-      </c>
       <c r="Y7" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -33440,59 +33447,59 @@
       <c r="C8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="11">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="G8" s="11">
+      <c r="H8" s="11">
         <v>100</v>
-      </c>
-      <c r="H8" s="11">
-        <v>100000</v>
       </c>
       <c r="I8" s="11">
         <v>100000</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="11">
+        <v>100000</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="L8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="M8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="11">
-        <v>0</v>
-      </c>
-      <c r="O8" s="11">
-        <v>0</v>
-      </c>
-      <c r="P8" s="34" t="s">
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+      <c r="P8" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="34" t="s">
         <v>978</v>
       </c>
-      <c r="R8" s="34" t="s">
+      <c r="S8" s="34" t="s">
         <v>1061</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="T8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="T8" s="34" t="s">
+      <c r="U8" s="34" t="s">
         <v>689</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="V8" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X8" s="11">
-        <v>1</v>
-      </c>
       <c r="Y8" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -33502,59 +33509,59 @@
       <c r="C9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="11">
+      <c r="F9" s="11">
         <v>5</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="G9" s="11">
+      <c r="H9" s="11">
         <v>5000</v>
-      </c>
-      <c r="H9" s="11">
-        <v>5000000</v>
       </c>
       <c r="I9" s="11">
         <v>5000000</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="11">
+        <v>5000000</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="L9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="M9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="11">
-        <v>1</v>
-      </c>
-      <c r="O9" s="11">
+      <c r="N9" s="11">
+        <v>1</v>
+      </c>
+      <c r="P9" s="11">
         <v>2</v>
       </c>
-      <c r="P9" s="34" t="s">
+      <c r="Q9" s="34" t="s">
         <v>1025</v>
       </c>
-      <c r="S9" s="11">
+      <c r="T9" s="11">
         <v>5000</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="U9" s="11" t="s">
         <v>680</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="V9" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X9" s="11">
-        <v>1</v>
-      </c>
       <c r="Y9" s="11">
         <v>1</v>
       </c>
-      <c r="AB9" s="34" t="s">
+      <c r="Z9" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="34" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="10" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -33564,59 +33571,59 @@
       <c r="C10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="11">
+      <c r="F10" s="11">
         <v>2</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="G10" s="11">
+      <c r="H10" s="11">
         <v>1000</v>
-      </c>
-      <c r="H10" s="11">
-        <v>1000000</v>
       </c>
       <c r="I10" s="11">
         <v>1000000</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="K10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="M10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="11">
-        <v>1</v>
-      </c>
-      <c r="O10" s="11">
-        <v>1</v>
-      </c>
-      <c r="P10" s="34" t="s">
+      <c r="N10" s="11">
+        <v>1</v>
+      </c>
+      <c r="P10" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="34" t="s">
         <v>1028</v>
       </c>
-      <c r="S10" s="11">
+      <c r="T10" s="11">
         <v>1000</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>678</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="V10" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X10" s="11">
-        <v>1</v>
-      </c>
       <c r="Y10" s="11">
         <v>1</v>
       </c>
-      <c r="AB10" s="34" t="s">
+      <c r="Z10" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="34" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="11" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -33626,59 +33633,59 @@
       <c r="C11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="11">
+      <c r="F11" s="11">
         <v>2</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="G11" s="11">
+      <c r="H11" s="11">
         <v>1500</v>
-      </c>
-      <c r="H11" s="11">
-        <v>1500000</v>
       </c>
       <c r="I11" s="11">
         <v>1500000</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="11">
+        <v>1500000</v>
+      </c>
+      <c r="K11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="L11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="M11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="34" t="s">
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+      <c r="P11" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="34" t="s">
         <v>1023</v>
       </c>
-      <c r="R11" s="34" t="s">
+      <c r="S11" s="34" t="s">
         <v>1062</v>
       </c>
-      <c r="S11" s="23" t="s">
+      <c r="T11" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="U11" s="11" t="s">
         <v>678</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="V11" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X11" s="11">
-        <v>1</v>
-      </c>
       <c r="Y11" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -33692,58 +33699,61 @@
         <v>109</v>
       </c>
       <c r="E12" s="11">
+        <v>109</v>
+      </c>
+      <c r="F12" s="11">
         <v>107</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="G12" s="11">
+      <c r="H12" s="11">
         <v>100000</v>
-      </c>
-      <c r="H12" s="11">
-        <v>100000000</v>
       </c>
       <c r="I12" s="11">
         <v>100000000</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="11">
+        <v>100000000</v>
+      </c>
+      <c r="K12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="L12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="M12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="11">
-        <v>0</v>
-      </c>
-      <c r="O12" s="11">
+      <c r="N12" s="11">
+        <v>0</v>
+      </c>
+      <c r="P12" s="11">
         <v>9</v>
       </c>
-      <c r="P12" s="34" t="s">
+      <c r="Q12" s="34" t="s">
         <v>1029</v>
       </c>
-      <c r="R12" s="34" t="s">
+      <c r="S12" s="34" t="s">
         <v>1060</v>
       </c>
-      <c r="S12" s="11" t="s">
+      <c r="T12" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="U12" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="V12" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X12" s="11">
-        <v>1</v>
-      </c>
       <c r="Y12" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -33753,62 +33763,62 @@
       <c r="C13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="11">
+      <c r="E13" s="11">
         <v>10044</v>
       </c>
-      <c r="E13" s="11">
+      <c r="F13" s="11">
         <v>108</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="G13" s="11">
+      <c r="H13" s="11">
         <v>99800</v>
-      </c>
-      <c r="H13" s="11">
-        <v>99800000</v>
       </c>
       <c r="I13" s="11">
         <v>99800000</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="11">
+        <v>99800000</v>
+      </c>
+      <c r="K13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="L13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="M13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="11">
-        <v>1</v>
-      </c>
-      <c r="O13" s="11">
+      <c r="N13" s="11">
+        <v>1</v>
+      </c>
+      <c r="P13" s="11">
         <v>10</v>
       </c>
-      <c r="P13" s="34" t="s">
+      <c r="Q13" s="34" t="s">
         <v>1030</v>
       </c>
-      <c r="R13" s="34" t="s">
+      <c r="S13" s="34" t="s">
         <v>1062</v>
       </c>
-      <c r="S13" s="11" t="s">
+      <c r="T13" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="U13" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="V13" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X13" s="11">
-        <v>1</v>
-      </c>
       <c r="Y13" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -33818,62 +33828,62 @@
       <c r="C14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="11">
+      <c r="E14" s="11">
         <v>10045</v>
       </c>
-      <c r="E14" s="11">
+      <c r="F14" s="11">
         <v>110</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="G14" s="11">
+      <c r="H14" s="11">
         <v>249800</v>
-      </c>
-      <c r="H14" s="11">
-        <v>249800000</v>
       </c>
       <c r="I14" s="11">
         <v>249800000</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="11">
+        <v>249800000</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="L14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="M14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M14" s="11">
-        <v>1</v>
-      </c>
-      <c r="O14" s="11">
+      <c r="N14" s="11">
+        <v>1</v>
+      </c>
+      <c r="P14" s="11">
         <v>11</v>
       </c>
-      <c r="P14" s="34" t="s">
+      <c r="Q14" s="34" t="s">
         <v>1031</v>
       </c>
-      <c r="R14" s="34" t="s">
+      <c r="S14" s="34" t="s">
         <v>1063</v>
       </c>
-      <c r="S14" s="11" t="s">
+      <c r="T14" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="U14" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="V14" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X14" s="11">
-        <v>1</v>
-      </c>
       <c r="Y14" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z14" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -33883,63 +33893,63 @@
       <c r="C15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="11">
-        <v>1</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="G15" s="11">
+      <c r="H15" s="11">
         <v>100</v>
-      </c>
-      <c r="H15" s="11">
-        <v>100000</v>
       </c>
       <c r="I15" s="11">
         <v>100000</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="11">
+        <v>100000</v>
+      </c>
+      <c r="K15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="L15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="M15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="11">
-        <v>1</v>
-      </c>
       <c r="N15" s="11">
+        <v>1</v>
+      </c>
+      <c r="O15" s="11">
         <v>14</v>
       </c>
-      <c r="O15" s="11">
-        <v>0</v>
-      </c>
-      <c r="P15" s="34" t="s">
+      <c r="P15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="34" t="s">
         <v>978</v>
       </c>
-      <c r="R15" s="34"/>
-      <c r="S15" s="11">
+      <c r="S15" s="34"/>
+      <c r="T15" s="11">
         <v>100</v>
       </c>
-      <c r="T15" s="34" t="s">
+      <c r="U15" s="34" t="s">
         <v>684</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="V15" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X15" s="11">
-        <v>1</v>
-      </c>
       <c r="Y15" s="11">
         <v>1</v>
       </c>
-      <c r="AB15" s="34" t="s">
+      <c r="Z15" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="34" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -33953,58 +33963,61 @@
         <v>90</v>
       </c>
       <c r="E16" s="11">
+        <v>90</v>
+      </c>
+      <c r="F16" s="11">
         <v>101</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="G16" s="11">
+      <c r="H16" s="11">
         <v>400</v>
-      </c>
-      <c r="H16" s="11">
-        <v>400000</v>
       </c>
       <c r="I16" s="11">
         <v>400000</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="11">
+        <v>400000</v>
+      </c>
+      <c r="K16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="L16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="M16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="11">
-        <v>1</v>
-      </c>
-      <c r="O16" s="11">
+      <c r="N16" s="11">
+        <v>1</v>
+      </c>
+      <c r="P16" s="11">
         <v>3</v>
       </c>
-      <c r="P16" s="34" t="s">
+      <c r="Q16" s="34" t="s">
         <v>1032</v>
       </c>
-      <c r="R16" s="34" t="s">
+      <c r="S16" s="34" t="s">
         <v>1064</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="T16" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="T16" s="34" t="s">
+      <c r="U16" s="34" t="s">
         <v>688</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="V16" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X16" s="11">
-        <v>1</v>
-      </c>
       <c r="Y16" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z16" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -34014,59 +34027,59 @@
       <c r="C17" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="11">
+      <c r="F17" s="11">
         <v>102</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="G17" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="G17" s="11">
+      <c r="H17" s="11">
         <v>2000</v>
-      </c>
-      <c r="H17" s="11">
-        <v>2000000</v>
       </c>
       <c r="I17" s="11">
         <v>2000000</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="K17" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="L17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="M17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="11">
-        <v>1</v>
-      </c>
-      <c r="O17" s="11">
+      <c r="N17" s="11">
+        <v>1</v>
+      </c>
+      <c r="P17" s="11">
         <v>4</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="Q17" s="34" t="s">
         <v>1033</v>
       </c>
-      <c r="R17" s="34" t="s">
+      <c r="S17" s="34" t="s">
         <v>1065</v>
       </c>
-      <c r="S17" s="11" t="s">
+      <c r="T17" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="U17" s="11" t="s">
         <v>679</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="V17" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X17" s="11">
-        <v>1</v>
-      </c>
       <c r="Y17" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -34076,59 +34089,59 @@
       <c r="C18" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="11">
+      <c r="F18" s="11">
         <v>103</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="G18" s="11">
+      <c r="H18" s="11">
         <v>6700</v>
-      </c>
-      <c r="H18" s="11">
-        <v>6700000</v>
       </c>
       <c r="I18" s="11">
         <v>6700000</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="11">
+        <v>6700000</v>
+      </c>
+      <c r="K18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="L18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="M18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="11">
-        <v>1</v>
-      </c>
-      <c r="O18" s="11">
+      <c r="N18" s="11">
+        <v>1</v>
+      </c>
+      <c r="P18" s="11">
         <v>5</v>
       </c>
-      <c r="P18" s="34" t="s">
+      <c r="Q18" s="34" t="s">
         <v>1034</v>
       </c>
-      <c r="R18" s="34" t="s">
+      <c r="S18" s="34" t="s">
         <v>1062</v>
       </c>
-      <c r="S18" s="11" t="s">
+      <c r="T18" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="U18" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="U18" s="11" t="s">
+      <c r="V18" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X18" s="11">
-        <v>1</v>
-      </c>
       <c r="Y18" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -34138,59 +34151,59 @@
       <c r="C19" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="11">
+      <c r="F19" s="11">
         <v>104</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="G19" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="G19" s="11">
+      <c r="H19" s="11">
         <v>13200</v>
-      </c>
-      <c r="H19" s="11">
-        <v>13200000</v>
       </c>
       <c r="I19" s="11">
         <v>13200000</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="11">
+        <v>13200000</v>
+      </c>
+      <c r="K19" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="L19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="M19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="11">
-        <v>1</v>
-      </c>
-      <c r="O19" s="11">
+      <c r="N19" s="11">
+        <v>1</v>
+      </c>
+      <c r="P19" s="11">
         <v>6</v>
       </c>
-      <c r="P19" s="34" t="s">
+      <c r="Q19" s="34" t="s">
         <v>1035</v>
       </c>
-      <c r="R19" s="34" t="s">
+      <c r="S19" s="34" t="s">
         <v>1066</v>
       </c>
-      <c r="S19" s="11" t="s">
+      <c r="T19" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="T19" s="34" t="s">
+      <c r="U19" s="34" t="s">
         <v>692</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="V19" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X19" s="11">
-        <v>1</v>
-      </c>
       <c r="Y19" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -34200,59 +34213,59 @@
       <c r="C20" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="11">
+      <c r="F20" s="11">
         <v>105</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="G20" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="G20" s="11">
+      <c r="H20" s="11">
         <v>20400</v>
-      </c>
-      <c r="H20" s="11">
-        <v>20400000</v>
       </c>
       <c r="I20" s="11">
         <v>20400000</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="11">
+        <v>20400000</v>
+      </c>
+      <c r="K20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="L20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="M20" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M20" s="11">
-        <v>1</v>
-      </c>
-      <c r="O20" s="11">
+      <c r="N20" s="11">
+        <v>1</v>
+      </c>
+      <c r="P20" s="11">
         <v>7</v>
       </c>
-      <c r="P20" s="34" t="s">
+      <c r="Q20" s="34" t="s">
         <v>1036</v>
       </c>
-      <c r="R20" s="34" t="s">
+      <c r="S20" s="34" t="s">
         <v>1060</v>
       </c>
-      <c r="S20" s="11" t="s">
+      <c r="T20" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="U20" s="11" t="s">
         <v>692</v>
       </c>
-      <c r="U20" s="11" t="s">
+      <c r="V20" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X20" s="11">
-        <v>1</v>
-      </c>
       <c r="Y20" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35">
         <v>20</v>
       </c>
@@ -34262,59 +34275,59 @@
       <c r="C21" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="35">
+      <c r="F21" s="35">
         <v>101</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="G21" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="G21" s="35">
+      <c r="H21" s="35">
         <v>100</v>
-      </c>
-      <c r="H21" s="35">
-        <v>100000</v>
       </c>
       <c r="I21" s="35">
         <v>100000</v>
       </c>
-      <c r="J21" s="35" t="s">
+      <c r="J21" s="35">
+        <v>100000</v>
+      </c>
+      <c r="K21" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="35" t="s">
+      <c r="L21" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="L21" s="35" t="s">
+      <c r="M21" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="35">
-        <v>0</v>
-      </c>
-      <c r="O21" s="35">
-        <v>0</v>
-      </c>
-      <c r="P21" s="36" t="s">
+      <c r="N21" s="35">
+        <v>0</v>
+      </c>
+      <c r="P21" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="36" t="s">
         <v>978</v>
       </c>
-      <c r="R21" s="36" t="s">
+      <c r="S21" s="36" t="s">
         <v>1059</v>
       </c>
-      <c r="S21" s="35" t="s">
+      <c r="T21" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="T21" s="36" t="s">
+      <c r="U21" s="36" t="s">
         <v>684</v>
       </c>
-      <c r="U21" s="35" t="s">
+      <c r="V21" s="35" t="s">
         <v>419</v>
       </c>
-      <c r="X21" s="35">
-        <v>1</v>
-      </c>
       <c r="Y21" s="35">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z21" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -34324,57 +34337,57 @@
       <c r="C22" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="11">
+      <c r="F22" s="11">
         <v>104</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="G22" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="G22" s="11">
+      <c r="H22" s="11">
         <v>5000</v>
-      </c>
-      <c r="H22" s="11">
-        <v>5000000</v>
       </c>
       <c r="I22" s="11">
         <v>5000000</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="11">
+        <v>5000000</v>
+      </c>
+      <c r="K22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="11" t="s">
+      <c r="L22" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="M22" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="11">
-        <v>1</v>
-      </c>
-      <c r="O22" s="11">
+      <c r="N22" s="11">
+        <v>1</v>
+      </c>
+      <c r="P22" s="11">
         <v>2</v>
       </c>
-      <c r="P22" s="34" t="s">
+      <c r="Q22" s="34" t="s">
         <v>1025</v>
       </c>
-      <c r="R22" s="34"/>
-      <c r="S22" s="11">
+      <c r="S22" s="34"/>
+      <c r="T22" s="11">
         <v>5000</v>
       </c>
-      <c r="T22" s="34" t="s">
+      <c r="U22" s="34" t="s">
         <v>687</v>
       </c>
-      <c r="U22" s="11" t="s">
+      <c r="V22" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X22" s="11">
-        <v>1</v>
-      </c>
       <c r="Y22" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z22" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -34384,57 +34397,57 @@
       <c r="C23" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="11">
+      <c r="F23" s="11">
         <v>102</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="G23" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="G23" s="11">
+      <c r="H23" s="11">
         <v>1000</v>
-      </c>
-      <c r="H23" s="11">
-        <v>1000000</v>
       </c>
       <c r="I23" s="11">
         <v>1000000</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="K23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="L23" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="M23" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M23" s="11">
-        <v>1</v>
-      </c>
-      <c r="O23" s="11">
-        <v>1</v>
-      </c>
-      <c r="P23" s="34" t="s">
+      <c r="N23" s="11">
+        <v>1</v>
+      </c>
+      <c r="P23" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="34" t="s">
         <v>1028</v>
       </c>
-      <c r="R23" s="34"/>
-      <c r="S23" s="11">
+      <c r="S23" s="34"/>
+      <c r="T23" s="11">
         <v>1000</v>
       </c>
-      <c r="T23" s="34" t="s">
+      <c r="U23" s="34" t="s">
         <v>684</v>
       </c>
-      <c r="U23" s="11" t="s">
+      <c r="V23" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X23" s="11">
-        <v>1</v>
-      </c>
       <c r="Y23" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -34444,63 +34457,63 @@
       <c r="C24" s="34" t="s">
         <v>423</v>
       </c>
-      <c r="E24" s="11">
+      <c r="F24" s="11">
         <v>101</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="G24" s="11">
+      <c r="H24" s="11">
         <v>100</v>
-      </c>
-      <c r="H24" s="11">
-        <v>100000</v>
       </c>
       <c r="I24" s="11">
         <v>100000</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="11">
+        <v>100000</v>
+      </c>
+      <c r="K24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="L24" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="M24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="11">
-        <v>1</v>
-      </c>
       <c r="N24" s="11">
+        <v>1</v>
+      </c>
+      <c r="O24" s="11">
         <v>14</v>
       </c>
-      <c r="O24" s="11">
-        <v>0</v>
-      </c>
-      <c r="P24" s="34" t="s">
+      <c r="P24" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="34" t="s">
         <v>978</v>
       </c>
-      <c r="R24" s="34"/>
-      <c r="S24" s="11">
+      <c r="S24" s="34"/>
+      <c r="T24" s="11">
         <v>100</v>
       </c>
-      <c r="T24" s="34" t="s">
+      <c r="U24" s="34" t="s">
         <v>684</v>
       </c>
-      <c r="U24" s="11" t="s">
+      <c r="V24" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X24" s="11">
-        <v>1</v>
-      </c>
       <c r="Y24" s="11">
         <v>1</v>
       </c>
-      <c r="AB24" s="34" t="s">
+      <c r="Z24" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="34" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="25" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -34510,65 +34523,65 @@
       <c r="C25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="11">
+      <c r="E25" s="11">
         <v>10189</v>
       </c>
-      <c r="E25" s="11">
+      <c r="F25" s="11">
         <v>111</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="G25" s="34" t="s">
         <v>1172</v>
       </c>
-      <c r="G25" s="11">
+      <c r="H25" s="11">
         <v>19800</v>
-      </c>
-      <c r="H25" s="11">
-        <v>19800000</v>
       </c>
       <c r="I25" s="11">
         <v>19800000</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="11">
+        <v>19800000</v>
+      </c>
+      <c r="K25" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="L25" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="M25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M25" s="11">
-        <v>1</v>
-      </c>
-      <c r="O25" s="11">
+      <c r="N25" s="11">
+        <v>1</v>
+      </c>
+      <c r="P25" s="11">
         <v>8</v>
       </c>
-      <c r="P25" s="34" t="s">
+      <c r="Q25" s="34" t="s">
         <v>1037</v>
       </c>
-      <c r="R25" s="34" t="s">
+      <c r="S25" s="34" t="s">
         <v>1067</v>
       </c>
-      <c r="S25" s="34" t="s">
+      <c r="T25" s="34" t="s">
         <v>548</v>
       </c>
-      <c r="T25" s="34" t="s">
+      <c r="U25" s="34" t="s">
         <v>692</v>
       </c>
-      <c r="U25" s="11" t="s">
+      <c r="V25" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="X25" s="11">
-        <v>1</v>
-      </c>
       <c r="Y25" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="Z25" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:AB25"/>
+  <autoFilter ref="A1:AC25"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="1367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="1366">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6003,10 +6003,6 @@
   </si>
   <si>
     <t>86400,5,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "lmqx_026_lmlh" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -6802,7 +6798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -6856,7 +6852,7 @@
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>18</v>
@@ -8742,10 +8738,10 @@
   <dimension ref="A1:AM373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="N48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="V357" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F67" sqref="F67:F77"/>
+      <selection pane="bottomRight" activeCell="Z379" sqref="Z379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -32056,7 +32052,7 @@
         <v>1800</v>
       </c>
       <c r="P370" s="45" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="Q370" s="50" t="s">
         <v>1358</v>
@@ -32072,9 +32068,6 @@
       </c>
       <c r="Y370" s="45">
         <v>1598889599</v>
-      </c>
-      <c r="Z370" s="45">
-        <v>42</v>
       </c>
       <c r="AG370" s="45">
         <v>1</v>
@@ -32121,7 +32114,7 @@
         <v>4800</v>
       </c>
       <c r="P371" s="45" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="Q371" s="50" t="s">
         <v>1359</v>
@@ -32137,9 +32130,6 @@
       </c>
       <c r="Y371" s="45">
         <v>1598889599</v>
-      </c>
-      <c r="Z371" s="45">
-        <v>42</v>
       </c>
       <c r="AG371" s="45">
         <v>1</v>
@@ -32186,7 +32176,7 @@
         <v>9800</v>
       </c>
       <c r="P372" s="45" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="Q372" s="50" t="s">
         <v>1360</v>
@@ -32202,9 +32192,6 @@
       </c>
       <c r="Y372" s="45">
         <v>1598889599</v>
-      </c>
-      <c r="Z372" s="45">
-        <v>42</v>
       </c>
       <c r="AG372" s="45">
         <v>1</v>
@@ -32251,7 +32238,7 @@
         <v>19800</v>
       </c>
       <c r="P373" s="45" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="Q373" s="50" t="s">
         <v>1361</v>
@@ -32267,9 +32254,6 @@
       </c>
       <c r="Y373" s="45">
         <v>1598889599</v>
-      </c>
-      <c r="Z373" s="45">
-        <v>42</v>
       </c>
       <c r="AG373" s="45">
         <v>1</v>
@@ -32294,9 +32278,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -32911,14 +32895,6 @@
       </c>
       <c r="D42">
         <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="12">
-        <v>42</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>1363</v>
       </c>
     </row>
   </sheetData>
@@ -32975,7 +32951,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>414</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="1367">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6015,6 +6015,10 @@
   </si>
   <si>
     <t>|首冲替换</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3万金币","2万金币","记牌器*2",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8737,11 +8741,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM373"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V357" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H156" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z379" sqref="Z379"/>
+      <selection pane="bottomRight" activeCell="H164" sqref="H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -18601,7 +18605,7 @@
         <v>10084</v>
       </c>
       <c r="F168" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168" s="19" t="s">
         <v>372</v>
@@ -18666,7 +18670,7 @@
         <v>10085</v>
       </c>
       <c r="F169" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169" s="19" t="s">
         <v>483</v>
@@ -18728,7 +18732,7 @@
         <v>10086</v>
       </c>
       <c r="F170" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G170" s="19" t="s">
         <v>373</v>
@@ -19943,7 +19947,7 @@
         <v>376</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>931</v>
+        <v>1366</v>
       </c>
       <c r="K188" s="5">
         <v>-28</v>
@@ -32280,8 +32284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="1367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="1372">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6018,7 +6018,27 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"3万金币","2万金币","记牌器*2",</t>
+    <t>免费福利券</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（免费，小额）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_mfcjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万鲸币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6803,7 +6823,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7027,6 +7047,9 @@
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F3" s="2">
+        <v>85</v>
+      </c>
       <c r="G3" s="2">
         <v>85</v>
       </c>
@@ -7107,6 +7130,9 @@
       <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F4" s="2">
+        <v>86</v>
+      </c>
       <c r="G4" s="2">
         <v>86</v>
       </c>
@@ -7187,6 +7213,9 @@
       <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F5" s="2">
+        <v>87</v>
+      </c>
       <c r="G5" s="2">
         <v>87</v>
       </c>
@@ -7267,6 +7296,9 @@
       <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F6" s="2">
+        <v>88</v>
+      </c>
       <c r="G6" s="2">
         <v>88</v>
       </c>
@@ -7347,6 +7379,9 @@
       <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F7" s="2">
+        <v>89</v>
+      </c>
       <c r="G7" s="2">
         <v>89</v>
       </c>
@@ -7510,6 +7545,9 @@
       <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F9" s="2">
+        <v>10044</v>
+      </c>
       <c r="G9" s="2">
         <v>10044</v>
       </c>
@@ -7591,6 +7629,9 @@
         <v>43</v>
       </c>
       <c r="E10" s="23"/>
+      <c r="F10" s="11">
+        <v>10045</v>
+      </c>
       <c r="G10" s="11">
         <v>10045</v>
       </c>
@@ -8662,6 +8703,9 @@
         <v>43</v>
       </c>
       <c r="E24" s="23"/>
+      <c r="F24" s="11">
+        <v>10189</v>
+      </c>
       <c r="G24" s="11">
         <v>10189</v>
       </c>
@@ -8739,13 +8783,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM373"/>
+  <dimension ref="A1:AM374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H156" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H342" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H164" sqref="H164"/>
+      <selection pane="bottomRight" activeCell="I361" sqref="I361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -18605,7 +18649,7 @@
         <v>10084</v>
       </c>
       <c r="F168" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G168" s="19" t="s">
         <v>372</v>
@@ -18670,7 +18714,7 @@
         <v>10085</v>
       </c>
       <c r="F169" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169" s="19" t="s">
         <v>483</v>
@@ -18732,7 +18776,7 @@
         <v>10086</v>
       </c>
       <c r="F170" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G170" s="19" t="s">
         <v>373</v>
@@ -19947,7 +19991,7 @@
         <v>376</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>1366</v>
+        <v>931</v>
       </c>
       <c r="K188" s="5">
         <v>-28</v>
@@ -31699,576 +31743,644 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="45">
+    <row r="365" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A365" s="5">
         <v>364</v>
       </c>
-      <c r="B365" s="45">
+      <c r="B365" s="5">
         <v>10281</v>
       </c>
-      <c r="F365" s="45">
-        <v>1</v>
-      </c>
-      <c r="G365" s="45" t="s">
+      <c r="F365" s="5">
+        <v>1</v>
+      </c>
+      <c r="G365" s="5" t="s">
         <v>1333</v>
       </c>
-      <c r="I365" s="45" t="s">
+      <c r="I365" s="5" t="s">
         <v>1339</v>
       </c>
-      <c r="K365" s="45">
+      <c r="K365" s="5">
         <v>-31</v>
       </c>
-      <c r="L365" s="45">
-        <v>0</v>
-      </c>
-      <c r="M365" s="45">
-        <v>0</v>
-      </c>
-      <c r="N365" s="45" t="s">
+      <c r="L365" s="5">
+        <v>0</v>
+      </c>
+      <c r="M365" s="5">
+        <v>0</v>
+      </c>
+      <c r="N365" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="O365" s="45">
+      <c r="O365" s="5">
         <v>131400</v>
       </c>
-      <c r="P365" s="45" t="s">
+      <c r="P365" s="5" t="s">
         <v>1344</v>
       </c>
-      <c r="Q365" s="50" t="s">
+      <c r="Q365" s="10" t="s">
         <v>1345</v>
       </c>
-      <c r="V365" s="45" t="s">
+      <c r="V365" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="W365" s="45">
+      <c r="W365" s="5">
         <v>9999999</v>
       </c>
-      <c r="X365" s="45">
+      <c r="X365" s="5">
         <v>1598311800</v>
       </c>
-      <c r="Y365" s="45">
+      <c r="Y365" s="5">
         <v>1598889599</v>
       </c>
-      <c r="Z365" s="45">
+      <c r="Z365" s="5">
         <v>41</v>
       </c>
-      <c r="AG365" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH365" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK365" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL365" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A366" s="45">
+      <c r="AG365" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH365" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK365" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL365" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="5">
         <v>365</v>
       </c>
-      <c r="B366" s="45">
+      <c r="B366" s="5">
         <v>10282</v>
       </c>
-      <c r="F366" s="45">
-        <v>1</v>
-      </c>
-      <c r="G366" s="45" t="s">
+      <c r="F366" s="5">
+        <v>1</v>
+      </c>
+      <c r="G366" s="5" t="s">
         <v>1335</v>
       </c>
-      <c r="I366" s="45" t="s">
+      <c r="I366" s="5" t="s">
         <v>1340</v>
       </c>
-      <c r="K366" s="45">
+      <c r="K366" s="5">
         <v>-31</v>
       </c>
-      <c r="L366" s="45">
-        <v>0</v>
-      </c>
-      <c r="M366" s="45">
-        <v>0</v>
-      </c>
-      <c r="N366" s="45" t="s">
+      <c r="L366" s="5">
+        <v>0</v>
+      </c>
+      <c r="M366" s="5">
+        <v>0</v>
+      </c>
+      <c r="N366" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="O366" s="45">
+      <c r="O366" s="5">
         <v>52000</v>
       </c>
-      <c r="P366" s="45" t="s">
+      <c r="P366" s="5" t="s">
         <v>1344</v>
       </c>
-      <c r="Q366" s="50" t="s">
+      <c r="Q366" s="10" t="s">
         <v>1346</v>
       </c>
-      <c r="V366" s="45" t="s">
+      <c r="V366" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="W366" s="45">
+      <c r="W366" s="5">
         <v>9999999</v>
       </c>
-      <c r="X366" s="45">
+      <c r="X366" s="5">
         <v>1598311800</v>
       </c>
-      <c r="Y366" s="45">
+      <c r="Y366" s="5">
         <v>1598889599</v>
       </c>
-      <c r="Z366" s="45">
+      <c r="Z366" s="5">
         <v>41</v>
       </c>
-      <c r="AG366" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH366" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK366" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL366" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A367" s="45">
+      <c r="AG366" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH366" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK366" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL366" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A367" s="5">
         <v>366</v>
       </c>
-      <c r="B367" s="45">
+      <c r="B367" s="5">
         <v>10283</v>
       </c>
-      <c r="F367" s="45">
-        <v>1</v>
-      </c>
-      <c r="G367" s="45" t="s">
+      <c r="F367" s="5">
+        <v>1</v>
+      </c>
+      <c r="G367" s="5" t="s">
         <v>1334</v>
       </c>
-      <c r="I367" s="45" t="s">
+      <c r="I367" s="5" t="s">
         <v>1341</v>
       </c>
-      <c r="K367" s="45">
+      <c r="K367" s="5">
         <v>-31</v>
       </c>
-      <c r="L367" s="45">
-        <v>0</v>
-      </c>
-      <c r="M367" s="45">
-        <v>0</v>
-      </c>
-      <c r="N367" s="45" t="s">
+      <c r="L367" s="5">
+        <v>0</v>
+      </c>
+      <c r="M367" s="5">
+        <v>0</v>
+      </c>
+      <c r="N367" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="O367" s="45">
+      <c r="O367" s="5">
         <v>25800</v>
       </c>
-      <c r="P367" s="45" t="s">
+      <c r="P367" s="5" t="s">
         <v>1344</v>
       </c>
-      <c r="Q367" s="50" t="s">
+      <c r="Q367" s="10" t="s">
         <v>1347</v>
       </c>
-      <c r="V367" s="45" t="s">
+      <c r="V367" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="W367" s="45">
+      <c r="W367" s="5">
         <v>9999999</v>
       </c>
-      <c r="X367" s="45">
+      <c r="X367" s="5">
         <v>1598311800</v>
       </c>
-      <c r="Y367" s="45">
+      <c r="Y367" s="5">
         <v>1598889599</v>
       </c>
-      <c r="Z367" s="45">
+      <c r="Z367" s="5">
         <v>41</v>
       </c>
-      <c r="AG367" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH367" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK367" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL367" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A368" s="45">
+      <c r="AG367" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH367" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK367" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL367" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A368" s="5">
         <v>367</v>
       </c>
-      <c r="B368" s="45">
+      <c r="B368" s="5">
         <v>10284</v>
       </c>
-      <c r="F368" s="45">
-        <v>1</v>
-      </c>
-      <c r="G368" s="45" t="s">
+      <c r="F368" s="5">
+        <v>1</v>
+      </c>
+      <c r="G368" s="5" t="s">
         <v>1336</v>
       </c>
-      <c r="I368" s="45" t="s">
+      <c r="I368" s="5" t="s">
         <v>1342</v>
       </c>
-      <c r="K368" s="45">
+      <c r="K368" s="5">
         <v>-31</v>
       </c>
-      <c r="L368" s="45">
-        <v>0</v>
-      </c>
-      <c r="M368" s="45">
-        <v>0</v>
-      </c>
-      <c r="N368" s="45" t="s">
+      <c r="L368" s="5">
+        <v>0</v>
+      </c>
+      <c r="M368" s="5">
+        <v>0</v>
+      </c>
+      <c r="N368" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="O368" s="45">
+      <c r="O368" s="5">
         <v>14700</v>
       </c>
-      <c r="P368" s="45" t="s">
+      <c r="P368" s="5" t="s">
         <v>1344</v>
       </c>
-      <c r="Q368" s="50" t="s">
+      <c r="Q368" s="10" t="s">
         <v>1348</v>
       </c>
-      <c r="V368" s="45" t="s">
+      <c r="V368" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="W368" s="45">
+      <c r="W368" s="5">
         <v>9999999</v>
       </c>
-      <c r="X368" s="45">
+      <c r="X368" s="5">
         <v>1598311800</v>
       </c>
-      <c r="Y368" s="45">
+      <c r="Y368" s="5">
         <v>1598889599</v>
       </c>
-      <c r="Z368" s="45">
+      <c r="Z368" s="5">
         <v>41</v>
       </c>
-      <c r="AG368" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH368" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK368" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL368" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A369" s="45">
+      <c r="AG368" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH368" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK368" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL368" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A369" s="5">
         <v>368</v>
       </c>
-      <c r="B369" s="45">
+      <c r="B369" s="5">
         <v>10285</v>
       </c>
-      <c r="F369" s="45">
-        <v>1</v>
-      </c>
-      <c r="G369" s="45" t="s">
+      <c r="F369" s="5">
+        <v>1</v>
+      </c>
+      <c r="G369" s="5" t="s">
         <v>1337</v>
       </c>
-      <c r="I369" s="45" t="s">
+      <c r="I369" s="5" t="s">
         <v>1343</v>
       </c>
-      <c r="K369" s="45">
+      <c r="K369" s="5">
         <v>-31</v>
       </c>
-      <c r="L369" s="45">
-        <v>0</v>
-      </c>
-      <c r="M369" s="45">
-        <v>0</v>
-      </c>
-      <c r="N369" s="45" t="s">
+      <c r="L369" s="5">
+        <v>0</v>
+      </c>
+      <c r="M369" s="5">
+        <v>0</v>
+      </c>
+      <c r="N369" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="O369" s="45">
+      <c r="O369" s="5">
         <v>5200</v>
       </c>
-      <c r="P369" s="45" t="s">
+      <c r="P369" s="5" t="s">
         <v>1344</v>
       </c>
-      <c r="Q369" s="50" t="s">
+      <c r="Q369" s="10" t="s">
         <v>1349</v>
       </c>
-      <c r="V369" s="45" t="s">
+      <c r="V369" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="W369" s="45">
+      <c r="W369" s="5">
         <v>9999999</v>
       </c>
-      <c r="X369" s="45">
+      <c r="X369" s="5">
         <v>1598311800</v>
       </c>
-      <c r="Y369" s="45">
+      <c r="Y369" s="5">
         <v>1598889599</v>
       </c>
-      <c r="Z369" s="45">
+      <c r="Z369" s="5">
         <v>41</v>
       </c>
-      <c r="AG369" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH369" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK369" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL369" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A370" s="45">
+      <c r="AG369" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH369" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK369" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL369" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A370" s="5">
         <v>369</v>
       </c>
-      <c r="B370" s="45">
+      <c r="B370" s="5">
         <v>10286</v>
       </c>
-      <c r="F370" s="45">
-        <v>1</v>
-      </c>
-      <c r="G370" s="45" t="s">
+      <c r="F370" s="5">
+        <v>1</v>
+      </c>
+      <c r="G370" s="5" t="s">
         <v>1350</v>
       </c>
-      <c r="I370" s="45" t="s">
+      <c r="I370" s="5" t="s">
         <v>1354</v>
       </c>
-      <c r="K370" s="45">
+      <c r="K370" s="5">
         <v>-31</v>
       </c>
-      <c r="L370" s="45">
-        <v>0</v>
-      </c>
-      <c r="M370" s="45">
-        <v>0</v>
-      </c>
-      <c r="N370" s="45" t="s">
+      <c r="L370" s="5">
+        <v>0</v>
+      </c>
+      <c r="M370" s="5">
+        <v>0</v>
+      </c>
+      <c r="N370" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="O370" s="45">
+      <c r="O370" s="5">
         <v>1800</v>
       </c>
-      <c r="P370" s="45" t="s">
+      <c r="P370" s="5" t="s">
         <v>1364</v>
       </c>
-      <c r="Q370" s="50" t="s">
+      <c r="Q370" s="10" t="s">
         <v>1358</v>
       </c>
-      <c r="V370" s="45" t="s">
+      <c r="V370" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="W370" s="45">
+      <c r="W370" s="5">
         <v>9999999</v>
       </c>
-      <c r="X370" s="45">
+      <c r="X370" s="5">
         <v>1598311800</v>
       </c>
-      <c r="Y370" s="45">
+      <c r="Y370" s="5">
         <v>1598889599</v>
       </c>
-      <c r="AG370" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH370" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK370" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL370" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A371" s="45">
+      <c r="AG370" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH370" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK370" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL370" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="5">
         <v>370</v>
       </c>
-      <c r="B371" s="45">
+      <c r="B371" s="5">
         <v>10287</v>
       </c>
-      <c r="F371" s="45">
-        <v>1</v>
-      </c>
-      <c r="G371" s="45" t="s">
+      <c r="F371" s="5">
+        <v>1</v>
+      </c>
+      <c r="G371" s="5" t="s">
         <v>1351</v>
       </c>
-      <c r="I371" s="45" t="s">
+      <c r="I371" s="5" t="s">
         <v>1355</v>
       </c>
-      <c r="K371" s="45">
+      <c r="K371" s="5">
         <v>-31</v>
       </c>
-      <c r="L371" s="45">
-        <v>0</v>
-      </c>
-      <c r="M371" s="45">
-        <v>0</v>
-      </c>
-      <c r="N371" s="45" t="s">
+      <c r="L371" s="5">
+        <v>0</v>
+      </c>
+      <c r="M371" s="5">
+        <v>0</v>
+      </c>
+      <c r="N371" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="O371" s="45">
+      <c r="O371" s="5">
         <v>4800</v>
       </c>
-      <c r="P371" s="45" t="s">
+      <c r="P371" s="5" t="s">
         <v>1364</v>
       </c>
-      <c r="Q371" s="50" t="s">
+      <c r="Q371" s="10" t="s">
         <v>1359</v>
       </c>
-      <c r="V371" s="45" t="s">
+      <c r="V371" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="W371" s="45">
+      <c r="W371" s="5">
         <v>9999999</v>
       </c>
-      <c r="X371" s="45">
+      <c r="X371" s="5">
         <v>1598311800</v>
       </c>
-      <c r="Y371" s="45">
+      <c r="Y371" s="5">
         <v>1598889599</v>
       </c>
-      <c r="AG371" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH371" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK371" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL371" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="45">
+      <c r="AG371" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH371" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK371" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL371" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="5">
         <v>371</v>
       </c>
-      <c r="B372" s="45">
+      <c r="B372" s="5">
         <v>10288</v>
       </c>
-      <c r="F372" s="45">
-        <v>1</v>
-      </c>
-      <c r="G372" s="45" t="s">
+      <c r="F372" s="5">
+        <v>1</v>
+      </c>
+      <c r="G372" s="5" t="s">
         <v>1352</v>
       </c>
-      <c r="I372" s="45" t="s">
+      <c r="I372" s="5" t="s">
         <v>1356</v>
       </c>
-      <c r="K372" s="45">
+      <c r="K372" s="5">
         <v>-31</v>
       </c>
-      <c r="L372" s="45">
-        <v>0</v>
-      </c>
-      <c r="M372" s="45">
-        <v>0</v>
-      </c>
-      <c r="N372" s="45" t="s">
+      <c r="L372" s="5">
+        <v>0</v>
+      </c>
+      <c r="M372" s="5">
+        <v>0</v>
+      </c>
+      <c r="N372" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="O372" s="45">
+      <c r="O372" s="5">
         <v>9800</v>
       </c>
-      <c r="P372" s="45" t="s">
+      <c r="P372" s="5" t="s">
         <v>1364</v>
       </c>
-      <c r="Q372" s="50" t="s">
+      <c r="Q372" s="10" t="s">
         <v>1360</v>
       </c>
-      <c r="V372" s="45" t="s">
+      <c r="V372" s="5" t="s">
         <v>1362</v>
       </c>
-      <c r="W372" s="45">
+      <c r="W372" s="5">
         <v>9999999</v>
       </c>
-      <c r="X372" s="45">
+      <c r="X372" s="5">
         <v>1598311800</v>
       </c>
-      <c r="Y372" s="45">
+      <c r="Y372" s="5">
         <v>1598889599</v>
       </c>
-      <c r="AG372" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH372" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK372" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL372" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="373" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="45">
+      <c r="AG372" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH372" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK372" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL372" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="5">
         <v>372</v>
       </c>
-      <c r="B373" s="45">
+      <c r="B373" s="5">
         <v>10289</v>
       </c>
-      <c r="F373" s="45">
-        <v>1</v>
-      </c>
-      <c r="G373" s="45" t="s">
+      <c r="F373" s="5">
+        <v>1</v>
+      </c>
+      <c r="G373" s="5" t="s">
         <v>1353</v>
       </c>
-      <c r="I373" s="45" t="s">
+      <c r="I373" s="5" t="s">
         <v>1357</v>
       </c>
-      <c r="K373" s="45">
+      <c r="K373" s="5">
         <v>-31</v>
       </c>
-      <c r="L373" s="45">
-        <v>0</v>
-      </c>
-      <c r="M373" s="45">
-        <v>0</v>
-      </c>
-      <c r="N373" s="45" t="s">
+      <c r="L373" s="5">
+        <v>0</v>
+      </c>
+      <c r="M373" s="5">
+        <v>0</v>
+      </c>
+      <c r="N373" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="O373" s="45">
+      <c r="O373" s="5">
         <v>19800</v>
       </c>
-      <c r="P373" s="45" t="s">
+      <c r="P373" s="5" t="s">
         <v>1364</v>
       </c>
-      <c r="Q373" s="50" t="s">
+      <c r="Q373" s="10" t="s">
         <v>1361</v>
       </c>
-      <c r="V373" s="45" t="s">
+      <c r="V373" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="W373" s="45">
+      <c r="W373" s="5">
         <v>9999999</v>
       </c>
-      <c r="X373" s="45">
+      <c r="X373" s="5">
         <v>1598311800</v>
       </c>
-      <c r="Y373" s="45">
+      <c r="Y373" s="5">
         <v>1598889599</v>
       </c>
-      <c r="AG373" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH373" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK373" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL373" s="45">
+      <c r="AG373" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH373" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK373" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL373" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="45">
+        <v>373</v>
+      </c>
+      <c r="B374" s="45">
+        <v>10290</v>
+      </c>
+      <c r="F374" s="45">
+        <v>1</v>
+      </c>
+      <c r="G374" s="45" t="s">
+        <v>1366</v>
+      </c>
+      <c r="H374" s="45" t="s">
+        <v>1367</v>
+      </c>
+      <c r="I374" s="45" t="s">
+        <v>1369</v>
+      </c>
+      <c r="K374" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L374" s="45">
+        <v>0</v>
+      </c>
+      <c r="M374" s="45">
+        <v>0</v>
+      </c>
+      <c r="N374" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="O374" s="45">
+        <v>300</v>
+      </c>
+      <c r="P374" s="45" t="s">
+        <v>1368</v>
+      </c>
+      <c r="Q374" s="50" t="s">
+        <v>1370</v>
+      </c>
+      <c r="V374" s="45" t="s">
+        <v>1371</v>
+      </c>
+      <c r="W374" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X374" s="45">
+        <v>1598916600</v>
+      </c>
+      <c r="Y374" s="45">
+        <v>1599494399</v>
+      </c>
+      <c r="Z374" s="45">
+        <v>14</v>
+      </c>
+      <c r="AG374" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH374" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK374" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL374" s="45">
         <v>1</v>
       </c>
     </row>
@@ -32285,7 +32397,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32913,7 +33025,7 @@
   <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33102,6 +33214,9 @@
       <c r="C3" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="D3" s="11">
+        <v>85</v>
+      </c>
       <c r="E3" s="11">
         <v>85</v>
       </c>
@@ -33167,6 +33282,9 @@
       <c r="C4" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="D4" s="11">
+        <v>86</v>
+      </c>
       <c r="E4" s="11">
         <v>86</v>
       </c>
@@ -33232,6 +33350,9 @@
       <c r="C5" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="D5" s="11">
+        <v>87</v>
+      </c>
       <c r="E5" s="11">
         <v>87</v>
       </c>
@@ -33297,6 +33418,9 @@
       <c r="C6" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="D6" s="11">
+        <v>88</v>
+      </c>
       <c r="E6" s="11">
         <v>88</v>
       </c>
@@ -33362,6 +33486,9 @@
       <c r="C7" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="D7" s="11">
+        <v>89</v>
+      </c>
       <c r="E7" s="11">
         <v>89</v>
       </c>
@@ -33743,6 +33870,9 @@
       <c r="C13" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="D13" s="11">
+        <v>10044</v>
+      </c>
       <c r="E13" s="11">
         <v>10044</v>
       </c>
@@ -33808,6 +33938,9 @@
       <c r="C14" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="D14" s="11">
+        <v>10045</v>
+      </c>
       <c r="E14" s="11">
         <v>10045</v>
       </c>
@@ -34502,6 +34635,9 @@
       </c>
       <c r="C25" s="11" t="s">
         <v>43</v>
+      </c>
+      <c r="D25" s="11">
+        <v>10189</v>
       </c>
       <c r="E25" s="11">
         <v>10189</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3191" uniqueCount="1372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198" uniqueCount="1376">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6026,19 +6026,35 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>300000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费话费</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（免费，小额）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"30万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_fish_drop_act_0","_common_rank_true_love_026_rank",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>"jing_bi","prop_mfcjq",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"30万鲸币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8783,13 +8799,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM374"/>
+  <dimension ref="A1:AM375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H342" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H351" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I361" sqref="I361"/>
+      <selection pane="bottomRight" activeCell="H381" sqref="H381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -32035,7 +32051,7 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1344</v>
+        <v>1374</v>
       </c>
       <c r="Q369" s="10" t="s">
         <v>1349</v>
@@ -32316,71 +32332,139 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A374" s="45">
+    <row r="374" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="5">
         <v>373</v>
       </c>
-      <c r="B374" s="45">
+      <c r="B374" s="5">
         <v>10290</v>
       </c>
-      <c r="F374" s="45">
-        <v>1</v>
-      </c>
-      <c r="G374" s="45" t="s">
+      <c r="F374" s="5">
+        <v>1</v>
+      </c>
+      <c r="G374" s="5" t="s">
         <v>1366</v>
       </c>
-      <c r="H374" s="45" t="s">
+      <c r="H374" s="5" t="s">
         <v>1367</v>
       </c>
-      <c r="I374" s="45" t="s">
+      <c r="I374" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K374" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L374" s="5">
+        <v>0</v>
+      </c>
+      <c r="M374" s="5">
+        <v>0</v>
+      </c>
+      <c r="N374" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="O374" s="5">
+        <v>300</v>
+      </c>
+      <c r="P374" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="Q374" s="10" t="s">
+        <v>1368</v>
+      </c>
+      <c r="V374" s="5" t="s">
         <v>1369</v>
       </c>
-      <c r="K374" s="45">
+      <c r="W374" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X374" s="5">
+        <v>1598916600</v>
+      </c>
+      <c r="Y374" s="5">
+        <v>1599494399</v>
+      </c>
+      <c r="Z374" s="5">
+        <v>14</v>
+      </c>
+      <c r="AG374" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH374" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK374" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL374" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="45">
+        <v>374</v>
+      </c>
+      <c r="B375" s="45">
+        <v>10291</v>
+      </c>
+      <c r="F375" s="45">
+        <v>1</v>
+      </c>
+      <c r="G375" s="45" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H375" s="45" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I375" s="45" t="s">
+        <v>1373</v>
+      </c>
+      <c r="K375" s="45">
         <v>-31</v>
       </c>
-      <c r="L374" s="45">
-        <v>0</v>
-      </c>
-      <c r="M374" s="45">
-        <v>0</v>
-      </c>
-      <c r="N374" s="45" t="s">
+      <c r="L375" s="45">
+        <v>0</v>
+      </c>
+      <c r="M375" s="45">
+        <v>0</v>
+      </c>
+      <c r="N375" s="45" t="s">
         <v>499</v>
       </c>
-      <c r="O374" s="45">
+      <c r="O375" s="45">
         <v>300</v>
       </c>
-      <c r="P374" s="45" t="s">
+      <c r="P375" s="45" t="s">
+        <v>1375</v>
+      </c>
+      <c r="Q375" s="50" t="s">
         <v>1368</v>
       </c>
-      <c r="Q374" s="50" t="s">
-        <v>1370</v>
-      </c>
-      <c r="V374" s="45" t="s">
-        <v>1371</v>
-      </c>
-      <c r="W374" s="45">
+      <c r="V375" s="45" t="s">
+        <v>598</v>
+      </c>
+      <c r="W375" s="45">
         <v>9999999</v>
       </c>
-      <c r="X374" s="45">
-        <v>1598916600</v>
-      </c>
-      <c r="Y374" s="45">
-        <v>1599494399</v>
-      </c>
-      <c r="Z374" s="45">
+      <c r="X375" s="45">
+        <v>1599523200</v>
+      </c>
+      <c r="Y375" s="45">
+        <v>1600099199</v>
+      </c>
+      <c r="Z375" s="45">
         <v>14</v>
       </c>
-      <c r="AG374" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH374" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK374" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL374" s="45">
+      <c r="AG375" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH375" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK375" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL375" s="45">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3207,10 +3207,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>600000,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>1200000,3,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6055,6 +6051,10 @@
   </si>
   <si>
     <t>"jing_bi","prop_mfcjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,20,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6880,7 +6880,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -6892,7 +6892,7 @@
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>18</v>
@@ -6996,7 +6996,7 @@
         <v>45</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>46</v>
@@ -7079,7 +7079,7 @@
         <v>45</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>46</v>
@@ -7162,7 +7162,7 @@
         <v>45</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>46</v>
@@ -7245,7 +7245,7 @@
         <v>45</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>46</v>
@@ -7328,7 +7328,7 @@
         <v>45</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>46</v>
@@ -7411,7 +7411,7 @@
         <v>45</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>46</v>
@@ -7494,7 +7494,7 @@
         <v>45</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>46</v>
@@ -7577,7 +7577,7 @@
         <v>45</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>46</v>
@@ -7661,7 +7661,7 @@
         <v>45</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>46</v>
@@ -7747,7 +7747,7 @@
         <v>45</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>46</v>
@@ -7827,7 +7827,7 @@
         <v>45</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>46</v>
@@ -7907,7 +7907,7 @@
         <v>45</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>46</v>
@@ -7987,7 +7987,7 @@
         <v>45</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="L14" s="11" t="s">
         <v>46</v>
@@ -8067,7 +8067,7 @@
         <v>45</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>46</v>
@@ -8147,7 +8147,7 @@
         <v>45</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>46</v>
@@ -8249,10 +8249,10 @@
         <v>1</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="X17" s="11" t="s">
         <v>49</v>
@@ -8321,10 +8321,10 @@
         <v>2</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="X18" s="11" t="s">
         <v>49</v>
@@ -8393,10 +8393,10 @@
         <v>3</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="X19" s="11" t="s">
         <v>49</v>
@@ -8465,10 +8465,10 @@
         <v>4</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="X20" s="11" t="s">
         <v>49</v>
@@ -8537,10 +8537,10 @@
         <v>5</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="X21" s="11" t="s">
         <v>49</v>
@@ -8609,10 +8609,10 @@
         <v>6</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="X22" s="11" t="s">
         <v>49</v>
@@ -8681,10 +8681,10 @@
         <v>7</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="X23" s="11" t="s">
         <v>49</v>
@@ -8735,7 +8735,7 @@
         <v>45</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="L24" s="11" t="s">
         <v>46</v>
@@ -8802,10 +8802,10 @@
   <dimension ref="A1:AM375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H351" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H381" sqref="H381"/>
+      <selection pane="bottomRight" activeCell="Q79" sqref="Q79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -8870,7 +8870,7 @@
         <v>507</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>95</v>
@@ -9157,7 +9157,7 @@
         <v>120</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="5">
@@ -9200,7 +9200,7 @@
         <v>122</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AG5" s="5">
         <v>1</v>
@@ -9336,7 +9336,7 @@
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="5" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K8" s="5">
         <v>-6</v>
@@ -9609,7 +9609,7 @@
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="5" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="K13" s="5">
         <v>-8</v>
@@ -9720,7 +9720,7 @@
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K15" s="5">
         <v>-8</v>
@@ -9777,7 +9777,7 @@
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="5" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K16" s="5">
         <v>-8</v>
@@ -10023,7 +10023,7 @@
         <v>600</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>711</v>
@@ -10058,11 +10058,11 @@
         <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K21" s="5">
         <v>-11</v>
@@ -10122,7 +10122,7 @@
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K22" s="5">
         <v>-10</v>
@@ -10178,11 +10178,11 @@
         <v>0</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="5" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="K23" s="5">
         <v>-13</v>
@@ -11880,7 +11880,7 @@
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="5" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="K54" s="5">
         <v>-13</v>
@@ -11901,7 +11901,7 @@
         <v>220</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="V54" s="5" t="s">
         <v>552</v>
@@ -11987,11 +11987,11 @@
         <v>1</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H56" s="37"/>
       <c r="I56" s="22" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="K56" s="22">
         <v>-18</v>
@@ -12048,7 +12048,7 @@
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="K57" s="5">
         <v>-19</v>
@@ -12536,10 +12536,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I66" s="5" t="s">
         <v>1071</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>1072</v>
       </c>
       <c r="K66" s="5">
         <v>-4</v>
@@ -12882,7 +12882,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="K72" s="5">
         <v>-4</v>
@@ -13178,7 +13178,7 @@
         <v>248</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -13196,10 +13196,10 @@
         <v>100</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="Q77" s="40" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>551</v>
@@ -13234,7 +13234,7 @@
         <v>249</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -13249,13 +13249,13 @@
         <v>113</v>
       </c>
       <c r="O78" s="19">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="P78" s="19" t="s">
         <v>611</v>
       </c>
       <c r="Q78" s="40" t="s">
-        <v>740</v>
+        <v>1375</v>
       </c>
       <c r="V78" s="19" t="s">
         <v>551</v>
@@ -13273,10 +13273,10 @@
         <v>90</v>
       </c>
       <c r="AB78" s="19" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AC78" s="40" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AG78" s="19">
         <v>1</v>
@@ -13296,10 +13296,10 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K79" s="5">
         <v>-20</v>
@@ -13320,7 +13320,7 @@
         <v>250</v>
       </c>
       <c r="Q79" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="V79" s="5" t="s">
         <v>551</v>
@@ -13338,10 +13338,10 @@
         <v>90</v>
       </c>
       <c r="AB79" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AC79" s="10" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AG79" s="5">
         <v>1</v>
@@ -13361,10 +13361,10 @@
         <v>1</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K80" s="5">
         <v>-20</v>
@@ -13385,7 +13385,7 @@
         <v>250</v>
       </c>
       <c r="Q80" s="10" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="V80" s="5" t="s">
         <v>551</v>
@@ -13406,10 +13406,10 @@
         <v>612</v>
       </c>
       <c r="AB80" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AC80" s="10" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AG80" s="5">
         <v>1</v>
@@ -13432,7 +13432,7 @@
         <v>252</v>
       </c>
       <c r="I81" s="19" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K81" s="19">
         <v>-20</v>
@@ -13453,7 +13453,7 @@
         <v>506</v>
       </c>
       <c r="Q81" s="40" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="V81" s="19" t="s">
         <v>551</v>
@@ -13471,7 +13471,7 @@
         <v>612</v>
       </c>
       <c r="AB81" s="19" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AG81" s="19">
         <v>1</v>
@@ -13494,7 +13494,7 @@
         <v>253</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="K82" s="5">
         <v>-20</v>
@@ -13515,7 +13515,7 @@
         <v>254</v>
       </c>
       <c r="Q82" s="10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="V82" s="5" t="s">
         <v>551</v>
@@ -13550,7 +13550,7 @@
         <v>255</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K83" s="5">
         <v>-21</v>
@@ -13568,10 +13568,10 @@
         <v>4800</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="Q83" s="10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="V83" s="5" t="s">
         <v>552</v>
@@ -13606,7 +13606,7 @@
         <v>256</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K84" s="5">
         <v>-22</v>
@@ -13624,10 +13624,10 @@
         <v>4800</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="Q84" s="10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="V84" s="5" t="s">
         <v>552</v>
@@ -13659,10 +13659,10 @@
         <v>0</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="K85" s="5">
         <v>-23</v>
@@ -13680,10 +13680,10 @@
         <v>4800</v>
       </c>
       <c r="P85" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="Q85" s="10" t="s">
         <v>1207</v>
-      </c>
-      <c r="Q85" s="10" t="s">
-        <v>1208</v>
       </c>
       <c r="V85" s="5" t="s">
         <v>553</v>
@@ -13715,10 +13715,10 @@
         <v>0</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="K86" s="5">
         <v>-24</v>
@@ -13766,10 +13766,10 @@
         <v>0</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K87" s="5">
         <v>-25</v>
@@ -13787,10 +13787,10 @@
         <v>9600</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="Q87" s="10" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="V87" s="5" t="s">
         <v>553</v>
@@ -13825,7 +13825,7 @@
         <v>257</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="K88" s="5">
         <v>-22</v>
@@ -13846,7 +13846,7 @@
         <v>258</v>
       </c>
       <c r="Q88" s="10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="V88" s="5" t="s">
         <v>552</v>
@@ -13881,7 +13881,7 @@
         <v>259</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="K89" s="5">
         <v>-22</v>
@@ -13902,7 +13902,7 @@
         <v>129</v>
       </c>
       <c r="Q89" s="10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="V89" s="5" t="s">
         <v>552</v>
@@ -13937,7 +13937,7 @@
         <v>261</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="K90" s="5">
         <v>-22</v>
@@ -13958,7 +13958,7 @@
         <v>222</v>
       </c>
       <c r="Q90" s="10" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="V90" s="5" t="s">
         <v>552</v>
@@ -13993,7 +13993,7 @@
         <v>262</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K91" s="5">
         <v>-22</v>
@@ -14049,7 +14049,7 @@
         <v>263</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K92" s="5">
         <v>-22</v>
@@ -14067,10 +14067,10 @@
         <v>4800</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="Q92" s="10" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="V92" s="5" t="s">
         <v>552</v>
@@ -14105,7 +14105,7 @@
         <v>264</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K93" s="5">
         <v>-22</v>
@@ -14126,7 +14126,7 @@
         <v>265</v>
       </c>
       <c r="Q93" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="V93" s="5" t="s">
         <v>552</v>
@@ -14179,7 +14179,7 @@
         <v>90</v>
       </c>
       <c r="Q94" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="V94" s="5" t="s">
         <v>551</v>
@@ -14214,7 +14214,7 @@
         <v>267</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="K95" s="5">
         <v>-23</v>
@@ -14235,7 +14235,7 @@
         <v>218</v>
       </c>
       <c r="Q95" s="10" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="R95" s="7"/>
       <c r="T95" s="7"/>
@@ -14273,7 +14273,7 @@
         <v>268</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="K96" s="5">
         <v>-23</v>
@@ -14329,7 +14329,7 @@
         <v>269</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="K97" s="5">
         <v>-24</v>
@@ -14347,13 +14347,13 @@
         <v>4800</v>
       </c>
       <c r="P97" s="5" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="Q97" s="10" t="s">
         <v>270</v>
       </c>
       <c r="S97" s="5" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="T97" s="5" t="s">
         <v>271</v>
@@ -14391,7 +14391,7 @@
         <v>272</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K98" s="5">
         <v>-24</v>
@@ -14409,13 +14409,13 @@
         <v>9800</v>
       </c>
       <c r="P98" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="Q98" s="10" t="s">
         <v>273</v>
       </c>
       <c r="S98" s="5" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="T98" s="5" t="s">
         <v>274</v>
@@ -14453,7 +14453,7 @@
         <v>275</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K99" s="5">
         <v>-24</v>
@@ -14471,13 +14471,13 @@
         <v>19800</v>
       </c>
       <c r="P99" s="5" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="Q99" s="10" t="s">
         <v>276</v>
       </c>
       <c r="S99" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="T99" s="5" t="s">
         <v>277</v>
@@ -14515,7 +14515,7 @@
         <v>591</v>
       </c>
       <c r="I100" s="19" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="K100" s="19">
         <v>-25</v>
@@ -14536,7 +14536,7 @@
         <v>592</v>
       </c>
       <c r="Q100" s="40" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V100" s="19" t="s">
         <v>552</v>
@@ -14578,7 +14578,7 @@
         <v>542</v>
       </c>
       <c r="I101" s="19" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="K101" s="19">
         <v>-25</v>
@@ -14599,7 +14599,7 @@
         <v>593</v>
       </c>
       <c r="Q101" s="40" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="V101" s="19" t="s">
         <v>552</v>
@@ -14641,7 +14641,7 @@
         <v>279</v>
       </c>
       <c r="I102" s="19" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K102" s="19">
         <v>-25</v>
@@ -14662,7 +14662,7 @@
         <v>593</v>
       </c>
       <c r="Q102" s="40" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="V102" s="19" t="s">
         <v>552</v>
@@ -14704,7 +14704,7 @@
         <v>591</v>
       </c>
       <c r="I103" s="19" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="K103" s="19">
         <v>-25</v>
@@ -14725,7 +14725,7 @@
         <v>593</v>
       </c>
       <c r="Q103" s="40" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V103" s="19" t="s">
         <v>552</v>
@@ -14767,7 +14767,7 @@
         <v>543</v>
       </c>
       <c r="I104" s="19" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K104" s="19">
         <v>-25</v>
@@ -14788,7 +14788,7 @@
         <v>593</v>
       </c>
       <c r="Q104" s="40" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="V104" s="19" t="s">
         <v>552</v>
@@ -14830,7 +14830,7 @@
         <v>78</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="K105" s="19">
         <v>-25</v>
@@ -14851,7 +14851,7 @@
         <v>592</v>
       </c>
       <c r="Q105" s="40" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="V105" s="19" t="s">
         <v>552</v>
@@ -14893,7 +14893,7 @@
         <v>590</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="K106" s="19">
         <v>-25</v>
@@ -14914,7 +14914,7 @@
         <v>593</v>
       </c>
       <c r="Q106" s="40" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V106" s="19" t="s">
         <v>552</v>
@@ -14956,7 +14956,7 @@
         <v>279</v>
       </c>
       <c r="I107" s="19" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K107" s="19">
         <v>-25</v>
@@ -14977,7 +14977,7 @@
         <v>592</v>
       </c>
       <c r="Q107" s="40" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="V107" s="19" t="s">
         <v>552</v>
@@ -15019,7 +15019,7 @@
         <v>82</v>
       </c>
       <c r="I108" s="19" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K108" s="19">
         <v>-25</v>
@@ -15040,7 +15040,7 @@
         <v>593</v>
       </c>
       <c r="Q108" s="40" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="V108" s="19" t="s">
         <v>552</v>
@@ -15139,7 +15139,7 @@
         <v>285</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="K110" s="5">
         <v>-26</v>
@@ -15157,13 +15157,13 @@
         <v>3800</v>
       </c>
       <c r="P110" s="5" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="Q110" s="10" t="s">
         <v>286</v>
       </c>
       <c r="S110" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="T110" s="5" t="s">
         <v>287</v>
@@ -15201,7 +15201,7 @@
         <v>288</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="K111" s="5">
         <v>-26</v>
@@ -15219,13 +15219,13 @@
         <v>8800</v>
       </c>
       <c r="P111" s="5" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="Q111" s="10" t="s">
         <v>289</v>
       </c>
       <c r="S111" s="5" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="T111" s="5" t="s">
         <v>290</v>
@@ -15263,7 +15263,7 @@
         <v>291</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="K112" s="5">
         <v>-26</v>
@@ -15281,13 +15281,13 @@
         <v>18800</v>
       </c>
       <c r="P112" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="Q112" s="10" t="s">
         <v>292</v>
       </c>
       <c r="S112" s="5" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="T112" s="5" t="s">
         <v>293</v>
@@ -15325,7 +15325,7 @@
         <v>294</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="K113" s="5">
         <v>-26</v>
@@ -15381,7 +15381,7 @@
         <v>297</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="K114" s="5">
         <v>-26</v>
@@ -15437,7 +15437,7 @@
         <v>299</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="K115" s="5">
         <v>-26</v>
@@ -15455,7 +15455,7 @@
         <v>9800</v>
       </c>
       <c r="P115" s="5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="Q115" s="10" t="s">
         <v>300</v>
@@ -15493,7 +15493,7 @@
         <v>301</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K116" s="5">
         <v>-27</v>
@@ -15511,13 +15511,13 @@
         <v>4800</v>
       </c>
       <c r="P116" s="5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="Q116" s="10" t="s">
         <v>302</v>
       </c>
       <c r="S116" s="5" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="T116" s="5" t="s">
         <v>303</v>
@@ -15555,7 +15555,7 @@
         <v>304</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="K117" s="5">
         <v>-27</v>
@@ -15573,13 +15573,13 @@
         <v>9800</v>
       </c>
       <c r="P117" s="5" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="Q117" s="10" t="s">
         <v>273</v>
       </c>
       <c r="S117" s="5" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="T117" s="5" t="s">
         <v>274</v>
@@ -15617,7 +15617,7 @@
         <v>305</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="K118" s="5">
         <v>-28</v>
@@ -15673,7 +15673,7 @@
         <v>307</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="K119" s="5">
         <v>-28</v>
@@ -15729,7 +15729,7 @@
         <v>310</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="K120" s="5">
         <v>-28</v>
@@ -15785,7 +15785,7 @@
         <v>313</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="K121" s="5">
         <v>-28</v>
@@ -15844,7 +15844,7 @@
         <v>317</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="K122" s="5">
         <v>-28</v>
@@ -15903,7 +15903,7 @@
         <v>320</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="K123" s="5">
         <v>-28</v>
@@ -15962,7 +15962,7 @@
         <v>297</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="K124" s="5">
         <v>-28</v>
@@ -16018,7 +16018,7 @@
         <v>323</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K125" s="5">
         <v>-28</v>
@@ -16074,7 +16074,7 @@
         <v>325</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="K126" s="5">
         <v>-28</v>
@@ -16130,7 +16130,7 @@
         <v>327</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="K127" s="5">
         <v>-29</v>
@@ -16213,7 +16213,7 @@
         <v>90</v>
       </c>
       <c r="Q128" s="10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="V128" s="5" t="s">
         <v>551</v>
@@ -16269,7 +16269,7 @@
         <v>90</v>
       </c>
       <c r="Q129" s="10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="V129" s="5" t="s">
         <v>551</v>
@@ -16304,7 +16304,7 @@
         <v>333</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K130" s="5">
         <v>-28</v>
@@ -16366,7 +16366,7 @@
         <v>251</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="K131" s="5">
         <v>-28</v>
@@ -16428,7 +16428,7 @@
         <v>337</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="K132" s="5">
         <v>-28</v>
@@ -16490,7 +16490,7 @@
         <v>339</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="K133" s="5">
         <v>-28</v>
@@ -16511,7 +16511,7 @@
         <v>295</v>
       </c>
       <c r="Q133" s="10" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="V133" s="5" t="s">
         <v>554</v>
@@ -16552,7 +16552,7 @@
         <v>340</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="K134" s="5">
         <v>-28</v>
@@ -16573,7 +16573,7 @@
         <v>308</v>
       </c>
       <c r="Q134" s="10" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="V134" s="5" t="s">
         <v>554</v>
@@ -16614,7 +16614,7 @@
         <v>342</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="K135" s="5">
         <v>-28</v>
@@ -16635,7 +16635,7 @@
         <v>311</v>
       </c>
       <c r="Q135" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="V135" s="5" t="s">
         <v>554</v>
@@ -16677,7 +16677,7 @@
       </c>
       <c r="H136" s="8"/>
       <c r="I136" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K136" s="5">
         <v>-28</v>
@@ -16698,7 +16698,7 @@
         <v>160</v>
       </c>
       <c r="Q136" s="10" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="V136" s="5" t="s">
         <v>554</v>
@@ -16737,7 +16737,7 @@
       </c>
       <c r="H137" s="8"/>
       <c r="I137" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K137" s="5">
         <v>-28</v>
@@ -16758,7 +16758,7 @@
         <v>160</v>
       </c>
       <c r="Q137" s="10" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="V137" s="5" t="s">
         <v>554</v>
@@ -16797,7 +16797,7 @@
       </c>
       <c r="H138" s="8"/>
       <c r="I138" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K138" s="5">
         <v>-28</v>
@@ -16818,7 +16818,7 @@
         <v>160</v>
       </c>
       <c r="Q138" s="10" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="V138" s="5" t="s">
         <v>554</v>
@@ -16857,7 +16857,7 @@
       </c>
       <c r="H139" s="8"/>
       <c r="I139" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="K139" s="5">
         <v>-28</v>
@@ -16878,7 +16878,7 @@
         <v>160</v>
       </c>
       <c r="Q139" s="10" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="V139" s="5" t="s">
         <v>554</v>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="H140" s="8"/>
       <c r="I140" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="K140" s="5">
         <v>-28</v>
@@ -16938,7 +16938,7 @@
         <v>160</v>
       </c>
       <c r="Q140" s="10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="V140" s="5" t="s">
         <v>554</v>
@@ -16977,7 +16977,7 @@
       </c>
       <c r="H141" s="8"/>
       <c r="I141" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K141" s="5">
         <v>-28</v>
@@ -16998,7 +16998,7 @@
         <v>160</v>
       </c>
       <c r="Q141" s="10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="V141" s="5" t="s">
         <v>554</v>
@@ -17036,7 +17036,7 @@
         <v>343</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K142" s="5">
         <v>-28</v>
@@ -17098,7 +17098,7 @@
         <v>344</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="K143" s="5">
         <v>-28</v>
@@ -17160,7 +17160,7 @@
         <v>345</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K144" s="5">
         <v>-28</v>
@@ -17226,7 +17226,7 @@
       </c>
       <c r="H145" s="22"/>
       <c r="I145" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K145" s="5">
         <v>-28</v>
@@ -17247,13 +17247,13 @@
         <v>348</v>
       </c>
       <c r="Q145" s="10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="S145" s="5" t="s">
         <v>90</v>
       </c>
       <c r="T145" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="V145" s="5" t="s">
         <v>552</v>
@@ -17292,7 +17292,7 @@
       </c>
       <c r="H146" s="22"/>
       <c r="I146" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="K146" s="5">
         <v>-28</v>
@@ -17313,13 +17313,13 @@
         <v>278</v>
       </c>
       <c r="Q146" s="10" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="S146" s="5" t="s">
         <v>160</v>
       </c>
       <c r="T146" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="V146" s="5" t="s">
         <v>552</v>
@@ -17358,7 +17358,7 @@
       </c>
       <c r="H147" s="22"/>
       <c r="I147" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="K147" s="5">
         <v>-28</v>
@@ -17379,13 +17379,13 @@
         <v>278</v>
       </c>
       <c r="Q147" s="10" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="S147" s="5" t="s">
         <v>160</v>
       </c>
       <c r="T147" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="V147" s="5" t="s">
         <v>552</v>
@@ -17424,7 +17424,7 @@
       </c>
       <c r="H148" s="22"/>
       <c r="I148" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="K148" s="5">
         <v>-28</v>
@@ -17445,13 +17445,13 @@
         <v>278</v>
       </c>
       <c r="Q148" s="10" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="S148" s="5" t="s">
         <v>160</v>
       </c>
       <c r="T148" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="V148" s="5" t="s">
         <v>552</v>
@@ -17490,7 +17490,7 @@
       </c>
       <c r="H149" s="22"/>
       <c r="I149" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="K149" s="5">
         <v>-28</v>
@@ -17511,13 +17511,13 @@
         <v>278</v>
       </c>
       <c r="Q149" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="S149" s="5" t="s">
         <v>160</v>
       </c>
       <c r="T149" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="V149" s="5" t="s">
         <v>552</v>
@@ -17552,7 +17552,7 @@
         <v>353</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K150" s="5">
         <v>-28</v>
@@ -17614,7 +17614,7 @@
         <v>354</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="K151" s="5">
         <v>-28</v>
@@ -17676,7 +17676,7 @@
         <v>355</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K152" s="5">
         <v>-28</v>
@@ -17735,10 +17735,10 @@
         <v>1</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="K153" s="5">
         <v>-28</v>
@@ -17759,13 +17759,13 @@
         <v>348</v>
       </c>
       <c r="Q153" s="10" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="S153" s="5" t="s">
         <v>90</v>
       </c>
       <c r="T153" s="5" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="V153" s="5" t="s">
         <v>554</v>
@@ -17800,7 +17800,7 @@
         <v>356</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="K154" s="5">
         <v>-28</v>
@@ -17821,13 +17821,13 @@
         <v>348</v>
       </c>
       <c r="Q154" s="10" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="S154" s="5" t="s">
         <v>90</v>
       </c>
       <c r="T154" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="V154" s="5" t="s">
         <v>554</v>
@@ -17862,7 +17862,7 @@
         <v>357</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="K155" s="5">
         <v>-28</v>
@@ -17883,13 +17883,13 @@
         <v>348</v>
       </c>
       <c r="Q155" s="10" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="S155" s="5" t="s">
         <v>90</v>
       </c>
       <c r="T155" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="V155" s="5" t="s">
         <v>554</v>
@@ -17924,7 +17924,7 @@
         <v>358</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="K156" s="5">
         <v>-28</v>
@@ -17945,13 +17945,13 @@
         <v>348</v>
       </c>
       <c r="Q156" s="10" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="S156" s="5" t="s">
         <v>90</v>
       </c>
       <c r="T156" s="5" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="V156" s="5" t="s">
         <v>554</v>
@@ -17986,7 +17986,7 @@
         <v>359</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K157" s="5">
         <v>-28</v>
@@ -18007,13 +18007,13 @@
         <v>348</v>
       </c>
       <c r="Q157" s="10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="S157" s="5" t="s">
         <v>90</v>
       </c>
       <c r="T157" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="V157" s="5" t="s">
         <v>554</v>
@@ -18048,7 +18048,7 @@
         <v>360</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="K158" s="5">
         <v>-28</v>
@@ -18110,7 +18110,7 @@
         <v>362</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K159" s="5">
         <v>-28</v>
@@ -18172,7 +18172,7 @@
         <v>364</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K160" s="5">
         <v>-28</v>
@@ -18234,7 +18234,7 @@
         <v>366</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="K161" s="5">
         <v>-28</v>
@@ -18296,7 +18296,7 @@
         <v>367</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K162" s="5">
         <v>-28</v>
@@ -18358,7 +18358,7 @@
         <v>368</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K163" s="5">
         <v>-28</v>
@@ -18417,10 +18417,10 @@
         <v>1</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="J164" s="5">
         <v>21032</v>
@@ -18444,7 +18444,7 @@
         <v>220</v>
       </c>
       <c r="Q164" s="10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="V164" s="5" t="s">
         <v>551</v>
@@ -18485,7 +18485,7 @@
         <v>369</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="K165" s="5">
         <v>-28</v>
@@ -18547,7 +18547,7 @@
         <v>370</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K166" s="5">
         <v>-28</v>
@@ -18609,7 +18609,7 @@
         <v>371</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K167" s="5">
         <v>-28</v>
@@ -18671,7 +18671,7 @@
         <v>372</v>
       </c>
       <c r="I168" s="19" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="K168" s="19">
         <v>-28</v>
@@ -18689,10 +18689,10 @@
         <v>600</v>
       </c>
       <c r="P168" s="19" t="s">
+        <v>1176</v>
+      </c>
+      <c r="Q168" s="40" t="s">
         <v>1177</v>
-      </c>
-      <c r="Q168" s="40" t="s">
-        <v>1178</v>
       </c>
       <c r="V168" s="19" t="s">
         <v>551</v>
@@ -18736,7 +18736,7 @@
         <v>483</v>
       </c>
       <c r="I169" s="19" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="K169" s="19">
         <v>-28</v>
@@ -18754,10 +18754,10 @@
         <v>3000</v>
       </c>
       <c r="P169" s="19" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="Q169" s="40" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="V169" s="19" t="s">
         <v>631</v>
@@ -18798,7 +18798,7 @@
         <v>373</v>
       </c>
       <c r="I170" s="19" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="K170" s="19">
         <v>-28</v>
@@ -18816,10 +18816,10 @@
         <v>19800</v>
       </c>
       <c r="P170" s="19" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="Q170" s="40" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="V170" s="19" t="s">
         <v>631</v>
@@ -18857,13 +18857,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H171" s="19" t="s">
         <v>1313</v>
       </c>
-      <c r="H171" s="19" t="s">
-        <v>1314</v>
-      </c>
       <c r="I171" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="K171" s="19">
         <v>-28</v>
@@ -18881,10 +18881,10 @@
         <v>100</v>
       </c>
       <c r="P171" s="19" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="Q171" s="40" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="V171" s="19" t="s">
         <v>598</v>
@@ -18925,13 +18925,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H172" s="19" t="s">
         <v>1315</v>
       </c>
-      <c r="H172" s="19" t="s">
-        <v>1316</v>
-      </c>
       <c r="I172" s="19" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="K172" s="19">
         <v>-28</v>
@@ -18949,10 +18949,10 @@
         <v>300</v>
       </c>
       <c r="P172" s="19" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="Q172" s="40" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="V172" s="19" t="s">
         <v>554</v>
@@ -18993,13 +18993,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I173" s="19" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="K173" s="19">
         <v>-28</v>
@@ -19017,10 +19017,10 @@
         <v>600</v>
       </c>
       <c r="P173" s="19" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="Q173" s="40" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="V173" s="19" t="s">
         <v>554</v>
@@ -19061,13 +19061,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H174" s="19" t="s">
         <v>1318</v>
       </c>
-      <c r="H174" s="19" t="s">
-        <v>1319</v>
-      </c>
       <c r="I174" s="19" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="K174" s="19">
         <v>-28</v>
@@ -19085,10 +19085,10 @@
         <v>600</v>
       </c>
       <c r="P174" s="19" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="Q174" s="40" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="V174" s="19" t="s">
         <v>554</v>
@@ -19129,13 +19129,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I175" s="19" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="K175" s="19">
         <v>-28</v>
@@ -19153,10 +19153,10 @@
         <v>1000</v>
       </c>
       <c r="P175" s="19" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="Q175" s="40" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="V175" s="19" t="s">
         <v>554</v>
@@ -19197,13 +19197,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I176" s="19" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="K176" s="19">
         <v>-28</v>
@@ -19221,10 +19221,10 @@
         <v>1800</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="Q176" s="40" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="V176" s="19" t="s">
         <v>554</v>
@@ -19265,13 +19265,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I177" s="19" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="K177" s="19">
         <v>-28</v>
@@ -19289,10 +19289,10 @@
         <v>1800</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="Q177" s="40" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="V177" s="19" t="s">
         <v>554</v>
@@ -19333,13 +19333,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I178" s="19" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="K178" s="19">
         <v>-28</v>
@@ -19357,10 +19357,10 @@
         <v>4800</v>
       </c>
       <c r="P178" s="19" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="Q178" s="40" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V178" s="19" t="s">
         <v>554</v>
@@ -19401,13 +19401,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I179" s="19" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="K179" s="19">
         <v>-28</v>
@@ -19425,10 +19425,10 @@
         <v>9800</v>
       </c>
       <c r="P179" s="19" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="Q179" s="40" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="V179" s="19" t="s">
         <v>554</v>
@@ -19469,13 +19469,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
+        <v>1324</v>
+      </c>
+      <c r="H180" s="19" t="s">
         <v>1325</v>
       </c>
-      <c r="H180" s="19" t="s">
-        <v>1326</v>
-      </c>
       <c r="I180" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K180" s="19">
         <v>-28</v>
@@ -19493,10 +19493,10 @@
         <v>4800</v>
       </c>
       <c r="P180" s="19" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="Q180" s="40" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="V180" s="19" t="s">
         <v>554</v>
@@ -19537,13 +19537,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I181" s="19" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K181" s="19">
         <v>-28</v>
@@ -19561,10 +19561,10 @@
         <v>9800</v>
       </c>
       <c r="P181" s="19" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="Q181" s="40" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="V181" s="19" t="s">
         <v>554</v>
@@ -19605,13 +19605,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I182" s="19" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K182" s="19">
         <v>-28</v>
@@ -19629,10 +19629,10 @@
         <v>19800</v>
       </c>
       <c r="P182" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="Q182" s="40" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="V182" s="19" t="s">
         <v>554</v>
@@ -19673,13 +19673,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I183" s="19" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="K183" s="19">
         <v>-28</v>
@@ -19697,10 +19697,10 @@
         <v>9800</v>
       </c>
       <c r="P183" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="Q183" s="40" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="V183" s="19" t="s">
         <v>554</v>
@@ -19741,13 +19741,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="I184" s="19" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K184" s="19">
         <v>-28</v>
@@ -19765,10 +19765,10 @@
         <v>19800</v>
       </c>
       <c r="P184" s="19" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="Q184" s="40" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="V184" s="19" t="s">
         <v>554</v>
@@ -19809,13 +19809,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
+        <v>1330</v>
+      </c>
+      <c r="H185" s="19" t="s">
         <v>1331</v>
       </c>
-      <c r="H185" s="19" t="s">
-        <v>1332</v>
-      </c>
       <c r="I185" s="19" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K185" s="19">
         <v>-28</v>
@@ -19833,10 +19833,10 @@
         <v>49800</v>
       </c>
       <c r="P185" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="Q185" s="40" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="V185" s="19" t="s">
         <v>554</v>
@@ -19880,7 +19880,7 @@
         <v>327</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="K186" s="5">
         <v>-29</v>
@@ -19901,13 +19901,13 @@
         <v>464</v>
       </c>
       <c r="Q186" s="10" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="S186" s="5" t="s">
         <v>330</v>
       </c>
       <c r="T186" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="V186" s="5" t="s">
         <v>551</v>
@@ -19942,7 +19942,7 @@
         <v>374</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K187" s="5">
         <v>-28</v>
@@ -20007,7 +20007,7 @@
         <v>376</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="K188" s="5">
         <v>-28</v>
@@ -20072,7 +20072,7 @@
         <v>378</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="K189" s="5">
         <v>-28</v>
@@ -20137,7 +20137,7 @@
         <v>380</v>
       </c>
       <c r="I190" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K190" s="5">
         <v>-28</v>
@@ -20202,7 +20202,7 @@
         <v>382</v>
       </c>
       <c r="I191" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="K191" s="5">
         <v>-28</v>
@@ -20267,7 +20267,7 @@
         <v>384</v>
       </c>
       <c r="I192" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="K192" s="5">
         <v>-28</v>
@@ -20332,7 +20332,7 @@
         <v>386</v>
       </c>
       <c r="I193" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="K193" s="5">
         <v>-28</v>
@@ -20397,7 +20397,7 @@
         <v>388</v>
       </c>
       <c r="I194" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K194" s="5">
         <v>-28</v>
@@ -20462,7 +20462,7 @@
         <v>390</v>
       </c>
       <c r="I195" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K195" s="5">
         <v>-28</v>
@@ -20527,7 +20527,7 @@
         <v>392</v>
       </c>
       <c r="I196" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K196" s="5">
         <v>-28</v>
@@ -20592,7 +20592,7 @@
         <v>394</v>
       </c>
       <c r="I197" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K197" s="5">
         <v>-28</v>
@@ -20657,7 +20657,7 @@
         <v>396</v>
       </c>
       <c r="I198" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K198" s="5">
         <v>-28</v>
@@ -20722,7 +20722,7 @@
         <v>398</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K199" s="5">
         <v>-28</v>
@@ -20787,7 +20787,7 @@
         <v>399</v>
       </c>
       <c r="I200" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K200" s="5">
         <v>-28</v>
@@ -20852,7 +20852,7 @@
         <v>400</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="K201" s="5">
         <v>-28</v>
@@ -20917,7 +20917,7 @@
         <v>374</v>
       </c>
       <c r="I202" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K202" s="5">
         <v>-28</v>
@@ -20982,7 +20982,7 @@
         <v>376</v>
       </c>
       <c r="I203" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="K203" s="5">
         <v>-28</v>
@@ -21047,7 +21047,7 @@
         <v>378</v>
       </c>
       <c r="I204" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="K204" s="5">
         <v>-28</v>
@@ -21112,7 +21112,7 @@
         <v>380</v>
       </c>
       <c r="I205" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K205" s="5">
         <v>-28</v>
@@ -21177,7 +21177,7 @@
         <v>382</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="K206" s="5">
         <v>-28</v>
@@ -21242,7 +21242,7 @@
         <v>384</v>
       </c>
       <c r="I207" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="K207" s="5">
         <v>-28</v>
@@ -21307,7 +21307,7 @@
         <v>386</v>
       </c>
       <c r="I208" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="K208" s="5">
         <v>-28</v>
@@ -21372,7 +21372,7 @@
         <v>388</v>
       </c>
       <c r="I209" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K209" s="5">
         <v>-28</v>
@@ -21437,7 +21437,7 @@
         <v>390</v>
       </c>
       <c r="I210" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K210" s="5">
         <v>-28</v>
@@ -21502,7 +21502,7 @@
         <v>392</v>
       </c>
       <c r="I211" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K211" s="5">
         <v>-28</v>
@@ -21567,7 +21567,7 @@
         <v>394</v>
       </c>
       <c r="I212" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K212" s="5">
         <v>-28</v>
@@ -21632,7 +21632,7 @@
         <v>396</v>
       </c>
       <c r="I213" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K213" s="5">
         <v>-28</v>
@@ -21697,7 +21697,7 @@
         <v>398</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K214" s="5">
         <v>-28</v>
@@ -21762,7 +21762,7 @@
         <v>399</v>
       </c>
       <c r="I215" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K215" s="5">
         <v>-28</v>
@@ -21827,7 +21827,7 @@
         <v>400</v>
       </c>
       <c r="I216" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="K216" s="5">
         <v>-28</v>
@@ -21892,7 +21892,7 @@
         <v>374</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K217" s="5">
         <v>-28</v>
@@ -21957,7 +21957,7 @@
         <v>376</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="K218" s="5">
         <v>-28</v>
@@ -22022,7 +22022,7 @@
         <v>378</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="K219" s="5">
         <v>-28</v>
@@ -22087,7 +22087,7 @@
         <v>380</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K220" s="5">
         <v>-28</v>
@@ -22152,7 +22152,7 @@
         <v>382</v>
       </c>
       <c r="I221" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="K221" s="5">
         <v>-28</v>
@@ -22217,7 +22217,7 @@
         <v>384</v>
       </c>
       <c r="I222" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="K222" s="5">
         <v>-28</v>
@@ -22282,7 +22282,7 @@
         <v>386</v>
       </c>
       <c r="I223" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="K223" s="5">
         <v>-28</v>
@@ -22347,7 +22347,7 @@
         <v>388</v>
       </c>
       <c r="I224" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K224" s="5">
         <v>-28</v>
@@ -22412,7 +22412,7 @@
         <v>390</v>
       </c>
       <c r="I225" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K225" s="5">
         <v>-28</v>
@@ -22477,7 +22477,7 @@
         <v>392</v>
       </c>
       <c r="I226" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K226" s="5">
         <v>-28</v>
@@ -22542,7 +22542,7 @@
         <v>394</v>
       </c>
       <c r="I227" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K227" s="5">
         <v>-28</v>
@@ -22607,7 +22607,7 @@
         <v>396</v>
       </c>
       <c r="I228" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K228" s="5">
         <v>-28</v>
@@ -22672,7 +22672,7 @@
         <v>398</v>
       </c>
       <c r="I229" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K229" s="5">
         <v>-28</v>
@@ -22737,7 +22737,7 @@
         <v>399</v>
       </c>
       <c r="I230" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K230" s="5">
         <v>-28</v>
@@ -22802,7 +22802,7 @@
         <v>400</v>
       </c>
       <c r="I231" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="K231" s="5">
         <v>-28</v>
@@ -22867,7 +22867,7 @@
         <v>374</v>
       </c>
       <c r="I232" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K232" s="5">
         <v>-28</v>
@@ -22932,7 +22932,7 @@
         <v>376</v>
       </c>
       <c r="I233" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="K233" s="5">
         <v>-28</v>
@@ -22997,7 +22997,7 @@
         <v>378</v>
       </c>
       <c r="I234" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="K234" s="5">
         <v>-28</v>
@@ -23062,7 +23062,7 @@
         <v>380</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K235" s="5">
         <v>-28</v>
@@ -23127,7 +23127,7 @@
         <v>382</v>
       </c>
       <c r="I236" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="K236" s="5">
         <v>-28</v>
@@ -23192,7 +23192,7 @@
         <v>384</v>
       </c>
       <c r="I237" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="K237" s="5">
         <v>-28</v>
@@ -23257,7 +23257,7 @@
         <v>386</v>
       </c>
       <c r="I238" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="K238" s="5">
         <v>-28</v>
@@ -23322,7 +23322,7 @@
         <v>388</v>
       </c>
       <c r="I239" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K239" s="5">
         <v>-28</v>
@@ -23387,7 +23387,7 @@
         <v>390</v>
       </c>
       <c r="I240" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K240" s="5">
         <v>-28</v>
@@ -23452,7 +23452,7 @@
         <v>392</v>
       </c>
       <c r="I241" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K241" s="5">
         <v>-28</v>
@@ -23517,7 +23517,7 @@
         <v>394</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K242" s="5">
         <v>-28</v>
@@ -23582,7 +23582,7 @@
         <v>396</v>
       </c>
       <c r="I243" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K243" s="5">
         <v>-28</v>
@@ -23647,7 +23647,7 @@
         <v>398</v>
       </c>
       <c r="I244" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K244" s="5">
         <v>-28</v>
@@ -23712,7 +23712,7 @@
         <v>399</v>
       </c>
       <c r="I245" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K245" s="5">
         <v>-28</v>
@@ -23777,7 +23777,7 @@
         <v>400</v>
       </c>
       <c r="I246" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="K246" s="5">
         <v>-28</v>
@@ -23839,11 +23839,11 @@
         <v>1</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H247" s="8"/>
       <c r="I247" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K247" s="5">
         <v>-28</v>
@@ -23864,7 +23864,7 @@
         <v>160</v>
       </c>
       <c r="Q247" s="10" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="V247" s="5" t="s">
         <v>554</v>
@@ -23909,7 +23909,7 @@
       </c>
       <c r="H248" s="8"/>
       <c r="I248" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="K248" s="5">
         <v>-28</v>
@@ -23930,7 +23930,7 @@
         <v>160</v>
       </c>
       <c r="Q248" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="V248" s="5" t="s">
         <v>554</v>
@@ -23975,7 +23975,7 @@
       </c>
       <c r="H249" s="8"/>
       <c r="I249" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="K249" s="5">
         <v>-28</v>
@@ -23996,7 +23996,7 @@
         <v>160</v>
       </c>
       <c r="Q249" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="V249" s="5" t="s">
         <v>554</v>
@@ -24041,7 +24041,7 @@
       </c>
       <c r="H250" s="43"/>
       <c r="I250" s="19" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K250" s="19">
         <v>-28</v>
@@ -24062,7 +24062,7 @@
         <v>461</v>
       </c>
       <c r="Q250" s="40" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="V250" s="19" t="s">
         <v>551</v>
@@ -24103,7 +24103,7 @@
         <v>327</v>
       </c>
       <c r="I251" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="K251" s="5">
         <v>-29</v>
@@ -24121,16 +24121,16 @@
         <v>600</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="Q251" s="10" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="S251" s="5" t="s">
         <v>330</v>
       </c>
       <c r="T251" s="5" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="V251" s="5" t="s">
         <v>551</v>
@@ -24171,7 +24171,7 @@
         <v>485</v>
       </c>
       <c r="I252" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="K252" s="5">
         <v>-30</v>
@@ -24192,7 +24192,7 @@
         <v>461</v>
       </c>
       <c r="Q252" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="V252" s="5" t="s">
         <v>631</v>
@@ -24233,7 +24233,7 @@
         <v>486</v>
       </c>
       <c r="I253" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="K253" s="5">
         <v>-30</v>
@@ -24254,7 +24254,7 @@
         <v>504</v>
       </c>
       <c r="Q253" s="10" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="V253" s="5" t="s">
         <v>554</v>
@@ -24295,7 +24295,7 @@
         <v>501</v>
       </c>
       <c r="I254" s="5" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="K254" s="5">
         <v>-31</v>
@@ -24316,7 +24316,7 @@
         <v>503</v>
       </c>
       <c r="Q254" s="10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="V254" s="5" t="s">
         <v>554</v>
@@ -24360,7 +24360,7 @@
         <v>497</v>
       </c>
       <c r="I255" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="K255" s="5">
         <v>-31</v>
@@ -24381,7 +24381,7 @@
         <v>484</v>
       </c>
       <c r="Q255" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="V255" s="5" t="s">
         <v>554</v>
@@ -24425,7 +24425,7 @@
         <v>498</v>
       </c>
       <c r="I256" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K256" s="5">
         <v>-31</v>
@@ -24446,7 +24446,7 @@
         <v>515</v>
       </c>
       <c r="Q256" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="V256" s="5" t="s">
         <v>554</v>
@@ -24490,7 +24490,7 @@
         <v>505</v>
       </c>
       <c r="I257" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="K257" s="5">
         <v>-31</v>
@@ -24511,13 +24511,13 @@
         <v>610</v>
       </c>
       <c r="Q257" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="S257" s="5" t="s">
         <v>506</v>
       </c>
       <c r="T257" s="5" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="V257" s="5" t="s">
         <v>551</v>
@@ -24558,7 +24558,7 @@
         <v>537</v>
       </c>
       <c r="I258" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="K258" s="5">
         <v>-31</v>
@@ -24623,7 +24623,7 @@
         <v>376</v>
       </c>
       <c r="I259" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="K259" s="5">
         <v>-31</v>
@@ -24688,7 +24688,7 @@
         <v>378</v>
       </c>
       <c r="I260" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="K260" s="5">
         <v>-31</v>
@@ -24753,7 +24753,7 @@
         <v>380</v>
       </c>
       <c r="I261" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="K261" s="5">
         <v>-31</v>
@@ -24818,7 +24818,7 @@
         <v>382</v>
       </c>
       <c r="I262" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K262" s="5">
         <v>-31</v>
@@ -24883,7 +24883,7 @@
         <v>384</v>
       </c>
       <c r="I263" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="K263" s="5">
         <v>-31</v>
@@ -24948,7 +24948,7 @@
         <v>508</v>
       </c>
       <c r="I264" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="K264" s="5">
         <v>-31</v>
@@ -25013,7 +25013,7 @@
         <v>509</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="K265" s="5">
         <v>-31</v>
@@ -25078,7 +25078,7 @@
         <v>510</v>
       </c>
       <c r="I266" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K266" s="5">
         <v>-31</v>
@@ -25143,7 +25143,7 @@
         <v>511</v>
       </c>
       <c r="I267" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="K267" s="5">
         <v>-31</v>
@@ -25208,7 +25208,7 @@
         <v>512</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K268" s="5">
         <v>-31</v>
@@ -25273,7 +25273,7 @@
         <v>513</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="K269" s="5">
         <v>-31</v>
@@ -25338,7 +25338,7 @@
         <v>398</v>
       </c>
       <c r="I270" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K270" s="5">
         <v>-31</v>
@@ -25403,7 +25403,7 @@
         <v>399</v>
       </c>
       <c r="I271" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="K271" s="5">
         <v>-31</v>
@@ -25468,7 +25468,7 @@
         <v>400</v>
       </c>
       <c r="I272" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K272" s="5">
         <v>-31</v>
@@ -25554,7 +25554,7 @@
         <v>90</v>
       </c>
       <c r="Q273" s="10" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="V273" s="5" t="s">
         <v>551</v>
@@ -25592,7 +25592,7 @@
       </c>
       <c r="H274" s="5"/>
       <c r="I274" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="J274" s="5"/>
       <c r="K274" s="5">
@@ -25614,7 +25614,7 @@
         <v>550</v>
       </c>
       <c r="Q274" s="10" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="R274" s="5"/>
       <c r="S274" s="5"/>
@@ -25665,7 +25665,7 @@
         <v>555</v>
       </c>
       <c r="I275" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="K275" s="5">
         <v>-31</v>
@@ -25686,7 +25686,7 @@
         <v>589</v>
       </c>
       <c r="Q275" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="V275" s="5" t="s">
         <v>551</v>
@@ -25730,7 +25730,7 @@
         <v>556</v>
       </c>
       <c r="I276" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="K276" s="5">
         <v>-31</v>
@@ -25751,7 +25751,7 @@
         <v>568</v>
       </c>
       <c r="Q276" s="10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="V276" s="5" t="s">
         <v>554</v>
@@ -25795,7 +25795,7 @@
         <v>557</v>
       </c>
       <c r="I277" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K277" s="5">
         <v>-31</v>
@@ -25816,7 +25816,7 @@
         <v>568</v>
       </c>
       <c r="Q277" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="V277" s="5" t="s">
         <v>565</v>
@@ -25860,7 +25860,7 @@
         <v>558</v>
       </c>
       <c r="I278" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="K278" s="5">
         <v>-31</v>
@@ -25881,7 +25881,7 @@
         <v>568</v>
       </c>
       <c r="Q278" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="V278" s="5" t="s">
         <v>566</v>
@@ -25925,7 +25925,7 @@
         <v>559</v>
       </c>
       <c r="I279" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="K279" s="5">
         <v>-31</v>
@@ -25946,7 +25946,7 @@
         <v>568</v>
       </c>
       <c r="Q279" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="V279" s="5" t="s">
         <v>567</v>
@@ -25990,7 +25990,7 @@
         <v>560</v>
       </c>
       <c r="I280" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="K280" s="5">
         <v>-31</v>
@@ -26011,7 +26011,7 @@
         <v>568</v>
       </c>
       <c r="Q280" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="V280" s="5" t="s">
         <v>551</v>
@@ -26055,7 +26055,7 @@
         <v>561</v>
       </c>
       <c r="I281" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="K281" s="5">
         <v>-31</v>
@@ -26076,7 +26076,7 @@
         <v>568</v>
       </c>
       <c r="Q281" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="V281" s="5" t="s">
         <v>554</v>
@@ -26120,7 +26120,7 @@
         <v>562</v>
       </c>
       <c r="I282" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="K282" s="5">
         <v>-31</v>
@@ -26141,7 +26141,7 @@
         <v>568</v>
       </c>
       <c r="Q282" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="V282" s="5" t="s">
         <v>565</v>
@@ -26185,7 +26185,7 @@
         <v>563</v>
       </c>
       <c r="I283" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K283" s="5">
         <v>-31</v>
@@ -26206,7 +26206,7 @@
         <v>568</v>
       </c>
       <c r="Q283" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="V283" s="5" t="s">
         <v>566</v>
@@ -26250,7 +26250,7 @@
         <v>564</v>
       </c>
       <c r="I284" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K284" s="5">
         <v>-31</v>
@@ -26271,7 +26271,7 @@
         <v>568</v>
       </c>
       <c r="Q284" s="10" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="V284" s="5" t="s">
         <v>567</v>
@@ -26336,7 +26336,7 @@
         <v>568</v>
       </c>
       <c r="Q285" s="10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="V285" s="5" t="s">
         <v>554</v>
@@ -26398,7 +26398,7 @@
         <v>568</v>
       </c>
       <c r="Q286" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="V286" s="5" t="s">
         <v>554</v>
@@ -26460,7 +26460,7 @@
         <v>568</v>
       </c>
       <c r="Q287" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="V287" s="5" t="s">
         <v>554</v>
@@ -26522,7 +26522,7 @@
         <v>568</v>
       </c>
       <c r="Q288" s="10" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="V288" s="5" t="s">
         <v>554</v>
@@ -26584,7 +26584,7 @@
         <v>568</v>
       </c>
       <c r="Q289" s="10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="V289" s="5" t="s">
         <v>554</v>
@@ -26646,7 +26646,7 @@
         <v>568</v>
       </c>
       <c r="Q290" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="V290" s="5" t="s">
         <v>554</v>
@@ -26708,7 +26708,7 @@
         <v>568</v>
       </c>
       <c r="Q291" s="10" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="V291" s="5" t="s">
         <v>554</v>
@@ -26770,7 +26770,7 @@
         <v>568</v>
       </c>
       <c r="Q292" s="10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="V292" s="5" t="s">
         <v>554</v>
@@ -26832,7 +26832,7 @@
         <v>618</v>
       </c>
       <c r="Q293" s="10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="V293" s="5" t="s">
         <v>554</v>
@@ -26873,7 +26873,7 @@
         <v>632</v>
       </c>
       <c r="I294" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="K294" s="5">
         <v>-31</v>
@@ -26894,7 +26894,7 @@
         <v>609</v>
       </c>
       <c r="Q294" s="10" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="V294" s="5" t="s">
         <v>554</v>
@@ -26935,7 +26935,7 @@
         <v>633</v>
       </c>
       <c r="I295" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="K295" s="5">
         <v>-31</v>
@@ -26956,7 +26956,7 @@
         <v>609</v>
       </c>
       <c r="Q295" s="10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="V295" s="5" t="s">
         <v>554</v>
@@ -26997,7 +26997,7 @@
         <v>634</v>
       </c>
       <c r="I296" s="5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="K296" s="5">
         <v>-31</v>
@@ -27018,7 +27018,7 @@
         <v>609</v>
       </c>
       <c r="Q296" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="V296" s="5" t="s">
         <v>554</v>
@@ -27059,7 +27059,7 @@
         <v>635</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="K297" s="5">
         <v>-31</v>
@@ -27080,7 +27080,7 @@
         <v>609</v>
       </c>
       <c r="Q297" s="10" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="V297" s="5" t="s">
         <v>554</v>
@@ -27121,7 +27121,7 @@
         <v>636</v>
       </c>
       <c r="I298" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="K298" s="5">
         <v>-31</v>
@@ -27142,7 +27142,7 @@
         <v>608</v>
       </c>
       <c r="Q298" s="10" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="V298" s="5" t="s">
         <v>554</v>
@@ -27183,7 +27183,7 @@
         <v>637</v>
       </c>
       <c r="I299" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="K299" s="5">
         <v>-31</v>
@@ -27204,7 +27204,7 @@
         <v>607</v>
       </c>
       <c r="Q299" s="10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="V299" s="5" t="s">
         <v>554</v>
@@ -27245,7 +27245,7 @@
         <v>638</v>
       </c>
       <c r="I300" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="K300" s="5">
         <v>-31</v>
@@ -27266,7 +27266,7 @@
         <v>607</v>
       </c>
       <c r="Q300" s="10" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="V300" s="5" t="s">
         <v>554</v>
@@ -27307,7 +27307,7 @@
         <v>639</v>
       </c>
       <c r="I301" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="K301" s="5">
         <v>-31</v>
@@ -27328,7 +27328,7 @@
         <v>607</v>
       </c>
       <c r="Q301" s="10" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="V301" s="5" t="s">
         <v>554</v>
@@ -27369,7 +27369,7 @@
         <v>640</v>
       </c>
       <c r="I302" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="K302" s="5">
         <v>-31</v>
@@ -27390,7 +27390,7 @@
         <v>607</v>
       </c>
       <c r="Q302" s="10" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="V302" s="5" t="s">
         <v>554</v>
@@ -27431,7 +27431,7 @@
         <v>641</v>
       </c>
       <c r="I303" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="K303" s="5">
         <v>-31</v>
@@ -27452,7 +27452,7 @@
         <v>607</v>
       </c>
       <c r="Q303" s="10" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="V303" s="5" t="s">
         <v>554</v>
@@ -27493,7 +27493,7 @@
         <v>642</v>
       </c>
       <c r="I304" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="K304" s="5">
         <v>-31</v>
@@ -27514,7 +27514,7 @@
         <v>607</v>
       </c>
       <c r="Q304" s="10" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="V304" s="5" t="s">
         <v>554</v>
@@ -27555,7 +27555,7 @@
         <v>643</v>
       </c>
       <c r="I305" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="K305" s="5">
         <v>-31</v>
@@ -27576,7 +27576,7 @@
         <v>607</v>
       </c>
       <c r="Q305" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="V305" s="5" t="s">
         <v>554</v>
@@ -27617,7 +27617,7 @@
         <v>644</v>
       </c>
       <c r="I306" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="K306" s="5">
         <v>-31</v>
@@ -27638,7 +27638,7 @@
         <v>607</v>
       </c>
       <c r="Q306" s="10" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="V306" s="5" t="s">
         <v>554</v>
@@ -27679,7 +27679,7 @@
         <v>645</v>
       </c>
       <c r="I307" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="K307" s="5">
         <v>-31</v>
@@ -27700,7 +27700,7 @@
         <v>607</v>
       </c>
       <c r="Q307" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="V307" s="5" t="s">
         <v>554</v>
@@ -27741,7 +27741,7 @@
         <v>646</v>
       </c>
       <c r="I308" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="K308" s="5">
         <v>-31</v>
@@ -27762,7 +27762,7 @@
         <v>614</v>
       </c>
       <c r="Q308" s="10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="V308" s="5" t="s">
         <v>554</v>
@@ -27803,7 +27803,7 @@
         <v>647</v>
       </c>
       <c r="I309" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="K309" s="5">
         <v>-31</v>
@@ -27824,7 +27824,7 @@
         <v>619</v>
       </c>
       <c r="Q309" s="10" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="V309" s="5" t="s">
         <v>554</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="G310" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="I310" s="5" t="s">
         <v>976</v>
-      </c>
-      <c r="I310" s="5" t="s">
-        <v>977</v>
       </c>
       <c r="K310" s="5">
         <v>-31</v>
@@ -27886,7 +27886,7 @@
         <v>620</v>
       </c>
       <c r="Q310" s="10" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="V310" s="5" t="s">
         <v>554</v>
@@ -27924,10 +27924,10 @@
         <v>0</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I311" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K311" s="5">
         <v>-31</v>
@@ -27948,7 +27948,7 @@
         <v>621</v>
       </c>
       <c r="Q311" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="V311" s="5" t="s">
         <v>554</v>
@@ -27986,10 +27986,10 @@
         <v>0</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I312" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="K312" s="5">
         <v>-31</v>
@@ -28010,7 +28010,7 @@
         <v>621</v>
       </c>
       <c r="Q312" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="V312" s="5" t="s">
         <v>628</v>
@@ -28048,10 +28048,10 @@
         <v>0</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I313" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="K313" s="5">
         <v>-31</v>
@@ -28072,7 +28072,7 @@
         <v>621</v>
       </c>
       <c r="Q313" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="V313" s="5" t="s">
         <v>629</v>
@@ -28110,10 +28110,10 @@
         <v>0</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I314" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K314" s="5">
         <v>-31</v>
@@ -28134,7 +28134,7 @@
         <v>620</v>
       </c>
       <c r="Q314" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="V314" s="5" t="s">
         <v>630</v>
@@ -28172,10 +28172,10 @@
         <v>0</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="I315" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K315" s="5">
         <v>-31</v>
@@ -28196,7 +28196,7 @@
         <v>621</v>
       </c>
       <c r="Q315" s="10" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="V315" s="5" t="s">
         <v>631</v>
@@ -28423,7 +28423,7 @@
         <v>651</v>
       </c>
       <c r="I319" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="K319" s="5">
         <v>-23</v>
@@ -28444,7 +28444,7 @@
         <v>653</v>
       </c>
       <c r="Q319" s="10" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="V319" s="5" t="s">
         <v>553</v>
@@ -28479,7 +28479,7 @@
         <v>652</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K320" s="5">
         <v>-25</v>
@@ -28500,7 +28500,7 @@
         <v>654</v>
       </c>
       <c r="Q320" s="10" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="V320" s="5" t="s">
         <v>553</v>
@@ -28535,7 +28535,7 @@
         <v>655</v>
       </c>
       <c r="I321" s="5" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="K321" s="5">
         <v>-23</v>
@@ -28556,7 +28556,7 @@
         <v>657</v>
       </c>
       <c r="Q321" s="10" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="V321" s="5" t="s">
         <v>551</v>
@@ -28659,11 +28659,11 @@
         <v>1</v>
       </c>
       <c r="G323" s="19" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J323" s="19"/>
       <c r="K323" s="19">
@@ -28682,17 +28682,17 @@
         <v>600</v>
       </c>
       <c r="P323" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="Q323" s="40" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="R323" s="19"/>
       <c r="S323" s="19"/>
       <c r="T323" s="19"/>
       <c r="U323" s="19"/>
       <c r="V323" s="19" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="W323" s="19">
         <v>9999999</v>
@@ -28742,11 +28742,11 @@
         <v>1</v>
       </c>
       <c r="G324" s="19" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="J324" s="19"/>
       <c r="K324" s="19">
@@ -28765,10 +28765,10 @@
         <v>4800</v>
       </c>
       <c r="P324" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="Q324" s="40" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="R324" s="19"/>
       <c r="S324" s="19"/>
@@ -28825,11 +28825,11 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="J325" s="19"/>
       <c r="K325" s="19">
@@ -28848,10 +28848,10 @@
         <v>9800</v>
       </c>
       <c r="P325" s="19" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="Q325" s="40" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="R325" s="19"/>
       <c r="S325" s="19"/>
@@ -28905,10 +28905,10 @@
         <v>1</v>
       </c>
       <c r="G326" s="41" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="I326" s="41" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="K326" s="41">
         <v>-4</v>
@@ -28920,14 +28920,14 @@
         <v>0</v>
       </c>
       <c r="N326" s="41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O326" s="41">
         <v>100</v>
       </c>
       <c r="Q326" s="42"/>
       <c r="V326" s="41" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="W326" s="41">
         <v>9999999</v>
@@ -28939,13 +28939,13 @@
         <v>2552233600</v>
       </c>
       <c r="AA326" s="41" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="AB326" s="41" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AC326" s="42" t="s">
         <v>1128</v>
-      </c>
-      <c r="AC326" s="42" t="s">
-        <v>1129</v>
       </c>
       <c r="AG326" s="41">
         <v>1</v>
@@ -28965,10 +28965,10 @@
         <v>1</v>
       </c>
       <c r="G327" s="44" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="I327" s="44" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="K327" s="44">
         <v>-31</v>
@@ -28980,19 +28980,19 @@
         <v>0</v>
       </c>
       <c r="N327" s="44" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="O327" s="44">
         <v>9900</v>
       </c>
       <c r="P327" s="44" t="s">
+        <v>1134</v>
+      </c>
+      <c r="Q327" s="49" t="s">
+        <v>1170</v>
+      </c>
+      <c r="V327" s="44" t="s">
         <v>1135</v>
-      </c>
-      <c r="Q327" s="49" t="s">
-        <v>1171</v>
-      </c>
-      <c r="V327" s="44" t="s">
-        <v>1136</v>
       </c>
       <c r="W327" s="44">
         <v>99999999</v>
@@ -29030,11 +29030,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="44" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H328" s="44"/>
       <c r="I328" s="44" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="J328" s="44"/>
       <c r="K328" s="44">
@@ -29047,23 +29047,23 @@
         <v>0</v>
       </c>
       <c r="N328" s="44" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O328" s="44">
         <v>600</v>
       </c>
       <c r="P328" s="44" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="Q328" s="49" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R328" s="44"/>
       <c r="S328" s="44"/>
       <c r="T328" s="44"/>
       <c r="U328" s="44"/>
       <c r="V328" s="44" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="W328" s="44">
         <v>99999999</v>
@@ -29112,11 +29112,11 @@
         <v>1</v>
       </c>
       <c r="G329" s="44" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H329" s="44"/>
       <c r="I329" s="44" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J329" s="44"/>
       <c r="K329" s="44">
@@ -29129,23 +29129,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="44" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O329" s="44">
         <v>2800</v>
       </c>
       <c r="P329" s="44" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Q329" s="49" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="R329" s="44"/>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
       <c r="U329" s="44"/>
       <c r="V329" s="44" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="W329" s="44">
         <v>99999999</v>
@@ -29194,11 +29194,11 @@
         <v>1</v>
       </c>
       <c r="G330" s="44" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H330" s="44"/>
       <c r="I330" s="44" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J330" s="44"/>
       <c r="K330" s="44">
@@ -29211,23 +29211,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="44" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O330" s="44">
         <v>4800</v>
       </c>
       <c r="P330" s="44" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Q330" s="49" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="R330" s="44"/>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
       <c r="U330" s="44"/>
       <c r="V330" s="44" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="W330" s="44">
         <v>99999999</v>
@@ -29276,11 +29276,11 @@
         <v>1</v>
       </c>
       <c r="G331" s="44" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H331" s="44"/>
       <c r="I331" s="44" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J331" s="44"/>
       <c r="K331" s="44">
@@ -29293,23 +29293,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="44" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O331" s="44">
         <v>9900</v>
       </c>
       <c r="P331" s="44" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Q331" s="49" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R331" s="44"/>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
       <c r="U331" s="44"/>
       <c r="V331" s="44" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="W331" s="44">
         <v>99999999</v>
@@ -29358,11 +29358,11 @@
         <v>1</v>
       </c>
       <c r="G332" s="44" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H332" s="44"/>
       <c r="I332" s="44" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J332" s="44"/>
       <c r="K332" s="44">
@@ -29375,23 +29375,23 @@
         <v>0</v>
       </c>
       <c r="N332" s="44" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O332" s="44">
         <v>19800</v>
       </c>
       <c r="P332" s="44" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Q332" s="49" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="R332" s="44"/>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
       <c r="U332" s="44"/>
       <c r="V332" s="44" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="W332" s="44">
         <v>99999999</v>
@@ -29440,11 +29440,11 @@
         <v>1</v>
       </c>
       <c r="G333" s="44" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H333" s="44"/>
       <c r="I333" s="44" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J333" s="44"/>
       <c r="K333" s="44">
@@ -29457,23 +29457,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="44" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O333" s="44">
         <v>29800</v>
       </c>
       <c r="P333" s="44" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Q333" s="49" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="R333" s="44"/>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
       <c r="U333" s="44"/>
       <c r="V333" s="44" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="W333" s="44">
         <v>99999999</v>
@@ -29522,11 +29522,11 @@
         <v>1</v>
       </c>
       <c r="G334" s="44" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H334" s="44"/>
       <c r="I334" s="44" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J334" s="44"/>
       <c r="K334" s="44">
@@ -29539,23 +29539,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="44" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O334" s="44">
         <v>39800</v>
       </c>
       <c r="P334" s="44" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Q334" s="49" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="R334" s="44"/>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
       <c r="U334" s="44"/>
       <c r="V334" s="44" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="W334" s="44">
         <v>99999999</v>
@@ -29604,11 +29604,11 @@
         <v>1</v>
       </c>
       <c r="G335" s="44" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H335" s="44"/>
       <c r="I335" s="44" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J335" s="44"/>
       <c r="K335" s="44">
@@ -29621,23 +29621,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="44" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O335" s="44">
         <v>49800</v>
       </c>
       <c r="P335" s="44" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Q335" s="49" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="R335" s="44"/>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
       <c r="U335" s="44"/>
       <c r="V335" s="44" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="W335" s="44">
         <v>99999999</v>
@@ -29686,11 +29686,11 @@
         <v>1</v>
       </c>
       <c r="G336" s="44" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H336" s="44"/>
       <c r="I336" s="44" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J336" s="44"/>
       <c r="K336" s="44">
@@ -29703,23 +29703,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="44" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O336" s="44">
         <v>59800</v>
       </c>
       <c r="P336" s="44" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Q336" s="49" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="R336" s="44"/>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
       <c r="U336" s="44"/>
       <c r="V336" s="44" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="W336" s="44">
         <v>99999999</v>
@@ -29768,11 +29768,11 @@
         <v>1</v>
       </c>
       <c r="G337" s="44" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="H337" s="44"/>
       <c r="I337" s="44" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J337" s="44"/>
       <c r="K337" s="44">
@@ -29785,23 +29785,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="44" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O337" s="44">
         <v>69800</v>
       </c>
       <c r="P337" s="44" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="Q337" s="49" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="R337" s="44"/>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
       <c r="U337" s="44"/>
       <c r="V337" s="44" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="W337" s="44">
         <v>99999999</v>
@@ -29847,10 +29847,10 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="I338" s="19" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="K338" s="19">
         <v>-31</v>
@@ -29868,10 +29868,10 @@
         <v>19800</v>
       </c>
       <c r="P338" s="19" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="Q338" s="40" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="V338" s="19" t="s">
         <v>551</v>
@@ -29886,10 +29886,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA338" s="19" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="AB338" s="19" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AG338" s="19">
         <v>1</v>
@@ -29922,7 +29922,7 @@
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="J339" s="19"/>
       <c r="K339" s="19">
@@ -29941,10 +29941,10 @@
         <v>30000</v>
       </c>
       <c r="P339" s="19" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="Q339" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="R339" s="19"/>
       <c r="S339" s="19"/>
@@ -29964,10 +29964,10 @@
       </c>
       <c r="Z339" s="19"/>
       <c r="AA339" s="19" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="AB339" s="19" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="AC339" s="19"/>
       <c r="AD339" s="19"/>
@@ -30002,11 +30002,11 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="J340" s="19"/>
       <c r="K340" s="19">
@@ -30025,10 +30025,10 @@
         <v>78000</v>
       </c>
       <c r="P340" s="19" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="Q340" s="40" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="R340" s="19"/>
       <c r="S340" s="19"/>
@@ -30048,10 +30048,10 @@
       </c>
       <c r="Z340" s="19"/>
       <c r="AA340" s="19" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="AB340" s="19" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="AC340" s="19"/>
       <c r="AD340" s="19"/>
@@ -30083,11 +30083,11 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="5" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="K341" s="5">
         <v>-31</v>
@@ -30105,13 +30105,13 @@
         <v>600</v>
       </c>
       <c r="P341" s="5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="Q341" s="10" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="V341" s="5" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="W341" s="5">
         <v>9999999</v>
@@ -30129,7 +30129,7 @@
         <v>461</v>
       </c>
       <c r="AB341" s="5" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="AG341" s="5">
         <v>1</v>
@@ -30155,10 +30155,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I342" s="5" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="K342" s="5">
         <v>-31</v>
@@ -30176,13 +30176,13 @@
         <v>600</v>
       </c>
       <c r="P342" s="5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="Q342" s="10" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="V342" s="5" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="W342" s="5">
         <v>9999999</v>
@@ -30200,7 +30200,7 @@
         <v>461</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="AG342" s="5">
         <v>1</v>
@@ -30226,10 +30226,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I343" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="K343" s="5">
         <v>-31</v>
@@ -30247,13 +30247,13 @@
         <v>600</v>
       </c>
       <c r="P343" s="5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="Q343" s="10" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="V343" s="5" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="W343" s="5">
         <v>9999999</v>
@@ -30271,7 +30271,7 @@
         <v>461</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="AG343" s="5">
         <v>1</v>
@@ -30297,10 +30297,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I344" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="K344" s="5">
         <v>-31</v>
@@ -30318,13 +30318,13 @@
         <v>4800</v>
       </c>
       <c r="P344" s="5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="Q344" s="10" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="V344" s="5" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="W344" s="5">
         <v>9999999</v>
@@ -30342,7 +30342,7 @@
         <v>461</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="AG344" s="5">
         <v>1</v>
@@ -30368,10 +30368,10 @@
         <v>1</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="K345" s="5">
         <v>-31</v>
@@ -30389,13 +30389,13 @@
         <v>4800</v>
       </c>
       <c r="P345" s="5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="Q345" s="10" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="V345" s="5" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="W345" s="5">
         <v>9999999</v>
@@ -30413,7 +30413,7 @@
         <v>461</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="AG345" s="5">
         <v>1</v>
@@ -30439,10 +30439,10 @@
         <v>1</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="K346" s="5">
         <v>-31</v>
@@ -30460,13 +30460,13 @@
         <v>4800</v>
       </c>
       <c r="P346" s="5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="Q346" s="10" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V346" s="5" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="W346" s="5">
         <v>9999999</v>
@@ -30484,7 +30484,7 @@
         <v>461</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="AG346" s="5">
         <v>1</v>
@@ -30510,10 +30510,10 @@
         <v>1</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="K347" s="5">
         <v>-31</v>
@@ -30531,13 +30531,13 @@
         <v>9800</v>
       </c>
       <c r="P347" s="5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="Q347" s="10" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V347" s="5" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="W347" s="5">
         <v>9999999</v>
@@ -30555,7 +30555,7 @@
         <v>461</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="AG347" s="5">
         <v>1</v>
@@ -30581,10 +30581,10 @@
         <v>1</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I348" s="5" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="K348" s="5">
         <v>-31</v>
@@ -30602,13 +30602,13 @@
         <v>9800</v>
       </c>
       <c r="P348" s="5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="Q348" s="10" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="V348" s="5" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="W348" s="5">
         <v>9999999</v>
@@ -30626,7 +30626,7 @@
         <v>461</v>
       </c>
       <c r="AB348" s="5" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="AG348" s="5">
         <v>1</v>
@@ -30652,10 +30652,10 @@
         <v>1</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I349" s="5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K349" s="5">
         <v>-31</v>
@@ -30673,13 +30673,13 @@
         <v>9800</v>
       </c>
       <c r="P349" s="5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="Q349" s="10" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V349" s="5" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="W349" s="5">
         <v>9999999</v>
@@ -30697,7 +30697,7 @@
         <v>461</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="AG349" s="5">
         <v>1</v>
@@ -30723,10 +30723,10 @@
         <v>1</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I350" s="5" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="K350" s="5">
         <v>-31</v>
@@ -30744,13 +30744,13 @@
         <v>19800</v>
       </c>
       <c r="P350" s="5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="Q350" s="10" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="V350" s="5" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="W350" s="5">
         <v>9999999</v>
@@ -30768,7 +30768,7 @@
         <v>461</v>
       </c>
       <c r="AB350" s="5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="AG350" s="5">
         <v>1</v>
@@ -30794,10 +30794,10 @@
         <v>1</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I351" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="K351" s="5">
         <v>-31</v>
@@ -30815,13 +30815,13 @@
         <v>19800</v>
       </c>
       <c r="P351" s="5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="Q351" s="10" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="V351" s="5" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="W351" s="5">
         <v>9999999</v>
@@ -30839,7 +30839,7 @@
         <v>461</v>
       </c>
       <c r="AB351" s="5" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="AG351" s="5">
         <v>1</v>
@@ -30865,10 +30865,10 @@
         <v>1</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="I352" s="5" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="K352" s="5">
         <v>-31</v>
@@ -30886,13 +30886,13 @@
         <v>19800</v>
       </c>
       <c r="P352" s="5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="Q352" s="10" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="V352" s="5" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="W352" s="5">
         <v>9999999</v>
@@ -30910,7 +30910,7 @@
         <v>461</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="AG352" s="5">
         <v>1</v>
@@ -30936,13 +30936,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H353" s="5" t="s">
         <v>1302</v>
       </c>
-      <c r="H353" s="5" t="s">
-        <v>1303</v>
-      </c>
       <c r="I353" s="5" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="K353" s="5">
         <v>-31</v>
@@ -30954,16 +30954,16 @@
         <v>0</v>
       </c>
       <c r="N353" s="5" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="O353" s="5">
         <v>600</v>
       </c>
       <c r="P353" s="5" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="Q353" s="10" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="V353" s="5" t="s">
         <v>565</v>
@@ -31004,13 +31004,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H354" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="H354" s="5" t="s">
-        <v>1305</v>
-      </c>
       <c r="I354" s="5" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="K354" s="5">
         <v>-31</v>
@@ -31028,10 +31028,10 @@
         <v>1200</v>
       </c>
       <c r="P354" s="5" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="Q354" s="10" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="V354" s="5" t="s">
         <v>565</v>
@@ -31072,13 +31072,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H355" s="5" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="K355" s="5">
         <v>-31</v>
@@ -31096,13 +31096,13 @@
         <v>1800</v>
       </c>
       <c r="P355" s="5" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Q355" s="10" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="V355" s="5" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="W355" s="5">
         <v>9999999</v>
@@ -31140,13 +31140,13 @@
         <v>0</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H356" s="5" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="K356" s="5">
         <v>-31</v>
@@ -31164,13 +31164,13 @@
         <v>4800</v>
       </c>
       <c r="P356" s="5" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="Q356" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V356" s="5" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="W356" s="5">
         <v>9999999</v>
@@ -31208,13 +31208,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -31232,13 +31232,13 @@
         <v>9800</v>
       </c>
       <c r="P357" s="5" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="Q357" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V357" s="5" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="W357" s="5">
         <v>9999999</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H358" s="5" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="K358" s="5">
         <v>-31</v>
@@ -31300,13 +31300,13 @@
         <v>19800</v>
       </c>
       <c r="P358" s="5" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="Q358" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V358" s="5" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="W358" s="5">
         <v>9999999</v>
@@ -31344,13 +31344,13 @@
         <v>0</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H359" s="5" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="K359" s="5">
         <v>-31</v>
@@ -31368,13 +31368,13 @@
         <v>9800</v>
       </c>
       <c r="P359" s="5" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="Q359" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V359" s="5" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="W359" s="5">
         <v>9999999</v>
@@ -31412,13 +31412,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H360" s="5" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="K360" s="5">
         <v>-31</v>
@@ -31436,13 +31436,13 @@
         <v>19800</v>
       </c>
       <c r="P360" s="5" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="Q360" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V360" s="5" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="W360" s="5">
         <v>9999999</v>
@@ -31480,13 +31480,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H361" s="5" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="K361" s="5">
         <v>-31</v>
@@ -31504,13 +31504,13 @@
         <v>49800</v>
       </c>
       <c r="P361" s="5" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="Q361" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V361" s="5" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="W361" s="5">
         <v>9999999</v>
@@ -31548,13 +31548,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H362" s="5" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="K362" s="5">
         <v>-31</v>
@@ -31572,13 +31572,13 @@
         <v>1800</v>
       </c>
       <c r="P362" s="5" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Q362" s="10" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="V362" s="5" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="W362" s="5">
         <v>9999999</v>
@@ -31593,10 +31593,10 @@
         <v>38</v>
       </c>
       <c r="AA362" s="5" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="AG362" s="5">
         <v>1</v>
@@ -31622,13 +31622,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H363" s="5" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="K363" s="5">
         <v>-31</v>
@@ -31646,13 +31646,13 @@
         <v>19800</v>
       </c>
       <c r="P363" s="5" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="Q363" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V363" s="5" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="W363" s="5">
         <v>9999999</v>
@@ -31667,10 +31667,10 @@
         <v>39</v>
       </c>
       <c r="AA363" s="5" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="AG363" s="5">
         <v>1</v>
@@ -31696,13 +31696,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H364" s="5" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="K364" s="5">
         <v>-31</v>
@@ -31720,13 +31720,13 @@
         <v>49800</v>
       </c>
       <c r="P364" s="5" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="Q364" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V364" s="5" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="W364" s="5">
         <v>9999999</v>
@@ -31741,10 +31741,10 @@
         <v>40</v>
       </c>
       <c r="AA364" s="5" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="AG364" s="5">
         <v>1</v>
@@ -31770,10 +31770,10 @@
         <v>1</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="K365" s="5">
         <v>-31</v>
@@ -31791,10 +31791,10 @@
         <v>131400</v>
       </c>
       <c r="P365" s="5" t="s">
+        <v>1343</v>
+      </c>
+      <c r="Q365" s="10" t="s">
         <v>1344</v>
-      </c>
-      <c r="Q365" s="10" t="s">
-        <v>1345</v>
       </c>
       <c r="V365" s="5" t="s">
         <v>598</v>
@@ -31835,10 +31835,10 @@
         <v>1</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I366" s="5" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="K366" s="5">
         <v>-31</v>
@@ -31856,10 +31856,10 @@
         <v>52000</v>
       </c>
       <c r="P366" s="5" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q366" s="10" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V366" s="5" t="s">
         <v>598</v>
@@ -31900,10 +31900,10 @@
         <v>1</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="I367" s="5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="K367" s="5">
         <v>-31</v>
@@ -31921,10 +31921,10 @@
         <v>25800</v>
       </c>
       <c r="P367" s="5" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q367" s="10" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V367" s="5" t="s">
         <v>598</v>
@@ -31965,10 +31965,10 @@
         <v>1</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="K368" s="5">
         <v>-31</v>
@@ -31986,10 +31986,10 @@
         <v>14700</v>
       </c>
       <c r="P368" s="5" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="Q368" s="10" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="V368" s="5" t="s">
         <v>598</v>
@@ -32030,10 +32030,10 @@
         <v>1</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="K369" s="5">
         <v>-31</v>
@@ -32051,10 +32051,10 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="Q369" s="10" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="V369" s="5" t="s">
         <v>598</v>
@@ -32095,10 +32095,10 @@
         <v>1</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="I370" s="5" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="K370" s="5">
         <v>-31</v>
@@ -32116,10 +32116,10 @@
         <v>1800</v>
       </c>
       <c r="P370" s="5" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="Q370" s="10" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="V370" s="5" t="s">
         <v>598</v>
@@ -32157,10 +32157,10 @@
         <v>1</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I371" s="5" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K371" s="5">
         <v>-31</v>
@@ -32178,10 +32178,10 @@
         <v>4800</v>
       </c>
       <c r="P371" s="5" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="Q371" s="10" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="V371" s="5" t="s">
         <v>565</v>
@@ -32219,10 +32219,10 @@
         <v>1</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="I372" s="5" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="K372" s="5">
         <v>-31</v>
@@ -32240,13 +32240,13 @@
         <v>9800</v>
       </c>
       <c r="P372" s="5" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="Q372" s="10" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="V372" s="5" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="W372" s="5">
         <v>9999999</v>
@@ -32281,10 +32281,10 @@
         <v>1</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="K373" s="5">
         <v>-31</v>
@@ -32302,10 +32302,10 @@
         <v>19800</v>
       </c>
       <c r="P373" s="5" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="Q373" s="10" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="V373" s="5" t="s">
         <v>567</v>
@@ -32343,13 +32343,13 @@
         <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H374" s="5" t="s">
         <v>1366</v>
       </c>
-      <c r="H374" s="5" t="s">
-        <v>1367</v>
-      </c>
       <c r="I374" s="5" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="K374" s="5">
         <v>-31</v>
@@ -32367,13 +32367,13 @@
         <v>300</v>
       </c>
       <c r="P374" s="5" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="Q374" s="10" t="s">
+        <v>1367</v>
+      </c>
+      <c r="V374" s="5" t="s">
         <v>1368</v>
-      </c>
-      <c r="V374" s="5" t="s">
-        <v>1369</v>
       </c>
       <c r="W374" s="5">
         <v>9999999</v>
@@ -32411,13 +32411,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="45" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H375" s="45" t="s">
         <v>1370</v>
       </c>
-      <c r="H375" s="45" t="s">
-        <v>1371</v>
-      </c>
       <c r="I375" s="45" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="K375" s="45">
         <v>-31</v>
@@ -32435,10 +32435,10 @@
         <v>300</v>
       </c>
       <c r="P375" s="45" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="Q375" s="50" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="V375" s="45" t="s">
         <v>598</v>
@@ -32496,7 +32496,7 @@
         <v>402</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>403</v>
@@ -32513,7 +32513,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -32530,7 +32530,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -32544,7 +32544,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -32558,7 +32558,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -32684,7 +32684,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -32712,7 +32712,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -32866,7 +32866,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -32881,7 +32881,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -32896,7 +32896,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -32911,7 +32911,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -32926,7 +32926,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -32941,7 +32941,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -32956,7 +32956,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -32971,7 +32971,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -32986,7 +32986,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -33001,7 +33001,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -33016,7 +33016,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -33031,7 +33031,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -33046,7 +33046,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -33060,7 +33060,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -33074,7 +33074,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -33088,7 +33088,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -33151,7 +33151,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>414</v>
@@ -33163,10 +33163,10 @@
         <v>416</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1021</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>22</v>
@@ -33223,7 +33223,7 @@
         <v>42</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -33267,10 +33267,10 @@
         <v>3</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="S2" s="34" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="T2" s="11" t="s">
         <v>50</v>
@@ -33335,10 +33335,10 @@
         <v>4</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="S3" s="34" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="T3" s="11" t="s">
         <v>53</v>
@@ -33403,10 +33403,10 @@
         <v>5</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="S4" s="34" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="T4" s="11" t="s">
         <v>55</v>
@@ -33471,10 +33471,10 @@
         <v>6</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="S5" s="34" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="T5" s="11" t="s">
         <v>57</v>
@@ -33539,10 +33539,10 @@
         <v>7</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="S6" s="34" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="T6" s="11" t="s">
         <v>59</v>
@@ -33607,10 +33607,10 @@
         <v>9</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="S7" s="34" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="T7" s="11" t="s">
         <v>61</v>
@@ -33669,10 +33669,10 @@
         <v>0</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="S8" s="34" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="T8" s="11" t="s">
         <v>50</v>
@@ -33731,7 +33731,7 @@
         <v>2</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="T9" s="11">
         <v>5000</v>
@@ -33749,7 +33749,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="34" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="10" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -33793,7 +33793,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="T10" s="11">
         <v>1000</v>
@@ -33811,7 +33811,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="34" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="11" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -33855,10 +33855,10 @@
         <v>0</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="S11" s="34" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="T11" s="23" t="s">
         <v>53</v>
@@ -33923,10 +33923,10 @@
         <v>9</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="S12" s="34" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="T12" s="11" t="s">
         <v>63</v>
@@ -33991,10 +33991,10 @@
         <v>10</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="S13" s="34" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="T13" s="11" t="s">
         <v>421</v>
@@ -34059,10 +34059,10 @@
         <v>11</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="S14" s="34" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="T14" s="11" t="s">
         <v>422</v>
@@ -34124,7 +34124,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="S15" s="34"/>
       <c r="T15" s="11">
@@ -34143,7 +34143,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="34" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -34193,10 +34193,10 @@
         <v>3</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="S16" s="34" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="T16" s="11" t="s">
         <v>72</v>
@@ -34255,10 +34255,10 @@
         <v>4</v>
       </c>
       <c r="Q17" s="34" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="S17" s="34" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="T17" s="11" t="s">
         <v>75</v>
@@ -34317,10 +34317,10 @@
         <v>5</v>
       </c>
       <c r="Q18" s="34" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="S18" s="34" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="T18" s="11" t="s">
         <v>78</v>
@@ -34379,10 +34379,10 @@
         <v>6</v>
       </c>
       <c r="Q19" s="34" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="S19" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="T19" s="11" t="s">
         <v>82</v>
@@ -34441,10 +34441,10 @@
         <v>7</v>
       </c>
       <c r="Q20" s="34" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="S20" s="34" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="T20" s="11" t="s">
         <v>86</v>
@@ -34503,10 +34503,10 @@
         <v>0</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="S21" s="36" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="T21" s="35" t="s">
         <v>89</v>
@@ -34565,7 +34565,7 @@
         <v>2</v>
       </c>
       <c r="Q22" s="34" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="S22" s="34"/>
       <c r="T22" s="11">
@@ -34625,7 +34625,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="34" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="S23" s="34"/>
       <c r="T23" s="11">
@@ -34688,7 +34688,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="34" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="S24" s="34"/>
       <c r="T24" s="11">
@@ -34707,7 +34707,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="34" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -34730,7 +34730,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="H25" s="11">
         <v>19800</v>
@@ -34757,10 +34757,10 @@
         <v>8</v>
       </c>
       <c r="Q25" s="34" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="S25" s="34" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="T25" s="34" t="s">
         <v>548</v>
@@ -35219,7 +35219,7 @@
         <v>90</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="L8" s="12">
         <v>57</v>
@@ -35237,7 +35237,7 @@
         <v>448</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>433</v>
@@ -35412,7 +35412,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>488</v>
@@ -35459,7 +35459,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>488</v>
@@ -35506,7 +35506,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>492</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3198" uniqueCount="1376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="1400">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6055,6 +6055,102 @@
   </si>
   <si>
     <t>1000000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运彩蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_xycd_ sunshine",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999999999,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_xycd_ sunshine",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,3,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2800000,200,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>6800000,400,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,8,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(V4-V10)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"280万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>(V4-V10)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,5,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2580万金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "xycd_028_xycd_v1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "xycd_028_xycd_v4" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6218,7 +6314,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6374,6 +6470,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6839,7 +6941,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="F3" sqref="F3:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7063,9 +7165,6 @@
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
       <c r="G3" s="2">
         <v>85</v>
       </c>
@@ -7146,9 +7245,6 @@
       <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="2">
-        <v>86</v>
-      </c>
       <c r="G4" s="2">
         <v>86</v>
       </c>
@@ -7229,9 +7325,6 @@
       <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="2">
-        <v>87</v>
-      </c>
       <c r="G5" s="2">
         <v>87</v>
       </c>
@@ -7312,9 +7405,6 @@
       <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="2">
-        <v>88</v>
-      </c>
       <c r="G6" s="2">
         <v>88</v>
       </c>
@@ -7395,9 +7485,6 @@
       <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="2">
-        <v>89</v>
-      </c>
       <c r="G7" s="2">
         <v>89</v>
       </c>
@@ -7478,9 +7565,6 @@
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="2">
-        <v>109</v>
-      </c>
       <c r="G8" s="2">
         <v>109</v>
       </c>
@@ -7561,9 +7645,6 @@
       <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="2">
-        <v>10044</v>
-      </c>
       <c r="G9" s="2">
         <v>10044</v>
       </c>
@@ -7645,9 +7726,6 @@
         <v>43</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
-        <v>10045</v>
-      </c>
       <c r="G10" s="11">
         <v>10045</v>
       </c>
@@ -7731,9 +7809,6 @@
       <c r="E11" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="11">
-        <v>90</v>
-      </c>
       <c r="G11" s="11">
         <v>90</v>
       </c>
@@ -8719,9 +8794,6 @@
         <v>43</v>
       </c>
       <c r="E24" s="23"/>
-      <c r="F24" s="11">
-        <v>10189</v>
-      </c>
       <c r="G24" s="11">
         <v>10189</v>
       </c>
@@ -8799,13 +8871,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM375"/>
+  <dimension ref="A1:AM385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q63" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="Q360" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q79" sqref="Q79"/>
+      <selection pane="bottomRight" activeCell="Q391" sqref="Q390:Q391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -32468,6 +32540,686 @@
         <v>1</v>
       </c>
     </row>
+    <row r="376" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="45">
+        <v>375</v>
+      </c>
+      <c r="B376" s="45">
+        <v>10292</v>
+      </c>
+      <c r="F376" s="45">
+        <v>1</v>
+      </c>
+      <c r="G376" s="45" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H376" s="45" t="s">
+        <v>1378</v>
+      </c>
+      <c r="I376" s="45" t="s">
+        <v>1379</v>
+      </c>
+      <c r="K376" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L376" s="45">
+        <v>0</v>
+      </c>
+      <c r="M376" s="45">
+        <v>0</v>
+      </c>
+      <c r="N376" s="45" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O376" s="45">
+        <v>0</v>
+      </c>
+      <c r="P376" s="45" t="s">
+        <v>1381</v>
+      </c>
+      <c r="Q376" s="50" t="s">
+        <v>801</v>
+      </c>
+      <c r="V376" s="45" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W376" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X376" s="45">
+        <v>1599523200</v>
+      </c>
+      <c r="Y376" s="45">
+        <v>1600099199</v>
+      </c>
+      <c r="Z376" s="45">
+        <v>42</v>
+      </c>
+      <c r="AG376" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH376" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK376" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL376" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="45">
+        <v>376</v>
+      </c>
+      <c r="B377" s="45">
+        <v>10293</v>
+      </c>
+      <c r="F377" s="45">
+        <v>1</v>
+      </c>
+      <c r="G377" s="45" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H377" s="45" t="s">
+        <v>1378</v>
+      </c>
+      <c r="I377" s="45" t="s">
+        <v>1383</v>
+      </c>
+      <c r="K377" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L377" s="45">
+        <v>0</v>
+      </c>
+      <c r="M377" s="45">
+        <v>0</v>
+      </c>
+      <c r="N377" s="45" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O377" s="45">
+        <v>300</v>
+      </c>
+      <c r="P377" s="45" t="s">
+        <v>1381</v>
+      </c>
+      <c r="Q377" s="50" t="s">
+        <v>802</v>
+      </c>
+      <c r="V377" s="45" t="s">
+        <v>1384</v>
+      </c>
+      <c r="W377" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X377" s="45">
+        <v>1599523200</v>
+      </c>
+      <c r="Y377" s="45">
+        <v>1600099199</v>
+      </c>
+      <c r="Z377" s="45">
+        <v>42</v>
+      </c>
+      <c r="AG377" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH377" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK377" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL377" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="45">
+        <v>377</v>
+      </c>
+      <c r="B378" s="45">
+        <v>10294</v>
+      </c>
+      <c r="F378" s="45">
+        <v>1</v>
+      </c>
+      <c r="G378" s="45" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H378" s="45" t="s">
+        <v>1385</v>
+      </c>
+      <c r="I378" s="45" t="s">
+        <v>1386</v>
+      </c>
+      <c r="K378" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L378" s="45">
+        <v>0</v>
+      </c>
+      <c r="M378" s="45">
+        <v>0</v>
+      </c>
+      <c r="N378" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="O378" s="45">
+        <v>600</v>
+      </c>
+      <c r="P378" s="45" t="s">
+        <v>1387</v>
+      </c>
+      <c r="Q378" s="50" t="s">
+        <v>803</v>
+      </c>
+      <c r="V378" s="45" t="s">
+        <v>1388</v>
+      </c>
+      <c r="W378" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X378" s="45">
+        <v>1599523200</v>
+      </c>
+      <c r="Y378" s="45">
+        <v>1600099199</v>
+      </c>
+      <c r="Z378" s="45">
+        <v>42</v>
+      </c>
+      <c r="AG378" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH378" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK378" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL378" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="45">
+        <v>378</v>
+      </c>
+      <c r="B379" s="45">
+        <v>10295</v>
+      </c>
+      <c r="F379" s="45">
+        <v>1</v>
+      </c>
+      <c r="G379" s="45" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H379" s="45" t="s">
+        <v>1385</v>
+      </c>
+      <c r="I379" s="45" t="s">
+        <v>958</v>
+      </c>
+      <c r="K379" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L379" s="45">
+        <v>0</v>
+      </c>
+      <c r="M379" s="45">
+        <v>0</v>
+      </c>
+      <c r="N379" s="45" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O379" s="45">
+        <v>1800</v>
+      </c>
+      <c r="P379" s="45" t="s">
+        <v>1381</v>
+      </c>
+      <c r="Q379" s="50" t="s">
+        <v>1389</v>
+      </c>
+      <c r="V379" s="45" t="s">
+        <v>1361</v>
+      </c>
+      <c r="W379" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X379" s="45">
+        <v>1599523200</v>
+      </c>
+      <c r="Y379" s="45">
+        <v>1600099199</v>
+      </c>
+      <c r="Z379" s="45">
+        <v>42</v>
+      </c>
+      <c r="AG379" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH379" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK379" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL379" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="45">
+        <v>379</v>
+      </c>
+      <c r="B380" s="45">
+        <v>10296</v>
+      </c>
+      <c r="F380" s="45">
+        <v>1</v>
+      </c>
+      <c r="G380" s="45" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H380" s="45" t="s">
+        <v>1385</v>
+      </c>
+      <c r="I380" s="45" t="s">
+        <v>959</v>
+      </c>
+      <c r="K380" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L380" s="45">
+        <v>0</v>
+      </c>
+      <c r="M380" s="45">
+        <v>0</v>
+      </c>
+      <c r="N380" s="45" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O380" s="45">
+        <v>4800</v>
+      </c>
+      <c r="P380" s="45" t="s">
+        <v>1387</v>
+      </c>
+      <c r="Q380" s="50" t="s">
+        <v>1390</v>
+      </c>
+      <c r="V380" s="45" t="s">
+        <v>1391</v>
+      </c>
+      <c r="W380" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X380" s="45">
+        <v>1599523200</v>
+      </c>
+      <c r="Y380" s="45">
+        <v>1600099199</v>
+      </c>
+      <c r="Z380" s="45">
+        <v>42</v>
+      </c>
+      <c r="AG380" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH380" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK380" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL380" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="45">
+        <v>380</v>
+      </c>
+      <c r="B381" s="45">
+        <v>10297</v>
+      </c>
+      <c r="F381" s="45">
+        <v>1</v>
+      </c>
+      <c r="G381" s="45" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H381" s="45" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I381" s="45" t="s">
+        <v>1393</v>
+      </c>
+      <c r="K381" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L381" s="45">
+        <v>0</v>
+      </c>
+      <c r="M381" s="45">
+        <v>0</v>
+      </c>
+      <c r="N381" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="O381" s="45">
+        <v>0</v>
+      </c>
+      <c r="P381" s="45" t="s">
+        <v>1387</v>
+      </c>
+      <c r="Q381" s="50" t="s">
+        <v>801</v>
+      </c>
+      <c r="V381" s="45" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W381" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X381" s="45">
+        <v>1599523200</v>
+      </c>
+      <c r="Y381" s="45">
+        <v>1600099199</v>
+      </c>
+      <c r="Z381" s="45">
+        <v>43</v>
+      </c>
+      <c r="AG381" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH381" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK381" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL381" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="45">
+        <v>381</v>
+      </c>
+      <c r="B382" s="45">
+        <v>10298</v>
+      </c>
+      <c r="F382" s="45">
+        <v>1</v>
+      </c>
+      <c r="G382" s="45" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H382" s="45" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I382" s="45" t="s">
+        <v>1394</v>
+      </c>
+      <c r="K382" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L382" s="45">
+        <v>0</v>
+      </c>
+      <c r="M382" s="45">
+        <v>0</v>
+      </c>
+      <c r="N382" s="45" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O382" s="45">
+        <v>1800</v>
+      </c>
+      <c r="P382" s="45" t="s">
+        <v>1381</v>
+      </c>
+      <c r="Q382" s="50" t="s">
+        <v>804</v>
+      </c>
+      <c r="V382" s="45" t="s">
+        <v>1384</v>
+      </c>
+      <c r="W382" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X382" s="45">
+        <v>1599523200</v>
+      </c>
+      <c r="Y382" s="45">
+        <v>1600099199</v>
+      </c>
+      <c r="Z382" s="45">
+        <v>43</v>
+      </c>
+      <c r="AG382" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH382" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK382" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL382" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="45">
+        <v>382</v>
+      </c>
+      <c r="B383" s="45">
+        <v>10299</v>
+      </c>
+      <c r="F383" s="45">
+        <v>1</v>
+      </c>
+      <c r="G383" s="45" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H383" s="45" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I383" s="45" t="s">
+        <v>1354</v>
+      </c>
+      <c r="K383" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L383" s="45">
+        <v>0</v>
+      </c>
+      <c r="M383" s="45">
+        <v>0</v>
+      </c>
+      <c r="N383" s="45" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O383" s="45">
+        <v>4800</v>
+      </c>
+      <c r="P383" s="45" t="s">
+        <v>1387</v>
+      </c>
+      <c r="Q383" s="50" t="s">
+        <v>805</v>
+      </c>
+      <c r="V383" s="45" t="s">
+        <v>565</v>
+      </c>
+      <c r="W383" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X383" s="45">
+        <v>1599523200</v>
+      </c>
+      <c r="Y383" s="45">
+        <v>1600099199</v>
+      </c>
+      <c r="Z383" s="45">
+        <v>43</v>
+      </c>
+      <c r="AG383" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH383" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK383" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL383" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="45">
+        <v>383</v>
+      </c>
+      <c r="B384" s="45">
+        <v>10300</v>
+      </c>
+      <c r="F384" s="45">
+        <v>1</v>
+      </c>
+      <c r="G384" s="45" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H384" s="45" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I384" s="45" t="s">
+        <v>1355</v>
+      </c>
+      <c r="K384" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L384" s="45">
+        <v>0</v>
+      </c>
+      <c r="M384" s="45">
+        <v>0</v>
+      </c>
+      <c r="N384" s="45" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O384" s="45">
+        <v>9800</v>
+      </c>
+      <c r="P384" s="45" t="s">
+        <v>1387</v>
+      </c>
+      <c r="Q384" s="50" t="s">
+        <v>808</v>
+      </c>
+      <c r="V384" s="45" t="s">
+        <v>1396</v>
+      </c>
+      <c r="W384" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X384" s="45">
+        <v>1599523200</v>
+      </c>
+      <c r="Y384" s="45">
+        <v>1600099199</v>
+      </c>
+      <c r="Z384" s="45">
+        <v>43</v>
+      </c>
+      <c r="AG384" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH384" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK384" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL384" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="45">
+        <v>384</v>
+      </c>
+      <c r="B385" s="45">
+        <v>10301</v>
+      </c>
+      <c r="F385" s="45">
+        <v>1</v>
+      </c>
+      <c r="G385" s="45" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H385" s="45" t="s">
+        <v>1392</v>
+      </c>
+      <c r="I385" s="45" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K385" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L385" s="45">
+        <v>0</v>
+      </c>
+      <c r="M385" s="45">
+        <v>0</v>
+      </c>
+      <c r="N385" s="45" t="s">
+        <v>1380</v>
+      </c>
+      <c r="O385" s="45">
+        <v>19800</v>
+      </c>
+      <c r="P385" s="45" t="s">
+        <v>1381</v>
+      </c>
+      <c r="Q385" s="50" t="s">
+        <v>809</v>
+      </c>
+      <c r="V385" s="45" t="s">
+        <v>1391</v>
+      </c>
+      <c r="W385" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X385" s="45">
+        <v>1599523200</v>
+      </c>
+      <c r="Y385" s="45">
+        <v>1600099199</v>
+      </c>
+      <c r="Z385" s="45">
+        <v>43</v>
+      </c>
+      <c r="AG385" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH385" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK385" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL385" s="45">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32478,10 +33230,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33097,6 +33849,34 @@
         <v>0</v>
       </c>
     </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="52">
+        <v>42</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C43" s="52">
+        <v>1</v>
+      </c>
+      <c r="D43" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="52">
+        <v>43</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C44" s="52">
+        <v>1</v>
+      </c>
+      <c r="D44" s="52">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33109,7 +33889,7 @@
   <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D3" sqref="D3:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33298,9 +34078,6 @@
       <c r="C3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="11">
-        <v>85</v>
-      </c>
       <c r="E3" s="11">
         <v>85</v>
       </c>
@@ -33366,9 +34143,6 @@
       <c r="C4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="11">
-        <v>86</v>
-      </c>
       <c r="E4" s="11">
         <v>86</v>
       </c>
@@ -33434,9 +34208,6 @@
       <c r="C5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="11">
-        <v>87</v>
-      </c>
       <c r="E5" s="11">
         <v>87</v>
       </c>
@@ -33502,9 +34273,6 @@
       <c r="C6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="11">
-        <v>88</v>
-      </c>
       <c r="E6" s="11">
         <v>88</v>
       </c>
@@ -33570,9 +34338,6 @@
       <c r="C7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="11">
-        <v>89</v>
-      </c>
       <c r="E7" s="11">
         <v>89</v>
       </c>
@@ -33886,9 +34651,6 @@
       <c r="C12" s="34" t="s">
         <v>540</v>
       </c>
-      <c r="D12" s="11">
-        <v>109</v>
-      </c>
       <c r="E12" s="11">
         <v>109</v>
       </c>
@@ -33954,9 +34716,6 @@
       <c r="C13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="11">
-        <v>10044</v>
-      </c>
       <c r="E13" s="11">
         <v>10044</v>
       </c>
@@ -34022,9 +34781,6 @@
       <c r="C14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="11">
-        <v>10045</v>
-      </c>
       <c r="E14" s="11">
         <v>10045</v>
       </c>
@@ -34156,9 +34912,6 @@
       <c r="C16" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="11">
-        <v>90</v>
-      </c>
       <c r="E16" s="11">
         <v>90</v>
       </c>
@@ -34719,9 +35472,6 @@
       </c>
       <c r="C25" s="11" t="s">
         <v>43</v>
-      </c>
-      <c r="D25" s="11">
-        <v>10189</v>
       </c>
       <c r="E25" s="11">
         <v>10189</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -3779,9 +3779,6 @@
     <t>随机金币活动</t>
   </si>
   <si>
-    <t>"60万金币","10万-120万随机金币","话费碎片*20"</t>
-  </si>
-  <si>
     <t>"120万金币","20万-240万随机金币","记牌器3天"</t>
   </si>
   <si>
@@ -6151,6 +6148,10 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "xycd_028_xycd_v4" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100万金币","10万-120万随机金币","话费碎片*20"</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6982,7 +6983,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -6994,7 +6995,7 @@
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>18</v>
@@ -7098,7 +7099,7 @@
         <v>45</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>46</v>
@@ -7178,7 +7179,7 @@
         <v>45</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>46</v>
@@ -7258,7 +7259,7 @@
         <v>45</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>46</v>
@@ -7338,7 +7339,7 @@
         <v>45</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>46</v>
@@ -7418,7 +7419,7 @@
         <v>45</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>46</v>
@@ -7498,7 +7499,7 @@
         <v>45</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>46</v>
@@ -7578,7 +7579,7 @@
         <v>45</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>46</v>
@@ -7658,7 +7659,7 @@
         <v>45</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>46</v>
@@ -7739,7 +7740,7 @@
         <v>45</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>46</v>
@@ -7822,7 +7823,7 @@
         <v>45</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>46</v>
@@ -7902,7 +7903,7 @@
         <v>45</v>
       </c>
       <c r="K12" s="34" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="L12" s="11" t="s">
         <v>46</v>
@@ -7982,7 +7983,7 @@
         <v>45</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>46</v>
@@ -8062,7 +8063,7 @@
         <v>45</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L14" s="11" t="s">
         <v>46</v>
@@ -8142,7 +8143,7 @@
         <v>45</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="L15" s="11" t="s">
         <v>46</v>
@@ -8222,7 +8223,7 @@
         <v>45</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="L16" s="11" t="s">
         <v>46</v>
@@ -8324,10 +8325,10 @@
         <v>1</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="V17" s="11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="X17" s="11" t="s">
         <v>49</v>
@@ -8396,10 +8397,10 @@
         <v>2</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="X18" s="11" t="s">
         <v>49</v>
@@ -8468,10 +8469,10 @@
         <v>3</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="V19" s="11" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="X19" s="11" t="s">
         <v>49</v>
@@ -8540,10 +8541,10 @@
         <v>4</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V20" s="11" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="X20" s="11" t="s">
         <v>49</v>
@@ -8612,10 +8613,10 @@
         <v>5</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="V21" s="11" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="X21" s="11" t="s">
         <v>49</v>
@@ -8684,10 +8685,10 @@
         <v>6</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="V22" s="11" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="X22" s="11" t="s">
         <v>49</v>
@@ -8756,10 +8757,10 @@
         <v>7</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="X23" s="11" t="s">
         <v>49</v>
@@ -8807,7 +8808,7 @@
         <v>45</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="L24" s="11" t="s">
         <v>46</v>
@@ -8873,11 +8874,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM385"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q360" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q391" sqref="Q390:Q391"/>
+      <selection pane="bottomRight" activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -8942,7 +8943,7 @@
         <v>507</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>95</v>
@@ -9229,7 +9230,7 @@
         <v>120</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="5">
@@ -9272,7 +9273,7 @@
         <v>122</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="AG5" s="5">
         <v>1</v>
@@ -10095,7 +10096,7 @@
         <v>600</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>711</v>
@@ -10130,7 +10131,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="5" t="s">
@@ -11952,7 +11953,7 @@
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="5" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="K54" s="5">
         <v>-13</v>
@@ -11973,7 +11974,7 @@
         <v>220</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="V54" s="5" t="s">
         <v>552</v>
@@ -12059,7 +12060,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="37" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H56" s="37"/>
       <c r="I56" s="22" t="s">
@@ -12608,10 +12609,10 @@
         <v>1</v>
       </c>
       <c r="G66" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I66" s="5" t="s">
         <v>1070</v>
-      </c>
-      <c r="I66" s="5" t="s">
-        <v>1071</v>
       </c>
       <c r="K66" s="5">
         <v>-4</v>
@@ -13250,7 +13251,7 @@
         <v>248</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -13268,10 +13269,10 @@
         <v>100</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="Q77" s="40" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>551</v>
@@ -13306,7 +13307,7 @@
         <v>249</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>885</v>
+        <v>1399</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -13327,7 +13328,7 @@
         <v>611</v>
       </c>
       <c r="Q78" s="40" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="V78" s="19" t="s">
         <v>551</v>
@@ -13368,10 +13369,10 @@
         <v>1</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="K79" s="5">
         <v>-20</v>
@@ -13433,10 +13434,10 @@
         <v>1</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="K80" s="5">
         <v>-20</v>
@@ -13504,7 +13505,7 @@
         <v>252</v>
       </c>
       <c r="I81" s="19" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="K81" s="19">
         <v>-20</v>
@@ -13566,7 +13567,7 @@
         <v>253</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="K82" s="5">
         <v>-20</v>
@@ -13622,7 +13623,7 @@
         <v>255</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K83" s="5">
         <v>-21</v>
@@ -13640,7 +13641,7 @@
         <v>4800</v>
       </c>
       <c r="P83" s="5" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="Q83" s="10" t="s">
         <v>744</v>
@@ -13678,7 +13679,7 @@
         <v>256</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K84" s="5">
         <v>-22</v>
@@ -13696,7 +13697,7 @@
         <v>4800</v>
       </c>
       <c r="P84" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="Q84" s="10" t="s">
         <v>745</v>
@@ -13731,10 +13732,10 @@
         <v>0</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K85" s="5">
         <v>-23</v>
@@ -13752,10 +13753,10 @@
         <v>4800</v>
       </c>
       <c r="P85" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="Q85" s="10" t="s">
         <v>1206</v>
-      </c>
-      <c r="Q85" s="10" t="s">
-        <v>1207</v>
       </c>
       <c r="V85" s="5" t="s">
         <v>553</v>
@@ -13787,10 +13788,10 @@
         <v>0</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="K86" s="5">
         <v>-24</v>
@@ -13838,10 +13839,10 @@
         <v>0</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="K87" s="5">
         <v>-25</v>
@@ -13859,10 +13860,10 @@
         <v>9600</v>
       </c>
       <c r="P87" s="5" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="Q87" s="10" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="V87" s="5" t="s">
         <v>553</v>
@@ -13897,7 +13898,7 @@
         <v>257</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="K88" s="5">
         <v>-22</v>
@@ -13953,7 +13954,7 @@
         <v>259</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="K89" s="5">
         <v>-22</v>
@@ -14009,7 +14010,7 @@
         <v>261</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="K90" s="5">
         <v>-22</v>
@@ -14065,7 +14066,7 @@
         <v>262</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="K91" s="5">
         <v>-22</v>
@@ -14121,7 +14122,7 @@
         <v>263</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="K92" s="5">
         <v>-22</v>
@@ -14139,7 +14140,7 @@
         <v>4800</v>
       </c>
       <c r="P92" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="Q92" s="10" t="s">
         <v>749</v>
@@ -14177,7 +14178,7 @@
         <v>264</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K93" s="5">
         <v>-22</v>
@@ -14286,7 +14287,7 @@
         <v>267</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K95" s="5">
         <v>-23</v>
@@ -14345,7 +14346,7 @@
         <v>268</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="K96" s="5">
         <v>-23</v>
@@ -14401,7 +14402,7 @@
         <v>269</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="K97" s="5">
         <v>-24</v>
@@ -14419,13 +14420,13 @@
         <v>4800</v>
       </c>
       <c r="P97" s="5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="Q97" s="10" t="s">
         <v>270</v>
       </c>
       <c r="S97" s="5" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="T97" s="5" t="s">
         <v>271</v>
@@ -14463,7 +14464,7 @@
         <v>272</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="K98" s="5">
         <v>-24</v>
@@ -14481,13 +14482,13 @@
         <v>9800</v>
       </c>
       <c r="P98" s="5" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="Q98" s="10" t="s">
         <v>273</v>
       </c>
       <c r="S98" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="T98" s="5" t="s">
         <v>274</v>
@@ -14525,7 +14526,7 @@
         <v>275</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K99" s="5">
         <v>-24</v>
@@ -14543,13 +14544,13 @@
         <v>19800</v>
       </c>
       <c r="P99" s="5" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="Q99" s="10" t="s">
         <v>276</v>
       </c>
       <c r="S99" s="5" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="T99" s="5" t="s">
         <v>277</v>
@@ -14587,7 +14588,7 @@
         <v>591</v>
       </c>
       <c r="I100" s="19" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="K100" s="19">
         <v>-25</v>
@@ -14650,7 +14651,7 @@
         <v>542</v>
       </c>
       <c r="I101" s="19" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="K101" s="19">
         <v>-25</v>
@@ -14713,7 +14714,7 @@
         <v>279</v>
       </c>
       <c r="I102" s="19" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="K102" s="19">
         <v>-25</v>
@@ -14776,7 +14777,7 @@
         <v>591</v>
       </c>
       <c r="I103" s="19" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="K103" s="19">
         <v>-25</v>
@@ -14839,7 +14840,7 @@
         <v>543</v>
       </c>
       <c r="I104" s="19" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K104" s="19">
         <v>-25</v>
@@ -14902,7 +14903,7 @@
         <v>78</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K105" s="19">
         <v>-25</v>
@@ -14965,7 +14966,7 @@
         <v>590</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="K106" s="19">
         <v>-25</v>
@@ -15028,7 +15029,7 @@
         <v>279</v>
       </c>
       <c r="I107" s="19" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="K107" s="19">
         <v>-25</v>
@@ -15091,7 +15092,7 @@
         <v>82</v>
       </c>
       <c r="I108" s="19" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="K108" s="19">
         <v>-25</v>
@@ -15211,7 +15212,7 @@
         <v>285</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="K110" s="5">
         <v>-26</v>
@@ -15229,13 +15230,13 @@
         <v>3800</v>
       </c>
       <c r="P110" s="5" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="Q110" s="10" t="s">
         <v>286</v>
       </c>
       <c r="S110" s="5" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="T110" s="5" t="s">
         <v>287</v>
@@ -15273,7 +15274,7 @@
         <v>288</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="K111" s="5">
         <v>-26</v>
@@ -15291,13 +15292,13 @@
         <v>8800</v>
       </c>
       <c r="P111" s="5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="Q111" s="10" t="s">
         <v>289</v>
       </c>
       <c r="S111" s="5" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="T111" s="5" t="s">
         <v>290</v>
@@ -15335,7 +15336,7 @@
         <v>291</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="K112" s="5">
         <v>-26</v>
@@ -15353,13 +15354,13 @@
         <v>18800</v>
       </c>
       <c r="P112" s="5" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="Q112" s="10" t="s">
         <v>292</v>
       </c>
       <c r="S112" s="5" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="T112" s="5" t="s">
         <v>293</v>
@@ -15397,7 +15398,7 @@
         <v>294</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="K113" s="5">
         <v>-26</v>
@@ -15453,7 +15454,7 @@
         <v>297</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="K114" s="5">
         <v>-26</v>
@@ -15509,7 +15510,7 @@
         <v>299</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="K115" s="5">
         <v>-26</v>
@@ -15527,7 +15528,7 @@
         <v>9800</v>
       </c>
       <c r="P115" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="Q115" s="10" t="s">
         <v>300</v>
@@ -15565,7 +15566,7 @@
         <v>301</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="K116" s="5">
         <v>-27</v>
@@ -15583,13 +15584,13 @@
         <v>4800</v>
       </c>
       <c r="P116" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="Q116" s="10" t="s">
         <v>302</v>
       </c>
       <c r="S116" s="5" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="T116" s="5" t="s">
         <v>303</v>
@@ -15627,7 +15628,7 @@
         <v>304</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="K117" s="5">
         <v>-27</v>
@@ -15645,13 +15646,13 @@
         <v>9800</v>
       </c>
       <c r="P117" s="5" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="Q117" s="10" t="s">
         <v>273</v>
       </c>
       <c r="S117" s="5" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="T117" s="5" t="s">
         <v>274</v>
@@ -15689,7 +15690,7 @@
         <v>305</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="K118" s="5">
         <v>-28</v>
@@ -15745,7 +15746,7 @@
         <v>307</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="K119" s="5">
         <v>-28</v>
@@ -15801,7 +15802,7 @@
         <v>310</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="K120" s="5">
         <v>-28</v>
@@ -15857,7 +15858,7 @@
         <v>313</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K121" s="5">
         <v>-28</v>
@@ -15916,7 +15917,7 @@
         <v>317</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="K122" s="5">
         <v>-28</v>
@@ -15975,7 +15976,7 @@
         <v>320</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="K123" s="5">
         <v>-28</v>
@@ -16034,7 +16035,7 @@
         <v>297</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="K124" s="5">
         <v>-28</v>
@@ -16090,7 +16091,7 @@
         <v>323</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="K125" s="5">
         <v>-28</v>
@@ -16146,7 +16147,7 @@
         <v>325</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K126" s="5">
         <v>-28</v>
@@ -16202,7 +16203,7 @@
         <v>327</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="K127" s="5">
         <v>-29</v>
@@ -16376,7 +16377,7 @@
         <v>333</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="K130" s="5">
         <v>-28</v>
@@ -16438,7 +16439,7 @@
         <v>251</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K131" s="5">
         <v>-28</v>
@@ -16500,7 +16501,7 @@
         <v>337</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="K132" s="5">
         <v>-28</v>
@@ -16562,7 +16563,7 @@
         <v>339</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="K133" s="5">
         <v>-28</v>
@@ -16624,7 +16625,7 @@
         <v>340</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="K134" s="5">
         <v>-28</v>
@@ -16686,7 +16687,7 @@
         <v>342</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="K135" s="5">
         <v>-28</v>
@@ -17108,7 +17109,7 @@
         <v>343</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="K142" s="5">
         <v>-28</v>
@@ -17170,7 +17171,7 @@
         <v>344</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K143" s="5">
         <v>-28</v>
@@ -17232,7 +17233,7 @@
         <v>345</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="K144" s="5">
         <v>-28</v>
@@ -17298,7 +17299,7 @@
       </c>
       <c r="H145" s="22"/>
       <c r="I145" s="5" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="K145" s="5">
         <v>-28</v>
@@ -17364,7 +17365,7 @@
       </c>
       <c r="H146" s="22"/>
       <c r="I146" s="5" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="K146" s="5">
         <v>-28</v>
@@ -17430,7 +17431,7 @@
       </c>
       <c r="H147" s="22"/>
       <c r="I147" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="K147" s="5">
         <v>-28</v>
@@ -17496,7 +17497,7 @@
       </c>
       <c r="H148" s="22"/>
       <c r="I148" s="5" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="K148" s="5">
         <v>-28</v>
@@ -17562,7 +17563,7 @@
       </c>
       <c r="H149" s="22"/>
       <c r="I149" s="5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="K149" s="5">
         <v>-28</v>
@@ -17624,7 +17625,7 @@
         <v>353</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="K150" s="5">
         <v>-28</v>
@@ -17686,7 +17687,7 @@
         <v>354</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K151" s="5">
         <v>-28</v>
@@ -17748,7 +17749,7 @@
         <v>355</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="K152" s="5">
         <v>-28</v>
@@ -17807,10 +17808,10 @@
         <v>1</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="K153" s="5">
         <v>-28</v>
@@ -17872,7 +17873,7 @@
         <v>356</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="K154" s="5">
         <v>-28</v>
@@ -17934,7 +17935,7 @@
         <v>357</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="K155" s="5">
         <v>-28</v>
@@ -17996,7 +17997,7 @@
         <v>358</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="K156" s="5">
         <v>-28</v>
@@ -18058,7 +18059,7 @@
         <v>359</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="K157" s="5">
         <v>-28</v>
@@ -18120,7 +18121,7 @@
         <v>360</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K158" s="5">
         <v>-28</v>
@@ -18182,7 +18183,7 @@
         <v>362</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="K159" s="5">
         <v>-28</v>
@@ -18244,7 +18245,7 @@
         <v>364</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K160" s="5">
         <v>-28</v>
@@ -18306,7 +18307,7 @@
         <v>366</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K161" s="5">
         <v>-28</v>
@@ -18368,7 +18369,7 @@
         <v>367</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="K162" s="5">
         <v>-28</v>
@@ -18430,7 +18431,7 @@
         <v>368</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K163" s="5">
         <v>-28</v>
@@ -18489,10 +18490,10 @@
         <v>1</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="J164" s="5">
         <v>21032</v>
@@ -18557,7 +18558,7 @@
         <v>369</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="K165" s="5">
         <v>-28</v>
@@ -18619,7 +18620,7 @@
         <v>370</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="K166" s="5">
         <v>-28</v>
@@ -18681,7 +18682,7 @@
         <v>371</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K167" s="5">
         <v>-28</v>
@@ -18743,7 +18744,7 @@
         <v>372</v>
       </c>
       <c r="I168" s="19" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="K168" s="19">
         <v>-28</v>
@@ -18761,10 +18762,10 @@
         <v>600</v>
       </c>
       <c r="P168" s="19" t="s">
+        <v>1175</v>
+      </c>
+      <c r="Q168" s="40" t="s">
         <v>1176</v>
-      </c>
-      <c r="Q168" s="40" t="s">
-        <v>1177</v>
       </c>
       <c r="V168" s="19" t="s">
         <v>551</v>
@@ -18808,7 +18809,7 @@
         <v>483</v>
       </c>
       <c r="I169" s="19" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="K169" s="19">
         <v>-28</v>
@@ -18826,10 +18827,10 @@
         <v>3000</v>
       </c>
       <c r="P169" s="19" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="Q169" s="40" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="V169" s="19" t="s">
         <v>631</v>
@@ -18870,7 +18871,7 @@
         <v>373</v>
       </c>
       <c r="I170" s="19" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="K170" s="19">
         <v>-28</v>
@@ -18888,10 +18889,10 @@
         <v>19800</v>
       </c>
       <c r="P170" s="19" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="Q170" s="40" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="V170" s="19" t="s">
         <v>631</v>
@@ -18929,13 +18930,13 @@
         <v>1</v>
       </c>
       <c r="G171" s="19" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H171" s="19" t="s">
         <v>1312</v>
       </c>
-      <c r="H171" s="19" t="s">
-        <v>1313</v>
-      </c>
       <c r="I171" s="19" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="K171" s="19">
         <v>-28</v>
@@ -18953,7 +18954,7 @@
         <v>100</v>
       </c>
       <c r="P171" s="19" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q171" s="40" t="s">
         <v>780</v>
@@ -18997,13 +18998,13 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
+        <v>1313</v>
+      </c>
+      <c r="H172" s="19" t="s">
         <v>1314</v>
       </c>
-      <c r="H172" s="19" t="s">
-        <v>1315</v>
-      </c>
       <c r="I172" s="19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="K172" s="19">
         <v>-28</v>
@@ -19021,7 +19022,7 @@
         <v>300</v>
       </c>
       <c r="P172" s="19" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="Q172" s="40" t="s">
         <v>781</v>
@@ -19065,13 +19066,13 @@
         <v>1</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="H173" s="19" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I173" s="19" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="K173" s="19">
         <v>-28</v>
@@ -19089,7 +19090,7 @@
         <v>600</v>
       </c>
       <c r="P173" s="19" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q173" s="40" t="s">
         <v>782</v>
@@ -19133,13 +19134,13 @@
         <v>1</v>
       </c>
       <c r="G174" s="19" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H174" s="19" t="s">
         <v>1317</v>
       </c>
-      <c r="H174" s="19" t="s">
-        <v>1318</v>
-      </c>
       <c r="I174" s="19" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="K174" s="19">
         <v>-28</v>
@@ -19157,7 +19158,7 @@
         <v>600</v>
       </c>
       <c r="P174" s="19" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="Q174" s="40" t="s">
         <v>783</v>
@@ -19201,13 +19202,13 @@
         <v>1</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H175" s="19" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I175" s="19" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="K175" s="19">
         <v>-28</v>
@@ -19225,10 +19226,10 @@
         <v>1000</v>
       </c>
       <c r="P175" s="19" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="Q175" s="40" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="V175" s="19" t="s">
         <v>554</v>
@@ -19269,13 +19270,13 @@
         <v>1</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H176" s="19" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I176" s="19" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="K176" s="19">
         <v>-28</v>
@@ -19293,7 +19294,7 @@
         <v>1800</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="Q176" s="40" t="s">
         <v>784</v>
@@ -19337,13 +19338,13 @@
         <v>1</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H177" s="19" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I177" s="19" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="K177" s="19">
         <v>-28</v>
@@ -19361,7 +19362,7 @@
         <v>1800</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="Q177" s="40" t="s">
         <v>785</v>
@@ -19405,13 +19406,13 @@
         <v>1</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H178" s="19" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I178" s="19" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="K178" s="19">
         <v>-28</v>
@@ -19429,7 +19430,7 @@
         <v>4800</v>
       </c>
       <c r="P178" s="19" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="Q178" s="40" t="s">
         <v>786</v>
@@ -19473,13 +19474,13 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H179" s="19" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I179" s="19" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="K179" s="19">
         <v>-28</v>
@@ -19497,7 +19498,7 @@
         <v>9800</v>
       </c>
       <c r="P179" s="19" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="Q179" s="40" t="s">
         <v>787</v>
@@ -19541,13 +19542,13 @@
         <v>1</v>
       </c>
       <c r="G180" s="19" t="s">
+        <v>1323</v>
+      </c>
+      <c r="H180" s="19" t="s">
         <v>1324</v>
       </c>
-      <c r="H180" s="19" t="s">
-        <v>1325</v>
-      </c>
       <c r="I180" s="19" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="K180" s="19">
         <v>-28</v>
@@ -19565,7 +19566,7 @@
         <v>4800</v>
       </c>
       <c r="P180" s="19" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="Q180" s="40" t="s">
         <v>786</v>
@@ -19609,13 +19610,13 @@
         <v>1</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H181" s="19" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I181" s="19" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="K181" s="19">
         <v>-28</v>
@@ -19633,7 +19634,7 @@
         <v>9800</v>
       </c>
       <c r="P181" s="19" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="Q181" s="40" t="s">
         <v>788</v>
@@ -19677,13 +19678,13 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H182" s="19" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I182" s="19" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K182" s="19">
         <v>-28</v>
@@ -19701,7 +19702,7 @@
         <v>19800</v>
       </c>
       <c r="P182" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="Q182" s="40" t="s">
         <v>789</v>
@@ -19745,13 +19746,13 @@
         <v>1</v>
       </c>
       <c r="G183" s="19" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H183" s="19" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I183" s="19" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K183" s="19">
         <v>-28</v>
@@ -19769,7 +19770,7 @@
         <v>9800</v>
       </c>
       <c r="P183" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="Q183" s="40" t="s">
         <v>787</v>
@@ -19813,13 +19814,13 @@
         <v>1</v>
       </c>
       <c r="G184" s="19" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="H184" s="19" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="I184" s="19" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K184" s="19">
         <v>-28</v>
@@ -19837,7 +19838,7 @@
         <v>19800</v>
       </c>
       <c r="P184" s="19" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="Q184" s="40" t="s">
         <v>790</v>
@@ -19881,13 +19882,13 @@
         <v>1</v>
       </c>
       <c r="G185" s="19" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H185" s="19" t="s">
         <v>1330</v>
       </c>
-      <c r="H185" s="19" t="s">
-        <v>1331</v>
-      </c>
       <c r="I185" s="19" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="K185" s="19">
         <v>-28</v>
@@ -19905,7 +19906,7 @@
         <v>49800</v>
       </c>
       <c r="P185" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="Q185" s="40" t="s">
         <v>791</v>
@@ -19952,7 +19953,7 @@
         <v>327</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K186" s="5">
         <v>-29</v>
@@ -20014,7 +20015,7 @@
         <v>374</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K187" s="5">
         <v>-28</v>
@@ -20079,7 +20080,7 @@
         <v>376</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K188" s="5">
         <v>-28</v>
@@ -20144,7 +20145,7 @@
         <v>378</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="K189" s="5">
         <v>-28</v>
@@ -20209,7 +20210,7 @@
         <v>380</v>
       </c>
       <c r="I190" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="K190" s="5">
         <v>-28</v>
@@ -20274,7 +20275,7 @@
         <v>382</v>
       </c>
       <c r="I191" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K191" s="5">
         <v>-28</v>
@@ -20339,7 +20340,7 @@
         <v>384</v>
       </c>
       <c r="I192" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="K192" s="5">
         <v>-28</v>
@@ -20404,7 +20405,7 @@
         <v>386</v>
       </c>
       <c r="I193" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="K193" s="5">
         <v>-28</v>
@@ -20469,7 +20470,7 @@
         <v>388</v>
       </c>
       <c r="I194" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="K194" s="5">
         <v>-28</v>
@@ -20534,7 +20535,7 @@
         <v>390</v>
       </c>
       <c r="I195" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K195" s="5">
         <v>-28</v>
@@ -20599,7 +20600,7 @@
         <v>392</v>
       </c>
       <c r="I196" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K196" s="5">
         <v>-28</v>
@@ -20664,7 +20665,7 @@
         <v>394</v>
       </c>
       <c r="I197" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K197" s="5">
         <v>-28</v>
@@ -20729,7 +20730,7 @@
         <v>396</v>
       </c>
       <c r="I198" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K198" s="5">
         <v>-28</v>
@@ -20794,7 +20795,7 @@
         <v>398</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K199" s="5">
         <v>-28</v>
@@ -20859,7 +20860,7 @@
         <v>399</v>
       </c>
       <c r="I200" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K200" s="5">
         <v>-28</v>
@@ -20924,7 +20925,7 @@
         <v>400</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K201" s="5">
         <v>-28</v>
@@ -20989,7 +20990,7 @@
         <v>374</v>
       </c>
       <c r="I202" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K202" s="5">
         <v>-28</v>
@@ -21054,7 +21055,7 @@
         <v>376</v>
       </c>
       <c r="I203" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K203" s="5">
         <v>-28</v>
@@ -21119,7 +21120,7 @@
         <v>378</v>
       </c>
       <c r="I204" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="K204" s="5">
         <v>-28</v>
@@ -21184,7 +21185,7 @@
         <v>380</v>
       </c>
       <c r="I205" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="K205" s="5">
         <v>-28</v>
@@ -21249,7 +21250,7 @@
         <v>382</v>
       </c>
       <c r="I206" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K206" s="5">
         <v>-28</v>
@@ -21314,7 +21315,7 @@
         <v>384</v>
       </c>
       <c r="I207" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="K207" s="5">
         <v>-28</v>
@@ -21379,7 +21380,7 @@
         <v>386</v>
       </c>
       <c r="I208" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="K208" s="5">
         <v>-28</v>
@@ -21444,7 +21445,7 @@
         <v>388</v>
       </c>
       <c r="I209" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="K209" s="5">
         <v>-28</v>
@@ -21509,7 +21510,7 @@
         <v>390</v>
       </c>
       <c r="I210" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K210" s="5">
         <v>-28</v>
@@ -21574,7 +21575,7 @@
         <v>392</v>
       </c>
       <c r="I211" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K211" s="5">
         <v>-28</v>
@@ -21639,7 +21640,7 @@
         <v>394</v>
       </c>
       <c r="I212" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K212" s="5">
         <v>-28</v>
@@ -21704,7 +21705,7 @@
         <v>396</v>
       </c>
       <c r="I213" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K213" s="5">
         <v>-28</v>
@@ -21769,7 +21770,7 @@
         <v>398</v>
       </c>
       <c r="I214" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K214" s="5">
         <v>-28</v>
@@ -21834,7 +21835,7 @@
         <v>399</v>
       </c>
       <c r="I215" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K215" s="5">
         <v>-28</v>
@@ -21899,7 +21900,7 @@
         <v>400</v>
       </c>
       <c r="I216" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K216" s="5">
         <v>-28</v>
@@ -21964,7 +21965,7 @@
         <v>374</v>
       </c>
       <c r="I217" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K217" s="5">
         <v>-28</v>
@@ -22029,7 +22030,7 @@
         <v>376</v>
       </c>
       <c r="I218" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K218" s="5">
         <v>-28</v>
@@ -22094,7 +22095,7 @@
         <v>378</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="K219" s="5">
         <v>-28</v>
@@ -22159,7 +22160,7 @@
         <v>380</v>
       </c>
       <c r="I220" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="K220" s="5">
         <v>-28</v>
@@ -22224,7 +22225,7 @@
         <v>382</v>
       </c>
       <c r="I221" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K221" s="5">
         <v>-28</v>
@@ -22289,7 +22290,7 @@
         <v>384</v>
       </c>
       <c r="I222" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="K222" s="5">
         <v>-28</v>
@@ -22354,7 +22355,7 @@
         <v>386</v>
       </c>
       <c r="I223" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="K223" s="5">
         <v>-28</v>
@@ -22419,7 +22420,7 @@
         <v>388</v>
       </c>
       <c r="I224" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="K224" s="5">
         <v>-28</v>
@@ -22484,7 +22485,7 @@
         <v>390</v>
       </c>
       <c r="I225" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K225" s="5">
         <v>-28</v>
@@ -22549,7 +22550,7 @@
         <v>392</v>
       </c>
       <c r="I226" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K226" s="5">
         <v>-28</v>
@@ -22614,7 +22615,7 @@
         <v>394</v>
       </c>
       <c r="I227" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K227" s="5">
         <v>-28</v>
@@ -22679,7 +22680,7 @@
         <v>396</v>
       </c>
       <c r="I228" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K228" s="5">
         <v>-28</v>
@@ -22744,7 +22745,7 @@
         <v>398</v>
       </c>
       <c r="I229" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K229" s="5">
         <v>-28</v>
@@ -22809,7 +22810,7 @@
         <v>399</v>
       </c>
       <c r="I230" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K230" s="5">
         <v>-28</v>
@@ -22874,7 +22875,7 @@
         <v>400</v>
       </c>
       <c r="I231" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K231" s="5">
         <v>-28</v>
@@ -22939,7 +22940,7 @@
         <v>374</v>
       </c>
       <c r="I232" s="5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="K232" s="5">
         <v>-28</v>
@@ -23004,7 +23005,7 @@
         <v>376</v>
       </c>
       <c r="I233" s="5" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K233" s="5">
         <v>-28</v>
@@ -23069,7 +23070,7 @@
         <v>378</v>
       </c>
       <c r="I234" s="5" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="K234" s="5">
         <v>-28</v>
@@ -23134,7 +23135,7 @@
         <v>380</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="K235" s="5">
         <v>-28</v>
@@ -23199,7 +23200,7 @@
         <v>382</v>
       </c>
       <c r="I236" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="K236" s="5">
         <v>-28</v>
@@ -23264,7 +23265,7 @@
         <v>384</v>
       </c>
       <c r="I237" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="K237" s="5">
         <v>-28</v>
@@ -23329,7 +23330,7 @@
         <v>386</v>
       </c>
       <c r="I238" s="5" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="K238" s="5">
         <v>-28</v>
@@ -23394,7 +23395,7 @@
         <v>388</v>
       </c>
       <c r="I239" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="K239" s="5">
         <v>-28</v>
@@ -23459,7 +23460,7 @@
         <v>390</v>
       </c>
       <c r="I240" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="K240" s="5">
         <v>-28</v>
@@ -23524,7 +23525,7 @@
         <v>392</v>
       </c>
       <c r="I241" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="K241" s="5">
         <v>-28</v>
@@ -23589,7 +23590,7 @@
         <v>394</v>
       </c>
       <c r="I242" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K242" s="5">
         <v>-28</v>
@@ -23654,7 +23655,7 @@
         <v>396</v>
       </c>
       <c r="I243" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K243" s="5">
         <v>-28</v>
@@ -23719,7 +23720,7 @@
         <v>398</v>
       </c>
       <c r="I244" s="5" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="K244" s="5">
         <v>-28</v>
@@ -23784,7 +23785,7 @@
         <v>399</v>
       </c>
       <c r="I245" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="K245" s="5">
         <v>-28</v>
@@ -23849,7 +23850,7 @@
         <v>400</v>
       </c>
       <c r="I246" s="5" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K246" s="5">
         <v>-28</v>
@@ -23911,7 +23912,7 @@
         <v>1</v>
       </c>
       <c r="G247" s="8" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H247" s="8"/>
       <c r="I247" s="5" t="s">
@@ -24113,7 +24114,7 @@
       </c>
       <c r="H250" s="43"/>
       <c r="I250" s="19" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K250" s="19">
         <v>-28</v>
@@ -24134,7 +24135,7 @@
         <v>461</v>
       </c>
       <c r="Q250" s="40" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="V250" s="19" t="s">
         <v>551</v>
@@ -24175,7 +24176,7 @@
         <v>327</v>
       </c>
       <c r="I251" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K251" s="5">
         <v>-29</v>
@@ -24193,7 +24194,7 @@
         <v>600</v>
       </c>
       <c r="P251" s="5" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="Q251" s="10" t="s">
         <v>842</v>
@@ -24243,7 +24244,7 @@
         <v>485</v>
       </c>
       <c r="I252" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="K252" s="5">
         <v>-30</v>
@@ -24305,7 +24306,7 @@
         <v>486</v>
       </c>
       <c r="I253" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="K253" s="5">
         <v>-30</v>
@@ -24367,7 +24368,7 @@
         <v>501</v>
       </c>
       <c r="I254" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="K254" s="5">
         <v>-31</v>
@@ -24432,7 +24433,7 @@
         <v>497</v>
       </c>
       <c r="I255" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="K255" s="5">
         <v>-31</v>
@@ -24497,7 +24498,7 @@
         <v>498</v>
       </c>
       <c r="I256" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="K256" s="5">
         <v>-31</v>
@@ -24562,7 +24563,7 @@
         <v>505</v>
       </c>
       <c r="I257" s="5" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K257" s="5">
         <v>-31</v>
@@ -24630,7 +24631,7 @@
         <v>537</v>
       </c>
       <c r="I258" s="5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="K258" s="5">
         <v>-31</v>
@@ -24695,7 +24696,7 @@
         <v>376</v>
       </c>
       <c r="I259" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="K259" s="5">
         <v>-31</v>
@@ -24760,7 +24761,7 @@
         <v>378</v>
       </c>
       <c r="I260" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="K260" s="5">
         <v>-31</v>
@@ -24825,7 +24826,7 @@
         <v>380</v>
       </c>
       <c r="I261" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="K261" s="5">
         <v>-31</v>
@@ -24890,7 +24891,7 @@
         <v>382</v>
       </c>
       <c r="I262" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="K262" s="5">
         <v>-31</v>
@@ -24955,7 +24956,7 @@
         <v>384</v>
       </c>
       <c r="I263" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K263" s="5">
         <v>-31</v>
@@ -25020,7 +25021,7 @@
         <v>508</v>
       </c>
       <c r="I264" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K264" s="5">
         <v>-31</v>
@@ -25085,7 +25086,7 @@
         <v>509</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="K265" s="5">
         <v>-31</v>
@@ -25150,7 +25151,7 @@
         <v>510</v>
       </c>
       <c r="I266" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="K266" s="5">
         <v>-31</v>
@@ -25215,7 +25216,7 @@
         <v>511</v>
       </c>
       <c r="I267" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="K267" s="5">
         <v>-31</v>
@@ -25280,7 +25281,7 @@
         <v>512</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="K268" s="5">
         <v>-31</v>
@@ -25345,7 +25346,7 @@
         <v>513</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K269" s="5">
         <v>-31</v>
@@ -25410,7 +25411,7 @@
         <v>398</v>
       </c>
       <c r="I270" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="K270" s="5">
         <v>-31</v>
@@ -25475,7 +25476,7 @@
         <v>399</v>
       </c>
       <c r="I271" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="K271" s="5">
         <v>-31</v>
@@ -25540,7 +25541,7 @@
         <v>400</v>
       </c>
       <c r="I272" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="K272" s="5">
         <v>-31</v>
@@ -25664,7 +25665,7 @@
       </c>
       <c r="H274" s="5"/>
       <c r="I274" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J274" s="5"/>
       <c r="K274" s="5">
@@ -25737,7 +25738,7 @@
         <v>555</v>
       </c>
       <c r="I275" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="K275" s="5">
         <v>-31</v>
@@ -25802,7 +25803,7 @@
         <v>556</v>
       </c>
       <c r="I276" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="K276" s="5">
         <v>-31</v>
@@ -25867,7 +25868,7 @@
         <v>557</v>
       </c>
       <c r="I277" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="K277" s="5">
         <v>-31</v>
@@ -25932,7 +25933,7 @@
         <v>558</v>
       </c>
       <c r="I278" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K278" s="5">
         <v>-31</v>
@@ -25997,7 +25998,7 @@
         <v>559</v>
       </c>
       <c r="I279" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="K279" s="5">
         <v>-31</v>
@@ -26062,7 +26063,7 @@
         <v>560</v>
       </c>
       <c r="I280" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="K280" s="5">
         <v>-31</v>
@@ -26127,7 +26128,7 @@
         <v>561</v>
       </c>
       <c r="I281" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K281" s="5">
         <v>-31</v>
@@ -26192,7 +26193,7 @@
         <v>562</v>
       </c>
       <c r="I282" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="K282" s="5">
         <v>-31</v>
@@ -26257,7 +26258,7 @@
         <v>563</v>
       </c>
       <c r="I283" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="K283" s="5">
         <v>-31</v>
@@ -26322,7 +26323,7 @@
         <v>564</v>
       </c>
       <c r="I284" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K284" s="5">
         <v>-31</v>
@@ -26945,7 +26946,7 @@
         <v>632</v>
       </c>
       <c r="I294" s="5" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K294" s="5">
         <v>-31</v>
@@ -27007,7 +27008,7 @@
         <v>633</v>
       </c>
       <c r="I295" s="5" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="K295" s="5">
         <v>-31</v>
@@ -27069,7 +27070,7 @@
         <v>634</v>
       </c>
       <c r="I296" s="5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="K296" s="5">
         <v>-31</v>
@@ -27131,7 +27132,7 @@
         <v>635</v>
       </c>
       <c r="I297" s="5" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="K297" s="5">
         <v>-31</v>
@@ -27193,7 +27194,7 @@
         <v>636</v>
       </c>
       <c r="I298" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="K298" s="5">
         <v>-31</v>
@@ -27255,7 +27256,7 @@
         <v>637</v>
       </c>
       <c r="I299" s="5" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="K299" s="5">
         <v>-31</v>
@@ -27317,7 +27318,7 @@
         <v>638</v>
       </c>
       <c r="I300" s="5" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="K300" s="5">
         <v>-31</v>
@@ -27379,7 +27380,7 @@
         <v>639</v>
       </c>
       <c r="I301" s="5" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="K301" s="5">
         <v>-31</v>
@@ -27441,7 +27442,7 @@
         <v>640</v>
       </c>
       <c r="I302" s="5" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="K302" s="5">
         <v>-31</v>
@@ -27503,7 +27504,7 @@
         <v>641</v>
       </c>
       <c r="I303" s="5" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="K303" s="5">
         <v>-31</v>
@@ -27565,7 +27566,7 @@
         <v>642</v>
       </c>
       <c r="I304" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="K304" s="5">
         <v>-31</v>
@@ -27627,7 +27628,7 @@
         <v>643</v>
       </c>
       <c r="I305" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="K305" s="5">
         <v>-31</v>
@@ -27689,7 +27690,7 @@
         <v>644</v>
       </c>
       <c r="I306" s="5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="K306" s="5">
         <v>-31</v>
@@ -27751,7 +27752,7 @@
         <v>645</v>
       </c>
       <c r="I307" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="K307" s="5">
         <v>-31</v>
@@ -27813,7 +27814,7 @@
         <v>646</v>
       </c>
       <c r="I308" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="K308" s="5">
         <v>-31</v>
@@ -27934,10 +27935,10 @@
         <v>0</v>
       </c>
       <c r="G310" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="I310" s="5" t="s">
         <v>975</v>
-      </c>
-      <c r="I310" s="5" t="s">
-        <v>976</v>
       </c>
       <c r="K310" s="5">
         <v>-31</v>
@@ -27996,10 +27997,10 @@
         <v>0</v>
       </c>
       <c r="G311" s="5" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="I311" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="K311" s="5">
         <v>-31</v>
@@ -28058,10 +28059,10 @@
         <v>0</v>
       </c>
       <c r="G312" s="5" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="I312" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K312" s="5">
         <v>-31</v>
@@ -28120,10 +28121,10 @@
         <v>0</v>
       </c>
       <c r="G313" s="5" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I313" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="K313" s="5">
         <v>-31</v>
@@ -28182,10 +28183,10 @@
         <v>0</v>
       </c>
       <c r="G314" s="5" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="I314" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="K314" s="5">
         <v>-31</v>
@@ -28244,10 +28245,10 @@
         <v>0</v>
       </c>
       <c r="G315" s="5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="I315" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K315" s="5">
         <v>-31</v>
@@ -28495,7 +28496,7 @@
         <v>651</v>
       </c>
       <c r="I319" s="5" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="K319" s="5">
         <v>-23</v>
@@ -28516,7 +28517,7 @@
         <v>653</v>
       </c>
       <c r="Q319" s="10" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="V319" s="5" t="s">
         <v>553</v>
@@ -28551,7 +28552,7 @@
         <v>652</v>
       </c>
       <c r="I320" s="5" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K320" s="5">
         <v>-25</v>
@@ -28607,7 +28608,7 @@
         <v>655</v>
       </c>
       <c r="I321" s="5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="K321" s="5">
         <v>-23</v>
@@ -28731,11 +28732,11 @@
         <v>1</v>
       </c>
       <c r="G323" s="19" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="J323" s="19"/>
       <c r="K323" s="19">
@@ -28754,17 +28755,17 @@
         <v>600</v>
       </c>
       <c r="P323" s="19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="Q323" s="40" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="R323" s="19"/>
       <c r="S323" s="19"/>
       <c r="T323" s="19"/>
       <c r="U323" s="19"/>
       <c r="V323" s="19" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="W323" s="19">
         <v>9999999</v>
@@ -28814,11 +28815,11 @@
         <v>1</v>
       </c>
       <c r="G324" s="19" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="J324" s="19"/>
       <c r="K324" s="19">
@@ -28837,7 +28838,7 @@
         <v>4800</v>
       </c>
       <c r="P324" s="19" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="Q324" s="40" t="s">
         <v>786</v>
@@ -28897,11 +28898,11 @@
         <v>1</v>
       </c>
       <c r="G325" s="19" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="J325" s="19"/>
       <c r="K325" s="19">
@@ -28920,7 +28921,7 @@
         <v>9800</v>
       </c>
       <c r="P325" s="19" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="Q325" s="40" t="s">
         <v>787</v>
@@ -28977,10 +28978,10 @@
         <v>1</v>
       </c>
       <c r="G326" s="41" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="I326" s="41" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="K326" s="41">
         <v>-4</v>
@@ -28992,14 +28993,14 @@
         <v>0</v>
       </c>
       <c r="N326" s="41" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="O326" s="41">
         <v>100</v>
       </c>
       <c r="Q326" s="42"/>
       <c r="V326" s="41" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="W326" s="41">
         <v>9999999</v>
@@ -29011,13 +29012,13 @@
         <v>2552233600</v>
       </c>
       <c r="AA326" s="41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="AB326" s="41" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AC326" s="42" t="s">
         <v>1127</v>
-      </c>
-      <c r="AC326" s="42" t="s">
-        <v>1128</v>
       </c>
       <c r="AG326" s="41">
         <v>1</v>
@@ -29037,10 +29038,10 @@
         <v>1</v>
       </c>
       <c r="G327" s="44" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="I327" s="44" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="K327" s="44">
         <v>-31</v>
@@ -29052,19 +29053,19 @@
         <v>0</v>
       </c>
       <c r="N327" s="44" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="O327" s="44">
         <v>9900</v>
       </c>
       <c r="P327" s="44" t="s">
+        <v>1133</v>
+      </c>
+      <c r="Q327" s="49" t="s">
+        <v>1169</v>
+      </c>
+      <c r="V327" s="44" t="s">
         <v>1134</v>
-      </c>
-      <c r="Q327" s="49" t="s">
-        <v>1170</v>
-      </c>
-      <c r="V327" s="44" t="s">
-        <v>1135</v>
       </c>
       <c r="W327" s="44">
         <v>99999999</v>
@@ -29102,11 +29103,11 @@
         <v>1</v>
       </c>
       <c r="G328" s="44" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H328" s="44"/>
       <c r="I328" s="44" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J328" s="44"/>
       <c r="K328" s="44">
@@ -29119,23 +29120,23 @@
         <v>0</v>
       </c>
       <c r="N328" s="44" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="O328" s="44">
         <v>600</v>
       </c>
       <c r="P328" s="44" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="Q328" s="49" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="R328" s="44"/>
       <c r="S328" s="44"/>
       <c r="T328" s="44"/>
       <c r="U328" s="44"/>
       <c r="V328" s="44" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="W328" s="44">
         <v>99999999</v>
@@ -29184,11 +29185,11 @@
         <v>1</v>
       </c>
       <c r="G329" s="44" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="H329" s="44"/>
       <c r="I329" s="44" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="J329" s="44"/>
       <c r="K329" s="44">
@@ -29201,23 +29202,23 @@
         <v>0</v>
       </c>
       <c r="N329" s="44" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="O329" s="44">
         <v>2800</v>
       </c>
       <c r="P329" s="44" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="Q329" s="49" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="R329" s="44"/>
       <c r="S329" s="44"/>
       <c r="T329" s="44"/>
       <c r="U329" s="44"/>
       <c r="V329" s="44" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="W329" s="44">
         <v>99999999</v>
@@ -29266,11 +29267,11 @@
         <v>1</v>
       </c>
       <c r="G330" s="44" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="H330" s="44"/>
       <c r="I330" s="44" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="J330" s="44"/>
       <c r="K330" s="44">
@@ -29283,23 +29284,23 @@
         <v>0</v>
       </c>
       <c r="N330" s="44" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="O330" s="44">
         <v>4800</v>
       </c>
       <c r="P330" s="44" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="Q330" s="49" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="R330" s="44"/>
       <c r="S330" s="44"/>
       <c r="T330" s="44"/>
       <c r="U330" s="44"/>
       <c r="V330" s="44" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="W330" s="44">
         <v>99999999</v>
@@ -29348,11 +29349,11 @@
         <v>1</v>
       </c>
       <c r="G331" s="44" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="H331" s="44"/>
       <c r="I331" s="44" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J331" s="44"/>
       <c r="K331" s="44">
@@ -29365,23 +29366,23 @@
         <v>0</v>
       </c>
       <c r="N331" s="44" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="O331" s="44">
         <v>9900</v>
       </c>
       <c r="P331" s="44" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="Q331" s="49" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="R331" s="44"/>
       <c r="S331" s="44"/>
       <c r="T331" s="44"/>
       <c r="U331" s="44"/>
       <c r="V331" s="44" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="W331" s="44">
         <v>99999999</v>
@@ -29430,11 +29431,11 @@
         <v>1</v>
       </c>
       <c r="G332" s="44" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H332" s="44"/>
       <c r="I332" s="44" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J332" s="44"/>
       <c r="K332" s="44">
@@ -29447,23 +29448,23 @@
         <v>0</v>
       </c>
       <c r="N332" s="44" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="O332" s="44">
         <v>19800</v>
       </c>
       <c r="P332" s="44" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="Q332" s="49" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="R332" s="44"/>
       <c r="S332" s="44"/>
       <c r="T332" s="44"/>
       <c r="U332" s="44"/>
       <c r="V332" s="44" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="W332" s="44">
         <v>99999999</v>
@@ -29512,11 +29513,11 @@
         <v>1</v>
       </c>
       <c r="G333" s="44" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="H333" s="44"/>
       <c r="I333" s="44" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J333" s="44"/>
       <c r="K333" s="44">
@@ -29529,23 +29530,23 @@
         <v>0</v>
       </c>
       <c r="N333" s="44" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="O333" s="44">
         <v>29800</v>
       </c>
       <c r="P333" s="44" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="Q333" s="49" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="R333" s="44"/>
       <c r="S333" s="44"/>
       <c r="T333" s="44"/>
       <c r="U333" s="44"/>
       <c r="V333" s="44" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="W333" s="44">
         <v>99999999</v>
@@ -29594,11 +29595,11 @@
         <v>1</v>
       </c>
       <c r="G334" s="44" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="H334" s="44"/>
       <c r="I334" s="44" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J334" s="44"/>
       <c r="K334" s="44">
@@ -29611,23 +29612,23 @@
         <v>0</v>
       </c>
       <c r="N334" s="44" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="O334" s="44">
         <v>39800</v>
       </c>
       <c r="P334" s="44" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="Q334" s="49" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="R334" s="44"/>
       <c r="S334" s="44"/>
       <c r="T334" s="44"/>
       <c r="U334" s="44"/>
       <c r="V334" s="44" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="W334" s="44">
         <v>99999999</v>
@@ -29676,11 +29677,11 @@
         <v>1</v>
       </c>
       <c r="G335" s="44" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H335" s="44"/>
       <c r="I335" s="44" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J335" s="44"/>
       <c r="K335" s="44">
@@ -29693,23 +29694,23 @@
         <v>0</v>
       </c>
       <c r="N335" s="44" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="O335" s="44">
         <v>49800</v>
       </c>
       <c r="P335" s="44" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="Q335" s="49" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="R335" s="44"/>
       <c r="S335" s="44"/>
       <c r="T335" s="44"/>
       <c r="U335" s="44"/>
       <c r="V335" s="44" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="W335" s="44">
         <v>99999999</v>
@@ -29758,11 +29759,11 @@
         <v>1</v>
       </c>
       <c r="G336" s="44" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H336" s="44"/>
       <c r="I336" s="44" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J336" s="44"/>
       <c r="K336" s="44">
@@ -29775,23 +29776,23 @@
         <v>0</v>
       </c>
       <c r="N336" s="44" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="O336" s="44">
         <v>59800</v>
       </c>
       <c r="P336" s="44" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="Q336" s="49" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="R336" s="44"/>
       <c r="S336" s="44"/>
       <c r="T336" s="44"/>
       <c r="U336" s="44"/>
       <c r="V336" s="44" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="W336" s="44">
         <v>99999999</v>
@@ -29840,11 +29841,11 @@
         <v>1</v>
       </c>
       <c r="G337" s="44" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H337" s="44"/>
       <c r="I337" s="44" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J337" s="44"/>
       <c r="K337" s="44">
@@ -29857,23 +29858,23 @@
         <v>0</v>
       </c>
       <c r="N337" s="44" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="O337" s="44">
         <v>69800</v>
       </c>
       <c r="P337" s="44" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="Q337" s="49" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="R337" s="44"/>
       <c r="S337" s="44"/>
       <c r="T337" s="44"/>
       <c r="U337" s="44"/>
       <c r="V337" s="44" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="W337" s="44">
         <v>99999999</v>
@@ -29919,10 +29920,10 @@
         <v>1</v>
       </c>
       <c r="G338" s="19" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="I338" s="19" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="K338" s="19">
         <v>-31</v>
@@ -29940,10 +29941,10 @@
         <v>19800</v>
       </c>
       <c r="P338" s="19" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="Q338" s="40" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="V338" s="19" t="s">
         <v>551</v>
@@ -29958,10 +29959,10 @@
         <v>2552233600</v>
       </c>
       <c r="AA338" s="19" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="AB338" s="19" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="AG338" s="19">
         <v>1</v>
@@ -29994,7 +29995,7 @@
       </c>
       <c r="H339" s="19"/>
       <c r="I339" s="19" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="J339" s="19"/>
       <c r="K339" s="19">
@@ -30013,10 +30014,10 @@
         <v>30000</v>
       </c>
       <c r="P339" s="19" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="Q339" s="40" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="R339" s="19"/>
       <c r="S339" s="19"/>
@@ -30036,10 +30037,10 @@
       </c>
       <c r="Z339" s="19"/>
       <c r="AA339" s="19" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="AB339" s="19" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="AC339" s="19"/>
       <c r="AD339" s="19"/>
@@ -30074,11 +30075,11 @@
         <v>1</v>
       </c>
       <c r="G340" s="19" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="H340" s="19"/>
       <c r="I340" s="19" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="J340" s="19"/>
       <c r="K340" s="19">
@@ -30097,10 +30098,10 @@
         <v>78000</v>
       </c>
       <c r="P340" s="19" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="Q340" s="40" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="R340" s="19"/>
       <c r="S340" s="19"/>
@@ -30120,10 +30121,10 @@
       </c>
       <c r="Z340" s="19"/>
       <c r="AA340" s="19" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="AB340" s="19" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="AC340" s="19"/>
       <c r="AD340" s="19"/>
@@ -30155,11 +30156,11 @@
         <v>1</v>
       </c>
       <c r="G341" s="6" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="H341" s="6"/>
       <c r="I341" s="5" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="K341" s="5">
         <v>-31</v>
@@ -30177,13 +30178,13 @@
         <v>600</v>
       </c>
       <c r="P341" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q341" s="10" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="V341" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="W341" s="5">
         <v>9999999</v>
@@ -30201,7 +30202,7 @@
         <v>461</v>
       </c>
       <c r="AB341" s="5" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="AG341" s="5">
         <v>1</v>
@@ -30227,10 +30228,10 @@
         <v>1</v>
       </c>
       <c r="G342" s="6" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="I342" s="5" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="K342" s="5">
         <v>-31</v>
@@ -30248,13 +30249,13 @@
         <v>600</v>
       </c>
       <c r="P342" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q342" s="10" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="V342" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="W342" s="5">
         <v>9999999</v>
@@ -30272,7 +30273,7 @@
         <v>461</v>
       </c>
       <c r="AB342" s="5" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="AG342" s="5">
         <v>1</v>
@@ -30298,10 +30299,10 @@
         <v>1</v>
       </c>
       <c r="G343" s="6" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="I343" s="5" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="K343" s="5">
         <v>-31</v>
@@ -30319,13 +30320,13 @@
         <v>600</v>
       </c>
       <c r="P343" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q343" s="10" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="V343" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="W343" s="5">
         <v>9999999</v>
@@ -30343,7 +30344,7 @@
         <v>461</v>
       </c>
       <c r="AB343" s="5" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="AG343" s="5">
         <v>1</v>
@@ -30369,10 +30370,10 @@
         <v>1</v>
       </c>
       <c r="G344" s="6" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="I344" s="5" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="K344" s="5">
         <v>-31</v>
@@ -30390,13 +30391,13 @@
         <v>4800</v>
       </c>
       <c r="P344" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q344" s="10" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="V344" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="W344" s="5">
         <v>9999999</v>
@@ -30414,7 +30415,7 @@
         <v>461</v>
       </c>
       <c r="AB344" s="5" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="AG344" s="5">
         <v>1</v>
@@ -30440,10 +30441,10 @@
         <v>1</v>
       </c>
       <c r="G345" s="6" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="I345" s="5" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="K345" s="5">
         <v>-31</v>
@@ -30461,13 +30462,13 @@
         <v>4800</v>
       </c>
       <c r="P345" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q345" s="10" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="V345" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="W345" s="5">
         <v>9999999</v>
@@ -30485,7 +30486,7 @@
         <v>461</v>
       </c>
       <c r="AB345" s="5" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="AG345" s="5">
         <v>1</v>
@@ -30511,10 +30512,10 @@
         <v>1</v>
       </c>
       <c r="G346" s="6" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="I346" s="5" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="K346" s="5">
         <v>-31</v>
@@ -30532,13 +30533,13 @@
         <v>4800</v>
       </c>
       <c r="P346" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q346" s="10" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="V346" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="W346" s="5">
         <v>9999999</v>
@@ -30556,7 +30557,7 @@
         <v>461</v>
       </c>
       <c r="AB346" s="5" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="AG346" s="5">
         <v>1</v>
@@ -30582,10 +30583,10 @@
         <v>1</v>
       </c>
       <c r="G347" s="6" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="I347" s="5" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="K347" s="5">
         <v>-31</v>
@@ -30603,13 +30604,13 @@
         <v>9800</v>
       </c>
       <c r="P347" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q347" s="10" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V347" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="W347" s="5">
         <v>9999999</v>
@@ -30627,7 +30628,7 @@
         <v>461</v>
       </c>
       <c r="AB347" s="5" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="AG347" s="5">
         <v>1</v>
@@ -30653,10 +30654,10 @@
         <v>1</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="I348" s="5" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="K348" s="5">
         <v>-31</v>
@@ -30674,13 +30675,13 @@
         <v>9800</v>
       </c>
       <c r="P348" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q348" s="10" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="V348" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="W348" s="5">
         <v>9999999</v>
@@ -30698,7 +30699,7 @@
         <v>461</v>
       </c>
       <c r="AB348" s="5" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="AG348" s="5">
         <v>1</v>
@@ -30724,10 +30725,10 @@
         <v>1</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="I349" s="5" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="K349" s="5">
         <v>-31</v>
@@ -30745,13 +30746,13 @@
         <v>9800</v>
       </c>
       <c r="P349" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q349" s="10" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V349" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="W349" s="5">
         <v>9999999</v>
@@ -30769,7 +30770,7 @@
         <v>461</v>
       </c>
       <c r="AB349" s="5" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="AG349" s="5">
         <v>1</v>
@@ -30795,10 +30796,10 @@
         <v>1</v>
       </c>
       <c r="G350" s="6" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="I350" s="5" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="K350" s="5">
         <v>-31</v>
@@ -30816,13 +30817,13 @@
         <v>19800</v>
       </c>
       <c r="P350" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q350" s="10" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="V350" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="W350" s="5">
         <v>9999999</v>
@@ -30840,7 +30841,7 @@
         <v>461</v>
       </c>
       <c r="AB350" s="5" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="AG350" s="5">
         <v>1</v>
@@ -30866,10 +30867,10 @@
         <v>1</v>
       </c>
       <c r="G351" s="6" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="I351" s="5" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="K351" s="5">
         <v>-31</v>
@@ -30887,13 +30888,13 @@
         <v>19800</v>
       </c>
       <c r="P351" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q351" s="10" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="V351" s="5" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="W351" s="5">
         <v>9999999</v>
@@ -30911,7 +30912,7 @@
         <v>461</v>
       </c>
       <c r="AB351" s="5" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="AG351" s="5">
         <v>1</v>
@@ -30937,10 +30938,10 @@
         <v>1</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I352" s="5" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="K352" s="5">
         <v>-31</v>
@@ -30958,13 +30959,13 @@
         <v>19800</v>
       </c>
       <c r="P352" s="5" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="Q352" s="10" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="V352" s="5" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="W352" s="5">
         <v>9999999</v>
@@ -30982,7 +30983,7 @@
         <v>461</v>
       </c>
       <c r="AB352" s="5" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="AG352" s="5">
         <v>1</v>
@@ -31008,13 +31009,13 @@
         <v>0</v>
       </c>
       <c r="G353" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H353" s="5" t="s">
         <v>1301</v>
       </c>
-      <c r="H353" s="5" t="s">
-        <v>1302</v>
-      </c>
       <c r="I353" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="K353" s="5">
         <v>-31</v>
@@ -31026,16 +31027,16 @@
         <v>0</v>
       </c>
       <c r="N353" s="5" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="O353" s="5">
         <v>600</v>
       </c>
       <c r="P353" s="5" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="Q353" s="10" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="V353" s="5" t="s">
         <v>565</v>
@@ -31076,13 +31077,13 @@
         <v>0</v>
       </c>
       <c r="G354" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H354" s="5" t="s">
         <v>1303</v>
       </c>
-      <c r="H354" s="5" t="s">
-        <v>1304</v>
-      </c>
       <c r="I354" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="K354" s="5">
         <v>-31</v>
@@ -31100,10 +31101,10 @@
         <v>1200</v>
       </c>
       <c r="P354" s="5" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="Q354" s="10" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="V354" s="5" t="s">
         <v>565</v>
@@ -31144,13 +31145,13 @@
         <v>0</v>
       </c>
       <c r="G355" s="5" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H355" s="5" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="K355" s="5">
         <v>-31</v>
@@ -31168,13 +31169,13 @@
         <v>1800</v>
       </c>
       <c r="P355" s="5" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="Q355" s="10" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="V355" s="5" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="W355" s="5">
         <v>9999999</v>
@@ -31212,13 +31213,13 @@
         <v>0</v>
       </c>
       <c r="G356" s="5" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H356" s="5" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="K356" s="5">
         <v>-31</v>
@@ -31236,13 +31237,13 @@
         <v>4800</v>
       </c>
       <c r="P356" s="5" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Q356" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V356" s="5" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="W356" s="5">
         <v>9999999</v>
@@ -31280,13 +31281,13 @@
         <v>0</v>
       </c>
       <c r="G357" s="5" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H357" s="5" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -31304,13 +31305,13 @@
         <v>9800</v>
       </c>
       <c r="P357" s="5" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="Q357" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V357" s="5" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="W357" s="5">
         <v>9999999</v>
@@ -31348,13 +31349,13 @@
         <v>0</v>
       </c>
       <c r="G358" s="5" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H358" s="5" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="I358" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="K358" s="5">
         <v>-31</v>
@@ -31372,13 +31373,13 @@
         <v>19800</v>
       </c>
       <c r="P358" s="5" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="Q358" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V358" s="5" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="W358" s="5">
         <v>9999999</v>
@@ -31416,13 +31417,13 @@
         <v>0</v>
       </c>
       <c r="G359" s="5" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H359" s="5" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I359" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="K359" s="5">
         <v>-31</v>
@@ -31440,13 +31441,13 @@
         <v>9800</v>
       </c>
       <c r="P359" s="5" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="Q359" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V359" s="5" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="W359" s="5">
         <v>9999999</v>
@@ -31484,13 +31485,13 @@
         <v>0</v>
       </c>
       <c r="G360" s="5" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H360" s="5" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I360" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="K360" s="5">
         <v>-31</v>
@@ -31508,13 +31509,13 @@
         <v>19800</v>
       </c>
       <c r="P360" s="5" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="Q360" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V360" s="5" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="W360" s="5">
         <v>9999999</v>
@@ -31552,13 +31553,13 @@
         <v>0</v>
       </c>
       <c r="G361" s="5" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H361" s="5" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I361" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="K361" s="5">
         <v>-31</v>
@@ -31576,13 +31577,13 @@
         <v>49800</v>
       </c>
       <c r="P361" s="5" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="Q361" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V361" s="5" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="W361" s="5">
         <v>9999999</v>
@@ -31620,13 +31621,13 @@
         <v>0</v>
       </c>
       <c r="G362" s="5" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H362" s="5" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="I362" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="K362" s="5">
         <v>-31</v>
@@ -31644,13 +31645,13 @@
         <v>1800</v>
       </c>
       <c r="P362" s="5" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="Q362" s="10" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="V362" s="5" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="W362" s="5">
         <v>9999999</v>
@@ -31665,10 +31666,10 @@
         <v>38</v>
       </c>
       <c r="AA362" s="5" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="AB362" s="5" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="AG362" s="5">
         <v>1</v>
@@ -31694,13 +31695,13 @@
         <v>0</v>
       </c>
       <c r="G363" s="5" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H363" s="5" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="K363" s="5">
         <v>-31</v>
@@ -31718,13 +31719,13 @@
         <v>19800</v>
       </c>
       <c r="P363" s="5" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="Q363" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V363" s="5" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="W363" s="5">
         <v>9999999</v>
@@ -31739,10 +31740,10 @@
         <v>39</v>
       </c>
       <c r="AA363" s="5" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="AB363" s="5" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="AG363" s="5">
         <v>1</v>
@@ -31768,13 +31769,13 @@
         <v>0</v>
       </c>
       <c r="G364" s="5" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H364" s="5" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="K364" s="5">
         <v>-31</v>
@@ -31792,13 +31793,13 @@
         <v>49800</v>
       </c>
       <c r="P364" s="5" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="Q364" s="10" t="s">
         <v>284</v>
       </c>
       <c r="V364" s="5" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="W364" s="5">
         <v>9999999</v>
@@ -31813,10 +31814,10 @@
         <v>40</v>
       </c>
       <c r="AA364" s="5" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="AB364" s="5" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="AG364" s="5">
         <v>1</v>
@@ -31842,10 +31843,10 @@
         <v>1</v>
       </c>
       <c r="G365" s="5" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="I365" s="5" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="K365" s="5">
         <v>-31</v>
@@ -31863,10 +31864,10 @@
         <v>131400</v>
       </c>
       <c r="P365" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="Q365" s="10" t="s">
         <v>1343</v>
-      </c>
-      <c r="Q365" s="10" t="s">
-        <v>1344</v>
       </c>
       <c r="V365" s="5" t="s">
         <v>598</v>
@@ -31907,10 +31908,10 @@
         <v>1</v>
       </c>
       <c r="G366" s="5" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="I366" s="5" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="K366" s="5">
         <v>-31</v>
@@ -31928,10 +31929,10 @@
         <v>52000</v>
       </c>
       <c r="P366" s="5" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="Q366" s="10" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="V366" s="5" t="s">
         <v>598</v>
@@ -31972,10 +31973,10 @@
         <v>1</v>
       </c>
       <c r="G367" s="5" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="I367" s="5" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="K367" s="5">
         <v>-31</v>
@@ -31993,10 +31994,10 @@
         <v>25800</v>
       </c>
       <c r="P367" s="5" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="Q367" s="10" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="V367" s="5" t="s">
         <v>598</v>
@@ -32037,10 +32038,10 @@
         <v>1</v>
       </c>
       <c r="G368" s="5" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="K368" s="5">
         <v>-31</v>
@@ -32058,10 +32059,10 @@
         <v>14700</v>
       </c>
       <c r="P368" s="5" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="Q368" s="10" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="V368" s="5" t="s">
         <v>598</v>
@@ -32102,10 +32103,10 @@
         <v>1</v>
       </c>
       <c r="G369" s="5" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="K369" s="5">
         <v>-31</v>
@@ -32123,10 +32124,10 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="Q369" s="10" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="V369" s="5" t="s">
         <v>598</v>
@@ -32167,10 +32168,10 @@
         <v>1</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="I370" s="5" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="K370" s="5">
         <v>-31</v>
@@ -32188,10 +32189,10 @@
         <v>1800</v>
       </c>
       <c r="P370" s="5" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="Q370" s="10" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="V370" s="5" t="s">
         <v>598</v>
@@ -32229,10 +32230,10 @@
         <v>1</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="I371" s="5" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="K371" s="5">
         <v>-31</v>
@@ -32250,10 +32251,10 @@
         <v>4800</v>
       </c>
       <c r="P371" s="5" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="Q371" s="10" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="V371" s="5" t="s">
         <v>565</v>
@@ -32291,10 +32292,10 @@
         <v>1</v>
       </c>
       <c r="G372" s="5" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="I372" s="5" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K372" s="5">
         <v>-31</v>
@@ -32312,13 +32313,13 @@
         <v>9800</v>
       </c>
       <c r="P372" s="5" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="Q372" s="10" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="V372" s="5" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="W372" s="5">
         <v>9999999</v>
@@ -32353,10 +32354,10 @@
         <v>1</v>
       </c>
       <c r="G373" s="5" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="I373" s="5" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="K373" s="5">
         <v>-31</v>
@@ -32374,10 +32375,10 @@
         <v>19800</v>
       </c>
       <c r="P373" s="5" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="Q373" s="10" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="V373" s="5" t="s">
         <v>567</v>
@@ -32415,13 +32416,13 @@
         <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H374" s="5" t="s">
         <v>1365</v>
       </c>
-      <c r="H374" s="5" t="s">
-        <v>1366</v>
-      </c>
       <c r="I374" s="5" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="K374" s="5">
         <v>-31</v>
@@ -32439,13 +32440,13 @@
         <v>300</v>
       </c>
       <c r="P374" s="5" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="Q374" s="10" t="s">
+        <v>1366</v>
+      </c>
+      <c r="V374" s="5" t="s">
         <v>1367</v>
-      </c>
-      <c r="V374" s="5" t="s">
-        <v>1368</v>
       </c>
       <c r="W374" s="5">
         <v>9999999</v>
@@ -32483,13 +32484,13 @@
         <v>1</v>
       </c>
       <c r="G375" s="45" t="s">
+        <v>1368</v>
+      </c>
+      <c r="H375" s="45" t="s">
         <v>1369</v>
       </c>
-      <c r="H375" s="45" t="s">
-        <v>1370</v>
-      </c>
       <c r="I375" s="45" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="K375" s="45">
         <v>-31</v>
@@ -32507,10 +32508,10 @@
         <v>300</v>
       </c>
       <c r="P375" s="45" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="Q375" s="50" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="V375" s="45" t="s">
         <v>598</v>
@@ -32551,13 +32552,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="45" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H376" s="45" t="s">
         <v>1377</v>
       </c>
-      <c r="H376" s="45" t="s">
+      <c r="I376" s="45" t="s">
         <v>1378</v>
-      </c>
-      <c r="I376" s="45" t="s">
-        <v>1379</v>
       </c>
       <c r="K376" s="45">
         <v>-31</v>
@@ -32569,19 +32570,19 @@
         <v>0</v>
       </c>
       <c r="N376" s="45" t="s">
+        <v>1379</v>
+      </c>
+      <c r="O376" s="45">
+        <v>0</v>
+      </c>
+      <c r="P376" s="45" t="s">
         <v>1380</v>
-      </c>
-      <c r="O376" s="45">
-        <v>0</v>
-      </c>
-      <c r="P376" s="45" t="s">
-        <v>1381</v>
       </c>
       <c r="Q376" s="50" t="s">
         <v>801</v>
       </c>
       <c r="V376" s="45" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="W376" s="45">
         <v>9999999</v>
@@ -32619,13 +32620,13 @@
         <v>1</v>
       </c>
       <c r="G377" s="45" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H377" s="45" t="s">
         <v>1377</v>
       </c>
-      <c r="H377" s="45" t="s">
-        <v>1378</v>
-      </c>
       <c r="I377" s="45" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="K377" s="45">
         <v>-31</v>
@@ -32637,19 +32638,19 @@
         <v>0</v>
       </c>
       <c r="N377" s="45" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="O377" s="45">
         <v>300</v>
       </c>
       <c r="P377" s="45" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="Q377" s="50" t="s">
         <v>802</v>
       </c>
       <c r="V377" s="45" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="W377" s="45">
         <v>9999999</v>
@@ -32687,13 +32688,13 @@
         <v>1</v>
       </c>
       <c r="G378" s="45" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H378" s="45" t="s">
+        <v>1384</v>
+      </c>
+      <c r="I378" s="45" t="s">
         <v>1385</v>
-      </c>
-      <c r="I378" s="45" t="s">
-        <v>1386</v>
       </c>
       <c r="K378" s="45">
         <v>-31</v>
@@ -32711,13 +32712,13 @@
         <v>600</v>
       </c>
       <c r="P378" s="45" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="Q378" s="50" t="s">
         <v>803</v>
       </c>
       <c r="V378" s="45" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="W378" s="45">
         <v>9999999</v>
@@ -32755,13 +32756,13 @@
         <v>1</v>
       </c>
       <c r="G379" s="45" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H379" s="45" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I379" s="45" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="K379" s="45">
         <v>-31</v>
@@ -32773,19 +32774,19 @@
         <v>0</v>
       </c>
       <c r="N379" s="45" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="O379" s="45">
         <v>1800</v>
       </c>
       <c r="P379" s="45" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="Q379" s="50" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="V379" s="45" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="W379" s="45">
         <v>9999999</v>
@@ -32823,13 +32824,13 @@
         <v>1</v>
       </c>
       <c r="G380" s="45" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H380" s="45" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I380" s="45" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="K380" s="45">
         <v>-31</v>
@@ -32841,19 +32842,19 @@
         <v>0</v>
       </c>
       <c r="N380" s="45" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="O380" s="45">
         <v>4800</v>
       </c>
       <c r="P380" s="45" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="Q380" s="50" t="s">
+        <v>1389</v>
+      </c>
+      <c r="V380" s="45" t="s">
         <v>1390</v>
-      </c>
-      <c r="V380" s="45" t="s">
-        <v>1391</v>
       </c>
       <c r="W380" s="45">
         <v>9999999</v>
@@ -32891,13 +32892,13 @@
         <v>1</v>
       </c>
       <c r="G381" s="45" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H381" s="45" t="s">
+        <v>1391</v>
+      </c>
+      <c r="I381" s="45" t="s">
         <v>1392</v>
-      </c>
-      <c r="I381" s="45" t="s">
-        <v>1393</v>
       </c>
       <c r="K381" s="45">
         <v>-31</v>
@@ -32915,13 +32916,13 @@
         <v>0</v>
       </c>
       <c r="P381" s="45" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="Q381" s="50" t="s">
         <v>801</v>
       </c>
       <c r="V381" s="45" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="W381" s="45">
         <v>9999999</v>
@@ -32959,13 +32960,13 @@
         <v>1</v>
       </c>
       <c r="G382" s="45" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H382" s="45" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I382" s="45" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="K382" s="45">
         <v>-31</v>
@@ -32977,19 +32978,19 @@
         <v>0</v>
       </c>
       <c r="N382" s="45" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="O382" s="45">
         <v>1800</v>
       </c>
       <c r="P382" s="45" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="Q382" s="50" t="s">
         <v>804</v>
       </c>
       <c r="V382" s="45" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="W382" s="45">
         <v>9999999</v>
@@ -33027,13 +33028,13 @@
         <v>1</v>
       </c>
       <c r="G383" s="45" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H383" s="45" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I383" s="45" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="K383" s="45">
         <v>-31</v>
@@ -33045,13 +33046,13 @@
         <v>0</v>
       </c>
       <c r="N383" s="45" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="O383" s="45">
         <v>4800</v>
       </c>
       <c r="P383" s="45" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="Q383" s="50" t="s">
         <v>805</v>
@@ -33095,13 +33096,13 @@
         <v>1</v>
       </c>
       <c r="G384" s="45" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H384" s="45" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I384" s="45" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="K384" s="45">
         <v>-31</v>
@@ -33113,19 +33114,19 @@
         <v>0</v>
       </c>
       <c r="N384" s="45" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="O384" s="45">
         <v>9800</v>
       </c>
       <c r="P384" s="45" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="Q384" s="50" t="s">
         <v>808</v>
       </c>
       <c r="V384" s="45" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="W384" s="45">
         <v>9999999</v>
@@ -33163,13 +33164,13 @@
         <v>1</v>
       </c>
       <c r="G385" s="45" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="H385" s="45" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I385" s="45" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="K385" s="45">
         <v>-31</v>
@@ -33181,19 +33182,19 @@
         <v>0</v>
       </c>
       <c r="N385" s="45" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="O385" s="45">
         <v>19800</v>
       </c>
       <c r="P385" s="45" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="Q385" s="50" t="s">
         <v>809</v>
       </c>
       <c r="V385" s="45" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="W385" s="45">
         <v>9999999</v>
@@ -33232,7 +33233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
@@ -33248,7 +33249,7 @@
         <v>402</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>403</v>
@@ -33265,7 +33266,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -33282,7 +33283,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -33296,7 +33297,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -33310,7 +33311,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -33436,7 +33437,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -33464,7 +33465,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -33618,7 +33619,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C27" s="12">
         <v>1</v>
@@ -33633,7 +33634,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C28" s="12">
         <v>1</v>
@@ -33648,7 +33649,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -33663,7 +33664,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C30" s="12">
         <v>1</v>
@@ -33678,7 +33679,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C31" s="12">
         <v>1</v>
@@ -33693,7 +33694,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C32" s="12">
         <v>1</v>
@@ -33708,7 +33709,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C33" s="12">
         <v>1</v>
@@ -33723,7 +33724,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C34" s="12">
         <v>1</v>
@@ -33738,7 +33739,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C35" s="12">
         <v>1</v>
@@ -33753,7 +33754,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C36" s="12">
         <v>1</v>
@@ -33768,7 +33769,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C37" s="12">
         <v>1</v>
@@ -33783,7 +33784,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C38" s="12">
         <v>1</v>
@@ -33798,7 +33799,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C39" s="12">
         <v>1</v>
@@ -33812,7 +33813,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -33826,7 +33827,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C41" s="12">
         <v>1</v>
@@ -33840,7 +33841,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C42" s="12">
         <v>1</v>
@@ -33854,7 +33855,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="53" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C43" s="52">
         <v>1</v>
@@ -33868,7 +33869,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="53" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="C44" s="52">
         <v>1</v>
@@ -33931,7 +33932,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>414</v>
@@ -33943,10 +33944,10 @@
         <v>416</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1020</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>22</v>
@@ -34003,7 +34004,7 @@
         <v>42</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="2" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -34047,10 +34048,10 @@
         <v>3</v>
       </c>
       <c r="Q2" s="34" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="S2" s="34" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="T2" s="11" t="s">
         <v>50</v>
@@ -34112,10 +34113,10 @@
         <v>4</v>
       </c>
       <c r="Q3" s="34" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="S3" s="34" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="T3" s="11" t="s">
         <v>53</v>
@@ -34177,10 +34178,10 @@
         <v>5</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="S4" s="34" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="T4" s="11" t="s">
         <v>55</v>
@@ -34242,10 +34243,10 @@
         <v>6</v>
       </c>
       <c r="Q5" s="34" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="S5" s="34" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="T5" s="11" t="s">
         <v>57</v>
@@ -34307,10 +34308,10 @@
         <v>7</v>
       </c>
       <c r="Q6" s="34" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="S6" s="34" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="T6" s="11" t="s">
         <v>59</v>
@@ -34372,10 +34373,10 @@
         <v>9</v>
       </c>
       <c r="Q7" s="34" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="S7" s="34" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="T7" s="11" t="s">
         <v>61</v>
@@ -34434,10 +34435,10 @@
         <v>0</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="S8" s="34" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="T8" s="11" t="s">
         <v>50</v>
@@ -34496,7 +34497,7 @@
         <v>2</v>
       </c>
       <c r="Q9" s="34" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="T9" s="11">
         <v>5000</v>
@@ -34514,7 +34515,7 @@
         <v>1</v>
       </c>
       <c r="AC9" s="34" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="10" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -34558,7 +34559,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="T10" s="11">
         <v>1000</v>
@@ -34576,7 +34577,7 @@
         <v>1</v>
       </c>
       <c r="AC10" s="34" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="11" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -34620,10 +34621,10 @@
         <v>0</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="S11" s="34" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="T11" s="23" t="s">
         <v>53</v>
@@ -34685,10 +34686,10 @@
         <v>9</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="S12" s="34" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="T12" s="11" t="s">
         <v>63</v>
@@ -34750,10 +34751,10 @@
         <v>10</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="S13" s="34" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="T13" s="11" t="s">
         <v>421</v>
@@ -34815,10 +34816,10 @@
         <v>11</v>
       </c>
       <c r="Q14" s="34" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="S14" s="34" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="T14" s="11" t="s">
         <v>422</v>
@@ -34880,7 +34881,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="34" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="S15" s="34"/>
       <c r="T15" s="11">
@@ -34899,7 +34900,7 @@
         <v>1</v>
       </c>
       <c r="AC15" s="34" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -34946,10 +34947,10 @@
         <v>3</v>
       </c>
       <c r="Q16" s="34" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="S16" s="34" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="T16" s="11" t="s">
         <v>72</v>
@@ -35008,10 +35009,10 @@
         <v>4</v>
       </c>
       <c r="Q17" s="34" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="S17" s="34" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="T17" s="11" t="s">
         <v>75</v>
@@ -35070,10 +35071,10 @@
         <v>5</v>
       </c>
       <c r="Q18" s="34" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="S18" s="34" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="T18" s="11" t="s">
         <v>78</v>
@@ -35132,10 +35133,10 @@
         <v>6</v>
       </c>
       <c r="Q19" s="34" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="S19" s="34" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="T19" s="11" t="s">
         <v>82</v>
@@ -35194,10 +35195,10 @@
         <v>7</v>
       </c>
       <c r="Q20" s="34" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="S20" s="34" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="T20" s="11" t="s">
         <v>86</v>
@@ -35256,10 +35257,10 @@
         <v>0</v>
       </c>
       <c r="Q21" s="36" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="S21" s="36" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="T21" s="35" t="s">
         <v>89</v>
@@ -35318,7 +35319,7 @@
         <v>2</v>
       </c>
       <c r="Q22" s="34" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="S22" s="34"/>
       <c r="T22" s="11">
@@ -35378,7 +35379,7 @@
         <v>1</v>
       </c>
       <c r="Q23" s="34" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="S23" s="34"/>
       <c r="T23" s="11">
@@ -35441,7 +35442,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="34" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="S24" s="34"/>
       <c r="T24" s="11">
@@ -35460,7 +35461,7 @@
         <v>1</v>
       </c>
       <c r="AC24" s="34" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="25" spans="1:29" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -35480,7 +35481,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="H25" s="11">
         <v>19800</v>
@@ -35507,10 +35508,10 @@
         <v>8</v>
       </c>
       <c r="Q25" s="34" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="S25" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="T25" s="34" t="s">
         <v>548</v>
@@ -35969,7 +35970,7 @@
         <v>90</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="L8" s="12">
         <v>57</v>
@@ -35987,7 +35988,7 @@
         <v>448</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>433</v>
@@ -36162,7 +36163,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>488</v>
@@ -36209,7 +36210,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>488</v>
@@ -36256,7 +36257,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>492</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="1400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="1399">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6075,10 +6075,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_xycd_ sunshine",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>9999999999,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6099,10 +6095,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_xycd_ sunshine",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>86400,3,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6152,6 +6144,10 @@
   </si>
   <si>
     <t>"100万金币","10万-120万随机金币","话费碎片*20"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_xycd_sunshine",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8875,10 +8871,10 @@
   <dimension ref="A1:AM385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="P372" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I78" sqref="I78"/>
+      <selection pane="bottomRight" activeCell="P389" sqref="P389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -13307,7 +13303,7 @@
         <v>249</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -32576,13 +32572,13 @@
         <v>0</v>
       </c>
       <c r="P376" s="45" t="s">
-        <v>1380</v>
+        <v>1398</v>
       </c>
       <c r="Q376" s="50" t="s">
         <v>801</v>
       </c>
       <c r="V376" s="45" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="W376" s="45">
         <v>9999999</v>
@@ -32626,7 +32622,7 @@
         <v>1377</v>
       </c>
       <c r="I377" s="45" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="K377" s="45">
         <v>-31</v>
@@ -32644,13 +32640,13 @@
         <v>300</v>
       </c>
       <c r="P377" s="45" t="s">
-        <v>1380</v>
+        <v>1398</v>
       </c>
       <c r="Q377" s="50" t="s">
         <v>802</v>
       </c>
       <c r="V377" s="45" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="W377" s="45">
         <v>9999999</v>
@@ -32691,10 +32687,10 @@
         <v>1376</v>
       </c>
       <c r="H378" s="45" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I378" s="45" t="s">
         <v>1384</v>
-      </c>
-      <c r="I378" s="45" t="s">
-        <v>1385</v>
       </c>
       <c r="K378" s="45">
         <v>-31</v>
@@ -32712,13 +32708,13 @@
         <v>600</v>
       </c>
       <c r="P378" s="45" t="s">
-        <v>1386</v>
+        <v>1398</v>
       </c>
       <c r="Q378" s="50" t="s">
         <v>803</v>
       </c>
       <c r="V378" s="45" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="W378" s="45">
         <v>9999999</v>
@@ -32759,7 +32755,7 @@
         <v>1375</v>
       </c>
       <c r="H379" s="45" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I379" s="45" t="s">
         <v>957</v>
@@ -32780,10 +32776,10 @@
         <v>1800</v>
       </c>
       <c r="P379" s="45" t="s">
-        <v>1380</v>
+        <v>1398</v>
       </c>
       <c r="Q379" s="50" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="V379" s="45" t="s">
         <v>1360</v>
@@ -32827,7 +32823,7 @@
         <v>1376</v>
       </c>
       <c r="H380" s="45" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I380" s="45" t="s">
         <v>958</v>
@@ -32848,13 +32844,13 @@
         <v>4800</v>
       </c>
       <c r="P380" s="45" t="s">
-        <v>1386</v>
+        <v>1398</v>
       </c>
       <c r="Q380" s="50" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="V380" s="45" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="W380" s="45">
         <v>9999999</v>
@@ -32895,10 +32891,10 @@
         <v>1375</v>
       </c>
       <c r="H381" s="45" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="I381" s="45" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="K381" s="45">
         <v>-31</v>
@@ -32916,13 +32912,13 @@
         <v>0</v>
       </c>
       <c r="P381" s="45" t="s">
-        <v>1386</v>
+        <v>1398</v>
       </c>
       <c r="Q381" s="50" t="s">
         <v>801</v>
       </c>
       <c r="V381" s="45" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="W381" s="45">
         <v>9999999</v>
@@ -32963,10 +32959,10 @@
         <v>1375</v>
       </c>
       <c r="H382" s="45" t="s">
+        <v>1389</v>
+      </c>
+      <c r="I382" s="45" t="s">
         <v>1391</v>
-      </c>
-      <c r="I382" s="45" t="s">
-        <v>1393</v>
       </c>
       <c r="K382" s="45">
         <v>-31</v>
@@ -32984,13 +32980,13 @@
         <v>1800</v>
       </c>
       <c r="P382" s="45" t="s">
-        <v>1380</v>
+        <v>1398</v>
       </c>
       <c r="Q382" s="50" t="s">
         <v>804</v>
       </c>
       <c r="V382" s="45" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="W382" s="45">
         <v>9999999</v>
@@ -33031,7 +33027,7 @@
         <v>1376</v>
       </c>
       <c r="H383" s="45" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="I383" s="45" t="s">
         <v>1353</v>
@@ -33052,7 +33048,7 @@
         <v>4800</v>
       </c>
       <c r="P383" s="45" t="s">
-        <v>1386</v>
+        <v>1398</v>
       </c>
       <c r="Q383" s="50" t="s">
         <v>805</v>
@@ -33099,7 +33095,7 @@
         <v>1375</v>
       </c>
       <c r="H384" s="45" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I384" s="45" t="s">
         <v>1354</v>
@@ -33120,13 +33116,13 @@
         <v>9800</v>
       </c>
       <c r="P384" s="45" t="s">
-        <v>1386</v>
+        <v>1398</v>
       </c>
       <c r="Q384" s="50" t="s">
         <v>808</v>
       </c>
       <c r="V384" s="45" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="W384" s="45">
         <v>9999999</v>
@@ -33167,10 +33163,10 @@
         <v>1375</v>
       </c>
       <c r="H385" s="45" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="I385" s="45" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="K385" s="45">
         <v>-31</v>
@@ -33188,13 +33184,13 @@
         <v>19800</v>
       </c>
       <c r="P385" s="45" t="s">
-        <v>1380</v>
+        <v>1398</v>
       </c>
       <c r="Q385" s="50" t="s">
         <v>809</v>
       </c>
       <c r="V385" s="45" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="W385" s="45">
         <v>9999999</v>
@@ -33855,7 +33851,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="53" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C43" s="52">
         <v>1</v>
@@ -33869,7 +33865,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="53" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C44" s="52">
         <v>1</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="1399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="1398">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6099,14 +6099,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2800000,200,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>6800000,400,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>86400,8,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6148,6 +6140,10 @@
   </si>
   <si>
     <t>"jing_bi","prop_xycd_sunshine",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,-80,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8871,10 +8867,10 @@
   <dimension ref="A1:AM385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P372" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q372" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P389" sqref="P389"/>
+      <selection pane="bottomRight" activeCell="Q391" sqref="Q391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -13303,7 +13299,7 @@
         <v>249</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -32572,7 +32568,7 @@
         <v>0</v>
       </c>
       <c r="P376" s="45" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="Q376" s="50" t="s">
         <v>801</v>
@@ -32640,7 +32636,7 @@
         <v>300</v>
       </c>
       <c r="P377" s="45" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="Q377" s="50" t="s">
         <v>802</v>
@@ -32708,10 +32704,10 @@
         <v>600</v>
       </c>
       <c r="P378" s="45" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="Q378" s="50" t="s">
-        <v>803</v>
+        <v>1397</v>
       </c>
       <c r="V378" s="45" t="s">
         <v>1385</v>
@@ -32776,10 +32772,10 @@
         <v>1800</v>
       </c>
       <c r="P379" s="45" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="Q379" s="50" t="s">
-        <v>1386</v>
+        <v>804</v>
       </c>
       <c r="V379" s="45" t="s">
         <v>1360</v>
@@ -32844,13 +32840,13 @@
         <v>4800</v>
       </c>
       <c r="P380" s="45" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="Q380" s="50" t="s">
-        <v>1387</v>
+        <v>805</v>
       </c>
       <c r="V380" s="45" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="W380" s="45">
         <v>9999999</v>
@@ -32891,10 +32887,10 @@
         <v>1375</v>
       </c>
       <c r="H381" s="45" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I381" s="45" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="K381" s="45">
         <v>-31</v>
@@ -32912,7 +32908,7 @@
         <v>0</v>
       </c>
       <c r="P381" s="45" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="Q381" s="50" t="s">
         <v>801</v>
@@ -32959,10 +32955,10 @@
         <v>1375</v>
       </c>
       <c r="H382" s="45" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I382" s="45" t="s">
         <v>1389</v>
-      </c>
-      <c r="I382" s="45" t="s">
-        <v>1391</v>
       </c>
       <c r="K382" s="45">
         <v>-31</v>
@@ -32980,7 +32976,7 @@
         <v>1800</v>
       </c>
       <c r="P382" s="45" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="Q382" s="50" t="s">
         <v>804</v>
@@ -33027,7 +33023,7 @@
         <v>1376</v>
       </c>
       <c r="H383" s="45" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I383" s="45" t="s">
         <v>1353</v>
@@ -33048,7 +33044,7 @@
         <v>4800</v>
       </c>
       <c r="P383" s="45" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="Q383" s="50" t="s">
         <v>805</v>
@@ -33095,7 +33091,7 @@
         <v>1375</v>
       </c>
       <c r="H384" s="45" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="I384" s="45" t="s">
         <v>1354</v>
@@ -33116,13 +33112,13 @@
         <v>9800</v>
       </c>
       <c r="P384" s="45" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="Q384" s="50" t="s">
         <v>808</v>
       </c>
       <c r="V384" s="45" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="W384" s="45">
         <v>9999999</v>
@@ -33163,10 +33159,10 @@
         <v>1375</v>
       </c>
       <c r="H385" s="45" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I385" s="45" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="K385" s="45">
         <v>-31</v>
@@ -33184,13 +33180,13 @@
         <v>19800</v>
       </c>
       <c r="P385" s="45" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="Q385" s="50" t="s">
         <v>809</v>
       </c>
       <c r="V385" s="45" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="W385" s="45">
         <v>9999999</v>
@@ -33851,7 +33847,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="53" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="C43" s="52">
         <v>1</v>
@@ -33865,7 +33861,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="53" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C44" s="52">
         <v>1</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="1398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3336" uniqueCount="1438">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6144,6 +6144,166 @@
   </si>
   <si>
     <t>1000000,-80,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋铜锤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋银锤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐敲金蛋金锤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V1-V3）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V4-V7）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>（V8-V10）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"300万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","铜锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","银锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","金锤",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_brass_hammer_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_silver_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_gold_hammer_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,3,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,3,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "xycd_029_hlqjd_v1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "xycd_029_hlqjd_v4" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "xycd_029_hlqjd_v8" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -8864,13 +9024,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM385"/>
+  <dimension ref="A1:AM394"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q372" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H373" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q391" sqref="Q391"/>
+      <selection pane="bottomRight" activeCell="H399" sqref="H399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -32465,751 +32625,1363 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A375" s="45">
+    <row r="375" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="5">
         <v>374</v>
       </c>
-      <c r="B375" s="45">
+      <c r="B375" s="5">
         <v>10291</v>
       </c>
-      <c r="F375" s="45">
-        <v>1</v>
-      </c>
-      <c r="G375" s="45" t="s">
+      <c r="F375" s="5">
+        <v>1</v>
+      </c>
+      <c r="G375" s="5" t="s">
         <v>1368</v>
       </c>
-      <c r="H375" s="45" t="s">
+      <c r="H375" s="5" t="s">
         <v>1369</v>
       </c>
-      <c r="I375" s="45" t="s">
+      <c r="I375" s="5" t="s">
         <v>1371</v>
       </c>
-      <c r="K375" s="45">
+      <c r="K375" s="5">
         <v>-31</v>
       </c>
-      <c r="L375" s="45">
-        <v>0</v>
-      </c>
-      <c r="M375" s="45">
-        <v>0</v>
-      </c>
-      <c r="N375" s="45" t="s">
+      <c r="L375" s="5">
+        <v>0</v>
+      </c>
+      <c r="M375" s="5">
+        <v>0</v>
+      </c>
+      <c r="N375" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="O375" s="45">
+      <c r="O375" s="5">
         <v>300</v>
       </c>
-      <c r="P375" s="45" t="s">
+      <c r="P375" s="5" t="s">
         <v>1373</v>
       </c>
-      <c r="Q375" s="50" t="s">
+      <c r="Q375" s="10" t="s">
         <v>1366</v>
       </c>
-      <c r="V375" s="45" t="s">
+      <c r="V375" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="W375" s="45">
+      <c r="W375" s="5">
         <v>9999999</v>
       </c>
-      <c r="X375" s="45">
+      <c r="X375" s="5">
         <v>1599523200</v>
       </c>
-      <c r="Y375" s="45">
+      <c r="Y375" s="5">
         <v>1600099199</v>
       </c>
-      <c r="Z375" s="45">
+      <c r="Z375" s="5">
         <v>14</v>
       </c>
-      <c r="AG375" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH375" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK375" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL375" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A376" s="45">
+      <c r="AG375" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH375" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK375" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL375" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="5">
         <v>375</v>
       </c>
-      <c r="B376" s="45">
+      <c r="B376" s="5">
         <v>10292</v>
       </c>
-      <c r="F376" s="45">
-        <v>1</v>
-      </c>
-      <c r="G376" s="45" t="s">
+      <c r="F376" s="5">
+        <v>1</v>
+      </c>
+      <c r="G376" s="5" t="s">
         <v>1376</v>
       </c>
-      <c r="H376" s="45" t="s">
+      <c r="H376" s="5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="I376" s="5" t="s">
+        <v>1378</v>
+      </c>
+      <c r="K376" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L376" s="5">
+        <v>0</v>
+      </c>
+      <c r="M376" s="5">
+        <v>0</v>
+      </c>
+      <c r="N376" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="O376" s="5">
+        <v>0</v>
+      </c>
+      <c r="P376" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q376" s="10" t="s">
+        <v>801</v>
+      </c>
+      <c r="V376" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="W376" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X376" s="5">
+        <v>1599523200</v>
+      </c>
+      <c r="Y376" s="5">
+        <v>1600099199</v>
+      </c>
+      <c r="Z376" s="5">
+        <v>42</v>
+      </c>
+      <c r="AG376" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH376" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK376" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL376" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A377" s="5">
+        <v>376</v>
+      </c>
+      <c r="B377" s="5">
+        <v>10293</v>
+      </c>
+      <c r="F377" s="5">
+        <v>1</v>
+      </c>
+      <c r="G377" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H377" s="5" t="s">
         <v>1377</v>
       </c>
-      <c r="I376" s="45" t="s">
-        <v>1378</v>
-      </c>
-      <c r="K376" s="45">
+      <c r="I377" s="5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="K377" s="5">
         <v>-31</v>
       </c>
-      <c r="L376" s="45">
-        <v>0</v>
-      </c>
-      <c r="M376" s="45">
-        <v>0</v>
-      </c>
-      <c r="N376" s="45" t="s">
+      <c r="L377" s="5">
+        <v>0</v>
+      </c>
+      <c r="M377" s="5">
+        <v>0</v>
+      </c>
+      <c r="N377" s="5" t="s">
         <v>1379</v>
       </c>
-      <c r="O376" s="45">
-        <v>0</v>
-      </c>
-      <c r="P376" s="45" t="s">
+      <c r="O377" s="5">
+        <v>300</v>
+      </c>
+      <c r="P377" s="5" t="s">
         <v>1396</v>
       </c>
-      <c r="Q376" s="50" t="s">
+      <c r="Q377" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="V377" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W377" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X377" s="5">
+        <v>1599523200</v>
+      </c>
+      <c r="Y377" s="5">
+        <v>1600099199</v>
+      </c>
+      <c r="Z377" s="5">
+        <v>42</v>
+      </c>
+      <c r="AG377" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH377" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK377" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL377" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A378" s="5">
+        <v>377</v>
+      </c>
+      <c r="B378" s="5">
+        <v>10294</v>
+      </c>
+      <c r="F378" s="5">
+        <v>1</v>
+      </c>
+      <c r="G378" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H378" s="5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I378" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="K378" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L378" s="5">
+        <v>0</v>
+      </c>
+      <c r="M378" s="5">
+        <v>0</v>
+      </c>
+      <c r="N378" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="O378" s="5">
+        <v>600</v>
+      </c>
+      <c r="P378" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q378" s="10" t="s">
+        <v>1397</v>
+      </c>
+      <c r="V378" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="W378" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X378" s="5">
+        <v>1599523200</v>
+      </c>
+      <c r="Y378" s="5">
+        <v>1600099199</v>
+      </c>
+      <c r="Z378" s="5">
+        <v>42</v>
+      </c>
+      <c r="AG378" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH378" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK378" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL378" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="5">
+        <v>378</v>
+      </c>
+      <c r="B379" s="5">
+        <v>10295</v>
+      </c>
+      <c r="F379" s="5">
+        <v>1</v>
+      </c>
+      <c r="G379" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H379" s="5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I379" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="K379" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L379" s="5">
+        <v>0</v>
+      </c>
+      <c r="M379" s="5">
+        <v>0</v>
+      </c>
+      <c r="N379" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="O379" s="5">
+        <v>1800</v>
+      </c>
+      <c r="P379" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q379" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="V379" s="5" t="s">
+        <v>1360</v>
+      </c>
+      <c r="W379" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X379" s="5">
+        <v>1599523200</v>
+      </c>
+      <c r="Y379" s="5">
+        <v>1600099199</v>
+      </c>
+      <c r="Z379" s="5">
+        <v>42</v>
+      </c>
+      <c r="AG379" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH379" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK379" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL379" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="5">
+        <v>379</v>
+      </c>
+      <c r="B380" s="5">
+        <v>10296</v>
+      </c>
+      <c r="F380" s="5">
+        <v>1</v>
+      </c>
+      <c r="G380" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H380" s="5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I380" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="K380" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L380" s="5">
+        <v>0</v>
+      </c>
+      <c r="M380" s="5">
+        <v>0</v>
+      </c>
+      <c r="N380" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="O380" s="5">
+        <v>4800</v>
+      </c>
+      <c r="P380" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q380" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="V380" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="W380" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X380" s="5">
+        <v>1599523200</v>
+      </c>
+      <c r="Y380" s="5">
+        <v>1600099199</v>
+      </c>
+      <c r="Z380" s="5">
+        <v>42</v>
+      </c>
+      <c r="AG380" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH380" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK380" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL380" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="5">
+        <v>380</v>
+      </c>
+      <c r="B381" s="5">
+        <v>10297</v>
+      </c>
+      <c r="F381" s="5">
+        <v>1</v>
+      </c>
+      <c r="G381" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H381" s="5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I381" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="K381" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L381" s="5">
+        <v>0</v>
+      </c>
+      <c r="M381" s="5">
+        <v>0</v>
+      </c>
+      <c r="N381" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="O381" s="5">
+        <v>0</v>
+      </c>
+      <c r="P381" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q381" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="V376" s="45" t="s">
+      <c r="V381" s="5" t="s">
         <v>1380</v>
       </c>
-      <c r="W376" s="45">
+      <c r="W381" s="5">
         <v>9999999</v>
       </c>
-      <c r="X376" s="45">
+      <c r="X381" s="5">
         <v>1599523200</v>
       </c>
-      <c r="Y376" s="45">
+      <c r="Y381" s="5">
         <v>1600099199</v>
       </c>
-      <c r="Z376" s="45">
-        <v>42</v>
-      </c>
-      <c r="AG376" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH376" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK376" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL376" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A377" s="45">
-        <v>376</v>
-      </c>
-      <c r="B377" s="45">
-        <v>10293</v>
-      </c>
-      <c r="F377" s="45">
-        <v>1</v>
-      </c>
-      <c r="G377" s="45" t="s">
+      <c r="Z381" s="5">
+        <v>43</v>
+      </c>
+      <c r="AG381" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH381" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK381" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL381" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="5">
+        <v>381</v>
+      </c>
+      <c r="B382" s="5">
+        <v>10298</v>
+      </c>
+      <c r="F382" s="5">
+        <v>1</v>
+      </c>
+      <c r="G382" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H382" s="5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I382" s="5" t="s">
+        <v>1389</v>
+      </c>
+      <c r="K382" s="5">
+        <v>-31</v>
+      </c>
+      <c r="L382" s="5">
+        <v>0</v>
+      </c>
+      <c r="M382" s="5">
+        <v>0</v>
+      </c>
+      <c r="N382" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="O382" s="5">
+        <v>1800</v>
+      </c>
+      <c r="P382" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q382" s="10" t="s">
+        <v>804</v>
+      </c>
+      <c r="V382" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="W382" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X382" s="5">
+        <v>1599523200</v>
+      </c>
+      <c r="Y382" s="5">
+        <v>1600099199</v>
+      </c>
+      <c r="Z382" s="5">
+        <v>43</v>
+      </c>
+      <c r="AG382" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH382" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK382" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL382" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="5">
+        <v>382</v>
+      </c>
+      <c r="B383" s="5">
+        <v>10299</v>
+      </c>
+      <c r="F383" s="5">
+        <v>1</v>
+      </c>
+      <c r="G383" s="5" t="s">
         <v>1376</v>
       </c>
-      <c r="H377" s="45" t="s">
-        <v>1377</v>
-      </c>
-      <c r="I377" s="45" t="s">
-        <v>1381</v>
-      </c>
-      <c r="K377" s="45">
+      <c r="H383" s="5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I383" s="5" t="s">
+        <v>1353</v>
+      </c>
+      <c r="K383" s="5">
         <v>-31</v>
       </c>
-      <c r="L377" s="45">
-        <v>0</v>
-      </c>
-      <c r="M377" s="45">
-        <v>0</v>
-      </c>
-      <c r="N377" s="45" t="s">
+      <c r="L383" s="5">
+        <v>0</v>
+      </c>
+      <c r="M383" s="5">
+        <v>0</v>
+      </c>
+      <c r="N383" s="5" t="s">
         <v>1379</v>
       </c>
-      <c r="O377" s="45">
-        <v>300</v>
-      </c>
-      <c r="P377" s="45" t="s">
+      <c r="O383" s="5">
+        <v>4800</v>
+      </c>
+      <c r="P383" s="5" t="s">
         <v>1396</v>
       </c>
-      <c r="Q377" s="50" t="s">
-        <v>802</v>
-      </c>
-      <c r="V377" s="45" t="s">
-        <v>1382</v>
-      </c>
-      <c r="W377" s="45">
+      <c r="Q383" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="V383" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="W383" s="5">
         <v>9999999</v>
       </c>
-      <c r="X377" s="45">
+      <c r="X383" s="5">
         <v>1599523200</v>
       </c>
-      <c r="Y377" s="45">
+      <c r="Y383" s="5">
         <v>1600099199</v>
       </c>
-      <c r="Z377" s="45">
-        <v>42</v>
-      </c>
-      <c r="AG377" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH377" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK377" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL377" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="378" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A378" s="45">
-        <v>377</v>
-      </c>
-      <c r="B378" s="45">
-        <v>10294</v>
-      </c>
-      <c r="F378" s="45">
-        <v>1</v>
-      </c>
-      <c r="G378" s="45" t="s">
-        <v>1376</v>
-      </c>
-      <c r="H378" s="45" t="s">
-        <v>1383</v>
-      </c>
-      <c r="I378" s="45" t="s">
-        <v>1384</v>
-      </c>
-      <c r="K378" s="45">
+      <c r="Z383" s="5">
+        <v>43</v>
+      </c>
+      <c r="AG383" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH383" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK383" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL383" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="5">
+        <v>383</v>
+      </c>
+      <c r="B384" s="5">
+        <v>10300</v>
+      </c>
+      <c r="F384" s="5">
+        <v>1</v>
+      </c>
+      <c r="G384" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H384" s="5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I384" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="K384" s="5">
         <v>-31</v>
       </c>
-      <c r="L378" s="45">
-        <v>0</v>
-      </c>
-      <c r="M378" s="45">
-        <v>0</v>
-      </c>
-      <c r="N378" s="45" t="s">
-        <v>499</v>
-      </c>
-      <c r="O378" s="45">
-        <v>600</v>
-      </c>
-      <c r="P378" s="45" t="s">
+      <c r="L384" s="5">
+        <v>0</v>
+      </c>
+      <c r="M384" s="5">
+        <v>0</v>
+      </c>
+      <c r="N384" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="O384" s="5">
+        <v>9800</v>
+      </c>
+      <c r="P384" s="5" t="s">
         <v>1396</v>
       </c>
-      <c r="Q378" s="50" t="s">
-        <v>1397</v>
-      </c>
-      <c r="V378" s="45" t="s">
-        <v>1385</v>
-      </c>
-      <c r="W378" s="45">
+      <c r="Q384" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="V384" s="5" t="s">
+        <v>1391</v>
+      </c>
+      <c r="W384" s="5">
         <v>9999999</v>
       </c>
-      <c r="X378" s="45">
+      <c r="X384" s="5">
         <v>1599523200</v>
       </c>
-      <c r="Y378" s="45">
+      <c r="Y384" s="5">
         <v>1600099199</v>
       </c>
-      <c r="Z378" s="45">
-        <v>42</v>
-      </c>
-      <c r="AG378" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH378" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK378" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL378" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A379" s="45">
-        <v>378</v>
-      </c>
-      <c r="B379" s="45">
-        <v>10295</v>
-      </c>
-      <c r="F379" s="45">
-        <v>1</v>
-      </c>
-      <c r="G379" s="45" t="s">
+      <c r="Z384" s="5">
+        <v>43</v>
+      </c>
+      <c r="AG384" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH384" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK384" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL384" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A385" s="5">
+        <v>384</v>
+      </c>
+      <c r="B385" s="5">
+        <v>10301</v>
+      </c>
+      <c r="F385" s="5">
+        <v>1</v>
+      </c>
+      <c r="G385" s="5" t="s">
         <v>1375</v>
       </c>
-      <c r="H379" s="45" t="s">
-        <v>1383</v>
-      </c>
-      <c r="I379" s="45" t="s">
-        <v>957</v>
-      </c>
-      <c r="K379" s="45">
+      <c r="H385" s="5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I385" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K385" s="5">
         <v>-31</v>
       </c>
-      <c r="L379" s="45">
-        <v>0</v>
-      </c>
-      <c r="M379" s="45">
-        <v>0</v>
-      </c>
-      <c r="N379" s="45" t="s">
+      <c r="L385" s="5">
+        <v>0</v>
+      </c>
+      <c r="M385" s="5">
+        <v>0</v>
+      </c>
+      <c r="N385" s="5" t="s">
         <v>1379</v>
       </c>
-      <c r="O379" s="45">
+      <c r="O385" s="5">
+        <v>19800</v>
+      </c>
+      <c r="P385" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="Q385" s="10" t="s">
+        <v>809</v>
+      </c>
+      <c r="V385" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="W385" s="5">
+        <v>9999999</v>
+      </c>
+      <c r="X385" s="5">
+        <v>1599523200</v>
+      </c>
+      <c r="Y385" s="5">
+        <v>1600099199</v>
+      </c>
+      <c r="Z385" s="5">
+        <v>43</v>
+      </c>
+      <c r="AG385" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH385" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK385" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL385" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A386" s="45">
+        <v>385</v>
+      </c>
+      <c r="B386" s="45">
+        <v>10302</v>
+      </c>
+      <c r="F386" s="45">
+        <v>1</v>
+      </c>
+      <c r="G386" s="45" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H386" s="45" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I386" s="45" t="s">
+        <v>1405</v>
+      </c>
+      <c r="K386" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L386" s="45">
+        <v>0</v>
+      </c>
+      <c r="M386" s="45">
+        <v>0</v>
+      </c>
+      <c r="N386" s="45" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O386" s="45">
         <v>1800</v>
       </c>
-      <c r="P379" s="45" t="s">
-        <v>1396</v>
-      </c>
-      <c r="Q379" s="50" t="s">
-        <v>804</v>
-      </c>
-      <c r="V379" s="45" t="s">
-        <v>1360</v>
-      </c>
-      <c r="W379" s="45">
+      <c r="P386" s="45" t="s">
+        <v>1415</v>
+      </c>
+      <c r="Q386" s="50" t="s">
+        <v>1424</v>
+      </c>
+      <c r="V386" s="45" t="s">
+        <v>1434</v>
+      </c>
+      <c r="W386" s="45">
         <v>9999999</v>
       </c>
-      <c r="X379" s="45">
-        <v>1599523200</v>
-      </c>
-      <c r="Y379" s="45">
-        <v>1600099199</v>
-      </c>
-      <c r="Z379" s="45">
-        <v>42</v>
-      </c>
-      <c r="AG379" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH379" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK379" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL379" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A380" s="45">
-        <v>379</v>
-      </c>
-      <c r="B380" s="45">
-        <v>10296</v>
-      </c>
-      <c r="F380" s="45">
-        <v>1</v>
-      </c>
-      <c r="G380" s="45" t="s">
-        <v>1376</v>
-      </c>
-      <c r="H380" s="45" t="s">
-        <v>1383</v>
-      </c>
-      <c r="I380" s="45" t="s">
-        <v>958</v>
-      </c>
-      <c r="K380" s="45">
+      <c r="X386" s="45">
+        <v>1600128000</v>
+      </c>
+      <c r="Y386" s="45">
+        <v>1600703999</v>
+      </c>
+      <c r="Z386" s="45">
+        <v>44</v>
+      </c>
+      <c r="AG386" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH386" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK386" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL386" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="45">
+        <v>386</v>
+      </c>
+      <c r="B387" s="45">
+        <v>10303</v>
+      </c>
+      <c r="F387" s="45">
+        <v>1</v>
+      </c>
+      <c r="G387" s="45" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H387" s="45" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I387" s="45" t="s">
+        <v>1406</v>
+      </c>
+      <c r="K387" s="45">
         <v>-31</v>
       </c>
-      <c r="L380" s="45">
-        <v>0</v>
-      </c>
-      <c r="M380" s="45">
-        <v>0</v>
-      </c>
-      <c r="N380" s="45" t="s">
-        <v>1379</v>
-      </c>
-      <c r="O380" s="45">
+      <c r="L387" s="45">
+        <v>0</v>
+      </c>
+      <c r="M387" s="45">
+        <v>0</v>
+      </c>
+      <c r="N387" s="45" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O387" s="45">
+        <v>3000</v>
+      </c>
+      <c r="P387" s="45" t="s">
+        <v>1417</v>
+      </c>
+      <c r="Q387" s="50" t="s">
+        <v>1425</v>
+      </c>
+      <c r="V387" s="45" t="s">
+        <v>1434</v>
+      </c>
+      <c r="W387" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X387" s="45">
+        <v>1600128000</v>
+      </c>
+      <c r="Y387" s="45">
+        <v>1600703999</v>
+      </c>
+      <c r="Z387" s="45">
+        <v>44</v>
+      </c>
+      <c r="AG387" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH387" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK387" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL387" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="45">
+        <v>387</v>
+      </c>
+      <c r="B388" s="45">
+        <v>10304</v>
+      </c>
+      <c r="F388" s="45">
+        <v>1</v>
+      </c>
+      <c r="G388" s="45" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H388" s="45" t="s">
+        <v>1402</v>
+      </c>
+      <c r="I388" s="45" t="s">
+        <v>1407</v>
+      </c>
+      <c r="K388" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L388" s="45">
+        <v>0</v>
+      </c>
+      <c r="M388" s="45">
+        <v>0</v>
+      </c>
+      <c r="N388" s="45" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O388" s="45">
         <v>4800</v>
       </c>
-      <c r="P380" s="45" t="s">
-        <v>1396</v>
-      </c>
-      <c r="Q380" s="50" t="s">
-        <v>805</v>
-      </c>
-      <c r="V380" s="45" t="s">
-        <v>1386</v>
-      </c>
-      <c r="W380" s="45">
+      <c r="P388" s="45" t="s">
+        <v>1418</v>
+      </c>
+      <c r="Q388" s="50" t="s">
+        <v>1426</v>
+      </c>
+      <c r="V388" s="45" t="s">
+        <v>1434</v>
+      </c>
+      <c r="W388" s="45">
         <v>9999999</v>
       </c>
-      <c r="X380" s="45">
-        <v>1599523200</v>
-      </c>
-      <c r="Y380" s="45">
-        <v>1600099199</v>
-      </c>
-      <c r="Z380" s="45">
-        <v>42</v>
-      </c>
-      <c r="AG380" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH380" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK380" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL380" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A381" s="45">
-        <v>380</v>
-      </c>
-      <c r="B381" s="45">
-        <v>10297</v>
-      </c>
-      <c r="F381" s="45">
-        <v>1</v>
-      </c>
-      <c r="G381" s="45" t="s">
-        <v>1375</v>
-      </c>
-      <c r="H381" s="45" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I381" s="45" t="s">
-        <v>1388</v>
-      </c>
-      <c r="K381" s="45">
+      <c r="X388" s="45">
+        <v>1600128000</v>
+      </c>
+      <c r="Y388" s="45">
+        <v>1600703999</v>
+      </c>
+      <c r="Z388" s="45">
+        <v>44</v>
+      </c>
+      <c r="AG388" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH388" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK388" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL388" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="45">
+        <v>388</v>
+      </c>
+      <c r="B389" s="45">
+        <v>10305</v>
+      </c>
+      <c r="F389" s="45">
+        <v>1</v>
+      </c>
+      <c r="G389" s="45" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H389" s="45" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I389" s="45" t="s">
+        <v>1408</v>
+      </c>
+      <c r="K389" s="45">
         <v>-31</v>
       </c>
-      <c r="L381" s="45">
-        <v>0</v>
-      </c>
-      <c r="M381" s="45">
-        <v>0</v>
-      </c>
-      <c r="N381" s="45" t="s">
-        <v>499</v>
-      </c>
-      <c r="O381" s="45">
-        <v>0</v>
-      </c>
-      <c r="P381" s="45" t="s">
-        <v>1396</v>
-      </c>
-      <c r="Q381" s="50" t="s">
-        <v>801</v>
-      </c>
-      <c r="V381" s="45" t="s">
-        <v>1380</v>
-      </c>
-      <c r="W381" s="45">
+      <c r="L389" s="45">
+        <v>0</v>
+      </c>
+      <c r="M389" s="45">
+        <v>0</v>
+      </c>
+      <c r="N389" s="45" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O389" s="45">
+        <v>4800</v>
+      </c>
+      <c r="P389" s="45" t="s">
+        <v>1419</v>
+      </c>
+      <c r="Q389" s="50" t="s">
+        <v>1427</v>
+      </c>
+      <c r="V389" s="45" t="s">
+        <v>1434</v>
+      </c>
+      <c r="W389" s="45">
         <v>9999999</v>
       </c>
-      <c r="X381" s="45">
-        <v>1599523200</v>
-      </c>
-      <c r="Y381" s="45">
-        <v>1600099199</v>
-      </c>
-      <c r="Z381" s="45">
-        <v>43</v>
-      </c>
-      <c r="AG381" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH381" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK381" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL381" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="382" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A382" s="45">
-        <v>381</v>
-      </c>
-      <c r="B382" s="45">
-        <v>10298</v>
-      </c>
-      <c r="F382" s="45">
-        <v>1</v>
-      </c>
-      <c r="G382" s="45" t="s">
-        <v>1375</v>
-      </c>
-      <c r="H382" s="45" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I382" s="45" t="s">
-        <v>1389</v>
-      </c>
-      <c r="K382" s="45">
+      <c r="X389" s="45">
+        <v>1600128000</v>
+      </c>
+      <c r="Y389" s="45">
+        <v>1600703999</v>
+      </c>
+      <c r="Z389" s="45">
+        <v>45</v>
+      </c>
+      <c r="AG389" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH389" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK389" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL389" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="45">
+        <v>389</v>
+      </c>
+      <c r="B390" s="45">
+        <v>10306</v>
+      </c>
+      <c r="F390" s="45">
+        <v>1</v>
+      </c>
+      <c r="G390" s="45" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H390" s="45" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I390" s="45" t="s">
+        <v>1409</v>
+      </c>
+      <c r="K390" s="45">
         <v>-31</v>
       </c>
-      <c r="L382" s="45">
-        <v>0</v>
-      </c>
-      <c r="M382" s="45">
-        <v>0</v>
-      </c>
-      <c r="N382" s="45" t="s">
-        <v>1379</v>
-      </c>
-      <c r="O382" s="45">
-        <v>1800</v>
-      </c>
-      <c r="P382" s="45" t="s">
-        <v>1396</v>
-      </c>
-      <c r="Q382" s="50" t="s">
-        <v>804</v>
-      </c>
-      <c r="V382" s="45" t="s">
-        <v>1382</v>
-      </c>
-      <c r="W382" s="45">
+      <c r="L390" s="45">
+        <v>0</v>
+      </c>
+      <c r="M390" s="45">
+        <v>0</v>
+      </c>
+      <c r="N390" s="45" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O390" s="45">
+        <v>9800</v>
+      </c>
+      <c r="P390" s="45" t="s">
+        <v>1420</v>
+      </c>
+      <c r="Q390" s="50" t="s">
+        <v>1428</v>
+      </c>
+      <c r="V390" s="45" t="s">
+        <v>1434</v>
+      </c>
+      <c r="W390" s="45">
         <v>9999999</v>
       </c>
-      <c r="X382" s="45">
-        <v>1599523200</v>
-      </c>
-      <c r="Y382" s="45">
-        <v>1600099199</v>
-      </c>
-      <c r="Z382" s="45">
-        <v>43</v>
-      </c>
-      <c r="AG382" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH382" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK382" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL382" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="383" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A383" s="45">
-        <v>382</v>
-      </c>
-      <c r="B383" s="45">
-        <v>10299</v>
-      </c>
-      <c r="F383" s="45">
-        <v>1</v>
-      </c>
-      <c r="G383" s="45" t="s">
-        <v>1376</v>
-      </c>
-      <c r="H383" s="45" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I383" s="45" t="s">
-        <v>1353</v>
-      </c>
-      <c r="K383" s="45">
+      <c r="X390" s="45">
+        <v>1600128000</v>
+      </c>
+      <c r="Y390" s="45">
+        <v>1600703999</v>
+      </c>
+      <c r="Z390" s="45">
+        <v>45</v>
+      </c>
+      <c r="AG390" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH390" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK390" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL390" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="45">
+        <v>390</v>
+      </c>
+      <c r="B391" s="45">
+        <v>10307</v>
+      </c>
+      <c r="F391" s="45">
+        <v>1</v>
+      </c>
+      <c r="G391" s="45" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H391" s="45" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I391" s="45" t="s">
+        <v>1410</v>
+      </c>
+      <c r="K391" s="45">
         <v>-31</v>
       </c>
-      <c r="L383" s="45">
-        <v>0</v>
-      </c>
-      <c r="M383" s="45">
-        <v>0</v>
-      </c>
-      <c r="N383" s="45" t="s">
-        <v>1379</v>
-      </c>
-      <c r="O383" s="45">
-        <v>4800</v>
-      </c>
-      <c r="P383" s="45" t="s">
-        <v>1396</v>
-      </c>
-      <c r="Q383" s="50" t="s">
-        <v>805</v>
-      </c>
-      <c r="V383" s="45" t="s">
-        <v>565</v>
-      </c>
-      <c r="W383" s="45">
+      <c r="L391" s="45">
+        <v>0</v>
+      </c>
+      <c r="M391" s="45">
+        <v>0</v>
+      </c>
+      <c r="N391" s="45" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O391" s="45">
+        <v>19800</v>
+      </c>
+      <c r="P391" s="45" t="s">
+        <v>1421</v>
+      </c>
+      <c r="Q391" s="50" t="s">
+        <v>1429</v>
+      </c>
+      <c r="V391" s="45" t="s">
+        <v>1434</v>
+      </c>
+      <c r="W391" s="45">
         <v>9999999</v>
       </c>
-      <c r="X383" s="45">
-        <v>1599523200</v>
-      </c>
-      <c r="Y383" s="45">
-        <v>1600099199</v>
-      </c>
-      <c r="Z383" s="45">
-        <v>43</v>
-      </c>
-      <c r="AG383" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH383" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK383" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL383" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A384" s="45">
-        <v>383</v>
-      </c>
-      <c r="B384" s="45">
-        <v>10300</v>
-      </c>
-      <c r="F384" s="45">
-        <v>1</v>
-      </c>
-      <c r="G384" s="45" t="s">
-        <v>1375</v>
-      </c>
-      <c r="H384" s="45" t="s">
-        <v>1390</v>
-      </c>
-      <c r="I384" s="45" t="s">
-        <v>1354</v>
-      </c>
-      <c r="K384" s="45">
+      <c r="X391" s="45">
+        <v>1600128000</v>
+      </c>
+      <c r="Y391" s="45">
+        <v>1600703999</v>
+      </c>
+      <c r="Z391" s="45">
+        <v>45</v>
+      </c>
+      <c r="AG391" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH391" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK391" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL391" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="45">
+        <v>391</v>
+      </c>
+      <c r="B392" s="45">
+        <v>10308</v>
+      </c>
+      <c r="F392" s="45">
+        <v>1</v>
+      </c>
+      <c r="G392" s="45" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H392" s="45" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I392" s="45" t="s">
+        <v>1411</v>
+      </c>
+      <c r="K392" s="45">
         <v>-31</v>
       </c>
-      <c r="L384" s="45">
-        <v>0</v>
-      </c>
-      <c r="M384" s="45">
-        <v>0</v>
-      </c>
-      <c r="N384" s="45" t="s">
-        <v>1379</v>
-      </c>
-      <c r="O384" s="45">
+      <c r="L392" s="45">
+        <v>0</v>
+      </c>
+      <c r="M392" s="45">
+        <v>0</v>
+      </c>
+      <c r="N392" s="45" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O392" s="45">
         <v>9800</v>
       </c>
-      <c r="P384" s="45" t="s">
-        <v>1396</v>
-      </c>
-      <c r="Q384" s="50" t="s">
-        <v>808</v>
-      </c>
-      <c r="V384" s="45" t="s">
-        <v>1391</v>
-      </c>
-      <c r="W384" s="45">
+      <c r="P392" s="45" t="s">
+        <v>1416</v>
+      </c>
+      <c r="Q392" s="50" t="s">
+        <v>1430</v>
+      </c>
+      <c r="V392" s="45" t="s">
+        <v>1434</v>
+      </c>
+      <c r="W392" s="45">
         <v>9999999</v>
       </c>
-      <c r="X384" s="45">
-        <v>1599523200</v>
-      </c>
-      <c r="Y384" s="45">
-        <v>1600099199</v>
-      </c>
-      <c r="Z384" s="45">
-        <v>43</v>
-      </c>
-      <c r="AG384" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH384" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK384" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL384" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A385" s="45">
-        <v>384</v>
-      </c>
-      <c r="B385" s="45">
-        <v>10301</v>
-      </c>
-      <c r="F385" s="45">
-        <v>1</v>
-      </c>
-      <c r="G385" s="45" t="s">
-        <v>1375</v>
-      </c>
-      <c r="H385" s="45" t="s">
-        <v>1387</v>
-      </c>
-      <c r="I385" s="45" t="s">
-        <v>1392</v>
-      </c>
-      <c r="K385" s="45">
+      <c r="X392" s="45">
+        <v>1600128000</v>
+      </c>
+      <c r="Y392" s="45">
+        <v>1600703999</v>
+      </c>
+      <c r="Z392" s="45">
+        <v>46</v>
+      </c>
+      <c r="AG392" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH392" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK392" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL392" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="45">
+        <v>392</v>
+      </c>
+      <c r="B393" s="45">
+        <v>10309</v>
+      </c>
+      <c r="F393" s="45">
+        <v>1</v>
+      </c>
+      <c r="G393" s="45" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H393" s="45" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I393" s="45" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K393" s="45">
         <v>-31</v>
       </c>
-      <c r="L385" s="45">
-        <v>0</v>
-      </c>
-      <c r="M385" s="45">
-        <v>0</v>
-      </c>
-      <c r="N385" s="45" t="s">
-        <v>1379</v>
-      </c>
-      <c r="O385" s="45">
+      <c r="L393" s="45">
+        <v>0</v>
+      </c>
+      <c r="M393" s="45">
+        <v>0</v>
+      </c>
+      <c r="N393" s="45" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O393" s="45">
         <v>19800</v>
       </c>
-      <c r="P385" s="45" t="s">
-        <v>1396</v>
-      </c>
-      <c r="Q385" s="50" t="s">
-        <v>809</v>
-      </c>
-      <c r="V385" s="45" t="s">
-        <v>1386</v>
-      </c>
-      <c r="W385" s="45">
+      <c r="P393" s="45" t="s">
+        <v>1422</v>
+      </c>
+      <c r="Q393" s="50" t="s">
+        <v>1432</v>
+      </c>
+      <c r="V393" s="45" t="s">
+        <v>1434</v>
+      </c>
+      <c r="W393" s="45">
         <v>9999999</v>
       </c>
-      <c r="X385" s="45">
-        <v>1599523200</v>
-      </c>
-      <c r="Y385" s="45">
-        <v>1600099199</v>
-      </c>
-      <c r="Z385" s="45">
-        <v>43</v>
-      </c>
-      <c r="AG385" s="45">
-        <v>1</v>
-      </c>
-      <c r="AH385" s="45">
-        <v>1</v>
-      </c>
-      <c r="AK385" s="45">
-        <v>1</v>
-      </c>
-      <c r="AL385" s="45">
+      <c r="X393" s="45">
+        <v>1600128000</v>
+      </c>
+      <c r="Y393" s="45">
+        <v>1600703999</v>
+      </c>
+      <c r="Z393" s="45">
+        <v>46</v>
+      </c>
+      <c r="AG393" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH393" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK393" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL393" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:38" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A394" s="45">
+        <v>393</v>
+      </c>
+      <c r="B394" s="45">
+        <v>10310</v>
+      </c>
+      <c r="F394" s="45">
+        <v>1</v>
+      </c>
+      <c r="G394" s="45" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H394" s="45" t="s">
+        <v>1404</v>
+      </c>
+      <c r="I394" s="45" t="s">
+        <v>1413</v>
+      </c>
+      <c r="K394" s="45">
+        <v>-31</v>
+      </c>
+      <c r="L394" s="45">
+        <v>0</v>
+      </c>
+      <c r="M394" s="45">
+        <v>0</v>
+      </c>
+      <c r="N394" s="45" t="s">
+        <v>1414</v>
+      </c>
+      <c r="O394" s="45">
+        <v>49800</v>
+      </c>
+      <c r="P394" s="45" t="s">
+        <v>1423</v>
+      </c>
+      <c r="Q394" s="50" t="s">
+        <v>1431</v>
+      </c>
+      <c r="V394" s="45" t="s">
+        <v>1434</v>
+      </c>
+      <c r="W394" s="45">
+        <v>9999999</v>
+      </c>
+      <c r="X394" s="45">
+        <v>1600128000</v>
+      </c>
+      <c r="Y394" s="45">
+        <v>1600703999</v>
+      </c>
+      <c r="Z394" s="45">
+        <v>46</v>
+      </c>
+      <c r="AG394" s="45">
+        <v>1</v>
+      </c>
+      <c r="AH394" s="45">
+        <v>1</v>
+      </c>
+      <c r="AK394" s="45">
+        <v>1</v>
+      </c>
+      <c r="AL394" s="45">
         <v>1</v>
       </c>
     </row>
@@ -33223,10 +33995,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -33842,31 +34614,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="52">
+    <row r="43" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="18" t="s">
         <v>1393</v>
       </c>
-      <c r="C43" s="52">
-        <v>1</v>
-      </c>
-      <c r="D43" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="52">
+      <c r="C43" s="12">
+        <v>1</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="18" t="s">
         <v>1394</v>
       </c>
-      <c r="C44" s="52">
-        <v>1</v>
-      </c>
-      <c r="D44" s="52">
+      <c r="C44" s="12">
+        <v>1</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="52">
+        <v>44</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C45" s="52">
+        <v>1</v>
+      </c>
+      <c r="D45" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="52">
+        <v>45</v>
+      </c>
+      <c r="B46" s="53" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C46" s="52">
+        <v>1</v>
+      </c>
+      <c r="D46" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="52">
+        <v>46</v>
+      </c>
+      <c r="B47" s="53" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C47" s="52">
+        <v>1</v>
+      </c>
+      <c r="D47" s="52">
         <v>0</v>
       </c>
     </row>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6295,15 +6295,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{type="permission_class",class_value = "xycd_029_hlqjd_v1" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "xycd_029_hlqjd_v4" }</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "xycd_029_hlqjd_v8" }</t>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v1" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v4" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v8" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -33998,7 +33998,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_9.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="1457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="1487">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6376,6 +6376,126 @@
   </si>
   <si>
     <t>"jing_bi","shop_gold_sum","prop_web_chip_huafei"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一帆风顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_1"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>二龙飞腾</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阳开泰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_2"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>四季发财</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_2"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>五福临门</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>六六大顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_3"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>七星高照</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","jing_bi","prop_guess_apple_bet_3"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","10万金币","水滴*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","15万金币","水滴*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万金币","阳光*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","60万金币","阳光*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2980万金币","90万金币","阳光*12",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","150万金币","铁锹*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","300万金币","铁锹*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,600000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,100000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,150000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>29800000,900000,12,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1500000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,3000000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "031_gqfd_gift" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6447,7 +6567,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6502,6 +6622,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -6545,7 +6671,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6707,6 +6833,15 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9102,13 +9237,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM400"/>
+  <dimension ref="A1:AM407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="N226" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="T386" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P253" sqref="P253"/>
+      <selection pane="bottomRight" activeCell="G411" sqref="G411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -32070,7 +32205,7 @@
         <v>10281</v>
       </c>
       <c r="F365" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G365" s="5" t="s">
         <v>1330</v>
@@ -32135,7 +32270,7 @@
         <v>10282</v>
       </c>
       <c r="F366" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G366" s="5" t="s">
         <v>1332</v>
@@ -32200,7 +32335,7 @@
         <v>10283</v>
       </c>
       <c r="F367" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G367" s="5" t="s">
         <v>1331</v>
@@ -32265,7 +32400,7 @@
         <v>10284</v>
       </c>
       <c r="F368" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G368" s="5" t="s">
         <v>1333</v>
@@ -32330,7 +32465,7 @@
         <v>10285</v>
       </c>
       <c r="F369" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G369" s="5" t="s">
         <v>1334</v>
@@ -32395,7 +32530,7 @@
         <v>10286</v>
       </c>
       <c r="F370" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G370" s="5" t="s">
         <v>1347</v>
@@ -32457,7 +32592,7 @@
         <v>10287</v>
       </c>
       <c r="F371" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G371" s="5" t="s">
         <v>1348</v>
@@ -32519,7 +32654,7 @@
         <v>10288</v>
       </c>
       <c r="F372" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G372" s="5" t="s">
         <v>1349</v>
@@ -32581,7 +32716,7 @@
         <v>10289</v>
       </c>
       <c r="F373" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G373" s="5" t="s">
         <v>1350</v>
@@ -32643,7 +32778,7 @@
         <v>10290</v>
       </c>
       <c r="F374" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G374" s="5" t="s">
         <v>1363</v>
@@ -32711,7 +32846,7 @@
         <v>10291</v>
       </c>
       <c r="F375" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G375" s="5" t="s">
         <v>1367</v>
@@ -32847,7 +32982,7 @@
         <v>10293</v>
       </c>
       <c r="F377" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G377" s="5" t="s">
         <v>1375</v>
@@ -32915,7 +33050,7 @@
         <v>10294</v>
       </c>
       <c r="F378" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G378" s="5" t="s">
         <v>1375</v>
@@ -32983,7 +33118,7 @@
         <v>10295</v>
       </c>
       <c r="F379" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G379" s="5" t="s">
         <v>1374</v>
@@ -33051,7 +33186,7 @@
         <v>10296</v>
       </c>
       <c r="F380" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G380" s="5" t="s">
         <v>1375</v>
@@ -33119,7 +33254,7 @@
         <v>10297</v>
       </c>
       <c r="F381" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G381" s="5" t="s">
         <v>1374</v>
@@ -33187,7 +33322,7 @@
         <v>10298</v>
       </c>
       <c r="F382" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G382" s="5" t="s">
         <v>1374</v>
@@ -33255,7 +33390,7 @@
         <v>10299</v>
       </c>
       <c r="F383" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G383" s="5" t="s">
         <v>1375</v>
@@ -33323,7 +33458,7 @@
         <v>10300</v>
       </c>
       <c r="F384" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G384" s="5" t="s">
         <v>1374</v>
@@ -33391,7 +33526,7 @@
         <v>10301</v>
       </c>
       <c r="F385" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G385" s="5" t="s">
         <v>1374</v>
@@ -33459,7 +33594,7 @@
         <v>10302</v>
       </c>
       <c r="F386" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G386" s="5" t="s">
         <v>1397</v>
@@ -33527,7 +33662,7 @@
         <v>10303</v>
       </c>
       <c r="F387" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G387" s="5" t="s">
         <v>1398</v>
@@ -33595,7 +33730,7 @@
         <v>10304</v>
       </c>
       <c r="F388" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G388" s="5" t="s">
         <v>1399</v>
@@ -33663,7 +33798,7 @@
         <v>10305</v>
       </c>
       <c r="F389" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G389" s="5" t="s">
         <v>1397</v>
@@ -33731,7 +33866,7 @@
         <v>10306</v>
       </c>
       <c r="F390" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G390" s="5" t="s">
         <v>1398</v>
@@ -33799,7 +33934,7 @@
         <v>10307</v>
       </c>
       <c r="F391" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G391" s="5" t="s">
         <v>1399</v>
@@ -33867,7 +34002,7 @@
         <v>10308</v>
       </c>
       <c r="F392" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G392" s="5" t="s">
         <v>1397</v>
@@ -33935,7 +34070,7 @@
         <v>10309</v>
       </c>
       <c r="F393" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G393" s="5" t="s">
         <v>1398</v>
@@ -34003,7 +34138,7 @@
         <v>10310</v>
       </c>
       <c r="F394" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G394" s="5" t="s">
         <v>1399</v>
@@ -34432,6 +34567,461 @@
         <v>1</v>
       </c>
       <c r="AL400" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A401" s="54">
+        <v>400</v>
+      </c>
+      <c r="B401" s="54">
+        <v>10317</v>
+      </c>
+      <c r="F401" s="54">
+        <v>1</v>
+      </c>
+      <c r="G401" s="54" t="s">
+        <v>1457</v>
+      </c>
+      <c r="I401" s="54" t="s">
+        <v>1472</v>
+      </c>
+      <c r="K401" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L401" s="54">
+        <v>0</v>
+      </c>
+      <c r="M401" s="54">
+        <v>0</v>
+      </c>
+      <c r="N401" s="54" t="s">
+        <v>1458</v>
+      </c>
+      <c r="O401" s="54">
+        <v>1800</v>
+      </c>
+      <c r="P401" s="54" t="s">
+        <v>1459</v>
+      </c>
+      <c r="Q401" s="54" t="s">
+        <v>1481</v>
+      </c>
+      <c r="V401" s="54" t="s">
+        <v>1460</v>
+      </c>
+      <c r="W401" s="54">
+        <v>99999999</v>
+      </c>
+      <c r="X401" s="54">
+        <v>1601335800</v>
+      </c>
+      <c r="Y401" s="54">
+        <v>1601913599</v>
+      </c>
+      <c r="Z401" s="54">
+        <v>47</v>
+      </c>
+      <c r="AG401" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH401" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK401" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL401" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A402" s="54">
+        <v>401</v>
+      </c>
+      <c r="B402" s="54">
+        <v>10318</v>
+      </c>
+      <c r="F402" s="54">
+        <v>1</v>
+      </c>
+      <c r="G402" s="54" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I402" s="54" t="s">
+        <v>1473</v>
+      </c>
+      <c r="K402" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L402" s="54">
+        <v>0</v>
+      </c>
+      <c r="M402" s="54">
+        <v>0</v>
+      </c>
+      <c r="N402" s="54" t="s">
+        <v>1458</v>
+      </c>
+      <c r="O402" s="54">
+        <v>4800</v>
+      </c>
+      <c r="P402" s="54" t="s">
+        <v>1459</v>
+      </c>
+      <c r="Q402" s="54" t="s">
+        <v>1482</v>
+      </c>
+      <c r="V402" s="54" t="s">
+        <v>1460</v>
+      </c>
+      <c r="W402" s="54">
+        <v>99999999</v>
+      </c>
+      <c r="X402" s="54">
+        <v>1601335800</v>
+      </c>
+      <c r="Y402" s="54">
+        <v>1601913599</v>
+      </c>
+      <c r="Z402" s="54">
+        <v>47</v>
+      </c>
+      <c r="AG402" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH402" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK402" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL402" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A403" s="54">
+        <v>402</v>
+      </c>
+      <c r="B403" s="54">
+        <v>10319</v>
+      </c>
+      <c r="F403" s="54">
+        <v>1</v>
+      </c>
+      <c r="G403" s="54" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I403" s="54" t="s">
+        <v>1474</v>
+      </c>
+      <c r="K403" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L403" s="54">
+        <v>0</v>
+      </c>
+      <c r="M403" s="54">
+        <v>0</v>
+      </c>
+      <c r="N403" s="54" t="s">
+        <v>1463</v>
+      </c>
+      <c r="O403" s="54">
+        <v>9800</v>
+      </c>
+      <c r="P403" s="54" t="s">
+        <v>1464</v>
+      </c>
+      <c r="Q403" s="54" t="s">
+        <v>1479</v>
+      </c>
+      <c r="V403" s="54" t="s">
+        <v>1460</v>
+      </c>
+      <c r="W403" s="54">
+        <v>99999999</v>
+      </c>
+      <c r="X403" s="54">
+        <v>1601335800</v>
+      </c>
+      <c r="Y403" s="54">
+        <v>1601913599</v>
+      </c>
+      <c r="Z403" s="54">
+        <v>47</v>
+      </c>
+      <c r="AG403" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH403" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK403" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL403" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A404" s="54">
+        <v>403</v>
+      </c>
+      <c r="B404" s="54">
+        <v>10320</v>
+      </c>
+      <c r="F404" s="54">
+        <v>1</v>
+      </c>
+      <c r="G404" s="54" t="s">
+        <v>1465</v>
+      </c>
+      <c r="I404" s="54" t="s">
+        <v>1475</v>
+      </c>
+      <c r="K404" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L404" s="54">
+        <v>0</v>
+      </c>
+      <c r="M404" s="54">
+        <v>0</v>
+      </c>
+      <c r="N404" s="54" t="s">
+        <v>1458</v>
+      </c>
+      <c r="O404" s="54">
+        <v>19800</v>
+      </c>
+      <c r="P404" s="54" t="s">
+        <v>1466</v>
+      </c>
+      <c r="Q404" s="54" t="s">
+        <v>1480</v>
+      </c>
+      <c r="V404" s="54" t="s">
+        <v>1460</v>
+      </c>
+      <c r="W404" s="54">
+        <v>99999999</v>
+      </c>
+      <c r="X404" s="54">
+        <v>1601335800</v>
+      </c>
+      <c r="Y404" s="54">
+        <v>1601913599</v>
+      </c>
+      <c r="Z404" s="54">
+        <v>47</v>
+      </c>
+      <c r="AG404" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH404" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK404" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL404" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A405" s="54">
+        <v>404</v>
+      </c>
+      <c r="B405" s="54">
+        <v>10321</v>
+      </c>
+      <c r="F405" s="54">
+        <v>1</v>
+      </c>
+      <c r="G405" s="54" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I405" s="54" t="s">
+        <v>1476</v>
+      </c>
+      <c r="K405" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L405" s="54">
+        <v>0</v>
+      </c>
+      <c r="M405" s="54">
+        <v>0</v>
+      </c>
+      <c r="N405" s="54" t="s">
+        <v>1463</v>
+      </c>
+      <c r="O405" s="54">
+        <v>29800</v>
+      </c>
+      <c r="P405" s="54" t="s">
+        <v>1466</v>
+      </c>
+      <c r="Q405" s="54" t="s">
+        <v>1483</v>
+      </c>
+      <c r="V405" s="54" t="s">
+        <v>1460</v>
+      </c>
+      <c r="W405" s="54">
+        <v>99999999</v>
+      </c>
+      <c r="X405" s="54">
+        <v>1601335800</v>
+      </c>
+      <c r="Y405" s="54">
+        <v>1601913599</v>
+      </c>
+      <c r="Z405" s="54">
+        <v>47</v>
+      </c>
+      <c r="AG405" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH405" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK405" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL405" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A406" s="54">
+        <v>405</v>
+      </c>
+      <c r="B406" s="54">
+        <v>10322</v>
+      </c>
+      <c r="F406" s="54">
+        <v>1</v>
+      </c>
+      <c r="G406" s="54" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I406" s="54" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K406" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L406" s="54">
+        <v>0</v>
+      </c>
+      <c r="M406" s="54">
+        <v>0</v>
+      </c>
+      <c r="N406" s="54" t="s">
+        <v>1463</v>
+      </c>
+      <c r="O406" s="54">
+        <v>49800</v>
+      </c>
+      <c r="P406" s="54" t="s">
+        <v>1469</v>
+      </c>
+      <c r="Q406" s="54" t="s">
+        <v>1484</v>
+      </c>
+      <c r="V406" s="54" t="s">
+        <v>1460</v>
+      </c>
+      <c r="W406" s="54">
+        <v>99999999</v>
+      </c>
+      <c r="X406" s="54">
+        <v>1601335800</v>
+      </c>
+      <c r="Y406" s="54">
+        <v>1601913599</v>
+      </c>
+      <c r="Z406" s="54">
+        <v>47</v>
+      </c>
+      <c r="AG406" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH406" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK406" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL406" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A407" s="54">
+        <v>406</v>
+      </c>
+      <c r="B407" s="54">
+        <v>10323</v>
+      </c>
+      <c r="F407" s="54">
+        <v>1</v>
+      </c>
+      <c r="G407" s="54" t="s">
+        <v>1470</v>
+      </c>
+      <c r="I407" s="54" t="s">
+        <v>1478</v>
+      </c>
+      <c r="K407" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L407" s="54">
+        <v>0</v>
+      </c>
+      <c r="M407" s="54">
+        <v>0</v>
+      </c>
+      <c r="N407" s="54" t="s">
+        <v>1463</v>
+      </c>
+      <c r="O407" s="54">
+        <v>99800</v>
+      </c>
+      <c r="P407" s="54" t="s">
+        <v>1471</v>
+      </c>
+      <c r="Q407" s="54" t="s">
+        <v>1485</v>
+      </c>
+      <c r="V407" s="54" t="s">
+        <v>1460</v>
+      </c>
+      <c r="W407" s="54">
+        <v>99999999</v>
+      </c>
+      <c r="X407" s="54">
+        <v>1601335800</v>
+      </c>
+      <c r="Y407" s="54">
+        <v>1601913599</v>
+      </c>
+      <c r="Z407" s="54">
+        <v>47</v>
+      </c>
+      <c r="AG407" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH407" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK407" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL407" s="54">
         <v>1</v>
       </c>
     </row>
@@ -34445,10 +35035,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35131,6 +35721,20 @@
         <v>1</v>
       </c>
       <c r="D47" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="55">
+        <v>47</v>
+      </c>
+      <c r="B48" s="56" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C48" s="55">
+        <v>1</v>
+      </c>
+      <c r="D48" s="55">
         <v>0</v>
       </c>
     </row>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="1487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="1493">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6467,35 +6467,59 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>19800000,600000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,150000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1500000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,3000000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "031_gqfd_gift" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,100000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>9800000,300000,5,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>19800000,600000,8,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1800000,100000,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,150000,8,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>29800000,900000,12,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>49800000,1500000,2,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>99800000,3000000,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type="permission_class",class_value = "031_gqfd_gift" }</t>
+    <t>100,200,300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200,300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200,300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200,300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200,300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_asset_count|赠送财富数量</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6671,7 +6695,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6842,6 +6866,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7306,8 +7336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7320,7 +7350,7 @@
     <col min="10" max="10" width="40.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="30.125" style="2" customWidth="1"/>
     <col min="12" max="12" width="30.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="30.125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="30.125" style="57" customWidth="1"/>
     <col min="14" max="14" width="11.625" style="2" customWidth="1"/>
     <col min="15" max="15" width="30.125" style="2" customWidth="1"/>
     <col min="16" max="18" width="14.875" style="2" customWidth="1"/>
@@ -7377,8 +7407,8 @@
       <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>23</v>
+      <c r="M1" s="45" t="s">
+        <v>1492</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>24</v>
@@ -7469,8 +7499,8 @@
       <c r="L2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>47</v>
+      <c r="M2" s="58" t="s">
+        <v>1487</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>9</v>
@@ -7549,8 +7579,8 @@
       <c r="L3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>47</v>
+      <c r="M3" s="58" t="s">
+        <v>1488</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>9</v>
@@ -7629,8 +7659,8 @@
       <c r="L4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>47</v>
+      <c r="M4" s="58" t="s">
+        <v>1488</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>9</v>
@@ -7709,7 +7739,7 @@
       <c r="L5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="57" t="s">
         <v>47</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -7789,7 +7819,7 @@
       <c r="L6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="57" t="s">
         <v>47</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -7869,7 +7899,7 @@
       <c r="L7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="57" t="s">
         <v>47</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -7949,7 +7979,7 @@
       <c r="L8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="57" t="s">
         <v>47</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -8029,7 +8059,7 @@
       <c r="L9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="57" t="s">
         <v>47</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -8110,8 +8140,8 @@
       <c r="L10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="11" t="s">
-        <v>47</v>
+      <c r="M10" s="58" t="s">
+        <v>1489</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>9</v>
@@ -8193,8 +8223,8 @@
       <c r="L11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="11">
-        <v>100200300</v>
+      <c r="M11" s="57" t="s">
+        <v>47</v>
       </c>
       <c r="N11" s="11" t="s">
         <v>9</v>
@@ -8273,8 +8303,8 @@
       <c r="L12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="11">
-        <v>100200300</v>
+      <c r="M12" s="57" t="s">
+        <v>47</v>
       </c>
       <c r="N12" s="11" t="s">
         <v>9</v>
@@ -8353,8 +8383,8 @@
       <c r="L13" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="11">
-        <v>100200300</v>
+      <c r="M13" s="57" t="s">
+        <v>47</v>
       </c>
       <c r="N13" s="11" t="s">
         <v>9</v>
@@ -8433,8 +8463,8 @@
       <c r="L14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M14" s="11">
-        <v>100200300</v>
+      <c r="M14" s="58" t="s">
+        <v>1489</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>9</v>
@@ -8513,8 +8543,8 @@
       <c r="L15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="11">
-        <v>100200300</v>
+      <c r="M15" s="57" t="s">
+        <v>47</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>9</v>
@@ -8593,8 +8623,8 @@
       <c r="L16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M16" s="11" t="s">
-        <v>47</v>
+      <c r="M16" s="58" t="s">
+        <v>1490</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>9</v>
@@ -8665,7 +8695,7 @@
       <c r="L17" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="57" t="s">
         <v>47</v>
       </c>
       <c r="N17" s="11" t="s">
@@ -8737,7 +8767,7 @@
       <c r="L18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="57" t="s">
         <v>47</v>
       </c>
       <c r="N18" s="11" t="s">
@@ -8809,8 +8839,8 @@
       <c r="L19" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="11" t="s">
-        <v>47</v>
+      <c r="M19" s="58" t="s">
+        <v>1489</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>11</v>
@@ -8881,7 +8911,7 @@
       <c r="L20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="57" t="s">
         <v>47</v>
       </c>
       <c r="N20" s="11" t="s">
@@ -8953,8 +8983,8 @@
       <c r="L21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M21" s="11" t="s">
-        <v>47</v>
+      <c r="M21" s="58" t="s">
+        <v>1491</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>11</v>
@@ -9025,7 +9055,7 @@
       <c r="L22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="M22" s="57" t="s">
         <v>47</v>
       </c>
       <c r="N22" s="11" t="s">
@@ -9097,8 +9127,8 @@
       <c r="L23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="11" t="s">
-        <v>47</v>
+      <c r="M23" s="58" t="s">
+        <v>1489</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>11</v>
@@ -9178,8 +9208,8 @@
       <c r="L24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M24" s="11" t="s">
-        <v>47</v>
+      <c r="M24" s="58" t="s">
+        <v>1489</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>9</v>
@@ -9240,10 +9270,10 @@
   <dimension ref="A1:AM407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="T386" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="P386" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G411" sqref="G411"/>
+      <selection pane="bottomRight" activeCell="Q395" sqref="Q395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -34605,7 +34635,7 @@
         <v>1459</v>
       </c>
       <c r="Q401" s="54" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="V401" s="54" t="s">
         <v>1460</v>
@@ -34670,7 +34700,7 @@
         <v>1459</v>
       </c>
       <c r="Q402" s="54" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="V402" s="54" t="s">
         <v>1460</v>
@@ -34735,7 +34765,7 @@
         <v>1464</v>
       </c>
       <c r="Q403" s="54" t="s">
-        <v>1479</v>
+        <v>1485</v>
       </c>
       <c r="V403" s="54" t="s">
         <v>1460</v>
@@ -34800,7 +34830,7 @@
         <v>1466</v>
       </c>
       <c r="Q404" s="54" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="V404" s="54" t="s">
         <v>1460</v>
@@ -34865,7 +34895,7 @@
         <v>1466</v>
       </c>
       <c r="Q405" s="54" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="V405" s="54" t="s">
         <v>1460</v>
@@ -34930,7 +34960,7 @@
         <v>1469</v>
       </c>
       <c r="Q406" s="54" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="V406" s="54" t="s">
         <v>1460</v>
@@ -34995,7 +35025,7 @@
         <v>1471</v>
       </c>
       <c r="Q407" s="54" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="V407" s="54" t="s">
         <v>1460</v>
@@ -35037,7 +35067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
@@ -35729,7 +35759,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="C48" s="55">
         <v>1</v>
@@ -37404,8 +37434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -7336,7 +7336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -9269,11 +9269,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM407"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P386" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="P362" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q395" sqref="Q395"/>
+      <selection pane="bottomRight" activeCell="F374" sqref="F374:F375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -32808,7 +32808,7 @@
         <v>10290</v>
       </c>
       <c r="F374" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G374" s="5" t="s">
         <v>1363</v>
@@ -32876,7 +32876,7 @@
         <v>10291</v>
       </c>
       <c r="F375" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G375" s="5" t="s">
         <v>1367</v>
@@ -33624,7 +33624,7 @@
         <v>10302</v>
       </c>
       <c r="F386" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G386" s="5" t="s">
         <v>1397</v>
@@ -33692,7 +33692,7 @@
         <v>10303</v>
       </c>
       <c r="F387" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G387" s="5" t="s">
         <v>1398</v>
@@ -33760,7 +33760,7 @@
         <v>10304</v>
       </c>
       <c r="F388" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G388" s="5" t="s">
         <v>1399</v>
@@ -33828,7 +33828,7 @@
         <v>10305</v>
       </c>
       <c r="F389" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G389" s="5" t="s">
         <v>1397</v>
@@ -33896,7 +33896,7 @@
         <v>10306</v>
       </c>
       <c r="F390" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G390" s="5" t="s">
         <v>1398</v>
@@ -33964,7 +33964,7 @@
         <v>10307</v>
       </c>
       <c r="F391" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G391" s="5" t="s">
         <v>1399</v>
@@ -34032,7 +34032,7 @@
         <v>10308</v>
       </c>
       <c r="F392" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G392" s="5" t="s">
         <v>1397</v>
@@ -34100,7 +34100,7 @@
         <v>10309</v>
       </c>
       <c r="F393" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G393" s="5" t="s">
         <v>1398</v>
@@ -34168,7 +34168,7 @@
         <v>10310</v>
       </c>
       <c r="F394" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G394" s="5" t="s">
         <v>1399</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\10.20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="1493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="1516">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6520,6 +6520,98 @@
   </si>
   <si>
     <t>gift_asset_count|赠送财富数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳6元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳20元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳48元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳98元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳198元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳498元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","3000鱼币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","1万鱼币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","3万鱼币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万","10万鱼币","抽奖券*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万","200万鱼币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万鱼币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","fish_coin","prop_cyj_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,3000,1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,30000,10</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,2000000,50</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6707,7 +6799,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6889,6 +6981,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7354,7 +7452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -9328,13 +9426,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM407"/>
+  <dimension ref="A1:AM413"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H377" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H390" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F374" sqref="F374:F375"/>
+      <selection pane="bottomRight" activeCell="Y413" sqref="Y413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -35116,6 +35214,378 @@
         <v>1</v>
       </c>
     </row>
+    <row r="408" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A408" s="61">
+        <v>407</v>
+      </c>
+      <c r="B408" s="61">
+        <v>10324</v>
+      </c>
+      <c r="F408" s="61">
+        <v>1</v>
+      </c>
+      <c r="G408" s="61" t="s">
+        <v>1493</v>
+      </c>
+      <c r="I408" s="61" t="s">
+        <v>1499</v>
+      </c>
+      <c r="K408" s="61">
+        <v>-31</v>
+      </c>
+      <c r="L408" s="61">
+        <v>0</v>
+      </c>
+      <c r="M408" s="61">
+        <v>0</v>
+      </c>
+      <c r="N408" s="61" t="s">
+        <v>499</v>
+      </c>
+      <c r="O408" s="61">
+        <v>600</v>
+      </c>
+      <c r="P408" s="61" t="s">
+        <v>1505</v>
+      </c>
+      <c r="Q408" s="62" t="s">
+        <v>1506</v>
+      </c>
+      <c r="V408" s="61" t="s">
+        <v>1512</v>
+      </c>
+      <c r="W408" s="61">
+        <v>99999999</v>
+      </c>
+      <c r="X408" s="61">
+        <v>1603152000</v>
+      </c>
+      <c r="Y408" s="61">
+        <v>1603727999</v>
+      </c>
+      <c r="AG408" s="61">
+        <v>1</v>
+      </c>
+      <c r="AH408" s="61">
+        <v>1</v>
+      </c>
+      <c r="AK408" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL408" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A409" s="61">
+        <v>408</v>
+      </c>
+      <c r="B409" s="61">
+        <v>10325</v>
+      </c>
+      <c r="F409" s="61">
+        <v>1</v>
+      </c>
+      <c r="G409" s="61" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I409" s="61" t="s">
+        <v>1500</v>
+      </c>
+      <c r="K409" s="61">
+        <v>-31</v>
+      </c>
+      <c r="L409" s="61">
+        <v>0</v>
+      </c>
+      <c r="M409" s="61">
+        <v>0</v>
+      </c>
+      <c r="N409" s="61" t="s">
+        <v>499</v>
+      </c>
+      <c r="O409" s="61">
+        <v>2000</v>
+      </c>
+      <c r="P409" s="61" t="s">
+        <v>1505</v>
+      </c>
+      <c r="Q409" s="62" t="s">
+        <v>1507</v>
+      </c>
+      <c r="V409" s="61" t="s">
+        <v>1513</v>
+      </c>
+      <c r="W409" s="61">
+        <v>99999999</v>
+      </c>
+      <c r="X409" s="61">
+        <v>1603152000</v>
+      </c>
+      <c r="Y409" s="61">
+        <v>1603727999</v>
+      </c>
+      <c r="AG409" s="61">
+        <v>1</v>
+      </c>
+      <c r="AH409" s="61">
+        <v>1</v>
+      </c>
+      <c r="AK409" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL409" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A410" s="61">
+        <v>409</v>
+      </c>
+      <c r="B410" s="61">
+        <v>10326</v>
+      </c>
+      <c r="F410" s="61">
+        <v>1</v>
+      </c>
+      <c r="G410" s="61" t="s">
+        <v>1495</v>
+      </c>
+      <c r="I410" s="61" t="s">
+        <v>1501</v>
+      </c>
+      <c r="K410" s="61">
+        <v>-31</v>
+      </c>
+      <c r="L410" s="61">
+        <v>0</v>
+      </c>
+      <c r="M410" s="61">
+        <v>0</v>
+      </c>
+      <c r="N410" s="61" t="s">
+        <v>499</v>
+      </c>
+      <c r="O410" s="61">
+        <v>4800</v>
+      </c>
+      <c r="P410" s="61" t="s">
+        <v>1505</v>
+      </c>
+      <c r="Q410" s="62" t="s">
+        <v>1508</v>
+      </c>
+      <c r="V410" s="61" t="s">
+        <v>1513</v>
+      </c>
+      <c r="W410" s="61">
+        <v>99999999</v>
+      </c>
+      <c r="X410" s="61">
+        <v>1603152000</v>
+      </c>
+      <c r="Y410" s="61">
+        <v>1603727999</v>
+      </c>
+      <c r="AG410" s="61">
+        <v>1</v>
+      </c>
+      <c r="AH410" s="61">
+        <v>1</v>
+      </c>
+      <c r="AK410" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL410" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A411" s="61">
+        <v>410</v>
+      </c>
+      <c r="B411" s="61">
+        <v>10327</v>
+      </c>
+      <c r="F411" s="61">
+        <v>1</v>
+      </c>
+      <c r="G411" s="61" t="s">
+        <v>1496</v>
+      </c>
+      <c r="I411" s="61" t="s">
+        <v>1502</v>
+      </c>
+      <c r="K411" s="61">
+        <v>-31</v>
+      </c>
+      <c r="L411" s="61">
+        <v>0</v>
+      </c>
+      <c r="M411" s="61">
+        <v>0</v>
+      </c>
+      <c r="N411" s="61" t="s">
+        <v>499</v>
+      </c>
+      <c r="O411" s="61">
+        <v>9800</v>
+      </c>
+      <c r="P411" s="61" t="s">
+        <v>1505</v>
+      </c>
+      <c r="Q411" s="62" t="s">
+        <v>1509</v>
+      </c>
+      <c r="V411" s="61" t="s">
+        <v>1514</v>
+      </c>
+      <c r="W411" s="61">
+        <v>99999999</v>
+      </c>
+      <c r="X411" s="61">
+        <v>1603152000</v>
+      </c>
+      <c r="Y411" s="61">
+        <v>1603727999</v>
+      </c>
+      <c r="AG411" s="61">
+        <v>1</v>
+      </c>
+      <c r="AH411" s="61">
+        <v>1</v>
+      </c>
+      <c r="AK411" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL411" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A412" s="61">
+        <v>411</v>
+      </c>
+      <c r="B412" s="61">
+        <v>10328</v>
+      </c>
+      <c r="F412" s="61">
+        <v>1</v>
+      </c>
+      <c r="G412" s="61" t="s">
+        <v>1497</v>
+      </c>
+      <c r="I412" s="61" t="s">
+        <v>1504</v>
+      </c>
+      <c r="K412" s="61">
+        <v>-31</v>
+      </c>
+      <c r="L412" s="61">
+        <v>0</v>
+      </c>
+      <c r="M412" s="61">
+        <v>0</v>
+      </c>
+      <c r="N412" s="61" t="s">
+        <v>499</v>
+      </c>
+      <c r="O412" s="61">
+        <v>19800</v>
+      </c>
+      <c r="P412" s="61" t="s">
+        <v>1505</v>
+      </c>
+      <c r="Q412" s="62" t="s">
+        <v>1510</v>
+      </c>
+      <c r="V412" s="61" t="s">
+        <v>1515</v>
+      </c>
+      <c r="W412" s="61">
+        <v>99999999</v>
+      </c>
+      <c r="X412" s="61">
+        <v>1603152000</v>
+      </c>
+      <c r="Y412" s="61">
+        <v>1603727999</v>
+      </c>
+      <c r="AG412" s="61">
+        <v>1</v>
+      </c>
+      <c r="AH412" s="61">
+        <v>1</v>
+      </c>
+      <c r="AK412" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL412" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:38" s="61" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A413" s="61">
+        <v>412</v>
+      </c>
+      <c r="B413" s="61">
+        <v>10329</v>
+      </c>
+      <c r="F413" s="61">
+        <v>1</v>
+      </c>
+      <c r="G413" s="61" t="s">
+        <v>1498</v>
+      </c>
+      <c r="I413" s="61" t="s">
+        <v>1503</v>
+      </c>
+      <c r="K413" s="61">
+        <v>-31</v>
+      </c>
+      <c r="L413" s="61">
+        <v>0</v>
+      </c>
+      <c r="M413" s="61">
+        <v>0</v>
+      </c>
+      <c r="N413" s="61" t="s">
+        <v>499</v>
+      </c>
+      <c r="O413" s="61">
+        <v>49800</v>
+      </c>
+      <c r="P413" s="61" t="s">
+        <v>1505</v>
+      </c>
+      <c r="Q413" s="62" t="s">
+        <v>1511</v>
+      </c>
+      <c r="V413" s="61" t="s">
+        <v>1513</v>
+      </c>
+      <c r="W413" s="61">
+        <v>99999999</v>
+      </c>
+      <c r="X413" s="61">
+        <v>1603152000</v>
+      </c>
+      <c r="Y413" s="61">
+        <v>1603727999</v>
+      </c>
+      <c r="AG413" s="61">
+        <v>1</v>
+      </c>
+      <c r="AH413" s="61">
+        <v>1</v>
+      </c>
+      <c r="AK413" s="61">
+        <v>1</v>
+      </c>
+      <c r="AL413" s="61">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35128,7 +35598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="1516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3457" uniqueCount="1517">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6612,6 +6612,10 @@
   </si>
   <si>
     <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "cyfl_034_cylb" }</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6799,7 +6803,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6988,6 +6992,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9428,11 +9438,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM413"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H390" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y413" sqref="Y413"/>
+      <selection pane="bottomRight" activeCell="Z410" sqref="Z410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -35263,6 +35273,9 @@
       <c r="Y408" s="61">
         <v>1603727999</v>
       </c>
+      <c r="Z408" s="61">
+        <v>48</v>
+      </c>
       <c r="AG408" s="61">
         <v>1</v>
       </c>
@@ -35325,6 +35338,9 @@
       <c r="Y409" s="61">
         <v>1603727999</v>
       </c>
+      <c r="Z409" s="61">
+        <v>48</v>
+      </c>
       <c r="AG409" s="61">
         <v>1</v>
       </c>
@@ -35387,6 +35403,9 @@
       <c r="Y410" s="61">
         <v>1603727999</v>
       </c>
+      <c r="Z410" s="61">
+        <v>48</v>
+      </c>
       <c r="AG410" s="61">
         <v>1</v>
       </c>
@@ -35449,6 +35468,9 @@
       <c r="Y411" s="61">
         <v>1603727999</v>
       </c>
+      <c r="Z411" s="61">
+        <v>48</v>
+      </c>
       <c r="AG411" s="61">
         <v>1</v>
       </c>
@@ -35511,6 +35533,9 @@
       <c r="Y412" s="61">
         <v>1603727999</v>
       </c>
+      <c r="Z412" s="61">
+        <v>48</v>
+      </c>
       <c r="AG412" s="61">
         <v>1</v>
       </c>
@@ -35572,6 +35597,9 @@
       </c>
       <c r="Y413" s="61">
         <v>1603727999</v>
+      </c>
+      <c r="Z413" s="61">
+        <v>48</v>
       </c>
       <c r="AG413" s="61">
         <v>1</v>
@@ -35596,10 +35624,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36296,6 +36324,20 @@
         <v>1</v>
       </c>
       <c r="D48" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="63" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="63">
+        <v>48</v>
+      </c>
+      <c r="B49" s="64" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C49" s="63">
+        <v>1</v>
+      </c>
+      <c r="D49" s="63">
         <v>0</v>
       </c>
     </row>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3457" uniqueCount="1517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3457" uniqueCount="1516">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6028,10 +6028,6 @@
   </si>
   <si>
     <t>（免费，小额）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"30万金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -7535,7 +7531,7 @@
         <v>22</v>
       </c>
       <c r="M1" s="45" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>24</v>
@@ -7627,7 +7623,7 @@
         <v>46</v>
       </c>
       <c r="M2" s="58" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>9</v>
@@ -7710,7 +7706,7 @@
         <v>46</v>
       </c>
       <c r="M3" s="58" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>9</v>
@@ -7793,7 +7789,7 @@
         <v>46</v>
       </c>
       <c r="M4" s="58" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>9</v>
@@ -8292,7 +8288,7 @@
         <v>46</v>
       </c>
       <c r="M10" s="58" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="N10" s="11" t="s">
         <v>9</v>
@@ -8621,7 +8617,7 @@
         <v>46</v>
       </c>
       <c r="M14" s="58" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="N14" s="11" t="s">
         <v>9</v>
@@ -8783,7 +8779,7 @@
         <v>46</v>
       </c>
       <c r="M16" s="58" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>9</v>
@@ -9002,7 +8998,7 @@
         <v>46</v>
       </c>
       <c r="M19" s="58" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>11</v>
@@ -9148,7 +9144,7 @@
         <v>46</v>
       </c>
       <c r="M21" s="58" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>11</v>
@@ -9294,7 +9290,7 @@
         <v>46</v>
       </c>
       <c r="M23" s="58" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>11</v>
@@ -9378,7 +9374,7 @@
         <v>46</v>
       </c>
       <c r="M24" s="58" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>9</v>
@@ -9438,11 +9434,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM413"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H390" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="V378" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z410" sqref="Z410"/>
+      <selection pane="bottomRight" activeCell="Y386" sqref="Y386:Y394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -13871,7 +13867,7 @@
         <v>249</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -13892,7 +13888,7 @@
         <v>610</v>
       </c>
       <c r="Q78" s="40" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="V78" s="19" t="s">
         <v>550</v>
@@ -19926,7 +19922,7 @@
         <v>1800</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="Q177" s="40" t="s">
         <v>784</v>
@@ -24888,7 +24884,7 @@
         <v>100</v>
       </c>
       <c r="P253" s="5" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="Q253" s="10" t="s">
         <v>842</v>
@@ -32688,7 +32684,7 @@
         <v>5200</v>
       </c>
       <c r="P369" s="5" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="Q369" s="10" t="s">
         <v>1346</v>
@@ -32986,7 +32982,7 @@
         <v>1364</v>
       </c>
       <c r="I374" s="5" t="s">
-        <v>1369</v>
+        <v>1127</v>
       </c>
       <c r="K374" s="5">
         <v>-31</v>
@@ -33001,10 +32997,10 @@
         <v>499</v>
       </c>
       <c r="O374" s="5">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="P374" s="5" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="Q374" s="10" t="s">
         <v>1365</v>
@@ -33016,10 +33012,10 @@
         <v>9999999</v>
       </c>
       <c r="X374" s="5">
-        <v>1598916600</v>
+        <v>1602547200</v>
       </c>
       <c r="Y374" s="5">
-        <v>1599494399</v>
+        <v>1603123199</v>
       </c>
       <c r="Z374" s="5">
         <v>14</v>
@@ -33054,7 +33050,7 @@
         <v>1368</v>
       </c>
       <c r="I375" s="5" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="K375" s="5">
         <v>-31</v>
@@ -33072,7 +33068,7 @@
         <v>300</v>
       </c>
       <c r="P375" s="5" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="Q375" s="10" t="s">
         <v>1365</v>
@@ -33116,13 +33112,13 @@
         <v>1</v>
       </c>
       <c r="G376" s="5" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H376" s="5" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I376" s="5" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="K376" s="5">
         <v>-31</v>
@@ -33134,19 +33130,19 @@
         <v>0</v>
       </c>
       <c r="N376" s="5" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="O376" s="5">
         <v>0</v>
       </c>
       <c r="P376" s="5" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Q376" s="10" t="s">
         <v>800</v>
       </c>
       <c r="V376" s="5" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="W376" s="5">
         <v>9999999</v>
@@ -33184,13 +33180,13 @@
         <v>0</v>
       </c>
       <c r="G377" s="5" t="s">
+        <v>1374</v>
+      </c>
+      <c r="H377" s="5" t="s">
         <v>1375</v>
       </c>
-      <c r="H377" s="5" t="s">
-        <v>1376</v>
-      </c>
       <c r="I377" s="5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="K377" s="5">
         <v>-31</v>
@@ -33202,19 +33198,19 @@
         <v>0</v>
       </c>
       <c r="N377" s="5" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="O377" s="5">
         <v>300</v>
       </c>
       <c r="P377" s="5" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Q377" s="10" t="s">
         <v>801</v>
       </c>
       <c r="V377" s="5" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="W377" s="5">
         <v>9999999</v>
@@ -33252,13 +33248,13 @@
         <v>0</v>
       </c>
       <c r="G378" s="5" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H378" s="5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="I378" s="5" t="s">
         <v>1382</v>
-      </c>
-      <c r="I378" s="5" t="s">
-        <v>1383</v>
       </c>
       <c r="K378" s="5">
         <v>-31</v>
@@ -33276,13 +33272,13 @@
         <v>600</v>
       </c>
       <c r="P378" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="Q378" s="10" t="s">
         <v>1395</v>
       </c>
-      <c r="Q378" s="10" t="s">
-        <v>1396</v>
-      </c>
       <c r="V378" s="5" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="W378" s="5">
         <v>9999999</v>
@@ -33320,10 +33316,10 @@
         <v>0</v>
       </c>
       <c r="G379" s="5" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H379" s="5" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I379" s="5" t="s">
         <v>956</v>
@@ -33338,13 +33334,13 @@
         <v>0</v>
       </c>
       <c r="N379" s="5" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="O379" s="5">
         <v>1800</v>
       </c>
       <c r="P379" s="5" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Q379" s="10" t="s">
         <v>803</v>
@@ -33388,10 +33384,10 @@
         <v>0</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H380" s="5" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I380" s="5" t="s">
         <v>957</v>
@@ -33406,19 +33402,19 @@
         <v>0</v>
       </c>
       <c r="N380" s="5" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="O380" s="5">
         <v>4800</v>
       </c>
       <c r="P380" s="5" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Q380" s="10" t="s">
         <v>804</v>
       </c>
       <c r="V380" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="W380" s="5">
         <v>9999999</v>
@@ -33456,13 +33452,13 @@
         <v>0</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H381" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="I381" s="5" t="s">
         <v>1386</v>
-      </c>
-      <c r="I381" s="5" t="s">
-        <v>1387</v>
       </c>
       <c r="K381" s="5">
         <v>-31</v>
@@ -33480,13 +33476,13 @@
         <v>0</v>
       </c>
       <c r="P381" s="5" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Q381" s="10" t="s">
         <v>800</v>
       </c>
       <c r="V381" s="5" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="W381" s="5">
         <v>9999999</v>
@@ -33524,13 +33520,13 @@
         <v>0</v>
       </c>
       <c r="G382" s="5" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H382" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I382" s="5" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="K382" s="5">
         <v>-31</v>
@@ -33542,19 +33538,19 @@
         <v>0</v>
       </c>
       <c r="N382" s="5" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="O382" s="5">
         <v>1800</v>
       </c>
       <c r="P382" s="5" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Q382" s="10" t="s">
         <v>803</v>
       </c>
       <c r="V382" s="5" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="W382" s="5">
         <v>9999999</v>
@@ -33592,10 +33588,10 @@
         <v>0</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H383" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I383" s="5" t="s">
         <v>1352</v>
@@ -33610,19 +33606,19 @@
         <v>0</v>
       </c>
       <c r="N383" s="5" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="O383" s="5">
         <v>4800</v>
       </c>
       <c r="P383" s="5" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Q383" s="10" t="s">
         <v>804</v>
       </c>
       <c r="V383" s="5" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="W383" s="5">
         <v>9999999</v>
@@ -33660,10 +33656,10 @@
         <v>0</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H384" s="5" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I384" s="5" t="s">
         <v>1353</v>
@@ -33678,19 +33674,19 @@
         <v>0</v>
       </c>
       <c r="N384" s="5" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="O384" s="5">
         <v>9800</v>
       </c>
       <c r="P384" s="5" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Q384" s="10" t="s">
         <v>807</v>
       </c>
       <c r="V384" s="5" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="W384" s="5">
         <v>9999999</v>
@@ -33728,13 +33724,13 @@
         <v>0</v>
       </c>
       <c r="G385" s="5" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="H385" s="5" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I385" s="5" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="K385" s="5">
         <v>-31</v>
@@ -33746,19 +33742,19 @@
         <v>0</v>
       </c>
       <c r="N385" s="5" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="O385" s="5">
         <v>19800</v>
       </c>
       <c r="P385" s="5" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="Q385" s="10" t="s">
         <v>808</v>
       </c>
       <c r="V385" s="5" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="W385" s="5">
         <v>9999999</v>
@@ -33796,13 +33792,13 @@
         <v>1</v>
       </c>
       <c r="G386" s="5" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H386" s="5" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I386" s="5" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="K386" s="5">
         <v>-31</v>
@@ -33814,28 +33810,28 @@
         <v>0</v>
       </c>
       <c r="N386" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="O386" s="5">
         <v>1800</v>
       </c>
       <c r="P386" s="5" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="Q386" s="10" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="V386" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="W386" s="5">
         <v>9999999</v>
       </c>
       <c r="X386" s="5">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="Y386" s="5">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="Z386" s="5">
         <v>44</v>
@@ -33864,13 +33860,13 @@
         <v>1</v>
       </c>
       <c r="G387" s="5" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H387" s="5" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I387" s="5" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="K387" s="5">
         <v>-31</v>
@@ -33882,28 +33878,28 @@
         <v>0</v>
       </c>
       <c r="N387" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="O387" s="5">
         <v>3000</v>
       </c>
       <c r="P387" s="5" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="Q387" s="10" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="V387" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="W387" s="5">
         <v>9999999</v>
       </c>
       <c r="X387" s="5">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="Y387" s="5">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="Z387" s="5">
         <v>44</v>
@@ -33932,13 +33928,13 @@
         <v>1</v>
       </c>
       <c r="G388" s="5" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H388" s="5" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I388" s="5" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="K388" s="5">
         <v>-31</v>
@@ -33950,28 +33946,28 @@
         <v>0</v>
       </c>
       <c r="N388" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="O388" s="5">
         <v>4800</v>
       </c>
       <c r="P388" s="5" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="Q388" s="10" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="V388" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="W388" s="5">
         <v>9999999</v>
       </c>
       <c r="X388" s="5">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="Y388" s="5">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="Z388" s="5">
         <v>44</v>
@@ -34000,13 +33996,13 @@
         <v>1</v>
       </c>
       <c r="G389" s="5" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H389" s="5" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I389" s="5" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="K389" s="5">
         <v>-31</v>
@@ -34018,28 +34014,28 @@
         <v>0</v>
       </c>
       <c r="N389" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="O389" s="5">
         <v>4800</v>
       </c>
       <c r="P389" s="5" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="Q389" s="10" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="V389" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="W389" s="5">
         <v>9999999</v>
       </c>
       <c r="X389" s="5">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="Y389" s="5">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="Z389" s="5">
         <v>45</v>
@@ -34068,13 +34064,13 @@
         <v>1</v>
       </c>
       <c r="G390" s="5" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H390" s="5" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I390" s="5" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="K390" s="5">
         <v>-31</v>
@@ -34086,28 +34082,28 @@
         <v>0</v>
       </c>
       <c r="N390" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="O390" s="5">
         <v>9800</v>
       </c>
       <c r="P390" s="5" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="Q390" s="10" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="V390" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="W390" s="5">
         <v>9999999</v>
       </c>
       <c r="X390" s="5">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="Y390" s="5">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="Z390" s="5">
         <v>45</v>
@@ -34136,13 +34132,13 @@
         <v>1</v>
       </c>
       <c r="G391" s="5" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H391" s="5" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I391" s="5" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="K391" s="5">
         <v>-31</v>
@@ -34154,28 +34150,28 @@
         <v>0</v>
       </c>
       <c r="N391" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="O391" s="5">
         <v>19800</v>
       </c>
       <c r="P391" s="5" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="Q391" s="10" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="V391" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="W391" s="5">
         <v>9999999</v>
       </c>
       <c r="X391" s="5">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="Y391" s="5">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="Z391" s="5">
         <v>45</v>
@@ -34204,13 +34200,13 @@
         <v>1</v>
       </c>
       <c r="G392" s="5" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="H392" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I392" s="5" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="K392" s="5">
         <v>-31</v>
@@ -34222,28 +34218,28 @@
         <v>0</v>
       </c>
       <c r="N392" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="O392" s="5">
         <v>9800</v>
       </c>
       <c r="P392" s="5" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="Q392" s="10" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="V392" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="W392" s="5">
         <v>9999999</v>
       </c>
       <c r="X392" s="5">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="Y392" s="5">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="Z392" s="5">
         <v>46</v>
@@ -34272,13 +34268,13 @@
         <v>1</v>
       </c>
       <c r="G393" s="5" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="H393" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I393" s="5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="K393" s="5">
         <v>-31</v>
@@ -34290,28 +34286,28 @@
         <v>0</v>
       </c>
       <c r="N393" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="O393" s="5">
         <v>19800</v>
       </c>
       <c r="P393" s="5" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="Q393" s="10" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="V393" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="W393" s="5">
         <v>9999999</v>
       </c>
       <c r="X393" s="5">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="Y393" s="5">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="Z393" s="5">
         <v>46</v>
@@ -34340,13 +34336,13 @@
         <v>1</v>
       </c>
       <c r="G394" s="5" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="H394" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I394" s="5" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="K394" s="5">
         <v>-31</v>
@@ -34358,28 +34354,28 @@
         <v>0</v>
       </c>
       <c r="N394" s="5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="O394" s="5">
         <v>49800</v>
       </c>
       <c r="P394" s="5" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="Q394" s="10" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="V394" s="5" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="W394" s="5">
         <v>9999999</v>
       </c>
       <c r="X394" s="5">
-        <v>1600128000</v>
+        <v>1602547200</v>
       </c>
       <c r="Y394" s="5">
-        <v>1600703999</v>
+        <v>1603123199</v>
       </c>
       <c r="Z394" s="5">
         <v>46</v>
@@ -34408,10 +34404,10 @@
         <v>1</v>
       </c>
       <c r="G395" s="52" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="I395" s="52" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="K395" s="52">
         <v>-31</v>
@@ -34429,10 +34425,10 @@
         <v>600</v>
       </c>
       <c r="P395" s="52" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="Q395" s="53" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="V395" s="52" t="s">
         <v>553</v>
@@ -34470,10 +34466,10 @@
         <v>1</v>
       </c>
       <c r="G396" s="52" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="I396" s="52" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="K396" s="52">
         <v>-31</v>
@@ -34491,10 +34487,10 @@
         <v>2000</v>
       </c>
       <c r="P396" s="52" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="Q396" s="53" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="V396" s="52" t="s">
         <v>553</v>
@@ -34535,7 +34531,7 @@
         <v>301</v>
       </c>
       <c r="I397" s="52" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="K397" s="52">
         <v>-31</v>
@@ -34553,10 +34549,10 @@
         <v>4800</v>
       </c>
       <c r="P397" s="52" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="Q397" s="53" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="V397" s="52" t="s">
         <v>553</v>
@@ -34597,7 +34593,7 @@
         <v>304</v>
       </c>
       <c r="I398" s="52" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="K398" s="52">
         <v>-31</v>
@@ -34615,10 +34611,10 @@
         <v>9800</v>
       </c>
       <c r="P398" s="52" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="Q398" s="53" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="V398" s="52" t="s">
         <v>553</v>
@@ -34656,10 +34652,10 @@
         <v>1</v>
       </c>
       <c r="G399" s="52" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="I399" s="52" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="K399" s="52">
         <v>-31</v>
@@ -34677,10 +34673,10 @@
         <v>19800</v>
       </c>
       <c r="P399" s="52" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="Q399" s="53" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="V399" s="52" t="s">
         <v>553</v>
@@ -34718,10 +34714,10 @@
         <v>1</v>
       </c>
       <c r="G400" s="52" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="I400" s="52" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="K400" s="52">
         <v>-31</v>
@@ -34739,10 +34735,10 @@
         <v>49800</v>
       </c>
       <c r="P400" s="52" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="Q400" s="53" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="V400" s="52" t="s">
         <v>553</v>
@@ -34780,10 +34776,10 @@
         <v>1</v>
       </c>
       <c r="G401" s="54" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="I401" s="54" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="K401" s="54">
         <v>-31</v>
@@ -34795,19 +34791,19 @@
         <v>0</v>
       </c>
       <c r="N401" s="54" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="O401" s="54">
         <v>1800</v>
       </c>
       <c r="P401" s="54" t="s">
+        <v>1458</v>
+      </c>
+      <c r="Q401" s="54" t="s">
+        <v>1483</v>
+      </c>
+      <c r="V401" s="54" t="s">
         <v>1459</v>
-      </c>
-      <c r="Q401" s="54" t="s">
-        <v>1484</v>
-      </c>
-      <c r="V401" s="54" t="s">
-        <v>1460</v>
       </c>
       <c r="W401" s="54">
         <v>99999999</v>
@@ -34845,10 +34841,10 @@
         <v>1</v>
       </c>
       <c r="G402" s="54" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="I402" s="54" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="K402" s="54">
         <v>-31</v>
@@ -34860,19 +34856,19 @@
         <v>0</v>
       </c>
       <c r="N402" s="54" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="O402" s="54">
         <v>4800</v>
       </c>
       <c r="P402" s="54" t="s">
+        <v>1458</v>
+      </c>
+      <c r="Q402" s="54" t="s">
+        <v>1479</v>
+      </c>
+      <c r="V402" s="54" t="s">
         <v>1459</v>
-      </c>
-      <c r="Q402" s="54" t="s">
-        <v>1480</v>
-      </c>
-      <c r="V402" s="54" t="s">
-        <v>1460</v>
       </c>
       <c r="W402" s="54">
         <v>99999999</v>
@@ -34910,10 +34906,10 @@
         <v>1</v>
       </c>
       <c r="G403" s="54" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="I403" s="54" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="K403" s="54">
         <v>-31</v>
@@ -34925,19 +34921,19 @@
         <v>0</v>
       </c>
       <c r="N403" s="54" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="O403" s="54">
         <v>9800</v>
       </c>
       <c r="P403" s="54" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="Q403" s="54" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="V403" s="54" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="W403" s="54">
         <v>99999999</v>
@@ -34975,10 +34971,10 @@
         <v>1</v>
       </c>
       <c r="G404" s="54" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="I404" s="54" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="K404" s="54">
         <v>-31</v>
@@ -34990,19 +34986,19 @@
         <v>0</v>
       </c>
       <c r="N404" s="54" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="O404" s="54">
         <v>19800</v>
       </c>
       <c r="P404" s="54" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="Q404" s="54" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="V404" s="54" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="W404" s="54">
         <v>99999999</v>
@@ -35040,10 +35036,10 @@
         <v>1</v>
       </c>
       <c r="G405" s="54" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="I405" s="54" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="K405" s="54">
         <v>-31</v>
@@ -35055,19 +35051,19 @@
         <v>0</v>
       </c>
       <c r="N405" s="54" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="O405" s="54">
         <v>29800</v>
       </c>
       <c r="P405" s="54" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="Q405" s="54" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="V405" s="54" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="W405" s="54">
         <v>99999999</v>
@@ -35105,10 +35101,10 @@
         <v>1</v>
       </c>
       <c r="G406" s="54" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="I406" s="54" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="K406" s="54">
         <v>-31</v>
@@ -35120,19 +35116,19 @@
         <v>0</v>
       </c>
       <c r="N406" s="54" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="O406" s="54">
         <v>49800</v>
       </c>
       <c r="P406" s="54" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="Q406" s="54" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="V406" s="54" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="W406" s="54">
         <v>99999999</v>
@@ -35170,10 +35166,10 @@
         <v>1</v>
       </c>
       <c r="G407" s="54" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="I407" s="54" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="K407" s="54">
         <v>-31</v>
@@ -35185,19 +35181,19 @@
         <v>0</v>
       </c>
       <c r="N407" s="54" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="O407" s="54">
         <v>99800</v>
       </c>
       <c r="P407" s="54" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="Q407" s="54" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="V407" s="54" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="W407" s="54">
         <v>99999999</v>
@@ -35235,10 +35231,10 @@
         <v>1</v>
       </c>
       <c r="G408" s="61" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="I408" s="61" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="K408" s="61">
         <v>-31</v>
@@ -35256,13 +35252,13 @@
         <v>600</v>
       </c>
       <c r="P408" s="61" t="s">
+        <v>1504</v>
+      </c>
+      <c r="Q408" s="62" t="s">
         <v>1505</v>
       </c>
-      <c r="Q408" s="62" t="s">
-        <v>1506</v>
-      </c>
       <c r="V408" s="61" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="W408" s="61">
         <v>99999999</v>
@@ -35300,10 +35296,10 @@
         <v>1</v>
       </c>
       <c r="G409" s="61" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="I409" s="61" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="K409" s="61">
         <v>-31</v>
@@ -35321,13 +35317,13 @@
         <v>2000</v>
       </c>
       <c r="P409" s="61" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="Q409" s="62" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="V409" s="61" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="W409" s="61">
         <v>99999999</v>
@@ -35365,10 +35361,10 @@
         <v>1</v>
       </c>
       <c r="G410" s="61" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="I410" s="61" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="K410" s="61">
         <v>-31</v>
@@ -35386,13 +35382,13 @@
         <v>4800</v>
       </c>
       <c r="P410" s="61" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="Q410" s="62" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="V410" s="61" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="W410" s="61">
         <v>99999999</v>
@@ -35430,10 +35426,10 @@
         <v>1</v>
       </c>
       <c r="G411" s="61" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="I411" s="61" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="K411" s="61">
         <v>-31</v>
@@ -35451,13 +35447,13 @@
         <v>9800</v>
       </c>
       <c r="P411" s="61" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="Q411" s="62" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="V411" s="61" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="W411" s="61">
         <v>99999999</v>
@@ -35495,10 +35491,10 @@
         <v>1</v>
       </c>
       <c r="G412" s="61" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="I412" s="61" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="K412" s="61">
         <v>-31</v>
@@ -35516,13 +35512,13 @@
         <v>19800</v>
       </c>
       <c r="P412" s="61" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="Q412" s="62" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="V412" s="61" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="W412" s="61">
         <v>99999999</v>
@@ -35560,10 +35556,10 @@
         <v>1</v>
       </c>
       <c r="G413" s="61" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="I413" s="61" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="K413" s="61">
         <v>-31</v>
@@ -35581,13 +35577,13 @@
         <v>49800</v>
       </c>
       <c r="P413" s="61" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="Q413" s="62" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="V413" s="61" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="W413" s="61">
         <v>99999999</v>
@@ -35626,7 +35622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
@@ -36248,7 +36244,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C43" s="12">
         <v>1</v>
@@ -36262,7 +36258,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C44" s="12">
         <v>1</v>
@@ -36276,7 +36272,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="51" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C45" s="50">
         <v>1</v>
@@ -36290,7 +36286,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="C46" s="50">
         <v>1</v>
@@ -36304,7 +36300,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C47" s="50">
         <v>1</v>
@@ -36318,7 +36314,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C48" s="55">
         <v>1</v>
@@ -36332,7 +36328,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="C49" s="63">
         <v>1</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3457" uniqueCount="1516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3457" uniqueCount="1517">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6612,6 +6612,10 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "cyfl_034_cylb" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9435,10 +9439,10 @@
   <dimension ref="A1:AM413"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V378" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H363" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y386" sqref="Y386:Y394"/>
+      <selection pane="bottomRight" activeCell="E374" sqref="E374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -33003,7 +33007,7 @@
         <v>1371</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1365</v>
+        <v>1516</v>
       </c>
       <c r="V374" s="5" t="s">
         <v>1366</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3457" uniqueCount="1515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="1517">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6608,6 +6608,14 @@
   </si>
   <si>
     <t>100000,5,3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>首冲6元加赠</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>620000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9428,13 +9436,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM413"/>
+  <dimension ref="A1:AM414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H397" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q78" sqref="Q78"/>
+      <selection pane="bottomRight" activeCell="A414" sqref="A414:XFD414"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -35603,6 +35611,62 @@
         <v>1</v>
       </c>
       <c r="AL413" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A414" s="5">
+        <v>413</v>
+      </c>
+      <c r="B414" s="5">
+        <v>10330</v>
+      </c>
+      <c r="D414" s="5">
+        <v>1</v>
+      </c>
+      <c r="F414" s="5">
+        <v>1</v>
+      </c>
+      <c r="G414" s="5" t="s">
+        <v>1515</v>
+      </c>
+      <c r="K414" s="5">
+        <v>-4</v>
+      </c>
+      <c r="L414" s="5">
+        <v>0</v>
+      </c>
+      <c r="M414" s="5">
+        <v>0</v>
+      </c>
+      <c r="N414" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O414" s="5">
+        <v>600</v>
+      </c>
+      <c r="P414" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q414" s="10" t="s">
+        <v>1516</v>
+      </c>
+      <c r="V414" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="W414" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="X414" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y414" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AG414" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH414" s="5">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'gift_bag|礼包'!$A$1:$AM$322</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jing_bi|购买鲸币'!$A$1:$AC$25</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="1517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3470" uniqueCount="1520">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6616,6 +6616,18 @@
   </si>
   <si>
     <t>620000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>金鸡送礼</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1万",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9436,13 +9448,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM414"/>
+  <dimension ref="A1:AM415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H397" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H394" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A414" sqref="A414:XFD414"/>
+      <selection pane="bottomRight" activeCell="A415" sqref="A415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -35667,6 +35679,62 @@
         <v>1</v>
       </c>
       <c r="AH414" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A415" s="6">
+        <v>414</v>
+      </c>
+      <c r="B415" s="6">
+        <v>10331</v>
+      </c>
+      <c r="F415" s="6">
+        <v>1</v>
+      </c>
+      <c r="G415" s="6" t="s">
+        <v>1517</v>
+      </c>
+      <c r="I415" s="61" t="s">
+        <v>1518</v>
+      </c>
+      <c r="K415" s="6">
+        <v>-31</v>
+      </c>
+      <c r="L415" s="6">
+        <v>0</v>
+      </c>
+      <c r="M415" s="6">
+        <v>0</v>
+      </c>
+      <c r="N415" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O415" s="5">
+        <v>1000</v>
+      </c>
+      <c r="P415" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q415" s="10" t="s">
+        <v>1519</v>
+      </c>
+      <c r="V415" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="W415" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="X415" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y415" s="5">
+        <v>2552233600</v>
+      </c>
+      <c r="AG415" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH415" s="6">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'gift_bag|礼包'!$A$1:$AM$322</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'jing_bi|购买鲸币'!$A$1:$AC$25</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3470" uniqueCount="1520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="1517">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6616,18 +6616,6 @@
   </si>
   <si>
     <t>620000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>金鸡送礼</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1万",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9448,13 +9436,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM415"/>
+  <dimension ref="A1:AM414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H394" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A415" sqref="A415"/>
+      <selection pane="bottomRight" activeCell="A415" sqref="A415:XFD415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -35679,62 +35667,6 @@
         <v>1</v>
       </c>
       <c r="AH414" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A415" s="6">
-        <v>414</v>
-      </c>
-      <c r="B415" s="6">
-        <v>10331</v>
-      </c>
-      <c r="F415" s="6">
-        <v>1</v>
-      </c>
-      <c r="G415" s="6" t="s">
-        <v>1517</v>
-      </c>
-      <c r="I415" s="61" t="s">
-        <v>1518</v>
-      </c>
-      <c r="K415" s="6">
-        <v>-31</v>
-      </c>
-      <c r="L415" s="6">
-        <v>0</v>
-      </c>
-      <c r="M415" s="6">
-        <v>0</v>
-      </c>
-      <c r="N415" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="O415" s="5">
-        <v>1000</v>
-      </c>
-      <c r="P415" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q415" s="10" t="s">
-        <v>1519</v>
-      </c>
-      <c r="V415" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="W415" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="X415" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y415" s="5">
-        <v>2552233600</v>
-      </c>
-      <c r="AG415" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH415" s="6">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="1517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3491" uniqueCount="1523">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6617,6 +6617,25 @@
   <si>
     <t>620000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日特惠礼包-冲金鸡</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10万金币","10万金币","玩具锤*1",</t>
+  </si>
+  <si>
+    <t>"30万金币","20万金币","玩具锤*2",</t>
+  </si>
+  <si>
+    <t>"60万金币","30万金币","玩具锤*3",</t>
+  </si>
+  <si>
+    <t>"60万金币","20万金币","玩具锤*3",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_hammer_1",</t>
   </si>
 </sst>
 </file>
@@ -7463,7 +7482,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9436,13 +9455,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM414"/>
+  <dimension ref="A1:AM418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H394" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H403" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A415" sqref="A415:XFD415"/>
+      <selection pane="bottomRight" activeCell="A418" sqref="A418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -35667,6 +35686,278 @@
         <v>1</v>
       </c>
       <c r="AH414" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A415" s="5">
+        <v>414</v>
+      </c>
+      <c r="B415" s="19">
+        <v>10331</v>
+      </c>
+      <c r="F415" s="19">
+        <v>1</v>
+      </c>
+      <c r="G415" s="19" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H415" s="19" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I415" s="19" t="s">
+        <v>1518</v>
+      </c>
+      <c r="K415" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L415" s="19">
+        <v>0</v>
+      </c>
+      <c r="M415" s="19">
+        <v>0</v>
+      </c>
+      <c r="N415" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O415" s="19">
+        <v>100</v>
+      </c>
+      <c r="P415" s="19" t="s">
+        <v>1522</v>
+      </c>
+      <c r="Q415" s="40" t="s">
+        <v>778</v>
+      </c>
+      <c r="V415" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="W415" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X415" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y415" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="Z415" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG415" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH415" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK415" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL415" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A416" s="5">
+        <v>415</v>
+      </c>
+      <c r="B416" s="19">
+        <v>10332</v>
+      </c>
+      <c r="F416" s="19">
+        <v>1</v>
+      </c>
+      <c r="G416" s="19" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H416" s="19" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I416" s="19" t="s">
+        <v>1519</v>
+      </c>
+      <c r="K416" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L416" s="19">
+        <v>0</v>
+      </c>
+      <c r="M416" s="19">
+        <v>0</v>
+      </c>
+      <c r="N416" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O416" s="19">
+        <v>300</v>
+      </c>
+      <c r="P416" s="19" t="s">
+        <v>1522</v>
+      </c>
+      <c r="Q416" s="40" t="s">
+        <v>779</v>
+      </c>
+      <c r="V416" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="W416" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X416" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y416" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="Z416" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG416" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH416" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK416" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL416" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A417" s="5">
+        <v>416</v>
+      </c>
+      <c r="B417" s="19">
+        <v>10333</v>
+      </c>
+      <c r="F417" s="19">
+        <v>1</v>
+      </c>
+      <c r="G417" s="19" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H417" s="19" t="s">
+        <v>1310</v>
+      </c>
+      <c r="I417" s="19" t="s">
+        <v>1520</v>
+      </c>
+      <c r="K417" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L417" s="19">
+        <v>0</v>
+      </c>
+      <c r="M417" s="19">
+        <v>0</v>
+      </c>
+      <c r="N417" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O417" s="19">
+        <v>600</v>
+      </c>
+      <c r="P417" s="19" t="s">
+        <v>1522</v>
+      </c>
+      <c r="Q417" s="40" t="s">
+        <v>780</v>
+      </c>
+      <c r="V417" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="W417" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X417" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y417" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="Z417" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG417" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH417" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK417" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL417" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A418" s="5">
+        <v>417</v>
+      </c>
+      <c r="B418" s="19">
+        <v>10334</v>
+      </c>
+      <c r="F418" s="19">
+        <v>1</v>
+      </c>
+      <c r="G418" s="19" t="s">
+        <v>1517</v>
+      </c>
+      <c r="H418" s="19" t="s">
+        <v>1312</v>
+      </c>
+      <c r="I418" s="19" t="s">
+        <v>1521</v>
+      </c>
+      <c r="K418" s="19">
+        <v>-28</v>
+      </c>
+      <c r="L418" s="19">
+        <v>0</v>
+      </c>
+      <c r="M418" s="19">
+        <v>0</v>
+      </c>
+      <c r="N418" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="O418" s="19">
+        <v>600</v>
+      </c>
+      <c r="P418" s="19" t="s">
+        <v>1522</v>
+      </c>
+      <c r="Q418" s="40" t="s">
+        <v>781</v>
+      </c>
+      <c r="V418" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="W418" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="X418" s="19">
+        <v>1581377400</v>
+      </c>
+      <c r="Y418" s="19">
+        <v>2552233600</v>
+      </c>
+      <c r="Z418" s="19">
+        <v>14</v>
+      </c>
+      <c r="AG418" s="19">
+        <v>1</v>
+      </c>
+      <c r="AH418" s="19">
+        <v>1</v>
+      </c>
+      <c r="AK418" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL418" s="19">
         <v>1</v>
       </c>
     </row>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3607" uniqueCount="1582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3601" uniqueCount="1580">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6714,30 +6714,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"200万金币","冰冻*5","锁定*5",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"580万金币","冰冻*10","锁定*10",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1280万金币","冰冻*15","锁定*15",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,5,5,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5800000,10,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>12800000,15,15,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_web_chip_huafei",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6746,27 +6722,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{100000,140000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{300000,400000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{650000,850000,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>9999999999,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>9999999999,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -6866,10 +6826,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>paotai</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6934,6 +6890,42 @@
   </si>
   <si>
     <t>800000,3,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币","冰冻*5","锁定*5","新人宝箱",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"580万金币","冰冻*10","锁定*10","高级宝箱",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1280万金币","冰冻*15","锁定*15","豪华宝箱",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","porp_033_xsbx",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","porp_033_gjbx",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","porp_033_hhbx",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,5,5,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5800000,10,10,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12800000,15,15,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7005,7 +6997,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7060,6 +7052,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -7103,7 +7101,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7265,6 +7263,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7663,16 +7667,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1564</v>
+        <v>1553</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>1560</v>
+        <v>1550</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1561</v>
+        <v>1551</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1562</v>
+        <v>1552</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -9705,11 +9709,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM433"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P409" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="Y412" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G430" sqref="G430"/>
+      <selection pane="bottomRight" activeCell="Y423" sqref="Y423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -36383,13 +36387,13 @@
         <v>1000</v>
       </c>
       <c r="P421" s="19" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="Q421" s="39" t="s">
         <v>1520</v>
       </c>
       <c r="V421" s="19" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
       <c r="W421" s="19">
         <v>9999999</v>
@@ -36404,7 +36408,7 @@
         <v>1177</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="AG421" s="19">
         <v>1</v>
@@ -36419,225 +36423,207 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A422" s="6">
+    <row r="422" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="54">
         <v>421</v>
       </c>
-      <c r="B422" s="5">
+      <c r="B422" s="54">
         <v>10338</v>
       </c>
-      <c r="F422" s="6">
-        <v>1</v>
-      </c>
-      <c r="G422" s="6" t="s">
+      <c r="F422" s="54">
+        <v>1</v>
+      </c>
+      <c r="G422" s="54" t="s">
         <v>1521</v>
       </c>
-      <c r="H422" s="6" t="s">
+      <c r="H422" s="54" t="s">
         <v>1524</v>
       </c>
-      <c r="I422" s="6" t="s">
-        <v>1531</v>
-      </c>
-      <c r="K422" s="6">
+      <c r="I422" s="54" t="s">
+        <v>1571</v>
+      </c>
+      <c r="K422" s="54">
         <v>-31</v>
       </c>
-      <c r="L422" s="6">
-        <v>0</v>
-      </c>
-      <c r="M422" s="6">
-        <v>0</v>
-      </c>
-      <c r="N422" s="5" t="s">
+      <c r="L422" s="54">
+        <v>0</v>
+      </c>
+      <c r="M422" s="54">
+        <v>0</v>
+      </c>
+      <c r="N422" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="O422" s="6">
+      <c r="O422" s="54">
         <v>2000</v>
       </c>
-      <c r="P422" s="6" t="s">
-        <v>1563</v>
-      </c>
-      <c r="Q422" s="48" t="s">
+      <c r="P422" s="54" t="s">
+        <v>1574</v>
+      </c>
+      <c r="Q422" s="55" t="s">
+        <v>1577</v>
+      </c>
+      <c r="V422" s="54" t="s">
         <v>1534</v>
       </c>
-      <c r="V422" s="6" t="s">
-        <v>1543</v>
-      </c>
-      <c r="W422" s="6">
+      <c r="W422" s="54">
         <v>99999999</v>
       </c>
-      <c r="X422" s="6">
+      <c r="X422" s="54">
         <v>1603756800</v>
       </c>
-      <c r="Y422" s="6">
+      <c r="Y422" s="54">
         <v>2552233600</v>
       </c>
-      <c r="Z422" s="6">
+      <c r="Z422" s="54">
         <v>51</v>
       </c>
-      <c r="AA422" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB422" s="6" t="s">
-        <v>1539</v>
-      </c>
-      <c r="AG422" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH422" s="6">
-        <v>1</v>
-      </c>
-      <c r="AK422" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL422" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A423" s="6">
+      <c r="AG422" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH422" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK422" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="54">
         <v>422</v>
       </c>
-      <c r="B423" s="5">
+      <c r="B423" s="54">
         <v>10339</v>
       </c>
-      <c r="F423" s="6">
-        <v>1</v>
-      </c>
-      <c r="G423" s="6" t="s">
+      <c r="F423" s="54">
+        <v>1</v>
+      </c>
+      <c r="G423" s="54" t="s">
         <v>1522</v>
       </c>
-      <c r="H423" s="6" t="s">
+      <c r="H423" s="54" t="s">
         <v>1524</v>
       </c>
-      <c r="I423" s="6" t="s">
-        <v>1532</v>
-      </c>
-      <c r="K423" s="6">
+      <c r="I423" s="54" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K423" s="54">
         <v>-31</v>
       </c>
-      <c r="L423" s="6">
-        <v>0</v>
-      </c>
-      <c r="M423" s="6">
-        <v>0</v>
-      </c>
-      <c r="N423" s="5" t="s">
+      <c r="L423" s="54">
+        <v>0</v>
+      </c>
+      <c r="M423" s="54">
+        <v>0</v>
+      </c>
+      <c r="N423" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="O423" s="6">
+      <c r="O423" s="54">
         <v>5800</v>
       </c>
-      <c r="P423" s="6" t="s">
-        <v>1563</v>
-      </c>
-      <c r="Q423" s="48" t="s">
-        <v>1535</v>
-      </c>
-      <c r="V423" s="6" t="s">
+      <c r="P423" s="54" t="s">
+        <v>1575</v>
+      </c>
+      <c r="Q423" s="55" t="s">
+        <v>1578</v>
+      </c>
+      <c r="V423" s="54" t="s">
         <v>1529</v>
       </c>
-      <c r="W423" s="6">
+      <c r="W423" s="54">
         <v>99999999</v>
       </c>
-      <c r="X423" s="6">
+      <c r="X423" s="54">
         <v>1603756800</v>
       </c>
-      <c r="Y423" s="6">
+      <c r="Y423" s="54">
         <v>2552233600</v>
       </c>
-      <c r="Z423" s="6">
+      <c r="Z423" s="54">
         <v>51</v>
       </c>
-      <c r="AA423" s="6" t="s">
-        <v>1544</v>
-      </c>
-      <c r="AB423" s="6" t="s">
-        <v>1540</v>
-      </c>
-      <c r="AG423" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH423" s="6">
-        <v>1</v>
-      </c>
-      <c r="AK423" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL423" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A424" s="6">
+      <c r="AG423" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH423" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK423" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="54">
         <v>423</v>
       </c>
-      <c r="B424" s="5">
+      <c r="B424" s="54">
         <v>10340</v>
       </c>
-      <c r="F424" s="6">
-        <v>1</v>
-      </c>
-      <c r="G424" s="6" t="s">
+      <c r="F424" s="54">
+        <v>1</v>
+      </c>
+      <c r="G424" s="54" t="s">
         <v>1523</v>
       </c>
-      <c r="H424" s="6" t="s">
+      <c r="H424" s="54" t="s">
         <v>1524</v>
       </c>
-      <c r="I424" s="6" t="s">
-        <v>1533</v>
-      </c>
-      <c r="K424" s="6">
+      <c r="I424" s="54" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K424" s="54">
         <v>-31</v>
       </c>
-      <c r="L424" s="6">
-        <v>0</v>
-      </c>
-      <c r="M424" s="6">
-        <v>0</v>
-      </c>
-      <c r="N424" s="5" t="s">
+      <c r="L424" s="54">
+        <v>0</v>
+      </c>
+      <c r="M424" s="54">
+        <v>0</v>
+      </c>
+      <c r="N424" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="O424" s="6">
+      <c r="O424" s="54">
         <v>12800</v>
       </c>
-      <c r="P424" s="6" t="s">
-        <v>1563</v>
-      </c>
-      <c r="Q424" s="48" t="s">
-        <v>1536</v>
-      </c>
-      <c r="V424" s="6" t="s">
+      <c r="P424" s="54" t="s">
+        <v>1576</v>
+      </c>
+      <c r="Q424" s="55" t="s">
+        <v>1579</v>
+      </c>
+      <c r="V424" s="54" t="s">
         <v>1529</v>
       </c>
-      <c r="W424" s="6">
+      <c r="W424" s="54">
         <v>99999999</v>
       </c>
-      <c r="X424" s="6">
+      <c r="X424" s="54">
         <v>1603756800</v>
       </c>
-      <c r="Y424" s="6">
+      <c r="Y424" s="54">
         <v>2552233600</v>
       </c>
-      <c r="Z424" s="6">
+      <c r="Z424" s="54">
         <v>51</v>
       </c>
-      <c r="AA424" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="AB424" s="6" t="s">
-        <v>1541</v>
-      </c>
-      <c r="AG424" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH424" s="6">
-        <v>1</v>
-      </c>
-      <c r="AK424" s="6">
-        <v>1</v>
-      </c>
-      <c r="AL424" s="6">
+      <c r="AG424" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH424" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK424" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="54">
         <v>1</v>
       </c>
     </row>
@@ -36652,10 +36638,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1545</v>
+        <v>1535</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>1546</v>
+        <v>1536</v>
       </c>
       <c r="K425" s="6">
         <v>-31</v>
@@ -36673,10 +36659,10 @@
         <v>49800</v>
       </c>
       <c r="P425" s="6" t="s">
-        <v>1555</v>
+        <v>1545</v>
       </c>
       <c r="Q425" s="48" t="s">
-        <v>1565</v>
+        <v>1554</v>
       </c>
       <c r="V425" s="6" t="s">
         <v>597</v>
@@ -36708,10 +36694,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1547</v>
+        <v>1537</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>1548</v>
+        <v>1538</v>
       </c>
       <c r="K426" s="6">
         <v>-31</v>
@@ -36729,10 +36715,10 @@
         <v>19800</v>
       </c>
       <c r="P426" s="6" t="s">
-        <v>1556</v>
+        <v>1546</v>
       </c>
       <c r="Q426" s="48" t="s">
-        <v>1565</v>
+        <v>1554</v>
       </c>
       <c r="V426" s="6" t="s">
         <v>597</v>
@@ -36764,10 +36750,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1549</v>
+        <v>1539</v>
       </c>
       <c r="I427" s="6" t="s">
-        <v>1550</v>
+        <v>1540</v>
       </c>
       <c r="K427" s="6">
         <v>-31</v>
@@ -36785,10 +36771,10 @@
         <v>9800</v>
       </c>
       <c r="P427" s="6" t="s">
-        <v>1557</v>
+        <v>1547</v>
       </c>
       <c r="Q427" s="48" t="s">
-        <v>1565</v>
+        <v>1554</v>
       </c>
       <c r="V427" s="6" t="s">
         <v>597</v>
@@ -36820,10 +36806,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1551</v>
+        <v>1541</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>1552</v>
+        <v>1542</v>
       </c>
       <c r="K428" s="6">
         <v>-31</v>
@@ -36841,10 +36827,10 @@
         <v>9800</v>
       </c>
       <c r="P428" s="6" t="s">
-        <v>1558</v>
+        <v>1548</v>
       </c>
       <c r="Q428" s="48" t="s">
-        <v>1565</v>
+        <v>1554</v>
       </c>
       <c r="V428" s="6" t="s">
         <v>597</v>
@@ -36876,10 +36862,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1553</v>
+        <v>1543</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>1554</v>
+        <v>1544</v>
       </c>
       <c r="K429" s="6">
         <v>-31</v>
@@ -36897,10 +36883,10 @@
         <v>4800</v>
       </c>
       <c r="P429" s="6" t="s">
-        <v>1559</v>
+        <v>1549</v>
       </c>
       <c r="Q429" s="48" t="s">
-        <v>1565</v>
+        <v>1554</v>
       </c>
       <c r="V429" s="6" t="s">
         <v>597</v>
@@ -36932,13 +36918,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="19" t="s">
-        <v>1566</v>
+        <v>1555</v>
       </c>
       <c r="H430" s="19" t="s">
-        <v>1567</v>
+        <v>1556</v>
       </c>
       <c r="I430" s="19" t="s">
-        <v>1568</v>
+        <v>1557</v>
       </c>
       <c r="K430" s="19">
         <v>-28</v>
@@ -36956,13 +36942,13 @@
         <v>100</v>
       </c>
       <c r="P430" s="19" t="s">
-        <v>1569</v>
+        <v>1558</v>
       </c>
       <c r="Q430" s="39" t="s">
-        <v>1570</v>
+        <v>1559</v>
       </c>
       <c r="V430" s="19" t="s">
-        <v>1571</v>
+        <v>1560</v>
       </c>
       <c r="W430" s="19">
         <v>9999999</v>
@@ -37000,13 +36986,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="19" t="s">
-        <v>1572</v>
+        <v>1561</v>
       </c>
       <c r="H431" s="19" t="s">
-        <v>1573</v>
+        <v>1562</v>
       </c>
       <c r="I431" s="19" t="s">
-        <v>1574</v>
+        <v>1563</v>
       </c>
       <c r="K431" s="19">
         <v>-28</v>
@@ -37024,10 +37010,10 @@
         <v>300</v>
       </c>
       <c r="P431" s="19" t="s">
-        <v>1569</v>
+        <v>1558</v>
       </c>
       <c r="Q431" s="39" t="s">
-        <v>1575</v>
+        <v>1564</v>
       </c>
       <c r="V431" s="19" t="s">
         <v>551</v>
@@ -37068,13 +37054,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="19" t="s">
-        <v>1572</v>
+        <v>1561</v>
       </c>
       <c r="H432" s="19" t="s">
-        <v>1576</v>
+        <v>1565</v>
       </c>
       <c r="I432" s="19" t="s">
-        <v>1577</v>
+        <v>1566</v>
       </c>
       <c r="K432" s="19">
         <v>-28</v>
@@ -37092,10 +37078,10 @@
         <v>600</v>
       </c>
       <c r="P432" s="19" t="s">
-        <v>1569</v>
+        <v>1558</v>
       </c>
       <c r="Q432" s="39" t="s">
-        <v>1578</v>
+        <v>1567</v>
       </c>
       <c r="V432" s="19" t="s">
         <v>551</v>
@@ -37136,13 +37122,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="19" t="s">
-        <v>1572</v>
+        <v>1561</v>
       </c>
       <c r="H433" s="19" t="s">
-        <v>1579</v>
+        <v>1568</v>
       </c>
       <c r="I433" s="19" t="s">
-        <v>1580</v>
+        <v>1569</v>
       </c>
       <c r="K433" s="19">
         <v>-28</v>
@@ -37160,10 +37146,10 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1569</v>
+        <v>1558</v>
       </c>
       <c r="Q433" s="39" t="s">
-        <v>1581</v>
+        <v>1570</v>
       </c>
       <c r="V433" s="19" t="s">
         <v>551</v>
@@ -37205,8 +37191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD52"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3601" uniqueCount="1580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="1609">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6661,22 +6661,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>新手宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>豪华宝箱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人专享</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>600000,3000,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6719,10 +6703,6 @@
   </si>
   <si>
     <t>{40,50,100},</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9999999999,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -6893,6 +6873,119 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>一帆风顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阳开泰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>二龙腾飞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>四季发财</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>五福临门</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>六六大顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>七星高照</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_cwlb_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","10万小游戏币","水滴*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","15万小游戏币","水滴*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万小游戏币","阳光*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","60万小游戏币","阳光*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2980万金币","90万小游戏币","阳光*12",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万金币","150万小游戏币","铁锹*2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","300万小游戏币","铁锹*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,100000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,3000000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,150000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,600000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>29800000,900000,12,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,1500000,2,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手宝箱</t>
+  </si>
+  <si>
+    <t>新人专享</t>
+  </si>
+  <si>
+    <t>2000000,5,5,1,</t>
+  </si>
+  <si>
+    <t>高级宝箱</t>
+  </si>
+  <si>
+    <t>5800000,10,10,1,</t>
+  </si>
+  <si>
+    <t>豪华宝箱</t>
+  </si>
+  <si>
+    <t>12800000,15,15,1,</t>
+  </si>
+  <si>
     <t>"200万金币","冰冻*5","锁定*5","新人宝箱",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6905,18 +6998,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2000000,5,5,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5800000,10,10,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>12800000,15,15,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_10",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6926,6 +7007,34 @@
   </si>
   <si>
     <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_12",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_sd",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_sd",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_cz",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_cz",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -7054,7 +7163,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7667,16 +7776,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1553</v>
+        <v>1548</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -9707,13 +9816,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM433"/>
+  <dimension ref="A1:AM484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="N403" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H419" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P424" sqref="P424"/>
+      <selection pane="bottomRight" activeCell="A436" sqref="A436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -34886,7 +34995,7 @@
         <v>9800</v>
       </c>
       <c r="P398" s="5" t="s">
-        <v>1438</v>
+        <v>1573</v>
       </c>
       <c r="Q398" s="10" t="s">
         <v>1442</v>
@@ -35530,7 +35639,7 @@
         <v>1495</v>
       </c>
       <c r="Q408" s="10" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="V408" s="5" t="s">
         <v>1496</v>
@@ -35923,7 +36032,7 @@
         <v>1505</v>
       </c>
       <c r="V414" s="5" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="W414" s="14" t="s">
         <v>119</v>
@@ -36053,7 +36162,7 @@
         <v>1272</v>
       </c>
       <c r="Q416" s="48" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="V416" s="6" t="s">
         <v>1512</v>
@@ -36189,7 +36298,7 @@
         <v>1274</v>
       </c>
       <c r="Q418" s="48" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="V418" s="6" t="s">
         <v>1280</v>
@@ -36257,7 +36366,7 @@
         <v>1275</v>
       </c>
       <c r="Q419" s="48" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="V419" s="6" t="s">
         <v>1280</v>
@@ -36325,7 +36434,7 @@
         <v>1276</v>
       </c>
       <c r="Q420" s="48" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="V420" s="6" t="s">
         <v>1280</v>
@@ -36387,13 +36496,13 @@
         <v>1000</v>
       </c>
       <c r="P421" s="19" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="Q421" s="39" t="s">
         <v>1520</v>
       </c>
       <c r="V421" s="19" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="W421" s="19">
         <v>9999999</v>
@@ -36408,7 +36517,7 @@
         <v>1177</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="AG421" s="19">
         <v>1</v>
@@ -36423,207 +36532,207 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A422" s="54">
+    <row r="422" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A422" s="6">
         <v>421</v>
       </c>
-      <c r="B422" s="54">
+      <c r="B422" s="5">
         <v>10338</v>
       </c>
-      <c r="F422" s="54">
-        <v>1</v>
-      </c>
-      <c r="G422" s="54" t="s">
-        <v>1521</v>
-      </c>
-      <c r="H422" s="54" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I422" s="54" t="s">
-        <v>1571</v>
-      </c>
-      <c r="K422" s="54">
+      <c r="F422" s="6">
+        <v>1</v>
+      </c>
+      <c r="G422" s="6" t="s">
+        <v>1589</v>
+      </c>
+      <c r="H422" s="6" t="s">
+        <v>1590</v>
+      </c>
+      <c r="I422" s="6" t="s">
+        <v>1596</v>
+      </c>
+      <c r="K422" s="6">
         <v>-31</v>
       </c>
-      <c r="L422" s="54">
-        <v>0</v>
-      </c>
-      <c r="M422" s="54">
-        <v>0</v>
-      </c>
-      <c r="N422" s="54" t="s">
+      <c r="L422" s="6">
+        <v>0</v>
+      </c>
+      <c r="M422" s="6">
+        <v>0</v>
+      </c>
+      <c r="N422" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="O422" s="54">
+      <c r="O422" s="6">
         <v>2000</v>
       </c>
-      <c r="P422" s="54" t="s">
-        <v>1577</v>
-      </c>
-      <c r="Q422" s="55" t="s">
-        <v>1574</v>
-      </c>
-      <c r="V422" s="54" t="s">
-        <v>1534</v>
-      </c>
-      <c r="W422" s="54">
+      <c r="P422" s="6" t="s">
+        <v>1599</v>
+      </c>
+      <c r="Q422" s="48" t="s">
+        <v>1591</v>
+      </c>
+      <c r="V422" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="W422" s="6">
         <v>99999999</v>
       </c>
-      <c r="X422" s="54">
+      <c r="X422" s="6">
         <v>1603756800</v>
       </c>
-      <c r="Y422" s="54">
+      <c r="Y422" s="6">
         <v>2552233600</v>
       </c>
-      <c r="Z422" s="54">
+      <c r="Z422" s="6">
         <v>51</v>
       </c>
-      <c r="AG422" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH422" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK422" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL422" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="423" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="54">
+      <c r="AG422" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH422" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK422" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL422" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A423" s="6">
         <v>422</v>
       </c>
-      <c r="B423" s="54">
+      <c r="B423" s="5">
         <v>10339</v>
       </c>
-      <c r="F423" s="54">
-        <v>1</v>
-      </c>
-      <c r="G423" s="54" t="s">
-        <v>1522</v>
-      </c>
-      <c r="H423" s="54" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I423" s="54" t="s">
-        <v>1572</v>
-      </c>
-      <c r="K423" s="54">
+      <c r="F423" s="6">
+        <v>1</v>
+      </c>
+      <c r="G423" s="6" t="s">
+        <v>1592</v>
+      </c>
+      <c r="H423" s="6" t="s">
+        <v>1590</v>
+      </c>
+      <c r="I423" s="6" t="s">
+        <v>1597</v>
+      </c>
+      <c r="K423" s="6">
         <v>-31</v>
       </c>
-      <c r="L423" s="54">
-        <v>0</v>
-      </c>
-      <c r="M423" s="54">
-        <v>0</v>
-      </c>
-      <c r="N423" s="54" t="s">
+      <c r="L423" s="6">
+        <v>0</v>
+      </c>
+      <c r="M423" s="6">
+        <v>0</v>
+      </c>
+      <c r="N423" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="O423" s="54">
+      <c r="O423" s="6">
         <v>5800</v>
       </c>
-      <c r="P423" s="54" t="s">
-        <v>1578</v>
-      </c>
-      <c r="Q423" s="55" t="s">
-        <v>1575</v>
-      </c>
-      <c r="V423" s="54" t="s">
-        <v>1529</v>
-      </c>
-      <c r="W423" s="54">
+      <c r="P423" s="6" t="s">
+        <v>1600</v>
+      </c>
+      <c r="Q423" s="48" t="s">
+        <v>1593</v>
+      </c>
+      <c r="V423" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="W423" s="6">
         <v>99999999</v>
       </c>
-      <c r="X423" s="54">
+      <c r="X423" s="6">
         <v>1603756800</v>
       </c>
-      <c r="Y423" s="54">
+      <c r="Y423" s="6">
         <v>2552233600</v>
       </c>
-      <c r="Z423" s="54">
+      <c r="Z423" s="6">
         <v>51</v>
       </c>
-      <c r="AG423" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH423" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK423" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL423" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="424" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="54">
+      <c r="AG423" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH423" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK423" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL423" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A424" s="6">
         <v>423</v>
       </c>
-      <c r="B424" s="54">
+      <c r="B424" s="5">
         <v>10340</v>
       </c>
-      <c r="F424" s="54">
-        <v>1</v>
-      </c>
-      <c r="G424" s="54" t="s">
-        <v>1523</v>
-      </c>
-      <c r="H424" s="54" t="s">
-        <v>1524</v>
-      </c>
-      <c r="I424" s="54" t="s">
-        <v>1573</v>
-      </c>
-      <c r="K424" s="54">
+      <c r="F424" s="6">
+        <v>1</v>
+      </c>
+      <c r="G424" s="6" t="s">
+        <v>1594</v>
+      </c>
+      <c r="H424" s="6" t="s">
+        <v>1590</v>
+      </c>
+      <c r="I424" s="6" t="s">
+        <v>1598</v>
+      </c>
+      <c r="K424" s="6">
         <v>-31</v>
       </c>
-      <c r="L424" s="54">
-        <v>0</v>
-      </c>
-      <c r="M424" s="54">
-        <v>0</v>
-      </c>
-      <c r="N424" s="54" t="s">
+      <c r="L424" s="6">
+        <v>0</v>
+      </c>
+      <c r="M424" s="6">
+        <v>0</v>
+      </c>
+      <c r="N424" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="O424" s="54">
+      <c r="O424" s="6">
         <v>12800</v>
       </c>
-      <c r="P424" s="54" t="s">
-        <v>1579</v>
-      </c>
-      <c r="Q424" s="55" t="s">
-        <v>1576</v>
-      </c>
-      <c r="V424" s="54" t="s">
-        <v>1529</v>
-      </c>
-      <c r="W424" s="54">
+      <c r="P424" s="6" t="s">
+        <v>1601</v>
+      </c>
+      <c r="Q424" s="48" t="s">
+        <v>1595</v>
+      </c>
+      <c r="V424" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="W424" s="6">
         <v>99999999</v>
       </c>
-      <c r="X424" s="54">
+      <c r="X424" s="6">
         <v>1603756800</v>
       </c>
-      <c r="Y424" s="54">
+      <c r="Y424" s="6">
         <v>2552233600</v>
       </c>
-      <c r="Z424" s="54">
+      <c r="Z424" s="6">
         <v>51</v>
       </c>
-      <c r="AG424" s="54">
-        <v>1</v>
-      </c>
-      <c r="AH424" s="54">
-        <v>1</v>
-      </c>
-      <c r="AK424" s="54">
-        <v>1</v>
-      </c>
-      <c r="AL424" s="54">
+      <c r="AG424" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH424" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK424" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL424" s="6">
         <v>1</v>
       </c>
     </row>
@@ -36638,10 +36747,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1535</v>
+        <v>1530</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="K425" s="6">
         <v>-31</v>
@@ -36659,10 +36768,10 @@
         <v>49800</v>
       </c>
       <c r="P425" s="6" t="s">
-        <v>1545</v>
+        <v>1540</v>
       </c>
       <c r="Q425" s="48" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="V425" s="6" t="s">
         <v>597</v>
@@ -36694,10 +36803,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1537</v>
+        <v>1532</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="K426" s="6">
         <v>-31</v>
@@ -36715,10 +36824,10 @@
         <v>19800</v>
       </c>
       <c r="P426" s="6" t="s">
-        <v>1546</v>
+        <v>1541</v>
       </c>
       <c r="Q426" s="48" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="V426" s="6" t="s">
         <v>597</v>
@@ -36750,10 +36859,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="I427" s="6" t="s">
-        <v>1540</v>
+        <v>1535</v>
       </c>
       <c r="K427" s="6">
         <v>-31</v>
@@ -36771,10 +36880,10 @@
         <v>9800</v>
       </c>
       <c r="P427" s="6" t="s">
-        <v>1547</v>
+        <v>1542</v>
       </c>
       <c r="Q427" s="48" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="V427" s="6" t="s">
         <v>597</v>
@@ -36806,10 +36915,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1541</v>
+        <v>1536</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>1542</v>
+        <v>1537</v>
       </c>
       <c r="K428" s="6">
         <v>-31</v>
@@ -36827,10 +36936,10 @@
         <v>9800</v>
       </c>
       <c r="P428" s="6" t="s">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="Q428" s="48" t="s">
-        <v>1554</v>
+        <v>1549</v>
       </c>
       <c r="V428" s="6" t="s">
         <v>597</v>
@@ -36862,10 +36971,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1543</v>
+        <v>1538</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>1544</v>
+        <v>1539</v>
       </c>
       <c r="K429" s="6">
         <v>-31</v>
@@ -36883,10 +36992,10 @@
         <v>4800</v>
       </c>
       <c r="P429" s="6" t="s">
+        <v>1544</v>
+      </c>
+      <c r="Q429" s="48" t="s">
         <v>1549</v>
-      </c>
-      <c r="Q429" s="48" t="s">
-        <v>1554</v>
       </c>
       <c r="V429" s="6" t="s">
         <v>597</v>
@@ -36918,13 +37027,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="19" t="s">
-        <v>1555</v>
+        <v>1550</v>
       </c>
       <c r="H430" s="19" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
       <c r="I430" s="19" t="s">
-        <v>1557</v>
+        <v>1552</v>
       </c>
       <c r="K430" s="19">
         <v>-28</v>
@@ -36942,13 +37051,13 @@
         <v>100</v>
       </c>
       <c r="P430" s="19" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="Q430" s="39" t="s">
-        <v>1559</v>
+        <v>1554</v>
       </c>
       <c r="V430" s="19" t="s">
-        <v>1560</v>
+        <v>1555</v>
       </c>
       <c r="W430" s="19">
         <v>9999999</v>
@@ -36986,13 +37095,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="19" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="H431" s="19" t="s">
-        <v>1562</v>
+        <v>1557</v>
       </c>
       <c r="I431" s="19" t="s">
-        <v>1563</v>
+        <v>1558</v>
       </c>
       <c r="K431" s="19">
         <v>-28</v>
@@ -37010,10 +37119,10 @@
         <v>300</v>
       </c>
       <c r="P431" s="19" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="Q431" s="39" t="s">
-        <v>1564</v>
+        <v>1559</v>
       </c>
       <c r="V431" s="19" t="s">
         <v>551</v>
@@ -37054,13 +37163,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="19" t="s">
+        <v>1556</v>
+      </c>
+      <c r="H432" s="19" t="s">
+        <v>1560</v>
+      </c>
+      <c r="I432" s="19" t="s">
         <v>1561</v>
-      </c>
-      <c r="H432" s="19" t="s">
-        <v>1565</v>
-      </c>
-      <c r="I432" s="19" t="s">
-        <v>1566</v>
       </c>
       <c r="K432" s="19">
         <v>-28</v>
@@ -37078,10 +37187,10 @@
         <v>600</v>
       </c>
       <c r="P432" s="19" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="Q432" s="39" t="s">
-        <v>1567</v>
+        <v>1562</v>
       </c>
       <c r="V432" s="19" t="s">
         <v>551</v>
@@ -37122,13 +37231,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="19" t="s">
-        <v>1561</v>
+        <v>1556</v>
       </c>
       <c r="H433" s="19" t="s">
-        <v>1568</v>
+        <v>1563</v>
       </c>
       <c r="I433" s="19" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="K433" s="19">
         <v>-28</v>
@@ -37146,10 +37255,10 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1558</v>
+        <v>1553</v>
       </c>
       <c r="Q433" s="39" t="s">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="V433" s="19" t="s">
         <v>551</v>
@@ -37176,6 +37285,466 @@
         <v>1</v>
       </c>
       <c r="AL433" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="54">
+        <v>433</v>
+      </c>
+      <c r="B434" s="54">
+        <v>10350</v>
+      </c>
+      <c r="F434" s="54">
+        <v>1</v>
+      </c>
+      <c r="G434" s="54" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H434" s="54" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I434" s="54" t="s">
+        <v>1574</v>
+      </c>
+      <c r="K434" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L434" s="54">
+        <v>0</v>
+      </c>
+      <c r="M434" s="54">
+        <v>0</v>
+      </c>
+      <c r="N434" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O434" s="54">
+        <v>1800</v>
+      </c>
+      <c r="P434" s="54" t="s">
+        <v>1605</v>
+      </c>
+      <c r="Q434" s="55" t="s">
+        <v>1581</v>
+      </c>
+      <c r="V434" s="54" t="s">
+        <v>551</v>
+      </c>
+      <c r="W434" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X434" s="54">
+        <v>1604359800</v>
+      </c>
+      <c r="Y434" s="54">
+        <v>1604937599</v>
+      </c>
+      <c r="AG434" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH434" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK434" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL434" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="54">
+        <v>434</v>
+      </c>
+      <c r="B435" s="54">
+        <v>10351</v>
+      </c>
+      <c r="F435" s="54">
+        <v>1</v>
+      </c>
+      <c r="G435" s="54" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H435" s="54" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I435" s="54" t="s">
+        <v>1575</v>
+      </c>
+      <c r="K435" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L435" s="54">
+        <v>0</v>
+      </c>
+      <c r="M435" s="54">
+        <v>0</v>
+      </c>
+      <c r="N435" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O435" s="54">
+        <v>4800</v>
+      </c>
+      <c r="P435" s="54" t="s">
+        <v>1606</v>
+      </c>
+      <c r="Q435" s="55" t="s">
+        <v>1584</v>
+      </c>
+      <c r="V435" s="54" t="s">
+        <v>551</v>
+      </c>
+      <c r="W435" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X435" s="54">
+        <v>1604359800</v>
+      </c>
+      <c r="Y435" s="54">
+        <v>1604937599</v>
+      </c>
+      <c r="AG435" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH435" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK435" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL435" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="54">
+        <v>435</v>
+      </c>
+      <c r="B436" s="54">
+        <v>10352</v>
+      </c>
+      <c r="F436" s="54">
+        <v>1</v>
+      </c>
+      <c r="G436" s="54" t="s">
+        <v>1567</v>
+      </c>
+      <c r="H436" s="54" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I436" s="54" t="s">
+        <v>1576</v>
+      </c>
+      <c r="K436" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L436" s="54">
+        <v>0</v>
+      </c>
+      <c r="M436" s="54">
+        <v>0</v>
+      </c>
+      <c r="N436" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O436" s="54">
+        <v>9800</v>
+      </c>
+      <c r="P436" s="54" t="s">
+        <v>1602</v>
+      </c>
+      <c r="Q436" s="55" t="s">
+        <v>1582</v>
+      </c>
+      <c r="V436" s="54" t="s">
+        <v>551</v>
+      </c>
+      <c r="W436" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X436" s="54">
+        <v>1604359800</v>
+      </c>
+      <c r="Y436" s="54">
+        <v>1604937599</v>
+      </c>
+      <c r="AG436" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH436" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK436" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL436" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="54">
+        <v>436</v>
+      </c>
+      <c r="B437" s="54">
+        <v>10353</v>
+      </c>
+      <c r="F437" s="54">
+        <v>1</v>
+      </c>
+      <c r="G437" s="54" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H437" s="54" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I437" s="54" t="s">
+        <v>1577</v>
+      </c>
+      <c r="K437" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L437" s="54">
+        <v>0</v>
+      </c>
+      <c r="M437" s="54">
+        <v>0</v>
+      </c>
+      <c r="N437" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O437" s="54">
+        <v>19800</v>
+      </c>
+      <c r="P437" s="54" t="s">
+        <v>1603</v>
+      </c>
+      <c r="Q437" s="55" t="s">
+        <v>1585</v>
+      </c>
+      <c r="V437" s="54" t="s">
+        <v>551</v>
+      </c>
+      <c r="W437" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X437" s="54">
+        <v>1604359800</v>
+      </c>
+      <c r="Y437" s="54">
+        <v>1604937599</v>
+      </c>
+      <c r="AG437" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH437" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK437" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL437" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="54">
+        <v>437</v>
+      </c>
+      <c r="B438" s="54">
+        <v>10354</v>
+      </c>
+      <c r="F438" s="54">
+        <v>1</v>
+      </c>
+      <c r="G438" s="54" t="s">
+        <v>1570</v>
+      </c>
+      <c r="H438" s="54" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I438" s="54" t="s">
+        <v>1578</v>
+      </c>
+      <c r="K438" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L438" s="54">
+        <v>0</v>
+      </c>
+      <c r="M438" s="54">
+        <v>0</v>
+      </c>
+      <c r="N438" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O438" s="54">
+        <v>29800</v>
+      </c>
+      <c r="P438" s="54" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Q438" s="55" t="s">
+        <v>1586</v>
+      </c>
+      <c r="V438" s="54" t="s">
+        <v>551</v>
+      </c>
+      <c r="W438" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X438" s="54">
+        <v>1604359800</v>
+      </c>
+      <c r="Y438" s="54">
+        <v>1604937599</v>
+      </c>
+      <c r="AG438" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH438" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK438" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL438" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="54">
+        <v>438</v>
+      </c>
+      <c r="B439" s="54">
+        <v>10355</v>
+      </c>
+      <c r="F439" s="54">
+        <v>1</v>
+      </c>
+      <c r="G439" s="54" t="s">
+        <v>1571</v>
+      </c>
+      <c r="H439" s="54" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I439" s="54" t="s">
+        <v>1579</v>
+      </c>
+      <c r="K439" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L439" s="54">
+        <v>0</v>
+      </c>
+      <c r="M439" s="54">
+        <v>0</v>
+      </c>
+      <c r="N439" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O439" s="54">
+        <v>49800</v>
+      </c>
+      <c r="P439" s="54" t="s">
+        <v>1607</v>
+      </c>
+      <c r="Q439" s="55" t="s">
+        <v>1587</v>
+      </c>
+      <c r="V439" s="54" t="s">
+        <v>551</v>
+      </c>
+      <c r="W439" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X439" s="54">
+        <v>1604359800</v>
+      </c>
+      <c r="Y439" s="54">
+        <v>1604937599</v>
+      </c>
+      <c r="AG439" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH439" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK439" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL439" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:38" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="54">
+        <v>439</v>
+      </c>
+      <c r="B440" s="54">
+        <v>10356</v>
+      </c>
+      <c r="F440" s="54">
+        <v>1</v>
+      </c>
+      <c r="G440" s="54" t="s">
+        <v>1572</v>
+      </c>
+      <c r="H440" s="54" t="s">
+        <v>1588</v>
+      </c>
+      <c r="I440" s="54" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K440" s="54">
+        <v>-31</v>
+      </c>
+      <c r="L440" s="54">
+        <v>0</v>
+      </c>
+      <c r="M440" s="54">
+        <v>0</v>
+      </c>
+      <c r="N440" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O440" s="54">
+        <v>99800</v>
+      </c>
+      <c r="P440" s="54" t="s">
+        <v>1608</v>
+      </c>
+      <c r="Q440" s="55" t="s">
+        <v>1583</v>
+      </c>
+      <c r="V440" s="54" t="s">
+        <v>551</v>
+      </c>
+      <c r="W440" s="54">
+        <v>9999999</v>
+      </c>
+      <c r="X440" s="54">
+        <v>1604359800</v>
+      </c>
+      <c r="Y440" s="54">
+        <v>1604937599</v>
+      </c>
+      <c r="AG440" s="54">
+        <v>1</v>
+      </c>
+      <c r="AH440" s="54">
+        <v>1</v>
+      </c>
+      <c r="AK440" s="54">
+        <v>1</v>
+      </c>
+      <c r="AL440" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I484" s="6">
         <v>1</v>
       </c>
     </row>
@@ -37192,7 +37761,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -37939,7 +38508,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -6905,18 +6905,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","porp_033_xsbx",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","porp_033_gjbx",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","porp_033_hhbx",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>2000000,5,5,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6926,6 +6914,18 @@
   </si>
   <si>
     <t>12800000,15,15,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_11",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_3d_fish_frozen","prop_3d_fish_lock","prop_cjlb_12",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9710,10 +9710,10 @@
   <dimension ref="A1:AM433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Y412" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="N403" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y423" sqref="Y423"/>
+      <selection pane="bottomRight" activeCell="P424" sqref="P424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -36458,10 +36458,10 @@
         <v>2000</v>
       </c>
       <c r="P422" s="54" t="s">
+        <v>1577</v>
+      </c>
+      <c r="Q422" s="55" t="s">
         <v>1574</v>
-      </c>
-      <c r="Q422" s="55" t="s">
-        <v>1577</v>
       </c>
       <c r="V422" s="54" t="s">
         <v>1534</v>
@@ -36526,10 +36526,10 @@
         <v>5800</v>
       </c>
       <c r="P423" s="54" t="s">
+        <v>1578</v>
+      </c>
+      <c r="Q423" s="55" t="s">
         <v>1575</v>
-      </c>
-      <c r="Q423" s="55" t="s">
-        <v>1578</v>
       </c>
       <c r="V423" s="54" t="s">
         <v>1529</v>
@@ -36594,10 +36594,10 @@
         <v>12800</v>
       </c>
       <c r="P424" s="54" t="s">
+        <v>1579</v>
+      </c>
+      <c r="Q424" s="55" t="s">
         <v>1576</v>
-      </c>
-      <c r="Q424" s="55" t="s">
-        <v>1579</v>
       </c>
       <c r="V424" s="54" t="s">
         <v>1529</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="1636">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6496,10 +6496,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"60万","3000鱼币","抽奖券*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"200万","1万鱼币","抽奖券*4",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6509,10 +6505,6 @@
   </si>
   <si>
     <t>"980万","10万鱼币","抽奖券*20",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万","200万鱼币","抽奖券*50",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -6661,10 +6653,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>600000,3000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>1,1,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7022,10 +7010,140 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_sd",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_sd",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_cz",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_cz",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一498元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一198元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一98元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一48元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一20元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一6元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万","200万鱼币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","3000鱼币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万","200万小游戏币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万小游戏币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万","10万小游戏币","抽奖券*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","3万小游戏币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","1万小游戏币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","3000小游戏币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_11.11_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,30000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,3000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,3000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7096,7 +7214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7157,6 +7275,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -7200,7 +7324,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7367,6 +7491,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7766,16 +7896,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="H4" s="12">
         <v>0</v>
@@ -9809,10 +9939,10 @@
   <dimension ref="A1:AM484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="L419" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="S421" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P438" sqref="P438"/>
+      <selection pane="bottomRight" activeCell="V443" sqref="V443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -14185,7 +14315,7 @@
         <v>246</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="K77" s="19">
         <v>-20</v>
@@ -14206,7 +14336,7 @@
         <v>1446</v>
       </c>
       <c r="Q77" s="39" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="V77" s="19" t="s">
         <v>548</v>
@@ -14241,7 +14371,7 @@
         <v>247</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="K78" s="19">
         <v>-20</v>
@@ -29206,7 +29336,7 @@
         <v>831</v>
       </c>
       <c r="V315" s="5" t="s">
-        <v>627</v>
+        <v>1634</v>
       </c>
       <c r="W315" s="5">
         <v>9999999</v>
@@ -32221,7 +32351,7 @@
         <v>1295</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="K357" s="5">
         <v>-31</v>
@@ -33377,7 +33507,7 @@
         <v>1363</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="V374" s="5" t="s">
         <v>1358</v>
@@ -34985,7 +35115,7 @@
         <v>9800</v>
       </c>
       <c r="P398" s="5" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="Q398" s="10" t="s">
         <v>1442</v>
@@ -35608,7 +35738,7 @@
         <v>1483</v>
       </c>
       <c r="I408" s="5" t="s">
-        <v>1489</v>
+        <v>1613</v>
       </c>
       <c r="K408" s="5">
         <v>-31</v>
@@ -35626,13 +35756,13 @@
         <v>600</v>
       </c>
       <c r="P408" s="5" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="Q408" s="10" t="s">
-        <v>1521</v>
+        <v>1631</v>
       </c>
       <c r="V408" s="5" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="W408" s="5">
         <v>99999999</v>
@@ -35673,7 +35803,7 @@
         <v>1484</v>
       </c>
       <c r="I409" s="5" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="K409" s="5">
         <v>-31</v>
@@ -35691,13 +35821,13 @@
         <v>2000</v>
       </c>
       <c r="P409" s="5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="Q409" s="10" t="s">
+        <v>1629</v>
+      </c>
+      <c r="V409" s="5" t="s">
         <v>1495</v>
-      </c>
-      <c r="Q409" s="10" t="s">
-        <v>1444</v>
-      </c>
-      <c r="V409" s="5" t="s">
-        <v>1497</v>
       </c>
       <c r="W409" s="5">
         <v>99999999</v>
@@ -35738,7 +35868,7 @@
         <v>1485</v>
       </c>
       <c r="I410" s="5" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="K410" s="5">
         <v>-31</v>
@@ -35756,13 +35886,13 @@
         <v>4800</v>
       </c>
       <c r="P410" s="5" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="Q410" s="10" t="s">
         <v>1443</v>
       </c>
       <c r="V410" s="5" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="W410" s="5">
         <v>99999999</v>
@@ -35803,7 +35933,7 @@
         <v>1486</v>
       </c>
       <c r="I411" s="5" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="K411" s="5">
         <v>-31</v>
@@ -35821,13 +35951,13 @@
         <v>9800</v>
       </c>
       <c r="P411" s="5" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="Q411" s="10" t="s">
-        <v>1442</v>
+        <v>1626</v>
       </c>
       <c r="V411" s="5" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="W411" s="5">
         <v>99999999</v>
@@ -35868,7 +35998,7 @@
         <v>1487</v>
       </c>
       <c r="I412" s="5" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="K412" s="5">
         <v>-31</v>
@@ -35886,13 +36016,13 @@
         <v>19800</v>
       </c>
       <c r="P412" s="5" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="Q412" s="10" t="s">
-        <v>1441</v>
+        <v>1624</v>
       </c>
       <c r="V412" s="5" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="W412" s="5">
         <v>99999999</v>
@@ -35933,7 +36063,7 @@
         <v>1488</v>
       </c>
       <c r="I413" s="5" t="s">
-        <v>1493</v>
+        <v>1612</v>
       </c>
       <c r="K413" s="5">
         <v>-31</v>
@@ -35951,13 +36081,13 @@
         <v>49800</v>
       </c>
       <c r="P413" s="5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="Q413" s="10" t="s">
+        <v>1622</v>
+      </c>
+      <c r="V413" s="5" t="s">
         <v>1495</v>
-      </c>
-      <c r="Q413" s="10" t="s">
-        <v>1440</v>
-      </c>
-      <c r="V413" s="5" t="s">
-        <v>1497</v>
       </c>
       <c r="W413" s="5">
         <v>99999999</v>
@@ -35998,7 +36128,7 @@
         <v>1</v>
       </c>
       <c r="G414" s="5" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="K414" s="5">
         <v>-4</v>
@@ -36019,10 +36149,10 @@
         <v>459</v>
       </c>
       <c r="Q414" s="10" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="V414" s="5" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="W414" s="14" t="s">
         <v>119</v>
@@ -36057,13 +36187,13 @@
         <v>1</v>
       </c>
       <c r="G415" s="6" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="H415" s="6" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="I415" s="6" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="K415" s="6">
         <v>-31</v>
@@ -36087,7 +36217,7 @@
         <v>1264</v>
       </c>
       <c r="V415" s="6" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="W415" s="14" t="s">
         <v>119</v>
@@ -36125,13 +36255,13 @@
         <v>1</v>
       </c>
       <c r="G416" s="6" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="H416" s="6" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="I416" s="6" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="K416" s="6">
         <v>-31</v>
@@ -36152,10 +36282,10 @@
         <v>1272</v>
       </c>
       <c r="Q416" s="48" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="V416" s="6" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="W416" s="14" t="s">
         <v>119</v>
@@ -36193,13 +36323,13 @@
         <v>1</v>
       </c>
       <c r="G417" s="6" t="s">
+        <v>1506</v>
+      </c>
+      <c r="H417" s="6" t="s">
         <v>1508</v>
       </c>
-      <c r="H417" s="6" t="s">
-        <v>1510</v>
-      </c>
       <c r="I417" s="6" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="K417" s="6">
         <v>-31</v>
@@ -36261,13 +36391,13 @@
         <v>1</v>
       </c>
       <c r="G418" s="6" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="H418" s="6" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="I418" s="6" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="K418" s="6">
         <v>-31</v>
@@ -36288,7 +36418,7 @@
         <v>1274</v>
       </c>
       <c r="Q418" s="48" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="V418" s="6" t="s">
         <v>1280</v>
@@ -36329,13 +36459,13 @@
         <v>1</v>
       </c>
       <c r="G419" s="6" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="H419" s="6" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="I419" s="6" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="K419" s="6">
         <v>-31</v>
@@ -36356,7 +36486,7 @@
         <v>1275</v>
       </c>
       <c r="Q419" s="48" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="V419" s="6" t="s">
         <v>1280</v>
@@ -36397,13 +36527,13 @@
         <v>1</v>
       </c>
       <c r="G420" s="6" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="H420" s="6" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="I420" s="6" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="K420" s="6">
         <v>-31</v>
@@ -36424,7 +36554,7 @@
         <v>1276</v>
       </c>
       <c r="Q420" s="48" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="V420" s="6" t="s">
         <v>1280</v>
@@ -36465,10 +36595,10 @@
         <v>1</v>
       </c>
       <c r="G421" s="19" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="I421" s="19" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="K421" s="19">
         <v>-31</v>
@@ -36486,13 +36616,13 @@
         <v>1000</v>
       </c>
       <c r="P421" s="19" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="Q421" s="39" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="V421" s="19" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="W421" s="19">
         <v>9999999</v>
@@ -36507,7 +36637,7 @@
         <v>1177</v>
       </c>
       <c r="AB421" s="19" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="AG421" s="19">
         <v>1</v>
@@ -36533,13 +36663,13 @@
         <v>1</v>
       </c>
       <c r="G422" s="6" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="H422" s="6" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="I422" s="6" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="K422" s="6">
         <v>-31</v>
@@ -36557,10 +36687,10 @@
         <v>2000</v>
       </c>
       <c r="P422" s="6" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="Q422" s="48" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="V422" s="6" t="s">
         <v>548</v>
@@ -36601,13 +36731,13 @@
         <v>1</v>
       </c>
       <c r="G423" s="6" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="H423" s="6" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="I423" s="6" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="K423" s="6">
         <v>-31</v>
@@ -36625,10 +36755,10 @@
         <v>5800</v>
       </c>
       <c r="P423" s="6" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="Q423" s="48" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="V423" s="6" t="s">
         <v>548</v>
@@ -36669,13 +36799,13 @@
         <v>1</v>
       </c>
       <c r="G424" s="6" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="H424" s="6" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="I424" s="6" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="K424" s="6">
         <v>-31</v>
@@ -36693,10 +36823,10 @@
         <v>12800</v>
       </c>
       <c r="P424" s="6" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="Q424" s="48" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="V424" s="6" t="s">
         <v>548</v>
@@ -36737,10 +36867,10 @@
         <v>1</v>
       </c>
       <c r="G425" s="6" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="I425" s="6" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="K425" s="6">
         <v>-31</v>
@@ -36758,10 +36888,10 @@
         <v>49800</v>
       </c>
       <c r="P425" s="6" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="Q425" s="48" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="V425" s="6" t="s">
         <v>597</v>
@@ -36793,10 +36923,10 @@
         <v>1</v>
       </c>
       <c r="G426" s="6" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="I426" s="6" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="K426" s="6">
         <v>-31</v>
@@ -36814,10 +36944,10 @@
         <v>19800</v>
       </c>
       <c r="P426" s="6" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="Q426" s="48" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="V426" s="6" t="s">
         <v>597</v>
@@ -36849,10 +36979,10 @@
         <v>1</v>
       </c>
       <c r="G427" s="6" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="I427" s="6" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="K427" s="6">
         <v>-31</v>
@@ -36870,10 +37000,10 @@
         <v>9800</v>
       </c>
       <c r="P427" s="6" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="Q427" s="48" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="V427" s="6" t="s">
         <v>597</v>
@@ -36905,10 +37035,10 @@
         <v>1</v>
       </c>
       <c r="G428" s="6" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="I428" s="6" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="K428" s="6">
         <v>-31</v>
@@ -36926,10 +37056,10 @@
         <v>9800</v>
       </c>
       <c r="P428" s="6" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="Q428" s="48" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="V428" s="6" t="s">
         <v>597</v>
@@ -36961,10 +37091,10 @@
         <v>1</v>
       </c>
       <c r="G429" s="6" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="I429" s="6" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="K429" s="6">
         <v>-31</v>
@@ -36982,10 +37112,10 @@
         <v>4800</v>
       </c>
       <c r="P429" s="6" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="Q429" s="48" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="V429" s="6" t="s">
         <v>597</v>
@@ -37017,13 +37147,13 @@
         <v>1</v>
       </c>
       <c r="G430" s="19" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="H430" s="19" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="I430" s="19" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="K430" s="19">
         <v>-28</v>
@@ -37041,13 +37171,13 @@
         <v>100</v>
       </c>
       <c r="P430" s="19" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="Q430" s="39" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="V430" s="19" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="W430" s="19">
         <v>9999999</v>
@@ -37085,13 +37215,13 @@
         <v>1</v>
       </c>
       <c r="G431" s="19" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="H431" s="19" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="I431" s="19" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="K431" s="19">
         <v>-28</v>
@@ -37109,10 +37239,10 @@
         <v>300</v>
       </c>
       <c r="P431" s="19" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="Q431" s="39" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="V431" s="19" t="s">
         <v>551</v>
@@ -37153,13 +37283,13 @@
         <v>1</v>
       </c>
       <c r="G432" s="19" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="H432" s="19" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="I432" s="19" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="K432" s="19">
         <v>-28</v>
@@ -37177,10 +37307,10 @@
         <v>600</v>
       </c>
       <c r="P432" s="19" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="Q432" s="39" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="V432" s="19" t="s">
         <v>551</v>
@@ -37221,13 +37351,13 @@
         <v>1</v>
       </c>
       <c r="G433" s="19" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="H433" s="19" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="I433" s="19" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="K433" s="19">
         <v>-28</v>
@@ -37245,10 +37375,10 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="Q433" s="39" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="V433" s="19" t="s">
         <v>551</v>
@@ -37289,13 +37419,13 @@
         <v>1</v>
       </c>
       <c r="G434" s="54" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="H434" s="54" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="I434" s="54" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="K434" s="54">
         <v>-31</v>
@@ -37313,10 +37443,10 @@
         <v>1800</v>
       </c>
       <c r="P434" s="54" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="Q434" s="55" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="V434" s="54" t="s">
         <v>551</v>
@@ -37354,13 +37484,13 @@
         <v>1</v>
       </c>
       <c r="G435" s="54" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="H435" s="54" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="I435" s="54" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="K435" s="54">
         <v>-31</v>
@@ -37378,10 +37508,10 @@
         <v>4800</v>
       </c>
       <c r="P435" s="54" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="Q435" s="55" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="V435" s="54" t="s">
         <v>551</v>
@@ -37419,13 +37549,13 @@
         <v>1</v>
       </c>
       <c r="G436" s="54" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="H436" s="54" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="I436" s="54" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="K436" s="54">
         <v>-31</v>
@@ -37443,10 +37573,10 @@
         <v>9800</v>
       </c>
       <c r="P436" s="54" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="Q436" s="55" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="V436" s="54" t="s">
         <v>551</v>
@@ -37484,13 +37614,13 @@
         <v>1</v>
       </c>
       <c r="G437" s="54" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="H437" s="54" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="I437" s="54" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="K437" s="54">
         <v>-31</v>
@@ -37508,10 +37638,10 @@
         <v>19800</v>
       </c>
       <c r="P437" s="54" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="Q437" s="55" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="V437" s="54" t="s">
         <v>551</v>
@@ -37549,13 +37679,13 @@
         <v>1</v>
       </c>
       <c r="G438" s="54" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="H438" s="54" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="I438" s="54" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="K438" s="54">
         <v>-31</v>
@@ -37573,10 +37703,10 @@
         <v>29800</v>
       </c>
       <c r="P438" s="54" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="Q438" s="55" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="V438" s="54" t="s">
         <v>551</v>
@@ -37614,13 +37744,13 @@
         <v>1</v>
       </c>
       <c r="G439" s="54" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="H439" s="54" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="I439" s="54" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="K439" s="54">
         <v>-31</v>
@@ -37638,10 +37768,10 @@
         <v>49800</v>
       </c>
       <c r="P439" s="54" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="Q439" s="55" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="V439" s="54" t="s">
         <v>551</v>
@@ -37679,13 +37809,13 @@
         <v>1</v>
       </c>
       <c r="G440" s="54" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="H440" s="54" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="I440" s="54" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="K440" s="54">
         <v>-31</v>
@@ -37697,19 +37827,19 @@
         <v>0</v>
       </c>
       <c r="N440" s="54" t="s">
-        <v>111</v>
+        <v>1620</v>
       </c>
       <c r="O440" s="54">
         <v>99800</v>
       </c>
       <c r="P440" s="54" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="Q440" s="55" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="V440" s="54" t="s">
-        <v>551</v>
+        <v>1633</v>
       </c>
       <c r="W440" s="54">
         <v>9999999</v>
@@ -37730,6 +37860,378 @@
         <v>1</v>
       </c>
       <c r="AL440" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="56">
+        <v>440</v>
+      </c>
+      <c r="B441" s="56">
+        <v>10357</v>
+      </c>
+      <c r="F441" s="56">
+        <v>1</v>
+      </c>
+      <c r="G441" s="56" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I441" s="56" t="s">
+        <v>1614</v>
+      </c>
+      <c r="K441" s="56">
+        <v>-31</v>
+      </c>
+      <c r="L441" s="56">
+        <v>0</v>
+      </c>
+      <c r="M441" s="56">
+        <v>0</v>
+      </c>
+      <c r="N441" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="O441" s="56">
+        <v>49800</v>
+      </c>
+      <c r="P441" s="56" t="s">
+        <v>1621</v>
+      </c>
+      <c r="Q441" s="57" t="s">
+        <v>1623</v>
+      </c>
+      <c r="V441" s="56" t="s">
+        <v>1635</v>
+      </c>
+      <c r="W441" s="56">
+        <v>9999999</v>
+      </c>
+      <c r="X441" s="56">
+        <v>1604966400</v>
+      </c>
+      <c r="Y441" s="56">
+        <v>1605542399</v>
+      </c>
+      <c r="AG441" s="56">
+        <v>1</v>
+      </c>
+      <c r="AH441" s="56">
+        <v>1</v>
+      </c>
+      <c r="AK441" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL441" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="56">
+        <v>441</v>
+      </c>
+      <c r="B442" s="56">
+        <v>10358</v>
+      </c>
+      <c r="F442" s="56">
+        <v>1</v>
+      </c>
+      <c r="G442" s="56" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I442" s="56" t="s">
+        <v>1615</v>
+      </c>
+      <c r="K442" s="56">
+        <v>-31</v>
+      </c>
+      <c r="L442" s="56">
+        <v>0</v>
+      </c>
+      <c r="M442" s="56">
+        <v>0</v>
+      </c>
+      <c r="N442" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="O442" s="56">
+        <v>19800</v>
+      </c>
+      <c r="P442" s="56" t="s">
+        <v>1621</v>
+      </c>
+      <c r="Q442" s="57" t="s">
+        <v>1625</v>
+      </c>
+      <c r="V442" s="56" t="s">
+        <v>1635</v>
+      </c>
+      <c r="W442" s="56">
+        <v>9999999</v>
+      </c>
+      <c r="X442" s="56">
+        <v>1604966400</v>
+      </c>
+      <c r="Y442" s="56">
+        <v>1605542399</v>
+      </c>
+      <c r="AG442" s="56">
+        <v>1</v>
+      </c>
+      <c r="AH442" s="56">
+        <v>1</v>
+      </c>
+      <c r="AK442" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL442" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="56">
+        <v>442</v>
+      </c>
+      <c r="B443" s="56">
+        <v>10359</v>
+      </c>
+      <c r="F443" s="56">
+        <v>1</v>
+      </c>
+      <c r="G443" s="56" t="s">
+        <v>1608</v>
+      </c>
+      <c r="I443" s="56" t="s">
+        <v>1616</v>
+      </c>
+      <c r="K443" s="56">
+        <v>-31</v>
+      </c>
+      <c r="L443" s="56">
+        <v>0</v>
+      </c>
+      <c r="M443" s="56">
+        <v>0</v>
+      </c>
+      <c r="N443" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="O443" s="56">
+        <v>9800</v>
+      </c>
+      <c r="P443" s="56" t="s">
+        <v>1621</v>
+      </c>
+      <c r="Q443" s="57" t="s">
+        <v>1627</v>
+      </c>
+      <c r="V443" s="56" t="s">
+        <v>1635</v>
+      </c>
+      <c r="W443" s="56">
+        <v>9999999</v>
+      </c>
+      <c r="X443" s="56">
+        <v>1604966400</v>
+      </c>
+      <c r="Y443" s="56">
+        <v>1605542399</v>
+      </c>
+      <c r="AG443" s="56">
+        <v>1</v>
+      </c>
+      <c r="AH443" s="56">
+        <v>1</v>
+      </c>
+      <c r="AK443" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL443" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="56">
+        <v>443</v>
+      </c>
+      <c r="B444" s="56">
+        <v>10360</v>
+      </c>
+      <c r="F444" s="56">
+        <v>1</v>
+      </c>
+      <c r="G444" s="56" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I444" s="56" t="s">
+        <v>1617</v>
+      </c>
+      <c r="K444" s="56">
+        <v>-31</v>
+      </c>
+      <c r="L444" s="56">
+        <v>0</v>
+      </c>
+      <c r="M444" s="56">
+        <v>0</v>
+      </c>
+      <c r="N444" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="O444" s="56">
+        <v>4800</v>
+      </c>
+      <c r="P444" s="56" t="s">
+        <v>1621</v>
+      </c>
+      <c r="Q444" s="57" t="s">
+        <v>1628</v>
+      </c>
+      <c r="V444" s="56" t="s">
+        <v>1635</v>
+      </c>
+      <c r="W444" s="56">
+        <v>9999999</v>
+      </c>
+      <c r="X444" s="56">
+        <v>1604966400</v>
+      </c>
+      <c r="Y444" s="56">
+        <v>1605542399</v>
+      </c>
+      <c r="AG444" s="56">
+        <v>1</v>
+      </c>
+      <c r="AH444" s="56">
+        <v>1</v>
+      </c>
+      <c r="AK444" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL444" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="56">
+        <v>444</v>
+      </c>
+      <c r="B445" s="56">
+        <v>10361</v>
+      </c>
+      <c r="F445" s="56">
+        <v>1</v>
+      </c>
+      <c r="G445" s="56" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I445" s="56" t="s">
+        <v>1618</v>
+      </c>
+      <c r="K445" s="56">
+        <v>-31</v>
+      </c>
+      <c r="L445" s="56">
+        <v>0</v>
+      </c>
+      <c r="M445" s="56">
+        <v>0</v>
+      </c>
+      <c r="N445" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="O445" s="56">
+        <v>2000</v>
+      </c>
+      <c r="P445" s="56" t="s">
+        <v>1621</v>
+      </c>
+      <c r="Q445" s="57" t="s">
+        <v>1630</v>
+      </c>
+      <c r="V445" s="56" t="s">
+        <v>1633</v>
+      </c>
+      <c r="W445" s="56">
+        <v>9999999</v>
+      </c>
+      <c r="X445" s="56">
+        <v>1604966400</v>
+      </c>
+      <c r="Y445" s="56">
+        <v>1605542399</v>
+      </c>
+      <c r="AG445" s="56">
+        <v>1</v>
+      </c>
+      <c r="AH445" s="56">
+        <v>1</v>
+      </c>
+      <c r="AK445" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL445" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:38" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="56">
+        <v>445</v>
+      </c>
+      <c r="B446" s="56">
+        <v>10362</v>
+      </c>
+      <c r="F446" s="56">
+        <v>1</v>
+      </c>
+      <c r="G446" s="56" t="s">
+        <v>1611</v>
+      </c>
+      <c r="I446" s="56" t="s">
+        <v>1619</v>
+      </c>
+      <c r="K446" s="56">
+        <v>-31</v>
+      </c>
+      <c r="L446" s="56">
+        <v>0</v>
+      </c>
+      <c r="M446" s="56">
+        <v>0</v>
+      </c>
+      <c r="N446" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="O446" s="56">
+        <v>600</v>
+      </c>
+      <c r="P446" s="56" t="s">
+        <v>1621</v>
+      </c>
+      <c r="Q446" s="57" t="s">
+        <v>1632</v>
+      </c>
+      <c r="V446" s="56" t="s">
+        <v>1633</v>
+      </c>
+      <c r="W446" s="56">
+        <v>9999999</v>
+      </c>
+      <c r="X446" s="56">
+        <v>1604966400</v>
+      </c>
+      <c r="Y446" s="56">
+        <v>1605542399</v>
+      </c>
+      <c r="AG446" s="56">
+        <v>1</v>
+      </c>
+      <c r="AH446" s="56">
+        <v>1</v>
+      </c>
+      <c r="AK446" s="56">
+        <v>1</v>
+      </c>
+      <c r="AL446" s="56">
         <v>1</v>
       </c>
     </row>
@@ -38456,7 +38958,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="C49" s="12">
         <v>1</v>
@@ -38470,7 +38972,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="C50" s="12">
         <v>1</v>
@@ -38484,7 +38986,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="C51" s="12">
         <v>1</v>
@@ -38498,7 +39000,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="C52" s="12">
         <v>1</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -9942,7 +9942,7 @@
       <pane xSplit="7" ySplit="1" topLeftCell="S421" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V443" sqref="V443"/>
+      <selection pane="bottomRight" activeCell="S428" sqref="S428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="1609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="1607">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7022,20 +7022,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_sd",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_sd",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_cz",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_cz",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
   </si>
 </sst>
 </file>
@@ -9819,10 +9809,10 @@
   <dimension ref="A1:AM484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H419" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="L419" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A436" sqref="A436"/>
+      <selection pane="bottomRight" activeCell="P438" sqref="P438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -37388,7 +37378,7 @@
         <v>4800</v>
       </c>
       <c r="P435" s="54" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="Q435" s="55" t="s">
         <v>1584</v>
@@ -37648,7 +37638,7 @@
         <v>49800</v>
       </c>
       <c r="P439" s="54" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="Q439" s="55" t="s">
         <v>1587</v>
@@ -37713,7 +37703,7 @@
         <v>99800</v>
       </c>
       <c r="P440" s="54" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="Q440" s="55" t="s">
         <v>1583</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3903" uniqueCount="1763">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6994,22 +6994,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_sd",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_sd",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_cz",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_cz",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>双十一498元礼包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7617,6 +7601,14 @@
   </si>
   <si>
     <t>10486000,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10467,10 +10459,10 @@
   <dimension ref="A1:AM476"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="P445" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="P425" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q455" sqref="Q455"/>
+      <selection pane="bottomRight" activeCell="P440" sqref="P440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -29864,7 +29856,7 @@
         <v>831</v>
       </c>
       <c r="V315" s="5" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="W315" s="5">
         <v>9999999</v>
@@ -36266,7 +36258,7 @@
         <v>1479</v>
       </c>
       <c r="I408" s="5" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="K408" s="5">
         <v>-31</v>
@@ -36287,7 +36279,7 @@
         <v>1489</v>
       </c>
       <c r="Q408" s="10" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="V408" s="5" t="s">
         <v>1490</v>
@@ -36352,7 +36344,7 @@
         <v>1489</v>
       </c>
       <c r="Q409" s="10" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="V409" s="5" t="s">
         <v>1491</v>
@@ -36482,7 +36474,7 @@
         <v>1489</v>
       </c>
       <c r="Q411" s="10" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="V411" s="5" t="s">
         <v>1492</v>
@@ -36547,7 +36539,7 @@
         <v>1489</v>
       </c>
       <c r="Q412" s="10" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="V412" s="5" t="s">
         <v>1493</v>
@@ -36591,7 +36583,7 @@
         <v>1484</v>
       </c>
       <c r="I413" s="5" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="K413" s="5">
         <v>-31</v>
@@ -36612,7 +36604,7 @@
         <v>1489</v>
       </c>
       <c r="Q413" s="10" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="V413" s="5" t="s">
         <v>1491</v>
@@ -37903,7 +37895,7 @@
         <v>600</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="Q433" s="39" t="s">
         <v>1558</v>
@@ -37971,7 +37963,7 @@
         <v>1800</v>
       </c>
       <c r="P434" s="5" t="s">
-        <v>1598</v>
+        <v>1761</v>
       </c>
       <c r="Q434" s="10" t="s">
         <v>1574</v>
@@ -38036,7 +38028,7 @@
         <v>4800</v>
       </c>
       <c r="P435" s="5" t="s">
-        <v>1599</v>
+        <v>1761</v>
       </c>
       <c r="Q435" s="10" t="s">
         <v>1577</v>
@@ -38296,7 +38288,7 @@
         <v>49800</v>
       </c>
       <c r="P439" s="5" t="s">
-        <v>1600</v>
+        <v>1762</v>
       </c>
       <c r="Q439" s="10" t="s">
         <v>1580</v>
@@ -38355,19 +38347,19 @@
         <v>0</v>
       </c>
       <c r="N440" s="5" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="O440" s="5">
         <v>99800</v>
       </c>
       <c r="P440" s="5" t="s">
-        <v>1601</v>
+        <v>1762</v>
       </c>
       <c r="Q440" s="10" t="s">
         <v>1576</v>
       </c>
       <c r="V440" s="5" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="W440" s="5">
         <v>9999999</v>
@@ -38402,10 +38394,10 @@
         <v>1</v>
       </c>
       <c r="G441" s="5" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="I441" s="5" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="K441" s="5">
         <v>-31</v>
@@ -38423,13 +38415,13 @@
         <v>49800</v>
       </c>
       <c r="P441" s="5" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="Q441" s="10" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="V441" s="5" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="W441" s="5">
         <v>9999999</v>
@@ -38464,10 +38456,10 @@
         <v>1</v>
       </c>
       <c r="G442" s="5" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="I442" s="5" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="K442" s="5">
         <v>-31</v>
@@ -38485,13 +38477,13 @@
         <v>19800</v>
       </c>
       <c r="P442" s="5" t="s">
+        <v>1613</v>
+      </c>
+      <c r="Q442" s="10" t="s">
         <v>1617</v>
       </c>
-      <c r="Q442" s="10" t="s">
-        <v>1621</v>
-      </c>
       <c r="V442" s="5" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="W442" s="5">
         <v>9999999</v>
@@ -38526,10 +38518,10 @@
         <v>1</v>
       </c>
       <c r="G443" s="5" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="I443" s="5" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="K443" s="5">
         <v>-31</v>
@@ -38547,13 +38539,13 @@
         <v>9800</v>
       </c>
       <c r="P443" s="5" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="Q443" s="10" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="V443" s="5" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="W443" s="5">
         <v>9999999</v>
@@ -38588,10 +38580,10 @@
         <v>1</v>
       </c>
       <c r="G444" s="5" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="I444" s="5" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="K444" s="5">
         <v>-31</v>
@@ -38609,13 +38601,13 @@
         <v>4800</v>
       </c>
       <c r="P444" s="5" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="Q444" s="10" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="V444" s="5" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="W444" s="5">
         <v>9999999</v>
@@ -38650,10 +38642,10 @@
         <v>1</v>
       </c>
       <c r="G445" s="5" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="I445" s="5" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="K445" s="5">
         <v>-31</v>
@@ -38671,13 +38663,13 @@
         <v>2000</v>
       </c>
       <c r="P445" s="5" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="Q445" s="10" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="V445" s="5" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="W445" s="5">
         <v>9999999</v>
@@ -38712,10 +38704,10 @@
         <v>1</v>
       </c>
       <c r="G446" s="5" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="I446" s="5" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="K446" s="5">
         <v>-31</v>
@@ -38733,13 +38725,13 @@
         <v>600</v>
       </c>
       <c r="P446" s="5" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="Q446" s="10" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="V446" s="5" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="W446" s="5">
         <v>9999999</v>
@@ -38774,13 +38766,13 @@
         <v>1</v>
       </c>
       <c r="G447" s="54" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="H447" s="54" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="I447" s="54" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="K447" s="54">
         <v>-31</v>
@@ -38798,10 +38790,10 @@
         <v>800</v>
       </c>
       <c r="P447" s="54" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="Q447" s="55" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="V447" s="5" t="s">
         <v>595</v>
@@ -38842,13 +38834,13 @@
         <v>1</v>
       </c>
       <c r="G448" s="54" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="H448" s="54" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="I448" s="54" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="K448" s="54">
         <v>-31</v>
@@ -38866,10 +38858,10 @@
         <v>800</v>
       </c>
       <c r="P448" s="54" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="Q448" s="55" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="V448" s="5" t="s">
         <v>595</v>
@@ -38907,13 +38899,13 @@
         <v>1</v>
       </c>
       <c r="G449" s="54" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="H449" s="54" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="I449" s="54" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="K449" s="54">
         <v>-31</v>
@@ -38931,10 +38923,10 @@
         <v>800</v>
       </c>
       <c r="P449" s="54" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="Q449" s="55" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="V449" s="5" t="s">
         <v>551</v>
@@ -38975,13 +38967,13 @@
         <v>1</v>
       </c>
       <c r="G450" s="66" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="H450" s="66" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="I450" s="66" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="K450" s="66">
         <v>-31</v>
@@ -38999,10 +38991,10 @@
         <v>3800</v>
       </c>
       <c r="P450" s="66" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="Q450" s="67" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="V450" s="5" t="s">
         <v>551</v>
@@ -39043,13 +39035,13 @@
         <v>1</v>
       </c>
       <c r="G451" s="66" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="H451" s="66" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="I451" s="66" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="K451" s="66">
         <v>-31</v>
@@ -39067,10 +39059,10 @@
         <v>3800</v>
       </c>
       <c r="P451" s="66" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="Q451" s="67" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="V451" s="5" t="s">
         <v>551</v>
@@ -39108,13 +39100,13 @@
         <v>1</v>
       </c>
       <c r="G452" s="66" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="H452" s="66" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="I452" s="66" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="K452" s="66">
         <v>-31</v>
@@ -39132,10 +39124,10 @@
         <v>3800</v>
       </c>
       <c r="P452" s="66" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="Q452" s="67" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="V452" s="5" t="s">
         <v>551</v>
@@ -39176,13 +39168,13 @@
         <v>1</v>
       </c>
       <c r="G453" s="54" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="H453" s="54" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="I453" s="54" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="K453" s="54">
         <v>-31</v>
@@ -39200,10 +39192,10 @@
         <v>9800</v>
       </c>
       <c r="P453" s="54" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="Q453" s="55" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="V453" s="5" t="s">
         <v>551</v>
@@ -39244,13 +39236,13 @@
         <v>1</v>
       </c>
       <c r="G454" s="54" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="H454" s="54" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="I454" s="54" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="K454" s="54">
         <v>-31</v>
@@ -39268,10 +39260,10 @@
         <v>9800</v>
       </c>
       <c r="P454" s="54" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="Q454" s="55" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="V454" s="5" t="s">
         <v>551</v>
@@ -39309,13 +39301,13 @@
         <v>1</v>
       </c>
       <c r="G455" s="54" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="H455" s="54" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="I455" s="54" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="K455" s="54">
         <v>-31</v>
@@ -39333,10 +39325,10 @@
         <v>9800</v>
       </c>
       <c r="P455" s="54" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="Q455" s="55" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>551</v>
@@ -39377,13 +39369,13 @@
         <v>1</v>
       </c>
       <c r="G456" s="66" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="H456" s="66" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="I456" s="66" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="K456" s="66">
         <v>-31</v>
@@ -39401,10 +39393,10 @@
         <v>19800</v>
       </c>
       <c r="P456" s="66" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="Q456" s="67" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>551</v>
@@ -39445,13 +39437,13 @@
         <v>1</v>
       </c>
       <c r="G457" s="66" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="H457" s="66" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="I457" s="66" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="K457" s="66">
         <v>-31</v>
@@ -39469,10 +39461,10 @@
         <v>19800</v>
       </c>
       <c r="P457" s="66" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="Q457" s="67" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>551</v>
@@ -39510,13 +39502,13 @@
         <v>1</v>
       </c>
       <c r="G458" s="66" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="H458" s="66" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="I458" s="66" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="K458" s="66">
         <v>-31</v>
@@ -39534,10 +39526,10 @@
         <v>19800</v>
       </c>
       <c r="P458" s="66" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="Q458" s="67" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>551</v>
@@ -39578,13 +39570,13 @@
         <v>1</v>
       </c>
       <c r="G459" s="54" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="H459" s="54" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="I459" s="54" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="K459" s="54">
         <v>-31</v>
@@ -39602,10 +39594,10 @@
         <v>49800</v>
       </c>
       <c r="P459" s="54" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="Q459" s="55" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>551</v>
@@ -39646,13 +39638,13 @@
         <v>1</v>
       </c>
       <c r="G460" s="54" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="H460" s="54" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="I460" s="54" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="K460" s="54">
         <v>-31</v>
@@ -39670,10 +39662,10 @@
         <v>49800</v>
       </c>
       <c r="P460" s="54" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="Q460" s="55" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>551</v>
@@ -39711,13 +39703,13 @@
         <v>1</v>
       </c>
       <c r="G461" s="54" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="H461" s="54" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="I461" s="54" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="K461" s="54">
         <v>-31</v>
@@ -39735,10 +39727,10 @@
         <v>49800</v>
       </c>
       <c r="P461" s="54" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="Q461" s="55" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>551</v>
@@ -39779,13 +39771,13 @@
         <v>1</v>
       </c>
       <c r="G462" s="66" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="H462" s="66" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="I462" s="66" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="K462" s="66">
         <v>-31</v>
@@ -39803,10 +39795,10 @@
         <v>99800</v>
       </c>
       <c r="P462" s="66" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="Q462" s="67" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>551</v>
@@ -39847,13 +39839,13 @@
         <v>1</v>
       </c>
       <c r="G463" s="66" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="H463" s="66" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="I463" s="66" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="K463" s="66">
         <v>-31</v>
@@ -39871,10 +39863,10 @@
         <v>99800</v>
       </c>
       <c r="P463" s="66" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="Q463" s="67" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="V463" s="5" t="s">
         <v>551</v>
@@ -39912,13 +39904,13 @@
         <v>1</v>
       </c>
       <c r="G464" s="66" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="H464" s="66" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="I464" s="66" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="K464" s="66">
         <v>-31</v>
@@ -39936,10 +39928,10 @@
         <v>99800</v>
       </c>
       <c r="P464" s="66" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="Q464" s="67" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>551</v>
@@ -39980,13 +39972,13 @@
         <v>1</v>
       </c>
       <c r="G465" s="54" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="H465" s="54" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="I465" s="54" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="K465" s="54">
         <v>-31</v>
@@ -40004,10 +39996,10 @@
         <v>249800</v>
       </c>
       <c r="P465" s="54" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="Q465" s="55" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>551</v>
@@ -40048,13 +40040,13 @@
         <v>1</v>
       </c>
       <c r="G466" s="54" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="H466" s="54" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="I466" s="54" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="K466" s="54">
         <v>-31</v>
@@ -40072,10 +40064,10 @@
         <v>249800</v>
       </c>
       <c r="P466" s="54" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="Q466" s="55" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>551</v>
@@ -40113,13 +40105,13 @@
         <v>1</v>
       </c>
       <c r="G467" s="54" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="H467" s="54" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="I467" s="54" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="K467" s="54">
         <v>-31</v>
@@ -40137,10 +40129,10 @@
         <v>249800</v>
       </c>
       <c r="P467" s="54" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="Q467" s="55" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>551</v>
@@ -40181,13 +40173,13 @@
         <v>1</v>
       </c>
       <c r="G468" s="60" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="H468" s="60" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="I468" s="60" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="K468" s="60">
         <v>-31</v>
@@ -40205,13 +40197,13 @@
         <v>600</v>
       </c>
       <c r="P468" s="60" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="Q468" s="61" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="V468" s="60" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="W468" s="60">
         <v>9999999</v>
@@ -40246,13 +40238,13 @@
         <v>1</v>
       </c>
       <c r="G469" s="60" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="H469" s="60" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="I469" s="60" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="K469" s="60">
         <v>-31</v>
@@ -40270,13 +40262,13 @@
         <v>3000</v>
       </c>
       <c r="P469" s="60" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="Q469" s="61" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="V469" s="60" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="W469" s="60">
         <v>9999999</v>
@@ -40311,13 +40303,13 @@
         <v>1</v>
       </c>
       <c r="G470" s="60" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="H470" s="60" t="s">
+        <v>1681</v>
+      </c>
+      <c r="I470" s="60" t="s">
         <v>1685</v>
-      </c>
-      <c r="I470" s="60" t="s">
-        <v>1689</v>
       </c>
       <c r="K470" s="60">
         <v>-31</v>
@@ -40335,13 +40327,13 @@
         <v>6800</v>
       </c>
       <c r="P470" s="60" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="Q470" s="61" t="s">
         <v>861</v>
       </c>
       <c r="V470" s="60" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="W470" s="60">
         <v>9999999</v>
@@ -40376,13 +40368,13 @@
         <v>1</v>
       </c>
       <c r="G471" s="60" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="H471" s="60" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="I471" s="60" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="K471" s="60">
         <v>-31</v>
@@ -40400,13 +40392,13 @@
         <v>9800</v>
       </c>
       <c r="P471" s="60" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="Q471" s="61" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="V471" s="60" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="W471" s="60">
         <v>9999999</v>
@@ -40441,13 +40433,13 @@
         <v>1</v>
       </c>
       <c r="G472" s="60" t="s">
+        <v>1677</v>
+      </c>
+      <c r="H472" s="60" t="s">
         <v>1681</v>
       </c>
-      <c r="H472" s="60" t="s">
-        <v>1685</v>
-      </c>
       <c r="I472" s="60" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="K472" s="60">
         <v>-31</v>
@@ -40465,13 +40457,13 @@
         <v>19800</v>
       </c>
       <c r="P472" s="60" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="Q472" s="61" t="s">
         <v>862</v>
       </c>
       <c r="V472" s="60" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="W472" s="60">
         <v>9999999</v>
@@ -40506,13 +40498,13 @@
         <v>1</v>
       </c>
       <c r="G473" s="60" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="H473" s="60" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="I473" s="60" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="K473" s="60">
         <v>-31</v>
@@ -40530,13 +40522,13 @@
         <v>49800</v>
       </c>
       <c r="P473" s="60" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="Q473" s="61" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="V473" s="60" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="W473" s="60">
         <v>9999999</v>
@@ -40571,13 +40563,13 @@
         <v>1</v>
       </c>
       <c r="G474" s="58" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="H474" s="58" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="I474" s="58" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="K474" s="58">
         <v>-31</v>
@@ -40595,13 +40587,13 @@
         <v>99800</v>
       </c>
       <c r="P474" s="58" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="Q474" s="59" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="V474" s="60" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="W474" s="58">
         <v>9999999</v>
@@ -40636,13 +40628,13 @@
         <v>1</v>
       </c>
       <c r="G475" s="58" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="H475" s="58" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="I475" s="58" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="K475" s="58">
         <v>-31</v>
@@ -40660,13 +40652,13 @@
         <v>249800</v>
       </c>
       <c r="P475" s="58" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="Q475" s="59" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="V475" s="60" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="W475" s="58">
         <v>9999999</v>
@@ -41121,7 +41113,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="C29" s="12">
         <v>1</v>
@@ -41355,7 +41347,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="69" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -41369,7 +41361,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="69" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -41383,7 +41375,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="69" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -41467,7 +41459,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="C53" s="56">
         <v>1</v>
@@ -41481,7 +41473,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="C54" s="56">
         <v>1</v>
@@ -41495,7 +41487,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="C55" s="56">
         <v>1</v>
@@ -41509,7 +41501,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="C56" s="56">
         <v>1</v>
@@ -41523,7 +41515,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="C57" s="56">
         <v>1</v>
@@ -41537,7 +41529,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="C58" s="56">
         <v>1</v>
@@ -41551,7 +41543,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="C59" s="56">
         <v>1</v>
@@ -41565,7 +41557,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="C60" s="56">
         <v>1</v>
@@ -41579,7 +41571,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="C61" s="56">
         <v>1</v>
@@ -41593,7 +41585,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="C62" s="56">
         <v>1</v>
@@ -41607,7 +41599,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="C63" s="56">
         <v>1</v>
@@ -41621,7 +41613,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="C64" s="56">
         <v>1</v>
@@ -41635,7 +41627,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="C65" s="56">
         <v>1</v>
@@ -41649,7 +41641,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="C66" s="56">
         <v>1</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="1636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="1633">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7002,148 +7002,134 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>双十一498元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一198元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一98元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一48元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一20元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一6元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万","200万鱼币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","3000鱼币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万","200万小游戏币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万小游戏币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万","10万小游戏币","抽奖券*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","3万小游戏币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","1万小游戏币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","3000小游戏币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_11.11_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,30000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,3000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,3000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+  </si>
+  <si>
     <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_sd",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_sd",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_cz",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_cz",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一498元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一198元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一98元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一48元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一20元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一6元礼包</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万","200万鱼币","抽奖券*50",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万","3000鱼币","抽奖券*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万","200万小游戏币","抽奖券*50",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万","50万小游戏币","抽奖券*30",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万","10万小游戏币","抽奖券*20",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万","3万小游戏币","抽奖券*10",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200万","1万小游戏币","抽奖券*4",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"60万","3000小游戏币","抽奖券*1",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_bag</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_11.11_cjq",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,2000000,50,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>49800000,2000000,50,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,500000,30,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>19800000,500000,30,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,100000,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>9800000,100000,20,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4800000,30000,10,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,10000,4,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,10000,4,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,3000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>600000,3000,1,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>86400,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,100,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
   </si>
 </sst>
 </file>
@@ -9939,10 +9925,10 @@
   <dimension ref="A1:AM484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="S421" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="L421" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S428" sqref="S428"/>
+      <selection pane="bottomRight" activeCell="P424" sqref="P424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -29336,7 +29322,7 @@
         <v>831</v>
       </c>
       <c r="V315" s="5" t="s">
-        <v>1634</v>
+        <v>1628</v>
       </c>
       <c r="W315" s="5">
         <v>9999999</v>
@@ -35738,7 +35724,7 @@
         <v>1483</v>
       </c>
       <c r="I408" s="5" t="s">
-        <v>1613</v>
+        <v>1607</v>
       </c>
       <c r="K408" s="5">
         <v>-31</v>
@@ -35759,7 +35745,7 @@
         <v>1493</v>
       </c>
       <c r="Q408" s="10" t="s">
-        <v>1631</v>
+        <v>1625</v>
       </c>
       <c r="V408" s="5" t="s">
         <v>1494</v>
@@ -35824,7 +35810,7 @@
         <v>1493</v>
       </c>
       <c r="Q409" s="10" t="s">
-        <v>1629</v>
+        <v>1623</v>
       </c>
       <c r="V409" s="5" t="s">
         <v>1495</v>
@@ -35954,7 +35940,7 @@
         <v>1493</v>
       </c>
       <c r="Q411" s="10" t="s">
-        <v>1626</v>
+        <v>1620</v>
       </c>
       <c r="V411" s="5" t="s">
         <v>1496</v>
@@ -36019,7 +36005,7 @@
         <v>1493</v>
       </c>
       <c r="Q412" s="10" t="s">
-        <v>1624</v>
+        <v>1618</v>
       </c>
       <c r="V412" s="5" t="s">
         <v>1497</v>
@@ -36063,7 +36049,7 @@
         <v>1488</v>
       </c>
       <c r="I413" s="5" t="s">
-        <v>1612</v>
+        <v>1606</v>
       </c>
       <c r="K413" s="5">
         <v>-31</v>
@@ -36084,7 +36070,7 @@
         <v>1493</v>
       </c>
       <c r="Q413" s="10" t="s">
-        <v>1622</v>
+        <v>1616</v>
       </c>
       <c r="V413" s="5" t="s">
         <v>1495</v>
@@ -37443,7 +37429,7 @@
         <v>1800</v>
       </c>
       <c r="P434" s="54" t="s">
-        <v>1602</v>
+        <v>1630</v>
       </c>
       <c r="Q434" s="55" t="s">
         <v>1578</v>
@@ -37508,7 +37494,7 @@
         <v>4800</v>
       </c>
       <c r="P435" s="54" t="s">
-        <v>1603</v>
+        <v>1630</v>
       </c>
       <c r="Q435" s="55" t="s">
         <v>1581</v>
@@ -37573,7 +37559,7 @@
         <v>9800</v>
       </c>
       <c r="P436" s="54" t="s">
-        <v>1599</v>
+        <v>1631</v>
       </c>
       <c r="Q436" s="55" t="s">
         <v>1579</v>
@@ -37638,7 +37624,7 @@
         <v>19800</v>
       </c>
       <c r="P437" s="54" t="s">
-        <v>1600</v>
+        <v>1631</v>
       </c>
       <c r="Q437" s="55" t="s">
         <v>1582</v>
@@ -37703,7 +37689,7 @@
         <v>29800</v>
       </c>
       <c r="P438" s="54" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="Q438" s="55" t="s">
         <v>1583</v>
@@ -37768,7 +37754,7 @@
         <v>49800</v>
       </c>
       <c r="P439" s="54" t="s">
-        <v>1604</v>
+        <v>1632</v>
       </c>
       <c r="Q439" s="55" t="s">
         <v>1584</v>
@@ -37827,19 +37813,19 @@
         <v>0</v>
       </c>
       <c r="N440" s="54" t="s">
-        <v>1620</v>
+        <v>1614</v>
       </c>
       <c r="O440" s="54">
         <v>99800</v>
       </c>
       <c r="P440" s="54" t="s">
-        <v>1605</v>
+        <v>1632</v>
       </c>
       <c r="Q440" s="55" t="s">
         <v>1580</v>
       </c>
       <c r="V440" s="54" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="W440" s="54">
         <v>9999999</v>
@@ -37874,10 +37860,10 @@
         <v>1</v>
       </c>
       <c r="G441" s="56" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="I441" s="56" t="s">
-        <v>1614</v>
+        <v>1608</v>
       </c>
       <c r="K441" s="56">
         <v>-31</v>
@@ -37895,13 +37881,13 @@
         <v>49800</v>
       </c>
       <c r="P441" s="56" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="Q441" s="57" t="s">
-        <v>1623</v>
+        <v>1617</v>
       </c>
       <c r="V441" s="56" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
       <c r="W441" s="56">
         <v>9999999</v>
@@ -37936,10 +37922,10 @@
         <v>1</v>
       </c>
       <c r="G442" s="56" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
       <c r="I442" s="56" t="s">
-        <v>1615</v>
+        <v>1609</v>
       </c>
       <c r="K442" s="56">
         <v>-31</v>
@@ -37957,13 +37943,13 @@
         <v>19800</v>
       </c>
       <c r="P442" s="56" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="Q442" s="57" t="s">
-        <v>1625</v>
+        <v>1619</v>
       </c>
       <c r="V442" s="56" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
       <c r="W442" s="56">
         <v>9999999</v>
@@ -37998,10 +37984,10 @@
         <v>1</v>
       </c>
       <c r="G443" s="56" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="I443" s="56" t="s">
-        <v>1616</v>
+        <v>1610</v>
       </c>
       <c r="K443" s="56">
         <v>-31</v>
@@ -38019,13 +38005,13 @@
         <v>9800</v>
       </c>
       <c r="P443" s="56" t="s">
+        <v>1615</v>
+      </c>
+      <c r="Q443" s="57" t="s">
         <v>1621</v>
       </c>
-      <c r="Q443" s="57" t="s">
-        <v>1627</v>
-      </c>
       <c r="V443" s="56" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
       <c r="W443" s="56">
         <v>9999999</v>
@@ -38060,10 +38046,10 @@
         <v>1</v>
       </c>
       <c r="G444" s="56" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="I444" s="56" t="s">
-        <v>1617</v>
+        <v>1611</v>
       </c>
       <c r="K444" s="56">
         <v>-31</v>
@@ -38081,13 +38067,13 @@
         <v>4800</v>
       </c>
       <c r="P444" s="56" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="Q444" s="57" t="s">
-        <v>1628</v>
+        <v>1622</v>
       </c>
       <c r="V444" s="56" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
       <c r="W444" s="56">
         <v>9999999</v>
@@ -38122,10 +38108,10 @@
         <v>1</v>
       </c>
       <c r="G445" s="56" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="I445" s="56" t="s">
-        <v>1618</v>
+        <v>1612</v>
       </c>
       <c r="K445" s="56">
         <v>-31</v>
@@ -38143,13 +38129,13 @@
         <v>2000</v>
       </c>
       <c r="P445" s="56" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="Q445" s="57" t="s">
-        <v>1630</v>
+        <v>1624</v>
       </c>
       <c r="V445" s="56" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="W445" s="56">
         <v>9999999</v>
@@ -38184,10 +38170,10 @@
         <v>1</v>
       </c>
       <c r="G446" s="56" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="I446" s="56" t="s">
-        <v>1619</v>
+        <v>1613</v>
       </c>
       <c r="K446" s="56">
         <v>-31</v>
@@ -38205,13 +38191,13 @@
         <v>600</v>
       </c>
       <c r="P446" s="56" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="Q446" s="57" t="s">
-        <v>1632</v>
+        <v>1626</v>
       </c>
       <c r="V446" s="56" t="s">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="W446" s="56">
         <v>9999999</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7357,10 +7357,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"2.4亿金币",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>"jing_bi",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7541,10 +7537,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>249800000,</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{last=10366,reset_time=0}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -7617,6 +7609,14 @@
   </si>
   <si>
     <t>{type="permission_class",class_value = "hlqjd_029_hlqjd_v8" }</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2.5亿金币",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000000,</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -10467,10 +10467,10 @@
   <dimension ref="A1:AM476"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V364" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q460" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X386" sqref="X386:Y394"/>
+      <selection pane="bottomRight" activeCell="Q475" sqref="Q475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -38367,7 +38367,7 @@
         <v>1576</v>
       </c>
       <c r="V440" s="5" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="W440" s="5">
         <v>9999999</v>
@@ -38780,7 +38780,7 @@
         <v>1672</v>
       </c>
       <c r="I447" s="54" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="K447" s="54">
         <v>-31</v>
@@ -38801,7 +38801,7 @@
         <v>1676</v>
       </c>
       <c r="Q447" s="55" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="V447" s="5" t="s">
         <v>595</v>
@@ -38848,7 +38848,7 @@
         <v>1673</v>
       </c>
       <c r="I448" s="54" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="K448" s="54">
         <v>-31</v>
@@ -38869,7 +38869,7 @@
         <v>1676</v>
       </c>
       <c r="Q448" s="55" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="V448" s="5" t="s">
         <v>595</v>
@@ -38913,7 +38913,7 @@
         <v>1674</v>
       </c>
       <c r="I449" s="54" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="K449" s="54">
         <v>-31</v>
@@ -38934,7 +38934,7 @@
         <v>1676</v>
       </c>
       <c r="Q449" s="55" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="V449" s="5" t="s">
         <v>551</v>
@@ -38981,7 +38981,7 @@
         <v>1654</v>
       </c>
       <c r="I450" s="66" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="K450" s="66">
         <v>-31</v>
@@ -39002,7 +39002,7 @@
         <v>1676</v>
       </c>
       <c r="Q450" s="67" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="V450" s="5" t="s">
         <v>551</v>
@@ -39049,7 +39049,7 @@
         <v>1655</v>
       </c>
       <c r="I451" s="66" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="K451" s="66">
         <v>-31</v>
@@ -39070,7 +39070,7 @@
         <v>1676</v>
       </c>
       <c r="Q451" s="67" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="V451" s="5" t="s">
         <v>551</v>
@@ -39114,7 +39114,7 @@
         <v>1656</v>
       </c>
       <c r="I452" s="66" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="K452" s="66">
         <v>-31</v>
@@ -39135,7 +39135,7 @@
         <v>1676</v>
       </c>
       <c r="Q452" s="67" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="V452" s="5" t="s">
         <v>551</v>
@@ -39182,7 +39182,7 @@
         <v>1657</v>
       </c>
       <c r="I453" s="54" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="K453" s="54">
         <v>-31</v>
@@ -39203,7 +39203,7 @@
         <v>1676</v>
       </c>
       <c r="Q453" s="55" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="V453" s="5" t="s">
         <v>551</v>
@@ -39250,7 +39250,7 @@
         <v>1658</v>
       </c>
       <c r="I454" s="54" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="K454" s="54">
         <v>-31</v>
@@ -39271,7 +39271,7 @@
         <v>1676</v>
       </c>
       <c r="Q454" s="55" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="V454" s="5" t="s">
         <v>551</v>
@@ -39315,7 +39315,7 @@
         <v>1659</v>
       </c>
       <c r="I455" s="54" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="K455" s="54">
         <v>-31</v>
@@ -39336,7 +39336,7 @@
         <v>1676</v>
       </c>
       <c r="Q455" s="55" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="V455" s="5" t="s">
         <v>551</v>
@@ -39383,7 +39383,7 @@
         <v>1660</v>
       </c>
       <c r="I456" s="66" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="K456" s="66">
         <v>-31</v>
@@ -39404,7 +39404,7 @@
         <v>1676</v>
       </c>
       <c r="Q456" s="67" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="V456" s="5" t="s">
         <v>551</v>
@@ -39451,7 +39451,7 @@
         <v>1661</v>
       </c>
       <c r="I457" s="66" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="K457" s="66">
         <v>-31</v>
@@ -39472,7 +39472,7 @@
         <v>1676</v>
       </c>
       <c r="Q457" s="67" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="V457" s="5" t="s">
         <v>551</v>
@@ -39516,7 +39516,7 @@
         <v>1662</v>
       </c>
       <c r="I458" s="66" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="K458" s="66">
         <v>-31</v>
@@ -39537,7 +39537,7 @@
         <v>1676</v>
       </c>
       <c r="Q458" s="67" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="V458" s="5" t="s">
         <v>551</v>
@@ -39584,7 +39584,7 @@
         <v>1663</v>
       </c>
       <c r="I459" s="54" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="K459" s="54">
         <v>-31</v>
@@ -39605,7 +39605,7 @@
         <v>1676</v>
       </c>
       <c r="Q459" s="55" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="V459" s="5" t="s">
         <v>551</v>
@@ -39652,7 +39652,7 @@
         <v>1664</v>
       </c>
       <c r="I460" s="54" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="K460" s="54">
         <v>-31</v>
@@ -39673,7 +39673,7 @@
         <v>1676</v>
       </c>
       <c r="Q460" s="55" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="V460" s="5" t="s">
         <v>551</v>
@@ -39717,7 +39717,7 @@
         <v>1665</v>
       </c>
       <c r="I461" s="54" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="K461" s="54">
         <v>-31</v>
@@ -39738,7 +39738,7 @@
         <v>1676</v>
       </c>
       <c r="Q461" s="55" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="V461" s="5" t="s">
         <v>551</v>
@@ -39785,7 +39785,7 @@
         <v>1666</v>
       </c>
       <c r="I462" s="66" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="K462" s="66">
         <v>-31</v>
@@ -39806,7 +39806,7 @@
         <v>1676</v>
       </c>
       <c r="Q462" s="67" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="V462" s="5" t="s">
         <v>551</v>
@@ -39853,7 +39853,7 @@
         <v>1667</v>
       </c>
       <c r="I463" s="66" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="K463" s="66">
         <v>-31</v>
@@ -39874,7 +39874,7 @@
         <v>1676</v>
       </c>
       <c r="Q463" s="67" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="V463" s="5" t="s">
         <v>551</v>
@@ -39918,7 +39918,7 @@
         <v>1668</v>
       </c>
       <c r="I464" s="66" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="K464" s="66">
         <v>-31</v>
@@ -39939,7 +39939,7 @@
         <v>1676</v>
       </c>
       <c r="Q464" s="67" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="V464" s="5" t="s">
         <v>551</v>
@@ -39986,7 +39986,7 @@
         <v>1669</v>
       </c>
       <c r="I465" s="54" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="K465" s="54">
         <v>-31</v>
@@ -40007,7 +40007,7 @@
         <v>1676</v>
       </c>
       <c r="Q465" s="55" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="V465" s="5" t="s">
         <v>551</v>
@@ -40054,7 +40054,7 @@
         <v>1670</v>
       </c>
       <c r="I466" s="54" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="K466" s="54">
         <v>-31</v>
@@ -40075,7 +40075,7 @@
         <v>1676</v>
       </c>
       <c r="Q466" s="55" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="V466" s="5" t="s">
         <v>551</v>
@@ -40119,7 +40119,7 @@
         <v>1671</v>
       </c>
       <c r="I467" s="54" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="K467" s="54">
         <v>-31</v>
@@ -40137,10 +40137,10 @@
         <v>249800</v>
       </c>
       <c r="P467" s="54" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="Q467" s="55" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="V467" s="5" t="s">
         <v>551</v>
@@ -40205,13 +40205,13 @@
         <v>600</v>
       </c>
       <c r="P468" s="60" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="Q468" s="61" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="V468" s="60" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="W468" s="60">
         <v>9999999</v>
@@ -40270,13 +40270,13 @@
         <v>3000</v>
       </c>
       <c r="P469" s="60" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="Q469" s="61" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="V469" s="60" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="W469" s="60">
         <v>9999999</v>
@@ -40335,13 +40335,13 @@
         <v>6800</v>
       </c>
       <c r="P470" s="60" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="Q470" s="61" t="s">
         <v>861</v>
       </c>
       <c r="V470" s="60" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="W470" s="60">
         <v>9999999</v>
@@ -40400,13 +40400,13 @@
         <v>9800</v>
       </c>
       <c r="P471" s="60" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="Q471" s="61" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="V471" s="60" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="W471" s="60">
         <v>9999999</v>
@@ -40465,13 +40465,13 @@
         <v>19800</v>
       </c>
       <c r="P472" s="60" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="Q472" s="61" t="s">
         <v>862</v>
       </c>
       <c r="V472" s="60" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="W472" s="60">
         <v>9999999</v>
@@ -40530,13 +40530,13 @@
         <v>49800</v>
       </c>
       <c r="P473" s="60" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="Q473" s="61" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="V473" s="60" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="W473" s="60">
         <v>9999999</v>
@@ -40595,13 +40595,13 @@
         <v>99800</v>
       </c>
       <c r="P474" s="58" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="Q474" s="59" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="V474" s="60" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="W474" s="58">
         <v>9999999</v>
@@ -40642,7 +40642,7 @@
         <v>1686</v>
       </c>
       <c r="I475" s="58" t="s">
-        <v>1694</v>
+        <v>1763</v>
       </c>
       <c r="K475" s="58">
         <v>-31</v>
@@ -40660,13 +40660,13 @@
         <v>249800</v>
       </c>
       <c r="P475" s="58" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="Q475" s="59" t="s">
-        <v>1745</v>
+        <v>1764</v>
       </c>
       <c r="V475" s="60" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="W475" s="58">
         <v>9999999</v>
@@ -41355,7 +41355,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="69" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C45" s="12">
         <v>1</v>
@@ -41369,7 +41369,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="69" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="C46" s="12">
         <v>1</v>
@@ -41383,7 +41383,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="69" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="C47" s="12">
         <v>1</v>
@@ -41467,7 +41467,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="C53" s="56">
         <v>1</v>
@@ -41481,7 +41481,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="C54" s="56">
         <v>1</v>
@@ -41495,7 +41495,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="C55" s="56">
         <v>1</v>
@@ -41509,7 +41509,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="C56" s="56">
         <v>1</v>
@@ -41523,7 +41523,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="C57" s="56">
         <v>1</v>
@@ -41537,7 +41537,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="C58" s="56">
         <v>1</v>
@@ -41551,7 +41551,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="C59" s="56">
         <v>1</v>
@@ -41565,7 +41565,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="C60" s="56">
         <v>1</v>
@@ -41579,7 +41579,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="C61" s="56">
         <v>1</v>
@@ -41593,7 +41593,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="C62" s="56">
         <v>1</v>
@@ -41607,7 +41607,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="C63" s="56">
         <v>1</v>
@@ -41621,7 +41621,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="C64" s="56">
         <v>1</v>
@@ -41635,7 +41635,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="C65" s="56">
         <v>1</v>
@@ -41649,7 +41649,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="C66" s="56">
         <v>1</v>

--- a/config_debug/shoping_config.xlsx
+++ b/config_debug/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="1785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="1783">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6900,809 +6900,801 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>双十一498元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一198元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一98元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一48元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一20元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一6元礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万","200万鱼币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","3000鱼币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"4980万","200万小游戏币","抽奖券*50",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万","50万小游戏币","抽奖券*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万","10万小游戏币","抽奖券*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万","3万小游戏币","抽奖券*10",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","1万小游戏币","抽奖券*4",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万","3000小游戏币","抽奖券*1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_11.11_cjq",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>49800000,2000000,50,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>19800000,500000,30,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,100000,20,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,30000,10,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,10000,4,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,3000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,3000,1,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元-1</t>
+  </si>
+  <si>
+    <t>聚划算98元-2</t>
+  </si>
+  <si>
+    <t>聚划算98元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算198元-1</t>
+  </si>
+  <si>
+    <t>聚划算198元-2</t>
+  </si>
+  <si>
+    <t>聚划算198元-2(10min)</t>
+  </si>
+  <si>
+    <t>{next=10259,last=10258,delay_permit_type="next_day",reset_time=0}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算8元-1</t>
+  </si>
+  <si>
+    <t>聚划算8元-2</t>
+  </si>
+  <si>
+    <t>聚划算8元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算38元-1</t>
+  </si>
+  <si>
+    <t>聚划算38元-2</t>
+  </si>
+  <si>
+    <t>聚划算38元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算498元-1</t>
+  </si>
+  <si>
+    <t>聚划算498元-2</t>
+  </si>
+  <si>
+    <t>聚划算498元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算998元-1</t>
+  </si>
+  <si>
+    <t>聚划算998元-2</t>
+  </si>
+  <si>
+    <t>聚划算998元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算2498元-1</t>
+  </si>
+  <si>
+    <t>聚划算2498元-2</t>
+  </si>
+  <si>
+    <t>聚划算2498元-2(10min)</t>
+  </si>
+  <si>
+    <t>聚划算38元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算38元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算98元2（10min）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚划算198元2（10min）</t>
+    <p